--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Desktop\Projects\Siedler_Masterdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88b1f18c208c1b3c/Desktop/dev/catan_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE32EC2E-9B9E-44F1-926B-8C9A92E83A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="349" documentId="13_ncr:1_{AE32EC2E-9B9E-44F1-926B-8C9A92E83A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BA787F3-97DD-4A5A-B6DD-AE471CB233BE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AO$47</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="59">
   <si>
     <t>season</t>
   </si>
@@ -211,6 +214,9 @@
   <si>
     <t>alle Sonder-SP inklusive Metropolen</t>
   </si>
+  <si>
+    <t>Online</t>
+  </si>
 </sst>
 </file>
 
@@ -263,14 +269,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -587,60 +592,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AO47"/>
+  <dimension ref="A1:AO56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
+      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
-    <col min="12" max="13" width="12.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5546875" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+    <row r="1" spans="1:41" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
       <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
@@ -665,7 +662,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -690,10 +687,10 @@
       <c r="H2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -790,11 +787,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2022</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>44639</v>
       </c>
       <c r="C3">
@@ -921,11 +918,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2022</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>44639</v>
       </c>
       <c r="C4">
@@ -1052,11 +1049,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>44639</v>
       </c>
       <c r="C5">
@@ -1183,11 +1180,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>44639</v>
       </c>
       <c r="C6">
@@ -1314,11 +1311,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2022</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>44639</v>
       </c>
       <c r="C7">
@@ -1445,11 +1442,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2022</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>44639</v>
       </c>
       <c r="C8">
@@ -1576,11 +1573,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>44639</v>
       </c>
       <c r="C9">
@@ -1707,11 +1704,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>44639</v>
       </c>
       <c r="C10">
@@ -1838,11 +1835,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>44639</v>
       </c>
       <c r="C11">
@@ -1969,11 +1966,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2022</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>44639</v>
       </c>
       <c r="C12">
@@ -2100,11 +2097,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2022</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>44639</v>
       </c>
       <c r="C13">
@@ -2231,11 +2228,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>44639</v>
       </c>
       <c r="C14">
@@ -2362,11 +2359,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2022</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>44639</v>
       </c>
       <c r="C15">
@@ -2493,11 +2490,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2022</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>44639</v>
       </c>
       <c r="C16">
@@ -2624,11 +2621,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2022</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>44639</v>
       </c>
       <c r="C17">
@@ -2755,11 +2752,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2022</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>44639</v>
       </c>
       <c r="C18">
@@ -2886,11 +2883,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2022</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>44639</v>
       </c>
       <c r="C19">
@@ -3017,11 +3014,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2022</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>44639</v>
       </c>
       <c r="C20">
@@ -3148,11 +3145,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2022</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>44639</v>
       </c>
       <c r="C21">
@@ -3279,11 +3276,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2022</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>44639</v>
       </c>
       <c r="C22">
@@ -3410,11 +3407,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2022</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>44639</v>
       </c>
       <c r="C23">
@@ -3541,11 +3538,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>44639</v>
       </c>
       <c r="C24">
@@ -3672,11 +3669,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2022</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>44639</v>
       </c>
       <c r="C25">
@@ -3803,11 +3800,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2022</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>44639</v>
       </c>
       <c r="C26">
@@ -3934,11 +3931,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2022</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>44639</v>
       </c>
       <c r="C27">
@@ -4068,11 +4065,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2022</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>44639</v>
       </c>
       <c r="C28">
@@ -4202,11 +4199,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2022</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>44639</v>
       </c>
       <c r="C29">
@@ -4336,11 +4333,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2022</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>44716</v>
       </c>
       <c r="C30">
@@ -4470,11 +4467,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2022</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>44716</v>
       </c>
       <c r="C31">
@@ -4604,11 +4601,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2022</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>44716</v>
       </c>
       <c r="C32">
@@ -4738,11 +4735,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2022</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>44716</v>
       </c>
       <c r="C33">
@@ -4872,11 +4869,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2022</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>44716</v>
       </c>
       <c r="C34">
@@ -5006,11 +5003,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2022</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>44716</v>
       </c>
       <c r="C35">
@@ -5140,11 +5137,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2022</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>44716</v>
       </c>
       <c r="C36">
@@ -5274,11 +5271,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2022</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>44716</v>
       </c>
       <c r="C37">
@@ -5408,11 +5405,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2022</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>44716</v>
       </c>
       <c r="C38">
@@ -5542,11 +5539,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2022</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>44716</v>
       </c>
       <c r="C39">
@@ -5676,11 +5673,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2022</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>44716</v>
       </c>
       <c r="C40">
@@ -5810,11 +5807,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2022</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>44716</v>
       </c>
       <c r="C41">
@@ -5944,11 +5941,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2022</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>44716</v>
       </c>
       <c r="C42">
@@ -6078,11 +6075,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2022</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>44716</v>
       </c>
       <c r="C43">
@@ -6212,11 +6209,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2022</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>44716</v>
       </c>
       <c r="C44">
@@ -6346,11 +6343,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2022</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>44716</v>
       </c>
       <c r="C45">
@@ -6378,7 +6375,7 @@
         <v>31</v>
       </c>
       <c r="K45">
-        <f t="shared" ref="K45:K47" si="260">SUM(N45:U45)</f>
+        <f t="shared" ref="K45:K56" si="260">SUM(N45:U45)</f>
         <v>30</v>
       </c>
       <c r="L45">
@@ -6480,11 +6477,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2022</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <v>44716</v>
       </c>
       <c r="C46">
@@ -6614,11 +6611,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2022</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <v>44716</v>
       </c>
       <c r="C47">
@@ -6748,7 +6745,1214 @@
         <v>8</v>
       </c>
     </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2022</v>
+      </c>
+      <c r="B48" s="5">
+        <v>44815</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="260"/>
+        <v>30</v>
+      </c>
+      <c r="L48">
+        <v>6</v>
+      </c>
+      <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <v>5</v>
+      </c>
+      <c r="P48">
+        <v>5</v>
+      </c>
+      <c r="Q48">
+        <v>4</v>
+      </c>
+      <c r="R48">
+        <v>5</v>
+      </c>
+      <c r="S48">
+        <v>3</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>5</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>1</v>
+      </c>
+      <c r="AH48">
+        <f>SUM(N48:N50)</f>
+        <v>18</v>
+      </c>
+      <c r="AI48">
+        <f>SUM(O48:O50)</f>
+        <v>8</v>
+      </c>
+      <c r="AJ48">
+        <f>SUM(P48:P50)</f>
+        <v>14</v>
+      </c>
+      <c r="AK48">
+        <f t="shared" ref="AK48" si="280">SUM(Q48:Q50)</f>
+        <v>18</v>
+      </c>
+      <c r="AL48">
+        <f t="shared" ref="AL48" si="281">SUM(R48:R50)</f>
+        <v>8</v>
+      </c>
+      <c r="AM48">
+        <f t="shared" ref="AM48" si="282">SUM(S48:S50)</f>
+        <v>18</v>
+      </c>
+      <c r="AN48">
+        <f t="shared" ref="AN48" si="283">SUM(T48:T50)</f>
+        <v>3</v>
+      </c>
+      <c r="AO48">
+        <f t="shared" ref="AO48" si="284">SUM(U48:U50)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2022</v>
+      </c>
+      <c r="B49" s="5">
+        <v>44815</v>
+      </c>
+      <c r="C49">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="260"/>
+        <v>31</v>
+      </c>
+      <c r="L49">
+        <v>5</v>
+      </c>
+      <c r="M49">
+        <v>4</v>
+      </c>
+      <c r="N49">
+        <v>7</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="P49">
+        <v>7</v>
+      </c>
+      <c r="Q49">
+        <v>5</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>7</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>1</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>1</v>
+      </c>
+      <c r="AH49">
+        <f>SUM(N48:N50)</f>
+        <v>18</v>
+      </c>
+      <c r="AI49">
+        <f t="shared" ref="AI49" si="285">SUM(O48:O50)</f>
+        <v>8</v>
+      </c>
+      <c r="AJ49">
+        <f t="shared" ref="AJ49" si="286">SUM(P48:P50)</f>
+        <v>14</v>
+      </c>
+      <c r="AK49">
+        <f t="shared" ref="AK49" si="287">SUM(Q48:Q50)</f>
+        <v>18</v>
+      </c>
+      <c r="AL49">
+        <f t="shared" ref="AL49" si="288">SUM(R48:R50)</f>
+        <v>8</v>
+      </c>
+      <c r="AM49">
+        <f t="shared" ref="AM49" si="289">SUM(S48:S50)</f>
+        <v>18</v>
+      </c>
+      <c r="AN49">
+        <f t="shared" ref="AN49" si="290">SUM(T48:T50)</f>
+        <v>3</v>
+      </c>
+      <c r="AO49">
+        <f t="shared" ref="AO49" si="291">SUM(U48:U50)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2022</v>
+      </c>
+      <c r="B50" s="5">
+        <v>44815</v>
+      </c>
+      <c r="C50">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>37</v>
+      </c>
+      <c r="J50" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="260"/>
+        <v>33</v>
+      </c>
+      <c r="L50">
+        <v>5</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>8</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>2</v>
+      </c>
+      <c r="Q50">
+        <v>9</v>
+      </c>
+      <c r="R50">
+        <v>3</v>
+      </c>
+      <c r="S50">
+        <v>8</v>
+      </c>
+      <c r="T50">
+        <v>3</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>1</v>
+      </c>
+      <c r="AH50">
+        <f>SUM(N48:N50)</f>
+        <v>18</v>
+      </c>
+      <c r="AI50">
+        <f t="shared" ref="AI50" si="292">SUM(O48:O50)</f>
+        <v>8</v>
+      </c>
+      <c r="AJ50">
+        <f t="shared" ref="AJ50" si="293">SUM(P48:P50)</f>
+        <v>14</v>
+      </c>
+      <c r="AK50">
+        <f t="shared" ref="AK50" si="294">SUM(Q48:Q50)</f>
+        <v>18</v>
+      </c>
+      <c r="AL50">
+        <f t="shared" ref="AL50" si="295">SUM(R48:R50)</f>
+        <v>8</v>
+      </c>
+      <c r="AM50">
+        <f t="shared" ref="AM50" si="296">SUM(S48:S50)</f>
+        <v>18</v>
+      </c>
+      <c r="AN50">
+        <f t="shared" ref="AN50" si="297">SUM(T48:T50)</f>
+        <v>3</v>
+      </c>
+      <c r="AO50">
+        <f t="shared" ref="AO50" si="298">SUM(U48:U50)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2022</v>
+      </c>
+      <c r="B51" s="5">
+        <v>44815</v>
+      </c>
+      <c r="C51">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51">
+        <v>12</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" t="s">
+        <v>33</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="260"/>
+        <v>24</v>
+      </c>
+      <c r="L51">
+        <v>6</v>
+      </c>
+      <c r="M51">
+        <v>5</v>
+      </c>
+      <c r="N51">
+        <v>5</v>
+      </c>
+      <c r="O51">
+        <v>4</v>
+      </c>
+      <c r="P51">
+        <v>4</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+      <c r="R51">
+        <v>4</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>4</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>1</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>1</v>
+      </c>
+      <c r="AH51">
+        <f>SUM(N51:N53)</f>
+        <v>19</v>
+      </c>
+      <c r="AI51">
+        <f>SUM(O51:O53)</f>
+        <v>12</v>
+      </c>
+      <c r="AJ51">
+        <f>SUM(P51:P53)</f>
+        <v>9</v>
+      </c>
+      <c r="AK51">
+        <f t="shared" ref="AK51" si="299">SUM(Q51:Q53)</f>
+        <v>18</v>
+      </c>
+      <c r="AL51">
+        <f t="shared" ref="AL51" si="300">SUM(R51:R53)</f>
+        <v>8</v>
+      </c>
+      <c r="AM51">
+        <f t="shared" ref="AM51" si="301">SUM(S51:S53)</f>
+        <v>14</v>
+      </c>
+      <c r="AN51">
+        <f t="shared" ref="AN51" si="302">SUM(T51:T53)</f>
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <f t="shared" ref="AO51" si="303">SUM(U51:U53)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2022</v>
+      </c>
+      <c r="B52" s="5">
+        <v>44815</v>
+      </c>
+      <c r="C52">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <v>13</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" t="s">
+        <v>33</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="260"/>
+        <v>31</v>
+      </c>
+      <c r="L52">
+        <v>6</v>
+      </c>
+      <c r="M52">
+        <v>5</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>4</v>
+      </c>
+      <c r="Q52">
+        <v>10</v>
+      </c>
+      <c r="R52">
+        <v>4</v>
+      </c>
+      <c r="S52">
+        <v>5</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>1</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <f>SUM(N51:N53)</f>
+        <v>19</v>
+      </c>
+      <c r="AI52">
+        <f t="shared" ref="AI52" si="304">SUM(O51:O53)</f>
+        <v>12</v>
+      </c>
+      <c r="AJ52">
+        <f t="shared" ref="AJ52" si="305">SUM(P51:P53)</f>
+        <v>9</v>
+      </c>
+      <c r="AK52">
+        <f t="shared" ref="AK52" si="306">SUM(Q51:Q53)</f>
+        <v>18</v>
+      </c>
+      <c r="AL52">
+        <f t="shared" ref="AL52" si="307">SUM(R51:R53)</f>
+        <v>8</v>
+      </c>
+      <c r="AM52">
+        <f t="shared" ref="AM52" si="308">SUM(S51:S53)</f>
+        <v>14</v>
+      </c>
+      <c r="AN52">
+        <f t="shared" ref="AN52" si="309">SUM(T51:T53)</f>
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <f t="shared" ref="AO52" si="310">SUM(U51:U53)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2022</v>
+      </c>
+      <c r="B53" s="5">
+        <v>44815</v>
+      </c>
+      <c r="C53">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53" t="s">
+        <v>37</v>
+      </c>
+      <c r="J53" t="s">
+        <v>33</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="260"/>
+        <v>30</v>
+      </c>
+      <c r="L53">
+        <v>6</v>
+      </c>
+      <c r="M53">
+        <v>4</v>
+      </c>
+      <c r="N53">
+        <v>9</v>
+      </c>
+      <c r="O53">
+        <v>5</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>5</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>9</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>1</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
+      <c r="AH53">
+        <f>SUM(N51:N53)</f>
+        <v>19</v>
+      </c>
+      <c r="AI53">
+        <f t="shared" ref="AI53" si="311">SUM(O51:O53)</f>
+        <v>12</v>
+      </c>
+      <c r="AJ53">
+        <f t="shared" ref="AJ53" si="312">SUM(P51:P53)</f>
+        <v>9</v>
+      </c>
+      <c r="AK53">
+        <f t="shared" ref="AK53" si="313">SUM(Q51:Q53)</f>
+        <v>18</v>
+      </c>
+      <c r="AL53">
+        <f t="shared" ref="AL53" si="314">SUM(R51:R53)</f>
+        <v>8</v>
+      </c>
+      <c r="AM53">
+        <f t="shared" ref="AM53" si="315">SUM(S51:S53)</f>
+        <v>14</v>
+      </c>
+      <c r="AN53">
+        <f t="shared" ref="AN53" si="316">SUM(T51:T53)</f>
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <f t="shared" ref="AO53" si="317">SUM(U51:U53)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2022</v>
+      </c>
+      <c r="B54" s="5">
+        <v>44815</v>
+      </c>
+      <c r="C54">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="260"/>
+        <v>34</v>
+      </c>
+      <c r="L54">
+        <v>5</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>4</v>
+      </c>
+      <c r="P54">
+        <v>13</v>
+      </c>
+      <c r="Q54">
+        <v>3</v>
+      </c>
+      <c r="R54">
+        <v>5</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>9</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>1</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <f>SUM(N54:N56)</f>
+        <v>11</v>
+      </c>
+      <c r="AI54">
+        <f>SUM(O54:O56)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ54">
+        <f>SUM(P54:P56)</f>
+        <v>21</v>
+      </c>
+      <c r="AK54">
+        <f t="shared" ref="AK54" si="318">SUM(Q54:Q56)</f>
+        <v>15</v>
+      </c>
+      <c r="AL54">
+        <f t="shared" ref="AL54" si="319">SUM(R54:R56)</f>
+        <v>7</v>
+      </c>
+      <c r="AM54">
+        <f t="shared" ref="AM54" si="320">SUM(S54:S56)</f>
+        <v>9</v>
+      </c>
+      <c r="AN54">
+        <f t="shared" ref="AN54" si="321">SUM(T54:T56)</f>
+        <v>2</v>
+      </c>
+      <c r="AO54">
+        <f t="shared" ref="AO54" si="322">SUM(U54:U56)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2022</v>
+      </c>
+      <c r="B55" s="5">
+        <v>44815</v>
+      </c>
+      <c r="C55">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="260"/>
+        <v>34</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>4</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55">
+        <v>14</v>
+      </c>
+      <c r="P55">
+        <v>5</v>
+      </c>
+      <c r="Q55">
+        <v>7</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>4</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <f>SUM(N54:N56)</f>
+        <v>11</v>
+      </c>
+      <c r="AI55">
+        <f t="shared" ref="AI55" si="323">SUM(O54:O56)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ55">
+        <f t="shared" ref="AJ55" si="324">SUM(P54:P56)</f>
+        <v>21</v>
+      </c>
+      <c r="AK55">
+        <f t="shared" ref="AK55" si="325">SUM(Q54:Q56)</f>
+        <v>15</v>
+      </c>
+      <c r="AL55">
+        <f t="shared" ref="AL55" si="326">SUM(R54:R56)</f>
+        <v>7</v>
+      </c>
+      <c r="AM55">
+        <f t="shared" ref="AM55" si="327">SUM(S54:S56)</f>
+        <v>9</v>
+      </c>
+      <c r="AN55">
+        <f t="shared" ref="AN55" si="328">SUM(T54:T56)</f>
+        <v>2</v>
+      </c>
+      <c r="AO55">
+        <f t="shared" ref="AO55" si="329">SUM(U54:U56)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2022</v>
+      </c>
+      <c r="B56" s="5">
+        <v>44815</v>
+      </c>
+      <c r="C56">
+        <v>16</v>
+      </c>
+      <c r="D56" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56">
+        <v>13</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>37</v>
+      </c>
+      <c r="J56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="260"/>
+        <v>30</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="N56">
+        <v>7</v>
+      </c>
+      <c r="O56">
+        <v>6</v>
+      </c>
+      <c r="P56">
+        <v>3</v>
+      </c>
+      <c r="Q56">
+        <v>5</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>5</v>
+      </c>
+      <c r="T56">
+        <v>2</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <f>SUM(N54:N56)</f>
+        <v>11</v>
+      </c>
+      <c r="AI56">
+        <f t="shared" ref="AI56" si="330">SUM(O54:O56)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ56">
+        <f t="shared" ref="AJ56" si="331">SUM(P54:P56)</f>
+        <v>21</v>
+      </c>
+      <c r="AK56">
+        <f t="shared" ref="AK56" si="332">SUM(Q54:Q56)</f>
+        <v>15</v>
+      </c>
+      <c r="AL56">
+        <f t="shared" ref="AL56" si="333">SUM(R54:R56)</f>
+        <v>7</v>
+      </c>
+      <c r="AM56">
+        <f t="shared" ref="AM56" si="334">SUM(S54:S56)</f>
+        <v>9</v>
+      </c>
+      <c r="AN56">
+        <f t="shared" ref="AN56" si="335">SUM(T54:T56)</f>
+        <v>2</v>
+      </c>
+      <c r="AO56">
+        <f t="shared" ref="AO56" si="336">SUM(U54:U56)</f>
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:AO47" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:AA8 V3:W41 X9:Y41 V44:Y1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>
@@ -6792,9 +7996,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -6805,7 +8009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -6816,7 +8020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88b1f18c208c1b3c/Desktop/dev/catan_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Desktop\Projects\dev\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="349" documentId="13_ncr:1_{AE32EC2E-9B9E-44F1-926B-8C9A92E83A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BA787F3-97DD-4A5A-B6DD-AE471CB233BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575C5AD2-E9BD-43A5-9C56-7C72A28BB45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="59">
   <si>
     <t>season</t>
   </si>
@@ -592,49 +592,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AO56"/>
+  <dimension ref="A1:AO65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G1" s="1" t="s">
         <v>57</v>
       </c>
@@ -662,7 +662,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -787,7 +787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -918,7 +918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2022</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2022</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2022</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2022</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2022</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2022</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2022</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2022</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2022</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2022</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2022</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2022</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2022</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2022</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2022</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2022</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2022</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2022</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2022</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2022</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2022</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2022</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>31</v>
       </c>
       <c r="K45">
-        <f t="shared" ref="K45:K56" si="260">SUM(N45:U45)</f>
+        <f t="shared" ref="K45:K65" si="260">SUM(N45:U45)</f>
         <v>30</v>
       </c>
       <c r="L45">
@@ -6477,7 +6477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2022</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2022</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2022</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2022</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2022</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2022</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>44815</v>
       </c>
       <c r="C51">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
         <v>58</v>
@@ -7281,7 +7281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2022</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>44815</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
         <v>58</v>
@@ -7415,7 +7415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2022</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>44815</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
         <v>58</v>
@@ -7549,7 +7549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2022</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>44815</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
         <v>58</v>
@@ -7683,7 +7683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2022</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>44815</v>
       </c>
       <c r="C55">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
         <v>58</v>
@@ -7817,7 +7817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2022</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>44815</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
         <v>58</v>
@@ -7949,12 +7949,1119 @@
       <c r="AO56">
         <f t="shared" ref="AO56" si="336">SUM(U54:U56)</f>
         <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2022</v>
+      </c>
+      <c r="B57" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C57">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57">
+        <v>14</v>
+      </c>
+      <c r="G57">
+        <v>7</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J57" t="s">
+        <v>32</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="260"/>
+        <v>28</v>
+      </c>
+      <c r="L57">
+        <v>5</v>
+      </c>
+      <c r="M57">
+        <v>5</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57">
+        <v>5</v>
+      </c>
+      <c r="P57">
+        <v>4</v>
+      </c>
+      <c r="Q57">
+        <v>3</v>
+      </c>
+      <c r="R57">
+        <v>5</v>
+      </c>
+      <c r="S57">
+        <v>3</v>
+      </c>
+      <c r="T57">
+        <v>5</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
+      <c r="AH57">
+        <f>SUM(N57:N59)</f>
+        <v>20</v>
+      </c>
+      <c r="AI57">
+        <f t="shared" ref="AI57:AO57" si="337">SUM(O57:O59)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ57">
+        <f t="shared" si="337"/>
+        <v>8</v>
+      </c>
+      <c r="AK57">
+        <f t="shared" si="337"/>
+        <v>17</v>
+      </c>
+      <c r="AL57">
+        <f t="shared" si="337"/>
+        <v>8</v>
+      </c>
+      <c r="AM57">
+        <f t="shared" si="337"/>
+        <v>17</v>
+      </c>
+      <c r="AN57">
+        <f t="shared" si="337"/>
+        <v>5</v>
+      </c>
+      <c r="AO57">
+        <f t="shared" si="337"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2022</v>
+      </c>
+      <c r="B58" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C58">
+        <v>19</v>
+      </c>
+      <c r="D58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58">
+        <v>11</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="260"/>
+        <v>31</v>
+      </c>
+      <c r="L58">
+        <v>5</v>
+      </c>
+      <c r="M58">
+        <v>5</v>
+      </c>
+      <c r="N58">
+        <v>5</v>
+      </c>
+      <c r="O58">
+        <v>4</v>
+      </c>
+      <c r="P58">
+        <v>4</v>
+      </c>
+      <c r="Q58">
+        <v>10</v>
+      </c>
+      <c r="R58">
+        <v>3</v>
+      </c>
+      <c r="S58">
+        <v>5</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <f>SUM(N57:N59)</f>
+        <v>20</v>
+      </c>
+      <c r="AI58">
+        <f t="shared" ref="AI58:AO58" si="338">SUM(O57:O59)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ58">
+        <f t="shared" si="338"/>
+        <v>8</v>
+      </c>
+      <c r="AK58">
+        <f t="shared" si="338"/>
+        <v>17</v>
+      </c>
+      <c r="AL58">
+        <f t="shared" si="338"/>
+        <v>8</v>
+      </c>
+      <c r="AM58">
+        <f t="shared" si="338"/>
+        <v>17</v>
+      </c>
+      <c r="AN58">
+        <f t="shared" si="338"/>
+        <v>5</v>
+      </c>
+      <c r="AO58">
+        <f t="shared" si="338"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2022</v>
+      </c>
+      <c r="B59" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C59">
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59">
+        <v>11</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59" t="s">
+        <v>37</v>
+      </c>
+      <c r="J59" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="260"/>
+        <v>25</v>
+      </c>
+      <c r="L59">
+        <v>5</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>12</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>4</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>9</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <f>SUM(N57:N59)</f>
+        <v>20</v>
+      </c>
+      <c r="AI59">
+        <f t="shared" ref="AI59:AO59" si="339">SUM(O57:O59)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ59">
+        <f t="shared" si="339"/>
+        <v>8</v>
+      </c>
+      <c r="AK59">
+        <f t="shared" si="339"/>
+        <v>17</v>
+      </c>
+      <c r="AL59">
+        <f t="shared" si="339"/>
+        <v>8</v>
+      </c>
+      <c r="AM59">
+        <f t="shared" si="339"/>
+        <v>17</v>
+      </c>
+      <c r="AN59">
+        <f t="shared" si="339"/>
+        <v>5</v>
+      </c>
+      <c r="AO59">
+        <f t="shared" si="339"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2022</v>
+      </c>
+      <c r="B60" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60" t="s">
+        <v>36</v>
+      </c>
+      <c r="J60" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="260"/>
+        <v>29</v>
+      </c>
+      <c r="L60">
+        <v>5</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>5</v>
+      </c>
+      <c r="O60">
+        <v>6</v>
+      </c>
+      <c r="P60">
+        <v>4</v>
+      </c>
+      <c r="Q60">
+        <v>5</v>
+      </c>
+      <c r="R60">
+        <v>3</v>
+      </c>
+      <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>4</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>1</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>0</v>
+      </c>
+      <c r="AH60">
+        <f>SUM(N60:N62)</f>
+        <v>7</v>
+      </c>
+      <c r="AI60">
+        <f t="shared" ref="AI60" si="340">SUM(O60:O62)</f>
+        <v>19</v>
+      </c>
+      <c r="AJ60">
+        <f t="shared" ref="AJ60" si="341">SUM(P60:P62)</f>
+        <v>19</v>
+      </c>
+      <c r="AK60">
+        <f t="shared" ref="AK60" si="342">SUM(Q60:Q62)</f>
+        <v>23</v>
+      </c>
+      <c r="AL60">
+        <f t="shared" ref="AL60" si="343">SUM(R60:R62)</f>
+        <v>10</v>
+      </c>
+      <c r="AM60">
+        <f t="shared" ref="AM60" si="344">SUM(S60:S62)</f>
+        <v>2</v>
+      </c>
+      <c r="AN60">
+        <f t="shared" ref="AN60" si="345">SUM(T60:T62)</f>
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <f t="shared" ref="AO60" si="346">SUM(U60:U62)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2022</v>
+      </c>
+      <c r="B61" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="260"/>
+        <v>34</v>
+      </c>
+      <c r="L61">
+        <v>6</v>
+      </c>
+      <c r="M61">
+        <v>4</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>8</v>
+      </c>
+      <c r="P61">
+        <v>6</v>
+      </c>
+      <c r="Q61">
+        <v>10</v>
+      </c>
+      <c r="R61">
+        <v>4</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>6</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <f>SUM(N60:N62)</f>
+        <v>7</v>
+      </c>
+      <c r="AI61">
+        <f t="shared" ref="AI61" si="347">SUM(O60:O62)</f>
+        <v>19</v>
+      </c>
+      <c r="AJ61">
+        <f t="shared" ref="AJ61" si="348">SUM(P60:P62)</f>
+        <v>19</v>
+      </c>
+      <c r="AK61">
+        <f t="shared" ref="AK61" si="349">SUM(Q60:Q62)</f>
+        <v>23</v>
+      </c>
+      <c r="AL61">
+        <f t="shared" ref="AL61" si="350">SUM(R60:R62)</f>
+        <v>10</v>
+      </c>
+      <c r="AM61">
+        <f t="shared" ref="AM61" si="351">SUM(S60:S62)</f>
+        <v>2</v>
+      </c>
+      <c r="AN61">
+        <f t="shared" ref="AN61" si="352">SUM(T60:T62)</f>
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <f t="shared" ref="AO61" si="353">SUM(U60:U62)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2022</v>
+      </c>
+      <c r="B62" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62">
+        <v>13</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="260"/>
+        <v>36</v>
+      </c>
+      <c r="L62">
+        <v>6</v>
+      </c>
+      <c r="M62">
+        <v>5</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62">
+        <v>5</v>
+      </c>
+      <c r="P62">
+        <v>9</v>
+      </c>
+      <c r="Q62">
+        <v>8</v>
+      </c>
+      <c r="R62">
+        <v>3</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>9</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <f>SUM(N60:N62)</f>
+        <v>7</v>
+      </c>
+      <c r="AI62">
+        <f t="shared" ref="AI62" si="354">SUM(O60:O62)</f>
+        <v>19</v>
+      </c>
+      <c r="AJ62">
+        <f t="shared" ref="AJ62" si="355">SUM(P60:P62)</f>
+        <v>19</v>
+      </c>
+      <c r="AK62">
+        <f t="shared" ref="AK62" si="356">SUM(Q60:Q62)</f>
+        <v>23</v>
+      </c>
+      <c r="AL62">
+        <f t="shared" ref="AL62" si="357">SUM(R60:R62)</f>
+        <v>10</v>
+      </c>
+      <c r="AM62">
+        <f t="shared" ref="AM62" si="358">SUM(S60:S62)</f>
+        <v>2</v>
+      </c>
+      <c r="AN62">
+        <f t="shared" ref="AN62" si="359">SUM(T60:T62)</f>
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <f t="shared" ref="AO62" si="360">SUM(U60:U62)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2022</v>
+      </c>
+      <c r="B63" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C63">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63">
+        <v>13</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>36</v>
+      </c>
+      <c r="J63" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="260"/>
+        <v>30</v>
+      </c>
+      <c r="L63">
+        <v>5</v>
+      </c>
+      <c r="M63">
+        <v>5</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>12</v>
+      </c>
+      <c r="P63">
+        <v>3</v>
+      </c>
+      <c r="Q63">
+        <v>5</v>
+      </c>
+      <c r="R63">
+        <v>3</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>3</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2022</v>
+      </c>
+      <c r="B64" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C64">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64">
+        <v>11</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" t="s">
+        <v>31</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="260"/>
+        <v>30</v>
+      </c>
+      <c r="L64">
+        <v>5</v>
+      </c>
+      <c r="M64">
+        <v>5</v>
+      </c>
+      <c r="N64">
+        <v>5</v>
+      </c>
+      <c r="O64">
+        <v>2</v>
+      </c>
+      <c r="P64">
+        <v>3</v>
+      </c>
+      <c r="Q64">
+        <v>4</v>
+      </c>
+      <c r="R64">
+        <v>8</v>
+      </c>
+      <c r="S64">
+        <v>5</v>
+      </c>
+      <c r="T64">
+        <v>3</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>1</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2022</v>
+      </c>
+      <c r="B65" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C65">
+        <v>21</v>
+      </c>
+      <c r="D65" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65" t="s">
+        <v>37</v>
+      </c>
+      <c r="J65" t="s">
+        <v>31</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="260"/>
+        <v>33</v>
+      </c>
+      <c r="L65">
+        <v>6</v>
+      </c>
+      <c r="M65">
+        <v>5</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65">
+        <v>4</v>
+      </c>
+      <c r="P65">
+        <v>3</v>
+      </c>
+      <c r="Q65">
+        <v>10</v>
+      </c>
+      <c r="R65">
+        <v>7</v>
+      </c>
+      <c r="S65">
+        <v>3</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>3</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>1</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:AO47" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:AA8 V3:W41 X9:Y41 V44:Y1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:AA8 V3:W41 X9:Y41 V44:Y56 V58:Y1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -7996,9 +9103,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -8009,7 +9116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -8020,7 +9127,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Desktop\Projects\dev\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575C5AD2-E9BD-43A5-9C56-7C72A28BB45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB9B884-6B2C-4700-B874-AEAFF0384B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="59">
   <si>
     <t>season</t>
   </si>
@@ -592,13 +592,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AO65"/>
+  <dimension ref="A1:AO77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
+      <selection pane="bottomRight" activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6375,7 +6375,7 @@
         <v>31</v>
       </c>
       <c r="K45">
-        <f t="shared" ref="K45:K65" si="260">SUM(N45:U45)</f>
+        <f t="shared" ref="K45:K77" si="260">SUM(N45:U45)</f>
         <v>30</v>
       </c>
       <c r="L45">
@@ -8853,6 +8853,41 @@
       <c r="AF63">
         <v>1</v>
       </c>
+      <c r="AG63">
+        <v>0</v>
+      </c>
+      <c r="AH63">
+        <f>SUM(N63:N65)</f>
+        <v>10</v>
+      </c>
+      <c r="AI63">
+        <f t="shared" ref="AI63" si="361">SUM(O63:O65)</f>
+        <v>18</v>
+      </c>
+      <c r="AJ63">
+        <f t="shared" ref="AJ63" si="362">SUM(P63:P65)</f>
+        <v>9</v>
+      </c>
+      <c r="AK63">
+        <f t="shared" ref="AK63" si="363">SUM(Q63:Q65)</f>
+        <v>19</v>
+      </c>
+      <c r="AL63">
+        <f t="shared" ref="AL63" si="364">SUM(R63:R65)</f>
+        <v>18</v>
+      </c>
+      <c r="AM63">
+        <f t="shared" ref="AM63" si="365">SUM(S63:S65)</f>
+        <v>10</v>
+      </c>
+      <c r="AN63">
+        <f t="shared" ref="AN63" si="366">SUM(T63:T65)</f>
+        <v>6</v>
+      </c>
+      <c r="AO63">
+        <f t="shared" ref="AO63" si="367">SUM(U63:U65)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A64">
@@ -8955,8 +8990,40 @@
       <c r="AG64">
         <v>0</v>
       </c>
+      <c r="AH64">
+        <f>SUM(N63:N65)</f>
+        <v>10</v>
+      </c>
+      <c r="AI64">
+        <f t="shared" ref="AI64" si="368">SUM(O63:O65)</f>
+        <v>18</v>
+      </c>
+      <c r="AJ64">
+        <f t="shared" ref="AJ64" si="369">SUM(P63:P65)</f>
+        <v>9</v>
+      </c>
+      <c r="AK64">
+        <f t="shared" ref="AK64" si="370">SUM(Q63:Q65)</f>
+        <v>19</v>
+      </c>
+      <c r="AL64">
+        <f t="shared" ref="AL64" si="371">SUM(R63:R65)</f>
+        <v>18</v>
+      </c>
+      <c r="AM64">
+        <f t="shared" ref="AM64" si="372">SUM(S63:S65)</f>
+        <v>10</v>
+      </c>
+      <c r="AN64">
+        <f t="shared" ref="AN64" si="373">SUM(T63:T65)</f>
+        <v>6</v>
+      </c>
+      <c r="AO64">
+        <f t="shared" ref="AO64" si="374">SUM(U63:U65)</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2022</v>
       </c>
@@ -9056,6 +9123,1646 @@
       </c>
       <c r="AG65">
         <v>0</v>
+      </c>
+      <c r="AH65">
+        <f>SUM(N63:N65)</f>
+        <v>10</v>
+      </c>
+      <c r="AI65">
+        <f t="shared" ref="AI65" si="375">SUM(O63:O65)</f>
+        <v>18</v>
+      </c>
+      <c r="AJ65">
+        <f t="shared" ref="AJ65" si="376">SUM(P63:P65)</f>
+        <v>9</v>
+      </c>
+      <c r="AK65">
+        <f t="shared" ref="AK65" si="377">SUM(Q63:Q65)</f>
+        <v>19</v>
+      </c>
+      <c r="AL65">
+        <f t="shared" ref="AL65" si="378">SUM(R63:R65)</f>
+        <v>18</v>
+      </c>
+      <c r="AM65">
+        <f t="shared" ref="AM65" si="379">SUM(S63:S65)</f>
+        <v>10</v>
+      </c>
+      <c r="AN65">
+        <f t="shared" ref="AN65" si="380">SUM(T63:T65)</f>
+        <v>6</v>
+      </c>
+      <c r="AO65">
+        <f t="shared" ref="AO65" si="381">SUM(U63:U65)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2022</v>
+      </c>
+      <c r="B66" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C66">
+        <v>22</v>
+      </c>
+      <c r="D66" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66" t="s">
+        <v>36</v>
+      </c>
+      <c r="J66" t="s">
+        <v>31</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="260"/>
+        <v>29</v>
+      </c>
+      <c r="L66">
+        <v>5</v>
+      </c>
+      <c r="M66">
+        <v>5</v>
+      </c>
+      <c r="N66">
+        <v>7</v>
+      </c>
+      <c r="O66">
+        <v>4</v>
+      </c>
+      <c r="P66">
+        <v>3</v>
+      </c>
+      <c r="Q66">
+        <v>4</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <v>7</v>
+      </c>
+      <c r="T66">
+        <v>2</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>0</v>
+      </c>
+      <c r="AH66">
+        <f>SUM(N66:N68)</f>
+        <v>24</v>
+      </c>
+      <c r="AI66">
+        <f t="shared" ref="AI66" si="382">SUM(O66:O68)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ66">
+        <f t="shared" ref="AJ66" si="383">SUM(P66:P68)</f>
+        <v>13</v>
+      </c>
+      <c r="AK66">
+        <f t="shared" ref="AK66" si="384">SUM(Q66:Q68)</f>
+        <v>11</v>
+      </c>
+      <c r="AL66">
+        <f t="shared" ref="AL66" si="385">SUM(R66:R68)</f>
+        <v>6</v>
+      </c>
+      <c r="AM66">
+        <f t="shared" ref="AM66" si="386">SUM(S66:S68)</f>
+        <v>24</v>
+      </c>
+      <c r="AN66">
+        <f t="shared" ref="AN66" si="387">SUM(T66:T68)</f>
+        <v>2</v>
+      </c>
+      <c r="AO66">
+        <f t="shared" ref="AO66" si="388">SUM(U66:U68)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2022</v>
+      </c>
+      <c r="B67" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C67">
+        <v>22</v>
+      </c>
+      <c r="D67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" t="s">
+        <v>31</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="260"/>
+        <v>33</v>
+      </c>
+      <c r="L67">
+        <v>5</v>
+      </c>
+      <c r="M67">
+        <v>5</v>
+      </c>
+      <c r="N67">
+        <v>9</v>
+      </c>
+      <c r="O67">
+        <v>5</v>
+      </c>
+      <c r="P67">
+        <v>2</v>
+      </c>
+      <c r="Q67">
+        <v>4</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>9</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>2</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>1</v>
+      </c>
+      <c r="AH67">
+        <f>SUM(N66:N68)</f>
+        <v>24</v>
+      </c>
+      <c r="AI67">
+        <f t="shared" ref="AI67" si="389">SUM(O66:O68)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ67">
+        <f t="shared" ref="AJ67" si="390">SUM(P66:P68)</f>
+        <v>13</v>
+      </c>
+      <c r="AK67">
+        <f t="shared" ref="AK67" si="391">SUM(Q66:Q68)</f>
+        <v>11</v>
+      </c>
+      <c r="AL67">
+        <f t="shared" ref="AL67" si="392">SUM(R66:R68)</f>
+        <v>6</v>
+      </c>
+      <c r="AM67">
+        <f t="shared" ref="AM67" si="393">SUM(S66:S68)</f>
+        <v>24</v>
+      </c>
+      <c r="AN67">
+        <f t="shared" ref="AN67" si="394">SUM(T66:T68)</f>
+        <v>2</v>
+      </c>
+      <c r="AO67">
+        <f t="shared" ref="AO67" si="395">SUM(U66:U68)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2022</v>
+      </c>
+      <c r="B68" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C68">
+        <v>22</v>
+      </c>
+      <c r="D68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68">
+        <v>13</v>
+      </c>
+      <c r="G68">
+        <v>6</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>37</v>
+      </c>
+      <c r="J68" t="s">
+        <v>31</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="260"/>
+        <v>32</v>
+      </c>
+      <c r="L68">
+        <v>4</v>
+      </c>
+      <c r="M68">
+        <v>4</v>
+      </c>
+      <c r="N68">
+        <v>8</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>8</v>
+      </c>
+      <c r="Q68">
+        <v>3</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68">
+        <v>8</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>3</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>1</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <f>SUM(N66:N68)</f>
+        <v>24</v>
+      </c>
+      <c r="AI68">
+        <f t="shared" ref="AI68" si="396">SUM(O66:O68)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ68">
+        <f t="shared" ref="AJ68" si="397">SUM(P66:P68)</f>
+        <v>13</v>
+      </c>
+      <c r="AK68">
+        <f t="shared" ref="AK68" si="398">SUM(Q66:Q68)</f>
+        <v>11</v>
+      </c>
+      <c r="AL68">
+        <f t="shared" ref="AL68" si="399">SUM(R66:R68)</f>
+        <v>6</v>
+      </c>
+      <c r="AM68">
+        <f t="shared" ref="AM68" si="400">SUM(S66:S68)</f>
+        <v>24</v>
+      </c>
+      <c r="AN68">
+        <f t="shared" ref="AN68" si="401">SUM(T66:T68)</f>
+        <v>2</v>
+      </c>
+      <c r="AO68">
+        <f t="shared" ref="AO68" si="402">SUM(U66:U68)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2022</v>
+      </c>
+      <c r="B69" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C69">
+        <v>23</v>
+      </c>
+      <c r="D69" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69" t="s">
+        <v>36</v>
+      </c>
+      <c r="J69" t="s">
+        <v>31</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="260"/>
+        <v>30</v>
+      </c>
+      <c r="L69">
+        <v>5</v>
+      </c>
+      <c r="M69">
+        <v>4</v>
+      </c>
+      <c r="N69">
+        <v>9</v>
+      </c>
+      <c r="O69">
+        <v>3</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>4</v>
+      </c>
+      <c r="R69">
+        <v>5</v>
+      </c>
+      <c r="S69">
+        <v>9</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69">
+        <f>SUM(N69:N71)</f>
+        <v>21</v>
+      </c>
+      <c r="AI69">
+        <f t="shared" ref="AI69" si="403">SUM(O69:O71)</f>
+        <v>11</v>
+      </c>
+      <c r="AJ69">
+        <f t="shared" ref="AJ69" si="404">SUM(P69:P71)</f>
+        <v>13</v>
+      </c>
+      <c r="AK69">
+        <f t="shared" ref="AK69" si="405">SUM(Q69:Q71)</f>
+        <v>13</v>
+      </c>
+      <c r="AL69">
+        <f t="shared" ref="AL69" si="406">SUM(R69:R71)</f>
+        <v>11</v>
+      </c>
+      <c r="AM69">
+        <f t="shared" ref="AM69" si="407">SUM(S69:S71)</f>
+        <v>17</v>
+      </c>
+      <c r="AN69">
+        <f t="shared" ref="AN69" si="408">SUM(T69:T71)</f>
+        <v>0</v>
+      </c>
+      <c r="AO69">
+        <f t="shared" ref="AO69" si="409">SUM(U69:U71)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2022</v>
+      </c>
+      <c r="B70" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C70">
+        <v>23</v>
+      </c>
+      <c r="D70" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="260"/>
+        <v>36</v>
+      </c>
+      <c r="L70">
+        <v>6</v>
+      </c>
+      <c r="M70">
+        <v>4</v>
+      </c>
+      <c r="N70">
+        <v>8</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>8</v>
+      </c>
+      <c r="Q70">
+        <v>5</v>
+      </c>
+      <c r="R70">
+        <v>3</v>
+      </c>
+      <c r="S70">
+        <v>4</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>8</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>1</v>
+      </c>
+      <c r="AE70">
+        <v>1</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>0</v>
+      </c>
+      <c r="AH70">
+        <f>SUM(N69:N71)</f>
+        <v>21</v>
+      </c>
+      <c r="AI70">
+        <f t="shared" ref="AI70" si="410">SUM(O69:O71)</f>
+        <v>11</v>
+      </c>
+      <c r="AJ70">
+        <f t="shared" ref="AJ70" si="411">SUM(P69:P71)</f>
+        <v>13</v>
+      </c>
+      <c r="AK70">
+        <f t="shared" ref="AK70" si="412">SUM(Q69:Q71)</f>
+        <v>13</v>
+      </c>
+      <c r="AL70">
+        <f t="shared" ref="AL70" si="413">SUM(R69:R71)</f>
+        <v>11</v>
+      </c>
+      <c r="AM70">
+        <f t="shared" ref="AM70" si="414">SUM(S69:S71)</f>
+        <v>17</v>
+      </c>
+      <c r="AN70">
+        <f t="shared" ref="AN70" si="415">SUM(T69:T71)</f>
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <f t="shared" ref="AO70" si="416">SUM(U69:U71)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2022</v>
+      </c>
+      <c r="B71" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C71">
+        <v>23</v>
+      </c>
+      <c r="D71" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71">
+        <v>14</v>
+      </c>
+      <c r="G71">
+        <v>8</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>37</v>
+      </c>
+      <c r="J71" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="260"/>
+        <v>33</v>
+      </c>
+      <c r="L71">
+        <v>6</v>
+      </c>
+      <c r="M71">
+        <v>5</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71">
+        <v>8</v>
+      </c>
+      <c r="P71">
+        <v>5</v>
+      </c>
+      <c r="Q71">
+        <v>4</v>
+      </c>
+      <c r="R71">
+        <v>3</v>
+      </c>
+      <c r="S71">
+        <v>4</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>5</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>1</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <f>SUM(N69:N71)</f>
+        <v>21</v>
+      </c>
+      <c r="AI71">
+        <f t="shared" ref="AI71" si="417">SUM(O69:O71)</f>
+        <v>11</v>
+      </c>
+      <c r="AJ71">
+        <f t="shared" ref="AJ71" si="418">SUM(P69:P71)</f>
+        <v>13</v>
+      </c>
+      <c r="AK71">
+        <f t="shared" ref="AK71" si="419">SUM(Q69:Q71)</f>
+        <v>13</v>
+      </c>
+      <c r="AL71">
+        <f t="shared" ref="AL71" si="420">SUM(R69:R71)</f>
+        <v>11</v>
+      </c>
+      <c r="AM71">
+        <f t="shared" ref="AM71" si="421">SUM(S69:S71)</f>
+        <v>17</v>
+      </c>
+      <c r="AN71">
+        <f t="shared" ref="AN71" si="422">SUM(T69:T71)</f>
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <f t="shared" ref="AO71" si="423">SUM(U69:U71)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2022</v>
+      </c>
+      <c r="B72" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C72">
+        <v>24</v>
+      </c>
+      <c r="D72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72" t="s">
+        <v>36</v>
+      </c>
+      <c r="J72" t="s">
+        <v>31</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="260"/>
+        <v>33</v>
+      </c>
+      <c r="L72">
+        <v>6</v>
+      </c>
+      <c r="M72">
+        <v>5</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72">
+        <v>4</v>
+      </c>
+      <c r="P72">
+        <v>5</v>
+      </c>
+      <c r="Q72">
+        <v>8</v>
+      </c>
+      <c r="R72">
+        <v>5</v>
+      </c>
+      <c r="S72">
+        <v>3</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>5</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>1</v>
+      </c>
+      <c r="AE72">
+        <v>1</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
+      <c r="AH72">
+        <f>SUM(N72:N74)</f>
+        <v>11</v>
+      </c>
+      <c r="AI72">
+        <f t="shared" ref="AI72" si="424">SUM(O72:O74)</f>
+        <v>4</v>
+      </c>
+      <c r="AJ72">
+        <f t="shared" ref="AJ72" si="425">SUM(P72:P74)</f>
+        <v>17</v>
+      </c>
+      <c r="AK72">
+        <f t="shared" ref="AK72" si="426">SUM(Q72:Q74)</f>
+        <v>20</v>
+      </c>
+      <c r="AL72">
+        <f t="shared" ref="AL72" si="427">SUM(R72:R74)</f>
+        <v>17</v>
+      </c>
+      <c r="AM72">
+        <f t="shared" ref="AM72" si="428">SUM(S72:S74)</f>
+        <v>5</v>
+      </c>
+      <c r="AN72">
+        <f t="shared" ref="AN72" si="429">SUM(T72:T74)</f>
+        <v>12</v>
+      </c>
+      <c r="AO72">
+        <f t="shared" ref="AO72" si="430">SUM(U72:U74)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2022</v>
+      </c>
+      <c r="B73" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C73">
+        <v>24</v>
+      </c>
+      <c r="D73" t="s">
+        <v>55</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>32</v>
+      </c>
+      <c r="J73" t="s">
+        <v>31</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="260"/>
+        <v>30</v>
+      </c>
+      <c r="L73">
+        <v>6</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>5</v>
+      </c>
+      <c r="Q73">
+        <v>8</v>
+      </c>
+      <c r="R73">
+        <v>7</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>7</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <f>SUM(N72:N74)</f>
+        <v>11</v>
+      </c>
+      <c r="AI73">
+        <f t="shared" ref="AI73" si="431">SUM(O72:O74)</f>
+        <v>4</v>
+      </c>
+      <c r="AJ73">
+        <f t="shared" ref="AJ73" si="432">SUM(P72:P74)</f>
+        <v>17</v>
+      </c>
+      <c r="AK73">
+        <f t="shared" ref="AK73" si="433">SUM(Q72:Q74)</f>
+        <v>20</v>
+      </c>
+      <c r="AL73">
+        <f t="shared" ref="AL73" si="434">SUM(R72:R74)</f>
+        <v>17</v>
+      </c>
+      <c r="AM73">
+        <f t="shared" ref="AM73" si="435">SUM(S72:S74)</f>
+        <v>5</v>
+      </c>
+      <c r="AN73">
+        <f t="shared" ref="AN73" si="436">SUM(T72:T74)</f>
+        <v>12</v>
+      </c>
+      <c r="AO73">
+        <f t="shared" ref="AO73" si="437">SUM(U72:U74)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2022</v>
+      </c>
+      <c r="B74" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C74">
+        <v>24</v>
+      </c>
+      <c r="D74" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74">
+        <v>13</v>
+      </c>
+      <c r="G74">
+        <v>7</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>37</v>
+      </c>
+      <c r="J74" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="260"/>
+        <v>32</v>
+      </c>
+      <c r="L74">
+        <v>6</v>
+      </c>
+      <c r="M74">
+        <v>4</v>
+      </c>
+      <c r="N74">
+        <v>5</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>7</v>
+      </c>
+      <c r="Q74">
+        <v>4</v>
+      </c>
+      <c r="R74">
+        <v>5</v>
+      </c>
+      <c r="S74">
+        <v>2</v>
+      </c>
+      <c r="T74">
+        <v>5</v>
+      </c>
+      <c r="U74">
+        <v>4</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>1</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>1</v>
+      </c>
+      <c r="AH74">
+        <f>SUM(N72:N74)</f>
+        <v>11</v>
+      </c>
+      <c r="AI74">
+        <f t="shared" ref="AI74" si="438">SUM(O72:O74)</f>
+        <v>4</v>
+      </c>
+      <c r="AJ74">
+        <f t="shared" ref="AJ74" si="439">SUM(P72:P74)</f>
+        <v>17</v>
+      </c>
+      <c r="AK74">
+        <f t="shared" ref="AK74" si="440">SUM(Q72:Q74)</f>
+        <v>20</v>
+      </c>
+      <c r="AL74">
+        <f t="shared" ref="AL74" si="441">SUM(R72:R74)</f>
+        <v>17</v>
+      </c>
+      <c r="AM74">
+        <f t="shared" ref="AM74" si="442">SUM(S72:S74)</f>
+        <v>5</v>
+      </c>
+      <c r="AN74">
+        <f t="shared" ref="AN74" si="443">SUM(T72:T74)</f>
+        <v>12</v>
+      </c>
+      <c r="AO74">
+        <f t="shared" ref="AO74" si="444">SUM(U72:U74)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2022</v>
+      </c>
+      <c r="B75" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C75">
+        <v>25</v>
+      </c>
+      <c r="D75" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75" t="s">
+        <v>36</v>
+      </c>
+      <c r="J75" t="s">
+        <v>32</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="260"/>
+        <v>29</v>
+      </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
+      <c r="M75">
+        <v>5</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75">
+        <v>4</v>
+      </c>
+      <c r="P75">
+        <v>5</v>
+      </c>
+      <c r="Q75">
+        <v>5</v>
+      </c>
+      <c r="R75">
+        <v>4</v>
+      </c>
+      <c r="S75">
+        <v>3</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>5</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AH75">
+        <f>SUM(N75:N77)</f>
+        <v>15</v>
+      </c>
+      <c r="AI75">
+        <f t="shared" ref="AI75" si="445">SUM(O75:O77)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ75">
+        <f t="shared" ref="AJ75" si="446">SUM(P75:P77)</f>
+        <v>15</v>
+      </c>
+      <c r="AK75">
+        <f t="shared" ref="AK75" si="447">SUM(Q75:Q77)</f>
+        <v>10</v>
+      </c>
+      <c r="AL75">
+        <f t="shared" ref="AL75" si="448">SUM(R75:R77)</f>
+        <v>7</v>
+      </c>
+      <c r="AM75">
+        <f t="shared" ref="AM75" si="449">SUM(S75:S77)</f>
+        <v>15</v>
+      </c>
+      <c r="AN75">
+        <f t="shared" ref="AN75" si="450">SUM(T75:T77)</f>
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <f t="shared" ref="AO75" si="451">SUM(U75:U77)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2022</v>
+      </c>
+      <c r="B76" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C76">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>55</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76">
+        <v>13</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="260"/>
+        <v>30</v>
+      </c>
+      <c r="L76">
+        <v>5</v>
+      </c>
+      <c r="M76">
+        <v>4</v>
+      </c>
+      <c r="N76">
+        <v>8</v>
+      </c>
+      <c r="O76">
+        <v>4</v>
+      </c>
+      <c r="P76">
+        <v>5</v>
+      </c>
+      <c r="Q76">
+        <v>5</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>8</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <f>SUM(N75:N77)</f>
+        <v>15</v>
+      </c>
+      <c r="AI76">
+        <f t="shared" ref="AI76" si="452">SUM(O75:O77)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ76">
+        <f t="shared" ref="AJ76" si="453">SUM(P75:P77)</f>
+        <v>15</v>
+      </c>
+      <c r="AK76">
+        <f t="shared" ref="AK76" si="454">SUM(Q75:Q77)</f>
+        <v>10</v>
+      </c>
+      <c r="AL76">
+        <f t="shared" ref="AL76" si="455">SUM(R75:R77)</f>
+        <v>7</v>
+      </c>
+      <c r="AM76">
+        <f t="shared" ref="AM76" si="456">SUM(S75:S77)</f>
+        <v>15</v>
+      </c>
+      <c r="AN76">
+        <f t="shared" ref="AN76" si="457">SUM(T75:T77)</f>
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <f t="shared" ref="AO76" si="458">SUM(U75:U77)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2022</v>
+      </c>
+      <c r="B77" s="5">
+        <v>44884</v>
+      </c>
+      <c r="C77">
+        <v>25</v>
+      </c>
+      <c r="D77" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77" t="s">
+        <v>37</v>
+      </c>
+      <c r="J77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="260"/>
+        <v>32</v>
+      </c>
+      <c r="L77">
+        <v>4</v>
+      </c>
+      <c r="M77">
+        <v>4</v>
+      </c>
+      <c r="N77">
+        <v>4</v>
+      </c>
+      <c r="O77">
+        <v>16</v>
+      </c>
+      <c r="P77">
+        <v>5</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>4</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>1</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
+        <f>SUM(N75:N77)</f>
+        <v>15</v>
+      </c>
+      <c r="AI77">
+        <f t="shared" ref="AI77" si="459">SUM(O75:O77)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ77">
+        <f t="shared" ref="AJ77" si="460">SUM(P75:P77)</f>
+        <v>15</v>
+      </c>
+      <c r="AK77">
+        <f t="shared" ref="AK77" si="461">SUM(Q75:Q77)</f>
+        <v>10</v>
+      </c>
+      <c r="AL77">
+        <f t="shared" ref="AL77" si="462">SUM(R75:R77)</f>
+        <v>7</v>
+      </c>
+      <c r="AM77">
+        <f t="shared" ref="AM77" si="463">SUM(S75:S77)</f>
+        <v>15</v>
+      </c>
+      <c r="AN77">
+        <f t="shared" ref="AN77" si="464">SUM(T75:T77)</f>
+        <v>0</v>
+      </c>
+      <c r="AO77">
+        <f t="shared" ref="AO77" si="465">SUM(U75:U77)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Desktop\Projects\dev\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB9B884-6B2C-4700-B874-AEAFF0384B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531966C6-6828-4727-A14D-C6D24CC005A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="59">
   <si>
     <t>season</t>
   </si>
@@ -592,13 +592,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AO77"/>
+  <dimension ref="A1:AO92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="M76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J78" sqref="J78"/>
+      <selection pane="bottomRight" activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6375,7 +6375,7 @@
         <v>31</v>
       </c>
       <c r="K45">
-        <f t="shared" ref="K45:K77" si="260">SUM(N45:U45)</f>
+        <f t="shared" ref="K45:K92" si="260">SUM(N45:U45)</f>
         <v>30</v>
       </c>
       <c r="L45">
@@ -10763,6 +10763,1818 @@
       <c r="AO77">
         <f t="shared" ref="AO77" si="465">SUM(U75:U77)</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2022</v>
+      </c>
+      <c r="B78" s="5">
+        <v>44924</v>
+      </c>
+      <c r="C78">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78">
+        <v>11</v>
+      </c>
+      <c r="G78">
+        <v>4</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78" t="s">
+        <v>36</v>
+      </c>
+      <c r="J78" t="s">
+        <v>31</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="260"/>
+        <v>28</v>
+      </c>
+      <c r="L78">
+        <v>5</v>
+      </c>
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78">
+        <v>6</v>
+      </c>
+      <c r="P78">
+        <v>5</v>
+      </c>
+      <c r="Q78">
+        <v>3</v>
+      </c>
+      <c r="R78">
+        <v>6</v>
+      </c>
+      <c r="S78">
+        <v>3</v>
+      </c>
+      <c r="T78">
+        <v>2</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>1</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>0</v>
+      </c>
+      <c r="AH78">
+        <f>SUM(N78:N80)</f>
+        <v>9</v>
+      </c>
+      <c r="AI78">
+        <f t="shared" ref="AI78" si="466">SUM(O78:O80)</f>
+        <v>21</v>
+      </c>
+      <c r="AJ78">
+        <f t="shared" ref="AJ78" si="467">SUM(P78:P80)</f>
+        <v>12</v>
+      </c>
+      <c r="AK78">
+        <f t="shared" ref="AK78" si="468">SUM(Q78:Q80)</f>
+        <v>20</v>
+      </c>
+      <c r="AL78">
+        <f t="shared" ref="AL78" si="469">SUM(R78:R80)</f>
+        <v>16</v>
+      </c>
+      <c r="AM78">
+        <f t="shared" ref="AM78" si="470">SUM(S78:S80)</f>
+        <v>3</v>
+      </c>
+      <c r="AN78">
+        <f t="shared" ref="AN78" si="471">SUM(T78:T80)</f>
+        <v>12</v>
+      </c>
+      <c r="AO78">
+        <f t="shared" ref="AO78" si="472">SUM(U78:U80)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2022</v>
+      </c>
+      <c r="B79" s="5">
+        <v>44924</v>
+      </c>
+      <c r="C79">
+        <v>26</v>
+      </c>
+      <c r="D79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79">
+        <v>13</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" t="s">
+        <v>31</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="260"/>
+        <v>36</v>
+      </c>
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <v>5</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79">
+        <v>11</v>
+      </c>
+      <c r="P79">
+        <v>5</v>
+      </c>
+      <c r="Q79">
+        <v>6</v>
+      </c>
+      <c r="R79">
+        <v>5</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>5</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>1</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <f>SUM(N78:N80)</f>
+        <v>9</v>
+      </c>
+      <c r="AI79">
+        <f t="shared" ref="AI79" si="473">SUM(O78:O80)</f>
+        <v>21</v>
+      </c>
+      <c r="AJ79">
+        <f t="shared" ref="AJ79" si="474">SUM(P78:P80)</f>
+        <v>12</v>
+      </c>
+      <c r="AK79">
+        <f t="shared" ref="AK79" si="475">SUM(Q78:Q80)</f>
+        <v>20</v>
+      </c>
+      <c r="AL79">
+        <f t="shared" ref="AL79" si="476">SUM(R78:R80)</f>
+        <v>16</v>
+      </c>
+      <c r="AM79">
+        <f t="shared" ref="AM79" si="477">SUM(S78:S80)</f>
+        <v>3</v>
+      </c>
+      <c r="AN79">
+        <f t="shared" ref="AN79" si="478">SUM(T78:T80)</f>
+        <v>12</v>
+      </c>
+      <c r="AO79">
+        <f t="shared" ref="AO79" si="479">SUM(U78:U80)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2022</v>
+      </c>
+      <c r="B80" s="5">
+        <v>44924</v>
+      </c>
+      <c r="C80">
+        <v>26</v>
+      </c>
+      <c r="D80" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80" t="s">
+        <v>37</v>
+      </c>
+      <c r="J80" t="s">
+        <v>31</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="260"/>
+        <v>31</v>
+      </c>
+      <c r="L80">
+        <v>6</v>
+      </c>
+      <c r="M80">
+        <v>5</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80">
+        <v>4</v>
+      </c>
+      <c r="P80">
+        <v>2</v>
+      </c>
+      <c r="Q80">
+        <v>11</v>
+      </c>
+      <c r="R80">
+        <v>5</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>5</v>
+      </c>
+      <c r="U80">
+        <v>2</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+      <c r="AH80">
+        <f>SUM(N78:N80)</f>
+        <v>9</v>
+      </c>
+      <c r="AI80">
+        <f t="shared" ref="AI80" si="480">SUM(O78:O80)</f>
+        <v>21</v>
+      </c>
+      <c r="AJ80">
+        <f t="shared" ref="AJ80" si="481">SUM(P78:P80)</f>
+        <v>12</v>
+      </c>
+      <c r="AK80">
+        <f t="shared" ref="AK80" si="482">SUM(Q78:Q80)</f>
+        <v>20</v>
+      </c>
+      <c r="AL80">
+        <f t="shared" ref="AL80" si="483">SUM(R78:R80)</f>
+        <v>16</v>
+      </c>
+      <c r="AM80">
+        <f t="shared" ref="AM80" si="484">SUM(S78:S80)</f>
+        <v>3</v>
+      </c>
+      <c r="AN80">
+        <f t="shared" ref="AN80" si="485">SUM(T78:T80)</f>
+        <v>12</v>
+      </c>
+      <c r="AO80">
+        <f t="shared" ref="AO80" si="486">SUM(U78:U80)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2022</v>
+      </c>
+      <c r="B81" s="5">
+        <v>44924</v>
+      </c>
+      <c r="C81">
+        <v>27</v>
+      </c>
+      <c r="D81" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81" t="s">
+        <v>36</v>
+      </c>
+      <c r="J81" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="260"/>
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <f>SUM(N81:N83)</f>
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <f t="shared" ref="AI81" si="487">SUM(O81:O83)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <f t="shared" ref="AJ81" si="488">SUM(P81:P83)</f>
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <f t="shared" ref="AK81" si="489">SUM(Q81:Q83)</f>
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <f t="shared" ref="AL81" si="490">SUM(R81:R83)</f>
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <f t="shared" ref="AM81" si="491">SUM(S81:S83)</f>
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <f t="shared" ref="AN81" si="492">SUM(T81:T83)</f>
+        <v>0</v>
+      </c>
+      <c r="AO81">
+        <f t="shared" ref="AO81" si="493">SUM(U81:U83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2022</v>
+      </c>
+      <c r="B82" s="5">
+        <v>44924</v>
+      </c>
+      <c r="C82">
+        <v>27</v>
+      </c>
+      <c r="D82" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82">
+        <v>5</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82" t="s">
+        <v>32</v>
+      </c>
+      <c r="J82" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="260"/>
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <f>SUM(N81:N83)</f>
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <f t="shared" ref="AI82" si="494">SUM(O81:O83)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ82">
+        <f t="shared" ref="AJ82" si="495">SUM(P81:P83)</f>
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <f t="shared" ref="AK82" si="496">SUM(Q81:Q83)</f>
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <f t="shared" ref="AL82" si="497">SUM(R81:R83)</f>
+        <v>0</v>
+      </c>
+      <c r="AM82">
+        <f t="shared" ref="AM82" si="498">SUM(S81:S83)</f>
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <f t="shared" ref="AN82" si="499">SUM(T81:T83)</f>
+        <v>0</v>
+      </c>
+      <c r="AO82">
+        <f t="shared" ref="AO82" si="500">SUM(U81:U83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2022</v>
+      </c>
+      <c r="B83" s="5">
+        <v>44924</v>
+      </c>
+      <c r="C83">
+        <v>27</v>
+      </c>
+      <c r="D83" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83">
+        <v>14</v>
+      </c>
+      <c r="G83">
+        <v>5</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>37</v>
+      </c>
+      <c r="J83" t="s">
+        <v>31</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="260"/>
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <f>SUM(N81:N83)</f>
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <f t="shared" ref="AI83" si="501">SUM(O81:O83)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ83">
+        <f t="shared" ref="AJ83" si="502">SUM(P81:P83)</f>
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <f t="shared" ref="AK83" si="503">SUM(Q81:Q83)</f>
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <f t="shared" ref="AL83" si="504">SUM(R81:R83)</f>
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <f t="shared" ref="AM83" si="505">SUM(S81:S83)</f>
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <f t="shared" ref="AN83" si="506">SUM(T81:T83)</f>
+        <v>0</v>
+      </c>
+      <c r="AO83">
+        <f t="shared" ref="AO83" si="507">SUM(U81:U83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2022</v>
+      </c>
+      <c r="B84" s="5">
+        <v>44924</v>
+      </c>
+      <c r="C84">
+        <v>28</v>
+      </c>
+      <c r="D84" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84" t="s">
+        <v>36</v>
+      </c>
+      <c r="J84" t="s">
+        <v>31</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="260"/>
+        <v>30</v>
+      </c>
+      <c r="L84">
+        <v>5</v>
+      </c>
+      <c r="M84">
+        <v>5</v>
+      </c>
+      <c r="N84">
+        <v>5</v>
+      </c>
+      <c r="O84">
+        <v>3</v>
+      </c>
+      <c r="P84">
+        <v>3</v>
+      </c>
+      <c r="Q84">
+        <v>12</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>2</v>
+      </c>
+      <c r="U84">
+        <v>3</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>1</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <f>SUM(N84:N86)</f>
+        <v>17</v>
+      </c>
+      <c r="AI84">
+        <f t="shared" ref="AI84" si="508">SUM(O84:O86)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ84">
+        <f t="shared" ref="AJ84" si="509">SUM(P84:P86)</f>
+        <v>12</v>
+      </c>
+      <c r="AK84">
+        <f t="shared" ref="AK84" si="510">SUM(Q84:Q86)</f>
+        <v>24</v>
+      </c>
+      <c r="AL84">
+        <f t="shared" ref="AL84" si="511">SUM(R84:R86)</f>
+        <v>9</v>
+      </c>
+      <c r="AM84">
+        <f t="shared" ref="AM84" si="512">SUM(S84:S86)</f>
+        <v>10</v>
+      </c>
+      <c r="AN84">
+        <f t="shared" ref="AN84" si="513">SUM(T84:T86)</f>
+        <v>6</v>
+      </c>
+      <c r="AO84">
+        <f t="shared" ref="AO84" si="514">SUM(U84:U86)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2022</v>
+      </c>
+      <c r="B85" s="5">
+        <v>44924</v>
+      </c>
+      <c r="C85">
+        <v>28</v>
+      </c>
+      <c r="D85" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85">
+        <v>13</v>
+      </c>
+      <c r="G85">
+        <v>6</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>32</v>
+      </c>
+      <c r="J85" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="260"/>
+        <v>32</v>
+      </c>
+      <c r="L85">
+        <v>6</v>
+      </c>
+      <c r="M85">
+        <v>5</v>
+      </c>
+      <c r="N85">
+        <v>5</v>
+      </c>
+      <c r="O85">
+        <v>3</v>
+      </c>
+      <c r="P85">
+        <v>6</v>
+      </c>
+      <c r="Q85">
+        <v>4</v>
+      </c>
+      <c r="R85">
+        <v>4</v>
+      </c>
+      <c r="S85">
+        <v>5</v>
+      </c>
+      <c r="T85">
+        <v>4</v>
+      </c>
+      <c r="U85">
+        <v>1</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>1</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <f>SUM(N84:N86)</f>
+        <v>17</v>
+      </c>
+      <c r="AI85">
+        <f t="shared" ref="AI85" si="515">SUM(O84:O86)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ85">
+        <f t="shared" ref="AJ85" si="516">SUM(P84:P86)</f>
+        <v>12</v>
+      </c>
+      <c r="AK85">
+        <f t="shared" ref="AK85" si="517">SUM(Q84:Q86)</f>
+        <v>24</v>
+      </c>
+      <c r="AL85">
+        <f t="shared" ref="AL85" si="518">SUM(R84:R86)</f>
+        <v>9</v>
+      </c>
+      <c r="AM85">
+        <f t="shared" ref="AM85" si="519">SUM(S84:S86)</f>
+        <v>10</v>
+      </c>
+      <c r="AN85">
+        <f t="shared" ref="AN85" si="520">SUM(T84:T86)</f>
+        <v>6</v>
+      </c>
+      <c r="AO85">
+        <f t="shared" ref="AO85" si="521">SUM(U84:U86)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2022</v>
+      </c>
+      <c r="B86" s="5">
+        <v>44924</v>
+      </c>
+      <c r="C86">
+        <v>28</v>
+      </c>
+      <c r="D86" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86">
+        <v>4</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86" t="s">
+        <v>37</v>
+      </c>
+      <c r="J86" t="s">
+        <v>31</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="260"/>
+        <v>32</v>
+      </c>
+      <c r="L86">
+        <v>5</v>
+      </c>
+      <c r="M86">
+        <v>5</v>
+      </c>
+      <c r="N86">
+        <v>7</v>
+      </c>
+      <c r="O86">
+        <v>3</v>
+      </c>
+      <c r="P86">
+        <v>3</v>
+      </c>
+      <c r="Q86">
+        <v>8</v>
+      </c>
+      <c r="R86">
+        <v>3</v>
+      </c>
+      <c r="S86">
+        <v>5</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>3</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>1</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <f>SUM(N84:N86)</f>
+        <v>17</v>
+      </c>
+      <c r="AI86">
+        <f t="shared" ref="AI86" si="522">SUM(O84:O86)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ86">
+        <f t="shared" ref="AJ86" si="523">SUM(P84:P86)</f>
+        <v>12</v>
+      </c>
+      <c r="AK86">
+        <f t="shared" ref="AK86" si="524">SUM(Q84:Q86)</f>
+        <v>24</v>
+      </c>
+      <c r="AL86">
+        <f t="shared" ref="AL86" si="525">SUM(R84:R86)</f>
+        <v>9</v>
+      </c>
+      <c r="AM86">
+        <f t="shared" ref="AM86" si="526">SUM(S84:S86)</f>
+        <v>10</v>
+      </c>
+      <c r="AN86">
+        <f t="shared" ref="AN86" si="527">SUM(T84:T86)</f>
+        <v>6</v>
+      </c>
+      <c r="AO86">
+        <f t="shared" ref="AO86" si="528">SUM(U84:U86)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2022</v>
+      </c>
+      <c r="B87" s="5">
+        <v>44924</v>
+      </c>
+      <c r="C87">
+        <v>29</v>
+      </c>
+      <c r="D87" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87">
+        <v>8</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87" t="s">
+        <v>36</v>
+      </c>
+      <c r="J87" t="s">
+        <v>31</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="260"/>
+        <v>28</v>
+      </c>
+      <c r="L87">
+        <v>4</v>
+      </c>
+      <c r="M87">
+        <v>4</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87">
+        <v>15</v>
+      </c>
+      <c r="P87">
+        <v>3</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>4</v>
+      </c>
+      <c r="S87">
+        <v>3</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>1</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>1</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <f>SUM(N87:N89)</f>
+        <v>16</v>
+      </c>
+      <c r="AI87">
+        <f t="shared" ref="AI87" si="529">SUM(O87:O89)</f>
+        <v>20</v>
+      </c>
+      <c r="AJ87">
+        <f t="shared" ref="AJ87" si="530">SUM(P87:P89)</f>
+        <v>11</v>
+      </c>
+      <c r="AK87">
+        <f t="shared" ref="AK87" si="531">SUM(Q87:Q89)</f>
+        <v>12</v>
+      </c>
+      <c r="AL87">
+        <f t="shared" ref="AL87" si="532">SUM(R87:R89)</f>
+        <v>10</v>
+      </c>
+      <c r="AM87">
+        <f t="shared" ref="AM87" si="533">SUM(S87:S89)</f>
+        <v>16</v>
+      </c>
+      <c r="AN87">
+        <f t="shared" ref="AN87" si="534">SUM(T87:T89)</f>
+        <v>4</v>
+      </c>
+      <c r="AO87">
+        <f t="shared" ref="AO87" si="535">SUM(U87:U89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2022</v>
+      </c>
+      <c r="B88" s="5">
+        <v>44924</v>
+      </c>
+      <c r="C88">
+        <v>29</v>
+      </c>
+      <c r="D88" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88">
+        <v>9</v>
+      </c>
+      <c r="G88">
+        <v>4</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88" t="s">
+        <v>32</v>
+      </c>
+      <c r="J88" t="s">
+        <v>31</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="260"/>
+        <v>27</v>
+      </c>
+      <c r="L88">
+        <v>6</v>
+      </c>
+      <c r="M88">
+        <v>4</v>
+      </c>
+      <c r="N88">
+        <v>6</v>
+      </c>
+      <c r="O88">
+        <v>5</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>8</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
+        <v>6</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>1</v>
+      </c>
+      <c r="AH88">
+        <f>SUM(N87:N89)</f>
+        <v>16</v>
+      </c>
+      <c r="AI88">
+        <f t="shared" ref="AI88" si="536">SUM(O87:O89)</f>
+        <v>20</v>
+      </c>
+      <c r="AJ88">
+        <f t="shared" ref="AJ88" si="537">SUM(P87:P89)</f>
+        <v>11</v>
+      </c>
+      <c r="AK88">
+        <f t="shared" ref="AK88" si="538">SUM(Q87:Q89)</f>
+        <v>12</v>
+      </c>
+      <c r="AL88">
+        <f t="shared" ref="AL88" si="539">SUM(R87:R89)</f>
+        <v>10</v>
+      </c>
+      <c r="AM88">
+        <f t="shared" ref="AM88" si="540">SUM(S87:S89)</f>
+        <v>16</v>
+      </c>
+      <c r="AN88">
+        <f t="shared" ref="AN88" si="541">SUM(T87:T89)</f>
+        <v>4</v>
+      </c>
+      <c r="AO88">
+        <f t="shared" ref="AO88" si="542">SUM(U87:U89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2022</v>
+      </c>
+      <c r="B89" s="5">
+        <v>44924</v>
+      </c>
+      <c r="C89">
+        <v>29</v>
+      </c>
+      <c r="D89" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89">
+        <v>13</v>
+      </c>
+      <c r="G89">
+        <v>7</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>37</v>
+      </c>
+      <c r="J89" t="s">
+        <v>31</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="260"/>
+        <v>34</v>
+      </c>
+      <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="M89">
+        <v>4</v>
+      </c>
+      <c r="N89">
+        <v>7</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>8</v>
+      </c>
+      <c r="Q89">
+        <v>4</v>
+      </c>
+      <c r="R89">
+        <v>4</v>
+      </c>
+      <c r="S89">
+        <v>7</v>
+      </c>
+      <c r="T89">
+        <v>4</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>1</v>
+      </c>
+      <c r="AE89">
+        <v>1</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>0</v>
+      </c>
+      <c r="AH89">
+        <f>SUM(N87:N89)</f>
+        <v>16</v>
+      </c>
+      <c r="AI89">
+        <f t="shared" ref="AI89" si="543">SUM(O87:O89)</f>
+        <v>20</v>
+      </c>
+      <c r="AJ89">
+        <f t="shared" ref="AJ89" si="544">SUM(P87:P89)</f>
+        <v>11</v>
+      </c>
+      <c r="AK89">
+        <f t="shared" ref="AK89" si="545">SUM(Q87:Q89)</f>
+        <v>12</v>
+      </c>
+      <c r="AL89">
+        <f t="shared" ref="AL89" si="546">SUM(R87:R89)</f>
+        <v>10</v>
+      </c>
+      <c r="AM89">
+        <f t="shared" ref="AM89" si="547">SUM(S87:S89)</f>
+        <v>16</v>
+      </c>
+      <c r="AN89">
+        <f t="shared" ref="AN89" si="548">SUM(T87:T89)</f>
+        <v>4</v>
+      </c>
+      <c r="AO89">
+        <f t="shared" ref="AO89" si="549">SUM(U87:U89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2022</v>
+      </c>
+      <c r="B90" s="5">
+        <v>44924</v>
+      </c>
+      <c r="C90">
+        <v>30</v>
+      </c>
+      <c r="D90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90">
+        <v>13</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
+        <v>36</v>
+      </c>
+      <c r="J90" t="s">
+        <v>31</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="260"/>
+        <v>33</v>
+      </c>
+      <c r="L90">
+        <v>6</v>
+      </c>
+      <c r="M90">
+        <v>5</v>
+      </c>
+      <c r="N90">
+        <v>5</v>
+      </c>
+      <c r="O90">
+        <v>4</v>
+      </c>
+      <c r="P90">
+        <v>5</v>
+      </c>
+      <c r="Q90">
+        <v>4</v>
+      </c>
+      <c r="R90">
+        <v>5</v>
+      </c>
+      <c r="S90">
+        <v>5</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>5</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>1</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>1</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <f>SUM(N90:N92)</f>
+        <v>20</v>
+      </c>
+      <c r="AI90">
+        <f t="shared" ref="AI90" si="550">SUM(O90:O92)</f>
+        <v>12</v>
+      </c>
+      <c r="AJ90">
+        <f t="shared" ref="AJ90" si="551">SUM(P90:P92)</f>
+        <v>16</v>
+      </c>
+      <c r="AK90">
+        <f t="shared" ref="AK90" si="552">SUM(Q90:Q92)</f>
+        <v>8</v>
+      </c>
+      <c r="AL90">
+        <f t="shared" ref="AL90" si="553">SUM(R90:R92)</f>
+        <v>13</v>
+      </c>
+      <c r="AM90">
+        <f t="shared" ref="AM90" si="554">SUM(S90:S92)</f>
+        <v>20</v>
+      </c>
+      <c r="AN90">
+        <f t="shared" ref="AN90" si="555">SUM(T90:T92)</f>
+        <v>0</v>
+      </c>
+      <c r="AO90">
+        <f t="shared" ref="AO90" si="556">SUM(U90:U92)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2022</v>
+      </c>
+      <c r="B91" s="5">
+        <v>44924</v>
+      </c>
+      <c r="C91">
+        <v>30</v>
+      </c>
+      <c r="D91" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91" t="s">
+        <v>32</v>
+      </c>
+      <c r="J91" t="s">
+        <v>31</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="260"/>
+        <v>31</v>
+      </c>
+      <c r="L91">
+        <v>6</v>
+      </c>
+      <c r="M91">
+        <v>5</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91">
+        <v>8</v>
+      </c>
+      <c r="P91">
+        <v>8</v>
+      </c>
+      <c r="Q91">
+        <v>2</v>
+      </c>
+      <c r="R91">
+        <v>4</v>
+      </c>
+      <c r="S91">
+        <v>3</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>3</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>1</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <f>SUM(N90:N92)</f>
+        <v>20</v>
+      </c>
+      <c r="AI91">
+        <f t="shared" ref="AI91" si="557">SUM(O90:O92)</f>
+        <v>12</v>
+      </c>
+      <c r="AJ91">
+        <f t="shared" ref="AJ91" si="558">SUM(P90:P92)</f>
+        <v>16</v>
+      </c>
+      <c r="AK91">
+        <f t="shared" ref="AK91" si="559">SUM(Q90:Q92)</f>
+        <v>8</v>
+      </c>
+      <c r="AL91">
+        <f t="shared" ref="AL91" si="560">SUM(R90:R92)</f>
+        <v>13</v>
+      </c>
+      <c r="AM91">
+        <f t="shared" ref="AM91" si="561">SUM(S90:S92)</f>
+        <v>20</v>
+      </c>
+      <c r="AN91">
+        <f t="shared" ref="AN91" si="562">SUM(T90:T92)</f>
+        <v>0</v>
+      </c>
+      <c r="AO91">
+        <f t="shared" ref="AO91" si="563">SUM(U90:U92)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2022</v>
+      </c>
+      <c r="B92" s="5">
+        <v>44924</v>
+      </c>
+      <c r="C92">
+        <v>30</v>
+      </c>
+      <c r="D92" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+      <c r="G92">
+        <v>4</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92" t="s">
+        <v>37</v>
+      </c>
+      <c r="J92" t="s">
+        <v>31</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="260"/>
+        <v>33</v>
+      </c>
+      <c r="L92">
+        <v>6</v>
+      </c>
+      <c r="M92">
+        <v>4</v>
+      </c>
+      <c r="N92">
+        <v>12</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>3</v>
+      </c>
+      <c r="Q92">
+        <v>2</v>
+      </c>
+      <c r="R92">
+        <v>4</v>
+      </c>
+      <c r="S92">
+        <v>12</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>1</v>
+      </c>
+      <c r="AH92">
+        <f>SUM(N90:N92)</f>
+        <v>20</v>
+      </c>
+      <c r="AI92">
+        <f t="shared" ref="AI92" si="564">SUM(O90:O92)</f>
+        <v>12</v>
+      </c>
+      <c r="AJ92">
+        <f t="shared" ref="AJ92" si="565">SUM(P90:P92)</f>
+        <v>16</v>
+      </c>
+      <c r="AK92">
+        <f t="shared" ref="AK92" si="566">SUM(Q90:Q92)</f>
+        <v>8</v>
+      </c>
+      <c r="AL92">
+        <f t="shared" ref="AL92" si="567">SUM(R90:R92)</f>
+        <v>13</v>
+      </c>
+      <c r="AM92">
+        <f t="shared" ref="AM92" si="568">SUM(S90:S92)</f>
+        <v>20</v>
+      </c>
+      <c r="AN92">
+        <f t="shared" ref="AN92" si="569">SUM(T90:T92)</f>
+        <v>0</v>
+      </c>
+      <c r="AO92">
+        <f t="shared" ref="AO92" si="570">SUM(U90:U92)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Desktop\Projects\dev\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531966C6-6828-4727-A14D-C6D24CC005A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820D7677-05B2-436A-84E4-402954CC1119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -598,7 +598,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="M76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H84" sqref="H84"/>
+      <selection pane="bottomRight" activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Desktop\Projects\dev\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820D7677-05B2-436A-84E4-402954CC1119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9C0F69-3F23-4B15-86B6-B79D85044F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -17,9 +17,10 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AO$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AO$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="61">
   <si>
     <t>season</t>
   </si>
@@ -216,6 +217,12 @@
   </si>
   <si>
     <t>Online</t>
+  </si>
+  <si>
+    <t>Köln (Nikolausstr.)</t>
+  </si>
+  <si>
+    <t>Pf</t>
   </si>
 </sst>
 </file>
@@ -592,13 +599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AO92"/>
+  <dimension ref="A1:AO104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="M76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H93" sqref="H93"/>
+      <selection pane="bottomRight" activeCell="M103" sqref="M103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6375,7 +6382,7 @@
         <v>31</v>
       </c>
       <c r="K45">
-        <f t="shared" ref="K45:K92" si="260">SUM(N45:U45)</f>
+        <f t="shared" ref="K45:K104" si="260">SUM(N45:U45)</f>
         <v>30</v>
       </c>
       <c r="L45">
@@ -12577,8 +12584,1616 @@
         <v>8</v>
       </c>
     </row>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2023</v>
+      </c>
+      <c r="B93" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C93">
+        <v>31</v>
+      </c>
+      <c r="D93" t="s">
+        <v>59</v>
+      </c>
+      <c r="E93" t="s">
+        <v>60</v>
+      </c>
+      <c r="F93">
+        <v>13</v>
+      </c>
+      <c r="G93">
+        <v>4</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93" t="s">
+        <v>36</v>
+      </c>
+      <c r="J93" t="s">
+        <v>32</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="260"/>
+        <v>31</v>
+      </c>
+      <c r="L93">
+        <v>6</v>
+      </c>
+      <c r="M93">
+        <v>5</v>
+      </c>
+      <c r="N93">
+        <v>5</v>
+      </c>
+      <c r="O93">
+        <v>13</v>
+      </c>
+      <c r="P93">
+        <v>3</v>
+      </c>
+      <c r="Q93">
+        <v>2</v>
+      </c>
+      <c r="R93">
+        <v>4</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>4</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>1</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>1</v>
+      </c>
+      <c r="AH93">
+        <f>SUM(N93:N95)</f>
+        <v>14</v>
+      </c>
+      <c r="AI93">
+        <f t="shared" ref="AI93" si="571">SUM(O93:O95)</f>
+        <v>27</v>
+      </c>
+      <c r="AJ93">
+        <f t="shared" ref="AJ93" si="572">SUM(P93:P95)</f>
+        <v>10</v>
+      </c>
+      <c r="AK93">
+        <f t="shared" ref="AK93" si="573">SUM(Q93:Q95)</f>
+        <v>16</v>
+      </c>
+      <c r="AL93">
+        <f t="shared" ref="AL93" si="574">SUM(R93:R95)</f>
+        <v>10</v>
+      </c>
+      <c r="AM93">
+        <f t="shared" ref="AM93" si="575">SUM(S93:S95)</f>
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <f t="shared" ref="AN93" si="576">SUM(T93:T95)</f>
+        <v>6</v>
+      </c>
+      <c r="AO93">
+        <f t="shared" ref="AO93" si="577">SUM(U93:U95)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2023</v>
+      </c>
+      <c r="B94" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C94">
+        <v>31</v>
+      </c>
+      <c r="D94" t="s">
+        <v>59</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94">
+        <v>8</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94" t="s">
+        <v>32</v>
+      </c>
+      <c r="J94" t="s">
+        <v>32</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="260"/>
+        <v>31</v>
+      </c>
+      <c r="L94">
+        <v>6</v>
+      </c>
+      <c r="M94">
+        <v>5</v>
+      </c>
+      <c r="N94">
+        <v>4</v>
+      </c>
+      <c r="O94">
+        <v>14</v>
+      </c>
+      <c r="P94">
+        <v>3</v>
+      </c>
+      <c r="Q94">
+        <v>6</v>
+      </c>
+      <c r="R94">
+        <v>4</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>1</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+      <c r="AH94">
+        <f>SUM(N93:N95)</f>
+        <v>14</v>
+      </c>
+      <c r="AI94">
+        <f t="shared" ref="AI94" si="578">SUM(O93:O95)</f>
+        <v>27</v>
+      </c>
+      <c r="AJ94">
+        <f t="shared" ref="AJ94" si="579">SUM(P93:P95)</f>
+        <v>10</v>
+      </c>
+      <c r="AK94">
+        <f t="shared" ref="AK94" si="580">SUM(Q93:Q95)</f>
+        <v>16</v>
+      </c>
+      <c r="AL94">
+        <f t="shared" ref="AL94" si="581">SUM(R93:R95)</f>
+        <v>10</v>
+      </c>
+      <c r="AM94">
+        <f t="shared" ref="AM94" si="582">SUM(S93:S95)</f>
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <f t="shared" ref="AN94" si="583">SUM(T93:T95)</f>
+        <v>6</v>
+      </c>
+      <c r="AO94">
+        <f t="shared" ref="AO94" si="584">SUM(U93:U95)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2023</v>
+      </c>
+      <c r="B95" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C95">
+        <v>31</v>
+      </c>
+      <c r="D95" t="s">
+        <v>59</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95" t="s">
+        <v>37</v>
+      </c>
+      <c r="J95" t="s">
+        <v>32</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="260"/>
+        <v>25</v>
+      </c>
+      <c r="L95">
+        <v>5</v>
+      </c>
+      <c r="M95">
+        <v>4</v>
+      </c>
+      <c r="N95">
+        <v>5</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>4</v>
+      </c>
+      <c r="Q95">
+        <v>8</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>2</v>
+      </c>
+      <c r="U95">
+        <v>4</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>1</v>
+      </c>
+      <c r="AH95">
+        <f>SUM(N93:N95)</f>
+        <v>14</v>
+      </c>
+      <c r="AI95">
+        <f t="shared" ref="AI95" si="585">SUM(O93:O95)</f>
+        <v>27</v>
+      </c>
+      <c r="AJ95">
+        <f t="shared" ref="AJ95" si="586">SUM(P93:P95)</f>
+        <v>10</v>
+      </c>
+      <c r="AK95">
+        <f t="shared" ref="AK95" si="587">SUM(Q93:Q95)</f>
+        <v>16</v>
+      </c>
+      <c r="AL95">
+        <f t="shared" ref="AL95" si="588">SUM(R93:R95)</f>
+        <v>10</v>
+      </c>
+      <c r="AM95">
+        <f t="shared" ref="AM95" si="589">SUM(S93:S95)</f>
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <f t="shared" ref="AN95" si="590">SUM(T93:T95)</f>
+        <v>6</v>
+      </c>
+      <c r="AO95">
+        <f t="shared" ref="AO95" si="591">SUM(U93:U95)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2023</v>
+      </c>
+      <c r="B96" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C96">
+        <v>32</v>
+      </c>
+      <c r="D96" t="s">
+        <v>59</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96">
+        <v>6</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J96" t="s">
+        <v>32</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="260"/>
+        <v>32</v>
+      </c>
+      <c r="L96">
+        <v>5</v>
+      </c>
+      <c r="M96">
+        <v>3</v>
+      </c>
+      <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96">
+        <v>7</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>21</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>1</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+      <c r="AH96">
+        <f>SUM(N96:N98)</f>
+        <v>18</v>
+      </c>
+      <c r="AI96">
+        <f t="shared" ref="AI96" si="592">SUM(O96:O98)</f>
+        <v>14</v>
+      </c>
+      <c r="AJ96">
+        <f t="shared" ref="AJ96" si="593">SUM(P96:P98)</f>
+        <v>5</v>
+      </c>
+      <c r="AK96">
+        <f t="shared" ref="AK96" si="594">SUM(Q96:Q98)</f>
+        <v>30</v>
+      </c>
+      <c r="AL96">
+        <f t="shared" ref="AL96" si="595">SUM(R96:R98)</f>
+        <v>11</v>
+      </c>
+      <c r="AM96">
+        <f t="shared" ref="AM96" si="596">SUM(S96:S98)</f>
+        <v>4</v>
+      </c>
+      <c r="AN96">
+        <f t="shared" ref="AN96" si="597">SUM(T96:T98)</f>
+        <v>11</v>
+      </c>
+      <c r="AO96">
+        <f t="shared" ref="AO96" si="598">SUM(U96:U98)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2023</v>
+      </c>
+      <c r="B97" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C97">
+        <v>32</v>
+      </c>
+      <c r="D97" t="s">
+        <v>59</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97">
+        <v>13</v>
+      </c>
+      <c r="G97">
+        <v>5</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
+        <v>32</v>
+      </c>
+      <c r="J97" t="s">
+        <v>32</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="260"/>
+        <v>30</v>
+      </c>
+      <c r="L97">
+        <v>6</v>
+      </c>
+      <c r="M97">
+        <v>5</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97">
+        <v>4</v>
+      </c>
+      <c r="P97">
+        <v>5</v>
+      </c>
+      <c r="Q97">
+        <v>5</v>
+      </c>
+      <c r="R97">
+        <v>5</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>5</v>
+      </c>
+      <c r="U97">
+        <v>2</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
+      <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
+      </c>
+      <c r="AF97">
+        <v>0</v>
+      </c>
+      <c r="AG97">
+        <v>0</v>
+      </c>
+      <c r="AH97">
+        <f>SUM(N96:N98)</f>
+        <v>18</v>
+      </c>
+      <c r="AI97">
+        <f t="shared" ref="AI97" si="599">SUM(O96:O98)</f>
+        <v>14</v>
+      </c>
+      <c r="AJ97">
+        <f t="shared" ref="AJ97" si="600">SUM(P96:P98)</f>
+        <v>5</v>
+      </c>
+      <c r="AK97">
+        <f t="shared" ref="AK97" si="601">SUM(Q96:Q98)</f>
+        <v>30</v>
+      </c>
+      <c r="AL97">
+        <f t="shared" ref="AL97" si="602">SUM(R96:R98)</f>
+        <v>11</v>
+      </c>
+      <c r="AM97">
+        <f t="shared" ref="AM97" si="603">SUM(S96:S98)</f>
+        <v>4</v>
+      </c>
+      <c r="AN97">
+        <f t="shared" ref="AN97" si="604">SUM(T96:T98)</f>
+        <v>11</v>
+      </c>
+      <c r="AO97">
+        <f t="shared" ref="AO97" si="605">SUM(U96:U98)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2023</v>
+      </c>
+      <c r="B98" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C98">
+        <v>32</v>
+      </c>
+      <c r="D98" t="s">
+        <v>59</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98">
+        <v>8</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98" t="s">
+        <v>37</v>
+      </c>
+      <c r="J98" t="s">
+        <v>32</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="260"/>
+        <v>33</v>
+      </c>
+      <c r="L98">
+        <v>5</v>
+      </c>
+      <c r="M98">
+        <v>4</v>
+      </c>
+      <c r="N98">
+        <v>10</v>
+      </c>
+      <c r="O98">
+        <v>3</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>4</v>
+      </c>
+      <c r="R98">
+        <v>6</v>
+      </c>
+      <c r="S98">
+        <v>4</v>
+      </c>
+      <c r="T98">
+        <v>6</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>1</v>
+      </c>
+      <c r="AC98">
+        <v>0</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98">
+        <v>0</v>
+      </c>
+      <c r="AH98">
+        <f>SUM(N96:N98)</f>
+        <v>18</v>
+      </c>
+      <c r="AI98">
+        <f t="shared" ref="AI98" si="606">SUM(O96:O98)</f>
+        <v>14</v>
+      </c>
+      <c r="AJ98">
+        <f t="shared" ref="AJ98" si="607">SUM(P96:P98)</f>
+        <v>5</v>
+      </c>
+      <c r="AK98">
+        <f t="shared" ref="AK98" si="608">SUM(Q96:Q98)</f>
+        <v>30</v>
+      </c>
+      <c r="AL98">
+        <f t="shared" ref="AL98" si="609">SUM(R96:R98)</f>
+        <v>11</v>
+      </c>
+      <c r="AM98">
+        <f t="shared" ref="AM98" si="610">SUM(S96:S98)</f>
+        <v>4</v>
+      </c>
+      <c r="AN98">
+        <f t="shared" ref="AN98" si="611">SUM(T96:T98)</f>
+        <v>11</v>
+      </c>
+      <c r="AO98">
+        <f t="shared" ref="AO98" si="612">SUM(U96:U98)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2023</v>
+      </c>
+      <c r="B99" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C99">
+        <v>33</v>
+      </c>
+      <c r="D99" t="s">
+        <v>59</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99">
+        <v>5</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99" t="s">
+        <v>36</v>
+      </c>
+      <c r="J99" t="s">
+        <v>31</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="260"/>
+        <v>30</v>
+      </c>
+      <c r="L99">
+        <v>6</v>
+      </c>
+      <c r="M99">
+        <v>5</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99">
+        <v>4</v>
+      </c>
+      <c r="P99">
+        <v>5</v>
+      </c>
+      <c r="Q99">
+        <v>8</v>
+      </c>
+      <c r="R99">
+        <v>5</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>5</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <v>0</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
+      </c>
+      <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99">
+        <v>0</v>
+      </c>
+      <c r="AH99">
+        <f>SUM(N99:N101)</f>
+        <v>7</v>
+      </c>
+      <c r="AI99">
+        <f t="shared" ref="AI99" si="613">SUM(O99:O101)</f>
+        <v>18</v>
+      </c>
+      <c r="AJ99">
+        <f t="shared" ref="AJ99" si="614">SUM(P99:P101)</f>
+        <v>11</v>
+      </c>
+      <c r="AK99">
+        <f t="shared" ref="AK99" si="615">SUM(Q99:Q101)</f>
+        <v>31</v>
+      </c>
+      <c r="AL99">
+        <f t="shared" ref="AL99" si="616">SUM(R99:R101)</f>
+        <v>19</v>
+      </c>
+      <c r="AM99">
+        <f t="shared" ref="AM99" si="617">SUM(S99:S101)</f>
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <f t="shared" ref="AN99" si="618">SUM(T99:T101)</f>
+        <v>5</v>
+      </c>
+      <c r="AO99">
+        <f t="shared" ref="AO99" si="619">SUM(U99:U101)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>2023</v>
+      </c>
+      <c r="B100" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C100">
+        <v>33</v>
+      </c>
+      <c r="D100" t="s">
+        <v>59</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100">
+        <v>13</v>
+      </c>
+      <c r="G100">
+        <v>4</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100" t="s">
+        <v>32</v>
+      </c>
+      <c r="J100" t="s">
+        <v>31</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="260"/>
+        <v>30</v>
+      </c>
+      <c r="L100">
+        <v>5</v>
+      </c>
+      <c r="M100">
+        <v>5</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100">
+        <v>4</v>
+      </c>
+      <c r="P100">
+        <v>3</v>
+      </c>
+      <c r="Q100">
+        <v>11</v>
+      </c>
+      <c r="R100">
+        <v>5</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>3</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
+      </c>
+      <c r="AC100">
+        <v>0</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>1</v>
+      </c>
+      <c r="AF100">
+        <v>0</v>
+      </c>
+      <c r="AG100">
+        <v>0</v>
+      </c>
+      <c r="AH100">
+        <f>SUM(N99:N101)</f>
+        <v>7</v>
+      </c>
+      <c r="AI100">
+        <f t="shared" ref="AI100" si="620">SUM(O99:O101)</f>
+        <v>18</v>
+      </c>
+      <c r="AJ100">
+        <f t="shared" ref="AJ100" si="621">SUM(P99:P101)</f>
+        <v>11</v>
+      </c>
+      <c r="AK100">
+        <f t="shared" ref="AK100" si="622">SUM(Q99:Q101)</f>
+        <v>31</v>
+      </c>
+      <c r="AL100">
+        <f t="shared" ref="AL100" si="623">SUM(R99:R101)</f>
+        <v>19</v>
+      </c>
+      <c r="AM100">
+        <f t="shared" ref="AM100" si="624">SUM(S99:S101)</f>
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <f t="shared" ref="AN100" si="625">SUM(T99:T101)</f>
+        <v>5</v>
+      </c>
+      <c r="AO100">
+        <f t="shared" ref="AO100" si="626">SUM(U99:U101)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>2023</v>
+      </c>
+      <c r="B101" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C101">
+        <v>33</v>
+      </c>
+      <c r="D101" t="s">
+        <v>59</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101">
+        <v>7</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101" t="s">
+        <v>37</v>
+      </c>
+      <c r="J101" t="s">
+        <v>31</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="260"/>
+        <v>37</v>
+      </c>
+      <c r="L101">
+        <v>4</v>
+      </c>
+      <c r="M101">
+        <v>4</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>10</v>
+      </c>
+      <c r="P101">
+        <v>3</v>
+      </c>
+      <c r="Q101">
+        <v>12</v>
+      </c>
+      <c r="R101">
+        <v>9</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>3</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+      <c r="AC101">
+        <v>1</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101">
+        <v>0</v>
+      </c>
+      <c r="AH101">
+        <f>SUM(N99:N101)</f>
+        <v>7</v>
+      </c>
+      <c r="AI101">
+        <f t="shared" ref="AI101" si="627">SUM(O99:O101)</f>
+        <v>18</v>
+      </c>
+      <c r="AJ101">
+        <f t="shared" ref="AJ101" si="628">SUM(P99:P101)</f>
+        <v>11</v>
+      </c>
+      <c r="AK101">
+        <f t="shared" ref="AK101" si="629">SUM(Q99:Q101)</f>
+        <v>31</v>
+      </c>
+      <c r="AL101">
+        <f t="shared" ref="AL101" si="630">SUM(R99:R101)</f>
+        <v>19</v>
+      </c>
+      <c r="AM101">
+        <f t="shared" ref="AM101" si="631">SUM(S99:S101)</f>
+        <v>0</v>
+      </c>
+      <c r="AN101">
+        <f t="shared" ref="AN101" si="632">SUM(T99:T101)</f>
+        <v>5</v>
+      </c>
+      <c r="AO101">
+        <f t="shared" ref="AO101" si="633">SUM(U99:U101)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2023</v>
+      </c>
+      <c r="B102" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C102">
+        <v>34</v>
+      </c>
+      <c r="D102" t="s">
+        <v>59</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102">
+        <v>8</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102" t="s">
+        <v>36</v>
+      </c>
+      <c r="J102" t="s">
+        <v>31</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="260"/>
+        <v>33</v>
+      </c>
+      <c r="L102">
+        <v>6</v>
+      </c>
+      <c r="M102">
+        <v>4</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>10</v>
+      </c>
+      <c r="Q102">
+        <v>4</v>
+      </c>
+      <c r="R102">
+        <v>8</v>
+      </c>
+      <c r="S102">
+        <v>3</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>5</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
+      </c>
+      <c r="AB102">
+        <v>0</v>
+      </c>
+      <c r="AC102">
+        <v>0</v>
+      </c>
+      <c r="AD102">
+        <v>1</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
+      </c>
+      <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102">
+        <v>1</v>
+      </c>
+      <c r="AH102">
+        <f>SUM(N102:N104)</f>
+        <v>17</v>
+      </c>
+      <c r="AI102">
+        <f t="shared" ref="AI102" si="634">SUM(O102:O104)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ102">
+        <f t="shared" ref="AJ102" si="635">SUM(P102:P104)</f>
+        <v>20</v>
+      </c>
+      <c r="AK102">
+        <f t="shared" ref="AK102" si="636">SUM(Q102:Q104)</f>
+        <v>15</v>
+      </c>
+      <c r="AL102">
+        <f t="shared" ref="AL102" si="637">SUM(R102:R104)</f>
+        <v>12</v>
+      </c>
+      <c r="AM102">
+        <f t="shared" ref="AM102" si="638">SUM(S102:S104)</f>
+        <v>17</v>
+      </c>
+      <c r="AN102">
+        <f t="shared" ref="AN102" si="639">SUM(T102:T104)</f>
+        <v>0</v>
+      </c>
+      <c r="AO102">
+        <f t="shared" ref="AO102" si="640">SUM(U102:U104)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2023</v>
+      </c>
+      <c r="B103" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C103">
+        <v>34</v>
+      </c>
+      <c r="D103" t="s">
+        <v>59</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103">
+        <v>6</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>3</v>
+      </c>
+      <c r="I103" t="s">
+        <v>32</v>
+      </c>
+      <c r="J103" t="s">
+        <v>31</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="260"/>
+        <v>34</v>
+      </c>
+      <c r="L103">
+        <v>4</v>
+      </c>
+      <c r="M103">
+        <v>4</v>
+      </c>
+      <c r="N103">
+        <v>7</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>5</v>
+      </c>
+      <c r="Q103">
+        <v>11</v>
+      </c>
+      <c r="R103">
+        <v>4</v>
+      </c>
+      <c r="S103">
+        <v>7</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
+        <v>0</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
+        <v>0</v>
+      </c>
+      <c r="AG103">
+        <v>0</v>
+      </c>
+      <c r="AH103">
+        <f>SUM(N102:N104)</f>
+        <v>17</v>
+      </c>
+      <c r="AI103">
+        <f t="shared" ref="AI103" si="641">SUM(O102:O104)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ103">
+        <f t="shared" ref="AJ103" si="642">SUM(P102:P104)</f>
+        <v>20</v>
+      </c>
+      <c r="AK103">
+        <f t="shared" ref="AK103" si="643">SUM(Q102:Q104)</f>
+        <v>15</v>
+      </c>
+      <c r="AL103">
+        <f t="shared" ref="AL103" si="644">SUM(R102:R104)</f>
+        <v>12</v>
+      </c>
+      <c r="AM103">
+        <f t="shared" ref="AM103" si="645">SUM(S102:S104)</f>
+        <v>17</v>
+      </c>
+      <c r="AN103">
+        <f t="shared" ref="AN103" si="646">SUM(T102:T104)</f>
+        <v>0</v>
+      </c>
+      <c r="AO103">
+        <f t="shared" ref="AO103" si="647">SUM(U102:U104)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>2023</v>
+      </c>
+      <c r="B104" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C104">
+        <v>34</v>
+      </c>
+      <c r="D104" t="s">
+        <v>59</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104">
+        <v>13</v>
+      </c>
+      <c r="G104">
+        <v>5</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
+        <v>37</v>
+      </c>
+      <c r="J104" t="s">
+        <v>31</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="260"/>
+        <v>34</v>
+      </c>
+      <c r="L104">
+        <v>5</v>
+      </c>
+      <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104">
+        <v>7</v>
+      </c>
+      <c r="O104">
+        <v>10</v>
+      </c>
+      <c r="P104">
+        <v>5</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>7</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>5</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>1</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+      <c r="AF104">
+        <v>1</v>
+      </c>
+      <c r="AG104">
+        <v>0</v>
+      </c>
+      <c r="AH104">
+        <f>SUM(N102:N104)</f>
+        <v>17</v>
+      </c>
+      <c r="AI104">
+        <f t="shared" ref="AI104" si="648">SUM(O102:O104)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ104">
+        <f t="shared" ref="AJ104" si="649">SUM(P102:P104)</f>
+        <v>20</v>
+      </c>
+      <c r="AK104">
+        <f t="shared" ref="AK104" si="650">SUM(Q102:Q104)</f>
+        <v>15</v>
+      </c>
+      <c r="AL104">
+        <f t="shared" ref="AL104" si="651">SUM(R102:R104)</f>
+        <v>12</v>
+      </c>
+      <c r="AM104">
+        <f t="shared" ref="AM104" si="652">SUM(S102:S104)</f>
+        <v>17</v>
+      </c>
+      <c r="AN104">
+        <f t="shared" ref="AN104" si="653">SUM(T102:T104)</f>
+        <v>0</v>
+      </c>
+      <c r="AO104">
+        <f t="shared" ref="AO104" si="654">SUM(U102:U104)</f>
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AO47" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
+  <autoFilter ref="A2:AO101" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:AA8 V3:W41 X9:Y41 V44:Y56 V58:Y1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Desktop\Projects\dev\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9C0F69-3F23-4B15-86B6-B79D85044F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76987566-9B1D-4F15-AD0E-5AB5A071DAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -17,10 +17,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AO$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AO$113</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="61">
   <si>
     <t>season</t>
   </si>
@@ -599,13 +598,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AO104"/>
+  <dimension ref="A1:AO116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M103" sqref="M103"/>
+      <selection pane="bottomRight" activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6382,7 +6381,7 @@
         <v>31</v>
       </c>
       <c r="K45">
-        <f t="shared" ref="K45:K104" si="260">SUM(N45:U45)</f>
+        <f t="shared" ref="K45:K108" si="260">SUM(N45:U45)</f>
         <v>30</v>
       </c>
       <c r="L45">
@@ -14192,8 +14191,1616 @@
         <v>10</v>
       </c>
     </row>
+    <row r="105" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2023</v>
+      </c>
+      <c r="B105" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C105">
+        <v>35</v>
+      </c>
+      <c r="D105" t="s">
+        <v>59</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105">
+        <v>8</v>
+      </c>
+      <c r="G105">
+        <v>2</v>
+      </c>
+      <c r="H105">
+        <v>3</v>
+      </c>
+      <c r="I105" t="s">
+        <v>36</v>
+      </c>
+      <c r="J105" t="s">
+        <v>32</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="260"/>
+        <v>32</v>
+      </c>
+      <c r="L105">
+        <v>6</v>
+      </c>
+      <c r="M105">
+        <v>4</v>
+      </c>
+      <c r="N105">
+        <v>8</v>
+      </c>
+      <c r="O105">
+        <v>3</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>14</v>
+      </c>
+      <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
+        <v>3</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105">
+        <v>1</v>
+      </c>
+      <c r="AC105">
+        <v>0</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+      <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105">
+        <v>0</v>
+      </c>
+      <c r="AH105">
+        <f>SUM(N105:N107)</f>
+        <v>18</v>
+      </c>
+      <c r="AI105">
+        <f t="shared" ref="AI105" si="655">SUM(O105:O107)</f>
+        <v>11</v>
+      </c>
+      <c r="AJ105">
+        <f t="shared" ref="AJ105" si="656">SUM(P105:P107)</f>
+        <v>6</v>
+      </c>
+      <c r="AK105">
+        <f t="shared" ref="AK105" si="657">SUM(Q105:Q107)</f>
+        <v>28</v>
+      </c>
+      <c r="AL105">
+        <f t="shared" ref="AL105" si="658">SUM(R105:R107)</f>
+        <v>8</v>
+      </c>
+      <c r="AM105">
+        <f t="shared" ref="AM105" si="659">SUM(S105:S107)</f>
+        <v>13</v>
+      </c>
+      <c r="AN105">
+        <f t="shared" ref="AN105" si="660">SUM(T105:T107)</f>
+        <v>6</v>
+      </c>
+      <c r="AO105">
+        <f t="shared" ref="AO105" si="661">SUM(U105:U107)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2023</v>
+      </c>
+      <c r="B106" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C106">
+        <v>35</v>
+      </c>
+      <c r="D106" t="s">
+        <v>59</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106">
+        <v>13</v>
+      </c>
+      <c r="G106">
+        <v>5</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
+        <v>32</v>
+      </c>
+      <c r="J106" t="s">
+        <v>32</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="260"/>
+        <v>33</v>
+      </c>
+      <c r="L106">
+        <v>5</v>
+      </c>
+      <c r="M106">
+        <v>5</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="O106">
+        <v>5</v>
+      </c>
+      <c r="P106">
+        <v>2</v>
+      </c>
+      <c r="Q106">
+        <v>10</v>
+      </c>
+      <c r="R106">
+        <v>4</v>
+      </c>
+      <c r="S106">
+        <v>4</v>
+      </c>
+      <c r="T106">
+        <v>4</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+      <c r="AB106">
+        <v>0</v>
+      </c>
+      <c r="AC106">
+        <v>0</v>
+      </c>
+      <c r="AD106">
+        <v>1</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+      <c r="AF106">
+        <v>0</v>
+      </c>
+      <c r="AG106">
+        <v>1</v>
+      </c>
+      <c r="AH106">
+        <f>SUM(N105:N107)</f>
+        <v>18</v>
+      </c>
+      <c r="AI106">
+        <f t="shared" ref="AI106" si="662">SUM(O105:O107)</f>
+        <v>11</v>
+      </c>
+      <c r="AJ106">
+        <f t="shared" ref="AJ106" si="663">SUM(P105:P107)</f>
+        <v>6</v>
+      </c>
+      <c r="AK106">
+        <f t="shared" ref="AK106" si="664">SUM(Q105:Q107)</f>
+        <v>28</v>
+      </c>
+      <c r="AL106">
+        <f t="shared" ref="AL106" si="665">SUM(R105:R107)</f>
+        <v>8</v>
+      </c>
+      <c r="AM106">
+        <f t="shared" ref="AM106" si="666">SUM(S105:S107)</f>
+        <v>13</v>
+      </c>
+      <c r="AN106">
+        <f t="shared" ref="AN106" si="667">SUM(T105:T107)</f>
+        <v>6</v>
+      </c>
+      <c r="AO106">
+        <f t="shared" ref="AO106" si="668">SUM(U105:U107)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>2023</v>
+      </c>
+      <c r="B107" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C107">
+        <v>35</v>
+      </c>
+      <c r="D107" t="s">
+        <v>59</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107">
+        <v>11</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+      <c r="H107">
+        <v>2</v>
+      </c>
+      <c r="I107" t="s">
+        <v>37</v>
+      </c>
+      <c r="J107" t="s">
+        <v>32</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="260"/>
+        <v>29</v>
+      </c>
+      <c r="L107">
+        <v>6</v>
+      </c>
+      <c r="M107">
+        <v>5</v>
+      </c>
+      <c r="N107">
+        <v>6</v>
+      </c>
+      <c r="O107">
+        <v>3</v>
+      </c>
+      <c r="P107">
+        <v>4</v>
+      </c>
+      <c r="Q107">
+        <v>4</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>6</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>4</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>1</v>
+      </c>
+      <c r="AC107">
+        <v>0</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
+      </c>
+      <c r="AF107">
+        <v>0</v>
+      </c>
+      <c r="AG107">
+        <v>0</v>
+      </c>
+      <c r="AH107">
+        <f>SUM(N105:N107)</f>
+        <v>18</v>
+      </c>
+      <c r="AI107">
+        <f t="shared" ref="AI107" si="669">SUM(O105:O107)</f>
+        <v>11</v>
+      </c>
+      <c r="AJ107">
+        <f t="shared" ref="AJ107" si="670">SUM(P105:P107)</f>
+        <v>6</v>
+      </c>
+      <c r="AK107">
+        <f t="shared" ref="AK107" si="671">SUM(Q105:Q107)</f>
+        <v>28</v>
+      </c>
+      <c r="AL107">
+        <f t="shared" ref="AL107" si="672">SUM(R105:R107)</f>
+        <v>8</v>
+      </c>
+      <c r="AM107">
+        <f t="shared" ref="AM107" si="673">SUM(S105:S107)</f>
+        <v>13</v>
+      </c>
+      <c r="AN107">
+        <f t="shared" ref="AN107" si="674">SUM(T105:T107)</f>
+        <v>6</v>
+      </c>
+      <c r="AO107">
+        <f t="shared" ref="AO107" si="675">SUM(U105:U107)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2023</v>
+      </c>
+      <c r="B108" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C108">
+        <v>36</v>
+      </c>
+      <c r="D108" t="s">
+        <v>59</v>
+      </c>
+      <c r="E108" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108">
+        <v>5</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>3</v>
+      </c>
+      <c r="I108" t="s">
+        <v>36</v>
+      </c>
+      <c r="J108" t="s">
+        <v>32</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="260"/>
+        <v>31</v>
+      </c>
+      <c r="L108">
+        <v>5</v>
+      </c>
+      <c r="M108">
+        <v>4</v>
+      </c>
+      <c r="N108">
+        <v>10</v>
+      </c>
+      <c r="O108">
+        <v>3</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>8</v>
+      </c>
+      <c r="R108">
+        <v>5</v>
+      </c>
+      <c r="S108">
+        <v>5</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108">
+        <v>1</v>
+      </c>
+      <c r="AC108">
+        <v>0</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+      <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108">
+        <v>0</v>
+      </c>
+      <c r="AH108">
+        <f>SUM(N108:N110)</f>
+        <v>20</v>
+      </c>
+      <c r="AI108">
+        <f t="shared" ref="AI108" si="676">SUM(O108:O110)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ108">
+        <f t="shared" ref="AJ108" si="677">SUM(P108:P110)</f>
+        <v>18</v>
+      </c>
+      <c r="AK108">
+        <f t="shared" ref="AK108" si="678">SUM(Q108:Q110)</f>
+        <v>24</v>
+      </c>
+      <c r="AL108">
+        <f t="shared" ref="AL108" si="679">SUM(R108:R110)</f>
+        <v>7</v>
+      </c>
+      <c r="AM108">
+        <f t="shared" ref="AM108" si="680">SUM(S108:S110)</f>
+        <v>7</v>
+      </c>
+      <c r="AN108">
+        <f t="shared" ref="AN108" si="681">SUM(T108:T110)</f>
+        <v>2</v>
+      </c>
+      <c r="AO108">
+        <f t="shared" ref="AO108" si="682">SUM(U108:U110)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2023</v>
+      </c>
+      <c r="B109" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C109">
+        <v>36</v>
+      </c>
+      <c r="D109" t="s">
+        <v>59</v>
+      </c>
+      <c r="E109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109">
+        <v>6</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109" t="s">
+        <v>32</v>
+      </c>
+      <c r="J109" t="s">
+        <v>32</v>
+      </c>
+      <c r="K109">
+        <f t="shared" ref="K109:K116" si="683">SUM(N109:U109)</f>
+        <v>31</v>
+      </c>
+      <c r="L109">
+        <v>4</v>
+      </c>
+      <c r="M109">
+        <v>4</v>
+      </c>
+      <c r="N109">
+        <v>7</v>
+      </c>
+      <c r="O109">
+        <v>6</v>
+      </c>
+      <c r="P109">
+        <v>4</v>
+      </c>
+      <c r="Q109">
+        <v>8</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>2</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>4</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <v>0</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>1</v>
+      </c>
+      <c r="AF109">
+        <v>0</v>
+      </c>
+      <c r="AG109">
+        <v>0</v>
+      </c>
+      <c r="AH109">
+        <f>SUM(N108:N110)</f>
+        <v>20</v>
+      </c>
+      <c r="AI109">
+        <f t="shared" ref="AI109" si="684">SUM(O108:O110)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ109">
+        <f t="shared" ref="AJ109" si="685">SUM(P108:P110)</f>
+        <v>18</v>
+      </c>
+      <c r="AK109">
+        <f t="shared" ref="AK109" si="686">SUM(Q108:Q110)</f>
+        <v>24</v>
+      </c>
+      <c r="AL109">
+        <f t="shared" ref="AL109" si="687">SUM(R108:R110)</f>
+        <v>7</v>
+      </c>
+      <c r="AM109">
+        <f t="shared" ref="AM109" si="688">SUM(S108:S110)</f>
+        <v>7</v>
+      </c>
+      <c r="AN109">
+        <f t="shared" ref="AN109" si="689">SUM(T108:T110)</f>
+        <v>2</v>
+      </c>
+      <c r="AO109">
+        <f t="shared" ref="AO109" si="690">SUM(U108:U110)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2023</v>
+      </c>
+      <c r="B110" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C110">
+        <v>36</v>
+      </c>
+      <c r="D110" t="s">
+        <v>59</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+      <c r="G110">
+        <v>7</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>37</v>
+      </c>
+      <c r="J110" t="s">
+        <v>32</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="683"/>
+        <v>34</v>
+      </c>
+      <c r="L110">
+        <v>6</v>
+      </c>
+      <c r="M110">
+        <v>4</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>14</v>
+      </c>
+      <c r="Q110">
+        <v>8</v>
+      </c>
+      <c r="R110">
+        <v>2</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
+        <v>5</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
+        <v>0</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
+      </c>
+      <c r="AF110">
+        <v>0</v>
+      </c>
+      <c r="AG110">
+        <v>0</v>
+      </c>
+      <c r="AH110">
+        <f>SUM(N108:N110)</f>
+        <v>20</v>
+      </c>
+      <c r="AI110">
+        <f t="shared" ref="AI110" si="691">SUM(O108:O110)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ110">
+        <f t="shared" ref="AJ110" si="692">SUM(P108:P110)</f>
+        <v>18</v>
+      </c>
+      <c r="AK110">
+        <f t="shared" ref="AK110" si="693">SUM(Q108:Q110)</f>
+        <v>24</v>
+      </c>
+      <c r="AL110">
+        <f t="shared" ref="AL110" si="694">SUM(R108:R110)</f>
+        <v>7</v>
+      </c>
+      <c r="AM110">
+        <f t="shared" ref="AM110" si="695">SUM(S108:S110)</f>
+        <v>7</v>
+      </c>
+      <c r="AN110">
+        <f t="shared" ref="AN110" si="696">SUM(T108:T110)</f>
+        <v>2</v>
+      </c>
+      <c r="AO110">
+        <f t="shared" ref="AO110" si="697">SUM(U108:U110)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2023</v>
+      </c>
+      <c r="B111" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C111">
+        <v>37</v>
+      </c>
+      <c r="D111" t="s">
+        <v>59</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111">
+        <v>5</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>3</v>
+      </c>
+      <c r="I111" t="s">
+        <v>36</v>
+      </c>
+      <c r="J111" t="s">
+        <v>31</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="683"/>
+        <v>33</v>
+      </c>
+      <c r="L111">
+        <v>4</v>
+      </c>
+      <c r="M111">
+        <v>5</v>
+      </c>
+      <c r="N111">
+        <v>9</v>
+      </c>
+      <c r="O111">
+        <v>4</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>10</v>
+      </c>
+      <c r="R111">
+        <v>4</v>
+      </c>
+      <c r="S111">
+        <v>4</v>
+      </c>
+      <c r="T111">
+        <v>1</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111">
+        <v>1</v>
+      </c>
+      <c r="AC111">
+        <v>0</v>
+      </c>
+      <c r="AD111">
+        <v>1</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
+      </c>
+      <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AG111">
+        <v>0</v>
+      </c>
+      <c r="AH111">
+        <f>SUM(N111:N113)</f>
+        <v>23</v>
+      </c>
+      <c r="AI111">
+        <f t="shared" ref="AI111" si="698">SUM(O111:O113)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ111">
+        <f t="shared" ref="AJ111" si="699">SUM(P111:P113)</f>
+        <v>9</v>
+      </c>
+      <c r="AK111">
+        <f t="shared" ref="AK111" si="700">SUM(Q111:Q113)</f>
+        <v>23</v>
+      </c>
+      <c r="AL111">
+        <f t="shared" ref="AL111" si="701">SUM(R111:R113)</f>
+        <v>12</v>
+      </c>
+      <c r="AM111">
+        <f t="shared" ref="AM111" si="702">SUM(S111:S113)</f>
+        <v>8</v>
+      </c>
+      <c r="AN111">
+        <f t="shared" ref="AN111" si="703">SUM(T111:T113)</f>
+        <v>5</v>
+      </c>
+      <c r="AO111">
+        <f t="shared" ref="AO111" si="704">SUM(U111:U113)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>2023</v>
+      </c>
+      <c r="B112" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C112">
+        <v>37</v>
+      </c>
+      <c r="D112" t="s">
+        <v>59</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112">
+        <v>7</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112" t="s">
+        <v>32</v>
+      </c>
+      <c r="J112" t="s">
+        <v>31</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="683"/>
+        <v>30</v>
+      </c>
+      <c r="L112">
+        <v>6</v>
+      </c>
+      <c r="M112">
+        <v>5</v>
+      </c>
+      <c r="N112">
+        <v>9</v>
+      </c>
+      <c r="O112">
+        <v>4</v>
+      </c>
+      <c r="P112">
+        <v>3</v>
+      </c>
+      <c r="Q112">
+        <v>3</v>
+      </c>
+      <c r="R112">
+        <v>4</v>
+      </c>
+      <c r="S112">
+        <v>4</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>3</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
+      </c>
+      <c r="AB112">
+        <v>0</v>
+      </c>
+      <c r="AC112">
+        <v>0</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
+      </c>
+      <c r="AF112">
+        <v>0</v>
+      </c>
+      <c r="AG112">
+        <v>0</v>
+      </c>
+      <c r="AH112">
+        <f>SUM(N111:N113)</f>
+        <v>23</v>
+      </c>
+      <c r="AI112">
+        <f t="shared" ref="AI112" si="705">SUM(O111:O113)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ112">
+        <f t="shared" ref="AJ112" si="706">SUM(P111:P113)</f>
+        <v>9</v>
+      </c>
+      <c r="AK112">
+        <f t="shared" ref="AK112" si="707">SUM(Q111:Q113)</f>
+        <v>23</v>
+      </c>
+      <c r="AL112">
+        <f t="shared" ref="AL112" si="708">SUM(R111:R113)</f>
+        <v>12</v>
+      </c>
+      <c r="AM112">
+        <f t="shared" ref="AM112" si="709">SUM(S111:S113)</f>
+        <v>8</v>
+      </c>
+      <c r="AN112">
+        <f t="shared" ref="AN112" si="710">SUM(T111:T113)</f>
+        <v>5</v>
+      </c>
+      <c r="AO112">
+        <f t="shared" ref="AO112" si="711">SUM(U111:U113)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>2023</v>
+      </c>
+      <c r="B113" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C113">
+        <v>37</v>
+      </c>
+      <c r="D113" t="s">
+        <v>59</v>
+      </c>
+      <c r="E113" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113">
+        <v>13</v>
+      </c>
+      <c r="G113">
+        <v>8</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113" t="s">
+        <v>37</v>
+      </c>
+      <c r="J113" t="s">
+        <v>31</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="683"/>
+        <v>33</v>
+      </c>
+      <c r="L113">
+        <v>6</v>
+      </c>
+      <c r="M113">
+        <v>5</v>
+      </c>
+      <c r="N113">
+        <v>5</v>
+      </c>
+      <c r="O113">
+        <v>2</v>
+      </c>
+      <c r="P113">
+        <v>5</v>
+      </c>
+      <c r="Q113">
+        <v>10</v>
+      </c>
+      <c r="R113">
+        <v>4</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>4</v>
+      </c>
+      <c r="U113">
+        <v>3</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113">
+        <v>0</v>
+      </c>
+      <c r="AC113">
+        <v>1</v>
+      </c>
+      <c r="AD113">
+        <v>0</v>
+      </c>
+      <c r="AE113">
+        <v>0</v>
+      </c>
+      <c r="AF113">
+        <v>0</v>
+      </c>
+      <c r="AG113">
+        <v>0</v>
+      </c>
+      <c r="AH113">
+        <f>SUM(N111:N113)</f>
+        <v>23</v>
+      </c>
+      <c r="AI113">
+        <f t="shared" ref="AI113" si="712">SUM(O111:O113)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ113">
+        <f t="shared" ref="AJ113" si="713">SUM(P111:P113)</f>
+        <v>9</v>
+      </c>
+      <c r="AK113">
+        <f t="shared" ref="AK113" si="714">SUM(Q111:Q113)</f>
+        <v>23</v>
+      </c>
+      <c r="AL113">
+        <f t="shared" ref="AL113" si="715">SUM(R111:R113)</f>
+        <v>12</v>
+      </c>
+      <c r="AM113">
+        <f t="shared" ref="AM113" si="716">SUM(S111:S113)</f>
+        <v>8</v>
+      </c>
+      <c r="AN113">
+        <f t="shared" ref="AN113" si="717">SUM(T111:T113)</f>
+        <v>5</v>
+      </c>
+      <c r="AO113">
+        <f t="shared" ref="AO113" si="718">SUM(U111:U113)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2023</v>
+      </c>
+      <c r="B114" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C114">
+        <v>38</v>
+      </c>
+      <c r="D114" t="s">
+        <v>59</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114">
+        <v>8</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114" t="s">
+        <v>36</v>
+      </c>
+      <c r="J114" t="s">
+        <v>31</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="683"/>
+        <v>36</v>
+      </c>
+      <c r="L114">
+        <v>4</v>
+      </c>
+      <c r="M114">
+        <v>4</v>
+      </c>
+      <c r="N114">
+        <v>9</v>
+      </c>
+      <c r="O114">
+        <v>3</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>4</v>
+      </c>
+      <c r="R114">
+        <v>8</v>
+      </c>
+      <c r="S114">
+        <v>9</v>
+      </c>
+      <c r="T114">
+        <v>3</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+      <c r="AB114">
+        <v>0</v>
+      </c>
+      <c r="AC114">
+        <v>0</v>
+      </c>
+      <c r="AD114">
+        <v>1</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
+      </c>
+      <c r="AF114">
+        <v>0</v>
+      </c>
+      <c r="AG114">
+        <v>1</v>
+      </c>
+      <c r="AH114">
+        <f>SUM(N114:N116)</f>
+        <v>19</v>
+      </c>
+      <c r="AI114">
+        <f t="shared" ref="AI114" si="719">SUM(O114:O116)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ114">
+        <f t="shared" ref="AJ114" si="720">SUM(P114:P116)</f>
+        <v>15</v>
+      </c>
+      <c r="AK114">
+        <f t="shared" ref="AK114" si="721">SUM(Q114:Q116)</f>
+        <v>8</v>
+      </c>
+      <c r="AL114">
+        <f t="shared" ref="AL114" si="722">SUM(R114:R116)</f>
+        <v>18</v>
+      </c>
+      <c r="AM114">
+        <f t="shared" ref="AM114" si="723">SUM(S114:S116)</f>
+        <v>15</v>
+      </c>
+      <c r="AN114">
+        <f t="shared" ref="AN114" si="724">SUM(T114:T116)</f>
+        <v>3</v>
+      </c>
+      <c r="AO114">
+        <f t="shared" ref="AO114" si="725">SUM(U114:U116)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2023</v>
+      </c>
+      <c r="B115" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C115">
+        <v>38</v>
+      </c>
+      <c r="D115" t="s">
+        <v>59</v>
+      </c>
+      <c r="E115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115">
+        <v>13</v>
+      </c>
+      <c r="G115">
+        <v>6</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115" t="s">
+        <v>32</v>
+      </c>
+      <c r="J115" t="s">
+        <v>31</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="683"/>
+        <v>33</v>
+      </c>
+      <c r="L115">
+        <v>4</v>
+      </c>
+      <c r="M115">
+        <v>4</v>
+      </c>
+      <c r="N115">
+        <v>5</v>
+      </c>
+      <c r="O115">
+        <v>4</v>
+      </c>
+      <c r="P115">
+        <v>9</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>5</v>
+      </c>
+      <c r="S115">
+        <v>1</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>9</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+      <c r="AC115">
+        <v>1</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>1</v>
+      </c>
+      <c r="AF115">
+        <v>0</v>
+      </c>
+      <c r="AG115">
+        <v>0</v>
+      </c>
+      <c r="AH115">
+        <f>SUM(N114:N116)</f>
+        <v>19</v>
+      </c>
+      <c r="AI115">
+        <f t="shared" ref="AI115" si="726">SUM(O114:O116)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ115">
+        <f t="shared" ref="AJ115" si="727">SUM(P114:P116)</f>
+        <v>15</v>
+      </c>
+      <c r="AK115">
+        <f t="shared" ref="AK115" si="728">SUM(Q114:Q116)</f>
+        <v>8</v>
+      </c>
+      <c r="AL115">
+        <f t="shared" ref="AL115" si="729">SUM(R114:R116)</f>
+        <v>18</v>
+      </c>
+      <c r="AM115">
+        <f t="shared" ref="AM115" si="730">SUM(S114:S116)</f>
+        <v>15</v>
+      </c>
+      <c r="AN115">
+        <f t="shared" ref="AN115" si="731">SUM(T114:T116)</f>
+        <v>3</v>
+      </c>
+      <c r="AO115">
+        <f t="shared" ref="AO115" si="732">SUM(U114:U116)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2023</v>
+      </c>
+      <c r="B116" s="5">
+        <v>45020</v>
+      </c>
+      <c r="C116">
+        <v>38</v>
+      </c>
+      <c r="D116" t="s">
+        <v>59</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116">
+        <v>6</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="I116" t="s">
+        <v>37</v>
+      </c>
+      <c r="J116" t="s">
+        <v>31</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="683"/>
+        <v>30</v>
+      </c>
+      <c r="L116">
+        <v>3</v>
+      </c>
+      <c r="M116">
+        <v>5</v>
+      </c>
+      <c r="N116">
+        <v>5</v>
+      </c>
+      <c r="O116">
+        <v>2</v>
+      </c>
+      <c r="P116">
+        <v>6</v>
+      </c>
+      <c r="Q116">
+        <v>4</v>
+      </c>
+      <c r="R116">
+        <v>5</v>
+      </c>
+      <c r="S116">
+        <v>5</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>3</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+      <c r="AB116">
+        <v>1</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
+      </c>
+      <c r="AF116">
+        <v>0</v>
+      </c>
+      <c r="AG116">
+        <v>1</v>
+      </c>
+      <c r="AH116">
+        <f>SUM(N114:N116)</f>
+        <v>19</v>
+      </c>
+      <c r="AI116">
+        <f t="shared" ref="AI116" si="733">SUM(O114:O116)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ116">
+        <f t="shared" ref="AJ116" si="734">SUM(P114:P116)</f>
+        <v>15</v>
+      </c>
+      <c r="AK116">
+        <f t="shared" ref="AK116" si="735">SUM(Q114:Q116)</f>
+        <v>8</v>
+      </c>
+      <c r="AL116">
+        <f t="shared" ref="AL116" si="736">SUM(R114:R116)</f>
+        <v>18</v>
+      </c>
+      <c r="AM116">
+        <f t="shared" ref="AM116" si="737">SUM(S114:S116)</f>
+        <v>15</v>
+      </c>
+      <c r="AN116">
+        <f t="shared" ref="AN116" si="738">SUM(T114:T116)</f>
+        <v>3</v>
+      </c>
+      <c r="AO116">
+        <f t="shared" ref="AO116" si="739">SUM(U114:U116)</f>
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AO101" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
+  <autoFilter ref="A2:AO113" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:AA8 V3:W41 X9:Y41 V44:Y56 V58:Y1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Desktop\Projects\dev\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76987566-9B1D-4F15-AD0E-5AB5A071DAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA72596-5EA4-4F10-B9CB-E38F43482E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="61">
   <si>
     <t>season</t>
   </si>
@@ -598,13 +598,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AO116"/>
+  <dimension ref="A1:AO137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I114" sqref="I114"/>
+      <selection pane="bottomRight" activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14759,7 +14759,7 @@
         <v>32</v>
       </c>
       <c r="K109">
-        <f t="shared" ref="K109:K116" si="683">SUM(N109:U109)</f>
+        <f t="shared" ref="K109:K119" si="683">SUM(N109:U109)</f>
         <v>31</v>
       </c>
       <c r="L109">
@@ -15799,10 +15799,2509 @@
         <v>12</v>
       </c>
     </row>
+    <row r="117" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>2023</v>
+      </c>
+      <c r="B117" s="5">
+        <v>45026</v>
+      </c>
+      <c r="C117">
+        <v>39</v>
+      </c>
+      <c r="D117" t="s">
+        <v>46</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117">
+        <v>13</v>
+      </c>
+      <c r="G117">
+        <v>5</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117" t="s">
+        <v>37</v>
+      </c>
+      <c r="J117" t="s">
+        <v>32</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="683"/>
+        <v>32</v>
+      </c>
+      <c r="L117">
+        <v>5</v>
+      </c>
+      <c r="M117">
+        <v>4</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>5</v>
+      </c>
+      <c r="Q117">
+        <v>14</v>
+      </c>
+      <c r="R117">
+        <v>7</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>4</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>0</v>
+      </c>
+      <c r="AB117">
+        <v>0</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
+      <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
+        <v>1</v>
+      </c>
+      <c r="AF117">
+        <v>0</v>
+      </c>
+      <c r="AG117">
+        <v>1</v>
+      </c>
+      <c r="AH117">
+        <f>SUM(N117:N119)</f>
+        <v>7</v>
+      </c>
+      <c r="AI117">
+        <f t="shared" ref="AI117" si="740">SUM(O117:O119)</f>
+        <v>23</v>
+      </c>
+      <c r="AJ117">
+        <f t="shared" ref="AJ117" si="741">SUM(P117:P119)</f>
+        <v>17</v>
+      </c>
+      <c r="AK117">
+        <f t="shared" ref="AK117" si="742">SUM(Q117:Q119)</f>
+        <v>16</v>
+      </c>
+      <c r="AL117">
+        <f t="shared" ref="AL117" si="743">SUM(R117:R119)</f>
+        <v>13</v>
+      </c>
+      <c r="AM117">
+        <f t="shared" ref="AM117" si="744">SUM(S117:S119)</f>
+        <v>2</v>
+      </c>
+      <c r="AN117">
+        <f t="shared" ref="AN117" si="745">SUM(T117:T119)</f>
+        <v>10</v>
+      </c>
+      <c r="AO117">
+        <f t="shared" ref="AO117" si="746">SUM(U117:U119)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>2023</v>
+      </c>
+      <c r="B118" s="5">
+        <v>45026</v>
+      </c>
+      <c r="C118">
+        <v>39</v>
+      </c>
+      <c r="D118" t="s">
+        <v>46</v>
+      </c>
+      <c r="E118" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118">
+        <v>9</v>
+      </c>
+      <c r="G118">
+        <v>2</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118" t="s">
+        <v>36</v>
+      </c>
+      <c r="J118" t="s">
+        <v>32</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="683"/>
+        <v>29</v>
+      </c>
+      <c r="L118">
+        <v>6</v>
+      </c>
+      <c r="M118">
+        <v>4</v>
+      </c>
+      <c r="N118">
+        <v>5</v>
+      </c>
+      <c r="O118">
+        <v>10</v>
+      </c>
+      <c r="P118">
+        <v>4</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>4</v>
+      </c>
+      <c r="S118">
+        <v>2</v>
+      </c>
+      <c r="T118">
+        <v>4</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>0</v>
+      </c>
+      <c r="AB118">
+        <v>0</v>
+      </c>
+      <c r="AC118">
+        <v>1</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
+      </c>
+      <c r="AF118">
+        <v>0</v>
+      </c>
+      <c r="AG118">
+        <v>0</v>
+      </c>
+      <c r="AH118">
+        <f>SUM(N117:N119)</f>
+        <v>7</v>
+      </c>
+      <c r="AI118">
+        <f t="shared" ref="AI118" si="747">SUM(O117:O119)</f>
+        <v>23</v>
+      </c>
+      <c r="AJ118">
+        <f t="shared" ref="AJ118" si="748">SUM(P117:P119)</f>
+        <v>17</v>
+      </c>
+      <c r="AK118">
+        <f t="shared" ref="AK118" si="749">SUM(Q117:Q119)</f>
+        <v>16</v>
+      </c>
+      <c r="AL118">
+        <f t="shared" ref="AL118" si="750">SUM(R117:R119)</f>
+        <v>13</v>
+      </c>
+      <c r="AM118">
+        <f t="shared" ref="AM118" si="751">SUM(S117:S119)</f>
+        <v>2</v>
+      </c>
+      <c r="AN118">
+        <f t="shared" ref="AN118" si="752">SUM(T117:T119)</f>
+        <v>10</v>
+      </c>
+      <c r="AO118">
+        <f t="shared" ref="AO118" si="753">SUM(U117:U119)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>2023</v>
+      </c>
+      <c r="B119" s="5">
+        <v>45026</v>
+      </c>
+      <c r="C119">
+        <v>39</v>
+      </c>
+      <c r="D119" t="s">
+        <v>46</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119">
+        <v>8</v>
+      </c>
+      <c r="G119">
+        <v>4</v>
+      </c>
+      <c r="H119">
+        <v>3</v>
+      </c>
+      <c r="I119" t="s">
+        <v>32</v>
+      </c>
+      <c r="J119" t="s">
+        <v>32</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="683"/>
+        <v>30</v>
+      </c>
+      <c r="L119">
+        <v>5</v>
+      </c>
+      <c r="M119">
+        <v>4</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>13</v>
+      </c>
+      <c r="P119">
+        <v>8</v>
+      </c>
+      <c r="Q119">
+        <v>2</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>2</v>
+      </c>
+      <c r="U119">
+        <v>3</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+      <c r="AB119">
+        <v>0</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
+      <c r="AF119">
+        <v>0</v>
+      </c>
+      <c r="AG119">
+        <v>0</v>
+      </c>
+      <c r="AH119">
+        <f>SUM(N117:N119)</f>
+        <v>7</v>
+      </c>
+      <c r="AI119">
+        <f t="shared" ref="AI119" si="754">SUM(O117:O119)</f>
+        <v>23</v>
+      </c>
+      <c r="AJ119">
+        <f t="shared" ref="AJ119" si="755">SUM(P117:P119)</f>
+        <v>17</v>
+      </c>
+      <c r="AK119">
+        <f t="shared" ref="AK119" si="756">SUM(Q117:Q119)</f>
+        <v>16</v>
+      </c>
+      <c r="AL119">
+        <f t="shared" ref="AL119" si="757">SUM(R117:R119)</f>
+        <v>13</v>
+      </c>
+      <c r="AM119">
+        <f t="shared" ref="AM119" si="758">SUM(S117:S119)</f>
+        <v>2</v>
+      </c>
+      <c r="AN119">
+        <f t="shared" ref="AN119" si="759">SUM(T117:T119)</f>
+        <v>10</v>
+      </c>
+      <c r="AO119">
+        <f t="shared" ref="AO119" si="760">SUM(U117:U119)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>2023</v>
+      </c>
+      <c r="B120" s="5">
+        <v>45026</v>
+      </c>
+      <c r="C120">
+        <v>40</v>
+      </c>
+      <c r="D120" t="s">
+        <v>46</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120">
+        <v>13</v>
+      </c>
+      <c r="G120">
+        <v>5</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2023</v>
+      </c>
+      <c r="B121" s="5">
+        <v>45026</v>
+      </c>
+      <c r="C121">
+        <v>40</v>
+      </c>
+      <c r="D121" t="s">
+        <v>46</v>
+      </c>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121">
+        <v>5</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>3</v>
+      </c>
+      <c r="I121" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2023</v>
+      </c>
+      <c r="B122" s="5">
+        <v>45026</v>
+      </c>
+      <c r="C122">
+        <v>40</v>
+      </c>
+      <c r="D122" t="s">
+        <v>46</v>
+      </c>
+      <c r="E122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122">
+        <v>7</v>
+      </c>
+      <c r="G122">
+        <v>2</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2023</v>
+      </c>
+      <c r="B123" s="5">
+        <v>45026</v>
+      </c>
+      <c r="C123">
+        <v>41</v>
+      </c>
+      <c r="D123" t="s">
+        <v>46</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123">
+        <v>6</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>3</v>
+      </c>
+      <c r="I123" t="s">
+        <v>36</v>
+      </c>
+      <c r="J123" t="s">
+        <v>31</v>
+      </c>
+      <c r="K123">
+        <f t="shared" ref="K123:K137" si="761">SUM(N123:U123)</f>
+        <v>34</v>
+      </c>
+      <c r="L123">
+        <v>5</v>
+      </c>
+      <c r="M123">
+        <v>5</v>
+      </c>
+      <c r="N123">
+        <v>5</v>
+      </c>
+      <c r="O123">
+        <v>16</v>
+      </c>
+      <c r="P123">
+        <v>3</v>
+      </c>
+      <c r="Q123">
+        <v>3</v>
+      </c>
+      <c r="R123">
+        <v>4</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>3</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+      <c r="AB123">
+        <v>1</v>
+      </c>
+      <c r="AC123">
+        <v>0</v>
+      </c>
+      <c r="AD123">
+        <v>0</v>
+      </c>
+      <c r="AE123">
+        <v>0</v>
+      </c>
+      <c r="AF123">
+        <v>0</v>
+      </c>
+      <c r="AG123">
+        <v>1</v>
+      </c>
+      <c r="AH123">
+        <f>SUM(N123:N125)</f>
+        <v>10</v>
+      </c>
+      <c r="AI123">
+        <f t="shared" ref="AI123" si="762">SUM(O123:O125)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ123">
+        <f t="shared" ref="AJ123" si="763">SUM(P123:P125)</f>
+        <v>12</v>
+      </c>
+      <c r="AK123">
+        <f t="shared" ref="AK123" si="764">SUM(Q123:Q125)</f>
+        <v>11</v>
+      </c>
+      <c r="AL123">
+        <f t="shared" ref="AL123" si="765">SUM(R123:R125)</f>
+        <v>18</v>
+      </c>
+      <c r="AM123">
+        <f t="shared" ref="AM123" si="766">SUM(S123:S125)</f>
+        <v>3</v>
+      </c>
+      <c r="AN123">
+        <f t="shared" ref="AN123" si="767">SUM(T123:T125)</f>
+        <v>9</v>
+      </c>
+      <c r="AO123">
+        <f t="shared" ref="AO123" si="768">SUM(U123:U125)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>2023</v>
+      </c>
+      <c r="B124" s="5">
+        <v>45026</v>
+      </c>
+      <c r="C124">
+        <v>41</v>
+      </c>
+      <c r="D124" t="s">
+        <v>46</v>
+      </c>
+      <c r="E124" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124">
+        <v>14</v>
+      </c>
+      <c r="G124">
+        <v>6</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124" t="s">
+        <v>32</v>
+      </c>
+      <c r="J124" t="s">
+        <v>31</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="761"/>
+        <v>32</v>
+      </c>
+      <c r="L124">
+        <v>4</v>
+      </c>
+      <c r="M124">
+        <v>5</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124">
+        <v>4</v>
+      </c>
+      <c r="P124">
+        <v>2</v>
+      </c>
+      <c r="Q124">
+        <v>3</v>
+      </c>
+      <c r="R124">
+        <v>10</v>
+      </c>
+      <c r="S124">
+        <v>3</v>
+      </c>
+      <c r="T124">
+        <v>5</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+      <c r="AB124">
+        <v>0</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
+      <c r="AD124">
+        <v>0</v>
+      </c>
+      <c r="AE124">
+        <v>0</v>
+      </c>
+      <c r="AF124">
+        <v>0</v>
+      </c>
+      <c r="AG124">
+        <v>0</v>
+      </c>
+      <c r="AH124">
+        <f>SUM(N123:N125)</f>
+        <v>10</v>
+      </c>
+      <c r="AI124">
+        <f t="shared" ref="AI124" si="769">SUM(O123:O125)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ124">
+        <f t="shared" ref="AJ124" si="770">SUM(P123:P125)</f>
+        <v>12</v>
+      </c>
+      <c r="AK124">
+        <f t="shared" ref="AK124" si="771">SUM(Q123:Q125)</f>
+        <v>11</v>
+      </c>
+      <c r="AL124">
+        <f t="shared" ref="AL124" si="772">SUM(R123:R125)</f>
+        <v>18</v>
+      </c>
+      <c r="AM124">
+        <f t="shared" ref="AM124" si="773">SUM(S123:S125)</f>
+        <v>3</v>
+      </c>
+      <c r="AN124">
+        <f t="shared" ref="AN124" si="774">SUM(T123:T125)</f>
+        <v>9</v>
+      </c>
+      <c r="AO124">
+        <f t="shared" ref="AO124" si="775">SUM(U123:U125)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>2023</v>
+      </c>
+      <c r="B125" s="5">
+        <v>45026</v>
+      </c>
+      <c r="C125">
+        <v>41</v>
+      </c>
+      <c r="D125" t="s">
+        <v>46</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125">
+        <v>9</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="I125" t="s">
+        <v>37</v>
+      </c>
+      <c r="J125" t="s">
+        <v>31</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="761"/>
+        <v>33</v>
+      </c>
+      <c r="L125">
+        <v>5</v>
+      </c>
+      <c r="M125">
+        <v>5</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125">
+        <v>4</v>
+      </c>
+      <c r="P125">
+        <v>7</v>
+      </c>
+      <c r="Q125">
+        <v>5</v>
+      </c>
+      <c r="R125">
+        <v>4</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>4</v>
+      </c>
+      <c r="U125">
+        <v>7</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+      <c r="AB125">
+        <v>0</v>
+      </c>
+      <c r="AC125">
+        <v>0</v>
+      </c>
+      <c r="AD125">
+        <v>0</v>
+      </c>
+      <c r="AE125">
+        <v>1</v>
+      </c>
+      <c r="AF125">
+        <v>0</v>
+      </c>
+      <c r="AG125">
+        <v>0</v>
+      </c>
+      <c r="AH125">
+        <f>SUM(N123:N125)</f>
+        <v>10</v>
+      </c>
+      <c r="AI125">
+        <f t="shared" ref="AI125" si="776">SUM(O123:O125)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ125">
+        <f t="shared" ref="AJ125" si="777">SUM(P123:P125)</f>
+        <v>12</v>
+      </c>
+      <c r="AK125">
+        <f t="shared" ref="AK125" si="778">SUM(Q123:Q125)</f>
+        <v>11</v>
+      </c>
+      <c r="AL125">
+        <f t="shared" ref="AL125" si="779">SUM(R123:R125)</f>
+        <v>18</v>
+      </c>
+      <c r="AM125">
+        <f t="shared" ref="AM125" si="780">SUM(S123:S125)</f>
+        <v>3</v>
+      </c>
+      <c r="AN125">
+        <f t="shared" ref="AN125" si="781">SUM(T123:T125)</f>
+        <v>9</v>
+      </c>
+      <c r="AO125">
+        <f t="shared" ref="AO125" si="782">SUM(U123:U125)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>2023</v>
+      </c>
+      <c r="B126" s="5">
+        <v>45206</v>
+      </c>
+      <c r="C126">
+        <v>42</v>
+      </c>
+      <c r="D126" t="s">
+        <v>55</v>
+      </c>
+      <c r="E126" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126">
+        <v>9</v>
+      </c>
+      <c r="G126">
+        <v>3</v>
+      </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+      <c r="I126" t="s">
+        <v>36</v>
+      </c>
+      <c r="J126" t="s">
+        <v>32</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="761"/>
+        <v>30</v>
+      </c>
+      <c r="L126">
+        <v>6</v>
+      </c>
+      <c r="M126">
+        <v>4</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126">
+        <v>5</v>
+      </c>
+      <c r="P126">
+        <v>2</v>
+      </c>
+      <c r="Q126">
+        <v>15</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>3</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>2</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AB126">
+        <v>0</v>
+      </c>
+      <c r="AC126">
+        <v>0</v>
+      </c>
+      <c r="AD126">
+        <v>0</v>
+      </c>
+      <c r="AE126">
+        <v>1</v>
+      </c>
+      <c r="AF126">
+        <v>0</v>
+      </c>
+      <c r="AG126">
+        <v>0</v>
+      </c>
+      <c r="AH126">
+        <f>SUM(N126:N128)</f>
+        <v>8</v>
+      </c>
+      <c r="AI126">
+        <f t="shared" ref="AI126" si="783">SUM(O126:O128)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ126">
+        <f t="shared" ref="AJ126" si="784">SUM(P126:P128)</f>
+        <v>12</v>
+      </c>
+      <c r="AK126">
+        <f t="shared" ref="AK126" si="785">SUM(Q126:Q128)</f>
+        <v>24</v>
+      </c>
+      <c r="AL126">
+        <f t="shared" ref="AL126" si="786">SUM(R126:R128)</f>
+        <v>10</v>
+      </c>
+      <c r="AM126">
+        <f t="shared" ref="AM126" si="787">SUM(S126:S128)</f>
+        <v>5</v>
+      </c>
+      <c r="AN126">
+        <f t="shared" ref="AN126" si="788">SUM(T126:T128)</f>
+        <v>6</v>
+      </c>
+      <c r="AO126">
+        <f t="shared" ref="AO126" si="789">SUM(U126:U128)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2023</v>
+      </c>
+      <c r="B127" s="5">
+        <v>45206</v>
+      </c>
+      <c r="C127">
+        <v>42</v>
+      </c>
+      <c r="D127" t="s">
+        <v>55</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127">
+        <v>7</v>
+      </c>
+      <c r="G127">
+        <v>2</v>
+      </c>
+      <c r="H127">
+        <v>3</v>
+      </c>
+      <c r="I127" t="s">
+        <v>32</v>
+      </c>
+      <c r="J127" t="s">
+        <v>32</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="761"/>
+        <v>31</v>
+      </c>
+      <c r="L127">
+        <v>6</v>
+      </c>
+      <c r="M127">
+        <v>4</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>10</v>
+      </c>
+      <c r="P127">
+        <v>5</v>
+      </c>
+      <c r="Q127">
+        <v>4</v>
+      </c>
+      <c r="R127">
+        <v>7</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>3</v>
+      </c>
+      <c r="U127">
+        <v>2</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <v>0</v>
+      </c>
+      <c r="AB127">
+        <v>0</v>
+      </c>
+      <c r="AC127">
+        <v>1</v>
+      </c>
+      <c r="AD127">
+        <v>0</v>
+      </c>
+      <c r="AE127">
+        <v>0</v>
+      </c>
+      <c r="AF127">
+        <v>0</v>
+      </c>
+      <c r="AG127">
+        <v>1</v>
+      </c>
+      <c r="AH127">
+        <f>SUM(N126:N128)</f>
+        <v>8</v>
+      </c>
+      <c r="AI127">
+        <f t="shared" ref="AI127" si="790">SUM(O126:O128)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ127">
+        <f t="shared" ref="AJ127" si="791">SUM(P126:P128)</f>
+        <v>12</v>
+      </c>
+      <c r="AK127">
+        <f t="shared" ref="AK127" si="792">SUM(Q126:Q128)</f>
+        <v>24</v>
+      </c>
+      <c r="AL127">
+        <f t="shared" ref="AL127" si="793">SUM(R126:R128)</f>
+        <v>10</v>
+      </c>
+      <c r="AM127">
+        <f t="shared" ref="AM127" si="794">SUM(S126:S128)</f>
+        <v>5</v>
+      </c>
+      <c r="AN127">
+        <f t="shared" ref="AN127" si="795">SUM(T126:T128)</f>
+        <v>6</v>
+      </c>
+      <c r="AO127">
+        <f t="shared" ref="AO127" si="796">SUM(U126:U128)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2023</v>
+      </c>
+      <c r="B128" s="5">
+        <v>45206</v>
+      </c>
+      <c r="C128">
+        <v>42</v>
+      </c>
+      <c r="D128" t="s">
+        <v>55</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128">
+        <v>13</v>
+      </c>
+      <c r="G128">
+        <v>5</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128" t="s">
+        <v>37</v>
+      </c>
+      <c r="J128" t="s">
+        <v>32</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="761"/>
+        <v>29</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>5</v>
+      </c>
+      <c r="N128">
+        <v>5</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128">
+        <v>5</v>
+      </c>
+      <c r="Q128">
+        <v>5</v>
+      </c>
+      <c r="R128">
+        <v>3</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128">
+        <v>3</v>
+      </c>
+      <c r="U128">
+        <v>5</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+      <c r="AB128">
+        <v>0</v>
+      </c>
+      <c r="AC128">
+        <v>0</v>
+      </c>
+      <c r="AD128">
+        <v>0</v>
+      </c>
+      <c r="AE128">
+        <v>0</v>
+      </c>
+      <c r="AF128">
+        <v>0</v>
+      </c>
+      <c r="AG128">
+        <v>0</v>
+      </c>
+      <c r="AH128">
+        <f>SUM(N126:N128)</f>
+        <v>8</v>
+      </c>
+      <c r="AI128">
+        <f t="shared" ref="AI128" si="797">SUM(O126:O128)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ128">
+        <f t="shared" ref="AJ128" si="798">SUM(P126:P128)</f>
+        <v>12</v>
+      </c>
+      <c r="AK128">
+        <f t="shared" ref="AK128" si="799">SUM(Q126:Q128)</f>
+        <v>24</v>
+      </c>
+      <c r="AL128">
+        <f t="shared" ref="AL128" si="800">SUM(R126:R128)</f>
+        <v>10</v>
+      </c>
+      <c r="AM128">
+        <f t="shared" ref="AM128" si="801">SUM(S126:S128)</f>
+        <v>5</v>
+      </c>
+      <c r="AN128">
+        <f t="shared" ref="AN128" si="802">SUM(T126:T128)</f>
+        <v>6</v>
+      </c>
+      <c r="AO128">
+        <f t="shared" ref="AO128" si="803">SUM(U126:U128)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2023</v>
+      </c>
+      <c r="B129" s="5">
+        <v>45206</v>
+      </c>
+      <c r="C129">
+        <v>43</v>
+      </c>
+      <c r="D129" t="s">
+        <v>55</v>
+      </c>
+      <c r="E129" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129">
+        <v>13</v>
+      </c>
+      <c r="G129">
+        <v>5</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129" t="s">
+        <v>36</v>
+      </c>
+      <c r="J129" t="s">
+        <v>31</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="761"/>
+        <v>31</v>
+      </c>
+      <c r="L129">
+        <v>5</v>
+      </c>
+      <c r="M129">
+        <v>3</v>
+      </c>
+      <c r="N129">
+        <v>6</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>10</v>
+      </c>
+      <c r="R129">
+        <v>9</v>
+      </c>
+      <c r="S129">
+        <v>2</v>
+      </c>
+      <c r="T129">
+        <v>4</v>
+      </c>
+      <c r="U129">
+        <v>0</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+      <c r="AB129">
+        <v>0</v>
+      </c>
+      <c r="AC129">
+        <v>0</v>
+      </c>
+      <c r="AD129">
+        <v>0</v>
+      </c>
+      <c r="AE129">
+        <v>0</v>
+      </c>
+      <c r="AF129">
+        <v>0</v>
+      </c>
+      <c r="AG129">
+        <v>0</v>
+      </c>
+      <c r="AH129">
+        <f>SUM(N129:N131)</f>
+        <v>11</v>
+      </c>
+      <c r="AI129">
+        <f t="shared" ref="AI129" si="804">SUM(O129:O131)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ129">
+        <f t="shared" ref="AJ129" si="805">SUM(P129:P131)</f>
+        <v>11</v>
+      </c>
+      <c r="AK129">
+        <f t="shared" ref="AK129" si="806">SUM(Q129:Q131)</f>
+        <v>26</v>
+      </c>
+      <c r="AL129">
+        <f t="shared" ref="AL129" si="807">SUM(R129:R131)</f>
+        <v>21</v>
+      </c>
+      <c r="AM129">
+        <f t="shared" ref="AM129" si="808">SUM(S129:S131)</f>
+        <v>5</v>
+      </c>
+      <c r="AN129">
+        <f t="shared" ref="AN129" si="809">SUM(T129:T131)</f>
+        <v>8</v>
+      </c>
+      <c r="AO129">
+        <f t="shared" ref="AO129" si="810">SUM(U129:U131)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>2023</v>
+      </c>
+      <c r="B130" s="5">
+        <v>45206</v>
+      </c>
+      <c r="C130">
+        <v>43</v>
+      </c>
+      <c r="D130" t="s">
+        <v>55</v>
+      </c>
+      <c r="E130" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130">
+        <v>9</v>
+      </c>
+      <c r="G130">
+        <v>2</v>
+      </c>
+      <c r="H130">
+        <v>3</v>
+      </c>
+      <c r="I130" t="s">
+        <v>32</v>
+      </c>
+      <c r="J130" t="s">
+        <v>31</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="761"/>
+        <v>34</v>
+      </c>
+      <c r="L130">
+        <v>6</v>
+      </c>
+      <c r="M130">
+        <v>4</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>5</v>
+      </c>
+      <c r="P130">
+        <v>6</v>
+      </c>
+      <c r="Q130">
+        <v>10</v>
+      </c>
+      <c r="R130">
+        <v>7</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>4</v>
+      </c>
+      <c r="U130">
+        <v>2</v>
+      </c>
+      <c r="V130">
+        <v>0</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+      <c r="AB130">
+        <v>0</v>
+      </c>
+      <c r="AC130">
+        <v>1</v>
+      </c>
+      <c r="AD130">
+        <v>0</v>
+      </c>
+      <c r="AE130">
+        <v>0</v>
+      </c>
+      <c r="AF130">
+        <v>0</v>
+      </c>
+      <c r="AG130">
+        <v>0</v>
+      </c>
+      <c r="AH130">
+        <f>SUM(N129:N131)</f>
+        <v>11</v>
+      </c>
+      <c r="AI130">
+        <f t="shared" ref="AI130" si="811">SUM(O129:O131)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ130">
+        <f t="shared" ref="AJ130" si="812">SUM(P129:P131)</f>
+        <v>11</v>
+      </c>
+      <c r="AK130">
+        <f t="shared" ref="AK130" si="813">SUM(Q129:Q131)</f>
+        <v>26</v>
+      </c>
+      <c r="AL130">
+        <f t="shared" ref="AL130" si="814">SUM(R129:R131)</f>
+        <v>21</v>
+      </c>
+      <c r="AM130">
+        <f t="shared" ref="AM130" si="815">SUM(S129:S131)</f>
+        <v>5</v>
+      </c>
+      <c r="AN130">
+        <f t="shared" ref="AN130" si="816">SUM(T129:T131)</f>
+        <v>8</v>
+      </c>
+      <c r="AO130">
+        <f t="shared" ref="AO130" si="817">SUM(U129:U131)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>2023</v>
+      </c>
+      <c r="B131" s="5">
+        <v>45206</v>
+      </c>
+      <c r="C131">
+        <v>43</v>
+      </c>
+      <c r="D131" t="s">
+        <v>55</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131">
+        <v>9</v>
+      </c>
+      <c r="G131">
+        <v>4</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131" t="s">
+        <v>37</v>
+      </c>
+      <c r="J131" t="s">
+        <v>31</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="761"/>
+        <v>31</v>
+      </c>
+      <c r="L131">
+        <v>6</v>
+      </c>
+      <c r="M131">
+        <v>5</v>
+      </c>
+      <c r="N131">
+        <v>5</v>
+      </c>
+      <c r="O131">
+        <v>2</v>
+      </c>
+      <c r="P131">
+        <v>5</v>
+      </c>
+      <c r="Q131">
+        <v>6</v>
+      </c>
+      <c r="R131">
+        <v>5</v>
+      </c>
+      <c r="S131">
+        <v>3</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>5</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+      <c r="AB131">
+        <v>0</v>
+      </c>
+      <c r="AC131">
+        <v>0</v>
+      </c>
+      <c r="AD131">
+        <v>0</v>
+      </c>
+      <c r="AE131">
+        <v>0</v>
+      </c>
+      <c r="AF131">
+        <v>0</v>
+      </c>
+      <c r="AG131">
+        <v>1</v>
+      </c>
+      <c r="AH131">
+        <f>SUM(N129:N131)</f>
+        <v>11</v>
+      </c>
+      <c r="AI131">
+        <f t="shared" ref="AI131" si="818">SUM(O129:O131)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ131">
+        <f t="shared" ref="AJ131" si="819">SUM(P129:P131)</f>
+        <v>11</v>
+      </c>
+      <c r="AK131">
+        <f t="shared" ref="AK131" si="820">SUM(Q129:Q131)</f>
+        <v>26</v>
+      </c>
+      <c r="AL131">
+        <f t="shared" ref="AL131" si="821">SUM(R129:R131)</f>
+        <v>21</v>
+      </c>
+      <c r="AM131">
+        <f t="shared" ref="AM131" si="822">SUM(S129:S131)</f>
+        <v>5</v>
+      </c>
+      <c r="AN131">
+        <f t="shared" ref="AN131" si="823">SUM(T129:T131)</f>
+        <v>8</v>
+      </c>
+      <c r="AO131">
+        <f t="shared" ref="AO131" si="824">SUM(U129:U131)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>2023</v>
+      </c>
+      <c r="B132" s="5">
+        <v>45206</v>
+      </c>
+      <c r="C132">
+        <v>44</v>
+      </c>
+      <c r="D132" t="s">
+        <v>55</v>
+      </c>
+      <c r="E132" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132">
+        <v>8</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>2</v>
+      </c>
+      <c r="I132" t="s">
+        <v>36</v>
+      </c>
+      <c r="J132" t="s">
+        <v>32</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="761"/>
+        <v>30</v>
+      </c>
+      <c r="L132">
+        <v>6</v>
+      </c>
+      <c r="M132">
+        <v>4</v>
+      </c>
+      <c r="N132">
+        <v>4</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>3</v>
+      </c>
+      <c r="Q132">
+        <v>13</v>
+      </c>
+      <c r="R132">
+        <v>6</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>1</v>
+      </c>
+      <c r="U132">
+        <v>3</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+      <c r="AB132">
+        <v>0</v>
+      </c>
+      <c r="AC132">
+        <v>1</v>
+      </c>
+      <c r="AD132">
+        <v>0</v>
+      </c>
+      <c r="AE132">
+        <v>0</v>
+      </c>
+      <c r="AF132">
+        <v>0</v>
+      </c>
+      <c r="AG132">
+        <v>0</v>
+      </c>
+      <c r="AH132">
+        <f>SUM(N132:N134)</f>
+        <v>21</v>
+      </c>
+      <c r="AI132">
+        <f t="shared" ref="AI132" si="825">SUM(O132:O134)</f>
+        <v>14</v>
+      </c>
+      <c r="AJ132">
+        <f t="shared" ref="AJ132" si="826">SUM(P132:P134)</f>
+        <v>11</v>
+      </c>
+      <c r="AK132">
+        <f t="shared" ref="AK132" si="827">SUM(Q132:Q134)</f>
+        <v>20</v>
+      </c>
+      <c r="AL132">
+        <f t="shared" ref="AL132" si="828">SUM(R132:R134)</f>
+        <v>6</v>
+      </c>
+      <c r="AM132">
+        <f t="shared" ref="AM132" si="829">SUM(S132:S134)</f>
+        <v>13</v>
+      </c>
+      <c r="AN132">
+        <f t="shared" ref="AN132" si="830">SUM(T132:T134)</f>
+        <v>1</v>
+      </c>
+      <c r="AO132">
+        <f t="shared" ref="AO132" si="831">SUM(U132:U134)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>2023</v>
+      </c>
+      <c r="B133" s="5">
+        <v>45206</v>
+      </c>
+      <c r="C133">
+        <v>44</v>
+      </c>
+      <c r="D133" t="s">
+        <v>55</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133">
+        <v>7</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>3</v>
+      </c>
+      <c r="I133" t="s">
+        <v>32</v>
+      </c>
+      <c r="J133" t="s">
+        <v>32</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="761"/>
+        <v>32</v>
+      </c>
+      <c r="L133">
+        <v>6</v>
+      </c>
+      <c r="M133">
+        <v>4</v>
+      </c>
+      <c r="N133">
+        <v>9</v>
+      </c>
+      <c r="O133">
+        <v>5</v>
+      </c>
+      <c r="P133">
+        <v>5</v>
+      </c>
+      <c r="Q133">
+        <v>4</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>5</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <v>4</v>
+      </c>
+      <c r="V133">
+        <v>0</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+      <c r="AB133">
+        <v>0</v>
+      </c>
+      <c r="AC133">
+        <v>0</v>
+      </c>
+      <c r="AD133">
+        <v>1</v>
+      </c>
+      <c r="AE133">
+        <v>0</v>
+      </c>
+      <c r="AF133">
+        <v>0</v>
+      </c>
+      <c r="AG133">
+        <v>1</v>
+      </c>
+      <c r="AH133">
+        <f>SUM(N132:N134)</f>
+        <v>21</v>
+      </c>
+      <c r="AI133">
+        <f t="shared" ref="AI133" si="832">SUM(O132:O134)</f>
+        <v>14</v>
+      </c>
+      <c r="AJ133">
+        <f t="shared" ref="AJ133" si="833">SUM(P132:P134)</f>
+        <v>11</v>
+      </c>
+      <c r="AK133">
+        <f t="shared" ref="AK133" si="834">SUM(Q132:Q134)</f>
+        <v>20</v>
+      </c>
+      <c r="AL133">
+        <f t="shared" ref="AL133" si="835">SUM(R132:R134)</f>
+        <v>6</v>
+      </c>
+      <c r="AM133">
+        <f t="shared" ref="AM133" si="836">SUM(S132:S134)</f>
+        <v>13</v>
+      </c>
+      <c r="AN133">
+        <f t="shared" ref="AN133" si="837">SUM(T132:T134)</f>
+        <v>1</v>
+      </c>
+      <c r="AO133">
+        <f t="shared" ref="AO133" si="838">SUM(U132:U134)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>2023</v>
+      </c>
+      <c r="B134" s="5">
+        <v>45206</v>
+      </c>
+      <c r="C134">
+        <v>44</v>
+      </c>
+      <c r="D134" t="s">
+        <v>55</v>
+      </c>
+      <c r="E134" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134">
+        <v>13</v>
+      </c>
+      <c r="G134">
+        <v>5</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134" t="s">
+        <v>37</v>
+      </c>
+      <c r="J134" t="s">
+        <v>32</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="761"/>
+        <v>34</v>
+      </c>
+      <c r="L134">
+        <v>4</v>
+      </c>
+      <c r="M134">
+        <v>4</v>
+      </c>
+      <c r="N134">
+        <v>8</v>
+      </c>
+      <c r="O134">
+        <v>9</v>
+      </c>
+      <c r="P134">
+        <v>3</v>
+      </c>
+      <c r="Q134">
+        <v>3</v>
+      </c>
+      <c r="R134">
+        <v>0</v>
+      </c>
+      <c r="S134">
+        <v>8</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>3</v>
+      </c>
+      <c r="V134">
+        <v>0</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+      <c r="AB134">
+        <v>1</v>
+      </c>
+      <c r="AC134">
+        <v>0</v>
+      </c>
+      <c r="AD134">
+        <v>0</v>
+      </c>
+      <c r="AE134">
+        <v>0</v>
+      </c>
+      <c r="AF134">
+        <v>0</v>
+      </c>
+      <c r="AG134">
+        <v>1</v>
+      </c>
+      <c r="AH134">
+        <f>SUM(N132:N134)</f>
+        <v>21</v>
+      </c>
+      <c r="AI134">
+        <f t="shared" ref="AI134" si="839">SUM(O132:O134)</f>
+        <v>14</v>
+      </c>
+      <c r="AJ134">
+        <f t="shared" ref="AJ134" si="840">SUM(P132:P134)</f>
+        <v>11</v>
+      </c>
+      <c r="AK134">
+        <f t="shared" ref="AK134" si="841">SUM(Q132:Q134)</f>
+        <v>20</v>
+      </c>
+      <c r="AL134">
+        <f t="shared" ref="AL134" si="842">SUM(R132:R134)</f>
+        <v>6</v>
+      </c>
+      <c r="AM134">
+        <f t="shared" ref="AM134" si="843">SUM(S132:S134)</f>
+        <v>13</v>
+      </c>
+      <c r="AN134">
+        <f t="shared" ref="AN134" si="844">SUM(T132:T134)</f>
+        <v>1</v>
+      </c>
+      <c r="AO134">
+        <f t="shared" ref="AO134" si="845">SUM(U132:U134)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>2023</v>
+      </c>
+      <c r="B135" s="5">
+        <v>45206</v>
+      </c>
+      <c r="C135">
+        <v>45</v>
+      </c>
+      <c r="D135" t="s">
+        <v>55</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135">
+        <v>6</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135" t="s">
+        <v>36</v>
+      </c>
+      <c r="J135" t="s">
+        <v>32</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="761"/>
+        <v>25</v>
+      </c>
+      <c r="L135">
+        <v>4</v>
+      </c>
+      <c r="M135">
+        <v>3</v>
+      </c>
+      <c r="N135">
+        <v>7</v>
+      </c>
+      <c r="O135">
+        <v>3</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>8</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <v>7</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>1</v>
+      </c>
+      <c r="AB135">
+        <v>0</v>
+      </c>
+      <c r="AC135">
+        <v>0</v>
+      </c>
+      <c r="AD135">
+        <v>0</v>
+      </c>
+      <c r="AE135">
+        <v>1</v>
+      </c>
+      <c r="AF135">
+        <v>0</v>
+      </c>
+      <c r="AG135">
+        <v>0</v>
+      </c>
+      <c r="AH135">
+        <f>SUM(N135:N137)</f>
+        <v>12</v>
+      </c>
+      <c r="AI135">
+        <f t="shared" ref="AI135" si="846">SUM(O135:O137)</f>
+        <v>11</v>
+      </c>
+      <c r="AJ135">
+        <f t="shared" ref="AJ135" si="847">SUM(P135:P137)</f>
+        <v>10</v>
+      </c>
+      <c r="AK135">
+        <f t="shared" ref="AK135" si="848">SUM(Q135:Q137)</f>
+        <v>10</v>
+      </c>
+      <c r="AL135">
+        <f t="shared" ref="AL135" si="849">SUM(R135:R137)</f>
+        <v>17</v>
+      </c>
+      <c r="AM135">
+        <f t="shared" ref="AM135" si="850">SUM(S135:S137)</f>
+        <v>10</v>
+      </c>
+      <c r="AN135">
+        <f t="shared" ref="AN135" si="851">SUM(T135:T137)</f>
+        <v>7</v>
+      </c>
+      <c r="AO135">
+        <f t="shared" ref="AO135" si="852">SUM(U135:U137)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>2023</v>
+      </c>
+      <c r="B136" s="5">
+        <v>45206</v>
+      </c>
+      <c r="C136">
+        <v>45</v>
+      </c>
+      <c r="D136" t="s">
+        <v>55</v>
+      </c>
+      <c r="E136" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136">
+        <v>13</v>
+      </c>
+      <c r="G136">
+        <v>7</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136" t="s">
+        <v>32</v>
+      </c>
+      <c r="J136" t="s">
+        <v>32</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="761"/>
+        <v>31</v>
+      </c>
+      <c r="L136">
+        <v>5</v>
+      </c>
+      <c r="M136">
+        <v>4</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>4</v>
+      </c>
+      <c r="P136">
+        <v>3</v>
+      </c>
+      <c r="Q136">
+        <v>2</v>
+      </c>
+      <c r="R136">
+        <v>12</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>7</v>
+      </c>
+      <c r="U136">
+        <v>3</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+      <c r="AB136">
+        <v>0</v>
+      </c>
+      <c r="AC136">
+        <v>1</v>
+      </c>
+      <c r="AD136">
+        <v>0</v>
+      </c>
+      <c r="AE136">
+        <v>0</v>
+      </c>
+      <c r="AF136">
+        <v>1</v>
+      </c>
+      <c r="AG136">
+        <v>1</v>
+      </c>
+      <c r="AH136">
+        <f>SUM(N135:N137)</f>
+        <v>12</v>
+      </c>
+      <c r="AI136">
+        <f t="shared" ref="AI136" si="853">SUM(O135:O137)</f>
+        <v>11</v>
+      </c>
+      <c r="AJ136">
+        <f t="shared" ref="AJ136" si="854">SUM(P135:P137)</f>
+        <v>10</v>
+      </c>
+      <c r="AK136">
+        <f t="shared" ref="AK136" si="855">SUM(Q135:Q137)</f>
+        <v>10</v>
+      </c>
+      <c r="AL136">
+        <f t="shared" ref="AL136" si="856">SUM(R135:R137)</f>
+        <v>17</v>
+      </c>
+      <c r="AM136">
+        <f t="shared" ref="AM136" si="857">SUM(S135:S137)</f>
+        <v>10</v>
+      </c>
+      <c r="AN136">
+        <f t="shared" ref="AN136" si="858">SUM(T135:T137)</f>
+        <v>7</v>
+      </c>
+      <c r="AO136">
+        <f t="shared" ref="AO136" si="859">SUM(U135:U137)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>2023</v>
+      </c>
+      <c r="B137" s="5">
+        <v>45206</v>
+      </c>
+      <c r="C137">
+        <v>45</v>
+      </c>
+      <c r="D137" t="s">
+        <v>55</v>
+      </c>
+      <c r="E137" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137">
+        <v>4</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>3</v>
+      </c>
+      <c r="I137" t="s">
+        <v>37</v>
+      </c>
+      <c r="J137" t="s">
+        <v>32</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="761"/>
+        <v>31</v>
+      </c>
+      <c r="L137">
+        <v>6</v>
+      </c>
+      <c r="M137">
+        <v>4</v>
+      </c>
+      <c r="N137">
+        <v>5</v>
+      </c>
+      <c r="O137">
+        <v>4</v>
+      </c>
+      <c r="P137">
+        <v>7</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>5</v>
+      </c>
+      <c r="S137">
+        <v>3</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>7</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+      <c r="AB137">
+        <v>0</v>
+      </c>
+      <c r="AC137">
+        <v>0</v>
+      </c>
+      <c r="AD137">
+        <v>0</v>
+      </c>
+      <c r="AE137">
+        <v>0</v>
+      </c>
+      <c r="AF137">
+        <v>0</v>
+      </c>
+      <c r="AG137">
+        <v>0</v>
+      </c>
+      <c r="AH137">
+        <f>SUM(N135:N137)</f>
+        <v>12</v>
+      </c>
+      <c r="AI137">
+        <f t="shared" ref="AI137" si="860">SUM(O135:O137)</f>
+        <v>11</v>
+      </c>
+      <c r="AJ137">
+        <f t="shared" ref="AJ137" si="861">SUM(P135:P137)</f>
+        <v>10</v>
+      </c>
+      <c r="AK137">
+        <f t="shared" ref="AK137" si="862">SUM(Q135:Q137)</f>
+        <v>10</v>
+      </c>
+      <c r="AL137">
+        <f t="shared" ref="AL137" si="863">SUM(R135:R137)</f>
+        <v>17</v>
+      </c>
+      <c r="AM137">
+        <f t="shared" ref="AM137" si="864">SUM(S135:S137)</f>
+        <v>10</v>
+      </c>
+      <c r="AN137">
+        <f t="shared" ref="AN137" si="865">SUM(T135:T137)</f>
+        <v>7</v>
+      </c>
+      <c r="AO137">
+        <f t="shared" ref="AO137" si="866">SUM(U135:U137)</f>
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:AO113" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:AA8 V3:W41 X9:Y41 V44:Y56 V58:Y1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:AA8 V3:W41 X9:Y41 V44:Y56 W129:Y1048576 W58:Y116 W117:AA119 W120:Y122 W123:AA128 V58:V1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Desktop\Projects\dev\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA72596-5EA4-4F10-B9CB-E38F43482E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8F4C2C-566C-451A-93A6-E1DD193EB5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="61">
   <si>
     <t>season</t>
   </si>
@@ -598,13 +598,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AO137"/>
+  <dimension ref="A1:AO140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F138" sqref="F138"/>
+      <selection pane="bottomRight" activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16320,7 +16320,7 @@
         <v>31</v>
       </c>
       <c r="K123">
-        <f t="shared" ref="K123:K137" si="761">SUM(N123:U123)</f>
+        <f t="shared" ref="K123:K140" si="761">SUM(N123:U123)</f>
         <v>34</v>
       </c>
       <c r="L123">
@@ -18296,6 +18296,408 @@
       <c r="AO137">
         <f t="shared" ref="AO137" si="866">SUM(U135:U137)</f>
         <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>2023</v>
+      </c>
+      <c r="B138" s="5">
+        <v>45206</v>
+      </c>
+      <c r="C138">
+        <v>46</v>
+      </c>
+      <c r="D138" t="s">
+        <v>55</v>
+      </c>
+      <c r="E138" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138">
+        <v>7</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>3</v>
+      </c>
+      <c r="I138" t="s">
+        <v>36</v>
+      </c>
+      <c r="J138" t="s">
+        <v>32</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="761"/>
+        <v>30</v>
+      </c>
+      <c r="L138">
+        <v>6</v>
+      </c>
+      <c r="M138">
+        <v>4</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138">
+        <v>3</v>
+      </c>
+      <c r="P138">
+        <v>3</v>
+      </c>
+      <c r="Q138">
+        <v>20</v>
+      </c>
+      <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+      <c r="AB138">
+        <v>0</v>
+      </c>
+      <c r="AC138">
+        <v>1</v>
+      </c>
+      <c r="AD138">
+        <v>0</v>
+      </c>
+      <c r="AE138">
+        <v>1</v>
+      </c>
+      <c r="AF138">
+        <v>0</v>
+      </c>
+      <c r="AG138">
+        <v>0</v>
+      </c>
+      <c r="AH138">
+        <f>SUM(N138:N140)</f>
+        <v>13</v>
+      </c>
+      <c r="AI138">
+        <f t="shared" ref="AI138" si="867">SUM(O138:O140)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ138">
+        <f t="shared" ref="AJ138" si="868">SUM(P138:P140)</f>
+        <v>17</v>
+      </c>
+      <c r="AK138">
+        <f t="shared" ref="AK138" si="869">SUM(Q138:Q140)</f>
+        <v>32</v>
+      </c>
+      <c r="AL138">
+        <f t="shared" ref="AL138" si="870">SUM(R138:R140)</f>
+        <v>4</v>
+      </c>
+      <c r="AM138">
+        <f t="shared" ref="AM138" si="871">SUM(S138:S140)</f>
+        <v>9</v>
+      </c>
+      <c r="AN138">
+        <f t="shared" ref="AN138" si="872">SUM(T138:T140)</f>
+        <v>2</v>
+      </c>
+      <c r="AO138">
+        <f t="shared" ref="AO138" si="873">SUM(U138:U140)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2023</v>
+      </c>
+      <c r="B139" s="5">
+        <v>45206</v>
+      </c>
+      <c r="C139">
+        <v>46</v>
+      </c>
+      <c r="D139" t="s">
+        <v>55</v>
+      </c>
+      <c r="E139" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139">
+        <v>13</v>
+      </c>
+      <c r="G139">
+        <v>6</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139" t="s">
+        <v>32</v>
+      </c>
+      <c r="J139" t="s">
+        <v>32</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="761"/>
+        <v>31</v>
+      </c>
+      <c r="L139">
+        <v>6</v>
+      </c>
+      <c r="M139">
+        <v>4</v>
+      </c>
+      <c r="N139">
+        <v>4</v>
+      </c>
+      <c r="O139">
+        <v>3</v>
+      </c>
+      <c r="P139">
+        <v>9</v>
+      </c>
+      <c r="Q139">
+        <v>4</v>
+      </c>
+      <c r="R139">
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <v>4</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>7</v>
+      </c>
+      <c r="V139">
+        <v>0</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+      <c r="AB139">
+        <v>1</v>
+      </c>
+      <c r="AC139">
+        <v>0</v>
+      </c>
+      <c r="AD139">
+        <v>0</v>
+      </c>
+      <c r="AE139">
+        <v>0</v>
+      </c>
+      <c r="AF139">
+        <v>0</v>
+      </c>
+      <c r="AG139">
+        <v>0</v>
+      </c>
+      <c r="AH139">
+        <f>SUM(N138:N140)</f>
+        <v>13</v>
+      </c>
+      <c r="AI139">
+        <f t="shared" ref="AI139" si="874">SUM(O138:O140)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ139">
+        <f t="shared" ref="AJ139" si="875">SUM(P138:P140)</f>
+        <v>17</v>
+      </c>
+      <c r="AK139">
+        <f t="shared" ref="AK139" si="876">SUM(Q138:Q140)</f>
+        <v>32</v>
+      </c>
+      <c r="AL139">
+        <f t="shared" ref="AL139" si="877">SUM(R138:R140)</f>
+        <v>4</v>
+      </c>
+      <c r="AM139">
+        <f t="shared" ref="AM139" si="878">SUM(S138:S140)</f>
+        <v>9</v>
+      </c>
+      <c r="AN139">
+        <f t="shared" ref="AN139" si="879">SUM(T138:T140)</f>
+        <v>2</v>
+      </c>
+      <c r="AO139">
+        <f t="shared" ref="AO139" si="880">SUM(U138:U140)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>2023</v>
+      </c>
+      <c r="B140" s="5">
+        <v>45206</v>
+      </c>
+      <c r="C140">
+        <v>46</v>
+      </c>
+      <c r="D140" t="s">
+        <v>55</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140">
+        <v>9</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140" t="s">
+        <v>37</v>
+      </c>
+      <c r="J140" t="s">
+        <v>32</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="761"/>
+        <v>32</v>
+      </c>
+      <c r="L140">
+        <v>5</v>
+      </c>
+      <c r="M140">
+        <v>5</v>
+      </c>
+      <c r="N140">
+        <v>5</v>
+      </c>
+      <c r="O140">
+        <v>3</v>
+      </c>
+      <c r="P140">
+        <v>5</v>
+      </c>
+      <c r="Q140">
+        <v>8</v>
+      </c>
+      <c r="R140">
+        <v>4</v>
+      </c>
+      <c r="S140">
+        <v>5</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>0</v>
+      </c>
+      <c r="V140">
+        <v>0</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
+      </c>
+      <c r="AB140">
+        <v>0</v>
+      </c>
+      <c r="AC140">
+        <v>0</v>
+      </c>
+      <c r="AD140">
+        <v>1</v>
+      </c>
+      <c r="AE140">
+        <v>0</v>
+      </c>
+      <c r="AF140">
+        <v>1</v>
+      </c>
+      <c r="AG140">
+        <v>1</v>
+      </c>
+      <c r="AH140">
+        <f>SUM(N138:N140)</f>
+        <v>13</v>
+      </c>
+      <c r="AI140">
+        <f t="shared" ref="AI140" si="881">SUM(O138:O140)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ140">
+        <f t="shared" ref="AJ140" si="882">SUM(P138:P140)</f>
+        <v>17</v>
+      </c>
+      <c r="AK140">
+        <f t="shared" ref="AK140" si="883">SUM(Q138:Q140)</f>
+        <v>32</v>
+      </c>
+      <c r="AL140">
+        <f t="shared" ref="AL140" si="884">SUM(R138:R140)</f>
+        <v>4</v>
+      </c>
+      <c r="AM140">
+        <f t="shared" ref="AM140" si="885">SUM(S138:S140)</f>
+        <v>9</v>
+      </c>
+      <c r="AN140">
+        <f t="shared" ref="AN140" si="886">SUM(T138:T140)</f>
+        <v>2</v>
+      </c>
+      <c r="AO140">
+        <f t="shared" ref="AO140" si="887">SUM(U138:U140)</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Desktop\Projects\dev\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8F4C2C-566C-451A-93A6-E1DD193EB5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C046BB6-5520-4E38-ADB8-489D4AEF20CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="61">
   <si>
     <t>season</t>
   </si>
@@ -598,13 +598,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AO140"/>
+  <dimension ref="A1:AO143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H139" sqref="H139"/>
+      <selection pane="bottomRight" activeCell="I143" sqref="I143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16320,7 +16320,7 @@
         <v>31</v>
       </c>
       <c r="K123">
-        <f t="shared" ref="K123:K140" si="761">SUM(N123:U123)</f>
+        <f t="shared" ref="K123:K143" si="761">SUM(N123:U123)</f>
         <v>34</v>
       </c>
       <c r="L123">
@@ -18697,6 +18697,408 @@
       </c>
       <c r="AO140">
         <f t="shared" ref="AO140" si="887">SUM(U138:U140)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>2023</v>
+      </c>
+      <c r="B141" s="5">
+        <v>45206</v>
+      </c>
+      <c r="C141">
+        <v>47</v>
+      </c>
+      <c r="D141" t="s">
+        <v>55</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141">
+        <v>8</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>3</v>
+      </c>
+      <c r="I141" t="s">
+        <v>36</v>
+      </c>
+      <c r="J141" t="s">
+        <v>31</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="761"/>
+        <v>28</v>
+      </c>
+      <c r="L141">
+        <v>5</v>
+      </c>
+      <c r="M141">
+        <v>5</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141">
+        <v>4</v>
+      </c>
+      <c r="P141">
+        <v>2</v>
+      </c>
+      <c r="Q141">
+        <v>12</v>
+      </c>
+      <c r="R141">
+        <v>5</v>
+      </c>
+      <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+      <c r="AB141">
+        <v>0</v>
+      </c>
+      <c r="AC141">
+        <v>0</v>
+      </c>
+      <c r="AD141">
+        <v>0</v>
+      </c>
+      <c r="AE141">
+        <v>0</v>
+      </c>
+      <c r="AF141">
+        <v>0</v>
+      </c>
+      <c r="AG141">
+        <v>0</v>
+      </c>
+      <c r="AH141">
+        <f>SUM(N141:N143)</f>
+        <v>10</v>
+      </c>
+      <c r="AI141">
+        <f t="shared" ref="AI141" si="888">SUM(O141:O143)</f>
+        <v>8</v>
+      </c>
+      <c r="AJ141">
+        <f t="shared" ref="AJ141" si="889">SUM(P141:P143)</f>
+        <v>17</v>
+      </c>
+      <c r="AK141">
+        <f t="shared" ref="AK141" si="890">SUM(Q141:Q143)</f>
+        <v>25</v>
+      </c>
+      <c r="AL141">
+        <f t="shared" ref="AL141" si="891">SUM(R141:R143)</f>
+        <v>14</v>
+      </c>
+      <c r="AM141">
+        <f t="shared" ref="AM141" si="892">SUM(S141:S143)</f>
+        <v>3</v>
+      </c>
+      <c r="AN141">
+        <f t="shared" ref="AN141" si="893">SUM(T141:T143)</f>
+        <v>9</v>
+      </c>
+      <c r="AO141">
+        <f t="shared" ref="AO141" si="894">SUM(U141:U143)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>2023</v>
+      </c>
+      <c r="B142" s="5">
+        <v>45206</v>
+      </c>
+      <c r="C142">
+        <v>47</v>
+      </c>
+      <c r="D142" t="s">
+        <v>55</v>
+      </c>
+      <c r="E142" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142">
+        <v>12</v>
+      </c>
+      <c r="G142">
+        <v>5</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142" t="s">
+        <v>32</v>
+      </c>
+      <c r="J142" t="s">
+        <v>31</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="761"/>
+        <v>29</v>
+      </c>
+      <c r="L142">
+        <v>5</v>
+      </c>
+      <c r="M142">
+        <v>4</v>
+      </c>
+      <c r="N142">
+        <v>4</v>
+      </c>
+      <c r="O142">
+        <v>4</v>
+      </c>
+      <c r="P142">
+        <v>10</v>
+      </c>
+      <c r="Q142">
+        <v>6</v>
+      </c>
+      <c r="R142">
+        <v>0</v>
+      </c>
+      <c r="S142">
+        <v>0</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>5</v>
+      </c>
+      <c r="V142">
+        <v>0</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>1</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+      <c r="AB142">
+        <v>0</v>
+      </c>
+      <c r="AC142">
+        <v>0</v>
+      </c>
+      <c r="AD142">
+        <v>0</v>
+      </c>
+      <c r="AE142">
+        <v>1</v>
+      </c>
+      <c r="AF142">
+        <v>0</v>
+      </c>
+      <c r="AG142">
+        <v>0</v>
+      </c>
+      <c r="AH142">
+        <f>SUM(N141:N143)</f>
+        <v>10</v>
+      </c>
+      <c r="AI142">
+        <f t="shared" ref="AI142" si="895">SUM(O141:O143)</f>
+        <v>8</v>
+      </c>
+      <c r="AJ142">
+        <f t="shared" ref="AJ142" si="896">SUM(P141:P143)</f>
+        <v>17</v>
+      </c>
+      <c r="AK142">
+        <f t="shared" ref="AK142" si="897">SUM(Q141:Q143)</f>
+        <v>25</v>
+      </c>
+      <c r="AL142">
+        <f t="shared" ref="AL142" si="898">SUM(R141:R143)</f>
+        <v>14</v>
+      </c>
+      <c r="AM142">
+        <f t="shared" ref="AM142" si="899">SUM(S141:S143)</f>
+        <v>3</v>
+      </c>
+      <c r="AN142">
+        <f t="shared" ref="AN142" si="900">SUM(T141:T143)</f>
+        <v>9</v>
+      </c>
+      <c r="AO142">
+        <f t="shared" ref="AO142" si="901">SUM(U141:U143)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>2023</v>
+      </c>
+      <c r="B143" s="5">
+        <v>45206</v>
+      </c>
+      <c r="C143">
+        <v>47</v>
+      </c>
+      <c r="D143" t="s">
+        <v>55</v>
+      </c>
+      <c r="E143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143">
+        <v>13</v>
+      </c>
+      <c r="G143">
+        <v>5</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143" t="s">
+        <v>37</v>
+      </c>
+      <c r="J143" t="s">
+        <v>31</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="761"/>
+        <v>36</v>
+      </c>
+      <c r="L143">
+        <v>6</v>
+      </c>
+      <c r="M143">
+        <v>4</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>5</v>
+      </c>
+      <c r="Q143">
+        <v>7</v>
+      </c>
+      <c r="R143">
+        <v>9</v>
+      </c>
+      <c r="S143">
+        <v>3</v>
+      </c>
+      <c r="T143">
+        <v>9</v>
+      </c>
+      <c r="U143">
+        <v>0</v>
+      </c>
+      <c r="V143">
+        <v>0</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>0</v>
+      </c>
+      <c r="AB143">
+        <v>0</v>
+      </c>
+      <c r="AC143">
+        <v>0</v>
+      </c>
+      <c r="AD143">
+        <v>0</v>
+      </c>
+      <c r="AE143">
+        <v>0</v>
+      </c>
+      <c r="AF143">
+        <v>0</v>
+      </c>
+      <c r="AG143">
+        <v>0</v>
+      </c>
+      <c r="AH143">
+        <f>SUM(N141:N143)</f>
+        <v>10</v>
+      </c>
+      <c r="AI143">
+        <f t="shared" ref="AI143" si="902">SUM(O141:O143)</f>
+        <v>8</v>
+      </c>
+      <c r="AJ143">
+        <f t="shared" ref="AJ143" si="903">SUM(P141:P143)</f>
+        <v>17</v>
+      </c>
+      <c r="AK143">
+        <f t="shared" ref="AK143" si="904">SUM(Q141:Q143)</f>
+        <v>25</v>
+      </c>
+      <c r="AL143">
+        <f t="shared" ref="AL143" si="905">SUM(R141:R143)</f>
+        <v>14</v>
+      </c>
+      <c r="AM143">
+        <f t="shared" ref="AM143" si="906">SUM(S141:S143)</f>
+        <v>3</v>
+      </c>
+      <c r="AN143">
+        <f t="shared" ref="AN143" si="907">SUM(T141:T143)</f>
+        <v>9</v>
+      </c>
+      <c r="AO143">
+        <f t="shared" ref="AO143" si="908">SUM(U141:U143)</f>
         <v>7</v>
       </c>
     </row>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Desktop\Projects\dev\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC5B9F9-54B0-4706-AC0E-2724B306E565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395FCB25-4DC2-4FF8-99E4-03064A4E5B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="66">
   <si>
     <t>season</t>
   </si>
@@ -224,16 +224,19 @@
     <t>Pf</t>
   </si>
   <si>
-    <t>54°29'30.7"N 9°01'49.2"E</t>
+    <t>geoloc</t>
   </si>
   <si>
-    <t>53°35'41.6"N 9°58'51.9"E</t>
+    <t>54.491864, 9.030382</t>
   </si>
   <si>
-    <t>50°55'19.1"N 6°55'36.0"E</t>
+    <t>53.594891, 9.981069</t>
   </si>
   <si>
-    <t>geoloc</t>
+    <t>50.921949, 6.926677</t>
+  </si>
+  <si>
+    <t>54.788890, 4.135175</t>
   </si>
 </sst>
 </file>
@@ -613,15 +616,16 @@
   <dimension ref="A1:AP143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" customWidth="1"/>
     <col min="13" max="14" width="12.28515625" customWidth="1"/>
@@ -694,7 +698,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>2</v>
@@ -822,8 +826,8 @@
         <v>46</v>
       </c>
       <c r="E3" t="str">
-        <f>VLOOKUP(D3,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D3,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -957,8 +961,8 @@
         <v>46</v>
       </c>
       <c r="E4" t="str">
-        <f>VLOOKUP(D4,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D4,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -1092,8 +1096,8 @@
         <v>46</v>
       </c>
       <c r="E5" t="str">
-        <f>VLOOKUP(D5,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D5,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1227,8 +1231,8 @@
         <v>46</v>
       </c>
       <c r="E6" t="str">
-        <f>VLOOKUP(D6,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D6,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -1362,8 +1366,8 @@
         <v>46</v>
       </c>
       <c r="E7" t="str">
-        <f>VLOOKUP(D7,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D7,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -1497,8 +1501,8 @@
         <v>46</v>
       </c>
       <c r="E8" t="str">
-        <f>VLOOKUP(D8,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D8,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -1632,8 +1636,8 @@
         <v>46</v>
       </c>
       <c r="E9" t="str">
-        <f>VLOOKUP(D9,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D9,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1767,8 +1771,8 @@
         <v>46</v>
       </c>
       <c r="E10" t="str">
-        <f>VLOOKUP(D10,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D10,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -1902,8 +1906,8 @@
         <v>46</v>
       </c>
       <c r="E11" t="str">
-        <f>VLOOKUP(D11,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D11,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2037,8 +2041,8 @@
         <v>46</v>
       </c>
       <c r="E12" t="str">
-        <f>VLOOKUP(D12,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D12,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2172,8 +2176,8 @@
         <v>46</v>
       </c>
       <c r="E13" t="str">
-        <f>VLOOKUP(D13,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D13,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -2307,8 +2311,8 @@
         <v>46</v>
       </c>
       <c r="E14" t="str">
-        <f>VLOOKUP(D14,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D14,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -2442,8 +2446,8 @@
         <v>46</v>
       </c>
       <c r="E15" t="str">
-        <f>VLOOKUP(D15,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D15,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -2577,8 +2581,8 @@
         <v>46</v>
       </c>
       <c r="E16" t="str">
-        <f>VLOOKUP(D16,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D16,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -2712,8 +2716,8 @@
         <v>46</v>
       </c>
       <c r="E17" t="str">
-        <f>VLOOKUP(D17,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D17,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -2847,8 +2851,8 @@
         <v>46</v>
       </c>
       <c r="E18" t="str">
-        <f>VLOOKUP(D18,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D18,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -2982,8 +2986,8 @@
         <v>46</v>
       </c>
       <c r="E19" t="str">
-        <f>VLOOKUP(D19,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D19,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -3117,8 +3121,8 @@
         <v>46</v>
       </c>
       <c r="E20" t="str">
-        <f>VLOOKUP(D20,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D20,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -3252,8 +3256,8 @@
         <v>46</v>
       </c>
       <c r="E21" t="str">
-        <f>VLOOKUP(D21,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D21,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -3387,8 +3391,8 @@
         <v>46</v>
       </c>
       <c r="E22" t="str">
-        <f>VLOOKUP(D22,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D22,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -3522,8 +3526,8 @@
         <v>46</v>
       </c>
       <c r="E23" t="str">
-        <f>VLOOKUP(D23,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D23,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -3657,8 +3661,8 @@
         <v>46</v>
       </c>
       <c r="E24" t="str">
-        <f>VLOOKUP(D24,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D24,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -3792,8 +3796,8 @@
         <v>46</v>
       </c>
       <c r="E25" t="str">
-        <f>VLOOKUP(D25,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D25,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -3927,8 +3931,8 @@
         <v>46</v>
       </c>
       <c r="E26" t="str">
-        <f>VLOOKUP(D26,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D26,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -4062,8 +4066,8 @@
         <v>46</v>
       </c>
       <c r="E27" t="str">
-        <f>VLOOKUP(D27,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D27,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -4200,8 +4204,8 @@
         <v>46</v>
       </c>
       <c r="E28" t="str">
-        <f>VLOOKUP(D28,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D28,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -4338,8 +4342,8 @@
         <v>46</v>
       </c>
       <c r="E29" t="str">
-        <f>VLOOKUP(D29,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <f>VLOOKUP(D29,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -4476,8 +4480,8 @@
         <v>55</v>
       </c>
       <c r="E30" t="str">
-        <f>VLOOKUP(D30,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <f>VLOOKUP(D30,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -4614,8 +4618,8 @@
         <v>55</v>
       </c>
       <c r="E31" t="str">
-        <f>VLOOKUP(D31,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <f>VLOOKUP(D31,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -4752,8 +4756,8 @@
         <v>55</v>
       </c>
       <c r="E32" t="str">
-        <f>VLOOKUP(D32,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <f>VLOOKUP(D32,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -4890,8 +4894,8 @@
         <v>55</v>
       </c>
       <c r="E33" t="str">
-        <f>VLOOKUP(D33,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <f>VLOOKUP(D33,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -5028,8 +5032,8 @@
         <v>55</v>
       </c>
       <c r="E34" t="str">
-        <f>VLOOKUP(D34,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <f>VLOOKUP(D34,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -5166,8 +5170,8 @@
         <v>55</v>
       </c>
       <c r="E35" t="str">
-        <f>VLOOKUP(D35,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <f>VLOOKUP(D35,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -5304,8 +5308,8 @@
         <v>55</v>
       </c>
       <c r="E36" t="str">
-        <f>VLOOKUP(D36,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <f>VLOOKUP(D36,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -5442,8 +5446,8 @@
         <v>55</v>
       </c>
       <c r="E37" t="str">
-        <f>VLOOKUP(D37,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <f>VLOOKUP(D37,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -5580,8 +5584,8 @@
         <v>55</v>
       </c>
       <c r="E38" t="str">
-        <f>VLOOKUP(D38,Sheet2!$I$1:$J$3,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <f>VLOOKUP(D38,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -5719,7 +5723,7 @@
       </c>
       <c r="E39" t="str">
         <f>VLOOKUP(D39,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
@@ -5857,7 +5861,7 @@
       </c>
       <c r="E40" t="str">
         <f>VLOOKUP(D40,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -5995,7 +5999,7 @@
       </c>
       <c r="E41" t="str">
         <f>VLOOKUP(D41,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -6133,7 +6137,7 @@
       </c>
       <c r="E42" t="str">
         <f>VLOOKUP(D42,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -6271,7 +6275,7 @@
       </c>
       <c r="E43" t="str">
         <f>VLOOKUP(D43,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
@@ -6409,7 +6413,7 @@
       </c>
       <c r="E44" t="str">
         <f>VLOOKUP(D44,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -6547,7 +6551,7 @@
       </c>
       <c r="E45" t="str">
         <f>VLOOKUP(D45,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -6685,7 +6689,7 @@
       </c>
       <c r="E46" t="str">
         <f>VLOOKUP(D46,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
@@ -6823,7 +6827,7 @@
       </c>
       <c r="E47" t="str">
         <f>VLOOKUP(D47,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -6961,7 +6965,7 @@
       </c>
       <c r="E48" t="str">
         <f>VLOOKUP(D48,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>Online</v>
+        <v>54.788890, 4.135175</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
@@ -7099,7 +7103,7 @@
       </c>
       <c r="E49" t="str">
         <f>VLOOKUP(D49,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>Online</v>
+        <v>54.788890, 4.135175</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -7237,7 +7241,7 @@
       </c>
       <c r="E50" t="str">
         <f>VLOOKUP(D50,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>Online</v>
+        <v>54.788890, 4.135175</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
@@ -7375,7 +7379,7 @@
       </c>
       <c r="E51" t="str">
         <f>VLOOKUP(D51,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>Online</v>
+        <v>54.788890, 4.135175</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -7513,7 +7517,7 @@
       </c>
       <c r="E52" t="str">
         <f>VLOOKUP(D52,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>Online</v>
+        <v>54.788890, 4.135175</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
@@ -7651,7 +7655,7 @@
       </c>
       <c r="E53" t="str">
         <f>VLOOKUP(D53,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>Online</v>
+        <v>54.788890, 4.135175</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -7789,7 +7793,7 @@
       </c>
       <c r="E54" t="str">
         <f>VLOOKUP(D54,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>Online</v>
+        <v>54.788890, 4.135175</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
@@ -7927,7 +7931,7 @@
       </c>
       <c r="E55" t="str">
         <f>VLOOKUP(D55,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>Online</v>
+        <v>54.788890, 4.135175</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
@@ -8065,7 +8069,7 @@
       </c>
       <c r="E56" t="str">
         <f>VLOOKUP(D56,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>Online</v>
+        <v>54.788890, 4.135175</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
@@ -8203,7 +8207,7 @@
       </c>
       <c r="E57" t="str">
         <f>VLOOKUP(D57,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
@@ -8341,7 +8345,7 @@
       </c>
       <c r="E58" t="str">
         <f>VLOOKUP(D58,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
@@ -8479,7 +8483,7 @@
       </c>
       <c r="E59" t="str">
         <f>VLOOKUP(D59,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
@@ -8617,7 +8621,7 @@
       </c>
       <c r="E60" t="str">
         <f>VLOOKUP(D60,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F60" t="s">
         <v>13</v>
@@ -8755,7 +8759,7 @@
       </c>
       <c r="E61" t="str">
         <f>VLOOKUP(D61,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F61" t="s">
         <v>11</v>
@@ -8893,7 +8897,7 @@
       </c>
       <c r="E62" t="str">
         <f>VLOOKUP(D62,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
@@ -9031,7 +9035,7 @@
       </c>
       <c r="E63" t="str">
         <f>VLOOKUP(D63,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F63" t="s">
         <v>11</v>
@@ -9169,7 +9173,7 @@
       </c>
       <c r="E64" t="str">
         <f>VLOOKUP(D64,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F64" t="s">
         <v>12</v>
@@ -9307,7 +9311,7 @@
       </c>
       <c r="E65" t="str">
         <f>VLOOKUP(D65,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F65" t="s">
         <v>13</v>
@@ -9445,7 +9449,7 @@
       </c>
       <c r="E66" t="str">
         <f>VLOOKUP(D66,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
@@ -9583,7 +9587,7 @@
       </c>
       <c r="E67" t="str">
         <f>VLOOKUP(D67,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F67" t="s">
         <v>11</v>
@@ -9721,7 +9725,7 @@
       </c>
       <c r="E68" t="str">
         <f>VLOOKUP(D68,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
@@ -9859,7 +9863,7 @@
       </c>
       <c r="E69" t="str">
         <f>VLOOKUP(D69,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
@@ -9997,7 +10001,7 @@
       </c>
       <c r="E70" t="str">
         <f>VLOOKUP(D70,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F70" t="s">
         <v>11</v>
@@ -10135,7 +10139,7 @@
       </c>
       <c r="E71" t="str">
         <f>VLOOKUP(D71,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F71" t="s">
         <v>13</v>
@@ -10273,7 +10277,7 @@
       </c>
       <c r="E72" t="str">
         <f>VLOOKUP(D72,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F72" t="s">
         <v>13</v>
@@ -10411,7 +10415,7 @@
       </c>
       <c r="E73" t="str">
         <f>VLOOKUP(D73,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F73" t="s">
         <v>12</v>
@@ -10549,7 +10553,7 @@
       </c>
       <c r="E74" t="str">
         <f>VLOOKUP(D74,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
@@ -10687,7 +10691,7 @@
       </c>
       <c r="E75" t="str">
         <f>VLOOKUP(D75,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F75" t="s">
         <v>11</v>
@@ -10825,7 +10829,7 @@
       </c>
       <c r="E76" t="str">
         <f>VLOOKUP(D76,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F76" t="s">
         <v>12</v>
@@ -10963,7 +10967,7 @@
       </c>
       <c r="E77" t="str">
         <f>VLOOKUP(D77,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F77" t="s">
         <v>13</v>
@@ -11101,7 +11105,7 @@
       </c>
       <c r="E78" t="str">
         <f>VLOOKUP(D78,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F78" t="s">
         <v>13</v>
@@ -11239,7 +11243,7 @@
       </c>
       <c r="E79" t="str">
         <f>VLOOKUP(D79,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
@@ -11377,7 +11381,7 @@
       </c>
       <c r="E80" t="str">
         <f>VLOOKUP(D80,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F80" t="s">
         <v>11</v>
@@ -11515,7 +11519,7 @@
       </c>
       <c r="E81" t="str">
         <f>VLOOKUP(D81,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F81" t="s">
         <v>11</v>
@@ -11587,7 +11591,7 @@
       </c>
       <c r="E82" t="str">
         <f>VLOOKUP(D82,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
@@ -11659,7 +11663,7 @@
       </c>
       <c r="E83" t="str">
         <f>VLOOKUP(D83,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F83" t="s">
         <v>12</v>
@@ -11731,7 +11735,7 @@
       </c>
       <c r="E84" t="str">
         <f>VLOOKUP(D84,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
@@ -11869,7 +11873,7 @@
       </c>
       <c r="E85" t="str">
         <f>VLOOKUP(D85,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F85" t="s">
         <v>11</v>
@@ -12007,7 +12011,7 @@
       </c>
       <c r="E86" t="str">
         <f>VLOOKUP(D86,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F86" t="s">
         <v>12</v>
@@ -12145,7 +12149,7 @@
       </c>
       <c r="E87" t="str">
         <f>VLOOKUP(D87,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F87" t="s">
         <v>12</v>
@@ -12283,7 +12287,7 @@
       </c>
       <c r="E88" t="str">
         <f>VLOOKUP(D88,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F88" t="s">
         <v>11</v>
@@ -12421,7 +12425,7 @@
       </c>
       <c r="E89" t="str">
         <f>VLOOKUP(D89,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
@@ -12559,7 +12563,7 @@
       </c>
       <c r="E90" t="str">
         <f>VLOOKUP(D90,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F90" t="s">
         <v>11</v>
@@ -12697,7 +12701,7 @@
       </c>
       <c r="E91" t="str">
         <f>VLOOKUP(D91,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F91" t="s">
         <v>12</v>
@@ -12835,7 +12839,7 @@
       </c>
       <c r="E92" t="str">
         <f>VLOOKUP(D92,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F92" t="s">
         <v>13</v>
@@ -12973,7 +12977,7 @@
       </c>
       <c r="E93" t="str">
         <f>VLOOKUP(D93,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F93" t="s">
         <v>60</v>
@@ -13111,7 +13115,7 @@
       </c>
       <c r="E94" t="str">
         <f>VLOOKUP(D94,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F94" t="s">
         <v>12</v>
@@ -13249,7 +13253,7 @@
       </c>
       <c r="E95" t="str">
         <f>VLOOKUP(D95,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F95" t="s">
         <v>13</v>
@@ -13387,7 +13391,7 @@
       </c>
       <c r="E96" t="str">
         <f>VLOOKUP(D96,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F96" t="s">
         <v>12</v>
@@ -13525,7 +13529,7 @@
       </c>
       <c r="E97" t="str">
         <f>VLOOKUP(D97,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F97" t="s">
         <v>13</v>
@@ -13663,7 +13667,7 @@
       </c>
       <c r="E98" t="str">
         <f>VLOOKUP(D98,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F98" t="s">
         <v>11</v>
@@ -13801,7 +13805,7 @@
       </c>
       <c r="E99" t="str">
         <f>VLOOKUP(D99,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F99" t="s">
         <v>13</v>
@@ -13939,7 +13943,7 @@
       </c>
       <c r="E100" t="str">
         <f>VLOOKUP(D100,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F100" t="s">
         <v>11</v>
@@ -14077,7 +14081,7 @@
       </c>
       <c r="E101" t="str">
         <f>VLOOKUP(D101,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F101" t="s">
         <v>12</v>
@@ -14215,7 +14219,7 @@
       </c>
       <c r="E102" t="str">
         <f>VLOOKUP(D102,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F102" t="s">
         <v>11</v>
@@ -14353,7 +14357,7 @@
       </c>
       <c r="E103" t="str">
         <f>VLOOKUP(D103,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F103" t="s">
         <v>13</v>
@@ -14491,7 +14495,7 @@
       </c>
       <c r="E104" t="str">
         <f>VLOOKUP(D104,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F104" t="s">
         <v>12</v>
@@ -14629,7 +14633,7 @@
       </c>
       <c r="E105" t="str">
         <f>VLOOKUP(D105,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F105" t="s">
         <v>12</v>
@@ -14767,7 +14771,7 @@
       </c>
       <c r="E106" t="str">
         <f>VLOOKUP(D106,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F106" t="s">
         <v>13</v>
@@ -14905,7 +14909,7 @@
       </c>
       <c r="E107" t="str">
         <f>VLOOKUP(D107,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F107" t="s">
         <v>11</v>
@@ -15043,7 +15047,7 @@
       </c>
       <c r="E108" t="str">
         <f>VLOOKUP(D108,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F108" t="s">
         <v>11</v>
@@ -15181,7 +15185,7 @@
       </c>
       <c r="E109" t="str">
         <f>VLOOKUP(D109,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F109" t="s">
         <v>12</v>
@@ -15319,7 +15323,7 @@
       </c>
       <c r="E110" t="str">
         <f>VLOOKUP(D110,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F110" t="s">
         <v>13</v>
@@ -15457,7 +15461,7 @@
       </c>
       <c r="E111" t="str">
         <f>VLOOKUP(D111,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F111" t="s">
         <v>12</v>
@@ -15595,7 +15599,7 @@
       </c>
       <c r="E112" t="str">
         <f>VLOOKUP(D112,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F112" t="s">
         <v>13</v>
@@ -15733,7 +15737,7 @@
       </c>
       <c r="E113" t="str">
         <f>VLOOKUP(D113,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F113" t="s">
         <v>11</v>
@@ -15871,7 +15875,7 @@
       </c>
       <c r="E114" t="str">
         <f>VLOOKUP(D114,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F114" t="s">
         <v>11</v>
@@ -16009,7 +16013,7 @@
       </c>
       <c r="E115" t="str">
         <f>VLOOKUP(D115,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F115" t="s">
         <v>12</v>
@@ -16147,7 +16151,7 @@
       </c>
       <c r="E116" t="str">
         <f>VLOOKUP(D116,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>50°55'19.1"N 6°55'36.0"E</v>
+        <v>50.921949, 6.926677</v>
       </c>
       <c r="F116" t="s">
         <v>13</v>
@@ -16285,7 +16289,7 @@
       </c>
       <c r="E117" t="str">
         <f>VLOOKUP(D117,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F117" t="s">
         <v>11</v>
@@ -16423,7 +16427,7 @@
       </c>
       <c r="E118" t="str">
         <f>VLOOKUP(D118,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F118" t="s">
         <v>12</v>
@@ -16561,7 +16565,7 @@
       </c>
       <c r="E119" t="str">
         <f>VLOOKUP(D119,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
@@ -16699,7 +16703,7 @@
       </c>
       <c r="E120" t="str">
         <f>VLOOKUP(D120,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F120" t="s">
         <v>12</v>
@@ -16732,7 +16736,7 @@
       </c>
       <c r="E121" t="str">
         <f>VLOOKUP(D121,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F121" t="s">
         <v>13</v>
@@ -16765,7 +16769,7 @@
       </c>
       <c r="E122" t="str">
         <f>VLOOKUP(D122,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F122" t="s">
         <v>11</v>
@@ -16798,7 +16802,7 @@
       </c>
       <c r="E123" t="str">
         <f>VLOOKUP(D123,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F123" t="s">
         <v>11</v>
@@ -16936,7 +16940,7 @@
       </c>
       <c r="E124" t="str">
         <f>VLOOKUP(D124,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F124" t="s">
         <v>12</v>
@@ -17074,7 +17078,7 @@
       </c>
       <c r="E125" t="str">
         <f>VLOOKUP(D125,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>54°29'30.7"N 9°01'49.2"E</v>
+        <v>54.491864, 9.030382</v>
       </c>
       <c r="F125" t="s">
         <v>13</v>
@@ -17212,7 +17216,7 @@
       </c>
       <c r="E126" t="str">
         <f>VLOOKUP(D126,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F126" t="s">
         <v>12</v>
@@ -17350,7 +17354,7 @@
       </c>
       <c r="E127" t="str">
         <f>VLOOKUP(D127,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F127" t="s">
         <v>13</v>
@@ -17488,7 +17492,7 @@
       </c>
       <c r="E128" t="str">
         <f>VLOOKUP(D128,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F128" t="s">
         <v>11</v>
@@ -17626,7 +17630,7 @@
       </c>
       <c r="E129" t="str">
         <f>VLOOKUP(D129,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F129" t="s">
         <v>12</v>
@@ -17764,7 +17768,7 @@
       </c>
       <c r="E130" t="str">
         <f>VLOOKUP(D130,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F130" t="s">
         <v>11</v>
@@ -17902,7 +17906,7 @@
       </c>
       <c r="E131" t="str">
         <f>VLOOKUP(D131,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F131" t="s">
         <v>13</v>
@@ -18040,7 +18044,7 @@
       </c>
       <c r="E132" t="str">
         <f>VLOOKUP(D132,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F132" t="s">
         <v>11</v>
@@ -18178,7 +18182,7 @@
       </c>
       <c r="E133" t="str">
         <f>VLOOKUP(D133,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F133" t="s">
         <v>13</v>
@@ -18316,7 +18320,7 @@
       </c>
       <c r="E134" t="str">
         <f>VLOOKUP(D134,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F134" t="s">
         <v>12</v>
@@ -18454,7 +18458,7 @@
       </c>
       <c r="E135" t="str">
         <f>VLOOKUP(D135,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F135" t="s">
         <v>13</v>
@@ -18592,7 +18596,7 @@
       </c>
       <c r="E136" t="str">
         <f>VLOOKUP(D136,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F136" t="s">
         <v>11</v>
@@ -18730,7 +18734,7 @@
       </c>
       <c r="E137" t="str">
         <f>VLOOKUP(D137,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F137" t="s">
         <v>12</v>
@@ -18868,7 +18872,7 @@
       </c>
       <c r="E138" t="str">
         <f>VLOOKUP(D138,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F138" t="s">
         <v>12</v>
@@ -19006,7 +19010,7 @@
       </c>
       <c r="E139" t="str">
         <f>VLOOKUP(D139,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F139" t="s">
         <v>11</v>
@@ -19144,7 +19148,7 @@
       </c>
       <c r="E140" t="str">
         <f>VLOOKUP(D140,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F140" t="s">
         <v>13</v>
@@ -19282,7 +19286,7 @@
       </c>
       <c r="E141" t="str">
         <f>VLOOKUP(D141,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F141" t="s">
         <v>13</v>
@@ -19420,7 +19424,7 @@
       </c>
       <c r="E142" t="str">
         <f>VLOOKUP(D142,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F142" t="s">
         <v>11</v>
@@ -19558,7 +19562,7 @@
       </c>
       <c r="E143" t="str">
         <f>VLOOKUP(D143,Sheet2!$I$1:$J$4,2,FALSE)</f>
-        <v>53°35'41.6"N 9°58'51.9"E</v>
+        <v>53.594891, 9.981069</v>
       </c>
       <c r="F143" t="s">
         <v>12</v>
@@ -19723,13 +19727,14 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -19746,7 +19751,7 @@
         <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -19763,7 +19768,7 @@
         <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -19780,7 +19785,7 @@
         <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -19788,7 +19793,7 @@
         <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Desktop\Projects\dev\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395FCB25-4DC2-4FF8-99E4-03064A4E5B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B83E402-8712-44C9-8079-AA73004497BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="65">
   <si>
     <t>season</t>
   </si>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t>Köln (Nikolausstr.)</t>
-  </si>
-  <si>
-    <t>Pf</t>
   </si>
   <si>
     <t>geoloc</t>
@@ -616,10 +613,10 @@
   <dimension ref="A1:AP143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomRight" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +695,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>2</v>
@@ -12980,7 +12977,7 @@
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F93" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="G93">
         <v>13</v>
@@ -19751,7 +19748,7 @@
         <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -19768,7 +19765,7 @@
         <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -19785,7 +19782,7 @@
         <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -19793,7 +19790,7 @@
         <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Desktop\Projects\dev\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B83E402-8712-44C9-8079-AA73004497BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB741A5-6A29-45D1-AA84-E00EC242202A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="65">
   <si>
     <t>season</t>
   </si>
@@ -610,13 +610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP143"/>
+  <dimension ref="A1:AP152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J133" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F94" sqref="F94"/>
+      <selection pane="bottomRight" activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16820,7 +16820,7 @@
         <v>31</v>
       </c>
       <c r="L123">
-        <f t="shared" ref="L123:L143" si="761">SUM(O123:V123)</f>
+        <f t="shared" ref="L123:L149" si="761">SUM(O123:V123)</f>
         <v>34</v>
       </c>
       <c r="M123">
@@ -19680,6 +19680,897 @@
       <c r="AP143">
         <f t="shared" ref="AP143" si="908">SUM(V141:V143)</f>
         <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2023</v>
+      </c>
+      <c r="B144" s="5">
+        <v>45289</v>
+      </c>
+      <c r="C144">
+        <v>18</v>
+      </c>
+      <c r="D144" t="s">
+        <v>55</v>
+      </c>
+      <c r="E144" t="str">
+        <f>VLOOKUP(D144,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
+      </c>
+      <c r="F144" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144">
+        <v>5</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>3</v>
+      </c>
+      <c r="J144" t="s">
+        <v>36</v>
+      </c>
+      <c r="K144" t="s">
+        <v>32</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="761"/>
+        <v>28</v>
+      </c>
+      <c r="M144">
+        <v>5</v>
+      </c>
+      <c r="N144">
+        <v>5</v>
+      </c>
+      <c r="O144">
+        <v>3</v>
+      </c>
+      <c r="P144">
+        <v>10</v>
+      </c>
+      <c r="Q144">
+        <v>5</v>
+      </c>
+      <c r="R144">
+        <v>3</v>
+      </c>
+      <c r="S144">
+        <v>4</v>
+      </c>
+      <c r="T144">
+        <v>3</v>
+      </c>
+      <c r="U144">
+        <v>0</v>
+      </c>
+      <c r="V144">
+        <v>0</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>1</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+      <c r="AB144">
+        <v>0</v>
+      </c>
+      <c r="AC144">
+        <v>0</v>
+      </c>
+      <c r="AD144">
+        <v>0</v>
+      </c>
+      <c r="AE144">
+        <v>1</v>
+      </c>
+      <c r="AF144">
+        <v>0</v>
+      </c>
+      <c r="AG144">
+        <v>0</v>
+      </c>
+      <c r="AH144">
+        <v>0</v>
+      </c>
+      <c r="AI144">
+        <f>SUM(O144:O146)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ144">
+        <f t="shared" ref="AJ144" si="909">SUM(P144:P146)</f>
+        <v>19</v>
+      </c>
+      <c r="AK144">
+        <f t="shared" ref="AK144" si="910">SUM(Q144:Q146)</f>
+        <v>12</v>
+      </c>
+      <c r="AL144">
+        <f t="shared" ref="AL144" si="911">SUM(R144:R146)</f>
+        <v>15</v>
+      </c>
+      <c r="AM144">
+        <f t="shared" ref="AM144" si="912">SUM(S144:S146)</f>
+        <v>10</v>
+      </c>
+      <c r="AN144">
+        <f t="shared" ref="AN144" si="913">SUM(T144:T146)</f>
+        <v>16</v>
+      </c>
+      <c r="AO144">
+        <f t="shared" ref="AO144" si="914">SUM(U144:U146)</f>
+        <v>2</v>
+      </c>
+      <c r="AP144">
+        <f t="shared" ref="AP144" si="915">SUM(V144:V146)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2023</v>
+      </c>
+      <c r="B145" s="5">
+        <v>45289</v>
+      </c>
+      <c r="C145">
+        <v>18</v>
+      </c>
+      <c r="D145" t="s">
+        <v>55</v>
+      </c>
+      <c r="E145" t="str">
+        <f>VLOOKUP(D145,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
+      </c>
+      <c r="F145" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145">
+        <v>13</v>
+      </c>
+      <c r="H145">
+        <v>8</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>32</v>
+      </c>
+      <c r="K145" t="s">
+        <v>32</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="761"/>
+        <v>33</v>
+      </c>
+      <c r="M145">
+        <v>5</v>
+      </c>
+      <c r="N145">
+        <v>5</v>
+      </c>
+      <c r="O145">
+        <v>4</v>
+      </c>
+      <c r="P145">
+        <v>4</v>
+      </c>
+      <c r="Q145">
+        <v>5</v>
+      </c>
+      <c r="R145">
+        <v>3</v>
+      </c>
+      <c r="S145">
+        <v>6</v>
+      </c>
+      <c r="T145">
+        <v>4</v>
+      </c>
+      <c r="U145">
+        <v>2</v>
+      </c>
+      <c r="V145">
+        <v>5</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+      <c r="AB145">
+        <v>0</v>
+      </c>
+      <c r="AC145">
+        <v>0</v>
+      </c>
+      <c r="AD145">
+        <v>0</v>
+      </c>
+      <c r="AE145">
+        <v>0</v>
+      </c>
+      <c r="AF145">
+        <v>0</v>
+      </c>
+      <c r="AG145">
+        <v>0</v>
+      </c>
+      <c r="AH145">
+        <v>0</v>
+      </c>
+      <c r="AI145">
+        <f>SUM(O144:O146)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ145">
+        <f t="shared" ref="AJ145" si="916">SUM(P144:P146)</f>
+        <v>19</v>
+      </c>
+      <c r="AK145">
+        <f t="shared" ref="AK145" si="917">SUM(Q144:Q146)</f>
+        <v>12</v>
+      </c>
+      <c r="AL145">
+        <f t="shared" ref="AL145" si="918">SUM(R144:R146)</f>
+        <v>15</v>
+      </c>
+      <c r="AM145">
+        <f t="shared" ref="AM145" si="919">SUM(S144:S146)</f>
+        <v>10</v>
+      </c>
+      <c r="AN145">
+        <f t="shared" ref="AN145" si="920">SUM(T144:T146)</f>
+        <v>16</v>
+      </c>
+      <c r="AO145">
+        <f t="shared" ref="AO145" si="921">SUM(U144:U146)</f>
+        <v>2</v>
+      </c>
+      <c r="AP145">
+        <f t="shared" ref="AP145" si="922">SUM(V144:V146)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2023</v>
+      </c>
+      <c r="B146" s="5">
+        <v>45289</v>
+      </c>
+      <c r="C146">
+        <v>18</v>
+      </c>
+      <c r="D146" t="s">
+        <v>55</v>
+      </c>
+      <c r="E146" t="str">
+        <f>VLOOKUP(D146,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
+      </c>
+      <c r="F146" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146">
+        <v>9</v>
+      </c>
+      <c r="H146">
+        <v>2</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146" t="s">
+        <v>37</v>
+      </c>
+      <c r="K146" t="s">
+        <v>32</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="761"/>
+        <v>34</v>
+      </c>
+      <c r="M146">
+        <v>4</v>
+      </c>
+      <c r="N146">
+        <v>4</v>
+      </c>
+      <c r="O146">
+        <v>9</v>
+      </c>
+      <c r="P146">
+        <v>5</v>
+      </c>
+      <c r="Q146">
+        <v>2</v>
+      </c>
+      <c r="R146">
+        <v>9</v>
+      </c>
+      <c r="S146">
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <v>9</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+      <c r="V146">
+        <v>0</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>0</v>
+      </c>
+      <c r="AB146">
+        <v>0</v>
+      </c>
+      <c r="AC146">
+        <v>0</v>
+      </c>
+      <c r="AD146">
+        <v>1</v>
+      </c>
+      <c r="AE146">
+        <v>0</v>
+      </c>
+      <c r="AF146">
+        <v>0</v>
+      </c>
+      <c r="AG146">
+        <v>0</v>
+      </c>
+      <c r="AH146">
+        <v>0</v>
+      </c>
+      <c r="AI146">
+        <f>SUM(O144:O146)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ146">
+        <f t="shared" ref="AJ146" si="923">SUM(P144:P146)</f>
+        <v>19</v>
+      </c>
+      <c r="AK146">
+        <f t="shared" ref="AK146" si="924">SUM(Q144:Q146)</f>
+        <v>12</v>
+      </c>
+      <c r="AL146">
+        <f t="shared" ref="AL146" si="925">SUM(R144:R146)</f>
+        <v>15</v>
+      </c>
+      <c r="AM146">
+        <f t="shared" ref="AM146" si="926">SUM(S144:S146)</f>
+        <v>10</v>
+      </c>
+      <c r="AN146">
+        <f t="shared" ref="AN146" si="927">SUM(T144:T146)</f>
+        <v>16</v>
+      </c>
+      <c r="AO146">
+        <f t="shared" ref="AO146" si="928">SUM(U144:U146)</f>
+        <v>2</v>
+      </c>
+      <c r="AP146">
+        <f t="shared" ref="AP146" si="929">SUM(V144:V146)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2023</v>
+      </c>
+      <c r="B147" s="5">
+        <v>45289</v>
+      </c>
+      <c r="C147">
+        <v>19</v>
+      </c>
+      <c r="D147" t="s">
+        <v>55</v>
+      </c>
+      <c r="E147" t="str">
+        <f>VLOOKUP(D147,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
+      </c>
+      <c r="F147" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147">
+        <v>9</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147" t="s">
+        <v>36</v>
+      </c>
+      <c r="K147" t="s">
+        <v>32</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="761"/>
+        <v>27</v>
+      </c>
+      <c r="M147">
+        <v>5</v>
+      </c>
+      <c r="N147">
+        <v>5</v>
+      </c>
+      <c r="O147">
+        <v>5</v>
+      </c>
+      <c r="P147">
+        <v>8</v>
+      </c>
+      <c r="Q147">
+        <v>4</v>
+      </c>
+      <c r="R147">
+        <v>4</v>
+      </c>
+      <c r="S147">
+        <v>2</v>
+      </c>
+      <c r="T147">
+        <v>2</v>
+      </c>
+      <c r="U147">
+        <v>2</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+      <c r="AB147">
+        <v>0</v>
+      </c>
+      <c r="AC147">
+        <v>0</v>
+      </c>
+      <c r="AD147">
+        <v>0</v>
+      </c>
+      <c r="AE147">
+        <v>0</v>
+      </c>
+      <c r="AF147">
+        <v>0</v>
+      </c>
+      <c r="AG147">
+        <v>0</v>
+      </c>
+      <c r="AH147">
+        <v>0</v>
+      </c>
+      <c r="AI147">
+        <f>SUM(O147:O149)</f>
+        <v>18</v>
+      </c>
+      <c r="AJ147">
+        <f t="shared" ref="AJ147" si="930">SUM(P147:P149)</f>
+        <v>25</v>
+      </c>
+      <c r="AK147">
+        <f t="shared" ref="AK147" si="931">SUM(Q147:Q149)</f>
+        <v>15</v>
+      </c>
+      <c r="AL147">
+        <f t="shared" ref="AL147" si="932">SUM(R147:R149)</f>
+        <v>4</v>
+      </c>
+      <c r="AM147">
+        <f t="shared" ref="AM147" si="933">SUM(S147:S149)</f>
+        <v>6</v>
+      </c>
+      <c r="AN147">
+        <f t="shared" ref="AN147" si="934">SUM(T147:T149)</f>
+        <v>13</v>
+      </c>
+      <c r="AO147">
+        <f t="shared" ref="AO147" si="935">SUM(U147:U149)</f>
+        <v>4</v>
+      </c>
+      <c r="AP147">
+        <f t="shared" ref="AP147" si="936">SUM(V147:V149)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2023</v>
+      </c>
+      <c r="B148" s="5">
+        <v>45289</v>
+      </c>
+      <c r="C148">
+        <v>19</v>
+      </c>
+      <c r="D148" t="s">
+        <v>55</v>
+      </c>
+      <c r="E148" t="str">
+        <f>VLOOKUP(D148,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
+      </c>
+      <c r="F148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148">
+        <v>13</v>
+      </c>
+      <c r="H148">
+        <v>7</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>32</v>
+      </c>
+      <c r="K148" t="s">
+        <v>32</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="761"/>
+        <v>29</v>
+      </c>
+      <c r="M148">
+        <v>5</v>
+      </c>
+      <c r="N148">
+        <v>4</v>
+      </c>
+      <c r="O148">
+        <v>8</v>
+      </c>
+      <c r="P148">
+        <v>4</v>
+      </c>
+      <c r="Q148">
+        <v>3</v>
+      </c>
+      <c r="R148">
+        <v>0</v>
+      </c>
+      <c r="S148">
+        <v>4</v>
+      </c>
+      <c r="T148">
+        <v>8</v>
+      </c>
+      <c r="U148">
+        <v>2</v>
+      </c>
+      <c r="V148">
+        <v>0</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>0</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>0</v>
+      </c>
+      <c r="AB148">
+        <v>0</v>
+      </c>
+      <c r="AC148">
+        <v>0</v>
+      </c>
+      <c r="AD148">
+        <v>0</v>
+      </c>
+      <c r="AE148">
+        <v>0</v>
+      </c>
+      <c r="AF148">
+        <v>0</v>
+      </c>
+      <c r="AG148">
+        <v>1</v>
+      </c>
+      <c r="AH148">
+        <v>0</v>
+      </c>
+      <c r="AI148">
+        <f>SUM(O147:O149)</f>
+        <v>18</v>
+      </c>
+      <c r="AJ148">
+        <f t="shared" ref="AJ148" si="937">SUM(P147:P149)</f>
+        <v>25</v>
+      </c>
+      <c r="AK148">
+        <f t="shared" ref="AK148" si="938">SUM(Q147:Q149)</f>
+        <v>15</v>
+      </c>
+      <c r="AL148">
+        <f t="shared" ref="AL148" si="939">SUM(R147:R149)</f>
+        <v>4</v>
+      </c>
+      <c r="AM148">
+        <f t="shared" ref="AM148" si="940">SUM(S147:S149)</f>
+        <v>6</v>
+      </c>
+      <c r="AN148">
+        <f t="shared" ref="AN148" si="941">SUM(T147:T149)</f>
+        <v>13</v>
+      </c>
+      <c r="AO148">
+        <f t="shared" ref="AO148" si="942">SUM(U147:U149)</f>
+        <v>4</v>
+      </c>
+      <c r="AP148">
+        <f t="shared" ref="AP148" si="943">SUM(V147:V149)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2023</v>
+      </c>
+      <c r="B149" s="5">
+        <v>45289</v>
+      </c>
+      <c r="C149">
+        <v>19</v>
+      </c>
+      <c r="D149" t="s">
+        <v>55</v>
+      </c>
+      <c r="E149" t="str">
+        <f>VLOOKUP(D149,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
+      </c>
+      <c r="F149" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149">
+        <v>6</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>3</v>
+      </c>
+      <c r="J149" t="s">
+        <v>37</v>
+      </c>
+      <c r="K149" t="s">
+        <v>32</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="761"/>
+        <v>29</v>
+      </c>
+      <c r="M149">
+        <v>5</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149">
+        <v>5</v>
+      </c>
+      <c r="P149">
+        <v>13</v>
+      </c>
+      <c r="Q149">
+        <v>8</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+      <c r="T149">
+        <v>3</v>
+      </c>
+      <c r="U149">
+        <v>0</v>
+      </c>
+      <c r="V149">
+        <v>0</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+      <c r="AB149">
+        <v>0</v>
+      </c>
+      <c r="AC149">
+        <v>0</v>
+      </c>
+      <c r="AD149">
+        <v>0</v>
+      </c>
+      <c r="AE149">
+        <v>0</v>
+      </c>
+      <c r="AF149">
+        <v>1</v>
+      </c>
+      <c r="AG149">
+        <v>0</v>
+      </c>
+      <c r="AH149">
+        <v>1</v>
+      </c>
+      <c r="AI149">
+        <f>SUM(O147:O149)</f>
+        <v>18</v>
+      </c>
+      <c r="AJ149">
+        <f t="shared" ref="AJ149" si="944">SUM(P147:P149)</f>
+        <v>25</v>
+      </c>
+      <c r="AK149">
+        <f t="shared" ref="AK149" si="945">SUM(Q147:Q149)</f>
+        <v>15</v>
+      </c>
+      <c r="AL149">
+        <f t="shared" ref="AL149" si="946">SUM(R147:R149)</f>
+        <v>4</v>
+      </c>
+      <c r="AM149">
+        <f t="shared" ref="AM149" si="947">SUM(S147:S149)</f>
+        <v>6</v>
+      </c>
+      <c r="AN149">
+        <f t="shared" ref="AN149" si="948">SUM(T147:T149)</f>
+        <v>13</v>
+      </c>
+      <c r="AO149">
+        <f t="shared" ref="AO149" si="949">SUM(U147:U149)</f>
+        <v>4</v>
+      </c>
+      <c r="AP149">
+        <f t="shared" ref="AP149" si="950">SUM(V147:V149)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2023</v>
+      </c>
+      <c r="B150" s="5">
+        <v>45289</v>
+      </c>
+      <c r="C150">
+        <v>20</v>
+      </c>
+      <c r="D150" t="s">
+        <v>55</v>
+      </c>
+      <c r="E150" t="str">
+        <f>VLOOKUP(D150,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
+      </c>
+      <c r="J150" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2023</v>
+      </c>
+      <c r="B151" s="5">
+        <v>45289</v>
+      </c>
+      <c r="C151">
+        <v>20</v>
+      </c>
+      <c r="D151" t="s">
+        <v>55</v>
+      </c>
+      <c r="E151" t="str">
+        <f>VLOOKUP(D151,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
+      </c>
+      <c r="J151" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2023</v>
+      </c>
+      <c r="B152" s="5">
+        <v>45289</v>
+      </c>
+      <c r="C152">
+        <v>20</v>
+      </c>
+      <c r="D152" t="s">
+        <v>55</v>
+      </c>
+      <c r="E152" t="str">
+        <f>VLOOKUP(D152,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
+      </c>
+      <c r="J152" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Desktop\Projects\dev\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB741A5-6A29-45D1-AA84-E00EC242202A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9964D2A6-93CC-4F8A-A3C4-8E109BB23955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="65">
   <si>
     <t>season</t>
   </si>
@@ -610,13 +610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP152"/>
+  <dimension ref="A1:AP155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J133" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J153" sqref="J153"/>
+      <selection pane="bottomRight" activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16820,7 +16820,7 @@
         <v>31</v>
       </c>
       <c r="L123">
-        <f t="shared" ref="L123:L149" si="761">SUM(O123:V123)</f>
+        <f t="shared" ref="L123:L155" si="761">SUM(O123:V123)</f>
         <v>34</v>
       </c>
       <c r="M123">
@@ -20527,8 +20527,125 @@
         <f>VLOOKUP(D150,Sheet2!$I$1:$J$4,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
+      <c r="F150" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150">
+        <v>13</v>
+      </c>
+      <c r="H150">
+        <v>6</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
       <c r="J150" t="s">
         <v>36</v>
+      </c>
+      <c r="K150" t="s">
+        <v>33</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="761"/>
+        <v>30</v>
+      </c>
+      <c r="M150">
+        <v>4</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150">
+        <v>5</v>
+      </c>
+      <c r="P150">
+        <v>5</v>
+      </c>
+      <c r="Q150">
+        <v>9</v>
+      </c>
+      <c r="R150">
+        <v>6</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>5</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>1</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+      <c r="AB150">
+        <v>0</v>
+      </c>
+      <c r="AC150">
+        <v>1</v>
+      </c>
+      <c r="AD150">
+        <v>0</v>
+      </c>
+      <c r="AE150">
+        <v>0</v>
+      </c>
+      <c r="AF150">
+        <v>0</v>
+      </c>
+      <c r="AG150">
+        <v>0</v>
+      </c>
+      <c r="AH150">
+        <v>0</v>
+      </c>
+      <c r="AI150">
+        <f>SUM(O150:O152)</f>
+        <v>13</v>
+      </c>
+      <c r="AJ150">
+        <f t="shared" ref="AJ150" si="951">SUM(P150:P152)</f>
+        <v>22</v>
+      </c>
+      <c r="AK150">
+        <f t="shared" ref="AK150" si="952">SUM(Q150:Q152)</f>
+        <v>18</v>
+      </c>
+      <c r="AL150">
+        <f t="shared" ref="AL150" si="953">SUM(R150:R152)</f>
+        <v>12</v>
+      </c>
+      <c r="AM150">
+        <f t="shared" ref="AM150" si="954">SUM(S150:S152)</f>
+        <v>13</v>
+      </c>
+      <c r="AN150">
+        <f t="shared" ref="AN150" si="955">SUM(T150:T152)</f>
+        <v>8</v>
+      </c>
+      <c r="AO150">
+        <f t="shared" ref="AO150" si="956">SUM(U150:U152)</f>
+        <v>5</v>
+      </c>
+      <c r="AP150">
+        <f t="shared" ref="AP150" si="957">SUM(V150:V152)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:42" x14ac:dyDescent="0.25">
@@ -20548,8 +20665,125 @@
         <f>VLOOKUP(D151,Sheet2!$I$1:$J$4,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
+      <c r="F151" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151">
+        <v>8</v>
+      </c>
+      <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="I151">
+        <v>3</v>
+      </c>
       <c r="J151" t="s">
         <v>32</v>
+      </c>
+      <c r="K151" t="s">
+        <v>33</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="761"/>
+        <v>35</v>
+      </c>
+      <c r="M151">
+        <v>6</v>
+      </c>
+      <c r="N151">
+        <v>4</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>6</v>
+      </c>
+      <c r="Q151">
+        <v>9</v>
+      </c>
+      <c r="R151">
+        <v>2</v>
+      </c>
+      <c r="S151">
+        <v>9</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>5</v>
+      </c>
+      <c r="V151">
+        <v>4</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>0</v>
+      </c>
+      <c r="AB151">
+        <v>0</v>
+      </c>
+      <c r="AC151">
+        <v>0</v>
+      </c>
+      <c r="AD151">
+        <v>1</v>
+      </c>
+      <c r="AE151">
+        <v>0</v>
+      </c>
+      <c r="AF151">
+        <v>0</v>
+      </c>
+      <c r="AG151">
+        <v>0</v>
+      </c>
+      <c r="AH151">
+        <v>0</v>
+      </c>
+      <c r="AI151">
+        <f>SUM(O150:O152)</f>
+        <v>13</v>
+      </c>
+      <c r="AJ151">
+        <f t="shared" ref="AJ151" si="958">SUM(P150:P152)</f>
+        <v>22</v>
+      </c>
+      <c r="AK151">
+        <f t="shared" ref="AK151" si="959">SUM(Q150:Q152)</f>
+        <v>18</v>
+      </c>
+      <c r="AL151">
+        <f t="shared" ref="AL151" si="960">SUM(R150:R152)</f>
+        <v>12</v>
+      </c>
+      <c r="AM151">
+        <f t="shared" ref="AM151" si="961">SUM(S150:S152)</f>
+        <v>13</v>
+      </c>
+      <c r="AN151">
+        <f t="shared" ref="AN151" si="962">SUM(T150:T152)</f>
+        <v>8</v>
+      </c>
+      <c r="AO151">
+        <f t="shared" ref="AO151" si="963">SUM(U150:U152)</f>
+        <v>5</v>
+      </c>
+      <c r="AP151">
+        <f t="shared" ref="AP151" si="964">SUM(V150:V152)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:42" x14ac:dyDescent="0.25">
@@ -20569,8 +20803,539 @@
         <f>VLOOKUP(D152,Sheet2!$I$1:$J$4,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
+      <c r="F152" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152">
+        <v>9</v>
+      </c>
+      <c r="H152">
+        <v>2</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
       <c r="J152" t="s">
         <v>37</v>
+      </c>
+      <c r="K152" t="s">
+        <v>33</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="761"/>
+        <v>35</v>
+      </c>
+      <c r="M152">
+        <v>5</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152">
+        <v>8</v>
+      </c>
+      <c r="P152">
+        <v>11</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>4</v>
+      </c>
+      <c r="S152">
+        <v>4</v>
+      </c>
+      <c r="T152">
+        <v>8</v>
+      </c>
+      <c r="U152">
+        <v>0</v>
+      </c>
+      <c r="V152">
+        <v>0</v>
+      </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AA152">
+        <v>0</v>
+      </c>
+      <c r="AB152">
+        <v>0</v>
+      </c>
+      <c r="AC152">
+        <v>0</v>
+      </c>
+      <c r="AD152">
+        <v>0</v>
+      </c>
+      <c r="AE152">
+        <v>0</v>
+      </c>
+      <c r="AF152">
+        <v>0</v>
+      </c>
+      <c r="AG152">
+        <v>0</v>
+      </c>
+      <c r="AH152">
+        <v>1</v>
+      </c>
+      <c r="AI152">
+        <f>SUM(O150:O152)</f>
+        <v>13</v>
+      </c>
+      <c r="AJ152">
+        <f t="shared" ref="AJ152" si="965">SUM(P150:P152)</f>
+        <v>22</v>
+      </c>
+      <c r="AK152">
+        <f t="shared" ref="AK152" si="966">SUM(Q150:Q152)</f>
+        <v>18</v>
+      </c>
+      <c r="AL152">
+        <f t="shared" ref="AL152" si="967">SUM(R150:R152)</f>
+        <v>12</v>
+      </c>
+      <c r="AM152">
+        <f t="shared" ref="AM152" si="968">SUM(S150:S152)</f>
+        <v>13</v>
+      </c>
+      <c r="AN152">
+        <f t="shared" ref="AN152" si="969">SUM(T150:T152)</f>
+        <v>8</v>
+      </c>
+      <c r="AO152">
+        <f t="shared" ref="AO152" si="970">SUM(U150:U152)</f>
+        <v>5</v>
+      </c>
+      <c r="AP152">
+        <f t="shared" ref="AP152" si="971">SUM(V150:V152)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2023</v>
+      </c>
+      <c r="B153" s="5">
+        <v>45289</v>
+      </c>
+      <c r="C153">
+        <v>21</v>
+      </c>
+      <c r="D153" t="s">
+        <v>55</v>
+      </c>
+      <c r="E153" t="str">
+        <f>VLOOKUP(D153,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
+      </c>
+      <c r="F153" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153">
+        <v>11</v>
+      </c>
+      <c r="H153">
+        <v>2</v>
+      </c>
+      <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153" t="s">
+        <v>36</v>
+      </c>
+      <c r="K153" t="s">
+        <v>32</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="761"/>
+        <v>26</v>
+      </c>
+      <c r="M153">
+        <v>5</v>
+      </c>
+      <c r="N153">
+        <v>4</v>
+      </c>
+      <c r="O153">
+        <v>3</v>
+      </c>
+      <c r="P153">
+        <v>14</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>4</v>
+      </c>
+      <c r="S153">
+        <v>5</v>
+      </c>
+      <c r="T153">
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <v>0</v>
+      </c>
+      <c r="V153">
+        <v>0</v>
+      </c>
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153">
+        <v>1</v>
+      </c>
+      <c r="Y153">
+        <v>0</v>
+      </c>
+      <c r="Z153">
+        <v>0</v>
+      </c>
+      <c r="AA153">
+        <v>0</v>
+      </c>
+      <c r="AB153">
+        <v>0</v>
+      </c>
+      <c r="AC153">
+        <v>1</v>
+      </c>
+      <c r="AD153">
+        <v>0</v>
+      </c>
+      <c r="AE153">
+        <v>0</v>
+      </c>
+      <c r="AF153">
+        <v>0</v>
+      </c>
+      <c r="AG153">
+        <v>0</v>
+      </c>
+      <c r="AH153">
+        <v>0</v>
+      </c>
+      <c r="AI153">
+        <f>SUM(O153:O155)</f>
+        <v>11</v>
+      </c>
+      <c r="AJ153">
+        <f t="shared" ref="AJ153" si="972">SUM(P153:P155)</f>
+        <v>18</v>
+      </c>
+      <c r="AK153">
+        <f t="shared" ref="AK153" si="973">SUM(Q153:Q155)</f>
+        <v>7</v>
+      </c>
+      <c r="AL153">
+        <f t="shared" ref="AL153" si="974">SUM(R153:R155)</f>
+        <v>21</v>
+      </c>
+      <c r="AM153">
+        <f t="shared" ref="AM153" si="975">SUM(S153:S155)</f>
+        <v>12</v>
+      </c>
+      <c r="AN153">
+        <f t="shared" ref="AN153" si="976">SUM(T153:T155)</f>
+        <v>4</v>
+      </c>
+      <c r="AO153">
+        <f t="shared" ref="AO153" si="977">SUM(U153:U155)</f>
+        <v>7</v>
+      </c>
+      <c r="AP153">
+        <f t="shared" ref="AP153" si="978">SUM(V153:V155)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2023</v>
+      </c>
+      <c r="B154" s="5">
+        <v>45289</v>
+      </c>
+      <c r="C154">
+        <v>21</v>
+      </c>
+      <c r="D154" t="s">
+        <v>55</v>
+      </c>
+      <c r="E154" t="str">
+        <f>VLOOKUP(D154,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
+      </c>
+      <c r="F154" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154">
+        <v>9</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>3</v>
+      </c>
+      <c r="J154" t="s">
+        <v>32</v>
+      </c>
+      <c r="K154" t="s">
+        <v>32</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="761"/>
+        <v>29</v>
+      </c>
+      <c r="M154">
+        <v>5</v>
+      </c>
+      <c r="N154">
+        <v>4</v>
+      </c>
+      <c r="O154">
+        <v>4</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>3</v>
+      </c>
+      <c r="R154">
+        <v>15</v>
+      </c>
+      <c r="S154">
+        <v>2</v>
+      </c>
+      <c r="T154">
+        <v>0</v>
+      </c>
+      <c r="U154">
+        <v>2</v>
+      </c>
+      <c r="V154">
+        <v>3</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>0</v>
+      </c>
+      <c r="Z154">
+        <v>0</v>
+      </c>
+      <c r="AA154">
+        <v>0</v>
+      </c>
+      <c r="AB154">
+        <v>0</v>
+      </c>
+      <c r="AC154">
+        <v>0</v>
+      </c>
+      <c r="AD154">
+        <v>0</v>
+      </c>
+      <c r="AE154">
+        <v>0</v>
+      </c>
+      <c r="AF154">
+        <v>0</v>
+      </c>
+      <c r="AG154">
+        <v>0</v>
+      </c>
+      <c r="AH154">
+        <v>1</v>
+      </c>
+      <c r="AI154">
+        <f>SUM(O153:O155)</f>
+        <v>11</v>
+      </c>
+      <c r="AJ154">
+        <f t="shared" ref="AJ154" si="979">SUM(P153:P155)</f>
+        <v>18</v>
+      </c>
+      <c r="AK154">
+        <f t="shared" ref="AK154" si="980">SUM(Q153:Q155)</f>
+        <v>7</v>
+      </c>
+      <c r="AL154">
+        <f t="shared" ref="AL154" si="981">SUM(R153:R155)</f>
+        <v>21</v>
+      </c>
+      <c r="AM154">
+        <f t="shared" ref="AM154" si="982">SUM(S153:S155)</f>
+        <v>12</v>
+      </c>
+      <c r="AN154">
+        <f t="shared" ref="AN154" si="983">SUM(T153:T155)</f>
+        <v>4</v>
+      </c>
+      <c r="AO154">
+        <f t="shared" ref="AO154" si="984">SUM(U153:U155)</f>
+        <v>7</v>
+      </c>
+      <c r="AP154">
+        <f t="shared" ref="AP154" si="985">SUM(V153:V155)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2023</v>
+      </c>
+      <c r="B155" s="5">
+        <v>45289</v>
+      </c>
+      <c r="C155">
+        <v>21</v>
+      </c>
+      <c r="D155" t="s">
+        <v>55</v>
+      </c>
+      <c r="E155" t="str">
+        <f>VLOOKUP(D155,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
+      </c>
+      <c r="F155" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155">
+        <v>13</v>
+      </c>
+      <c r="H155">
+        <v>7</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155" t="s">
+        <v>37</v>
+      </c>
+      <c r="K155" t="s">
+        <v>32</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="761"/>
+        <v>29</v>
+      </c>
+      <c r="M155">
+        <v>6</v>
+      </c>
+      <c r="N155">
+        <v>5</v>
+      </c>
+      <c r="O155">
+        <v>4</v>
+      </c>
+      <c r="P155">
+        <v>4</v>
+      </c>
+      <c r="Q155">
+        <v>4</v>
+      </c>
+      <c r="R155">
+        <v>2</v>
+      </c>
+      <c r="S155">
+        <v>5</v>
+      </c>
+      <c r="T155">
+        <v>4</v>
+      </c>
+      <c r="U155">
+        <v>5</v>
+      </c>
+      <c r="V155">
+        <v>1</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <v>0</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AA155">
+        <v>0</v>
+      </c>
+      <c r="AB155">
+        <v>0</v>
+      </c>
+      <c r="AC155">
+        <v>0</v>
+      </c>
+      <c r="AD155">
+        <v>1</v>
+      </c>
+      <c r="AE155">
+        <v>0</v>
+      </c>
+      <c r="AF155">
+        <v>0</v>
+      </c>
+      <c r="AG155">
+        <v>0</v>
+      </c>
+      <c r="AH155">
+        <v>0</v>
+      </c>
+      <c r="AI155">
+        <f>SUM(O153:O155)</f>
+        <v>11</v>
+      </c>
+      <c r="AJ155">
+        <f t="shared" ref="AJ155" si="986">SUM(P153:P155)</f>
+        <v>18</v>
+      </c>
+      <c r="AK155">
+        <f t="shared" ref="AK155" si="987">SUM(Q153:Q155)</f>
+        <v>7</v>
+      </c>
+      <c r="AL155">
+        <f t="shared" ref="AL155" si="988">SUM(R153:R155)</f>
+        <v>21</v>
+      </c>
+      <c r="AM155">
+        <f t="shared" ref="AM155" si="989">SUM(S153:S155)</f>
+        <v>12</v>
+      </c>
+      <c r="AN155">
+        <f t="shared" ref="AN155" si="990">SUM(T153:T155)</f>
+        <v>4</v>
+      </c>
+      <c r="AO155">
+        <f t="shared" ref="AO155" si="991">SUM(U153:U155)</f>
+        <v>7</v>
+      </c>
+      <c r="AP155">
+        <f t="shared" ref="AP155" si="992">SUM(V153:V155)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Desktop\Projects\dev\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9964D2A6-93CC-4F8A-A3C4-8E109BB23955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218CF206-5A43-4822-B8C4-EEA3F60692ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="65">
   <si>
     <t>season</t>
   </si>
@@ -610,13 +610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP155"/>
+  <dimension ref="A1:AP161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J139" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H154" sqref="H154"/>
+      <selection pane="bottomRight" activeCell="A159" sqref="A159:L161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16820,7 +16820,7 @@
         <v>31</v>
       </c>
       <c r="L123">
-        <f t="shared" ref="L123:L155" si="761">SUM(O123:V123)</f>
+        <f t="shared" ref="L123:L161" si="761">SUM(O123:V123)</f>
         <v>34</v>
       </c>
       <c r="M123">
@@ -21337,6 +21337,429 @@
         <f t="shared" ref="AP155" si="992">SUM(V153:V155)</f>
         <v>4</v>
       </c>
+    </row>
+    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2023</v>
+      </c>
+      <c r="B156" s="5">
+        <v>45289</v>
+      </c>
+      <c r="C156">
+        <v>22</v>
+      </c>
+      <c r="D156" t="s">
+        <v>55</v>
+      </c>
+      <c r="E156" t="str">
+        <f>VLOOKUP(D156,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
+      </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156">
+        <v>4</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>3</v>
+      </c>
+      <c r="J156" t="s">
+        <v>36</v>
+      </c>
+      <c r="K156" t="s">
+        <v>32</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="761"/>
+        <v>30</v>
+      </c>
+      <c r="M156">
+        <v>5</v>
+      </c>
+      <c r="N156">
+        <v>4</v>
+      </c>
+      <c r="O156">
+        <v>7</v>
+      </c>
+      <c r="P156">
+        <v>10</v>
+      </c>
+      <c r="Q156">
+        <v>5</v>
+      </c>
+      <c r="R156">
+        <v>3</v>
+      </c>
+      <c r="S156">
+        <v>0</v>
+      </c>
+      <c r="T156">
+        <v>3</v>
+      </c>
+      <c r="U156">
+        <v>0</v>
+      </c>
+      <c r="V156">
+        <v>2</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <v>0</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AA156">
+        <v>0</v>
+      </c>
+      <c r="AB156">
+        <v>0</v>
+      </c>
+      <c r="AC156">
+        <v>0</v>
+      </c>
+      <c r="AD156">
+        <v>0</v>
+      </c>
+      <c r="AE156">
+        <v>1</v>
+      </c>
+      <c r="AF156">
+        <v>0</v>
+      </c>
+      <c r="AG156">
+        <v>0</v>
+      </c>
+      <c r="AH156">
+        <v>0</v>
+      </c>
+      <c r="AI156">
+        <f>SUM(O156:O158)</f>
+        <v>21</v>
+      </c>
+      <c r="AJ156">
+        <f t="shared" ref="AJ156" si="993">SUM(P156:P158)</f>
+        <v>22</v>
+      </c>
+      <c r="AK156">
+        <f t="shared" ref="AK156" si="994">SUM(Q156:Q158)</f>
+        <v>11</v>
+      </c>
+      <c r="AL156">
+        <f t="shared" ref="AL156" si="995">SUM(R156:R158)</f>
+        <v>11</v>
+      </c>
+      <c r="AM156">
+        <f t="shared" ref="AM156" si="996">SUM(S156:S158)</f>
+        <v>6</v>
+      </c>
+      <c r="AN156">
+        <f t="shared" ref="AN156" si="997">SUM(T156:T158)</f>
+        <v>14</v>
+      </c>
+      <c r="AO156">
+        <f t="shared" ref="AO156" si="998">SUM(U156:U158)</f>
+        <v>1</v>
+      </c>
+      <c r="AP156">
+        <f t="shared" ref="AP156" si="999">SUM(V156:V158)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2023</v>
+      </c>
+      <c r="B157" s="5">
+        <v>45289</v>
+      </c>
+      <c r="C157">
+        <v>22</v>
+      </c>
+      <c r="D157" t="s">
+        <v>55</v>
+      </c>
+      <c r="E157" t="str">
+        <f>VLOOKUP(D157,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
+      </c>
+      <c r="F157" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157">
+        <v>7</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>2</v>
+      </c>
+      <c r="J157" t="s">
+        <v>32</v>
+      </c>
+      <c r="K157" t="s">
+        <v>32</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="761"/>
+        <v>30</v>
+      </c>
+      <c r="M157">
+        <v>6</v>
+      </c>
+      <c r="N157">
+        <v>5</v>
+      </c>
+      <c r="O157">
+        <v>4</v>
+      </c>
+      <c r="P157">
+        <v>10</v>
+      </c>
+      <c r="Q157">
+        <v>2</v>
+      </c>
+      <c r="R157">
+        <v>8</v>
+      </c>
+      <c r="S157">
+        <v>1</v>
+      </c>
+      <c r="T157">
+        <v>4</v>
+      </c>
+      <c r="U157">
+        <v>1</v>
+      </c>
+      <c r="V157">
+        <v>0</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>0</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AA157">
+        <v>0</v>
+      </c>
+      <c r="AB157">
+        <v>0</v>
+      </c>
+      <c r="AC157">
+        <v>0</v>
+      </c>
+      <c r="AD157">
+        <v>0</v>
+      </c>
+      <c r="AE157">
+        <v>0</v>
+      </c>
+      <c r="AF157">
+        <v>0</v>
+      </c>
+      <c r="AG157">
+        <v>0</v>
+      </c>
+      <c r="AH157">
+        <v>0</v>
+      </c>
+      <c r="AI157">
+        <f>SUM(O156:O158)</f>
+        <v>21</v>
+      </c>
+      <c r="AJ157">
+        <f t="shared" ref="AJ157" si="1000">SUM(P156:P158)</f>
+        <v>22</v>
+      </c>
+      <c r="AK157">
+        <f t="shared" ref="AK157" si="1001">SUM(Q156:Q158)</f>
+        <v>11</v>
+      </c>
+      <c r="AL157">
+        <f t="shared" ref="AL157" si="1002">SUM(R156:R158)</f>
+        <v>11</v>
+      </c>
+      <c r="AM157">
+        <f t="shared" ref="AM157" si="1003">SUM(S156:S158)</f>
+        <v>6</v>
+      </c>
+      <c r="AN157">
+        <f t="shared" ref="AN157" si="1004">SUM(T156:T158)</f>
+        <v>14</v>
+      </c>
+      <c r="AO157">
+        <f t="shared" ref="AO157" si="1005">SUM(U156:U158)</f>
+        <v>1</v>
+      </c>
+      <c r="AP157">
+        <f t="shared" ref="AP157" si="1006">SUM(V156:V158)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2023</v>
+      </c>
+      <c r="B158" s="5">
+        <v>45289</v>
+      </c>
+      <c r="C158">
+        <v>22</v>
+      </c>
+      <c r="D158" t="s">
+        <v>55</v>
+      </c>
+      <c r="E158" t="str">
+        <f>VLOOKUP(D158,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>53.594891, 9.981069</v>
+      </c>
+      <c r="F158" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158">
+        <v>13</v>
+      </c>
+      <c r="H158">
+        <v>5</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158" t="s">
+        <v>37</v>
+      </c>
+      <c r="K158" t="s">
+        <v>32</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="761"/>
+        <v>32</v>
+      </c>
+      <c r="M158">
+        <v>6</v>
+      </c>
+      <c r="N158">
+        <v>4</v>
+      </c>
+      <c r="O158">
+        <v>10</v>
+      </c>
+      <c r="P158">
+        <v>2</v>
+      </c>
+      <c r="Q158">
+        <v>4</v>
+      </c>
+      <c r="R158">
+        <v>0</v>
+      </c>
+      <c r="S158">
+        <v>5</v>
+      </c>
+      <c r="T158">
+        <v>7</v>
+      </c>
+      <c r="U158">
+        <v>0</v>
+      </c>
+      <c r="V158">
+        <v>4</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
+        <v>0</v>
+      </c>
+      <c r="AB158">
+        <v>0</v>
+      </c>
+      <c r="AC158">
+        <v>0</v>
+      </c>
+      <c r="AD158">
+        <v>0</v>
+      </c>
+      <c r="AE158">
+        <v>0</v>
+      </c>
+      <c r="AF158">
+        <v>1</v>
+      </c>
+      <c r="AG158">
+        <v>0</v>
+      </c>
+      <c r="AH158">
+        <v>0</v>
+      </c>
+      <c r="AI158">
+        <f>SUM(O156:O158)</f>
+        <v>21</v>
+      </c>
+      <c r="AJ158">
+        <f t="shared" ref="AJ158" si="1007">SUM(P156:P158)</f>
+        <v>22</v>
+      </c>
+      <c r="AK158">
+        <f t="shared" ref="AK158" si="1008">SUM(Q156:Q158)</f>
+        <v>11</v>
+      </c>
+      <c r="AL158">
+        <f t="shared" ref="AL158" si="1009">SUM(R156:R158)</f>
+        <v>11</v>
+      </c>
+      <c r="AM158">
+        <f t="shared" ref="AM158" si="1010">SUM(S156:S158)</f>
+        <v>6</v>
+      </c>
+      <c r="AN158">
+        <f t="shared" ref="AN158" si="1011">SUM(T156:T158)</f>
+        <v>14</v>
+      </c>
+      <c r="AO158">
+        <f t="shared" ref="AO158" si="1012">SUM(U156:U158)</f>
+        <v>1</v>
+      </c>
+      <c r="AP158">
+        <f t="shared" ref="AP158" si="1013">SUM(V156:V158)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B159" s="5"/>
+    </row>
+    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AP113" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Desktop\Projects\dev\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218CF206-5A43-4822-B8C4-EEA3F60692ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD07D01B-CEF4-4031-8E9F-BE48175DEDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="65">
   <si>
     <t>season</t>
   </si>
@@ -314,9 +314,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -354,7 +354,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -460,7 +460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -602,7 +602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -610,13 +610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP161"/>
+  <dimension ref="A1:AP167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A159" sqref="A159:L161"/>
+      <selection pane="bottomRight" activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16820,7 +16820,7 @@
         <v>31</v>
       </c>
       <c r="L123">
-        <f t="shared" ref="L123:L161" si="761">SUM(O123:V123)</f>
+        <f t="shared" ref="L123:L167" si="761">SUM(O123:V123)</f>
         <v>34</v>
       </c>
       <c r="M123">
@@ -21753,13 +21753,1003 @@
       </c>
     </row>
     <row r="159" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B159" s="5"/>
+      <c r="A159">
+        <v>2024</v>
+      </c>
+      <c r="B159" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>46</v>
+      </c>
+      <c r="E159" t="str">
+        <f>VLOOKUP(D159,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F159" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159">
+        <v>13</v>
+      </c>
+      <c r="H159">
+        <v>8</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159" t="s">
+        <v>36</v>
+      </c>
+      <c r="K159" t="s">
+        <v>31</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="761"/>
+        <v>31</v>
+      </c>
+      <c r="M159">
+        <v>5</v>
+      </c>
+      <c r="N159">
+        <v>5</v>
+      </c>
+      <c r="O159">
+        <v>4</v>
+      </c>
+      <c r="P159">
+        <v>4</v>
+      </c>
+      <c r="Q159">
+        <v>3</v>
+      </c>
+      <c r="R159">
+        <v>4</v>
+      </c>
+      <c r="S159">
+        <v>9</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <v>4</v>
+      </c>
+      <c r="V159">
+        <v>3</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>0</v>
+      </c>
+      <c r="Z159">
+        <v>0</v>
+      </c>
+      <c r="AA159">
+        <v>0</v>
+      </c>
+      <c r="AB159">
+        <v>0</v>
+      </c>
+      <c r="AC159">
+        <v>0</v>
+      </c>
+      <c r="AD159">
+        <v>0</v>
+      </c>
+      <c r="AE159">
+        <v>0</v>
+      </c>
+      <c r="AF159">
+        <v>0</v>
+      </c>
+      <c r="AG159">
+        <v>0</v>
+      </c>
+      <c r="AH159">
+        <v>0</v>
+      </c>
+      <c r="AI159">
+        <f>SUM(O159:O161)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ159">
+        <f t="shared" ref="AJ159" si="1014">SUM(P159:P161)</f>
+        <v>7</v>
+      </c>
+      <c r="AK159">
+        <f t="shared" ref="AK159" si="1015">SUM(Q159:Q161)</f>
+        <v>10</v>
+      </c>
+      <c r="AL159">
+        <f t="shared" ref="AL159" si="1016">SUM(R159:R161)</f>
+        <v>15</v>
+      </c>
+      <c r="AM159">
+        <f t="shared" ref="AM159" si="1017">SUM(S159:S161)</f>
+        <v>18</v>
+      </c>
+      <c r="AN159">
+        <f t="shared" ref="AN159" si="1018">SUM(T159:T161)</f>
+        <v>12</v>
+      </c>
+      <c r="AO159">
+        <f t="shared" ref="AO159" si="1019">SUM(U159:U161)</f>
+        <v>8</v>
+      </c>
+      <c r="AP159">
+        <f t="shared" ref="AP159" si="1020">SUM(V159:V161)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="160" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B160" s="5"/>
+      <c r="A160">
+        <v>2024</v>
+      </c>
+      <c r="B160" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>46</v>
+      </c>
+      <c r="E160" t="str">
+        <f>VLOOKUP(D160,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F160" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160">
+        <v>8</v>
+      </c>
+      <c r="H160">
+        <v>2</v>
+      </c>
+      <c r="I160">
+        <v>3</v>
+      </c>
+      <c r="J160" t="s">
+        <v>32</v>
+      </c>
+      <c r="K160" t="s">
+        <v>31</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="761"/>
+        <v>26</v>
+      </c>
+      <c r="M160">
+        <v>5</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160">
+        <v>7</v>
+      </c>
+      <c r="P160">
+        <v>3</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>9</v>
+      </c>
+      <c r="S160">
+        <v>0</v>
+      </c>
+      <c r="T160">
+        <v>7</v>
+      </c>
+      <c r="U160">
+        <v>0</v>
+      </c>
+      <c r="V160">
+        <v>0</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>0</v>
+      </c>
+      <c r="Z160">
+        <v>1</v>
+      </c>
+      <c r="AA160">
+        <v>0</v>
+      </c>
+      <c r="AB160">
+        <v>0</v>
+      </c>
+      <c r="AC160">
+        <v>0</v>
+      </c>
+      <c r="AD160">
+        <v>0</v>
+      </c>
+      <c r="AE160">
+        <v>0</v>
+      </c>
+      <c r="AF160">
+        <v>0</v>
+      </c>
+      <c r="AG160">
+        <v>1</v>
+      </c>
+      <c r="AH160">
+        <v>1</v>
+      </c>
+      <c r="AI160">
+        <f>SUM(O159:O161)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ160">
+        <f t="shared" ref="AJ160" si="1021">SUM(P159:P161)</f>
+        <v>7</v>
+      </c>
+      <c r="AK160">
+        <f t="shared" ref="AK160" si="1022">SUM(Q159:Q161)</f>
+        <v>10</v>
+      </c>
+      <c r="AL160">
+        <f t="shared" ref="AL160" si="1023">SUM(R159:R161)</f>
+        <v>15</v>
+      </c>
+      <c r="AM160">
+        <f t="shared" ref="AM160" si="1024">SUM(S159:S161)</f>
+        <v>18</v>
+      </c>
+      <c r="AN160">
+        <f t="shared" ref="AN160" si="1025">SUM(T159:T161)</f>
+        <v>12</v>
+      </c>
+      <c r="AO160">
+        <f t="shared" ref="AO160" si="1026">SUM(U159:U161)</f>
+        <v>8</v>
+      </c>
+      <c r="AP160">
+        <f t="shared" ref="AP160" si="1027">SUM(V159:V161)</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="5"/>
+    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2024</v>
+      </c>
+      <c r="B161" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>46</v>
+      </c>
+      <c r="E161" t="str">
+        <f>VLOOKUP(D161,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F161" t="s">
+        <v>11</v>
+      </c>
+      <c r="G161">
+        <v>10</v>
+      </c>
+      <c r="H161">
+        <v>2</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161" t="s">
+        <v>37</v>
+      </c>
+      <c r="K161" t="s">
+        <v>31</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="761"/>
+        <v>32</v>
+      </c>
+      <c r="M161">
+        <v>6</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161">
+        <v>5</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>7</v>
+      </c>
+      <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
+        <v>9</v>
+      </c>
+      <c r="T161">
+        <v>5</v>
+      </c>
+      <c r="U161">
+        <v>4</v>
+      </c>
+      <c r="V161">
+        <v>0</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>0</v>
+      </c>
+      <c r="Z161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <v>0</v>
+      </c>
+      <c r="AB161">
+        <v>0</v>
+      </c>
+      <c r="AC161">
+        <v>0</v>
+      </c>
+      <c r="AD161">
+        <v>0</v>
+      </c>
+      <c r="AE161">
+        <v>1</v>
+      </c>
+      <c r="AF161">
+        <v>0</v>
+      </c>
+      <c r="AG161">
+        <v>0</v>
+      </c>
+      <c r="AH161">
+        <v>0</v>
+      </c>
+      <c r="AI161">
+        <f>SUM(O159:O161)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ161">
+        <f t="shared" ref="AJ161" si="1028">SUM(P159:P161)</f>
+        <v>7</v>
+      </c>
+      <c r="AK161">
+        <f t="shared" ref="AK161" si="1029">SUM(Q159:Q161)</f>
+        <v>10</v>
+      </c>
+      <c r="AL161">
+        <f t="shared" ref="AL161" si="1030">SUM(R159:R161)</f>
+        <v>15</v>
+      </c>
+      <c r="AM161">
+        <f t="shared" ref="AM161" si="1031">SUM(S159:S161)</f>
+        <v>18</v>
+      </c>
+      <c r="AN161">
+        <f t="shared" ref="AN161" si="1032">SUM(T159:T161)</f>
+        <v>12</v>
+      </c>
+      <c r="AO161">
+        <f t="shared" ref="AO161" si="1033">SUM(U159:U161)</f>
+        <v>8</v>
+      </c>
+      <c r="AP161">
+        <f t="shared" ref="AP161" si="1034">SUM(V159:V161)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2024</v>
+      </c>
+      <c r="B162" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162" t="s">
+        <v>46</v>
+      </c>
+      <c r="E162" t="str">
+        <f>VLOOKUP(D162,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F162" t="s">
+        <v>11</v>
+      </c>
+      <c r="G162">
+        <v>5</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162" t="s">
+        <v>36</v>
+      </c>
+      <c r="K162" t="s">
+        <v>32</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="761"/>
+        <v>31</v>
+      </c>
+      <c r="M162">
+        <v>5</v>
+      </c>
+      <c r="N162">
+        <v>5</v>
+      </c>
+      <c r="O162">
+        <v>3</v>
+      </c>
+      <c r="P162">
+        <v>4</v>
+      </c>
+      <c r="Q162">
+        <v>2</v>
+      </c>
+      <c r="R162">
+        <v>9</v>
+      </c>
+      <c r="S162">
+        <v>5</v>
+      </c>
+      <c r="T162">
+        <v>3</v>
+      </c>
+      <c r="U162">
+        <v>5</v>
+      </c>
+      <c r="V162">
+        <v>0</v>
+      </c>
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>0</v>
+      </c>
+      <c r="Z162">
+        <v>0</v>
+      </c>
+      <c r="AA162">
+        <v>0</v>
+      </c>
+      <c r="AB162">
+        <v>0</v>
+      </c>
+      <c r="AC162">
+        <v>0</v>
+      </c>
+      <c r="AD162">
+        <v>0</v>
+      </c>
+      <c r="AE162">
+        <v>0</v>
+      </c>
+      <c r="AF162">
+        <v>0</v>
+      </c>
+      <c r="AG162">
+        <v>0</v>
+      </c>
+      <c r="AH162">
+        <v>0</v>
+      </c>
+      <c r="AI162">
+        <f>SUM(O162:O164)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ162">
+        <f t="shared" ref="AJ162" si="1035">SUM(P162:P164)</f>
+        <v>14</v>
+      </c>
+      <c r="AK162">
+        <f t="shared" ref="AK162" si="1036">SUM(Q162:Q164)</f>
+        <v>9</v>
+      </c>
+      <c r="AL162">
+        <f t="shared" ref="AL162" si="1037">SUM(R162:R164)</f>
+        <v>30</v>
+      </c>
+      <c r="AM162">
+        <f t="shared" ref="AM162" si="1038">SUM(S162:S164)</f>
+        <v>10</v>
+      </c>
+      <c r="AN162">
+        <f t="shared" ref="AN162" si="1039">SUM(T162:T164)</f>
+        <v>5</v>
+      </c>
+      <c r="AO162">
+        <f t="shared" ref="AO162" si="1040">SUM(U162:U164)</f>
+        <v>6</v>
+      </c>
+      <c r="AP162">
+        <f t="shared" ref="AP162" si="1041">SUM(V162:V164)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2024</v>
+      </c>
+      <c r="B163" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>46</v>
+      </c>
+      <c r="E163" t="str">
+        <f>VLOOKUP(D163,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F163" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163">
+        <v>13</v>
+      </c>
+      <c r="H163">
+        <v>6</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="s">
+        <v>32</v>
+      </c>
+      <c r="K163" t="s">
+        <v>32</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="761"/>
+        <v>28</v>
+      </c>
+      <c r="M163">
+        <v>6</v>
+      </c>
+      <c r="N163">
+        <v>5</v>
+      </c>
+      <c r="O163">
+        <v>2</v>
+      </c>
+      <c r="P163">
+        <v>3</v>
+      </c>
+      <c r="Q163">
+        <v>4</v>
+      </c>
+      <c r="R163">
+        <v>13</v>
+      </c>
+      <c r="S163">
+        <v>1</v>
+      </c>
+      <c r="T163">
+        <v>0</v>
+      </c>
+      <c r="U163">
+        <v>1</v>
+      </c>
+      <c r="V163">
+        <v>4</v>
+      </c>
+      <c r="W163">
+        <v>0</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>0</v>
+      </c>
+      <c r="Z163">
+        <v>0</v>
+      </c>
+      <c r="AA163">
+        <v>0</v>
+      </c>
+      <c r="AB163">
+        <v>0</v>
+      </c>
+      <c r="AC163">
+        <v>0</v>
+      </c>
+      <c r="AD163">
+        <v>0</v>
+      </c>
+      <c r="AE163">
+        <v>1</v>
+      </c>
+      <c r="AF163">
+        <v>1</v>
+      </c>
+      <c r="AG163">
+        <v>0</v>
+      </c>
+      <c r="AH163">
+        <v>0</v>
+      </c>
+      <c r="AI163">
+        <f>SUM(O162:O164)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ163">
+        <f t="shared" ref="AJ163" si="1042">SUM(P162:P164)</f>
+        <v>14</v>
+      </c>
+      <c r="AK163">
+        <f t="shared" ref="AK163" si="1043">SUM(Q162:Q164)</f>
+        <v>9</v>
+      </c>
+      <c r="AL163">
+        <f t="shared" ref="AL163" si="1044">SUM(R162:R164)</f>
+        <v>30</v>
+      </c>
+      <c r="AM163">
+        <f t="shared" ref="AM163" si="1045">SUM(S162:S164)</f>
+        <v>10</v>
+      </c>
+      <c r="AN163">
+        <f t="shared" ref="AN163" si="1046">SUM(T162:T164)</f>
+        <v>5</v>
+      </c>
+      <c r="AO163">
+        <f t="shared" ref="AO163" si="1047">SUM(U162:U164)</f>
+        <v>6</v>
+      </c>
+      <c r="AP163">
+        <f t="shared" ref="AP163" si="1048">SUM(V162:V164)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2024</v>
+      </c>
+      <c r="B164" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>46</v>
+      </c>
+      <c r="E164" t="str">
+        <f>VLOOKUP(D164,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164">
+        <v>5</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>3</v>
+      </c>
+      <c r="J164" t="s">
+        <v>37</v>
+      </c>
+      <c r="K164" t="s">
+        <v>32</v>
+      </c>
+      <c r="L164">
+        <f t="shared" si="761"/>
+        <v>30</v>
+      </c>
+      <c r="M164">
+        <v>4</v>
+      </c>
+      <c r="N164">
+        <v>5</v>
+      </c>
+      <c r="O164">
+        <v>2</v>
+      </c>
+      <c r="P164">
+        <v>7</v>
+      </c>
+      <c r="Q164">
+        <v>3</v>
+      </c>
+      <c r="R164">
+        <v>8</v>
+      </c>
+      <c r="S164">
+        <v>4</v>
+      </c>
+      <c r="T164">
+        <v>2</v>
+      </c>
+      <c r="U164">
+        <v>0</v>
+      </c>
+      <c r="V164">
+        <v>4</v>
+      </c>
+      <c r="W164">
+        <v>0</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>0</v>
+      </c>
+      <c r="Z164">
+        <v>0</v>
+      </c>
+      <c r="AA164">
+        <v>0</v>
+      </c>
+      <c r="AB164">
+        <v>0</v>
+      </c>
+      <c r="AC164">
+        <v>0</v>
+      </c>
+      <c r="AD164">
+        <v>0</v>
+      </c>
+      <c r="AE164">
+        <v>1</v>
+      </c>
+      <c r="AF164">
+        <v>0</v>
+      </c>
+      <c r="AG164">
+        <v>0</v>
+      </c>
+      <c r="AH164">
+        <v>0</v>
+      </c>
+      <c r="AI164">
+        <f>SUM(O162:O164)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ164">
+        <f t="shared" ref="AJ164" si="1049">SUM(P162:P164)</f>
+        <v>14</v>
+      </c>
+      <c r="AK164">
+        <f t="shared" ref="AK164" si="1050">SUM(Q162:Q164)</f>
+        <v>9</v>
+      </c>
+      <c r="AL164">
+        <f t="shared" ref="AL164" si="1051">SUM(R162:R164)</f>
+        <v>30</v>
+      </c>
+      <c r="AM164">
+        <f t="shared" ref="AM164" si="1052">SUM(S162:S164)</f>
+        <v>10</v>
+      </c>
+      <c r="AN164">
+        <f t="shared" ref="AN164" si="1053">SUM(T162:T164)</f>
+        <v>5</v>
+      </c>
+      <c r="AO164">
+        <f t="shared" ref="AO164" si="1054">SUM(U162:U164)</f>
+        <v>6</v>
+      </c>
+      <c r="AP164">
+        <f t="shared" ref="AP164" si="1055">SUM(V162:V164)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2024</v>
+      </c>
+      <c r="B165" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+      <c r="D165" t="s">
+        <v>46</v>
+      </c>
+      <c r="E165" t="str">
+        <f>VLOOKUP(D165,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="J165" t="s">
+        <v>36</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="761"/>
+        <v>0</v>
+      </c>
+      <c r="AI165">
+        <f>SUM(O165:O167)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ165">
+        <f t="shared" ref="AJ165" si="1056">SUM(P165:P167)</f>
+        <v>0</v>
+      </c>
+      <c r="AK165">
+        <f t="shared" ref="AK165" si="1057">SUM(Q165:Q167)</f>
+        <v>0</v>
+      </c>
+      <c r="AL165">
+        <f t="shared" ref="AL165" si="1058">SUM(R165:R167)</f>
+        <v>0</v>
+      </c>
+      <c r="AM165">
+        <f t="shared" ref="AM165" si="1059">SUM(S165:S167)</f>
+        <v>0</v>
+      </c>
+      <c r="AN165">
+        <f t="shared" ref="AN165" si="1060">SUM(T165:T167)</f>
+        <v>0</v>
+      </c>
+      <c r="AO165">
+        <f t="shared" ref="AO165" si="1061">SUM(U165:U167)</f>
+        <v>0</v>
+      </c>
+      <c r="AP165">
+        <f t="shared" ref="AP165" si="1062">SUM(V165:V167)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2024</v>
+      </c>
+      <c r="B166" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166" t="s">
+        <v>46</v>
+      </c>
+      <c r="E166" t="str">
+        <f>VLOOKUP(D166,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="J166" t="s">
+        <v>32</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="761"/>
+        <v>0</v>
+      </c>
+      <c r="AI166">
+        <f>SUM(O165:O167)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ166">
+        <f t="shared" ref="AJ166" si="1063">SUM(P165:P167)</f>
+        <v>0</v>
+      </c>
+      <c r="AK166">
+        <f t="shared" ref="AK166" si="1064">SUM(Q165:Q167)</f>
+        <v>0</v>
+      </c>
+      <c r="AL166">
+        <f t="shared" ref="AL166" si="1065">SUM(R165:R167)</f>
+        <v>0</v>
+      </c>
+      <c r="AM166">
+        <f t="shared" ref="AM166" si="1066">SUM(S165:S167)</f>
+        <v>0</v>
+      </c>
+      <c r="AN166">
+        <f t="shared" ref="AN166" si="1067">SUM(T165:T167)</f>
+        <v>0</v>
+      </c>
+      <c r="AO166">
+        <f t="shared" ref="AO166" si="1068">SUM(U165:U167)</f>
+        <v>0</v>
+      </c>
+      <c r="AP166">
+        <f t="shared" ref="AP166" si="1069">SUM(V165:V167)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2024</v>
+      </c>
+      <c r="B167" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+      <c r="D167" t="s">
+        <v>46</v>
+      </c>
+      <c r="E167" t="str">
+        <f>VLOOKUP(D167,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="J167" t="s">
+        <v>37</v>
+      </c>
+      <c r="L167">
+        <f t="shared" si="761"/>
+        <v>0</v>
+      </c>
+      <c r="AI167">
+        <f>SUM(O165:O167)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ167">
+        <f t="shared" ref="AJ167" si="1070">SUM(P165:P167)</f>
+        <v>0</v>
+      </c>
+      <c r="AK167">
+        <f t="shared" ref="AK167" si="1071">SUM(Q165:Q167)</f>
+        <v>0</v>
+      </c>
+      <c r="AL167">
+        <f t="shared" ref="AL167" si="1072">SUM(R165:R167)</f>
+        <v>0</v>
+      </c>
+      <c r="AM167">
+        <f t="shared" ref="AM167" si="1073">SUM(S165:S167)</f>
+        <v>0</v>
+      </c>
+      <c r="AN167">
+        <f t="shared" ref="AN167" si="1074">SUM(T165:T167)</f>
+        <v>0</v>
+      </c>
+      <c r="AO167">
+        <f t="shared" ref="AO167" si="1075">SUM(U165:U167)</f>
+        <v>0</v>
+      </c>
+      <c r="AP167">
+        <f t="shared" ref="AP167" si="1076">SUM(V165:V167)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:AP113" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Desktop\Projects\dev\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD07D01B-CEF4-4031-8E9F-BE48175DEDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6771286-63DB-4779-B8E2-7E50C926A371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="65">
   <si>
     <t>season</t>
   </si>
@@ -610,13 +610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP167"/>
+  <dimension ref="A1:AP176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F165" sqref="F165"/>
+      <selection pane="bottomRight" activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16820,7 +16820,7 @@
         <v>31</v>
       </c>
       <c r="L123">
-        <f t="shared" ref="L123:L167" si="761">SUM(O123:V123)</f>
+        <f t="shared" ref="L123:L176" si="761">SUM(O123:V123)</f>
         <v>34</v>
       </c>
       <c r="M123">
@@ -22597,44 +22597,125 @@
         <f>VLOOKUP(D165,Sheet2!$I$1:$J$4,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
+      <c r="F165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165">
+        <v>6</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>3</v>
+      </c>
       <c r="J165" t="s">
         <v>36</v>
       </c>
+      <c r="K165" t="s">
+        <v>32</v>
+      </c>
       <c r="L165">
         <f t="shared" si="761"/>
+        <v>28</v>
+      </c>
+      <c r="M165">
+        <v>6</v>
+      </c>
+      <c r="N165">
+        <v>5</v>
+      </c>
+      <c r="O165">
+        <v>2</v>
+      </c>
+      <c r="P165">
+        <v>5</v>
+      </c>
+      <c r="Q165">
+        <v>4</v>
+      </c>
+      <c r="R165">
+        <v>11</v>
+      </c>
+      <c r="S165">
+        <v>2</v>
+      </c>
+      <c r="T165">
+        <v>2</v>
+      </c>
+      <c r="U165">
+        <v>2</v>
+      </c>
+      <c r="V165">
+        <v>0</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>0</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AA165">
+        <v>0</v>
+      </c>
+      <c r="AB165">
+        <v>0</v>
+      </c>
+      <c r="AC165">
+        <v>0</v>
+      </c>
+      <c r="AD165">
+        <v>0</v>
+      </c>
+      <c r="AE165">
+        <v>0</v>
+      </c>
+      <c r="AF165">
+        <v>0</v>
+      </c>
+      <c r="AG165">
+        <v>0</v>
+      </c>
+      <c r="AH165">
         <v>0</v>
       </c>
       <c r="AI165">
         <f>SUM(O165:O167)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ165">
         <f t="shared" ref="AJ165" si="1056">SUM(P165:P167)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK165">
         <f t="shared" ref="AK165" si="1057">SUM(Q165:Q167)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL165">
         <f t="shared" ref="AL165" si="1058">SUM(R165:R167)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM165">
         <f t="shared" ref="AM165" si="1059">SUM(S165:S167)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AN165">
         <f t="shared" ref="AN165" si="1060">SUM(T165:T167)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AO165">
         <f t="shared" ref="AO165" si="1061">SUM(U165:U167)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP165">
         <f t="shared" ref="AP165" si="1062">SUM(V165:V167)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:42" x14ac:dyDescent="0.25">
@@ -22654,44 +22735,125 @@
         <f>VLOOKUP(D166,Sheet2!$I$1:$J$4,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
+      <c r="F166" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166">
+        <v>12</v>
+      </c>
+      <c r="H166">
+        <v>4</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
       <c r="J166" t="s">
         <v>32</v>
       </c>
+      <c r="K166" t="s">
+        <v>32</v>
+      </c>
       <c r="L166">
         <f t="shared" si="761"/>
+        <v>34</v>
+      </c>
+      <c r="M166">
+        <v>5</v>
+      </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
+      <c r="O166">
+        <v>9</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>2</v>
+      </c>
+      <c r="R166">
+        <v>16</v>
+      </c>
+      <c r="S166">
+        <v>3</v>
+      </c>
+      <c r="T166">
+        <v>4</v>
+      </c>
+      <c r="U166">
+        <v>0</v>
+      </c>
+      <c r="V166">
+        <v>0</v>
+      </c>
+      <c r="W166">
+        <v>0</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>0</v>
+      </c>
+      <c r="Z166">
+        <v>0</v>
+      </c>
+      <c r="AA166">
+        <v>0</v>
+      </c>
+      <c r="AB166">
+        <v>0</v>
+      </c>
+      <c r="AC166">
+        <v>0</v>
+      </c>
+      <c r="AD166">
+        <v>0</v>
+      </c>
+      <c r="AE166">
+        <v>0</v>
+      </c>
+      <c r="AF166">
+        <v>1</v>
+      </c>
+      <c r="AG166">
+        <v>0</v>
+      </c>
+      <c r="AH166">
         <v>0</v>
       </c>
       <c r="AI166">
         <f>SUM(O165:O167)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ166">
         <f t="shared" ref="AJ166" si="1063">SUM(P165:P167)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK166">
         <f t="shared" ref="AK166" si="1064">SUM(Q165:Q167)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL166">
         <f t="shared" ref="AL166" si="1065">SUM(R165:R167)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM166">
         <f t="shared" ref="AM166" si="1066">SUM(S165:S167)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AN166">
         <f t="shared" ref="AN166" si="1067">SUM(T165:T167)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AO166">
         <f t="shared" ref="AO166" si="1068">SUM(U165:U167)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP166">
         <f t="shared" ref="AP166" si="1069">SUM(V165:V167)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:42" x14ac:dyDescent="0.25">
@@ -22711,50 +22873,1373 @@
         <f>VLOOKUP(D167,Sheet2!$I$1:$J$4,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
+      <c r="F167" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167">
+        <v>13</v>
+      </c>
+      <c r="H167">
+        <v>6</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
       <c r="J167" t="s">
         <v>37</v>
       </c>
+      <c r="K167" t="s">
+        <v>32</v>
+      </c>
       <c r="L167">
         <f t="shared" si="761"/>
+        <v>31</v>
+      </c>
+      <c r="M167">
+        <v>6</v>
+      </c>
+      <c r="N167">
+        <v>5</v>
+      </c>
+      <c r="O167">
+        <v>2</v>
+      </c>
+      <c r="P167">
+        <v>4</v>
+      </c>
+      <c r="Q167">
+        <v>5</v>
+      </c>
+      <c r="R167">
+        <v>7</v>
+      </c>
+      <c r="S167">
+        <v>3</v>
+      </c>
+      <c r="T167">
+        <v>2</v>
+      </c>
+      <c r="U167">
+        <v>3</v>
+      </c>
+      <c r="V167">
+        <v>5</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
+      </c>
+      <c r="Z167">
+        <v>0</v>
+      </c>
+      <c r="AA167">
+        <v>0</v>
+      </c>
+      <c r="AB167">
+        <v>0</v>
+      </c>
+      <c r="AC167">
+        <v>0</v>
+      </c>
+      <c r="AD167">
+        <v>1</v>
+      </c>
+      <c r="AE167">
+        <v>0</v>
+      </c>
+      <c r="AF167">
+        <v>0</v>
+      </c>
+      <c r="AG167">
+        <v>0</v>
+      </c>
+      <c r="AH167">
         <v>0</v>
       </c>
       <c r="AI167">
         <f>SUM(O165:O167)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ167">
         <f t="shared" ref="AJ167" si="1070">SUM(P165:P167)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK167">
         <f t="shared" ref="AK167" si="1071">SUM(Q165:Q167)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL167">
         <f t="shared" ref="AL167" si="1072">SUM(R165:R167)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM167">
         <f t="shared" ref="AM167" si="1073">SUM(S165:S167)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AN167">
         <f t="shared" ref="AN167" si="1074">SUM(T165:T167)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AO167">
         <f t="shared" ref="AO167" si="1075">SUM(U165:U167)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP167">
         <f t="shared" ref="AP167" si="1076">SUM(V165:V167)</f>
-        <v>0</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2024</v>
+      </c>
+      <c r="B168" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C168">
+        <v>4</v>
+      </c>
+      <c r="D168" t="s">
+        <v>46</v>
+      </c>
+      <c r="E168" t="str">
+        <f>VLOOKUP(D168,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F168" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168">
+        <v>13</v>
+      </c>
+      <c r="H168">
+        <v>6</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168" t="s">
+        <v>36</v>
+      </c>
+      <c r="K168" t="s">
+        <v>31</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="761"/>
+        <v>30</v>
+      </c>
+      <c r="M168">
+        <v>4</v>
+      </c>
+      <c r="N168">
+        <v>5</v>
+      </c>
+      <c r="O168">
+        <v>4</v>
+      </c>
+      <c r="P168">
+        <v>3</v>
+      </c>
+      <c r="Q168">
+        <v>5</v>
+      </c>
+      <c r="R168">
+        <v>4</v>
+      </c>
+      <c r="S168">
+        <v>5</v>
+      </c>
+      <c r="T168">
+        <v>4</v>
+      </c>
+      <c r="U168">
+        <v>0</v>
+      </c>
+      <c r="V168">
+        <v>5</v>
+      </c>
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
+      <c r="Y168">
+        <v>0</v>
+      </c>
+      <c r="Z168">
+        <v>0</v>
+      </c>
+      <c r="AA168">
+        <v>0</v>
+      </c>
+      <c r="AB168">
+        <v>0</v>
+      </c>
+      <c r="AC168">
+        <v>0</v>
+      </c>
+      <c r="AD168">
+        <v>0</v>
+      </c>
+      <c r="AE168">
+        <v>0</v>
+      </c>
+      <c r="AF168">
+        <v>0</v>
+      </c>
+      <c r="AG168">
+        <v>1</v>
+      </c>
+      <c r="AH168">
+        <v>0</v>
+      </c>
+      <c r="AI168">
+        <f>SUM(O168:O170)</f>
+        <v>19</v>
+      </c>
+      <c r="AJ168">
+        <f t="shared" ref="AJ168" si="1077">SUM(P168:P170)</f>
+        <v>3</v>
+      </c>
+      <c r="AK168">
+        <f t="shared" ref="AK168" si="1078">SUM(Q168:Q170)</f>
+        <v>18</v>
+      </c>
+      <c r="AL168">
+        <f t="shared" ref="AL168" si="1079">SUM(R168:R170)</f>
+        <v>8</v>
+      </c>
+      <c r="AM168">
+        <f t="shared" ref="AM168" si="1080">SUM(S168:S170)</f>
+        <v>20</v>
+      </c>
+      <c r="AN168">
+        <f t="shared" ref="AN168" si="1081">SUM(T168:T170)</f>
+        <v>11</v>
+      </c>
+      <c r="AO168">
+        <f t="shared" ref="AO168" si="1082">SUM(U168:U170)</f>
+        <v>10</v>
+      </c>
+      <c r="AP168">
+        <f t="shared" ref="AP168" si="1083">SUM(V168:V170)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2024</v>
+      </c>
+      <c r="B169" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C169">
+        <v>4</v>
+      </c>
+      <c r="D169" t="s">
+        <v>46</v>
+      </c>
+      <c r="E169" t="str">
+        <f>VLOOKUP(D169,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F169" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169">
+        <v>9</v>
+      </c>
+      <c r="H169">
+        <v>5</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169" t="s">
+        <v>32</v>
+      </c>
+      <c r="K169" t="s">
+        <v>31</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="761"/>
+        <v>34</v>
+      </c>
+      <c r="M169">
+        <v>5</v>
+      </c>
+      <c r="N169">
+        <v>4</v>
+      </c>
+      <c r="O169">
+        <v>5</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>9</v>
+      </c>
+      <c r="R169">
+        <v>4</v>
+      </c>
+      <c r="S169">
+        <v>5</v>
+      </c>
+      <c r="T169">
+        <v>0</v>
+      </c>
+      <c r="U169">
+        <v>5</v>
+      </c>
+      <c r="V169">
+        <v>6</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>0</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>0</v>
+      </c>
+      <c r="AB169">
+        <v>0</v>
+      </c>
+      <c r="AC169">
+        <v>0</v>
+      </c>
+      <c r="AD169">
+        <v>0</v>
+      </c>
+      <c r="AE169">
+        <v>1</v>
+      </c>
+      <c r="AF169">
+        <v>0</v>
+      </c>
+      <c r="AG169">
+        <v>0</v>
+      </c>
+      <c r="AH169">
+        <v>0</v>
+      </c>
+      <c r="AI169">
+        <f>SUM(O168:O170)</f>
+        <v>19</v>
+      </c>
+      <c r="AJ169">
+        <f t="shared" ref="AJ169" si="1084">SUM(P168:P170)</f>
+        <v>3</v>
+      </c>
+      <c r="AK169">
+        <f t="shared" ref="AK169" si="1085">SUM(Q168:Q170)</f>
+        <v>18</v>
+      </c>
+      <c r="AL169">
+        <f t="shared" ref="AL169" si="1086">SUM(R168:R170)</f>
+        <v>8</v>
+      </c>
+      <c r="AM169">
+        <f t="shared" ref="AM169" si="1087">SUM(S168:S170)</f>
+        <v>20</v>
+      </c>
+      <c r="AN169">
+        <f t="shared" ref="AN169" si="1088">SUM(T168:T170)</f>
+        <v>11</v>
+      </c>
+      <c r="AO169">
+        <f t="shared" ref="AO169" si="1089">SUM(U168:U170)</f>
+        <v>10</v>
+      </c>
+      <c r="AP169">
+        <f t="shared" ref="AP169" si="1090">SUM(V168:V170)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2024</v>
+      </c>
+      <c r="B170" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C170">
+        <v>4</v>
+      </c>
+      <c r="D170" t="s">
+        <v>46</v>
+      </c>
+      <c r="E170" t="str">
+        <f>VLOOKUP(D170,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F170" t="s">
+        <v>11</v>
+      </c>
+      <c r="G170">
+        <v>5</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>3</v>
+      </c>
+      <c r="J170" t="s">
+        <v>37</v>
+      </c>
+      <c r="K170" t="s">
+        <v>31</v>
+      </c>
+      <c r="L170">
+        <f t="shared" si="761"/>
+        <v>36</v>
+      </c>
+      <c r="M170">
+        <v>5</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170">
+        <v>10</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>4</v>
+      </c>
+      <c r="R170">
+        <v>0</v>
+      </c>
+      <c r="S170">
+        <v>10</v>
+      </c>
+      <c r="T170">
+        <v>7</v>
+      </c>
+      <c r="U170">
+        <v>5</v>
+      </c>
+      <c r="V170">
+        <v>0</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>0</v>
+      </c>
+      <c r="AB170">
+        <v>0</v>
+      </c>
+      <c r="AC170">
+        <v>1</v>
+      </c>
+      <c r="AD170">
+        <v>0</v>
+      </c>
+      <c r="AE170">
+        <v>0</v>
+      </c>
+      <c r="AF170">
+        <v>0</v>
+      </c>
+      <c r="AG170">
+        <v>0</v>
+      </c>
+      <c r="AH170">
+        <v>0</v>
+      </c>
+      <c r="AI170">
+        <f>SUM(O168:O170)</f>
+        <v>19</v>
+      </c>
+      <c r="AJ170">
+        <f t="shared" ref="AJ170" si="1091">SUM(P168:P170)</f>
+        <v>3</v>
+      </c>
+      <c r="AK170">
+        <f t="shared" ref="AK170" si="1092">SUM(Q168:Q170)</f>
+        <v>18</v>
+      </c>
+      <c r="AL170">
+        <f t="shared" ref="AL170" si="1093">SUM(R168:R170)</f>
+        <v>8</v>
+      </c>
+      <c r="AM170">
+        <f t="shared" ref="AM170" si="1094">SUM(S168:S170)</f>
+        <v>20</v>
+      </c>
+      <c r="AN170">
+        <f t="shared" ref="AN170" si="1095">SUM(T168:T170)</f>
+        <v>11</v>
+      </c>
+      <c r="AO170">
+        <f t="shared" ref="AO170" si="1096">SUM(U168:U170)</f>
+        <v>10</v>
+      </c>
+      <c r="AP170">
+        <f t="shared" ref="AP170" si="1097">SUM(V168:V170)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2024</v>
+      </c>
+      <c r="B171" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C171">
+        <v>5</v>
+      </c>
+      <c r="D171" t="s">
+        <v>46</v>
+      </c>
+      <c r="E171" t="str">
+        <f>VLOOKUP(D171,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F171" t="s">
+        <v>12</v>
+      </c>
+      <c r="G171">
+        <v>6</v>
+      </c>
+      <c r="H171">
+        <v>2</v>
+      </c>
+      <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171" t="s">
+        <v>36</v>
+      </c>
+      <c r="K171" t="s">
+        <v>31</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="761"/>
+        <v>32</v>
+      </c>
+      <c r="M171">
+        <v>6</v>
+      </c>
+      <c r="N171">
+        <v>5</v>
+      </c>
+      <c r="O171">
+        <v>5</v>
+      </c>
+      <c r="P171">
+        <v>10</v>
+      </c>
+      <c r="Q171">
+        <v>4</v>
+      </c>
+      <c r="R171">
+        <v>6</v>
+      </c>
+      <c r="S171">
+        <v>5</v>
+      </c>
+      <c r="T171">
+        <v>2</v>
+      </c>
+      <c r="U171">
+        <v>0</v>
+      </c>
+      <c r="V171">
+        <v>0</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <v>0</v>
+      </c>
+      <c r="AA171">
+        <v>0</v>
+      </c>
+      <c r="AB171">
+        <v>0</v>
+      </c>
+      <c r="AC171">
+        <v>0</v>
+      </c>
+      <c r="AD171">
+        <v>0</v>
+      </c>
+      <c r="AE171">
+        <v>0</v>
+      </c>
+      <c r="AF171">
+        <v>0</v>
+      </c>
+      <c r="AG171">
+        <v>0</v>
+      </c>
+      <c r="AH171">
+        <v>0</v>
+      </c>
+      <c r="AI171">
+        <f>SUM(O171:O173)</f>
+        <v>15</v>
+      </c>
+      <c r="AJ171">
+        <f t="shared" ref="AJ171" si="1098">SUM(P171:P173)</f>
+        <v>18</v>
+      </c>
+      <c r="AK171">
+        <f t="shared" ref="AK171" si="1099">SUM(Q171:Q173)</f>
+        <v>16</v>
+      </c>
+      <c r="AL171">
+        <f t="shared" ref="AL171" si="1100">SUM(R171:R173)</f>
+        <v>21</v>
+      </c>
+      <c r="AM171">
+        <f t="shared" ref="AM171" si="1101">SUM(S171:S173)</f>
+        <v>7</v>
+      </c>
+      <c r="AN171">
+        <f t="shared" ref="AN171" si="1102">SUM(T171:T173)</f>
+        <v>10</v>
+      </c>
+      <c r="AO171">
+        <f t="shared" ref="AO171" si="1103">SUM(U171:U173)</f>
+        <v>2</v>
+      </c>
+      <c r="AP171">
+        <f t="shared" ref="AP171" si="1104">SUM(V171:V173)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>2024</v>
+      </c>
+      <c r="B172" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C172">
+        <v>5</v>
+      </c>
+      <c r="D172" t="s">
+        <v>46</v>
+      </c>
+      <c r="E172" t="str">
+        <f>VLOOKUP(D172,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F172" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172">
+        <v>15</v>
+      </c>
+      <c r="H172">
+        <v>7</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172" t="s">
+        <v>32</v>
+      </c>
+      <c r="K172" t="s">
+        <v>31</v>
+      </c>
+      <c r="L172">
+        <f t="shared" si="761"/>
+        <v>30</v>
+      </c>
+      <c r="M172">
+        <v>5</v>
+      </c>
+      <c r="N172">
+        <v>5</v>
+      </c>
+      <c r="O172">
+        <v>4</v>
+      </c>
+      <c r="P172">
+        <v>4</v>
+      </c>
+      <c r="Q172">
+        <v>7</v>
+      </c>
+      <c r="R172">
+        <v>5</v>
+      </c>
+      <c r="S172">
+        <v>1</v>
+      </c>
+      <c r="T172">
+        <v>4</v>
+      </c>
+      <c r="U172">
+        <v>1</v>
+      </c>
+      <c r="V172">
+        <v>4</v>
+      </c>
+      <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="X172">
+        <v>0</v>
+      </c>
+      <c r="Y172">
+        <v>0</v>
+      </c>
+      <c r="Z172">
+        <v>0</v>
+      </c>
+      <c r="AA172">
+        <v>0</v>
+      </c>
+      <c r="AB172">
+        <v>0</v>
+      </c>
+      <c r="AC172">
+        <v>0</v>
+      </c>
+      <c r="AD172">
+        <v>0</v>
+      </c>
+      <c r="AE172">
+        <v>1</v>
+      </c>
+      <c r="AF172">
+        <v>0</v>
+      </c>
+      <c r="AG172">
+        <v>0</v>
+      </c>
+      <c r="AH172">
+        <v>0</v>
+      </c>
+      <c r="AI172">
+        <f>SUM(O171:O173)</f>
+        <v>15</v>
+      </c>
+      <c r="AJ172">
+        <f t="shared" ref="AJ172" si="1105">SUM(P171:P173)</f>
+        <v>18</v>
+      </c>
+      <c r="AK172">
+        <f t="shared" ref="AK172" si="1106">SUM(Q171:Q173)</f>
+        <v>16</v>
+      </c>
+      <c r="AL172">
+        <f t="shared" ref="AL172" si="1107">SUM(R171:R173)</f>
+        <v>21</v>
+      </c>
+      <c r="AM172">
+        <f t="shared" ref="AM172" si="1108">SUM(S171:S173)</f>
+        <v>7</v>
+      </c>
+      <c r="AN172">
+        <f t="shared" ref="AN172" si="1109">SUM(T171:T173)</f>
+        <v>10</v>
+      </c>
+      <c r="AO172">
+        <f t="shared" ref="AO172" si="1110">SUM(U171:U173)</f>
+        <v>2</v>
+      </c>
+      <c r="AP172">
+        <f t="shared" ref="AP172" si="1111">SUM(V171:V173)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2024</v>
+      </c>
+      <c r="B173" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C173">
+        <v>5</v>
+      </c>
+      <c r="D173" t="s">
+        <v>46</v>
+      </c>
+      <c r="E173" t="str">
+        <f>VLOOKUP(D173,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F173" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173">
+        <v>6</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>3</v>
+      </c>
+      <c r="J173" t="s">
+        <v>37</v>
+      </c>
+      <c r="K173" t="s">
+        <v>31</v>
+      </c>
+      <c r="L173">
+        <f t="shared" si="761"/>
+        <v>31</v>
+      </c>
+      <c r="M173">
+        <v>6</v>
+      </c>
+      <c r="N173">
+        <v>5</v>
+      </c>
+      <c r="O173">
+        <v>6</v>
+      </c>
+      <c r="P173">
+        <v>4</v>
+      </c>
+      <c r="Q173">
+        <v>5</v>
+      </c>
+      <c r="R173">
+        <v>10</v>
+      </c>
+      <c r="S173">
+        <v>1</v>
+      </c>
+      <c r="T173">
+        <v>4</v>
+      </c>
+      <c r="U173">
+        <v>1</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+      <c r="Y173">
+        <v>0</v>
+      </c>
+      <c r="Z173">
+        <v>0</v>
+      </c>
+      <c r="AA173">
+        <v>0</v>
+      </c>
+      <c r="AB173">
+        <v>0</v>
+      </c>
+      <c r="AC173">
+        <v>0</v>
+      </c>
+      <c r="AD173">
+        <v>0</v>
+      </c>
+      <c r="AE173">
+        <v>1</v>
+      </c>
+      <c r="AF173">
+        <v>0</v>
+      </c>
+      <c r="AG173">
+        <v>0</v>
+      </c>
+      <c r="AH173">
+        <v>0</v>
+      </c>
+      <c r="AI173">
+        <f>SUM(O171:O173)</f>
+        <v>15</v>
+      </c>
+      <c r="AJ173">
+        <f t="shared" ref="AJ173" si="1112">SUM(P171:P173)</f>
+        <v>18</v>
+      </c>
+      <c r="AK173">
+        <f t="shared" ref="AK173" si="1113">SUM(Q171:Q173)</f>
+        <v>16</v>
+      </c>
+      <c r="AL173">
+        <f t="shared" ref="AL173" si="1114">SUM(R171:R173)</f>
+        <v>21</v>
+      </c>
+      <c r="AM173">
+        <f t="shared" ref="AM173" si="1115">SUM(S171:S173)</f>
+        <v>7</v>
+      </c>
+      <c r="AN173">
+        <f t="shared" ref="AN173" si="1116">SUM(T171:T173)</f>
+        <v>10</v>
+      </c>
+      <c r="AO173">
+        <f t="shared" ref="AO173" si="1117">SUM(U171:U173)</f>
+        <v>2</v>
+      </c>
+      <c r="AP173">
+        <f t="shared" ref="AP173" si="1118">SUM(V171:V173)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2024</v>
+      </c>
+      <c r="B174" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C174">
+        <v>6</v>
+      </c>
+      <c r="D174" t="s">
+        <v>46</v>
+      </c>
+      <c r="E174" t="str">
+        <f>VLOOKUP(D174,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F174" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174">
+        <v>9</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174" t="s">
+        <v>36</v>
+      </c>
+      <c r="K174" t="s">
+        <v>31</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="761"/>
+        <v>28</v>
+      </c>
+      <c r="M174">
+        <v>6</v>
+      </c>
+      <c r="N174">
+        <v>5</v>
+      </c>
+      <c r="O174">
+        <v>5</v>
+      </c>
+      <c r="P174">
+        <v>10</v>
+      </c>
+      <c r="Q174">
+        <v>1</v>
+      </c>
+      <c r="R174">
+        <v>3</v>
+      </c>
+      <c r="S174">
+        <v>4</v>
+      </c>
+      <c r="T174">
+        <v>0</v>
+      </c>
+      <c r="U174">
+        <v>4</v>
+      </c>
+      <c r="V174">
+        <v>1</v>
+      </c>
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+      <c r="Y174">
+        <v>0</v>
+      </c>
+      <c r="Z174">
+        <v>0</v>
+      </c>
+      <c r="AA174">
+        <v>0</v>
+      </c>
+      <c r="AB174">
+        <v>0</v>
+      </c>
+      <c r="AC174">
+        <v>0</v>
+      </c>
+      <c r="AD174">
+        <v>0</v>
+      </c>
+      <c r="AE174">
+        <v>0</v>
+      </c>
+      <c r="AF174">
+        <v>0</v>
+      </c>
+      <c r="AG174">
+        <v>0</v>
+      </c>
+      <c r="AH174">
+        <v>0</v>
+      </c>
+      <c r="AI174">
+        <f>SUM(O174:O175)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ174">
+        <f>SUM(P174:P175)</f>
+        <v>22</v>
+      </c>
+      <c r="AK174">
+        <f>SUM(Q174:Q175)</f>
+        <v>4</v>
+      </c>
+      <c r="AL174">
+        <f>SUM(R174:R175)</f>
+        <v>8</v>
+      </c>
+      <c r="AM174">
+        <f>SUM(S174:S175)</f>
+        <v>10</v>
+      </c>
+      <c r="AN174">
+        <f>SUM(T174:T175)</f>
+        <v>0</v>
+      </c>
+      <c r="AO174">
+        <f>SUM(U174:U175)</f>
+        <v>8</v>
+      </c>
+      <c r="AP174">
+        <f>SUM(V174:V175)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2024</v>
+      </c>
+      <c r="B175" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C175">
+        <v>6</v>
+      </c>
+      <c r="D175" t="s">
+        <v>46</v>
+      </c>
+      <c r="E175" t="str">
+        <f>VLOOKUP(D175,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F175" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175">
+        <v>13</v>
+      </c>
+      <c r="H175">
+        <v>5</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175" t="s">
+        <v>32</v>
+      </c>
+      <c r="K175" t="s">
+        <v>31</v>
+      </c>
+      <c r="L175">
+        <f t="shared" si="761"/>
+        <v>33</v>
+      </c>
+      <c r="M175">
+        <v>5</v>
+      </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
+      <c r="O175">
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <v>12</v>
+      </c>
+      <c r="Q175">
+        <v>3</v>
+      </c>
+      <c r="R175">
+        <v>5</v>
+      </c>
+      <c r="S175">
+        <v>6</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+      <c r="U175">
+        <v>4</v>
+      </c>
+      <c r="V175">
+        <v>3</v>
+      </c>
+      <c r="W175">
+        <v>0</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+      <c r="Y175">
+        <v>0</v>
+      </c>
+      <c r="Z175">
+        <v>0</v>
+      </c>
+      <c r="AA175">
+        <v>0</v>
+      </c>
+      <c r="AB175">
+        <v>0</v>
+      </c>
+      <c r="AC175">
+        <v>0</v>
+      </c>
+      <c r="AD175">
+        <v>0</v>
+      </c>
+      <c r="AE175">
+        <v>0</v>
+      </c>
+      <c r="AF175">
+        <v>0</v>
+      </c>
+      <c r="AG175">
+        <v>0</v>
+      </c>
+      <c r="AH175">
+        <v>0</v>
+      </c>
+      <c r="AI175">
+        <f>SUM(O174:O175)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ175">
+        <f>SUM(P174:P175)</f>
+        <v>22</v>
+      </c>
+      <c r="AK175">
+        <f>SUM(Q174:Q175)</f>
+        <v>4</v>
+      </c>
+      <c r="AL175">
+        <f>SUM(R174:R175)</f>
+        <v>8</v>
+      </c>
+      <c r="AM175">
+        <f>SUM(S174:S175)</f>
+        <v>10</v>
+      </c>
+      <c r="AN175">
+        <f>SUM(T174:T175)</f>
+        <v>0</v>
+      </c>
+      <c r="AO175">
+        <f>SUM(U174:U175)</f>
+        <v>8</v>
+      </c>
+      <c r="AP175">
+        <f>SUM(V174:V175)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>2024</v>
+      </c>
+      <c r="B176" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C176">
+        <v>6</v>
+      </c>
+      <c r="D176" t="s">
+        <v>46</v>
+      </c>
+      <c r="E176" t="str">
+        <f>VLOOKUP(D176,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F176" t="s">
+        <v>11</v>
+      </c>
+      <c r="G176">
+        <v>9</v>
+      </c>
+      <c r="H176">
+        <v>3</v>
+      </c>
+      <c r="I176">
+        <v>3</v>
+      </c>
+      <c r="J176" t="s">
+        <v>37</v>
+      </c>
+      <c r="K176" t="s">
+        <v>31</v>
+      </c>
+      <c r="L176">
+        <f t="shared" si="761"/>
+        <v>32</v>
+      </c>
+      <c r="M176">
+        <v>5</v>
+      </c>
+      <c r="N176">
+        <v>5</v>
+      </c>
+      <c r="O176">
+        <v>3</v>
+      </c>
+      <c r="P176">
+        <v>3</v>
+      </c>
+      <c r="Q176">
+        <v>8</v>
+      </c>
+      <c r="R176">
+        <v>2</v>
+      </c>
+      <c r="S176">
+        <v>5</v>
+      </c>
+      <c r="T176">
+        <v>3</v>
+      </c>
+      <c r="U176">
+        <v>0</v>
+      </c>
+      <c r="V176">
+        <v>8</v>
+      </c>
+      <c r="W176">
+        <v>0</v>
+      </c>
+      <c r="X176">
+        <v>0</v>
+      </c>
+      <c r="Y176">
+        <v>0</v>
+      </c>
+      <c r="Z176">
+        <v>0</v>
+      </c>
+      <c r="AA176">
+        <v>0</v>
+      </c>
+      <c r="AB176">
+        <v>0</v>
+      </c>
+      <c r="AC176">
+        <v>0</v>
+      </c>
+      <c r="AD176">
+        <v>0</v>
+      </c>
+      <c r="AE176">
+        <v>0</v>
+      </c>
+      <c r="AF176">
+        <v>0</v>
+      </c>
+      <c r="AG176">
+        <v>0</v>
+      </c>
+      <c r="AH176">
+        <v>0</v>
+      </c>
+      <c r="AI176">
+        <f>SUM(O174:O175)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ176">
+        <f>SUM(P174:P175)</f>
+        <v>22</v>
+      </c>
+      <c r="AK176">
+        <f>SUM(Q174:Q175)</f>
+        <v>4</v>
+      </c>
+      <c r="AL176">
+        <f>SUM(R174:R175)</f>
+        <v>8</v>
+      </c>
+      <c r="AM176">
+        <f>SUM(S174:S175)</f>
+        <v>10</v>
+      </c>
+      <c r="AN176">
+        <f>SUM(T174:T175)</f>
+        <v>0</v>
+      </c>
+      <c r="AO176">
+        <f>SUM(U174:U175)</f>
+        <v>8</v>
+      </c>
+      <c r="AP176">
+        <f>SUM(V174:V175)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:AP113" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X129:Z1048576 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W177:Z1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Desktop\Projects\dev\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6771286-63DB-4779-B8E2-7E50C926A371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA261188-D992-49B1-82D3-B6DE9BCBCBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="65">
   <si>
     <t>season</t>
   </si>
@@ -610,13 +610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP176"/>
+  <dimension ref="A1:AP179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I175" sqref="I175"/>
+      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16820,7 +16820,7 @@
         <v>31</v>
       </c>
       <c r="L123">
-        <f t="shared" ref="L123:L176" si="761">SUM(O123:V123)</f>
+        <f t="shared" ref="L123:L179" si="761">SUM(O123:V123)</f>
         <v>34</v>
       </c>
       <c r="M123">
@@ -23928,35 +23928,35 @@
         <v>0</v>
       </c>
       <c r="AI174">
-        <f>SUM(O174:O175)</f>
+        <f t="shared" ref="AI174:AP174" si="1119">SUM(O174:O175)</f>
         <v>5</v>
       </c>
       <c r="AJ174">
-        <f>SUM(P174:P175)</f>
+        <f t="shared" si="1119"/>
         <v>22</v>
       </c>
       <c r="AK174">
-        <f>SUM(Q174:Q175)</f>
+        <f t="shared" si="1119"/>
         <v>4</v>
       </c>
       <c r="AL174">
-        <f>SUM(R174:R175)</f>
+        <f t="shared" si="1119"/>
         <v>8</v>
       </c>
       <c r="AM174">
-        <f>SUM(S174:S175)</f>
+        <f t="shared" si="1119"/>
         <v>10</v>
       </c>
       <c r="AN174">
-        <f>SUM(T174:T175)</f>
+        <f t="shared" si="1119"/>
         <v>0</v>
       </c>
       <c r="AO174">
-        <f>SUM(U174:U175)</f>
+        <f t="shared" si="1119"/>
         <v>8</v>
       </c>
       <c r="AP174">
-        <f>SUM(V174:V175)</f>
+        <f t="shared" si="1119"/>
         <v>4</v>
       </c>
     </row>
@@ -24066,35 +24066,35 @@
         <v>0</v>
       </c>
       <c r="AI175">
-        <f>SUM(O174:O175)</f>
+        <f t="shared" ref="AI175:AP175" si="1120">SUM(O174:O175)</f>
         <v>5</v>
       </c>
       <c r="AJ175">
-        <f>SUM(P174:P175)</f>
+        <f t="shared" si="1120"/>
         <v>22</v>
       </c>
       <c r="AK175">
-        <f>SUM(Q174:Q175)</f>
+        <f t="shared" si="1120"/>
         <v>4</v>
       </c>
       <c r="AL175">
-        <f>SUM(R174:R175)</f>
+        <f t="shared" si="1120"/>
         <v>8</v>
       </c>
       <c r="AM175">
-        <f>SUM(S174:S175)</f>
+        <f t="shared" si="1120"/>
         <v>10</v>
       </c>
       <c r="AN175">
-        <f>SUM(T174:T175)</f>
+        <f t="shared" si="1120"/>
         <v>0</v>
       </c>
       <c r="AO175">
-        <f>SUM(U174:U175)</f>
+        <f t="shared" si="1120"/>
         <v>8</v>
       </c>
       <c r="AP175">
-        <f>SUM(V174:V175)</f>
+        <f t="shared" si="1120"/>
         <v>4</v>
       </c>
     </row>
@@ -24204,36 +24204,450 @@
         <v>0</v>
       </c>
       <c r="AI176">
-        <f>SUM(O174:O175)</f>
+        <f t="shared" ref="AI176:AP176" si="1121">SUM(O174:O175)</f>
         <v>5</v>
       </c>
       <c r="AJ176">
-        <f>SUM(P174:P175)</f>
+        <f t="shared" si="1121"/>
         <v>22</v>
       </c>
       <c r="AK176">
-        <f>SUM(Q174:Q175)</f>
+        <f t="shared" si="1121"/>
         <v>4</v>
       </c>
       <c r="AL176">
-        <f>SUM(R174:R175)</f>
+        <f t="shared" si="1121"/>
         <v>8</v>
       </c>
       <c r="AM176">
-        <f>SUM(S174:S175)</f>
+        <f t="shared" si="1121"/>
         <v>10</v>
       </c>
       <c r="AN176">
-        <f>SUM(T174:T175)</f>
+        <f t="shared" si="1121"/>
         <v>0</v>
       </c>
       <c r="AO176">
-        <f>SUM(U174:U175)</f>
+        <f t="shared" si="1121"/>
         <v>8</v>
       </c>
       <c r="AP176">
-        <f>SUM(V174:V175)</f>
-        <v>4</v>
+        <f t="shared" si="1121"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2024</v>
+      </c>
+      <c r="B177" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C177">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>46</v>
+      </c>
+      <c r="E177" t="str">
+        <f>VLOOKUP(D177,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F177" t="s">
+        <v>11</v>
+      </c>
+      <c r="G177">
+        <v>10</v>
+      </c>
+      <c r="H177">
+        <v>3</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177" t="s">
+        <v>36</v>
+      </c>
+      <c r="K177" t="s">
+        <v>31</v>
+      </c>
+      <c r="L177">
+        <f t="shared" si="761"/>
+        <v>28</v>
+      </c>
+      <c r="M177">
+        <v>5</v>
+      </c>
+      <c r="N177">
+        <v>5</v>
+      </c>
+      <c r="O177">
+        <v>5</v>
+      </c>
+      <c r="P177">
+        <v>4</v>
+      </c>
+      <c r="Q177">
+        <v>3</v>
+      </c>
+      <c r="R177">
+        <v>5</v>
+      </c>
+      <c r="S177">
+        <v>3</v>
+      </c>
+      <c r="T177">
+        <v>5</v>
+      </c>
+      <c r="U177">
+        <v>3</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>1</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>0</v>
+      </c>
+      <c r="AB177">
+        <v>0</v>
+      </c>
+      <c r="AC177">
+        <v>0</v>
+      </c>
+      <c r="AD177">
+        <v>0</v>
+      </c>
+      <c r="AE177">
+        <v>0</v>
+      </c>
+      <c r="AF177">
+        <v>0</v>
+      </c>
+      <c r="AG177">
+        <v>1</v>
+      </c>
+      <c r="AH177">
+        <v>0</v>
+      </c>
+      <c r="AI177">
+        <f t="shared" ref="AI177" si="1122">SUM(O177:O178)</f>
+        <v>12</v>
+      </c>
+      <c r="AJ177">
+        <f t="shared" ref="AJ177" si="1123">SUM(P177:P178)</f>
+        <v>13</v>
+      </c>
+      <c r="AK177">
+        <f t="shared" ref="AK177" si="1124">SUM(Q177:Q178)</f>
+        <v>3</v>
+      </c>
+      <c r="AL177">
+        <f t="shared" ref="AL177" si="1125">SUM(R177:R178)</f>
+        <v>5</v>
+      </c>
+      <c r="AM177">
+        <f t="shared" ref="AM177" si="1126">SUM(S177:S178)</f>
+        <v>12</v>
+      </c>
+      <c r="AN177">
+        <f t="shared" ref="AN177" si="1127">SUM(T177:T178)</f>
+        <v>9</v>
+      </c>
+      <c r="AO177">
+        <f t="shared" ref="AO177" si="1128">SUM(U177:U178)</f>
+        <v>12</v>
+      </c>
+      <c r="AP177">
+        <f t="shared" ref="AP177" si="1129">SUM(V177:V178)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2024</v>
+      </c>
+      <c r="B178" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C178">
+        <v>7</v>
+      </c>
+      <c r="D178" t="s">
+        <v>46</v>
+      </c>
+      <c r="E178" t="str">
+        <f>VLOOKUP(D178,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F178" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178">
+        <v>6</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>3</v>
+      </c>
+      <c r="J178" t="s">
+        <v>32</v>
+      </c>
+      <c r="K178" t="s">
+        <v>31</v>
+      </c>
+      <c r="L178">
+        <f t="shared" si="761"/>
+        <v>38</v>
+      </c>
+      <c r="M178">
+        <v>4</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178">
+        <v>7</v>
+      </c>
+      <c r="P178">
+        <v>9</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>0</v>
+      </c>
+      <c r="S178">
+        <v>9</v>
+      </c>
+      <c r="T178">
+        <v>4</v>
+      </c>
+      <c r="U178">
+        <v>9</v>
+      </c>
+      <c r="V178">
+        <v>0</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <v>0</v>
+      </c>
+      <c r="AA178">
+        <v>0</v>
+      </c>
+      <c r="AB178">
+        <v>0</v>
+      </c>
+      <c r="AC178">
+        <v>0</v>
+      </c>
+      <c r="AD178">
+        <v>0</v>
+      </c>
+      <c r="AE178">
+        <v>0</v>
+      </c>
+      <c r="AF178">
+        <v>0</v>
+      </c>
+      <c r="AG178">
+        <v>0</v>
+      </c>
+      <c r="AH178">
+        <v>1</v>
+      </c>
+      <c r="AI178">
+        <f t="shared" ref="AI178" si="1130">SUM(O177:O178)</f>
+        <v>12</v>
+      </c>
+      <c r="AJ178">
+        <f t="shared" ref="AJ178" si="1131">SUM(P177:P178)</f>
+        <v>13</v>
+      </c>
+      <c r="AK178">
+        <f t="shared" ref="AK178" si="1132">SUM(Q177:Q178)</f>
+        <v>3</v>
+      </c>
+      <c r="AL178">
+        <f t="shared" ref="AL178" si="1133">SUM(R177:R178)</f>
+        <v>5</v>
+      </c>
+      <c r="AM178">
+        <f t="shared" ref="AM178" si="1134">SUM(S177:S178)</f>
+        <v>12</v>
+      </c>
+      <c r="AN178">
+        <f t="shared" ref="AN178" si="1135">SUM(T177:T178)</f>
+        <v>9</v>
+      </c>
+      <c r="AO178">
+        <f t="shared" ref="AO178" si="1136">SUM(U177:U178)</f>
+        <v>12</v>
+      </c>
+      <c r="AP178">
+        <f t="shared" ref="AP178" si="1137">SUM(V177:V178)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2024</v>
+      </c>
+      <c r="B179" s="5">
+        <v>45366</v>
+      </c>
+      <c r="C179">
+        <v>7</v>
+      </c>
+      <c r="D179" t="s">
+        <v>46</v>
+      </c>
+      <c r="E179" t="str">
+        <f>VLOOKUP(D179,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F179" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179">
+        <v>13</v>
+      </c>
+      <c r="H179">
+        <v>4</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179" t="s">
+        <v>37</v>
+      </c>
+      <c r="K179" t="s">
+        <v>31</v>
+      </c>
+      <c r="L179">
+        <f t="shared" si="761"/>
+        <v>33</v>
+      </c>
+      <c r="M179">
+        <v>6</v>
+      </c>
+      <c r="N179">
+        <v>5</v>
+      </c>
+      <c r="O179">
+        <v>8</v>
+      </c>
+      <c r="P179">
+        <v>4</v>
+      </c>
+      <c r="Q179">
+        <v>3</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
+        <v>4</v>
+      </c>
+      <c r="T179">
+        <v>5</v>
+      </c>
+      <c r="U179">
+        <v>4</v>
+      </c>
+      <c r="V179">
+        <v>3</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>0</v>
+      </c>
+      <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179">
+        <v>0</v>
+      </c>
+      <c r="AB179">
+        <v>0</v>
+      </c>
+      <c r="AC179">
+        <v>0</v>
+      </c>
+      <c r="AD179">
+        <v>0</v>
+      </c>
+      <c r="AE179">
+        <v>0</v>
+      </c>
+      <c r="AF179">
+        <v>0</v>
+      </c>
+      <c r="AG179">
+        <v>0</v>
+      </c>
+      <c r="AH179">
+        <v>0</v>
+      </c>
+      <c r="AI179">
+        <f t="shared" ref="AI179" si="1138">SUM(O177:O178)</f>
+        <v>12</v>
+      </c>
+      <c r="AJ179">
+        <f t="shared" ref="AJ179" si="1139">SUM(P177:P178)</f>
+        <v>13</v>
+      </c>
+      <c r="AK179">
+        <f t="shared" ref="AK179" si="1140">SUM(Q177:Q178)</f>
+        <v>3</v>
+      </c>
+      <c r="AL179">
+        <f t="shared" ref="AL179" si="1141">SUM(R177:R178)</f>
+        <v>5</v>
+      </c>
+      <c r="AM179">
+        <f t="shared" ref="AM179" si="1142">SUM(S177:S178)</f>
+        <v>12</v>
+      </c>
+      <c r="AN179">
+        <f t="shared" ref="AN179" si="1143">SUM(T177:T178)</f>
+        <v>9</v>
+      </c>
+      <c r="AO179">
+        <f t="shared" ref="AO179" si="1144">SUM(U177:U178)</f>
+        <v>12</v>
+      </c>
+      <c r="AP179">
+        <f t="shared" ref="AP179" si="1145">SUM(V177:V178)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Desktop\Projects\dev\catan_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A1CC3C0\Documents\Scripts\dev\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA261188-D992-49B1-82D3-B6DE9BCBCBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF63646E-4A8E-4484-ACB5-3363429B5E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="65">
   <si>
     <t>season</t>
   </si>
@@ -298,7 +298,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -314,9 +314,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -354,7 +354,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -460,7 +460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -602,7 +602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -610,16 +610,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP179"/>
+  <dimension ref="A1:AP185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="AE168" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomRight" activeCell="AI183" sqref="AI183:AP185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
@@ -16820,7 +16820,7 @@
         <v>31</v>
       </c>
       <c r="L123">
-        <f t="shared" ref="L123:L179" si="761">SUM(O123:V123)</f>
+        <f t="shared" ref="L123:L185" si="761">SUM(O123:V123)</f>
         <v>34</v>
       </c>
       <c r="M123">
@@ -24647,6 +24647,591 @@
       </c>
       <c r="AP179">
         <f t="shared" ref="AP179" si="1145">SUM(V177:V178)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2024</v>
+      </c>
+      <c r="B180" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C180">
+        <v>8</v>
+      </c>
+      <c r="D180" t="s">
+        <v>46</v>
+      </c>
+      <c r="E180" t="str">
+        <f>VLOOKUP(D180,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F180" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180">
+        <v>8</v>
+      </c>
+      <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180">
+        <v>3</v>
+      </c>
+      <c r="J180" t="s">
+        <v>36</v>
+      </c>
+      <c r="K180" t="s">
+        <v>32</v>
+      </c>
+      <c r="L180">
+        <f t="shared" si="761"/>
+        <v>34</v>
+      </c>
+      <c r="M180">
+        <v>5</v>
+      </c>
+      <c r="N180">
+        <v>4</v>
+      </c>
+      <c r="O180">
+        <v>3</v>
+      </c>
+      <c r="P180">
+        <v>19</v>
+      </c>
+      <c r="Q180">
+        <v>5</v>
+      </c>
+      <c r="R180">
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <v>2</v>
+      </c>
+      <c r="T180">
+        <v>3</v>
+      </c>
+      <c r="U180">
+        <v>2</v>
+      </c>
+      <c r="V180">
+        <v>0</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>0</v>
+      </c>
+      <c r="Z180">
+        <v>0</v>
+      </c>
+      <c r="AA180">
+        <v>0</v>
+      </c>
+      <c r="AB180">
+        <v>0</v>
+      </c>
+      <c r="AC180">
+        <v>0</v>
+      </c>
+      <c r="AD180">
+        <v>0</v>
+      </c>
+      <c r="AE180">
+        <v>0</v>
+      </c>
+      <c r="AF180">
+        <v>0</v>
+      </c>
+      <c r="AG180">
+        <v>0</v>
+      </c>
+      <c r="AH180">
+        <v>0</v>
+      </c>
+      <c r="AI180">
+        <f t="shared" ref="AI180" si="1146">SUM(O180:O181)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ180">
+        <f t="shared" ref="AJ180" si="1147">SUM(P180:P181)</f>
+        <v>23</v>
+      </c>
+      <c r="AK180">
+        <f t="shared" ref="AK180" si="1148">SUM(Q180:Q181)</f>
+        <v>8</v>
+      </c>
+      <c r="AL180">
+        <f t="shared" ref="AL180" si="1149">SUM(R180:R181)</f>
+        <v>5</v>
+      </c>
+      <c r="AM180">
+        <f t="shared" ref="AM180" si="1150">SUM(S180:S181)</f>
+        <v>6</v>
+      </c>
+      <c r="AN180">
+        <f t="shared" ref="AN180" si="1151">SUM(T180:T181)</f>
+        <v>10</v>
+      </c>
+      <c r="AO180">
+        <f t="shared" ref="AO180" si="1152">SUM(U180:U181)</f>
+        <v>6</v>
+      </c>
+      <c r="AP180">
+        <f t="shared" ref="AP180" si="1153">SUM(V180:V181)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2024</v>
+      </c>
+      <c r="B181" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C181">
+        <v>8</v>
+      </c>
+      <c r="D181" t="s">
+        <v>46</v>
+      </c>
+      <c r="E181" t="str">
+        <f>VLOOKUP(D181,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F181" t="s">
+        <v>11</v>
+      </c>
+      <c r="G181">
+        <v>13</v>
+      </c>
+      <c r="H181">
+        <v>6</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181" t="s">
+        <v>32</v>
+      </c>
+      <c r="K181" t="s">
+        <v>32</v>
+      </c>
+      <c r="L181">
+        <f t="shared" si="761"/>
+        <v>34</v>
+      </c>
+      <c r="M181">
+        <v>5</v>
+      </c>
+      <c r="N181">
+        <v>5</v>
+      </c>
+      <c r="O181">
+        <v>7</v>
+      </c>
+      <c r="P181">
+        <v>4</v>
+      </c>
+      <c r="Q181">
+        <v>3</v>
+      </c>
+      <c r="R181">
+        <v>5</v>
+      </c>
+      <c r="S181">
+        <v>4</v>
+      </c>
+      <c r="T181">
+        <v>7</v>
+      </c>
+      <c r="U181">
+        <v>4</v>
+      </c>
+      <c r="V181">
+        <v>0</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
+        <v>0</v>
+      </c>
+      <c r="AB181">
+        <v>0</v>
+      </c>
+      <c r="AC181">
+        <v>0</v>
+      </c>
+      <c r="AD181">
+        <v>0</v>
+      </c>
+      <c r="AE181">
+        <v>0</v>
+      </c>
+      <c r="AF181">
+        <v>0</v>
+      </c>
+      <c r="AG181">
+        <v>0</v>
+      </c>
+      <c r="AH181">
+        <v>1</v>
+      </c>
+      <c r="AI181">
+        <f t="shared" ref="AI181" si="1154">SUM(O180:O181)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ181">
+        <f t="shared" ref="AJ181" si="1155">SUM(P180:P181)</f>
+        <v>23</v>
+      </c>
+      <c r="AK181">
+        <f t="shared" ref="AK181" si="1156">SUM(Q180:Q181)</f>
+        <v>8</v>
+      </c>
+      <c r="AL181">
+        <f t="shared" ref="AL181" si="1157">SUM(R180:R181)</f>
+        <v>5</v>
+      </c>
+      <c r="AM181">
+        <f t="shared" ref="AM181" si="1158">SUM(S180:S181)</f>
+        <v>6</v>
+      </c>
+      <c r="AN181">
+        <f t="shared" ref="AN181" si="1159">SUM(T180:T181)</f>
+        <v>10</v>
+      </c>
+      <c r="AO181">
+        <f t="shared" ref="AO181" si="1160">SUM(U180:U181)</f>
+        <v>6</v>
+      </c>
+      <c r="AP181">
+        <f t="shared" ref="AP181" si="1161">SUM(V180:V181)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2024</v>
+      </c>
+      <c r="B182" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C182">
+        <v>8</v>
+      </c>
+      <c r="D182" t="s">
+        <v>46</v>
+      </c>
+      <c r="E182" t="str">
+        <f>VLOOKUP(D182,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F182" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182">
+        <v>11</v>
+      </c>
+      <c r="H182">
+        <v>6</v>
+      </c>
+      <c r="I182">
+        <v>2</v>
+      </c>
+      <c r="J182" t="s">
+        <v>37</v>
+      </c>
+      <c r="K182" t="s">
+        <v>32</v>
+      </c>
+      <c r="L182">
+        <f t="shared" si="761"/>
+        <v>32</v>
+      </c>
+      <c r="M182">
+        <v>4</v>
+      </c>
+      <c r="N182">
+        <v>4</v>
+      </c>
+      <c r="O182">
+        <v>6</v>
+      </c>
+      <c r="P182">
+        <v>5</v>
+      </c>
+      <c r="Q182">
+        <v>5</v>
+      </c>
+      <c r="R182">
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <v>4</v>
+      </c>
+      <c r="T182">
+        <v>3</v>
+      </c>
+      <c r="U182">
+        <v>4</v>
+      </c>
+      <c r="V182">
+        <v>5</v>
+      </c>
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>1</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
+      </c>
+      <c r="Z182">
+        <v>0</v>
+      </c>
+      <c r="AA182">
+        <v>0</v>
+      </c>
+      <c r="AB182">
+        <v>0</v>
+      </c>
+      <c r="AC182">
+        <v>0</v>
+      </c>
+      <c r="AD182">
+        <v>0</v>
+      </c>
+      <c r="AE182">
+        <v>0</v>
+      </c>
+      <c r="AF182">
+        <v>0</v>
+      </c>
+      <c r="AG182">
+        <v>0</v>
+      </c>
+      <c r="AH182">
+        <v>0</v>
+      </c>
+      <c r="AI182">
+        <f t="shared" ref="AI182" si="1162">SUM(O180:O181)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ182">
+        <f t="shared" ref="AJ182" si="1163">SUM(P180:P181)</f>
+        <v>23</v>
+      </c>
+      <c r="AK182">
+        <f t="shared" ref="AK182" si="1164">SUM(Q180:Q181)</f>
+        <v>8</v>
+      </c>
+      <c r="AL182">
+        <f t="shared" ref="AL182" si="1165">SUM(R180:R181)</f>
+        <v>5</v>
+      </c>
+      <c r="AM182">
+        <f t="shared" ref="AM182" si="1166">SUM(S180:S181)</f>
+        <v>6</v>
+      </c>
+      <c r="AN182">
+        <f t="shared" ref="AN182" si="1167">SUM(T180:T181)</f>
+        <v>10</v>
+      </c>
+      <c r="AO182">
+        <f t="shared" ref="AO182" si="1168">SUM(U180:U181)</f>
+        <v>6</v>
+      </c>
+      <c r="AP182">
+        <f t="shared" ref="AP182" si="1169">SUM(V180:V181)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2024</v>
+      </c>
+      <c r="B183" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C183">
+        <v>9</v>
+      </c>
+      <c r="D183" t="s">
+        <v>46</v>
+      </c>
+      <c r="E183" t="str">
+        <f>VLOOKUP(D183,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="J183" t="s">
+        <v>36</v>
+      </c>
+      <c r="L183">
+        <f t="shared" si="761"/>
+        <v>0</v>
+      </c>
+      <c r="AI183">
+        <f t="shared" ref="AI183" si="1170">SUM(O183:O184)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ183">
+        <f t="shared" ref="AJ183" si="1171">SUM(P183:P184)</f>
+        <v>0</v>
+      </c>
+      <c r="AK183">
+        <f t="shared" ref="AK183" si="1172">SUM(Q183:Q184)</f>
+        <v>0</v>
+      </c>
+      <c r="AL183">
+        <f t="shared" ref="AL183" si="1173">SUM(R183:R184)</f>
+        <v>0</v>
+      </c>
+      <c r="AM183">
+        <f t="shared" ref="AM183" si="1174">SUM(S183:S184)</f>
+        <v>0</v>
+      </c>
+      <c r="AN183">
+        <f t="shared" ref="AN183" si="1175">SUM(T183:T184)</f>
+        <v>0</v>
+      </c>
+      <c r="AO183">
+        <f t="shared" ref="AO183" si="1176">SUM(U183:U184)</f>
+        <v>0</v>
+      </c>
+      <c r="AP183">
+        <f t="shared" ref="AP183" si="1177">SUM(V183:V184)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>2024</v>
+      </c>
+      <c r="B184" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C184">
+        <v>9</v>
+      </c>
+      <c r="D184" t="s">
+        <v>46</v>
+      </c>
+      <c r="E184" t="str">
+        <f>VLOOKUP(D184,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="J184" t="s">
+        <v>32</v>
+      </c>
+      <c r="L184">
+        <f t="shared" si="761"/>
+        <v>0</v>
+      </c>
+      <c r="AI184">
+        <f t="shared" ref="AI184" si="1178">SUM(O183:O184)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ184">
+        <f t="shared" ref="AJ184" si="1179">SUM(P183:P184)</f>
+        <v>0</v>
+      </c>
+      <c r="AK184">
+        <f t="shared" ref="AK184" si="1180">SUM(Q183:Q184)</f>
+        <v>0</v>
+      </c>
+      <c r="AL184">
+        <f t="shared" ref="AL184" si="1181">SUM(R183:R184)</f>
+        <v>0</v>
+      </c>
+      <c r="AM184">
+        <f t="shared" ref="AM184" si="1182">SUM(S183:S184)</f>
+        <v>0</v>
+      </c>
+      <c r="AN184">
+        <f t="shared" ref="AN184" si="1183">SUM(T183:T184)</f>
+        <v>0</v>
+      </c>
+      <c r="AO184">
+        <f t="shared" ref="AO184" si="1184">SUM(U183:U184)</f>
+        <v>0</v>
+      </c>
+      <c r="AP184">
+        <f t="shared" ref="AP184" si="1185">SUM(V183:V184)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2024</v>
+      </c>
+      <c r="B185" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C185">
+        <v>9</v>
+      </c>
+      <c r="D185" t="s">
+        <v>46</v>
+      </c>
+      <c r="E185" t="str">
+        <f>VLOOKUP(D185,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="J185" t="s">
+        <v>37</v>
+      </c>
+      <c r="L185">
+        <f t="shared" si="761"/>
+        <v>0</v>
+      </c>
+      <c r="AI185">
+        <f t="shared" ref="AI185" si="1186">SUM(O183:O184)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ185">
+        <f t="shared" ref="AJ185" si="1187">SUM(P183:P184)</f>
+        <v>0</v>
+      </c>
+      <c r="AK185">
+        <f t="shared" ref="AK185" si="1188">SUM(Q183:Q184)</f>
+        <v>0</v>
+      </c>
+      <c r="AL185">
+        <f t="shared" ref="AL185" si="1189">SUM(R183:R184)</f>
+        <v>0</v>
+      </c>
+      <c r="AM185">
+        <f t="shared" ref="AM185" si="1190">SUM(S183:S184)</f>
+        <v>0</v>
+      </c>
+      <c r="AN185">
+        <f t="shared" ref="AN185" si="1191">SUM(T183:T184)</f>
+        <v>0</v>
+      </c>
+      <c r="AO185">
+        <f t="shared" ref="AO185" si="1192">SUM(U183:U184)</f>
+        <v>0</v>
+      </c>
+      <c r="AP185">
+        <f t="shared" ref="AP185" si="1193">SUM(V183:V184)</f>
         <v>0</v>
       </c>
     </row>
@@ -24695,7 +25280,7 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A1CC3C0\Documents\Scripts\dev\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF63646E-4A8E-4484-ACB5-3363429B5E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5E53FD-4DEC-4BD5-870D-902E928D486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$191</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="65">
   <si>
     <t>season</t>
   </si>
@@ -610,13 +610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP185"/>
+  <dimension ref="A1:AP200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="AE168" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI183" sqref="AI183:AP185"/>
+      <selection pane="bottomRight" activeCell="M199" sqref="M199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16820,7 +16820,7 @@
         <v>31</v>
       </c>
       <c r="L123">
-        <f t="shared" ref="L123:L185" si="761">SUM(O123:V123)</f>
+        <f t="shared" ref="L123:L186" si="761">SUM(O123:V123)</f>
         <v>34</v>
       </c>
       <c r="M123">
@@ -25081,44 +25081,125 @@
         <f>VLOOKUP(D183,Sheet2!$I$1:$J$4,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
+      <c r="F183" t="s">
+        <v>11</v>
+      </c>
+      <c r="G183">
+        <v>10</v>
+      </c>
+      <c r="H183">
+        <v>3</v>
+      </c>
+      <c r="I183">
+        <v>2</v>
+      </c>
       <c r="J183" t="s">
         <v>36</v>
       </c>
+      <c r="K183" t="s">
+        <v>31</v>
+      </c>
       <c r="L183">
         <f t="shared" si="761"/>
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="M183">
+        <v>6</v>
+      </c>
+      <c r="N183">
+        <v>5</v>
+      </c>
+      <c r="O183">
+        <v>7</v>
+      </c>
+      <c r="P183">
+        <v>4</v>
+      </c>
+      <c r="Q183">
+        <v>4</v>
+      </c>
+      <c r="R183">
+        <v>5</v>
+      </c>
+      <c r="S183">
+        <v>5</v>
+      </c>
+      <c r="T183">
+        <v>3</v>
+      </c>
+      <c r="U183">
+        <v>5</v>
+      </c>
+      <c r="V183">
+        <v>0</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>0</v>
+      </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
+      <c r="AA183">
+        <v>0</v>
+      </c>
+      <c r="AB183">
+        <v>0</v>
+      </c>
+      <c r="AC183">
+        <v>0</v>
+      </c>
+      <c r="AD183">
+        <v>0</v>
+      </c>
+      <c r="AE183">
+        <v>0</v>
+      </c>
+      <c r="AF183">
+        <v>0</v>
+      </c>
+      <c r="AG183">
+        <v>0</v>
+      </c>
+      <c r="AH183">
+        <v>1</v>
       </c>
       <c r="AI183">
         <f t="shared" ref="AI183" si="1170">SUM(O183:O184)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ183">
         <f t="shared" ref="AJ183" si="1171">SUM(P183:P184)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK183">
         <f t="shared" ref="AK183" si="1172">SUM(Q183:Q184)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL183">
         <f t="shared" ref="AL183" si="1173">SUM(R183:R184)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AM183">
         <f t="shared" ref="AM183" si="1174">SUM(S183:S184)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN183">
         <f t="shared" ref="AN183" si="1175">SUM(T183:T184)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AO183">
         <f t="shared" ref="AO183" si="1176">SUM(U183:U184)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP183">
         <f t="shared" ref="AP183" si="1177">SUM(V183:V184)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:42" x14ac:dyDescent="0.25">
@@ -25138,44 +25219,125 @@
         <f>VLOOKUP(D184,Sheet2!$I$1:$J$4,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
+      <c r="F184" t="s">
+        <v>12</v>
+      </c>
+      <c r="G184">
+        <v>7</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>3</v>
+      </c>
       <c r="J184" t="s">
         <v>32</v>
       </c>
+      <c r="K184" t="s">
+        <v>31</v>
+      </c>
       <c r="L184">
         <f t="shared" si="761"/>
+        <v>30</v>
+      </c>
+      <c r="M184">
+        <v>6</v>
+      </c>
+      <c r="N184">
+        <v>5</v>
+      </c>
+      <c r="O184">
+        <v>3</v>
+      </c>
+      <c r="P184">
+        <v>4</v>
+      </c>
+      <c r="Q184">
+        <v>2</v>
+      </c>
+      <c r="R184">
+        <v>8</v>
+      </c>
+      <c r="S184">
+        <v>8</v>
+      </c>
+      <c r="T184">
+        <v>3</v>
+      </c>
+      <c r="U184">
+        <v>0</v>
+      </c>
+      <c r="V184">
+        <v>2</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
+      </c>
+      <c r="AB184">
+        <v>0</v>
+      </c>
+      <c r="AC184">
+        <v>0</v>
+      </c>
+      <c r="AD184">
+        <v>0</v>
+      </c>
+      <c r="AE184">
+        <v>0</v>
+      </c>
+      <c r="AF184">
+        <v>0</v>
+      </c>
+      <c r="AG184">
+        <v>1</v>
+      </c>
+      <c r="AH184">
         <v>0</v>
       </c>
       <c r="AI184">
         <f t="shared" ref="AI184" si="1178">SUM(O183:O184)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ184">
         <f t="shared" ref="AJ184" si="1179">SUM(P183:P184)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK184">
         <f t="shared" ref="AK184" si="1180">SUM(Q183:Q184)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL184">
         <f t="shared" ref="AL184" si="1181">SUM(R183:R184)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AM184">
         <f t="shared" ref="AM184" si="1182">SUM(S183:S184)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN184">
         <f t="shared" ref="AN184" si="1183">SUM(T183:T184)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AO184">
         <f t="shared" ref="AO184" si="1184">SUM(U183:U184)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP184">
         <f t="shared" ref="AP184" si="1185">SUM(V183:V184)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:42" x14ac:dyDescent="0.25">
@@ -25195,48 +25357,2199 @@
         <f>VLOOKUP(D185,Sheet2!$I$1:$J$4,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
+      <c r="F185" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185">
+        <v>14</v>
+      </c>
+      <c r="H185">
+        <v>6</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
       <c r="J185" t="s">
         <v>37</v>
       </c>
+      <c r="K185" t="s">
+        <v>31</v>
+      </c>
       <c r="L185">
         <f t="shared" si="761"/>
+        <v>31</v>
+      </c>
+      <c r="M185">
+        <v>5</v>
+      </c>
+      <c r="N185">
+        <v>5</v>
+      </c>
+      <c r="O185">
+        <v>3</v>
+      </c>
+      <c r="P185">
+        <v>5</v>
+      </c>
+      <c r="Q185">
+        <v>4</v>
+      </c>
+      <c r="R185">
+        <v>4</v>
+      </c>
+      <c r="S185">
+        <v>5</v>
+      </c>
+      <c r="T185">
+        <v>3</v>
+      </c>
+      <c r="U185">
+        <v>5</v>
+      </c>
+      <c r="V185">
+        <v>2</v>
+      </c>
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <v>0</v>
+      </c>
+      <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>0</v>
+      </c>
+      <c r="AB185">
+        <v>0</v>
+      </c>
+      <c r="AC185">
+        <v>0</v>
+      </c>
+      <c r="AD185">
+        <v>1</v>
+      </c>
+      <c r="AE185">
+        <v>0</v>
+      </c>
+      <c r="AF185">
+        <v>0</v>
+      </c>
+      <c r="AG185">
+        <v>0</v>
+      </c>
+      <c r="AH185">
         <v>0</v>
       </c>
       <c r="AI185">
         <f t="shared" ref="AI185" si="1186">SUM(O183:O184)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ185">
         <f t="shared" ref="AJ185" si="1187">SUM(P183:P184)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK185">
         <f t="shared" ref="AK185" si="1188">SUM(Q183:Q184)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL185">
         <f t="shared" ref="AL185" si="1189">SUM(R183:R184)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AM185">
         <f t="shared" ref="AM185" si="1190">SUM(S183:S184)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN185">
         <f t="shared" ref="AN185" si="1191">SUM(T183:T184)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AO185">
         <f t="shared" ref="AO185" si="1192">SUM(U183:U184)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP185">
         <f t="shared" ref="AP185" si="1193">SUM(V183:V184)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>2024</v>
+      </c>
+      <c r="B186" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C186">
+        <v>10</v>
+      </c>
+      <c r="D186" t="s">
+        <v>46</v>
+      </c>
+      <c r="E186" t="str">
+        <f>VLOOKUP(D186,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F186" t="s">
+        <v>11</v>
+      </c>
+      <c r="G186">
+        <v>6</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>3</v>
+      </c>
+      <c r="J186" t="s">
+        <v>36</v>
+      </c>
+      <c r="K186" t="s">
+        <v>32</v>
+      </c>
+      <c r="L186">
+        <f t="shared" si="761"/>
+        <v>29</v>
+      </c>
+      <c r="M186">
+        <v>5</v>
+      </c>
+      <c r="N186">
+        <v>4</v>
+      </c>
+      <c r="O186">
+        <v>4</v>
+      </c>
+      <c r="P186">
+        <v>4</v>
+      </c>
+      <c r="Q186">
+        <v>8</v>
+      </c>
+      <c r="R186">
+        <v>5</v>
+      </c>
+      <c r="S186">
+        <v>0</v>
+      </c>
+      <c r="T186">
+        <v>0</v>
+      </c>
+      <c r="U186">
+        <v>0</v>
+      </c>
+      <c r="V186">
+        <v>8</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>1</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <v>0</v>
+      </c>
+      <c r="AB186">
+        <v>0</v>
+      </c>
+      <c r="AC186">
+        <v>0</v>
+      </c>
+      <c r="AD186">
+        <v>0</v>
+      </c>
+      <c r="AE186">
+        <v>0</v>
+      </c>
+      <c r="AF186">
+        <v>0</v>
+      </c>
+      <c r="AG186">
+        <v>0</v>
+      </c>
+      <c r="AH186">
+        <v>0</v>
+      </c>
+      <c r="AI186">
+        <f t="shared" ref="AI186" si="1194">SUM(O186:O187)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ186">
+        <f t="shared" ref="AJ186" si="1195">SUM(P186:P187)</f>
+        <v>4</v>
+      </c>
+      <c r="AK186">
+        <f t="shared" ref="AK186" si="1196">SUM(Q186:Q187)</f>
+        <v>13</v>
+      </c>
+      <c r="AL186">
+        <f t="shared" ref="AL186" si="1197">SUM(R186:R187)</f>
+        <v>10</v>
+      </c>
+      <c r="AM186">
+        <f t="shared" ref="AM186" si="1198">SUM(S186:S187)</f>
+        <v>7</v>
+      </c>
+      <c r="AN186">
+        <f t="shared" ref="AN186" si="1199">SUM(T186:T187)</f>
+        <v>2</v>
+      </c>
+      <c r="AO186">
+        <f t="shared" ref="AO186" si="1200">SUM(U186:U187)</f>
+        <v>4</v>
+      </c>
+      <c r="AP186">
+        <f t="shared" ref="AP186" si="1201">SUM(V186:V187)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2024</v>
+      </c>
+      <c r="B187" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C187">
+        <v>10</v>
+      </c>
+      <c r="D187" t="s">
+        <v>46</v>
+      </c>
+      <c r="E187" t="str">
+        <f>VLOOKUP(D187,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F187" t="s">
+        <v>13</v>
+      </c>
+      <c r="G187">
+        <v>13</v>
+      </c>
+      <c r="H187">
+        <v>5</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="s">
+        <v>32</v>
+      </c>
+      <c r="K187" t="s">
+        <v>32</v>
+      </c>
+      <c r="L187">
+        <f t="shared" ref="L187:L200" si="1202">SUM(O187:V187)</f>
+        <v>34</v>
+      </c>
+      <c r="M187">
+        <v>5</v>
+      </c>
+      <c r="N187">
+        <v>4</v>
+      </c>
+      <c r="O187">
+        <v>6</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <v>5</v>
+      </c>
+      <c r="R187">
+        <v>5</v>
+      </c>
+      <c r="S187">
+        <v>7</v>
+      </c>
+      <c r="T187">
+        <v>2</v>
+      </c>
+      <c r="U187">
+        <v>4</v>
+      </c>
+      <c r="V187">
+        <v>5</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+      <c r="AB187">
+        <v>0</v>
+      </c>
+      <c r="AC187">
+        <v>0</v>
+      </c>
+      <c r="AD187">
+        <v>0</v>
+      </c>
+      <c r="AE187">
+        <v>0</v>
+      </c>
+      <c r="AF187">
+        <v>0</v>
+      </c>
+      <c r="AG187">
+        <v>0</v>
+      </c>
+      <c r="AH187">
+        <v>0</v>
+      </c>
+      <c r="AI187">
+        <f t="shared" ref="AI187" si="1203">SUM(O186:O187)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ187">
+        <f t="shared" ref="AJ187" si="1204">SUM(P186:P187)</f>
+        <v>4</v>
+      </c>
+      <c r="AK187">
+        <f t="shared" ref="AK187" si="1205">SUM(Q186:Q187)</f>
+        <v>13</v>
+      </c>
+      <c r="AL187">
+        <f t="shared" ref="AL187" si="1206">SUM(R186:R187)</f>
+        <v>10</v>
+      </c>
+      <c r="AM187">
+        <f t="shared" ref="AM187" si="1207">SUM(S186:S187)</f>
+        <v>7</v>
+      </c>
+      <c r="AN187">
+        <f t="shared" ref="AN187" si="1208">SUM(T186:T187)</f>
+        <v>2</v>
+      </c>
+      <c r="AO187">
+        <f t="shared" ref="AO187" si="1209">SUM(U186:U187)</f>
+        <v>4</v>
+      </c>
+      <c r="AP187">
+        <f t="shared" ref="AP187" si="1210">SUM(V186:V187)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>2024</v>
+      </c>
+      <c r="B188" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C188">
+        <v>10</v>
+      </c>
+      <c r="D188" t="s">
+        <v>46</v>
+      </c>
+      <c r="E188" t="str">
+        <f>VLOOKUP(D188,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F188" t="s">
+        <v>12</v>
+      </c>
+      <c r="G188">
+        <v>8</v>
+      </c>
+      <c r="H188">
+        <v>2</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188" t="s">
+        <v>37</v>
+      </c>
+      <c r="K188" t="s">
+        <v>32</v>
+      </c>
+      <c r="L188">
+        <f t="shared" si="1202"/>
+        <v>32</v>
+      </c>
+      <c r="M188">
+        <v>4</v>
+      </c>
+      <c r="N188">
+        <v>5</v>
+      </c>
+      <c r="O188">
+        <v>3</v>
+      </c>
+      <c r="P188">
+        <v>2</v>
+      </c>
+      <c r="Q188">
+        <v>3</v>
+      </c>
+      <c r="R188">
+        <v>13</v>
+      </c>
+      <c r="S188">
+        <v>4</v>
+      </c>
+      <c r="T188">
+        <v>0</v>
+      </c>
+      <c r="U188">
+        <v>4</v>
+      </c>
+      <c r="V188">
+        <v>3</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+      <c r="AB188">
+        <v>0</v>
+      </c>
+      <c r="AC188">
+        <v>0</v>
+      </c>
+      <c r="AD188">
+        <v>0</v>
+      </c>
+      <c r="AE188">
+        <v>0</v>
+      </c>
+      <c r="AF188">
+        <v>1</v>
+      </c>
+      <c r="AG188">
+        <v>0</v>
+      </c>
+      <c r="AH188">
+        <v>0</v>
+      </c>
+      <c r="AI188">
+        <f t="shared" ref="AI188" si="1211">SUM(O186:O187)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ188">
+        <f t="shared" ref="AJ188" si="1212">SUM(P186:P187)</f>
+        <v>4</v>
+      </c>
+      <c r="AK188">
+        <f t="shared" ref="AK188" si="1213">SUM(Q186:Q187)</f>
+        <v>13</v>
+      </c>
+      <c r="AL188">
+        <f t="shared" ref="AL188" si="1214">SUM(R186:R187)</f>
+        <v>10</v>
+      </c>
+      <c r="AM188">
+        <f t="shared" ref="AM188" si="1215">SUM(S186:S187)</f>
+        <v>7</v>
+      </c>
+      <c r="AN188">
+        <f t="shared" ref="AN188" si="1216">SUM(T186:T187)</f>
+        <v>2</v>
+      </c>
+      <c r="AO188">
+        <f t="shared" ref="AO188" si="1217">SUM(U186:U187)</f>
+        <v>4</v>
+      </c>
+      <c r="AP188">
+        <f t="shared" ref="AP188" si="1218">SUM(V186:V187)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2024</v>
+      </c>
+      <c r="B189" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C189">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s">
+        <v>46</v>
+      </c>
+      <c r="E189" t="str">
+        <f>VLOOKUP(D189,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F189" t="s">
+        <v>12</v>
+      </c>
+      <c r="G189">
+        <v>3</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>3</v>
+      </c>
+      <c r="J189" t="s">
+        <v>36</v>
+      </c>
+      <c r="K189" t="s">
+        <v>31</v>
+      </c>
+      <c r="L189">
+        <f t="shared" si="1202"/>
+        <v>31</v>
+      </c>
+      <c r="M189">
+        <v>6</v>
+      </c>
+      <c r="N189">
+        <v>3</v>
+      </c>
+      <c r="O189">
+        <v>0</v>
+      </c>
+      <c r="P189">
+        <v>0</v>
+      </c>
+      <c r="Q189">
+        <v>10</v>
+      </c>
+      <c r="R189">
+        <v>11</v>
+      </c>
+      <c r="S189">
+        <v>4</v>
+      </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
+      <c r="U189">
+        <v>0</v>
+      </c>
+      <c r="V189">
+        <v>6</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+      <c r="AB189">
+        <v>0</v>
+      </c>
+      <c r="AC189">
+        <v>0</v>
+      </c>
+      <c r="AD189">
+        <v>0</v>
+      </c>
+      <c r="AE189">
+        <v>0</v>
+      </c>
+      <c r="AF189">
+        <v>0</v>
+      </c>
+      <c r="AG189">
+        <v>0</v>
+      </c>
+      <c r="AH189">
+        <v>0</v>
+      </c>
+      <c r="AI189">
+        <f t="shared" ref="AI189" si="1219">SUM(O189:O190)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ189">
+        <f t="shared" ref="AJ189" si="1220">SUM(P189:P190)</f>
+        <v>4</v>
+      </c>
+      <c r="AK189">
+        <f t="shared" ref="AK189" si="1221">SUM(Q189:Q190)</f>
+        <v>15</v>
+      </c>
+      <c r="AL189">
+        <f t="shared" ref="AL189" si="1222">SUM(R189:R190)</f>
+        <v>17</v>
+      </c>
+      <c r="AM189">
+        <f t="shared" ref="AM189" si="1223">SUM(S189:S190)</f>
+        <v>6</v>
+      </c>
+      <c r="AN189">
+        <f t="shared" ref="AN189" si="1224">SUM(T189:T190)</f>
+        <v>0</v>
+      </c>
+      <c r="AO189">
+        <f t="shared" ref="AO189" si="1225">SUM(U189:U190)</f>
+        <v>2</v>
+      </c>
+      <c r="AP189">
+        <f t="shared" ref="AP189" si="1226">SUM(V189:V190)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2024</v>
+      </c>
+      <c r="B190" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C190">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s">
+        <v>46</v>
+      </c>
+      <c r="E190" t="str">
+        <f>VLOOKUP(D190,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F190" t="s">
+        <v>13</v>
+      </c>
+      <c r="G190">
+        <v>5</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190" t="s">
+        <v>32</v>
+      </c>
+      <c r="K190" t="s">
+        <v>31</v>
+      </c>
+      <c r="L190">
+        <f t="shared" si="1202"/>
+        <v>31</v>
+      </c>
+      <c r="M190">
+        <v>6</v>
+      </c>
+      <c r="N190">
+        <v>5</v>
+      </c>
+      <c r="O190">
+        <v>7</v>
+      </c>
+      <c r="P190">
+        <v>4</v>
+      </c>
+      <c r="Q190">
+        <v>5</v>
+      </c>
+      <c r="R190">
+        <v>6</v>
+      </c>
+      <c r="S190">
+        <v>2</v>
+      </c>
+      <c r="T190">
+        <v>0</v>
+      </c>
+      <c r="U190">
+        <v>2</v>
+      </c>
+      <c r="V190">
+        <v>5</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
+      </c>
+      <c r="AB190">
+        <v>0</v>
+      </c>
+      <c r="AC190">
+        <v>0</v>
+      </c>
+      <c r="AD190">
+        <v>0</v>
+      </c>
+      <c r="AE190">
+        <v>0</v>
+      </c>
+      <c r="AF190">
+        <v>0</v>
+      </c>
+      <c r="AG190">
+        <v>0</v>
+      </c>
+      <c r="AH190">
+        <v>1</v>
+      </c>
+      <c r="AI190">
+        <f t="shared" ref="AI190" si="1227">SUM(O189:O190)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ190">
+        <f t="shared" ref="AJ190" si="1228">SUM(P189:P190)</f>
+        <v>4</v>
+      </c>
+      <c r="AK190">
+        <f t="shared" ref="AK190" si="1229">SUM(Q189:Q190)</f>
+        <v>15</v>
+      </c>
+      <c r="AL190">
+        <f t="shared" ref="AL190" si="1230">SUM(R189:R190)</f>
+        <v>17</v>
+      </c>
+      <c r="AM190">
+        <f t="shared" ref="AM190" si="1231">SUM(S189:S190)</f>
+        <v>6</v>
+      </c>
+      <c r="AN190">
+        <f t="shared" ref="AN190" si="1232">SUM(T189:T190)</f>
+        <v>0</v>
+      </c>
+      <c r="AO190">
+        <f t="shared" ref="AO190" si="1233">SUM(U189:U190)</f>
+        <v>2</v>
+      </c>
+      <c r="AP190">
+        <f t="shared" ref="AP190" si="1234">SUM(V189:V190)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2024</v>
+      </c>
+      <c r="B191" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C191">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s">
+        <v>46</v>
+      </c>
+      <c r="E191" t="str">
+        <f>VLOOKUP(D191,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F191" t="s">
+        <v>11</v>
+      </c>
+      <c r="G191">
+        <v>13</v>
+      </c>
+      <c r="H191">
+        <v>6</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191" t="s">
+        <v>37</v>
+      </c>
+      <c r="K191" t="s">
+        <v>31</v>
+      </c>
+      <c r="L191">
+        <f t="shared" si="1202"/>
+        <v>32</v>
+      </c>
+      <c r="M191">
+        <v>5</v>
+      </c>
+      <c r="N191">
+        <v>4</v>
+      </c>
+      <c r="O191">
+        <v>9</v>
+      </c>
+      <c r="P191">
+        <v>0</v>
+      </c>
+      <c r="Q191">
+        <v>5</v>
+      </c>
+      <c r="R191">
+        <v>10</v>
+      </c>
+      <c r="S191">
+        <v>2</v>
+      </c>
+      <c r="T191">
+        <v>0</v>
+      </c>
+      <c r="U191">
+        <v>2</v>
+      </c>
+      <c r="V191">
+        <v>4</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
+      </c>
+      <c r="AB191">
+        <v>0</v>
+      </c>
+      <c r="AC191">
+        <v>1</v>
+      </c>
+      <c r="AD191">
+        <v>0</v>
+      </c>
+      <c r="AE191">
+        <v>0</v>
+      </c>
+      <c r="AF191">
+        <v>0</v>
+      </c>
+      <c r="AG191">
+        <v>0</v>
+      </c>
+      <c r="AH191">
+        <v>0</v>
+      </c>
+      <c r="AI191">
+        <f t="shared" ref="AI191" si="1235">SUM(O189:O190)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ191">
+        <f t="shared" ref="AJ191" si="1236">SUM(P189:P190)</f>
+        <v>4</v>
+      </c>
+      <c r="AK191">
+        <f t="shared" ref="AK191" si="1237">SUM(Q189:Q190)</f>
+        <v>15</v>
+      </c>
+      <c r="AL191">
+        <f t="shared" ref="AL191" si="1238">SUM(R189:R190)</f>
+        <v>17</v>
+      </c>
+      <c r="AM191">
+        <f t="shared" ref="AM191" si="1239">SUM(S189:S190)</f>
+        <v>6</v>
+      </c>
+      <c r="AN191">
+        <f t="shared" ref="AN191" si="1240">SUM(T189:T190)</f>
+        <v>0</v>
+      </c>
+      <c r="AO191">
+        <f t="shared" ref="AO191" si="1241">SUM(U189:U190)</f>
+        <v>2</v>
+      </c>
+      <c r="AP191">
+        <f t="shared" ref="AP191" si="1242">SUM(V189:V190)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>2024</v>
+      </c>
+      <c r="B192" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C192">
+        <v>12</v>
+      </c>
+      <c r="D192" t="s">
+        <v>46</v>
+      </c>
+      <c r="E192" t="str">
+        <f>VLOOKUP(D192,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F192" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192">
+        <v>8</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
+        <v>3</v>
+      </c>
+      <c r="J192" t="s">
+        <v>36</v>
+      </c>
+      <c r="K192" t="s">
+        <v>31</v>
+      </c>
+      <c r="L192">
+        <f t="shared" si="1202"/>
+        <v>30</v>
+      </c>
+      <c r="M192">
+        <v>5</v>
+      </c>
+      <c r="N192">
+        <v>4</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <v>2</v>
+      </c>
+      <c r="Q192">
+        <v>7</v>
+      </c>
+      <c r="R192">
+        <v>12</v>
+      </c>
+      <c r="S192">
+        <v>5</v>
+      </c>
+      <c r="T192">
+        <v>0</v>
+      </c>
+      <c r="U192">
+        <v>0</v>
+      </c>
+      <c r="V192">
+        <v>4</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
+      </c>
+      <c r="AB192">
+        <v>0</v>
+      </c>
+      <c r="AC192">
+        <v>0</v>
+      </c>
+      <c r="AD192">
+        <v>0</v>
+      </c>
+      <c r="AE192">
+        <v>0</v>
+      </c>
+      <c r="AF192">
+        <v>0</v>
+      </c>
+      <c r="AG192">
+        <v>1</v>
+      </c>
+      <c r="AH192">
+        <v>0</v>
+      </c>
+      <c r="AI192">
+        <f t="shared" ref="AI192" si="1243">SUM(O192:O193)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ192">
+        <f t="shared" ref="AJ192" si="1244">SUM(P192:P193)</f>
+        <v>6</v>
+      </c>
+      <c r="AK192">
+        <f t="shared" ref="AK192" si="1245">SUM(Q192:Q193)</f>
+        <v>13</v>
+      </c>
+      <c r="AL192">
+        <f t="shared" ref="AL192" si="1246">SUM(R192:R193)</f>
+        <v>17</v>
+      </c>
+      <c r="AM192">
+        <f t="shared" ref="AM192" si="1247">SUM(S192:S193)</f>
+        <v>5</v>
+      </c>
+      <c r="AN192">
+        <f t="shared" ref="AN192" si="1248">SUM(T192:T193)</f>
+        <v>4</v>
+      </c>
+      <c r="AO192">
+        <f t="shared" ref="AO192" si="1249">SUM(U192:U193)</f>
+        <v>0</v>
+      </c>
+      <c r="AP192">
+        <f t="shared" ref="AP192" si="1250">SUM(V192:V193)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2024</v>
+      </c>
+      <c r="B193" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C193">
+        <v>12</v>
+      </c>
+      <c r="D193" t="s">
+        <v>46</v>
+      </c>
+      <c r="E193" t="str">
+        <f>VLOOKUP(D193,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F193" t="s">
+        <v>11</v>
+      </c>
+      <c r="G193">
+        <v>13</v>
+      </c>
+      <c r="H193">
+        <v>6</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193" t="s">
+        <v>32</v>
+      </c>
+      <c r="K193" t="s">
+        <v>31</v>
+      </c>
+      <c r="L193">
+        <f t="shared" si="1202"/>
+        <v>32</v>
+      </c>
+      <c r="M193">
+        <v>6</v>
+      </c>
+      <c r="N193">
+        <v>4</v>
+      </c>
+      <c r="O193">
+        <v>7</v>
+      </c>
+      <c r="P193">
+        <v>4</v>
+      </c>
+      <c r="Q193">
+        <v>6</v>
+      </c>
+      <c r="R193">
+        <v>5</v>
+      </c>
+      <c r="S193">
+        <v>0</v>
+      </c>
+      <c r="T193">
+        <v>4</v>
+      </c>
+      <c r="U193">
+        <v>0</v>
+      </c>
+      <c r="V193">
+        <v>6</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
+      </c>
+      <c r="AB193">
+        <v>0</v>
+      </c>
+      <c r="AC193">
+        <v>0</v>
+      </c>
+      <c r="AD193">
+        <v>1</v>
+      </c>
+      <c r="AE193">
+        <v>1</v>
+      </c>
+      <c r="AF193">
+        <v>0</v>
+      </c>
+      <c r="AG193">
+        <v>0</v>
+      </c>
+      <c r="AH193">
+        <v>0</v>
+      </c>
+      <c r="AI193">
+        <f t="shared" ref="AI193" si="1251">SUM(O192:O193)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ193">
+        <f t="shared" ref="AJ193" si="1252">SUM(P192:P193)</f>
+        <v>6</v>
+      </c>
+      <c r="AK193">
+        <f t="shared" ref="AK193" si="1253">SUM(Q192:Q193)</f>
+        <v>13</v>
+      </c>
+      <c r="AL193">
+        <f t="shared" ref="AL193" si="1254">SUM(R192:R193)</f>
+        <v>17</v>
+      </c>
+      <c r="AM193">
+        <f t="shared" ref="AM193" si="1255">SUM(S192:S193)</f>
+        <v>5</v>
+      </c>
+      <c r="AN193">
+        <f t="shared" ref="AN193" si="1256">SUM(T192:T193)</f>
+        <v>4</v>
+      </c>
+      <c r="AO193">
+        <f t="shared" ref="AO193" si="1257">SUM(U192:U193)</f>
+        <v>0</v>
+      </c>
+      <c r="AP193">
+        <f t="shared" ref="AP193" si="1258">SUM(V192:V193)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2024</v>
+      </c>
+      <c r="B194" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C194">
+        <v>12</v>
+      </c>
+      <c r="D194" t="s">
+        <v>46</v>
+      </c>
+      <c r="E194" t="str">
+        <f>VLOOKUP(D194,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F194" t="s">
+        <v>13</v>
+      </c>
+      <c r="G194">
+        <v>9</v>
+      </c>
+      <c r="H194">
+        <v>2</v>
+      </c>
+      <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="J194" t="s">
+        <v>37</v>
+      </c>
+      <c r="K194" t="s">
+        <v>31</v>
+      </c>
+      <c r="L194">
+        <f t="shared" si="1202"/>
+        <v>35</v>
+      </c>
+      <c r="M194">
+        <v>5</v>
+      </c>
+      <c r="N194">
+        <v>5</v>
+      </c>
+      <c r="O194">
+        <v>3</v>
+      </c>
+      <c r="P194">
+        <v>4</v>
+      </c>
+      <c r="Q194">
+        <v>9</v>
+      </c>
+      <c r="R194">
+        <v>10</v>
+      </c>
+      <c r="S194">
+        <v>2</v>
+      </c>
+      <c r="T194">
+        <v>3</v>
+      </c>
+      <c r="U194">
+        <v>0</v>
+      </c>
+      <c r="V194">
+        <v>4</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+      <c r="AB194">
+        <v>0</v>
+      </c>
+      <c r="AC194">
+        <v>1</v>
+      </c>
+      <c r="AD194">
+        <v>0</v>
+      </c>
+      <c r="AE194">
+        <v>0</v>
+      </c>
+      <c r="AF194">
+        <v>0</v>
+      </c>
+      <c r="AG194">
+        <v>0</v>
+      </c>
+      <c r="AH194">
+        <v>0</v>
+      </c>
+      <c r="AI194">
+        <f t="shared" ref="AI194" si="1259">SUM(O192:O193)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ194">
+        <f t="shared" ref="AJ194" si="1260">SUM(P192:P193)</f>
+        <v>6</v>
+      </c>
+      <c r="AK194">
+        <f t="shared" ref="AK194" si="1261">SUM(Q192:Q193)</f>
+        <v>13</v>
+      </c>
+      <c r="AL194">
+        <f t="shared" ref="AL194" si="1262">SUM(R192:R193)</f>
+        <v>17</v>
+      </c>
+      <c r="AM194">
+        <f t="shared" ref="AM194" si="1263">SUM(S192:S193)</f>
+        <v>5</v>
+      </c>
+      <c r="AN194">
+        <f t="shared" ref="AN194" si="1264">SUM(T192:T193)</f>
+        <v>4</v>
+      </c>
+      <c r="AO194">
+        <f t="shared" ref="AO194" si="1265">SUM(U192:U193)</f>
+        <v>0</v>
+      </c>
+      <c r="AP194">
+        <f t="shared" ref="AP194" si="1266">SUM(V192:V193)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2024</v>
+      </c>
+      <c r="B195" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C195">
+        <v>13</v>
+      </c>
+      <c r="D195" t="s">
+        <v>46</v>
+      </c>
+      <c r="E195" t="str">
+        <f>VLOOKUP(D195,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F195" t="s">
+        <v>11</v>
+      </c>
+      <c r="G195">
+        <v>5</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>3</v>
+      </c>
+      <c r="J195" t="s">
+        <v>36</v>
+      </c>
+      <c r="K195" t="s">
+        <v>32</v>
+      </c>
+      <c r="L195">
+        <f t="shared" si="1202"/>
+        <v>31</v>
+      </c>
+      <c r="M195">
+        <v>5</v>
+      </c>
+      <c r="N195">
+        <v>4</v>
+      </c>
+      <c r="O195">
+        <v>4</v>
+      </c>
+      <c r="P195">
+        <v>4</v>
+      </c>
+      <c r="Q195">
+        <v>12</v>
+      </c>
+      <c r="R195">
+        <v>0</v>
+      </c>
+      <c r="S195">
+        <v>4</v>
+      </c>
+      <c r="T195">
+        <v>0</v>
+      </c>
+      <c r="U195">
+        <v>0</v>
+      </c>
+      <c r="V195">
+        <v>7</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+      <c r="AB195">
+        <v>0</v>
+      </c>
+      <c r="AC195">
+        <v>0</v>
+      </c>
+      <c r="AD195">
+        <v>0</v>
+      </c>
+      <c r="AE195">
+        <v>1</v>
+      </c>
+      <c r="AF195">
+        <v>0</v>
+      </c>
+      <c r="AG195">
+        <v>0</v>
+      </c>
+      <c r="AH195">
+        <v>1</v>
+      </c>
+      <c r="AI195">
+        <f t="shared" ref="AI195" si="1267">SUM(O195:O196)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ195">
+        <f t="shared" ref="AJ195" si="1268">SUM(P195:P196)</f>
+        <v>7</v>
+      </c>
+      <c r="AK195">
+        <f t="shared" ref="AK195" si="1269">SUM(Q195:Q196)</f>
+        <v>14</v>
+      </c>
+      <c r="AL195">
+        <f t="shared" ref="AL195" si="1270">SUM(R195:R196)</f>
+        <v>6</v>
+      </c>
+      <c r="AM195">
+        <f t="shared" ref="AM195" si="1271">SUM(S195:S196)</f>
+        <v>13</v>
+      </c>
+      <c r="AN195">
+        <f t="shared" ref="AN195" si="1272">SUM(T195:T196)</f>
+        <v>0</v>
+      </c>
+      <c r="AO195">
+        <f t="shared" ref="AO195" si="1273">SUM(U195:U196)</f>
+        <v>5</v>
+      </c>
+      <c r="AP195">
+        <f t="shared" ref="AP195" si="1274">SUM(V195:V196)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2024</v>
+      </c>
+      <c r="B196" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C196">
+        <v>13</v>
+      </c>
+      <c r="D196" t="s">
+        <v>46</v>
+      </c>
+      <c r="E196" t="str">
+        <f>VLOOKUP(D196,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F196" t="s">
+        <v>13</v>
+      </c>
+      <c r="G196">
+        <v>5</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>2</v>
+      </c>
+      <c r="J196" t="s">
+        <v>32</v>
+      </c>
+      <c r="K196" t="s">
+        <v>32</v>
+      </c>
+      <c r="L196">
+        <f t="shared" si="1202"/>
+        <v>32</v>
+      </c>
+      <c r="M196">
+        <v>4</v>
+      </c>
+      <c r="N196">
+        <v>5</v>
+      </c>
+      <c r="O196">
+        <v>5</v>
+      </c>
+      <c r="P196">
+        <v>3</v>
+      </c>
+      <c r="Q196">
+        <v>2</v>
+      </c>
+      <c r="R196">
+        <v>6</v>
+      </c>
+      <c r="S196">
+        <v>9</v>
+      </c>
+      <c r="T196">
+        <v>0</v>
+      </c>
+      <c r="U196">
+        <v>5</v>
+      </c>
+      <c r="V196">
+        <v>2</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+      <c r="AB196">
+        <v>0</v>
+      </c>
+      <c r="AC196">
+        <v>0</v>
+      </c>
+      <c r="AD196">
+        <v>0</v>
+      </c>
+      <c r="AE196">
+        <v>0</v>
+      </c>
+      <c r="AF196">
+        <v>0</v>
+      </c>
+      <c r="AG196">
+        <v>0</v>
+      </c>
+      <c r="AH196">
+        <v>0</v>
+      </c>
+      <c r="AI196">
+        <f t="shared" ref="AI196" si="1275">SUM(O195:O196)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ196">
+        <f t="shared" ref="AJ196" si="1276">SUM(P195:P196)</f>
+        <v>7</v>
+      </c>
+      <c r="AK196">
+        <f t="shared" ref="AK196" si="1277">SUM(Q195:Q196)</f>
+        <v>14</v>
+      </c>
+      <c r="AL196">
+        <f t="shared" ref="AL196" si="1278">SUM(R195:R196)</f>
+        <v>6</v>
+      </c>
+      <c r="AM196">
+        <f t="shared" ref="AM196" si="1279">SUM(S195:S196)</f>
+        <v>13</v>
+      </c>
+      <c r="AN196">
+        <f t="shared" ref="AN196" si="1280">SUM(T195:T196)</f>
+        <v>0</v>
+      </c>
+      <c r="AO196">
+        <f t="shared" ref="AO196" si="1281">SUM(U195:U196)</f>
+        <v>5</v>
+      </c>
+      <c r="AP196">
+        <f t="shared" ref="AP196" si="1282">SUM(V195:V196)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2024</v>
+      </c>
+      <c r="B197" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C197">
+        <v>13</v>
+      </c>
+      <c r="D197" t="s">
+        <v>46</v>
+      </c>
+      <c r="E197" t="str">
+        <f>VLOOKUP(D197,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F197" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197">
+        <v>13</v>
+      </c>
+      <c r="H197">
+        <v>7</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197" t="s">
+        <v>37</v>
+      </c>
+      <c r="K197" t="s">
+        <v>32</v>
+      </c>
+      <c r="L197">
+        <f t="shared" si="1202"/>
+        <v>34</v>
+      </c>
+      <c r="M197">
+        <v>6</v>
+      </c>
+      <c r="N197">
+        <v>5</v>
+      </c>
+      <c r="O197">
+        <v>7</v>
+      </c>
+      <c r="P197">
+        <v>3</v>
+      </c>
+      <c r="Q197">
+        <v>4</v>
+      </c>
+      <c r="R197">
+        <v>6</v>
+      </c>
+      <c r="S197">
+        <v>5</v>
+      </c>
+      <c r="T197">
+        <v>0</v>
+      </c>
+      <c r="U197">
+        <v>5</v>
+      </c>
+      <c r="V197">
+        <v>4</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
+        <v>0</v>
+      </c>
+      <c r="AB197">
+        <v>0</v>
+      </c>
+      <c r="AC197">
+        <v>0</v>
+      </c>
+      <c r="AD197">
+        <v>1</v>
+      </c>
+      <c r="AE197">
+        <v>0</v>
+      </c>
+      <c r="AF197">
+        <v>1</v>
+      </c>
+      <c r="AG197">
+        <v>0</v>
+      </c>
+      <c r="AH197">
+        <v>0</v>
+      </c>
+      <c r="AI197">
+        <f t="shared" ref="AI197" si="1283">SUM(O195:O196)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ197">
+        <f t="shared" ref="AJ197" si="1284">SUM(P195:P196)</f>
+        <v>7</v>
+      </c>
+      <c r="AK197">
+        <f t="shared" ref="AK197" si="1285">SUM(Q195:Q196)</f>
+        <v>14</v>
+      </c>
+      <c r="AL197">
+        <f t="shared" ref="AL197" si="1286">SUM(R195:R196)</f>
+        <v>6</v>
+      </c>
+      <c r="AM197">
+        <f t="shared" ref="AM197" si="1287">SUM(S195:S196)</f>
+        <v>13</v>
+      </c>
+      <c r="AN197">
+        <f t="shared" ref="AN197" si="1288">SUM(T195:T196)</f>
+        <v>0</v>
+      </c>
+      <c r="AO197">
+        <f t="shared" ref="AO197" si="1289">SUM(U195:U196)</f>
+        <v>5</v>
+      </c>
+      <c r="AP197">
+        <f t="shared" ref="AP197" si="1290">SUM(V195:V196)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2024</v>
+      </c>
+      <c r="B198" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C198">
+        <v>14</v>
+      </c>
+      <c r="D198" t="s">
+        <v>46</v>
+      </c>
+      <c r="E198" t="str">
+        <f>VLOOKUP(D198,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F198" t="s">
+        <v>11</v>
+      </c>
+      <c r="G198">
+        <v>13</v>
+      </c>
+      <c r="H198">
+        <v>4</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198" t="s">
+        <v>36</v>
+      </c>
+      <c r="K198" t="s">
+        <v>31</v>
+      </c>
+      <c r="L198">
+        <f t="shared" si="1202"/>
+        <v>30</v>
+      </c>
+      <c r="M198">
+        <v>6</v>
+      </c>
+      <c r="N198">
+        <v>5</v>
+      </c>
+      <c r="O198">
+        <v>4</v>
+      </c>
+      <c r="P198">
+        <v>5</v>
+      </c>
+      <c r="Q198">
+        <v>4</v>
+      </c>
+      <c r="R198">
+        <v>10</v>
+      </c>
+      <c r="S198">
+        <v>3</v>
+      </c>
+      <c r="T198">
+        <v>0</v>
+      </c>
+      <c r="U198">
+        <v>0</v>
+      </c>
+      <c r="V198">
+        <v>4</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
+        <v>0</v>
+      </c>
+      <c r="AB198">
+        <v>0</v>
+      </c>
+      <c r="AC198">
+        <v>0</v>
+      </c>
+      <c r="AD198">
+        <v>0</v>
+      </c>
+      <c r="AE198">
+        <v>0</v>
+      </c>
+      <c r="AF198">
+        <v>1</v>
+      </c>
+      <c r="AG198">
+        <v>0</v>
+      </c>
+      <c r="AH198">
+        <v>0</v>
+      </c>
+      <c r="AI198">
+        <f t="shared" ref="AI198" si="1291">SUM(O198:O199)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ198">
+        <f t="shared" ref="AJ198" si="1292">SUM(P198:P199)</f>
+        <v>7</v>
+      </c>
+      <c r="AK198">
+        <f t="shared" ref="AK198" si="1293">SUM(Q198:Q199)</f>
+        <v>4</v>
+      </c>
+      <c r="AL198">
+        <f t="shared" ref="AL198" si="1294">SUM(R198:R199)</f>
+        <v>33</v>
+      </c>
+      <c r="AM198">
+        <f t="shared" ref="AM198" si="1295">SUM(S198:S199)</f>
+        <v>7</v>
+      </c>
+      <c r="AN198">
+        <f t="shared" ref="AN198" si="1296">SUM(T198:T199)</f>
+        <v>0</v>
+      </c>
+      <c r="AO198">
+        <f t="shared" ref="AO198" si="1297">SUM(U198:U199)</f>
+        <v>4</v>
+      </c>
+      <c r="AP198">
+        <f t="shared" ref="AP198" si="1298">SUM(V198:V199)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2024</v>
+      </c>
+      <c r="B199" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C199">
+        <v>14</v>
+      </c>
+      <c r="D199" t="s">
+        <v>46</v>
+      </c>
+      <c r="E199" t="str">
+        <f>VLOOKUP(D199,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F199" t="s">
+        <v>12</v>
+      </c>
+      <c r="G199">
+        <v>11</v>
+      </c>
+      <c r="H199">
+        <v>3</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199" t="s">
+        <v>32</v>
+      </c>
+      <c r="K199" t="s">
+        <v>31</v>
+      </c>
+      <c r="L199">
+        <f t="shared" si="1202"/>
+        <v>36</v>
+      </c>
+      <c r="M199">
+        <v>6</v>
+      </c>
+      <c r="N199">
+        <v>4</v>
+      </c>
+      <c r="O199">
+        <v>3</v>
+      </c>
+      <c r="P199">
+        <v>2</v>
+      </c>
+      <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="R199">
+        <v>23</v>
+      </c>
+      <c r="S199">
+        <v>4</v>
+      </c>
+      <c r="T199">
+        <v>0</v>
+      </c>
+      <c r="U199">
+        <v>4</v>
+      </c>
+      <c r="V199">
+        <v>0</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
+      </c>
+      <c r="AB199">
+        <v>0</v>
+      </c>
+      <c r="AC199">
+        <v>1</v>
+      </c>
+      <c r="AD199">
+        <v>0</v>
+      </c>
+      <c r="AE199">
+        <v>0</v>
+      </c>
+      <c r="AF199">
+        <v>0</v>
+      </c>
+      <c r="AG199">
+        <v>0</v>
+      </c>
+      <c r="AH199">
+        <v>1</v>
+      </c>
+      <c r="AI199">
+        <f t="shared" ref="AI199" si="1299">SUM(O198:O199)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ199">
+        <f t="shared" ref="AJ199" si="1300">SUM(P198:P199)</f>
+        <v>7</v>
+      </c>
+      <c r="AK199">
+        <f t="shared" ref="AK199" si="1301">SUM(Q198:Q199)</f>
+        <v>4</v>
+      </c>
+      <c r="AL199">
+        <f t="shared" ref="AL199" si="1302">SUM(R198:R199)</f>
+        <v>33</v>
+      </c>
+      <c r="AM199">
+        <f t="shared" ref="AM199" si="1303">SUM(S198:S199)</f>
+        <v>7</v>
+      </c>
+      <c r="AN199">
+        <f t="shared" ref="AN199" si="1304">SUM(T198:T199)</f>
+        <v>0</v>
+      </c>
+      <c r="AO199">
+        <f t="shared" ref="AO199" si="1305">SUM(U198:U199)</f>
+        <v>4</v>
+      </c>
+      <c r="AP199">
+        <f t="shared" ref="AP199" si="1306">SUM(V198:V199)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2024</v>
+      </c>
+      <c r="B200" s="5">
+        <v>45436</v>
+      </c>
+      <c r="C200">
+        <v>14</v>
+      </c>
+      <c r="D200" t="s">
+        <v>46</v>
+      </c>
+      <c r="E200" t="str">
+        <f>VLOOKUP(D200,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F200" t="s">
+        <v>13</v>
+      </c>
+      <c r="G200">
+        <v>11</v>
+      </c>
+      <c r="H200">
+        <v>4</v>
+      </c>
+      <c r="I200">
+        <v>3</v>
+      </c>
+      <c r="J200" t="s">
+        <v>37</v>
+      </c>
+      <c r="K200" t="s">
+        <v>31</v>
+      </c>
+      <c r="L200">
+        <f t="shared" si="1202"/>
+        <v>36</v>
+      </c>
+      <c r="M200">
+        <v>6</v>
+      </c>
+      <c r="N200">
+        <v>4</v>
+      </c>
+      <c r="O200">
+        <v>8</v>
+      </c>
+      <c r="P200">
+        <v>4</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>18</v>
+      </c>
+      <c r="S200">
+        <v>3</v>
+      </c>
+      <c r="T200">
+        <v>0</v>
+      </c>
+      <c r="U200">
+        <v>3</v>
+      </c>
+      <c r="V200">
+        <v>0</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+      <c r="AB200">
+        <v>0</v>
+      </c>
+      <c r="AC200">
+        <v>0</v>
+      </c>
+      <c r="AD200">
+        <v>1</v>
+      </c>
+      <c r="AE200">
+        <v>0</v>
+      </c>
+      <c r="AF200">
+        <v>0</v>
+      </c>
+      <c r="AG200">
+        <v>0</v>
+      </c>
+      <c r="AH200">
+        <v>1</v>
+      </c>
+      <c r="AI200">
+        <f t="shared" ref="AI200" si="1307">SUM(O198:O199)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ200">
+        <f t="shared" ref="AJ200" si="1308">SUM(P198:P199)</f>
+        <v>7</v>
+      </c>
+      <c r="AK200">
+        <f t="shared" ref="AK200" si="1309">SUM(Q198:Q199)</f>
+        <v>4</v>
+      </c>
+      <c r="AL200">
+        <f t="shared" ref="AL200" si="1310">SUM(R198:R199)</f>
+        <v>33</v>
+      </c>
+      <c r="AM200">
+        <f t="shared" ref="AM200" si="1311">SUM(S198:S199)</f>
+        <v>7</v>
+      </c>
+      <c r="AN200">
+        <f t="shared" ref="AN200" si="1312">SUM(T198:T199)</f>
+        <v>0</v>
+      </c>
+      <c r="AO200">
+        <f t="shared" ref="AO200" si="1313">SUM(U198:U199)</f>
+        <v>4</v>
+      </c>
+      <c r="AP200">
+        <f t="shared" ref="AP200" si="1314">SUM(V198:V199)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AP113" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
+  <autoFilter ref="A2:AP191" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W177:Z1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A1CC3C0\Documents\Scripts\dev\catan_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Documents\CatanData\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5E53FD-4DEC-4BD5-870D-902E928D486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6277CB-CCD4-42C0-BB53-26FC44691B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -314,9 +314,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -354,7 +354,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -460,7 +460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -602,7 +602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -610,50 +610,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP200"/>
+  <dimension ref="A1:AP203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J179" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J187" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M199" sqref="M199"/>
+      <selection pane="bottomRight" activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" customWidth="1"/>
+    <col min="13" max="14" width="12.26953125" customWidth="1"/>
+    <col min="15" max="15" width="16.453125" customWidth="1"/>
     <col min="16" max="16" width="19" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" customWidth="1"/>
-    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.54296875" customWidth="1"/>
+    <col min="23" max="23" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
@@ -681,7 +681,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -809,7 +809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -944,7 +944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2022</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2022</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2022</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2022</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2022</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2022</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2022</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2022</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2022</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2022</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2022</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2022</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2022</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2022</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2022</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2022</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2022</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2022</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2022</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2022</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2022</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2022</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2022</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2022</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2022</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2022</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2022</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2022</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2022</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2022</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2022</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2022</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2022</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2022</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2022</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2022</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2022</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2022</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2022</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2022</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2022</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2022</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2022</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2022</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2022</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2022</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2022</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2022</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2022</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2022</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2022</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2022</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2022</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2022</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2022</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2022</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2022</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>2022</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2022</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2022</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2022</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2022</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>2022</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2022</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2022</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2022</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2022</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2022</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2022</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>2023</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>2023</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>2023</v>
       </c>
@@ -13373,7 +13373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>2023</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2023</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>2023</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>2023</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>2023</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>2023</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>2023</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>2023</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>2023</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>2023</v>
       </c>
@@ -14753,7 +14753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>2023</v>
       </c>
@@ -14891,7 +14891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>2023</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>2023</v>
       </c>
@@ -15167,7 +15167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>2023</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>2023</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>2023</v>
       </c>
@@ -15581,7 +15581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>2023</v>
       </c>
@@ -15719,7 +15719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>2023</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2023</v>
       </c>
@@ -15995,7 +15995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>2023</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>2023</v>
       </c>
@@ -16271,7 +16271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>2023</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>2023</v>
       </c>
@@ -16547,7 +16547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>2023</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>2023</v>
       </c>
@@ -16718,7 +16718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>2023</v>
       </c>
@@ -16751,7 +16751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>2023</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>2023</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>2023</v>
       </c>
@@ -17060,7 +17060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>2023</v>
       </c>
@@ -17198,7 +17198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>2023</v>
       </c>
@@ -17336,7 +17336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>2023</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>2023</v>
       </c>
@@ -17612,7 +17612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>2023</v>
       </c>
@@ -17750,7 +17750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>2023</v>
       </c>
@@ -17888,7 +17888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>2023</v>
       </c>
@@ -18026,7 +18026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>2023</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>2023</v>
       </c>
@@ -18302,7 +18302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>2023</v>
       </c>
@@ -18440,7 +18440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>2023</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>2023</v>
       </c>
@@ -18716,7 +18716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>2023</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>2023</v>
       </c>
@@ -18992,7 +18992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>2023</v>
       </c>
@@ -19130,7 +19130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>2023</v>
       </c>
@@ -19268,7 +19268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>2023</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>2023</v>
       </c>
@@ -19544,7 +19544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>2023</v>
       </c>
@@ -19682,7 +19682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>2023</v>
       </c>
@@ -19820,7 +19820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>2023</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>2023</v>
       </c>
@@ -20096,7 +20096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>2023</v>
       </c>
@@ -20234,7 +20234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>2023</v>
       </c>
@@ -20372,7 +20372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>2023</v>
       </c>
@@ -20510,7 +20510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>2023</v>
       </c>
@@ -20648,7 +20648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>2023</v>
       </c>
@@ -20786,7 +20786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>2023</v>
       </c>
@@ -20924,7 +20924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>2023</v>
       </c>
@@ -21062,7 +21062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>2023</v>
       </c>
@@ -21200,7 +21200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>2023</v>
       </c>
@@ -21338,7 +21338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>2023</v>
       </c>
@@ -21476,7 +21476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>2023</v>
       </c>
@@ -21614,7 +21614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>2023</v>
       </c>
@@ -21752,7 +21752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>2024</v>
       </c>
@@ -21890,7 +21890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>2024</v>
       </c>
@@ -22028,7 +22028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>2024</v>
       </c>
@@ -22166,7 +22166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>2024</v>
       </c>
@@ -22304,7 +22304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>2024</v>
       </c>
@@ -22442,7 +22442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>2024</v>
       </c>
@@ -22580,7 +22580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>2024</v>
       </c>
@@ -22718,7 +22718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>2024</v>
       </c>
@@ -22856,7 +22856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>2024</v>
       </c>
@@ -22994,7 +22994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>2024</v>
       </c>
@@ -23132,7 +23132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>2024</v>
       </c>
@@ -23270,7 +23270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>2024</v>
       </c>
@@ -23408,7 +23408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>2024</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>2024</v>
       </c>
@@ -23684,7 +23684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>2024</v>
       </c>
@@ -23822,7 +23822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>2024</v>
       </c>
@@ -23960,7 +23960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>2024</v>
       </c>
@@ -24098,7 +24098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>2024</v>
       </c>
@@ -24236,7 +24236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>2024</v>
       </c>
@@ -24374,7 +24374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>2024</v>
       </c>
@@ -24512,7 +24512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>2024</v>
       </c>
@@ -24650,7 +24650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>2024</v>
       </c>
@@ -24788,7 +24788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>2024</v>
       </c>
@@ -24926,7 +24926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>2024</v>
       </c>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>2024</v>
       </c>
@@ -25202,7 +25202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>2024</v>
       </c>
@@ -25340,7 +25340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>2024</v>
       </c>
@@ -25478,7 +25478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>2024</v>
       </c>
@@ -25616,7 +25616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>2024</v>
       </c>
@@ -25754,7 +25754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>2024</v>
       </c>
@@ -25892,7 +25892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>2024</v>
       </c>
@@ -26030,7 +26030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>2024</v>
       </c>
@@ -26168,7 +26168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>2024</v>
       </c>
@@ -26306,7 +26306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>2024</v>
       </c>
@@ -26444,7 +26444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>2024</v>
       </c>
@@ -26582,7 +26582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>2024</v>
       </c>
@@ -26720,7 +26720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>2024</v>
       </c>
@@ -26858,7 +26858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>2024</v>
       </c>
@@ -26996,7 +26996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>2024</v>
       </c>
@@ -27134,7 +27134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>2024</v>
       </c>
@@ -27272,7 +27272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>2024</v>
       </c>
@@ -27410,7 +27410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>2024</v>
       </c>
@@ -27546,6 +27546,21 @@
       <c r="AP200">
         <f t="shared" ref="AP200" si="1314">SUM(V198:V199)</f>
         <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="202" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="203" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
@@ -27593,14 +27608,14 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -27617,7 +27632,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -27634,7 +27649,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -27651,7 +27666,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I4" t="s">
         <v>58</v>
       </c>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Documents\CatanData\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6277CB-CCD4-42C0-BB53-26FC44691B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CA1C44-3207-403D-A375-C5841E978469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$218</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="67">
   <si>
     <t>season</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>54.788890, 4.135175</t>
+  </si>
+  <si>
+    <t>Frafjord</t>
+  </si>
+  <si>
+    <t>Bergen (Nordnesveien)</t>
   </si>
 </sst>
 </file>
@@ -610,18 +616,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP203"/>
+  <dimension ref="A1:AP227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J187" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J206" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A204" sqref="A204"/>
+      <selection pane="bottomRight" activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.1796875" customWidth="1"/>
@@ -23396,15 +23402,15 @@
         <v>20</v>
       </c>
       <c r="AN170">
-        <f t="shared" ref="AN170" si="1095">SUM(T168:T170)</f>
+        <f>SUM(T168:T170)</f>
         <v>11</v>
       </c>
       <c r="AO170">
-        <f t="shared" ref="AO170" si="1096">SUM(U168:U170)</f>
+        <f t="shared" ref="AO170" si="1095">SUM(U168:U170)</f>
         <v>10</v>
       </c>
       <c r="AP170">
-        <f t="shared" ref="AP170" si="1097">SUM(V168:V170)</f>
+        <f t="shared" ref="AP170" si="1096">SUM(V168:V170)</f>
         <v>11</v>
       </c>
     </row>
@@ -23518,31 +23524,31 @@
         <v>15</v>
       </c>
       <c r="AJ171">
-        <f t="shared" ref="AJ171" si="1098">SUM(P171:P173)</f>
+        <f t="shared" ref="AJ171" si="1097">SUM(P171:P173)</f>
         <v>18</v>
       </c>
       <c r="AK171">
-        <f t="shared" ref="AK171" si="1099">SUM(Q171:Q173)</f>
+        <f t="shared" ref="AK171" si="1098">SUM(Q171:Q173)</f>
         <v>16</v>
       </c>
       <c r="AL171">
-        <f t="shared" ref="AL171" si="1100">SUM(R171:R173)</f>
+        <f t="shared" ref="AL171" si="1099">SUM(R171:R173)</f>
         <v>21</v>
       </c>
       <c r="AM171">
-        <f t="shared" ref="AM171" si="1101">SUM(S171:S173)</f>
+        <f t="shared" ref="AM171" si="1100">SUM(S171:S173)</f>
         <v>7</v>
       </c>
       <c r="AN171">
-        <f t="shared" ref="AN171" si="1102">SUM(T171:T173)</f>
+        <f t="shared" ref="AN171" si="1101">SUM(T171:T173)</f>
         <v>10</v>
       </c>
       <c r="AO171">
-        <f t="shared" ref="AO171" si="1103">SUM(U171:U173)</f>
+        <f t="shared" ref="AO171" si="1102">SUM(U171:U173)</f>
         <v>2</v>
       </c>
       <c r="AP171">
-        <f t="shared" ref="AP171" si="1104">SUM(V171:V173)</f>
+        <f t="shared" ref="AP171" si="1103">SUM(V171:V173)</f>
         <v>4</v>
       </c>
     </row>
@@ -23656,31 +23662,31 @@
         <v>15</v>
       </c>
       <c r="AJ172">
-        <f t="shared" ref="AJ172" si="1105">SUM(P171:P173)</f>
+        <f t="shared" ref="AJ172" si="1104">SUM(P171:P173)</f>
         <v>18</v>
       </c>
       <c r="AK172">
-        <f t="shared" ref="AK172" si="1106">SUM(Q171:Q173)</f>
+        <f t="shared" ref="AK172" si="1105">SUM(Q171:Q173)</f>
         <v>16</v>
       </c>
       <c r="AL172">
-        <f t="shared" ref="AL172" si="1107">SUM(R171:R173)</f>
+        <f t="shared" ref="AL172" si="1106">SUM(R171:R173)</f>
         <v>21</v>
       </c>
       <c r="AM172">
-        <f t="shared" ref="AM172" si="1108">SUM(S171:S173)</f>
+        <f t="shared" ref="AM172" si="1107">SUM(S171:S173)</f>
         <v>7</v>
       </c>
       <c r="AN172">
-        <f t="shared" ref="AN172" si="1109">SUM(T171:T173)</f>
+        <f t="shared" ref="AN172" si="1108">SUM(T171:T173)</f>
         <v>10</v>
       </c>
       <c r="AO172">
-        <f t="shared" ref="AO172" si="1110">SUM(U171:U173)</f>
+        <f t="shared" ref="AO172" si="1109">SUM(U171:U173)</f>
         <v>2</v>
       </c>
       <c r="AP172">
-        <f t="shared" ref="AP172" si="1111">SUM(V171:V173)</f>
+        <f t="shared" ref="AP172" si="1110">SUM(V171:V173)</f>
         <v>4</v>
       </c>
     </row>
@@ -23794,31 +23800,31 @@
         <v>15</v>
       </c>
       <c r="AJ173">
-        <f t="shared" ref="AJ173" si="1112">SUM(P171:P173)</f>
+        <f t="shared" ref="AJ173" si="1111">SUM(P171:P173)</f>
         <v>18</v>
       </c>
       <c r="AK173">
-        <f t="shared" ref="AK173" si="1113">SUM(Q171:Q173)</f>
+        <f t="shared" ref="AK173" si="1112">SUM(Q171:Q173)</f>
         <v>16</v>
       </c>
       <c r="AL173">
-        <f t="shared" ref="AL173" si="1114">SUM(R171:R173)</f>
+        <f t="shared" ref="AL173" si="1113">SUM(R171:R173)</f>
         <v>21</v>
       </c>
       <c r="AM173">
-        <f t="shared" ref="AM173" si="1115">SUM(S171:S173)</f>
+        <f t="shared" ref="AM173" si="1114">SUM(S171:S173)</f>
         <v>7</v>
       </c>
       <c r="AN173">
-        <f t="shared" ref="AN173" si="1116">SUM(T171:T173)</f>
+        <f>SUM(T171:T173)</f>
         <v>10</v>
       </c>
       <c r="AO173">
-        <f t="shared" ref="AO173" si="1117">SUM(U171:U173)</f>
+        <f t="shared" ref="AO173" si="1115">SUM(U171:U173)</f>
         <v>2</v>
       </c>
       <c r="AP173">
-        <f t="shared" ref="AP173" si="1118">SUM(V171:V173)</f>
+        <f t="shared" ref="AP173" si="1116">SUM(V171:V173)</f>
         <v>4</v>
       </c>
     </row>
@@ -23928,36 +23934,36 @@
         <v>0</v>
       </c>
       <c r="AI174">
-        <f t="shared" ref="AI174:AP174" si="1119">SUM(O174:O175)</f>
-        <v>5</v>
+        <f>SUM(O174:O176)</f>
+        <v>8</v>
       </c>
       <c r="AJ174">
-        <f t="shared" si="1119"/>
-        <v>22</v>
+        <f t="shared" ref="AJ174" si="1117">SUM(P174:P176)</f>
+        <v>25</v>
       </c>
       <c r="AK174">
-        <f t="shared" si="1119"/>
-        <v>4</v>
+        <f t="shared" ref="AK174" si="1118">SUM(Q174:Q176)</f>
+        <v>12</v>
       </c>
       <c r="AL174">
-        <f t="shared" si="1119"/>
+        <f t="shared" ref="AL174" si="1119">SUM(R174:R176)</f>
+        <v>10</v>
+      </c>
+      <c r="AM174">
+        <f t="shared" ref="AM174" si="1120">SUM(S174:S176)</f>
+        <v>15</v>
+      </c>
+      <c r="AN174">
+        <f t="shared" ref="AN174" si="1121">SUM(T174:T176)</f>
+        <v>3</v>
+      </c>
+      <c r="AO174">
+        <f t="shared" ref="AO174" si="1122">SUM(U174:U176)</f>
         <v>8</v>
       </c>
-      <c r="AM174">
-        <f t="shared" si="1119"/>
-        <v>10</v>
-      </c>
-      <c r="AN174">
-        <f t="shared" si="1119"/>
-        <v>0</v>
-      </c>
-      <c r="AO174">
-        <f t="shared" si="1119"/>
-        <v>8</v>
-      </c>
       <c r="AP174">
-        <f t="shared" si="1119"/>
-        <v>4</v>
+        <f t="shared" ref="AP174" si="1123">SUM(V174:V176)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:42" x14ac:dyDescent="0.35">
@@ -24066,36 +24072,36 @@
         <v>0</v>
       </c>
       <c r="AI175">
-        <f t="shared" ref="AI175:AP175" si="1120">SUM(O174:O175)</f>
-        <v>5</v>
+        <f>SUM(O174:O176)</f>
+        <v>8</v>
       </c>
       <c r="AJ175">
-        <f t="shared" si="1120"/>
-        <v>22</v>
+        <f t="shared" ref="AJ175" si="1124">SUM(P174:P176)</f>
+        <v>25</v>
       </c>
       <c r="AK175">
-        <f t="shared" si="1120"/>
-        <v>4</v>
+        <f t="shared" ref="AK175" si="1125">SUM(Q174:Q176)</f>
+        <v>12</v>
       </c>
       <c r="AL175">
-        <f t="shared" si="1120"/>
+        <f t="shared" ref="AL175" si="1126">SUM(R174:R176)</f>
+        <v>10</v>
+      </c>
+      <c r="AM175">
+        <f t="shared" ref="AM175" si="1127">SUM(S174:S176)</f>
+        <v>15</v>
+      </c>
+      <c r="AN175">
+        <f t="shared" ref="AN175" si="1128">SUM(T174:T176)</f>
+        <v>3</v>
+      </c>
+      <c r="AO175">
+        <f t="shared" ref="AO175" si="1129">SUM(U174:U176)</f>
         <v>8</v>
       </c>
-      <c r="AM175">
-        <f t="shared" si="1120"/>
-        <v>10</v>
-      </c>
-      <c r="AN175">
-        <f t="shared" si="1120"/>
-        <v>0</v>
-      </c>
-      <c r="AO175">
-        <f t="shared" si="1120"/>
-        <v>8</v>
-      </c>
       <c r="AP175">
-        <f t="shared" si="1120"/>
-        <v>4</v>
+        <f t="shared" ref="AP175" si="1130">SUM(V174:V176)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:42" x14ac:dyDescent="0.35">
@@ -24204,36 +24210,36 @@
         <v>0</v>
       </c>
       <c r="AI176">
-        <f t="shared" ref="AI176:AP176" si="1121">SUM(O174:O175)</f>
-        <v>5</v>
+        <f>SUM(O174:O176)</f>
+        <v>8</v>
       </c>
       <c r="AJ176">
-        <f t="shared" si="1121"/>
-        <v>22</v>
+        <f t="shared" ref="AJ176" si="1131">SUM(P174:P176)</f>
+        <v>25</v>
       </c>
       <c r="AK176">
-        <f t="shared" si="1121"/>
-        <v>4</v>
+        <f t="shared" ref="AK176" si="1132">SUM(Q174:Q176)</f>
+        <v>12</v>
       </c>
       <c r="AL176">
-        <f t="shared" si="1121"/>
+        <f t="shared" ref="AL176" si="1133">SUM(R174:R176)</f>
+        <v>10</v>
+      </c>
+      <c r="AM176">
+        <f t="shared" ref="AM176" si="1134">SUM(S174:S176)</f>
+        <v>15</v>
+      </c>
+      <c r="AN176">
+        <f>SUM(T174:T176)</f>
+        <v>3</v>
+      </c>
+      <c r="AO176">
+        <f t="shared" ref="AO176" si="1135">SUM(U174:U176)</f>
         <v>8</v>
       </c>
-      <c r="AM176">
-        <f t="shared" si="1121"/>
-        <v>10</v>
-      </c>
-      <c r="AN176">
-        <f t="shared" si="1121"/>
-        <v>0</v>
-      </c>
-      <c r="AO176">
-        <f t="shared" si="1121"/>
-        <v>8</v>
-      </c>
       <c r="AP176">
-        <f t="shared" si="1121"/>
-        <v>4</v>
+        <f t="shared" ref="AP176" si="1136">SUM(V174:V176)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:42" x14ac:dyDescent="0.35">
@@ -24342,36 +24348,36 @@
         <v>0</v>
       </c>
       <c r="AI177">
-        <f t="shared" ref="AI177" si="1122">SUM(O177:O178)</f>
-        <v>12</v>
+        <f>SUM(O177:O179)</f>
+        <v>20</v>
       </c>
       <c r="AJ177">
-        <f t="shared" ref="AJ177" si="1123">SUM(P177:P178)</f>
-        <v>13</v>
+        <f t="shared" ref="AJ177" si="1137">SUM(P177:P179)</f>
+        <v>17</v>
       </c>
       <c r="AK177">
-        <f t="shared" ref="AK177" si="1124">SUM(Q177:Q178)</f>
-        <v>3</v>
+        <f t="shared" ref="AK177" si="1138">SUM(Q177:Q179)</f>
+        <v>6</v>
       </c>
       <c r="AL177">
-        <f t="shared" ref="AL177" si="1125">SUM(R177:R178)</f>
-        <v>5</v>
+        <f t="shared" ref="AL177" si="1139">SUM(R177:R179)</f>
+        <v>7</v>
       </c>
       <c r="AM177">
-        <f t="shared" ref="AM177" si="1126">SUM(S177:S178)</f>
-        <v>12</v>
+        <f t="shared" ref="AM177" si="1140">SUM(S177:S179)</f>
+        <v>16</v>
       </c>
       <c r="AN177">
-        <f t="shared" ref="AN177" si="1127">SUM(T177:T178)</f>
-        <v>9</v>
+        <f t="shared" ref="AN177" si="1141">SUM(T177:T179)</f>
+        <v>14</v>
       </c>
       <c r="AO177">
-        <f t="shared" ref="AO177" si="1128">SUM(U177:U178)</f>
-        <v>12</v>
+        <f t="shared" ref="AO177" si="1142">SUM(U177:U179)</f>
+        <v>16</v>
       </c>
       <c r="AP177">
-        <f t="shared" ref="AP177" si="1129">SUM(V177:V178)</f>
-        <v>0</v>
+        <f t="shared" ref="AP177" si="1143">SUM(V177:V179)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:42" x14ac:dyDescent="0.35">
@@ -24480,36 +24486,36 @@
         <v>1</v>
       </c>
       <c r="AI178">
-        <f t="shared" ref="AI178" si="1130">SUM(O177:O178)</f>
-        <v>12</v>
+        <f>SUM(O177:O179)</f>
+        <v>20</v>
       </c>
       <c r="AJ178">
-        <f t="shared" ref="AJ178" si="1131">SUM(P177:P178)</f>
-        <v>13</v>
+        <f t="shared" ref="AJ178" si="1144">SUM(P177:P179)</f>
+        <v>17</v>
       </c>
       <c r="AK178">
-        <f t="shared" ref="AK178" si="1132">SUM(Q177:Q178)</f>
-        <v>3</v>
+        <f t="shared" ref="AK178" si="1145">SUM(Q177:Q179)</f>
+        <v>6</v>
       </c>
       <c r="AL178">
-        <f t="shared" ref="AL178" si="1133">SUM(R177:R178)</f>
-        <v>5</v>
+        <f t="shared" ref="AL178" si="1146">SUM(R177:R179)</f>
+        <v>7</v>
       </c>
       <c r="AM178">
-        <f t="shared" ref="AM178" si="1134">SUM(S177:S178)</f>
-        <v>12</v>
+        <f t="shared" ref="AM178" si="1147">SUM(S177:S179)</f>
+        <v>16</v>
       </c>
       <c r="AN178">
-        <f t="shared" ref="AN178" si="1135">SUM(T177:T178)</f>
-        <v>9</v>
+        <f t="shared" ref="AN178" si="1148">SUM(T177:T179)</f>
+        <v>14</v>
       </c>
       <c r="AO178">
-        <f t="shared" ref="AO178" si="1136">SUM(U177:U178)</f>
-        <v>12</v>
+        <f t="shared" ref="AO178" si="1149">SUM(U177:U179)</f>
+        <v>16</v>
       </c>
       <c r="AP178">
-        <f t="shared" ref="AP178" si="1137">SUM(V177:V178)</f>
-        <v>0</v>
+        <f t="shared" ref="AP178" si="1150">SUM(V177:V179)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:42" x14ac:dyDescent="0.35">
@@ -24618,36 +24624,36 @@
         <v>0</v>
       </c>
       <c r="AI179">
-        <f t="shared" ref="AI179" si="1138">SUM(O177:O178)</f>
-        <v>12</v>
+        <f>SUM(O177:O179)</f>
+        <v>20</v>
       </c>
       <c r="AJ179">
-        <f t="shared" ref="AJ179" si="1139">SUM(P177:P178)</f>
-        <v>13</v>
+        <f t="shared" ref="AJ179" si="1151">SUM(P177:P179)</f>
+        <v>17</v>
       </c>
       <c r="AK179">
-        <f t="shared" ref="AK179" si="1140">SUM(Q177:Q178)</f>
-        <v>3</v>
+        <f t="shared" ref="AK179" si="1152">SUM(Q177:Q179)</f>
+        <v>6</v>
       </c>
       <c r="AL179">
-        <f t="shared" ref="AL179" si="1141">SUM(R177:R178)</f>
-        <v>5</v>
+        <f t="shared" ref="AL179" si="1153">SUM(R177:R179)</f>
+        <v>7</v>
       </c>
       <c r="AM179">
-        <f t="shared" ref="AM179" si="1142">SUM(S177:S178)</f>
-        <v>12</v>
+        <f t="shared" ref="AM179" si="1154">SUM(S177:S179)</f>
+        <v>16</v>
       </c>
       <c r="AN179">
-        <f t="shared" ref="AN179" si="1143">SUM(T177:T178)</f>
-        <v>9</v>
+        <f>SUM(T177:T179)</f>
+        <v>14</v>
       </c>
       <c r="AO179">
-        <f t="shared" ref="AO179" si="1144">SUM(U177:U178)</f>
-        <v>12</v>
+        <f t="shared" ref="AO179" si="1155">SUM(U177:U179)</f>
+        <v>16</v>
       </c>
       <c r="AP179">
-        <f t="shared" ref="AP179" si="1145">SUM(V177:V178)</f>
-        <v>0</v>
+        <f t="shared" ref="AP179" si="1156">SUM(V177:V179)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:42" x14ac:dyDescent="0.35">
@@ -24756,36 +24762,36 @@
         <v>0</v>
       </c>
       <c r="AI180">
-        <f t="shared" ref="AI180" si="1146">SUM(O180:O181)</f>
+        <f>SUM(O180:O182)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ180">
+        <f t="shared" ref="AJ180" si="1157">SUM(P180:P182)</f>
+        <v>28</v>
+      </c>
+      <c r="AK180">
+        <f t="shared" ref="AK180" si="1158">SUM(Q180:Q182)</f>
+        <v>13</v>
+      </c>
+      <c r="AL180">
+        <f t="shared" ref="AL180" si="1159">SUM(R180:R182)</f>
+        <v>5</v>
+      </c>
+      <c r="AM180">
+        <f t="shared" ref="AM180" si="1160">SUM(S180:S182)</f>
         <v>10</v>
       </c>
-      <c r="AJ180">
-        <f t="shared" ref="AJ180" si="1147">SUM(P180:P181)</f>
-        <v>23</v>
-      </c>
-      <c r="AK180">
-        <f t="shared" ref="AK180" si="1148">SUM(Q180:Q181)</f>
-        <v>8</v>
-      </c>
-      <c r="AL180">
-        <f t="shared" ref="AL180" si="1149">SUM(R180:R181)</f>
-        <v>5</v>
-      </c>
-      <c r="AM180">
-        <f t="shared" ref="AM180" si="1150">SUM(S180:S181)</f>
-        <v>6</v>
-      </c>
       <c r="AN180">
-        <f t="shared" ref="AN180" si="1151">SUM(T180:T181)</f>
+        <f t="shared" ref="AN180" si="1161">SUM(T180:T182)</f>
+        <v>13</v>
+      </c>
+      <c r="AO180">
+        <f t="shared" ref="AO180" si="1162">SUM(U180:U182)</f>
         <v>10</v>
       </c>
-      <c r="AO180">
-        <f t="shared" ref="AO180" si="1152">SUM(U180:U181)</f>
-        <v>6</v>
-      </c>
       <c r="AP180">
-        <f t="shared" ref="AP180" si="1153">SUM(V180:V181)</f>
-        <v>0</v>
+        <f t="shared" ref="AP180" si="1163">SUM(V180:V182)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:42" x14ac:dyDescent="0.35">
@@ -24894,36 +24900,36 @@
         <v>1</v>
       </c>
       <c r="AI181">
-        <f t="shared" ref="AI181" si="1154">SUM(O180:O181)</f>
+        <f>SUM(O180:O182)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ181">
+        <f t="shared" ref="AJ181" si="1164">SUM(P180:P182)</f>
+        <v>28</v>
+      </c>
+      <c r="AK181">
+        <f t="shared" ref="AK181" si="1165">SUM(Q180:Q182)</f>
+        <v>13</v>
+      </c>
+      <c r="AL181">
+        <f t="shared" ref="AL181" si="1166">SUM(R180:R182)</f>
+        <v>5</v>
+      </c>
+      <c r="AM181">
+        <f t="shared" ref="AM181" si="1167">SUM(S180:S182)</f>
         <v>10</v>
       </c>
-      <c r="AJ181">
-        <f t="shared" ref="AJ181" si="1155">SUM(P180:P181)</f>
-        <v>23</v>
-      </c>
-      <c r="AK181">
-        <f t="shared" ref="AK181" si="1156">SUM(Q180:Q181)</f>
-        <v>8</v>
-      </c>
-      <c r="AL181">
-        <f t="shared" ref="AL181" si="1157">SUM(R180:R181)</f>
-        <v>5</v>
-      </c>
-      <c r="AM181">
-        <f t="shared" ref="AM181" si="1158">SUM(S180:S181)</f>
-        <v>6</v>
-      </c>
       <c r="AN181">
-        <f t="shared" ref="AN181" si="1159">SUM(T180:T181)</f>
+        <f t="shared" ref="AN181" si="1168">SUM(T180:T182)</f>
+        <v>13</v>
+      </c>
+      <c r="AO181">
+        <f t="shared" ref="AO181" si="1169">SUM(U180:U182)</f>
         <v>10</v>
       </c>
-      <c r="AO181">
-        <f t="shared" ref="AO181" si="1160">SUM(U180:U181)</f>
-        <v>6</v>
-      </c>
       <c r="AP181">
-        <f t="shared" ref="AP181" si="1161">SUM(V180:V181)</f>
-        <v>0</v>
+        <f t="shared" ref="AP181" si="1170">SUM(V180:V182)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:42" x14ac:dyDescent="0.35">
@@ -25032,36 +25038,36 @@
         <v>0</v>
       </c>
       <c r="AI182">
-        <f t="shared" ref="AI182" si="1162">SUM(O180:O181)</f>
+        <f>SUM(O180:O182)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ182">
+        <f t="shared" ref="AJ182" si="1171">SUM(P180:P182)</f>
+        <v>28</v>
+      </c>
+      <c r="AK182">
+        <f t="shared" ref="AK182" si="1172">SUM(Q180:Q182)</f>
+        <v>13</v>
+      </c>
+      <c r="AL182">
+        <f t="shared" ref="AL182" si="1173">SUM(R180:R182)</f>
+        <v>5</v>
+      </c>
+      <c r="AM182">
+        <f t="shared" ref="AM182" si="1174">SUM(S180:S182)</f>
         <v>10</v>
       </c>
-      <c r="AJ182">
-        <f t="shared" ref="AJ182" si="1163">SUM(P180:P181)</f>
-        <v>23</v>
-      </c>
-      <c r="AK182">
-        <f t="shared" ref="AK182" si="1164">SUM(Q180:Q181)</f>
-        <v>8</v>
-      </c>
-      <c r="AL182">
-        <f t="shared" ref="AL182" si="1165">SUM(R180:R181)</f>
-        <v>5</v>
-      </c>
-      <c r="AM182">
-        <f t="shared" ref="AM182" si="1166">SUM(S180:S181)</f>
-        <v>6</v>
-      </c>
       <c r="AN182">
-        <f t="shared" ref="AN182" si="1167">SUM(T180:T181)</f>
+        <f>SUM(T180:T182)</f>
+        <v>13</v>
+      </c>
+      <c r="AO182">
+        <f t="shared" ref="AO182" si="1175">SUM(U180:U182)</f>
         <v>10</v>
       </c>
-      <c r="AO182">
-        <f t="shared" ref="AO182" si="1168">SUM(U180:U181)</f>
-        <v>6</v>
-      </c>
       <c r="AP182">
-        <f t="shared" ref="AP182" si="1169">SUM(V180:V181)</f>
-        <v>0</v>
+        <f t="shared" ref="AP182" si="1176">SUM(V180:V182)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:42" x14ac:dyDescent="0.35">
@@ -25170,36 +25176,36 @@
         <v>1</v>
       </c>
       <c r="AI183">
-        <f t="shared" ref="AI183" si="1170">SUM(O183:O184)</f>
+        <f>SUM(O183:O185)</f>
+        <v>13</v>
+      </c>
+      <c r="AJ183">
+        <f t="shared" ref="AJ183" si="1177">SUM(P183:P185)</f>
+        <v>13</v>
+      </c>
+      <c r="AK183">
+        <f t="shared" ref="AK183" si="1178">SUM(Q183:Q185)</f>
         <v>10</v>
       </c>
-      <c r="AJ183">
-        <f t="shared" ref="AJ183" si="1171">SUM(P183:P184)</f>
-        <v>8</v>
-      </c>
-      <c r="AK183">
-        <f t="shared" ref="AK183" si="1172">SUM(Q183:Q184)</f>
-        <v>6</v>
-      </c>
       <c r="AL183">
-        <f t="shared" ref="AL183" si="1173">SUM(R183:R184)</f>
-        <v>13</v>
+        <f t="shared" ref="AL183" si="1179">SUM(R183:R185)</f>
+        <v>17</v>
       </c>
       <c r="AM183">
-        <f t="shared" ref="AM183" si="1174">SUM(S183:S184)</f>
-        <v>13</v>
+        <f t="shared" ref="AM183" si="1180">SUM(S183:S185)</f>
+        <v>18</v>
       </c>
       <c r="AN183">
-        <f t="shared" ref="AN183" si="1175">SUM(T183:T184)</f>
-        <v>6</v>
+        <f t="shared" ref="AN183" si="1181">SUM(T183:T185)</f>
+        <v>9</v>
       </c>
       <c r="AO183">
-        <f t="shared" ref="AO183" si="1176">SUM(U183:U184)</f>
-        <v>5</v>
+        <f t="shared" ref="AO183" si="1182">SUM(U183:U185)</f>
+        <v>10</v>
       </c>
       <c r="AP183">
-        <f t="shared" ref="AP183" si="1177">SUM(V183:V184)</f>
-        <v>2</v>
+        <f t="shared" ref="AP183" si="1183">SUM(V183:V185)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:42" x14ac:dyDescent="0.35">
@@ -25308,36 +25314,36 @@
         <v>0</v>
       </c>
       <c r="AI184">
-        <f t="shared" ref="AI184" si="1178">SUM(O183:O184)</f>
+        <f>SUM(O183:O185)</f>
+        <v>13</v>
+      </c>
+      <c r="AJ184">
+        <f t="shared" ref="AJ184" si="1184">SUM(P183:P185)</f>
+        <v>13</v>
+      </c>
+      <c r="AK184">
+        <f t="shared" ref="AK184" si="1185">SUM(Q183:Q185)</f>
         <v>10</v>
       </c>
-      <c r="AJ184">
-        <f t="shared" ref="AJ184" si="1179">SUM(P183:P184)</f>
-        <v>8</v>
-      </c>
-      <c r="AK184">
-        <f t="shared" ref="AK184" si="1180">SUM(Q183:Q184)</f>
-        <v>6</v>
-      </c>
       <c r="AL184">
-        <f t="shared" ref="AL184" si="1181">SUM(R183:R184)</f>
-        <v>13</v>
+        <f t="shared" ref="AL184" si="1186">SUM(R183:R185)</f>
+        <v>17</v>
       </c>
       <c r="AM184">
-        <f t="shared" ref="AM184" si="1182">SUM(S183:S184)</f>
-        <v>13</v>
+        <f t="shared" ref="AM184" si="1187">SUM(S183:S185)</f>
+        <v>18</v>
       </c>
       <c r="AN184">
-        <f t="shared" ref="AN184" si="1183">SUM(T183:T184)</f>
-        <v>6</v>
+        <f t="shared" ref="AN184" si="1188">SUM(T183:T185)</f>
+        <v>9</v>
       </c>
       <c r="AO184">
-        <f t="shared" ref="AO184" si="1184">SUM(U183:U184)</f>
-        <v>5</v>
+        <f t="shared" ref="AO184" si="1189">SUM(U183:U185)</f>
+        <v>10</v>
       </c>
       <c r="AP184">
-        <f t="shared" ref="AP184" si="1185">SUM(V183:V184)</f>
-        <v>2</v>
+        <f t="shared" ref="AP184" si="1190">SUM(V183:V185)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:42" x14ac:dyDescent="0.35">
@@ -25446,36 +25452,36 @@
         <v>0</v>
       </c>
       <c r="AI185">
-        <f t="shared" ref="AI185" si="1186">SUM(O183:O184)</f>
+        <f>SUM(O183:O185)</f>
+        <v>13</v>
+      </c>
+      <c r="AJ185">
+        <f t="shared" ref="AJ185" si="1191">SUM(P183:P185)</f>
+        <v>13</v>
+      </c>
+      <c r="AK185">
+        <f t="shared" ref="AK185" si="1192">SUM(Q183:Q185)</f>
         <v>10</v>
       </c>
-      <c r="AJ185">
-        <f t="shared" ref="AJ185" si="1187">SUM(P183:P184)</f>
-        <v>8</v>
-      </c>
-      <c r="AK185">
-        <f t="shared" ref="AK185" si="1188">SUM(Q183:Q184)</f>
-        <v>6</v>
-      </c>
       <c r="AL185">
-        <f t="shared" ref="AL185" si="1189">SUM(R183:R184)</f>
-        <v>13</v>
+        <f t="shared" ref="AL185" si="1193">SUM(R183:R185)</f>
+        <v>17</v>
       </c>
       <c r="AM185">
-        <f t="shared" ref="AM185" si="1190">SUM(S183:S184)</f>
-        <v>13</v>
+        <f t="shared" ref="AM185" si="1194">SUM(S183:S185)</f>
+        <v>18</v>
       </c>
       <c r="AN185">
-        <f t="shared" ref="AN185" si="1191">SUM(T183:T184)</f>
-        <v>6</v>
+        <f>SUM(T183:T185)</f>
+        <v>9</v>
       </c>
       <c r="AO185">
-        <f t="shared" ref="AO185" si="1192">SUM(U183:U184)</f>
-        <v>5</v>
+        <f t="shared" ref="AO185" si="1195">SUM(U183:U185)</f>
+        <v>10</v>
       </c>
       <c r="AP185">
-        <f t="shared" ref="AP185" si="1193">SUM(V183:V184)</f>
-        <v>2</v>
+        <f t="shared" ref="AP185" si="1196">SUM(V183:V185)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:42" x14ac:dyDescent="0.35">
@@ -25584,36 +25590,36 @@
         <v>0</v>
       </c>
       <c r="AI186">
-        <f t="shared" ref="AI186" si="1194">SUM(O186:O187)</f>
-        <v>10</v>
+        <f>SUM(O186:O188)</f>
+        <v>13</v>
       </c>
       <c r="AJ186">
-        <f t="shared" ref="AJ186" si="1195">SUM(P186:P187)</f>
-        <v>4</v>
+        <f t="shared" ref="AJ186" si="1197">SUM(P186:P188)</f>
+        <v>6</v>
       </c>
       <c r="AK186">
-        <f t="shared" ref="AK186" si="1196">SUM(Q186:Q187)</f>
-        <v>13</v>
+        <f t="shared" ref="AK186" si="1198">SUM(Q186:Q188)</f>
+        <v>16</v>
       </c>
       <c r="AL186">
-        <f t="shared" ref="AL186" si="1197">SUM(R186:R187)</f>
-        <v>10</v>
+        <f t="shared" ref="AL186" si="1199">SUM(R186:R188)</f>
+        <v>23</v>
       </c>
       <c r="AM186">
-        <f t="shared" ref="AM186" si="1198">SUM(S186:S187)</f>
-        <v>7</v>
+        <f t="shared" ref="AM186" si="1200">SUM(S186:S188)</f>
+        <v>11</v>
       </c>
       <c r="AN186">
-        <f t="shared" ref="AN186" si="1199">SUM(T186:T187)</f>
+        <f t="shared" ref="AN186" si="1201">SUM(T186:T188)</f>
         <v>2</v>
       </c>
       <c r="AO186">
-        <f t="shared" ref="AO186" si="1200">SUM(U186:U187)</f>
-        <v>4</v>
+        <f t="shared" ref="AO186" si="1202">SUM(U186:U188)</f>
+        <v>8</v>
       </c>
       <c r="AP186">
-        <f t="shared" ref="AP186" si="1201">SUM(V186:V187)</f>
-        <v>13</v>
+        <f t="shared" ref="AP186" si="1203">SUM(V186:V188)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:42" x14ac:dyDescent="0.35">
@@ -25652,7 +25658,7 @@
         <v>32</v>
       </c>
       <c r="L187">
-        <f t="shared" ref="L187:L200" si="1202">SUM(O187:V187)</f>
+        <f t="shared" ref="L187:L227" si="1204">SUM(O187:V187)</f>
         <v>34</v>
       </c>
       <c r="M187">
@@ -25722,36 +25728,36 @@
         <v>0</v>
       </c>
       <c r="AI187">
-        <f t="shared" ref="AI187" si="1203">SUM(O186:O187)</f>
-        <v>10</v>
+        <f>SUM(O186:O188)</f>
+        <v>13</v>
       </c>
       <c r="AJ187">
-        <f t="shared" ref="AJ187" si="1204">SUM(P186:P187)</f>
-        <v>4</v>
+        <f t="shared" ref="AJ187" si="1205">SUM(P186:P188)</f>
+        <v>6</v>
       </c>
       <c r="AK187">
-        <f t="shared" ref="AK187" si="1205">SUM(Q186:Q187)</f>
-        <v>13</v>
+        <f t="shared" ref="AK187" si="1206">SUM(Q186:Q188)</f>
+        <v>16</v>
       </c>
       <c r="AL187">
-        <f t="shared" ref="AL187" si="1206">SUM(R186:R187)</f>
-        <v>10</v>
+        <f t="shared" ref="AL187" si="1207">SUM(R186:R188)</f>
+        <v>23</v>
       </c>
       <c r="AM187">
-        <f t="shared" ref="AM187" si="1207">SUM(S186:S187)</f>
-        <v>7</v>
+        <f t="shared" ref="AM187" si="1208">SUM(S186:S188)</f>
+        <v>11</v>
       </c>
       <c r="AN187">
-        <f t="shared" ref="AN187" si="1208">SUM(T186:T187)</f>
+        <f t="shared" ref="AN187" si="1209">SUM(T186:T188)</f>
         <v>2</v>
       </c>
       <c r="AO187">
-        <f t="shared" ref="AO187" si="1209">SUM(U186:U187)</f>
-        <v>4</v>
+        <f t="shared" ref="AO187" si="1210">SUM(U186:U188)</f>
+        <v>8</v>
       </c>
       <c r="AP187">
-        <f t="shared" ref="AP187" si="1210">SUM(V186:V187)</f>
-        <v>13</v>
+        <f t="shared" ref="AP187" si="1211">SUM(V186:V188)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:42" x14ac:dyDescent="0.35">
@@ -25790,7 +25796,7 @@
         <v>32</v>
       </c>
       <c r="L188">
-        <f t="shared" si="1202"/>
+        <f t="shared" si="1204"/>
         <v>32</v>
       </c>
       <c r="M188">
@@ -25860,36 +25866,36 @@
         <v>0</v>
       </c>
       <c r="AI188">
-        <f t="shared" ref="AI188" si="1211">SUM(O186:O187)</f>
-        <v>10</v>
+        <f>SUM(O186:O188)</f>
+        <v>13</v>
       </c>
       <c r="AJ188">
-        <f t="shared" ref="AJ188" si="1212">SUM(P186:P187)</f>
-        <v>4</v>
+        <f t="shared" ref="AJ188" si="1212">SUM(P186:P188)</f>
+        <v>6</v>
       </c>
       <c r="AK188">
-        <f t="shared" ref="AK188" si="1213">SUM(Q186:Q187)</f>
-        <v>13</v>
+        <f t="shared" ref="AK188" si="1213">SUM(Q186:Q188)</f>
+        <v>16</v>
       </c>
       <c r="AL188">
-        <f t="shared" ref="AL188" si="1214">SUM(R186:R187)</f>
-        <v>10</v>
+        <f t="shared" ref="AL188" si="1214">SUM(R186:R188)</f>
+        <v>23</v>
       </c>
       <c r="AM188">
-        <f t="shared" ref="AM188" si="1215">SUM(S186:S187)</f>
-        <v>7</v>
+        <f t="shared" ref="AM188" si="1215">SUM(S186:S188)</f>
+        <v>11</v>
       </c>
       <c r="AN188">
-        <f t="shared" ref="AN188" si="1216">SUM(T186:T187)</f>
+        <f>SUM(T186:T188)</f>
         <v>2</v>
       </c>
       <c r="AO188">
-        <f t="shared" ref="AO188" si="1217">SUM(U186:U187)</f>
-        <v>4</v>
+        <f t="shared" ref="AO188" si="1216">SUM(U186:U188)</f>
+        <v>8</v>
       </c>
       <c r="AP188">
-        <f t="shared" ref="AP188" si="1218">SUM(V186:V187)</f>
-        <v>13</v>
+        <f t="shared" ref="AP188" si="1217">SUM(V186:V188)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:42" x14ac:dyDescent="0.35">
@@ -25928,7 +25934,7 @@
         <v>31</v>
       </c>
       <c r="L189">
-        <f t="shared" si="1202"/>
+        <f t="shared" si="1204"/>
         <v>31</v>
       </c>
       <c r="M189">
@@ -25998,36 +26004,36 @@
         <v>0</v>
       </c>
       <c r="AI189">
-        <f t="shared" ref="AI189" si="1219">SUM(O189:O190)</f>
-        <v>7</v>
+        <f>SUM(O189:O191)</f>
+        <v>16</v>
       </c>
       <c r="AJ189">
-        <f t="shared" ref="AJ189" si="1220">SUM(P189:P190)</f>
+        <f t="shared" ref="AJ189" si="1218">SUM(P189:P191)</f>
         <v>4</v>
       </c>
       <c r="AK189">
-        <f t="shared" ref="AK189" si="1221">SUM(Q189:Q190)</f>
+        <f t="shared" ref="AK189" si="1219">SUM(Q189:Q191)</f>
+        <v>20</v>
+      </c>
+      <c r="AL189">
+        <f t="shared" ref="AL189" si="1220">SUM(R189:R191)</f>
+        <v>27</v>
+      </c>
+      <c r="AM189">
+        <f t="shared" ref="AM189" si="1221">SUM(S189:S191)</f>
+        <v>8</v>
+      </c>
+      <c r="AN189">
+        <f t="shared" ref="AN189" si="1222">SUM(T189:T191)</f>
+        <v>0</v>
+      </c>
+      <c r="AO189">
+        <f t="shared" ref="AO189" si="1223">SUM(U189:U191)</f>
+        <v>4</v>
+      </c>
+      <c r="AP189">
+        <f t="shared" ref="AP189" si="1224">SUM(V189:V191)</f>
         <v>15</v>
-      </c>
-      <c r="AL189">
-        <f t="shared" ref="AL189" si="1222">SUM(R189:R190)</f>
-        <v>17</v>
-      </c>
-      <c r="AM189">
-        <f t="shared" ref="AM189" si="1223">SUM(S189:S190)</f>
-        <v>6</v>
-      </c>
-      <c r="AN189">
-        <f t="shared" ref="AN189" si="1224">SUM(T189:T190)</f>
-        <v>0</v>
-      </c>
-      <c r="AO189">
-        <f t="shared" ref="AO189" si="1225">SUM(U189:U190)</f>
-        <v>2</v>
-      </c>
-      <c r="AP189">
-        <f t="shared" ref="AP189" si="1226">SUM(V189:V190)</f>
-        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:42" x14ac:dyDescent="0.35">
@@ -26066,7 +26072,7 @@
         <v>31</v>
       </c>
       <c r="L190">
-        <f t="shared" si="1202"/>
+        <f t="shared" si="1204"/>
         <v>31</v>
       </c>
       <c r="M190">
@@ -26136,36 +26142,36 @@
         <v>1</v>
       </c>
       <c r="AI190">
-        <f t="shared" ref="AI190" si="1227">SUM(O189:O190)</f>
-        <v>7</v>
+        <f>SUM(O189:O191)</f>
+        <v>16</v>
       </c>
       <c r="AJ190">
-        <f t="shared" ref="AJ190" si="1228">SUM(P189:P190)</f>
+        <f t="shared" ref="AJ190" si="1225">SUM(P189:P191)</f>
         <v>4</v>
       </c>
       <c r="AK190">
-        <f t="shared" ref="AK190" si="1229">SUM(Q189:Q190)</f>
+        <f t="shared" ref="AK190" si="1226">SUM(Q189:Q191)</f>
+        <v>20</v>
+      </c>
+      <c r="AL190">
+        <f t="shared" ref="AL190" si="1227">SUM(R189:R191)</f>
+        <v>27</v>
+      </c>
+      <c r="AM190">
+        <f t="shared" ref="AM190" si="1228">SUM(S189:S191)</f>
+        <v>8</v>
+      </c>
+      <c r="AN190">
+        <f t="shared" ref="AN190" si="1229">SUM(T189:T191)</f>
+        <v>0</v>
+      </c>
+      <c r="AO190">
+        <f t="shared" ref="AO190" si="1230">SUM(U189:U191)</f>
+        <v>4</v>
+      </c>
+      <c r="AP190">
+        <f t="shared" ref="AP190" si="1231">SUM(V189:V191)</f>
         <v>15</v>
-      </c>
-      <c r="AL190">
-        <f t="shared" ref="AL190" si="1230">SUM(R189:R190)</f>
-        <v>17</v>
-      </c>
-      <c r="AM190">
-        <f t="shared" ref="AM190" si="1231">SUM(S189:S190)</f>
-        <v>6</v>
-      </c>
-      <c r="AN190">
-        <f t="shared" ref="AN190" si="1232">SUM(T189:T190)</f>
-        <v>0</v>
-      </c>
-      <c r="AO190">
-        <f t="shared" ref="AO190" si="1233">SUM(U189:U190)</f>
-        <v>2</v>
-      </c>
-      <c r="AP190">
-        <f t="shared" ref="AP190" si="1234">SUM(V189:V190)</f>
-        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:42" x14ac:dyDescent="0.35">
@@ -26204,7 +26210,7 @@
         <v>31</v>
       </c>
       <c r="L191">
-        <f t="shared" si="1202"/>
+        <f t="shared" si="1204"/>
         <v>32</v>
       </c>
       <c r="M191">
@@ -26274,36 +26280,36 @@
         <v>0</v>
       </c>
       <c r="AI191">
-        <f t="shared" ref="AI191" si="1235">SUM(O189:O190)</f>
-        <v>7</v>
+        <f>SUM(O189:O191)</f>
+        <v>16</v>
       </c>
       <c r="AJ191">
-        <f t="shared" ref="AJ191" si="1236">SUM(P189:P190)</f>
+        <f t="shared" ref="AJ191" si="1232">SUM(P189:P191)</f>
         <v>4</v>
       </c>
       <c r="AK191">
-        <f t="shared" ref="AK191" si="1237">SUM(Q189:Q190)</f>
+        <f t="shared" ref="AK191" si="1233">SUM(Q189:Q191)</f>
+        <v>20</v>
+      </c>
+      <c r="AL191">
+        <f t="shared" ref="AL191" si="1234">SUM(R189:R191)</f>
+        <v>27</v>
+      </c>
+      <c r="AM191">
+        <f t="shared" ref="AM191" si="1235">SUM(S189:S191)</f>
+        <v>8</v>
+      </c>
+      <c r="AN191">
+        <f>SUM(T189:T191)</f>
+        <v>0</v>
+      </c>
+      <c r="AO191">
+        <f t="shared" ref="AO191" si="1236">SUM(U189:U191)</f>
+        <v>4</v>
+      </c>
+      <c r="AP191">
+        <f t="shared" ref="AP191" si="1237">SUM(V189:V191)</f>
         <v>15</v>
-      </c>
-      <c r="AL191">
-        <f t="shared" ref="AL191" si="1238">SUM(R189:R190)</f>
-        <v>17</v>
-      </c>
-      <c r="AM191">
-        <f t="shared" ref="AM191" si="1239">SUM(S189:S190)</f>
-        <v>6</v>
-      </c>
-      <c r="AN191">
-        <f t="shared" ref="AN191" si="1240">SUM(T189:T190)</f>
-        <v>0</v>
-      </c>
-      <c r="AO191">
-        <f t="shared" ref="AO191" si="1241">SUM(U189:U190)</f>
-        <v>2</v>
-      </c>
-      <c r="AP191">
-        <f t="shared" ref="AP191" si="1242">SUM(V189:V190)</f>
-        <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:42" x14ac:dyDescent="0.35">
@@ -26342,7 +26348,7 @@
         <v>31</v>
       </c>
       <c r="L192">
-        <f t="shared" si="1202"/>
+        <f t="shared" si="1204"/>
         <v>30</v>
       </c>
       <c r="M192">
@@ -26412,36 +26418,36 @@
         <v>0</v>
       </c>
       <c r="AI192">
-        <f t="shared" ref="AI192" si="1243">SUM(O192:O193)</f>
+        <f>SUM(O192:O194)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ192">
+        <f t="shared" ref="AJ192" si="1238">SUM(P192:P194)</f>
+        <v>10</v>
+      </c>
+      <c r="AK192">
+        <f t="shared" ref="AK192" si="1239">SUM(Q192:Q194)</f>
+        <v>22</v>
+      </c>
+      <c r="AL192">
+        <f t="shared" ref="AL192" si="1240">SUM(R192:R194)</f>
+        <v>27</v>
+      </c>
+      <c r="AM192">
+        <f t="shared" ref="AM192" si="1241">SUM(S192:S194)</f>
         <v>7</v>
       </c>
-      <c r="AJ192">
-        <f t="shared" ref="AJ192" si="1244">SUM(P192:P193)</f>
-        <v>6</v>
-      </c>
-      <c r="AK192">
-        <f t="shared" ref="AK192" si="1245">SUM(Q192:Q193)</f>
-        <v>13</v>
-      </c>
-      <c r="AL192">
-        <f t="shared" ref="AL192" si="1246">SUM(R192:R193)</f>
-        <v>17</v>
-      </c>
-      <c r="AM192">
-        <f t="shared" ref="AM192" si="1247">SUM(S192:S193)</f>
-        <v>5</v>
-      </c>
       <c r="AN192">
-        <f t="shared" ref="AN192" si="1248">SUM(T192:T193)</f>
-        <v>4</v>
+        <f t="shared" ref="AN192" si="1242">SUM(T192:T194)</f>
+        <v>7</v>
       </c>
       <c r="AO192">
-        <f t="shared" ref="AO192" si="1249">SUM(U192:U193)</f>
+        <f t="shared" ref="AO192" si="1243">SUM(U192:U194)</f>
         <v>0</v>
       </c>
       <c r="AP192">
-        <f t="shared" ref="AP192" si="1250">SUM(V192:V193)</f>
-        <v>10</v>
+        <f t="shared" ref="AP192" si="1244">SUM(V192:V194)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="193" spans="1:42" x14ac:dyDescent="0.35">
@@ -26480,7 +26486,7 @@
         <v>31</v>
       </c>
       <c r="L193">
-        <f t="shared" si="1202"/>
+        <f t="shared" si="1204"/>
         <v>32</v>
       </c>
       <c r="M193">
@@ -26550,36 +26556,36 @@
         <v>0</v>
       </c>
       <c r="AI193">
-        <f t="shared" ref="AI193" si="1251">SUM(O192:O193)</f>
+        <f>SUM(O192:O194)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ193">
+        <f t="shared" ref="AJ193" si="1245">SUM(P192:P194)</f>
+        <v>10</v>
+      </c>
+      <c r="AK193">
+        <f t="shared" ref="AK193" si="1246">SUM(Q192:Q194)</f>
+        <v>22</v>
+      </c>
+      <c r="AL193">
+        <f t="shared" ref="AL193" si="1247">SUM(R192:R194)</f>
+        <v>27</v>
+      </c>
+      <c r="AM193">
+        <f t="shared" ref="AM193" si="1248">SUM(S192:S194)</f>
         <v>7</v>
       </c>
-      <c r="AJ193">
-        <f t="shared" ref="AJ193" si="1252">SUM(P192:P193)</f>
-        <v>6</v>
-      </c>
-      <c r="AK193">
-        <f t="shared" ref="AK193" si="1253">SUM(Q192:Q193)</f>
-        <v>13</v>
-      </c>
-      <c r="AL193">
-        <f t="shared" ref="AL193" si="1254">SUM(R192:R193)</f>
-        <v>17</v>
-      </c>
-      <c r="AM193">
-        <f t="shared" ref="AM193" si="1255">SUM(S192:S193)</f>
-        <v>5</v>
-      </c>
       <c r="AN193">
-        <f t="shared" ref="AN193" si="1256">SUM(T192:T193)</f>
-        <v>4</v>
+        <f t="shared" ref="AN193" si="1249">SUM(T192:T194)</f>
+        <v>7</v>
       </c>
       <c r="AO193">
-        <f t="shared" ref="AO193" si="1257">SUM(U192:U193)</f>
+        <f t="shared" ref="AO193" si="1250">SUM(U192:U194)</f>
         <v>0</v>
       </c>
       <c r="AP193">
-        <f t="shared" ref="AP193" si="1258">SUM(V192:V193)</f>
-        <v>10</v>
+        <f t="shared" ref="AP193" si="1251">SUM(V192:V194)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:42" x14ac:dyDescent="0.35">
@@ -26618,7 +26624,7 @@
         <v>31</v>
       </c>
       <c r="L194">
-        <f t="shared" si="1202"/>
+        <f t="shared" si="1204"/>
         <v>35</v>
       </c>
       <c r="M194">
@@ -26688,36 +26694,36 @@
         <v>0</v>
       </c>
       <c r="AI194">
-        <f t="shared" ref="AI194" si="1259">SUM(O192:O193)</f>
+        <f>SUM(O192:O194)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ194">
+        <f t="shared" ref="AJ194" si="1252">SUM(P192:P194)</f>
+        <v>10</v>
+      </c>
+      <c r="AK194">
+        <f t="shared" ref="AK194" si="1253">SUM(Q192:Q194)</f>
+        <v>22</v>
+      </c>
+      <c r="AL194">
+        <f t="shared" ref="AL194" si="1254">SUM(R192:R194)</f>
+        <v>27</v>
+      </c>
+      <c r="AM194">
+        <f t="shared" ref="AM194" si="1255">SUM(S192:S194)</f>
         <v>7</v>
       </c>
-      <c r="AJ194">
-        <f t="shared" ref="AJ194" si="1260">SUM(P192:P193)</f>
-        <v>6</v>
-      </c>
-      <c r="AK194">
-        <f t="shared" ref="AK194" si="1261">SUM(Q192:Q193)</f>
-        <v>13</v>
-      </c>
-      <c r="AL194">
-        <f t="shared" ref="AL194" si="1262">SUM(R192:R193)</f>
-        <v>17</v>
-      </c>
-      <c r="AM194">
-        <f t="shared" ref="AM194" si="1263">SUM(S192:S193)</f>
-        <v>5</v>
-      </c>
       <c r="AN194">
-        <f t="shared" ref="AN194" si="1264">SUM(T192:T193)</f>
-        <v>4</v>
+        <f>SUM(T192:T194)</f>
+        <v>7</v>
       </c>
       <c r="AO194">
-        <f t="shared" ref="AO194" si="1265">SUM(U192:U193)</f>
+        <f t="shared" ref="AO194" si="1256">SUM(U192:U194)</f>
         <v>0</v>
       </c>
       <c r="AP194">
-        <f t="shared" ref="AP194" si="1266">SUM(V192:V193)</f>
-        <v>10</v>
+        <f t="shared" ref="AP194" si="1257">SUM(V192:V194)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:42" x14ac:dyDescent="0.35">
@@ -26756,7 +26762,7 @@
         <v>32</v>
       </c>
       <c r="L195">
-        <f t="shared" si="1202"/>
+        <f t="shared" si="1204"/>
         <v>31</v>
       </c>
       <c r="M195">
@@ -26826,36 +26832,36 @@
         <v>1</v>
       </c>
       <c r="AI195">
-        <f t="shared" ref="AI195" si="1267">SUM(O195:O196)</f>
-        <v>9</v>
+        <f>SUM(O195:O197)</f>
+        <v>16</v>
       </c>
       <c r="AJ195">
-        <f t="shared" ref="AJ195" si="1268">SUM(P195:P196)</f>
-        <v>7</v>
+        <f t="shared" ref="AJ195" si="1258">SUM(P195:P197)</f>
+        <v>10</v>
       </c>
       <c r="AK195">
-        <f t="shared" ref="AK195" si="1269">SUM(Q195:Q196)</f>
-        <v>14</v>
+        <f t="shared" ref="AK195" si="1259">SUM(Q195:Q197)</f>
+        <v>18</v>
       </c>
       <c r="AL195">
-        <f t="shared" ref="AL195" si="1270">SUM(R195:R196)</f>
-        <v>6</v>
+        <f t="shared" ref="AL195" si="1260">SUM(R195:R197)</f>
+        <v>12</v>
       </c>
       <c r="AM195">
-        <f t="shared" ref="AM195" si="1271">SUM(S195:S196)</f>
+        <f t="shared" ref="AM195" si="1261">SUM(S195:S197)</f>
+        <v>18</v>
+      </c>
+      <c r="AN195">
+        <f t="shared" ref="AN195" si="1262">SUM(T195:T197)</f>
+        <v>0</v>
+      </c>
+      <c r="AO195">
+        <f t="shared" ref="AO195" si="1263">SUM(U195:U197)</f>
+        <v>10</v>
+      </c>
+      <c r="AP195">
+        <f t="shared" ref="AP195" si="1264">SUM(V195:V197)</f>
         <v>13</v>
-      </c>
-      <c r="AN195">
-        <f t="shared" ref="AN195" si="1272">SUM(T195:T196)</f>
-        <v>0</v>
-      </c>
-      <c r="AO195">
-        <f t="shared" ref="AO195" si="1273">SUM(U195:U196)</f>
-        <v>5</v>
-      </c>
-      <c r="AP195">
-        <f t="shared" ref="AP195" si="1274">SUM(V195:V196)</f>
-        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:42" x14ac:dyDescent="0.35">
@@ -26894,7 +26900,7 @@
         <v>32</v>
       </c>
       <c r="L196">
-        <f t="shared" si="1202"/>
+        <f t="shared" si="1204"/>
         <v>32</v>
       </c>
       <c r="M196">
@@ -26964,36 +26970,36 @@
         <v>0</v>
       </c>
       <c r="AI196">
-        <f t="shared" ref="AI196" si="1275">SUM(O195:O196)</f>
-        <v>9</v>
+        <f>SUM(O195:O197)</f>
+        <v>16</v>
       </c>
       <c r="AJ196">
-        <f t="shared" ref="AJ196" si="1276">SUM(P195:P196)</f>
-        <v>7</v>
+        <f t="shared" ref="AJ196" si="1265">SUM(P195:P197)</f>
+        <v>10</v>
       </c>
       <c r="AK196">
-        <f t="shared" ref="AK196" si="1277">SUM(Q195:Q196)</f>
-        <v>14</v>
+        <f t="shared" ref="AK196" si="1266">SUM(Q195:Q197)</f>
+        <v>18</v>
       </c>
       <c r="AL196">
-        <f t="shared" ref="AL196" si="1278">SUM(R195:R196)</f>
-        <v>6</v>
+        <f t="shared" ref="AL196" si="1267">SUM(R195:R197)</f>
+        <v>12</v>
       </c>
       <c r="AM196">
-        <f t="shared" ref="AM196" si="1279">SUM(S195:S196)</f>
+        <f t="shared" ref="AM196" si="1268">SUM(S195:S197)</f>
+        <v>18</v>
+      </c>
+      <c r="AN196">
+        <f t="shared" ref="AN196" si="1269">SUM(T195:T197)</f>
+        <v>0</v>
+      </c>
+      <c r="AO196">
+        <f t="shared" ref="AO196" si="1270">SUM(U195:U197)</f>
+        <v>10</v>
+      </c>
+      <c r="AP196">
+        <f t="shared" ref="AP196" si="1271">SUM(V195:V197)</f>
         <v>13</v>
-      </c>
-      <c r="AN196">
-        <f t="shared" ref="AN196" si="1280">SUM(T195:T196)</f>
-        <v>0</v>
-      </c>
-      <c r="AO196">
-        <f t="shared" ref="AO196" si="1281">SUM(U195:U196)</f>
-        <v>5</v>
-      </c>
-      <c r="AP196">
-        <f t="shared" ref="AP196" si="1282">SUM(V195:V196)</f>
-        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:42" x14ac:dyDescent="0.35">
@@ -27032,7 +27038,7 @@
         <v>32</v>
       </c>
       <c r="L197">
-        <f t="shared" si="1202"/>
+        <f t="shared" si="1204"/>
         <v>34</v>
       </c>
       <c r="M197">
@@ -27102,36 +27108,36 @@
         <v>0</v>
       </c>
       <c r="AI197">
-        <f t="shared" ref="AI197" si="1283">SUM(O195:O196)</f>
-        <v>9</v>
+        <f>SUM(O195:O197)</f>
+        <v>16</v>
       </c>
       <c r="AJ197">
-        <f t="shared" ref="AJ197" si="1284">SUM(P195:P196)</f>
-        <v>7</v>
+        <f t="shared" ref="AJ197" si="1272">SUM(P195:P197)</f>
+        <v>10</v>
       </c>
       <c r="AK197">
-        <f t="shared" ref="AK197" si="1285">SUM(Q195:Q196)</f>
-        <v>14</v>
+        <f t="shared" ref="AK197" si="1273">SUM(Q195:Q197)</f>
+        <v>18</v>
       </c>
       <c r="AL197">
-        <f t="shared" ref="AL197" si="1286">SUM(R195:R196)</f>
-        <v>6</v>
+        <f t="shared" ref="AL197" si="1274">SUM(R195:R197)</f>
+        <v>12</v>
       </c>
       <c r="AM197">
-        <f t="shared" ref="AM197" si="1287">SUM(S195:S196)</f>
+        <f t="shared" ref="AM197" si="1275">SUM(S195:S197)</f>
+        <v>18</v>
+      </c>
+      <c r="AN197">
+        <f>SUM(T195:T197)</f>
+        <v>0</v>
+      </c>
+      <c r="AO197">
+        <f t="shared" ref="AO197" si="1276">SUM(U195:U197)</f>
+        <v>10</v>
+      </c>
+      <c r="AP197">
+        <f t="shared" ref="AP197" si="1277">SUM(V195:V197)</f>
         <v>13</v>
-      </c>
-      <c r="AN197">
-        <f t="shared" ref="AN197" si="1288">SUM(T195:T196)</f>
-        <v>0</v>
-      </c>
-      <c r="AO197">
-        <f t="shared" ref="AO197" si="1289">SUM(U195:U196)</f>
-        <v>5</v>
-      </c>
-      <c r="AP197">
-        <f t="shared" ref="AP197" si="1290">SUM(V195:V196)</f>
-        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:42" x14ac:dyDescent="0.35">
@@ -27170,7 +27176,7 @@
         <v>31</v>
       </c>
       <c r="L198">
-        <f t="shared" si="1202"/>
+        <f t="shared" si="1204"/>
         <v>30</v>
       </c>
       <c r="M198">
@@ -27240,35 +27246,35 @@
         <v>0</v>
       </c>
       <c r="AI198">
-        <f t="shared" ref="AI198" si="1291">SUM(O198:O199)</f>
+        <f>SUM(O198:O200)</f>
+        <v>15</v>
+      </c>
+      <c r="AJ198">
+        <f t="shared" ref="AJ198" si="1278">SUM(P198:P200)</f>
+        <v>11</v>
+      </c>
+      <c r="AK198">
+        <f t="shared" ref="AK198" si="1279">SUM(Q198:Q200)</f>
+        <v>4</v>
+      </c>
+      <c r="AL198">
+        <f t="shared" ref="AL198" si="1280">SUM(R198:R200)</f>
+        <v>51</v>
+      </c>
+      <c r="AM198">
+        <f t="shared" ref="AM198" si="1281">SUM(S198:S200)</f>
+        <v>10</v>
+      </c>
+      <c r="AN198">
+        <f t="shared" ref="AN198" si="1282">SUM(T198:T200)</f>
+        <v>0</v>
+      </c>
+      <c r="AO198">
+        <f t="shared" ref="AO198" si="1283">SUM(U198:U200)</f>
         <v>7</v>
       </c>
-      <c r="AJ198">
-        <f t="shared" ref="AJ198" si="1292">SUM(P198:P199)</f>
-        <v>7</v>
-      </c>
-      <c r="AK198">
-        <f t="shared" ref="AK198" si="1293">SUM(Q198:Q199)</f>
-        <v>4</v>
-      </c>
-      <c r="AL198">
-        <f t="shared" ref="AL198" si="1294">SUM(R198:R199)</f>
-        <v>33</v>
-      </c>
-      <c r="AM198">
-        <f t="shared" ref="AM198" si="1295">SUM(S198:S199)</f>
-        <v>7</v>
-      </c>
-      <c r="AN198">
-        <f t="shared" ref="AN198" si="1296">SUM(T198:T199)</f>
-        <v>0</v>
-      </c>
-      <c r="AO198">
-        <f t="shared" ref="AO198" si="1297">SUM(U198:U199)</f>
-        <v>4</v>
-      </c>
       <c r="AP198">
-        <f t="shared" ref="AP198" si="1298">SUM(V198:V199)</f>
+        <f t="shared" ref="AP198" si="1284">SUM(V198:V200)</f>
         <v>4</v>
       </c>
     </row>
@@ -27308,7 +27314,7 @@
         <v>31</v>
       </c>
       <c r="L199">
-        <f t="shared" si="1202"/>
+        <f t="shared" si="1204"/>
         <v>36</v>
       </c>
       <c r="M199">
@@ -27378,35 +27384,35 @@
         <v>1</v>
       </c>
       <c r="AI199">
-        <f t="shared" ref="AI199" si="1299">SUM(O198:O199)</f>
+        <f>SUM(O198:O200)</f>
+        <v>15</v>
+      </c>
+      <c r="AJ199">
+        <f t="shared" ref="AJ199" si="1285">SUM(P198:P200)</f>
+        <v>11</v>
+      </c>
+      <c r="AK199">
+        <f t="shared" ref="AK199" si="1286">SUM(Q198:Q200)</f>
+        <v>4</v>
+      </c>
+      <c r="AL199">
+        <f t="shared" ref="AL199" si="1287">SUM(R198:R200)</f>
+        <v>51</v>
+      </c>
+      <c r="AM199">
+        <f t="shared" ref="AM199" si="1288">SUM(S198:S200)</f>
+        <v>10</v>
+      </c>
+      <c r="AN199">
+        <f t="shared" ref="AN199" si="1289">SUM(T198:T200)</f>
+        <v>0</v>
+      </c>
+      <c r="AO199">
+        <f t="shared" ref="AO199" si="1290">SUM(U198:U200)</f>
         <v>7</v>
       </c>
-      <c r="AJ199">
-        <f t="shared" ref="AJ199" si="1300">SUM(P198:P199)</f>
-        <v>7</v>
-      </c>
-      <c r="AK199">
-        <f t="shared" ref="AK199" si="1301">SUM(Q198:Q199)</f>
-        <v>4</v>
-      </c>
-      <c r="AL199">
-        <f t="shared" ref="AL199" si="1302">SUM(R198:R199)</f>
-        <v>33</v>
-      </c>
-      <c r="AM199">
-        <f t="shared" ref="AM199" si="1303">SUM(S198:S199)</f>
-        <v>7</v>
-      </c>
-      <c r="AN199">
-        <f t="shared" ref="AN199" si="1304">SUM(T198:T199)</f>
-        <v>0</v>
-      </c>
-      <c r="AO199">
-        <f t="shared" ref="AO199" si="1305">SUM(U198:U199)</f>
-        <v>4</v>
-      </c>
       <c r="AP199">
-        <f t="shared" ref="AP199" si="1306">SUM(V198:V199)</f>
+        <f t="shared" ref="AP199" si="1291">SUM(V198:V200)</f>
         <v>4</v>
       </c>
     </row>
@@ -27446,7 +27452,7 @@
         <v>31</v>
       </c>
       <c r="L200">
-        <f t="shared" si="1202"/>
+        <f t="shared" si="1204"/>
         <v>36</v>
       </c>
       <c r="M200">
@@ -27516,35 +27522,35 @@
         <v>1</v>
       </c>
       <c r="AI200">
-        <f t="shared" ref="AI200" si="1307">SUM(O198:O199)</f>
+        <f>SUM(O198:O200)</f>
+        <v>15</v>
+      </c>
+      <c r="AJ200">
+        <f t="shared" ref="AJ200" si="1292">SUM(P198:P200)</f>
+        <v>11</v>
+      </c>
+      <c r="AK200">
+        <f t="shared" ref="AK200" si="1293">SUM(Q198:Q200)</f>
+        <v>4</v>
+      </c>
+      <c r="AL200">
+        <f t="shared" ref="AL200" si="1294">SUM(R198:R200)</f>
+        <v>51</v>
+      </c>
+      <c r="AM200">
+        <f t="shared" ref="AM200" si="1295">SUM(S198:S200)</f>
+        <v>10</v>
+      </c>
+      <c r="AN200">
+        <f>SUM(T198:T200)</f>
+        <v>0</v>
+      </c>
+      <c r="AO200">
+        <f t="shared" ref="AO200" si="1296">SUM(U198:U200)</f>
         <v>7</v>
       </c>
-      <c r="AJ200">
-        <f t="shared" ref="AJ200" si="1308">SUM(P198:P199)</f>
-        <v>7</v>
-      </c>
-      <c r="AK200">
-        <f t="shared" ref="AK200" si="1309">SUM(Q198:Q199)</f>
-        <v>4</v>
-      </c>
-      <c r="AL200">
-        <f t="shared" ref="AL200" si="1310">SUM(R198:R199)</f>
-        <v>33</v>
-      </c>
-      <c r="AM200">
-        <f t="shared" ref="AM200" si="1311">SUM(S198:S199)</f>
-        <v>7</v>
-      </c>
-      <c r="AN200">
-        <f t="shared" ref="AN200" si="1312">SUM(T198:T199)</f>
-        <v>0</v>
-      </c>
-      <c r="AO200">
-        <f t="shared" ref="AO200" si="1313">SUM(U198:U199)</f>
-        <v>4</v>
-      </c>
       <c r="AP200">
-        <f t="shared" ref="AP200" si="1314">SUM(V198:V199)</f>
+        <f t="shared" ref="AP200" si="1297">SUM(V198:V200)</f>
         <v>4</v>
       </c>
     </row>
@@ -27552,21 +27558,3381 @@
       <c r="A201">
         <v>2024</v>
       </c>
+      <c r="B201" s="5">
+        <v>45497</v>
+      </c>
+      <c r="C201">
+        <v>15</v>
+      </c>
+      <c r="D201" t="s">
+        <v>65</v>
+      </c>
+      <c r="F201" t="s">
+        <v>12</v>
+      </c>
+      <c r="G201">
+        <v>13</v>
+      </c>
+      <c r="H201">
+        <v>4</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201" t="s">
+        <v>36</v>
+      </c>
+      <c r="K201" t="s">
+        <v>32</v>
+      </c>
+      <c r="L201">
+        <f t="shared" si="1204"/>
+        <v>36</v>
+      </c>
+      <c r="M201">
+        <v>5</v>
+      </c>
+      <c r="N201">
+        <v>5</v>
+      </c>
+      <c r="O201">
+        <v>7</v>
+      </c>
+      <c r="P201">
+        <v>8</v>
+      </c>
+      <c r="Q201">
+        <v>4</v>
+      </c>
+      <c r="R201">
+        <v>5</v>
+      </c>
+      <c r="S201">
+        <v>5</v>
+      </c>
+      <c r="T201">
+        <v>3</v>
+      </c>
+      <c r="U201">
+        <v>0</v>
+      </c>
+      <c r="V201">
+        <v>4</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>0</v>
+      </c>
+      <c r="AB201">
+        <v>0</v>
+      </c>
+      <c r="AC201">
+        <v>1</v>
+      </c>
+      <c r="AD201">
+        <v>0</v>
+      </c>
+      <c r="AE201">
+        <v>0</v>
+      </c>
+      <c r="AF201">
+        <v>0</v>
+      </c>
+      <c r="AG201">
+        <v>0</v>
+      </c>
+      <c r="AH201">
+        <v>1</v>
+      </c>
+      <c r="AI201">
+        <f>SUM(O201:O203)</f>
+        <v>15</v>
+      </c>
+      <c r="AJ201">
+        <f t="shared" ref="AJ201" si="1298">SUM(P201:P203)</f>
+        <v>22</v>
+      </c>
+      <c r="AK201">
+        <f t="shared" ref="AK201" si="1299">SUM(Q201:Q203)</f>
+        <v>17</v>
+      </c>
+      <c r="AL201">
+        <f t="shared" ref="AL201" si="1300">SUM(R201:R203)</f>
+        <v>28</v>
+      </c>
+      <c r="AM201">
+        <f t="shared" ref="AM201" si="1301">SUM(S201:S203)</f>
+        <v>5</v>
+      </c>
+      <c r="AN201">
+        <f t="shared" ref="AN201" si="1302">SUM(T201:T203)</f>
+        <v>11</v>
+      </c>
+      <c r="AO201">
+        <f t="shared" ref="AO201" si="1303">SUM(U201:U203)</f>
+        <v>0</v>
+      </c>
+      <c r="AP201">
+        <f t="shared" ref="AP201" si="1304">SUM(V201:V203)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="202" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>2024</v>
       </c>
+      <c r="B202" s="5">
+        <v>45497</v>
+      </c>
+      <c r="C202">
+        <v>15</v>
+      </c>
+      <c r="D202" t="s">
+        <v>65</v>
+      </c>
+      <c r="F202" t="s">
+        <v>11</v>
+      </c>
+      <c r="G202">
+        <v>9</v>
+      </c>
+      <c r="H202">
+        <v>2</v>
+      </c>
+      <c r="I202">
+        <v>3</v>
+      </c>
+      <c r="J202" t="s">
+        <v>32</v>
+      </c>
+      <c r="K202" t="s">
+        <v>32</v>
+      </c>
+      <c r="L202">
+        <f t="shared" si="1204"/>
+        <v>34</v>
+      </c>
+      <c r="M202">
+        <v>6</v>
+      </c>
+      <c r="N202">
+        <v>4</v>
+      </c>
+      <c r="O202">
+        <v>4</v>
+      </c>
+      <c r="P202">
+        <v>8</v>
+      </c>
+      <c r="Q202">
+        <v>8</v>
+      </c>
+      <c r="R202">
+        <v>10</v>
+      </c>
+      <c r="S202">
+        <v>0</v>
+      </c>
+      <c r="T202">
+        <v>4</v>
+      </c>
+      <c r="U202">
+        <v>0</v>
+      </c>
+      <c r="V202">
+        <v>0</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+      <c r="AB202">
+        <v>0</v>
+      </c>
+      <c r="AC202">
+        <v>0</v>
+      </c>
+      <c r="AD202">
+        <v>0</v>
+      </c>
+      <c r="AE202">
+        <v>0</v>
+      </c>
+      <c r="AF202">
+        <v>0</v>
+      </c>
+      <c r="AG202">
+        <v>0</v>
+      </c>
+      <c r="AH202">
+        <v>1</v>
+      </c>
+      <c r="AI202">
+        <f>SUM(O201:O203)</f>
+        <v>15</v>
+      </c>
+      <c r="AJ202">
+        <f t="shared" ref="AJ202" si="1305">SUM(P201:P203)</f>
+        <v>22</v>
+      </c>
+      <c r="AK202">
+        <f t="shared" ref="AK202" si="1306">SUM(Q201:Q203)</f>
+        <v>17</v>
+      </c>
+      <c r="AL202">
+        <f t="shared" ref="AL202" si="1307">SUM(R201:R203)</f>
+        <v>28</v>
+      </c>
+      <c r="AM202">
+        <f t="shared" ref="AM202" si="1308">SUM(S201:S203)</f>
+        <v>5</v>
+      </c>
+      <c r="AN202">
+        <f t="shared" ref="AN202" si="1309">SUM(T201:T203)</f>
+        <v>11</v>
+      </c>
+      <c r="AO202">
+        <f t="shared" ref="AO202" si="1310">SUM(U201:U203)</f>
+        <v>0</v>
+      </c>
+      <c r="AP202">
+        <f t="shared" ref="AP202" si="1311">SUM(V201:V203)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="203" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>2024</v>
       </c>
+      <c r="B203" s="5">
+        <v>45497</v>
+      </c>
+      <c r="C203">
+        <v>15</v>
+      </c>
+      <c r="D203" t="s">
+        <v>65</v>
+      </c>
+      <c r="F203" t="s">
+        <v>13</v>
+      </c>
+      <c r="G203">
+        <v>11</v>
+      </c>
+      <c r="H203">
+        <v>2</v>
+      </c>
+      <c r="I203">
+        <v>2</v>
+      </c>
+      <c r="J203" t="s">
+        <v>37</v>
+      </c>
+      <c r="K203" t="s">
+        <v>32</v>
+      </c>
+      <c r="L203">
+        <f t="shared" si="1204"/>
+        <v>32</v>
+      </c>
+      <c r="M203">
+        <v>5</v>
+      </c>
+      <c r="N203">
+        <v>4</v>
+      </c>
+      <c r="O203">
+        <v>4</v>
+      </c>
+      <c r="P203">
+        <v>6</v>
+      </c>
+      <c r="Q203">
+        <v>5</v>
+      </c>
+      <c r="R203">
+        <v>13</v>
+      </c>
+      <c r="S203">
+        <v>0</v>
+      </c>
+      <c r="T203">
+        <v>4</v>
+      </c>
+      <c r="U203">
+        <v>0</v>
+      </c>
+      <c r="V203">
+        <v>0</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>1</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
+      </c>
+      <c r="AB203">
+        <v>0</v>
+      </c>
+      <c r="AC203">
+        <v>0</v>
+      </c>
+      <c r="AD203">
+        <v>0</v>
+      </c>
+      <c r="AE203">
+        <v>0</v>
+      </c>
+      <c r="AF203">
+        <v>0</v>
+      </c>
+      <c r="AG203">
+        <v>0</v>
+      </c>
+      <c r="AH203">
+        <v>0</v>
+      </c>
+      <c r="AI203">
+        <f>SUM(O201:O203)</f>
+        <v>15</v>
+      </c>
+      <c r="AJ203">
+        <f t="shared" ref="AJ203" si="1312">SUM(P201:P203)</f>
+        <v>22</v>
+      </c>
+      <c r="AK203">
+        <f t="shared" ref="AK203" si="1313">SUM(Q201:Q203)</f>
+        <v>17</v>
+      </c>
+      <c r="AL203">
+        <f t="shared" ref="AL203" si="1314">SUM(R201:R203)</f>
+        <v>28</v>
+      </c>
+      <c r="AM203">
+        <f t="shared" ref="AM203" si="1315">SUM(S201:S203)</f>
+        <v>5</v>
+      </c>
+      <c r="AN203">
+        <f>SUM(T201:T203)</f>
+        <v>11</v>
+      </c>
+      <c r="AO203">
+        <f t="shared" ref="AO203" si="1316">SUM(U201:U203)</f>
+        <v>0</v>
+      </c>
+      <c r="AP203">
+        <f t="shared" ref="AP203" si="1317">SUM(V201:V203)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>2024</v>
+      </c>
+      <c r="B204" s="5">
+        <v>45497</v>
+      </c>
+      <c r="C204">
+        <v>16</v>
+      </c>
+      <c r="D204" t="s">
+        <v>65</v>
+      </c>
+      <c r="F204" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204">
+        <v>9</v>
+      </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204">
+        <v>3</v>
+      </c>
+      <c r="J204" t="s">
+        <v>36</v>
+      </c>
+      <c r="K204" t="s">
+        <v>31</v>
+      </c>
+      <c r="L204">
+        <f t="shared" si="1204"/>
+        <v>31</v>
+      </c>
+      <c r="M204">
+        <v>5</v>
+      </c>
+      <c r="N204">
+        <v>5</v>
+      </c>
+      <c r="O204">
+        <v>6</v>
+      </c>
+      <c r="P204">
+        <v>6</v>
+      </c>
+      <c r="Q204">
+        <v>5</v>
+      </c>
+      <c r="R204">
+        <v>8</v>
+      </c>
+      <c r="S204">
+        <v>4</v>
+      </c>
+      <c r="T204">
+        <v>2</v>
+      </c>
+      <c r="U204">
+        <v>0</v>
+      </c>
+      <c r="V204">
+        <v>0</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+      <c r="AB204">
+        <v>0</v>
+      </c>
+      <c r="AC204">
+        <v>0</v>
+      </c>
+      <c r="AD204">
+        <v>0</v>
+      </c>
+      <c r="AE204">
+        <v>0</v>
+      </c>
+      <c r="AF204">
+        <v>0</v>
+      </c>
+      <c r="AG204">
+        <v>0</v>
+      </c>
+      <c r="AH204">
+        <v>0</v>
+      </c>
+      <c r="AI204">
+        <f>SUM(O204:O206)</f>
+        <v>13</v>
+      </c>
+      <c r="AJ204">
+        <f t="shared" ref="AJ204" si="1318">SUM(P204:P206)</f>
+        <v>21</v>
+      </c>
+      <c r="AK204">
+        <f t="shared" ref="AK204" si="1319">SUM(Q204:Q206)</f>
+        <v>12</v>
+      </c>
+      <c r="AL204">
+        <f t="shared" ref="AL204" si="1320">SUM(R204:R206)</f>
+        <v>17</v>
+      </c>
+      <c r="AM204">
+        <f t="shared" ref="AM204" si="1321">SUM(S204:S206)</f>
+        <v>14</v>
+      </c>
+      <c r="AN204">
+        <f t="shared" ref="AN204" si="1322">SUM(T204:T206)</f>
+        <v>5</v>
+      </c>
+      <c r="AO204">
+        <f t="shared" ref="AO204" si="1323">SUM(U204:U206)</f>
+        <v>5</v>
+      </c>
+      <c r="AP204">
+        <f t="shared" ref="AP204" si="1324">SUM(V204:V206)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>2024</v>
+      </c>
+      <c r="B205" s="5">
+        <v>45497</v>
+      </c>
+      <c r="C205">
+        <v>16</v>
+      </c>
+      <c r="D205" t="s">
+        <v>65</v>
+      </c>
+      <c r="F205" t="s">
+        <v>13</v>
+      </c>
+      <c r="G205">
+        <v>13</v>
+      </c>
+      <c r="H205">
+        <v>4</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205" t="s">
+        <v>32</v>
+      </c>
+      <c r="K205" t="s">
+        <v>31</v>
+      </c>
+      <c r="L205">
+        <f t="shared" si="1204"/>
+        <v>30</v>
+      </c>
+      <c r="M205">
+        <v>6</v>
+      </c>
+      <c r="N205">
+        <v>5</v>
+      </c>
+      <c r="O205">
+        <v>4</v>
+      </c>
+      <c r="P205">
+        <v>4</v>
+      </c>
+      <c r="Q205">
+        <v>7</v>
+      </c>
+      <c r="R205">
+        <v>3</v>
+      </c>
+      <c r="S205">
+        <v>5</v>
+      </c>
+      <c r="T205">
+        <v>0</v>
+      </c>
+      <c r="U205">
+        <v>0</v>
+      </c>
+      <c r="V205">
+        <v>7</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+      <c r="AB205">
+        <v>0</v>
+      </c>
+      <c r="AC205">
+        <v>0</v>
+      </c>
+      <c r="AD205">
+        <v>0</v>
+      </c>
+      <c r="AE205">
+        <v>0</v>
+      </c>
+      <c r="AF205">
+        <v>0</v>
+      </c>
+      <c r="AG205">
+        <v>1</v>
+      </c>
+      <c r="AH205">
+        <v>0</v>
+      </c>
+      <c r="AI205">
+        <f>SUM(O204:O206)</f>
+        <v>13</v>
+      </c>
+      <c r="AJ205">
+        <f t="shared" ref="AJ205" si="1325">SUM(P204:P206)</f>
+        <v>21</v>
+      </c>
+      <c r="AK205">
+        <f t="shared" ref="AK205" si="1326">SUM(Q204:Q206)</f>
+        <v>12</v>
+      </c>
+      <c r="AL205">
+        <f t="shared" ref="AL205" si="1327">SUM(R204:R206)</f>
+        <v>17</v>
+      </c>
+      <c r="AM205">
+        <f t="shared" ref="AM205" si="1328">SUM(S204:S206)</f>
+        <v>14</v>
+      </c>
+      <c r="AN205">
+        <f t="shared" ref="AN205" si="1329">SUM(T204:T206)</f>
+        <v>5</v>
+      </c>
+      <c r="AO205">
+        <f t="shared" ref="AO205" si="1330">SUM(U204:U206)</f>
+        <v>5</v>
+      </c>
+      <c r="AP205">
+        <f t="shared" ref="AP205" si="1331">SUM(V204:V206)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>2024</v>
+      </c>
+      <c r="B206" s="5">
+        <v>45497</v>
+      </c>
+      <c r="C206">
+        <v>16</v>
+      </c>
+      <c r="D206" t="s">
+        <v>65</v>
+      </c>
+      <c r="F206" t="s">
+        <v>11</v>
+      </c>
+      <c r="G206">
+        <v>9</v>
+      </c>
+      <c r="H206">
+        <v>2</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206" t="s">
+        <v>37</v>
+      </c>
+      <c r="K206" t="s">
+        <v>31</v>
+      </c>
+      <c r="L206">
+        <f t="shared" si="1204"/>
+        <v>33</v>
+      </c>
+      <c r="M206">
+        <v>6</v>
+      </c>
+      <c r="N206">
+        <v>4</v>
+      </c>
+      <c r="O206">
+        <v>3</v>
+      </c>
+      <c r="P206">
+        <v>11</v>
+      </c>
+      <c r="Q206">
+        <v>0</v>
+      </c>
+      <c r="R206">
+        <v>6</v>
+      </c>
+      <c r="S206">
+        <v>5</v>
+      </c>
+      <c r="T206">
+        <v>3</v>
+      </c>
+      <c r="U206">
+        <v>5</v>
+      </c>
+      <c r="V206">
+        <v>0</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AA206">
+        <v>0</v>
+      </c>
+      <c r="AB206">
+        <v>0</v>
+      </c>
+      <c r="AC206">
+        <v>0</v>
+      </c>
+      <c r="AD206">
+        <v>0</v>
+      </c>
+      <c r="AE206">
+        <v>1</v>
+      </c>
+      <c r="AF206">
+        <v>0</v>
+      </c>
+      <c r="AG206">
+        <v>0</v>
+      </c>
+      <c r="AH206">
+        <v>1</v>
+      </c>
+      <c r="AI206">
+        <f>SUM(O204:O206)</f>
+        <v>13</v>
+      </c>
+      <c r="AJ206">
+        <f t="shared" ref="AJ206" si="1332">SUM(P204:P206)</f>
+        <v>21</v>
+      </c>
+      <c r="AK206">
+        <f t="shared" ref="AK206" si="1333">SUM(Q204:Q206)</f>
+        <v>12</v>
+      </c>
+      <c r="AL206">
+        <f t="shared" ref="AL206" si="1334">SUM(R204:R206)</f>
+        <v>17</v>
+      </c>
+      <c r="AM206">
+        <f t="shared" ref="AM206" si="1335">SUM(S204:S206)</f>
+        <v>14</v>
+      </c>
+      <c r="AN206">
+        <f>SUM(T204:T206)</f>
+        <v>5</v>
+      </c>
+      <c r="AO206">
+        <f t="shared" ref="AO206" si="1336">SUM(U204:U206)</f>
+        <v>5</v>
+      </c>
+      <c r="AP206">
+        <f t="shared" ref="AP206" si="1337">SUM(V204:V206)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>2024</v>
+      </c>
+      <c r="B207" s="5">
+        <v>45497</v>
+      </c>
+      <c r="C207">
+        <v>17</v>
+      </c>
+      <c r="D207" t="s">
+        <v>65</v>
+      </c>
+      <c r="F207" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207">
+        <v>11</v>
+      </c>
+      <c r="H207">
+        <v>4</v>
+      </c>
+      <c r="I207">
+        <v>2</v>
+      </c>
+      <c r="J207" t="s">
+        <v>36</v>
+      </c>
+      <c r="K207" t="s">
+        <v>31</v>
+      </c>
+      <c r="L207">
+        <f t="shared" si="1204"/>
+        <v>35</v>
+      </c>
+      <c r="M207">
+        <v>4</v>
+      </c>
+      <c r="N207">
+        <v>4</v>
+      </c>
+      <c r="O207">
+        <v>8</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
+      <c r="Q207">
+        <v>4</v>
+      </c>
+      <c r="R207">
+        <v>14</v>
+      </c>
+      <c r="S207">
+        <v>5</v>
+      </c>
+      <c r="T207">
+        <v>4</v>
+      </c>
+      <c r="U207">
+        <v>0</v>
+      </c>
+      <c r="V207">
+        <v>0</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AA207">
+        <v>0</v>
+      </c>
+      <c r="AB207">
+        <v>0</v>
+      </c>
+      <c r="AC207">
+        <v>1</v>
+      </c>
+      <c r="AD207">
+        <v>0</v>
+      </c>
+      <c r="AE207">
+        <v>0</v>
+      </c>
+      <c r="AF207">
+        <v>0</v>
+      </c>
+      <c r="AG207">
+        <v>0</v>
+      </c>
+      <c r="AH207">
+        <v>0</v>
+      </c>
+      <c r="AI207">
+        <f>SUM(O207:O209)</f>
+        <v>18</v>
+      </c>
+      <c r="AJ207">
+        <f t="shared" ref="AJ207" si="1338">SUM(P207:P209)</f>
+        <v>25</v>
+      </c>
+      <c r="AK207">
+        <f t="shared" ref="AK207" si="1339">SUM(Q207:Q209)</f>
+        <v>11</v>
+      </c>
+      <c r="AL207">
+        <f t="shared" ref="AL207" si="1340">SUM(R207:R209)</f>
+        <v>26</v>
+      </c>
+      <c r="AM207">
+        <f t="shared" ref="AM207" si="1341">SUM(S207:S209)</f>
+        <v>10</v>
+      </c>
+      <c r="AN207">
+        <f t="shared" ref="AN207" si="1342">SUM(T207:T209)</f>
+        <v>10</v>
+      </c>
+      <c r="AO207">
+        <f t="shared" ref="AO207" si="1343">SUM(U207:U209)</f>
+        <v>0</v>
+      </c>
+      <c r="AP207">
+        <f t="shared" ref="AP207" si="1344">SUM(V207:V209)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>2024</v>
+      </c>
+      <c r="B208" s="5">
+        <v>45497</v>
+      </c>
+      <c r="C208">
+        <v>17</v>
+      </c>
+      <c r="D208" t="s">
+        <v>65</v>
+      </c>
+      <c r="F208" t="s">
+        <v>11</v>
+      </c>
+      <c r="G208">
+        <v>13</v>
+      </c>
+      <c r="H208">
+        <v>5</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" t="s">
+        <v>32</v>
+      </c>
+      <c r="K208" t="s">
+        <v>31</v>
+      </c>
+      <c r="L208">
+        <f t="shared" si="1204"/>
+        <v>32</v>
+      </c>
+      <c r="M208">
+        <v>5</v>
+      </c>
+      <c r="N208">
+        <v>4</v>
+      </c>
+      <c r="O208">
+        <v>6</v>
+      </c>
+      <c r="P208">
+        <v>15</v>
+      </c>
+      <c r="Q208">
+        <v>3</v>
+      </c>
+      <c r="R208">
+        <v>6</v>
+      </c>
+      <c r="S208">
+        <v>0</v>
+      </c>
+      <c r="T208">
+        <v>2</v>
+      </c>
+      <c r="U208">
+        <v>0</v>
+      </c>
+      <c r="V208">
+        <v>0</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>0</v>
+      </c>
+      <c r="AB208">
+        <v>0</v>
+      </c>
+      <c r="AC208">
+        <v>0</v>
+      </c>
+      <c r="AD208">
+        <v>1</v>
+      </c>
+      <c r="AE208">
+        <v>0</v>
+      </c>
+      <c r="AF208">
+        <v>0</v>
+      </c>
+      <c r="AG208">
+        <v>0</v>
+      </c>
+      <c r="AH208">
+        <v>0</v>
+      </c>
+      <c r="AI208">
+        <f>SUM(O207:O209)</f>
+        <v>18</v>
+      </c>
+      <c r="AJ208">
+        <f t="shared" ref="AJ208" si="1345">SUM(P207:P209)</f>
+        <v>25</v>
+      </c>
+      <c r="AK208">
+        <f t="shared" ref="AK208" si="1346">SUM(Q207:Q209)</f>
+        <v>11</v>
+      </c>
+      <c r="AL208">
+        <f t="shared" ref="AL208" si="1347">SUM(R207:R209)</f>
+        <v>26</v>
+      </c>
+      <c r="AM208">
+        <f t="shared" ref="AM208" si="1348">SUM(S207:S209)</f>
+        <v>10</v>
+      </c>
+      <c r="AN208">
+        <f t="shared" ref="AN208" si="1349">SUM(T207:T209)</f>
+        <v>10</v>
+      </c>
+      <c r="AO208">
+        <f t="shared" ref="AO208" si="1350">SUM(U207:U209)</f>
+        <v>0</v>
+      </c>
+      <c r="AP208">
+        <f t="shared" ref="AP208" si="1351">SUM(V207:V209)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>2024</v>
+      </c>
+      <c r="B209" s="5">
+        <v>45497</v>
+      </c>
+      <c r="C209">
+        <v>17</v>
+      </c>
+      <c r="D209" t="s">
+        <v>65</v>
+      </c>
+      <c r="F209" t="s">
+        <v>13</v>
+      </c>
+      <c r="G209">
+        <v>5</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>3</v>
+      </c>
+      <c r="J209" t="s">
+        <v>37</v>
+      </c>
+      <c r="K209" t="s">
+        <v>31</v>
+      </c>
+      <c r="L209">
+        <f t="shared" si="1204"/>
+        <v>33</v>
+      </c>
+      <c r="M209">
+        <v>5</v>
+      </c>
+      <c r="N209">
+        <v>5</v>
+      </c>
+      <c r="O209">
+        <v>4</v>
+      </c>
+      <c r="P209">
+        <v>10</v>
+      </c>
+      <c r="Q209">
+        <v>4</v>
+      </c>
+      <c r="R209">
+        <v>6</v>
+      </c>
+      <c r="S209">
+        <v>5</v>
+      </c>
+      <c r="T209">
+        <v>4</v>
+      </c>
+      <c r="U209">
+        <v>0</v>
+      </c>
+      <c r="V209">
+        <v>0</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+      <c r="AB209">
+        <v>0</v>
+      </c>
+      <c r="AC209">
+        <v>0</v>
+      </c>
+      <c r="AD209">
+        <v>0</v>
+      </c>
+      <c r="AE209">
+        <v>0</v>
+      </c>
+      <c r="AF209">
+        <v>0</v>
+      </c>
+      <c r="AG209">
+        <v>0</v>
+      </c>
+      <c r="AH209">
+        <v>1</v>
+      </c>
+      <c r="AI209">
+        <f>SUM(O207:O209)</f>
+        <v>18</v>
+      </c>
+      <c r="AJ209">
+        <f t="shared" ref="AJ209" si="1352">SUM(P207:P209)</f>
+        <v>25</v>
+      </c>
+      <c r="AK209">
+        <f t="shared" ref="AK209" si="1353">SUM(Q207:Q209)</f>
+        <v>11</v>
+      </c>
+      <c r="AL209">
+        <f t="shared" ref="AL209" si="1354">SUM(R207:R209)</f>
+        <v>26</v>
+      </c>
+      <c r="AM209">
+        <f t="shared" ref="AM209" si="1355">SUM(S207:S209)</f>
+        <v>10</v>
+      </c>
+      <c r="AN209">
+        <f>SUM(T207:T209)</f>
+        <v>10</v>
+      </c>
+      <c r="AO209">
+        <f t="shared" ref="AO209" si="1356">SUM(U207:U209)</f>
+        <v>0</v>
+      </c>
+      <c r="AP209">
+        <f t="shared" ref="AP209" si="1357">SUM(V207:V209)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>2024</v>
+      </c>
+      <c r="B210" s="5">
+        <v>45497</v>
+      </c>
+      <c r="C210">
+        <v>18</v>
+      </c>
+      <c r="D210" t="s">
+        <v>65</v>
+      </c>
+      <c r="F210" t="s">
+        <v>11</v>
+      </c>
+      <c r="G210">
+        <v>4</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>3</v>
+      </c>
+      <c r="J210" t="s">
+        <v>36</v>
+      </c>
+      <c r="K210" t="s">
+        <v>33</v>
+      </c>
+      <c r="L210">
+        <f t="shared" si="1204"/>
+        <v>32</v>
+      </c>
+      <c r="M210">
+        <v>5</v>
+      </c>
+      <c r="N210">
+        <v>5</v>
+      </c>
+      <c r="O210">
+        <v>3</v>
+      </c>
+      <c r="P210">
+        <v>5</v>
+      </c>
+      <c r="Q210">
+        <v>4</v>
+      </c>
+      <c r="R210">
+        <v>10</v>
+      </c>
+      <c r="S210">
+        <v>5</v>
+      </c>
+      <c r="T210">
+        <v>0</v>
+      </c>
+      <c r="U210">
+        <v>5</v>
+      </c>
+      <c r="V210">
+        <v>0</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+      <c r="AB210">
+        <v>0</v>
+      </c>
+      <c r="AC210">
+        <v>0</v>
+      </c>
+      <c r="AD210">
+        <v>0</v>
+      </c>
+      <c r="AE210">
+        <v>0</v>
+      </c>
+      <c r="AF210">
+        <v>0</v>
+      </c>
+      <c r="AG210">
+        <v>1</v>
+      </c>
+      <c r="AH210">
+        <v>0</v>
+      </c>
+      <c r="AI210">
+        <f>SUM(O210:O212)</f>
+        <v>13</v>
+      </c>
+      <c r="AJ210">
+        <f t="shared" ref="AJ210" si="1358">SUM(P210:P212)</f>
+        <v>13</v>
+      </c>
+      <c r="AK210">
+        <f t="shared" ref="AK210" si="1359">SUM(Q210:Q212)</f>
+        <v>8</v>
+      </c>
+      <c r="AL210">
+        <f t="shared" ref="AL210" si="1360">SUM(R210:R212)</f>
+        <v>27</v>
+      </c>
+      <c r="AM210">
+        <f t="shared" ref="AM210" si="1361">SUM(S210:S212)</f>
+        <v>13</v>
+      </c>
+      <c r="AN210">
+        <f t="shared" ref="AN210" si="1362">SUM(T210:T212)</f>
+        <v>7</v>
+      </c>
+      <c r="AO210">
+        <f t="shared" ref="AO210" si="1363">SUM(U210:U212)</f>
+        <v>9</v>
+      </c>
+      <c r="AP210">
+        <f t="shared" ref="AP210" si="1364">SUM(V210:V212)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>2024</v>
+      </c>
+      <c r="B211" s="5">
+        <v>45497</v>
+      </c>
+      <c r="C211">
+        <v>18</v>
+      </c>
+      <c r="D211" t="s">
+        <v>65</v>
+      </c>
+      <c r="F211" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211">
+        <v>5</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>2</v>
+      </c>
+      <c r="J211" t="s">
+        <v>32</v>
+      </c>
+      <c r="K211" t="s">
+        <v>33</v>
+      </c>
+      <c r="L211">
+        <f t="shared" si="1204"/>
+        <v>28</v>
+      </c>
+      <c r="M211">
+        <v>6</v>
+      </c>
+      <c r="N211">
+        <v>5</v>
+      </c>
+      <c r="O211">
+        <v>3</v>
+      </c>
+      <c r="P211">
+        <v>4</v>
+      </c>
+      <c r="Q211">
+        <v>1</v>
+      </c>
+      <c r="R211">
+        <v>11</v>
+      </c>
+      <c r="S211">
+        <v>4</v>
+      </c>
+      <c r="T211">
+        <v>0</v>
+      </c>
+      <c r="U211">
+        <v>4</v>
+      </c>
+      <c r="V211">
+        <v>1</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+      <c r="AB211">
+        <v>0</v>
+      </c>
+      <c r="AC211">
+        <v>0</v>
+      </c>
+      <c r="AD211">
+        <v>0</v>
+      </c>
+      <c r="AE211">
+        <v>0</v>
+      </c>
+      <c r="AF211">
+        <v>1</v>
+      </c>
+      <c r="AG211">
+        <v>0</v>
+      </c>
+      <c r="AH211">
+        <v>0</v>
+      </c>
+      <c r="AI211">
+        <f>SUM(O210:O212)</f>
+        <v>13</v>
+      </c>
+      <c r="AJ211">
+        <f t="shared" ref="AJ211" si="1365">SUM(P210:P212)</f>
+        <v>13</v>
+      </c>
+      <c r="AK211">
+        <f t="shared" ref="AK211" si="1366">SUM(Q210:Q212)</f>
+        <v>8</v>
+      </c>
+      <c r="AL211">
+        <f t="shared" ref="AL211" si="1367">SUM(R210:R212)</f>
+        <v>27</v>
+      </c>
+      <c r="AM211">
+        <f t="shared" ref="AM211" si="1368">SUM(S210:S212)</f>
+        <v>13</v>
+      </c>
+      <c r="AN211">
+        <f t="shared" ref="AN211" si="1369">SUM(T210:T212)</f>
+        <v>7</v>
+      </c>
+      <c r="AO211">
+        <f t="shared" ref="AO211" si="1370">SUM(U210:U212)</f>
+        <v>9</v>
+      </c>
+      <c r="AP211">
+        <f t="shared" ref="AP211" si="1371">SUM(V210:V212)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>2024</v>
+      </c>
+      <c r="B212" s="5">
+        <v>45497</v>
+      </c>
+      <c r="C212">
+        <v>18</v>
+      </c>
+      <c r="D212" t="s">
+        <v>65</v>
+      </c>
+      <c r="F212" t="s">
+        <v>13</v>
+      </c>
+      <c r="G212">
+        <v>13</v>
+      </c>
+      <c r="H212">
+        <v>7</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>37</v>
+      </c>
+      <c r="K212" t="s">
+        <v>33</v>
+      </c>
+      <c r="L212">
+        <f t="shared" si="1204"/>
+        <v>31</v>
+      </c>
+      <c r="M212">
+        <v>6</v>
+      </c>
+      <c r="N212">
+        <v>5</v>
+      </c>
+      <c r="O212">
+        <v>7</v>
+      </c>
+      <c r="P212">
+        <v>4</v>
+      </c>
+      <c r="Q212">
+        <v>3</v>
+      </c>
+      <c r="R212">
+        <v>6</v>
+      </c>
+      <c r="S212">
+        <v>4</v>
+      </c>
+      <c r="T212">
+        <v>7</v>
+      </c>
+      <c r="U212">
+        <v>0</v>
+      </c>
+      <c r="V212">
+        <v>0</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+      <c r="AB212">
+        <v>0</v>
+      </c>
+      <c r="AC212">
+        <v>1</v>
+      </c>
+      <c r="AD212">
+        <v>0</v>
+      </c>
+      <c r="AE212">
+        <v>0</v>
+      </c>
+      <c r="AF212">
+        <v>0</v>
+      </c>
+      <c r="AG212">
+        <v>0</v>
+      </c>
+      <c r="AH212">
+        <v>0</v>
+      </c>
+      <c r="AI212">
+        <f>SUM(O210:O212)</f>
+        <v>13</v>
+      </c>
+      <c r="AJ212">
+        <f t="shared" ref="AJ212" si="1372">SUM(P210:P212)</f>
+        <v>13</v>
+      </c>
+      <c r="AK212">
+        <f t="shared" ref="AK212" si="1373">SUM(Q210:Q212)</f>
+        <v>8</v>
+      </c>
+      <c r="AL212">
+        <f t="shared" ref="AL212" si="1374">SUM(R210:R212)</f>
+        <v>27</v>
+      </c>
+      <c r="AM212">
+        <f t="shared" ref="AM212" si="1375">SUM(S210:S212)</f>
+        <v>13</v>
+      </c>
+      <c r="AN212">
+        <f>SUM(T210:T212)</f>
+        <v>7</v>
+      </c>
+      <c r="AO212">
+        <f t="shared" ref="AO212" si="1376">SUM(U210:U212)</f>
+        <v>9</v>
+      </c>
+      <c r="AP212">
+        <f t="shared" ref="AP212" si="1377">SUM(V210:V212)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>2024</v>
+      </c>
+      <c r="B213" s="5">
+        <v>45499</v>
+      </c>
+      <c r="C213">
+        <v>19</v>
+      </c>
+      <c r="D213" t="s">
+        <v>66</v>
+      </c>
+      <c r="F213" t="s">
+        <v>12</v>
+      </c>
+      <c r="G213">
+        <v>6</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>3</v>
+      </c>
+      <c r="J213" t="s">
+        <v>36</v>
+      </c>
+      <c r="K213" t="s">
+        <v>32</v>
+      </c>
+      <c r="L213">
+        <f t="shared" si="1204"/>
+        <v>28</v>
+      </c>
+      <c r="M213">
+        <v>5</v>
+      </c>
+      <c r="N213">
+        <v>4</v>
+      </c>
+      <c r="O213">
+        <v>3</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
+      <c r="Q213">
+        <v>6</v>
+      </c>
+      <c r="R213">
+        <v>6</v>
+      </c>
+      <c r="S213">
+        <v>7</v>
+      </c>
+      <c r="T213">
+        <v>0</v>
+      </c>
+      <c r="U213">
+        <v>2</v>
+      </c>
+      <c r="V213">
+        <v>4</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+      <c r="AB213">
+        <v>0</v>
+      </c>
+      <c r="AC213">
+        <v>0</v>
+      </c>
+      <c r="AD213">
+        <v>0</v>
+      </c>
+      <c r="AE213">
+        <v>0</v>
+      </c>
+      <c r="AF213">
+        <v>0</v>
+      </c>
+      <c r="AG213">
+        <v>0</v>
+      </c>
+      <c r="AH213">
+        <v>1</v>
+      </c>
+      <c r="AI213">
+        <f>SUM(O213:O215)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ213">
+        <f t="shared" ref="AJ213" si="1378">SUM(P213:P215)</f>
+        <v>12</v>
+      </c>
+      <c r="AK213">
+        <f t="shared" ref="AK213" si="1379">SUM(Q213:Q215)</f>
+        <v>18</v>
+      </c>
+      <c r="AL213">
+        <f t="shared" ref="AL213" si="1380">SUM(R213:R215)</f>
+        <v>30</v>
+      </c>
+      <c r="AM213">
+        <f t="shared" ref="AM213" si="1381">SUM(S213:S215)</f>
+        <v>9</v>
+      </c>
+      <c r="AN213">
+        <f t="shared" ref="AN213" si="1382">SUM(T213:T215)</f>
+        <v>2</v>
+      </c>
+      <c r="AO213">
+        <f t="shared" ref="AO213" si="1383">SUM(U213:U215)</f>
+        <v>2</v>
+      </c>
+      <c r="AP213">
+        <f t="shared" ref="AP213" si="1384">SUM(V213:V215)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>2024</v>
+      </c>
+      <c r="B214" s="5">
+        <v>45499</v>
+      </c>
+      <c r="C214">
+        <v>19</v>
+      </c>
+      <c r="D214" t="s">
+        <v>66</v>
+      </c>
+      <c r="F214" t="s">
+        <v>11</v>
+      </c>
+      <c r="G214">
+        <v>7</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>2</v>
+      </c>
+      <c r="J214" t="s">
+        <v>32</v>
+      </c>
+      <c r="K214" t="s">
+        <v>32</v>
+      </c>
+      <c r="L214">
+        <f t="shared" si="1204"/>
+        <v>33</v>
+      </c>
+      <c r="M214">
+        <v>5</v>
+      </c>
+      <c r="N214">
+        <v>4</v>
+      </c>
+      <c r="O214">
+        <v>0</v>
+      </c>
+      <c r="P214">
+        <v>5</v>
+      </c>
+      <c r="Q214">
+        <v>3</v>
+      </c>
+      <c r="R214">
+        <v>20</v>
+      </c>
+      <c r="S214">
+        <v>2</v>
+      </c>
+      <c r="T214">
+        <v>0</v>
+      </c>
+      <c r="U214">
+        <v>0</v>
+      </c>
+      <c r="V214">
+        <v>3</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+      <c r="AB214">
+        <v>0</v>
+      </c>
+      <c r="AC214">
+        <v>0</v>
+      </c>
+      <c r="AD214">
+        <v>0</v>
+      </c>
+      <c r="AE214">
+        <v>0</v>
+      </c>
+      <c r="AF214">
+        <v>1</v>
+      </c>
+      <c r="AG214">
+        <v>0</v>
+      </c>
+      <c r="AH214">
+        <v>0</v>
+      </c>
+      <c r="AI214">
+        <f>SUM(O213:O215)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ214">
+        <f t="shared" ref="AJ214" si="1385">SUM(P213:P215)</f>
+        <v>12</v>
+      </c>
+      <c r="AK214">
+        <f t="shared" ref="AK214" si="1386">SUM(Q213:Q215)</f>
+        <v>18</v>
+      </c>
+      <c r="AL214">
+        <f t="shared" ref="AL214" si="1387">SUM(R213:R215)</f>
+        <v>30</v>
+      </c>
+      <c r="AM214">
+        <f t="shared" ref="AM214" si="1388">SUM(S213:S215)</f>
+        <v>9</v>
+      </c>
+      <c r="AN214">
+        <f t="shared" ref="AN214" si="1389">SUM(T213:T215)</f>
+        <v>2</v>
+      </c>
+      <c r="AO214">
+        <f t="shared" ref="AO214" si="1390">SUM(U213:U215)</f>
+        <v>2</v>
+      </c>
+      <c r="AP214">
+        <f t="shared" ref="AP214" si="1391">SUM(V213:V215)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>2024</v>
+      </c>
+      <c r="B215" s="5">
+        <v>45499</v>
+      </c>
+      <c r="C215">
+        <v>19</v>
+      </c>
+      <c r="D215" t="s">
+        <v>66</v>
+      </c>
+      <c r="F215" t="s">
+        <v>13</v>
+      </c>
+      <c r="G215">
+        <v>13</v>
+      </c>
+      <c r="H215">
+        <v>5</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215" t="s">
+        <v>37</v>
+      </c>
+      <c r="K215" t="s">
+        <v>32</v>
+      </c>
+      <c r="L215">
+        <f t="shared" si="1204"/>
+        <v>29</v>
+      </c>
+      <c r="M215">
+        <v>6</v>
+      </c>
+      <c r="N215">
+        <v>4</v>
+      </c>
+      <c r="O215">
+        <v>2</v>
+      </c>
+      <c r="P215">
+        <v>7</v>
+      </c>
+      <c r="Q215">
+        <v>9</v>
+      </c>
+      <c r="R215">
+        <v>4</v>
+      </c>
+      <c r="S215">
+        <v>0</v>
+      </c>
+      <c r="T215">
+        <v>2</v>
+      </c>
+      <c r="U215">
+        <v>0</v>
+      </c>
+      <c r="V215">
+        <v>5</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
+        <v>0</v>
+      </c>
+      <c r="AB215">
+        <v>0</v>
+      </c>
+      <c r="AC215">
+        <v>0</v>
+      </c>
+      <c r="AD215">
+        <v>1</v>
+      </c>
+      <c r="AE215">
+        <v>0</v>
+      </c>
+      <c r="AF215">
+        <v>0</v>
+      </c>
+      <c r="AG215">
+        <v>0</v>
+      </c>
+      <c r="AH215">
+        <v>0</v>
+      </c>
+      <c r="AI215">
+        <f>SUM(O213:O215)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ215">
+        <f t="shared" ref="AJ215" si="1392">SUM(P213:P215)</f>
+        <v>12</v>
+      </c>
+      <c r="AK215">
+        <f t="shared" ref="AK215" si="1393">SUM(Q213:Q215)</f>
+        <v>18</v>
+      </c>
+      <c r="AL215">
+        <f t="shared" ref="AL215" si="1394">SUM(R213:R215)</f>
+        <v>30</v>
+      </c>
+      <c r="AM215">
+        <f t="shared" ref="AM215" si="1395">SUM(S213:S215)</f>
+        <v>9</v>
+      </c>
+      <c r="AN215">
+        <f>SUM(T213:T215)</f>
+        <v>2</v>
+      </c>
+      <c r="AO215">
+        <f t="shared" ref="AO215" si="1396">SUM(U213:U215)</f>
+        <v>2</v>
+      </c>
+      <c r="AP215">
+        <f t="shared" ref="AP215" si="1397">SUM(V213:V215)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>2024</v>
+      </c>
+      <c r="B216" s="5">
+        <v>45499</v>
+      </c>
+      <c r="C216">
+        <v>20</v>
+      </c>
+      <c r="D216" t="s">
+        <v>66</v>
+      </c>
+      <c r="F216" t="s">
+        <v>13</v>
+      </c>
+      <c r="G216">
+        <v>13</v>
+      </c>
+      <c r="H216">
+        <v>5</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216" t="s">
+        <v>36</v>
+      </c>
+      <c r="K216" t="s">
+        <v>31</v>
+      </c>
+      <c r="L216">
+        <f t="shared" si="1204"/>
+        <v>26</v>
+      </c>
+      <c r="M216">
+        <v>5</v>
+      </c>
+      <c r="N216">
+        <v>5</v>
+      </c>
+      <c r="O216">
+        <v>5</v>
+      </c>
+      <c r="P216">
+        <v>5</v>
+      </c>
+      <c r="Q216">
+        <v>2</v>
+      </c>
+      <c r="R216">
+        <v>4</v>
+      </c>
+      <c r="S216">
+        <v>3</v>
+      </c>
+      <c r="T216">
+        <v>5</v>
+      </c>
+      <c r="U216">
+        <v>0</v>
+      </c>
+      <c r="V216">
+        <v>2</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <v>0</v>
+      </c>
+      <c r="Z216">
+        <v>1</v>
+      </c>
+      <c r="AA216">
+        <v>0</v>
+      </c>
+      <c r="AB216">
+        <v>0</v>
+      </c>
+      <c r="AC216">
+        <v>0</v>
+      </c>
+      <c r="AD216">
+        <v>1</v>
+      </c>
+      <c r="AE216">
+        <v>0</v>
+      </c>
+      <c r="AF216">
+        <v>0</v>
+      </c>
+      <c r="AG216">
+        <v>0</v>
+      </c>
+      <c r="AH216">
+        <v>0</v>
+      </c>
+      <c r="AI216">
+        <f>SUM(O216:O218)</f>
+        <v>15</v>
+      </c>
+      <c r="AJ216">
+        <f t="shared" ref="AJ216" si="1398">SUM(P216:P218)</f>
+        <v>13</v>
+      </c>
+      <c r="AK216">
+        <f t="shared" ref="AK216" si="1399">SUM(Q216:Q218)</f>
+        <v>4</v>
+      </c>
+      <c r="AL216">
+        <f t="shared" ref="AL216" si="1400">SUM(R216:R218)</f>
+        <v>30</v>
+      </c>
+      <c r="AM216">
+        <f t="shared" ref="AM216" si="1401">SUM(S216:S218)</f>
+        <v>11</v>
+      </c>
+      <c r="AN216">
+        <f t="shared" ref="AN216" si="1402">SUM(T216:T218)</f>
+        <v>10</v>
+      </c>
+      <c r="AO216">
+        <f t="shared" ref="AO216" si="1403">SUM(U216:U218)</f>
+        <v>5</v>
+      </c>
+      <c r="AP216">
+        <f t="shared" ref="AP216" si="1404">SUM(V216:V218)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>2024</v>
+      </c>
+      <c r="B217" s="5">
+        <v>45499</v>
+      </c>
+      <c r="C217">
+        <v>20</v>
+      </c>
+      <c r="D217" t="s">
+        <v>66</v>
+      </c>
+      <c r="F217" t="s">
+        <v>11</v>
+      </c>
+      <c r="G217">
+        <v>10</v>
+      </c>
+      <c r="H217">
+        <v>2</v>
+      </c>
+      <c r="I217">
+        <v>2</v>
+      </c>
+      <c r="J217" t="s">
+        <v>32</v>
+      </c>
+      <c r="K217" t="s">
+        <v>31</v>
+      </c>
+      <c r="L217">
+        <f t="shared" si="1204"/>
+        <v>30</v>
+      </c>
+      <c r="M217">
+        <v>6</v>
+      </c>
+      <c r="N217">
+        <v>5</v>
+      </c>
+      <c r="O217">
+        <v>5</v>
+      </c>
+      <c r="P217">
+        <v>4</v>
+      </c>
+      <c r="Q217">
+        <v>2</v>
+      </c>
+      <c r="R217">
+        <v>10</v>
+      </c>
+      <c r="S217">
+        <v>5</v>
+      </c>
+      <c r="T217">
+        <v>0</v>
+      </c>
+      <c r="U217">
+        <v>2</v>
+      </c>
+      <c r="V217">
+        <v>2</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AA217">
+        <v>0</v>
+      </c>
+      <c r="AB217">
+        <v>0</v>
+      </c>
+      <c r="AC217">
+        <v>0</v>
+      </c>
+      <c r="AD217">
+        <v>0</v>
+      </c>
+      <c r="AE217">
+        <v>0</v>
+      </c>
+      <c r="AF217">
+        <v>0</v>
+      </c>
+      <c r="AG217">
+        <v>1</v>
+      </c>
+      <c r="AH217">
+        <v>0</v>
+      </c>
+      <c r="AI217">
+        <f>SUM(O216:O218)</f>
+        <v>15</v>
+      </c>
+      <c r="AJ217">
+        <f t="shared" ref="AJ217" si="1405">SUM(P216:P218)</f>
+        <v>13</v>
+      </c>
+      <c r="AK217">
+        <f t="shared" ref="AK217" si="1406">SUM(Q216:Q218)</f>
+        <v>4</v>
+      </c>
+      <c r="AL217">
+        <f t="shared" ref="AL217" si="1407">SUM(R216:R218)</f>
+        <v>30</v>
+      </c>
+      <c r="AM217">
+        <f t="shared" ref="AM217" si="1408">SUM(S216:S218)</f>
+        <v>11</v>
+      </c>
+      <c r="AN217">
+        <f t="shared" ref="AN217" si="1409">SUM(T216:T218)</f>
+        <v>10</v>
+      </c>
+      <c r="AO217">
+        <f t="shared" ref="AO217" si="1410">SUM(U216:U218)</f>
+        <v>5</v>
+      </c>
+      <c r="AP217">
+        <f t="shared" ref="AP217" si="1411">SUM(V216:V218)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>2024</v>
+      </c>
+      <c r="B218" s="5">
+        <v>45499</v>
+      </c>
+      <c r="C218">
+        <v>20</v>
+      </c>
+      <c r="D218" t="s">
+        <v>66</v>
+      </c>
+      <c r="F218" t="s">
+        <v>12</v>
+      </c>
+      <c r="G218">
+        <v>7</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218">
+        <v>3</v>
+      </c>
+      <c r="J218" t="s">
+        <v>37</v>
+      </c>
+      <c r="K218" t="s">
+        <v>31</v>
+      </c>
+      <c r="L218">
+        <f t="shared" si="1204"/>
+        <v>36</v>
+      </c>
+      <c r="M218">
+        <v>5</v>
+      </c>
+      <c r="N218">
+        <v>4</v>
+      </c>
+      <c r="O218">
+        <v>5</v>
+      </c>
+      <c r="P218">
+        <v>4</v>
+      </c>
+      <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="R218">
+        <v>16</v>
+      </c>
+      <c r="S218">
+        <v>3</v>
+      </c>
+      <c r="T218">
+        <v>5</v>
+      </c>
+      <c r="U218">
+        <v>3</v>
+      </c>
+      <c r="V218">
+        <v>0</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
+      </c>
+      <c r="AB218">
+        <v>0</v>
+      </c>
+      <c r="AC218">
+        <v>0</v>
+      </c>
+      <c r="AD218">
+        <v>0</v>
+      </c>
+      <c r="AE218">
+        <v>1</v>
+      </c>
+      <c r="AF218">
+        <v>0</v>
+      </c>
+      <c r="AG218">
+        <v>0</v>
+      </c>
+      <c r="AH218">
+        <v>0</v>
+      </c>
+      <c r="AI218">
+        <f>SUM(O216:O218)</f>
+        <v>15</v>
+      </c>
+      <c r="AJ218">
+        <f t="shared" ref="AJ218" si="1412">SUM(P216:P218)</f>
+        <v>13</v>
+      </c>
+      <c r="AK218">
+        <f t="shared" ref="AK218" si="1413">SUM(Q216:Q218)</f>
+        <v>4</v>
+      </c>
+      <c r="AL218">
+        <f t="shared" ref="AL218" si="1414">SUM(R216:R218)</f>
+        <v>30</v>
+      </c>
+      <c r="AM218">
+        <f t="shared" ref="AM218" si="1415">SUM(S216:S218)</f>
+        <v>11</v>
+      </c>
+      <c r="AN218">
+        <f>SUM(T216:T218)</f>
+        <v>10</v>
+      </c>
+      <c r="AO218">
+        <f t="shared" ref="AO218" si="1416">SUM(U216:U218)</f>
+        <v>5</v>
+      </c>
+      <c r="AP218">
+        <f t="shared" ref="AP218" si="1417">SUM(V216:V218)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>2024</v>
+      </c>
+      <c r="B219" s="5">
+        <v>45499</v>
+      </c>
+      <c r="C219">
+        <v>21</v>
+      </c>
+      <c r="D219" t="s">
+        <v>66</v>
+      </c>
+      <c r="F219" t="s">
+        <v>13</v>
+      </c>
+      <c r="G219">
+        <v>11</v>
+      </c>
+      <c r="H219">
+        <v>4</v>
+      </c>
+      <c r="I219">
+        <v>2</v>
+      </c>
+      <c r="J219" t="s">
+        <v>36</v>
+      </c>
+      <c r="K219" t="s">
+        <v>32</v>
+      </c>
+      <c r="L219">
+        <f t="shared" si="1204"/>
+        <v>29</v>
+      </c>
+      <c r="M219">
+        <v>6</v>
+      </c>
+      <c r="N219">
+        <v>5</v>
+      </c>
+      <c r="O219">
+        <v>4</v>
+      </c>
+      <c r="P219">
+        <v>3</v>
+      </c>
+      <c r="Q219">
+        <v>3</v>
+      </c>
+      <c r="R219">
+        <v>14</v>
+      </c>
+      <c r="S219">
+        <v>1</v>
+      </c>
+      <c r="T219">
+        <v>0</v>
+      </c>
+      <c r="U219">
+        <v>1</v>
+      </c>
+      <c r="V219">
+        <v>3</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+      <c r="AB219">
+        <v>0</v>
+      </c>
+      <c r="AC219">
+        <v>1</v>
+      </c>
+      <c r="AD219">
+        <v>0</v>
+      </c>
+      <c r="AE219">
+        <v>0</v>
+      </c>
+      <c r="AF219">
+        <v>0</v>
+      </c>
+      <c r="AG219">
+        <v>0</v>
+      </c>
+      <c r="AH219">
+        <v>1</v>
+      </c>
+      <c r="AI219">
+        <f>SUM(O219:O221)</f>
+        <v>12</v>
+      </c>
+      <c r="AJ219">
+        <f t="shared" ref="AJ219" si="1418">SUM(P219:P221)</f>
+        <v>13</v>
+      </c>
+      <c r="AK219">
+        <f t="shared" ref="AK219" si="1419">SUM(Q219:Q221)</f>
+        <v>13</v>
+      </c>
+      <c r="AL219">
+        <f t="shared" ref="AL219" si="1420">SUM(R219:R221)</f>
+        <v>33</v>
+      </c>
+      <c r="AM219">
+        <f t="shared" ref="AM219" si="1421">SUM(S219:S221)</f>
+        <v>5</v>
+      </c>
+      <c r="AN219">
+        <f t="shared" ref="AN219" si="1422">SUM(T219:T221)</f>
+        <v>4</v>
+      </c>
+      <c r="AO219">
+        <f t="shared" ref="AO219" si="1423">SUM(U219:U221)</f>
+        <v>3</v>
+      </c>
+      <c r="AP219">
+        <f t="shared" ref="AP219" si="1424">SUM(V219:V221)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>2024</v>
+      </c>
+      <c r="B220" s="5">
+        <v>45499</v>
+      </c>
+      <c r="C220">
+        <v>21</v>
+      </c>
+      <c r="D220" t="s">
+        <v>66</v>
+      </c>
+      <c r="F220" t="s">
+        <v>11</v>
+      </c>
+      <c r="G220">
+        <v>10</v>
+      </c>
+      <c r="H220">
+        <v>3</v>
+      </c>
+      <c r="I220">
+        <v>3</v>
+      </c>
+      <c r="J220" t="s">
+        <v>32</v>
+      </c>
+      <c r="K220" t="s">
+        <v>32</v>
+      </c>
+      <c r="L220">
+        <f t="shared" si="1204"/>
+        <v>29</v>
+      </c>
+      <c r="M220">
+        <v>5</v>
+      </c>
+      <c r="N220">
+        <v>4</v>
+      </c>
+      <c r="O220">
+        <v>4</v>
+      </c>
+      <c r="P220">
+        <v>0</v>
+      </c>
+      <c r="Q220">
+        <v>7</v>
+      </c>
+      <c r="R220">
+        <v>10</v>
+      </c>
+      <c r="S220">
+        <v>4</v>
+      </c>
+      <c r="T220">
+        <v>0</v>
+      </c>
+      <c r="U220">
+        <v>2</v>
+      </c>
+      <c r="V220">
+        <v>2</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+      <c r="AB220">
+        <v>0</v>
+      </c>
+      <c r="AC220">
+        <v>0</v>
+      </c>
+      <c r="AD220">
+        <v>0</v>
+      </c>
+      <c r="AE220">
+        <v>0</v>
+      </c>
+      <c r="AF220">
+        <v>1</v>
+      </c>
+      <c r="AG220">
+        <v>0</v>
+      </c>
+      <c r="AH220">
+        <v>0</v>
+      </c>
+      <c r="AI220">
+        <f>SUM(O219:O221)</f>
+        <v>12</v>
+      </c>
+      <c r="AJ220">
+        <f t="shared" ref="AJ220" si="1425">SUM(P219:P221)</f>
+        <v>13</v>
+      </c>
+      <c r="AK220">
+        <f t="shared" ref="AK220" si="1426">SUM(Q219:Q221)</f>
+        <v>13</v>
+      </c>
+      <c r="AL220">
+        <f t="shared" ref="AL220" si="1427">SUM(R219:R221)</f>
+        <v>33</v>
+      </c>
+      <c r="AM220">
+        <f t="shared" ref="AM220" si="1428">SUM(S219:S221)</f>
+        <v>5</v>
+      </c>
+      <c r="AN220">
+        <f t="shared" ref="AN220" si="1429">SUM(T219:T221)</f>
+        <v>4</v>
+      </c>
+      <c r="AO220">
+        <f t="shared" ref="AO220" si="1430">SUM(U219:U221)</f>
+        <v>3</v>
+      </c>
+      <c r="AP220">
+        <f t="shared" ref="AP220" si="1431">SUM(V219:V221)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>2024</v>
+      </c>
+      <c r="B221" s="5">
+        <v>45499</v>
+      </c>
+      <c r="C221">
+        <v>21</v>
+      </c>
+      <c r="D221" t="s">
+        <v>66</v>
+      </c>
+      <c r="F221" t="s">
+        <v>12</v>
+      </c>
+      <c r="G221">
+        <v>13</v>
+      </c>
+      <c r="H221">
+        <v>4</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="s">
+        <v>37</v>
+      </c>
+      <c r="K221" t="s">
+        <v>32</v>
+      </c>
+      <c r="L221">
+        <f t="shared" si="1204"/>
+        <v>33</v>
+      </c>
+      <c r="M221">
+        <v>5</v>
+      </c>
+      <c r="N221">
+        <v>4</v>
+      </c>
+      <c r="O221">
+        <v>4</v>
+      </c>
+      <c r="P221">
+        <v>10</v>
+      </c>
+      <c r="Q221">
+        <v>3</v>
+      </c>
+      <c r="R221">
+        <v>9</v>
+      </c>
+      <c r="S221">
+        <v>0</v>
+      </c>
+      <c r="T221">
+        <v>4</v>
+      </c>
+      <c r="U221">
+        <v>0</v>
+      </c>
+      <c r="V221">
+        <v>3</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
+        <v>0</v>
+      </c>
+      <c r="AB221">
+        <v>0</v>
+      </c>
+      <c r="AC221">
+        <v>0</v>
+      </c>
+      <c r="AD221">
+        <v>0</v>
+      </c>
+      <c r="AE221">
+        <v>0</v>
+      </c>
+      <c r="AF221">
+        <v>0</v>
+      </c>
+      <c r="AG221">
+        <v>0</v>
+      </c>
+      <c r="AH221">
+        <v>0</v>
+      </c>
+      <c r="AI221">
+        <f>SUM(O219:O221)</f>
+        <v>12</v>
+      </c>
+      <c r="AJ221">
+        <f t="shared" ref="AJ221" si="1432">SUM(P219:P221)</f>
+        <v>13</v>
+      </c>
+      <c r="AK221">
+        <f t="shared" ref="AK221" si="1433">SUM(Q219:Q221)</f>
+        <v>13</v>
+      </c>
+      <c r="AL221">
+        <f t="shared" ref="AL221" si="1434">SUM(R219:R221)</f>
+        <v>33</v>
+      </c>
+      <c r="AM221">
+        <f t="shared" ref="AM221" si="1435">SUM(S219:S221)</f>
+        <v>5</v>
+      </c>
+      <c r="AN221">
+        <f>SUM(T219:T221)</f>
+        <v>4</v>
+      </c>
+      <c r="AO221">
+        <f t="shared" ref="AO221" si="1436">SUM(U219:U221)</f>
+        <v>3</v>
+      </c>
+      <c r="AP221">
+        <f t="shared" ref="AP221" si="1437">SUM(V219:V221)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>2024</v>
+      </c>
+      <c r="B222" s="5">
+        <v>45499</v>
+      </c>
+      <c r="C222">
+        <v>22</v>
+      </c>
+      <c r="D222" t="s">
+        <v>66</v>
+      </c>
+      <c r="F222" t="s">
+        <v>13</v>
+      </c>
+      <c r="G222">
+        <v>13</v>
+      </c>
+      <c r="H222">
+        <v>5</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222" t="s">
+        <v>36</v>
+      </c>
+      <c r="K222" t="s">
+        <v>32</v>
+      </c>
+      <c r="L222">
+        <f t="shared" si="1204"/>
+        <v>28</v>
+      </c>
+      <c r="M222">
+        <v>6</v>
+      </c>
+      <c r="N222">
+        <v>5</v>
+      </c>
+      <c r="O222">
+        <v>3</v>
+      </c>
+      <c r="P222">
+        <v>2</v>
+      </c>
+      <c r="Q222">
+        <v>3</v>
+      </c>
+      <c r="R222">
+        <v>9</v>
+      </c>
+      <c r="S222">
+        <v>4</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>4</v>
+      </c>
+      <c r="V222">
+        <v>3</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
+      <c r="AF222">
+        <v>0</v>
+      </c>
+      <c r="AG222">
+        <v>0</v>
+      </c>
+      <c r="AH222">
+        <v>0</v>
+      </c>
+      <c r="AI222">
+        <f>SUM(O222:O223)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ222">
+        <f>SUM(P222:P223)</f>
+        <v>10</v>
+      </c>
+      <c r="AK222">
+        <f>SUM(Q222:Q223)</f>
+        <v>6</v>
+      </c>
+      <c r="AL222">
+        <f>SUM(R222:R223)</f>
+        <v>14</v>
+      </c>
+      <c r="AM222">
+        <f>SUM(S222:S223)</f>
+        <v>12</v>
+      </c>
+      <c r="AN222">
+        <f>SUM(T222:T223)</f>
+        <v>0</v>
+      </c>
+      <c r="AO222">
+        <f>SUM(U222:U223)</f>
+        <v>8</v>
+      </c>
+      <c r="AP222">
+        <f>SUM(V222:V223)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>2024</v>
+      </c>
+      <c r="B223" s="5">
+        <v>45499</v>
+      </c>
+      <c r="C223">
+        <v>22</v>
+      </c>
+      <c r="D223" t="s">
+        <v>66</v>
+      </c>
+      <c r="F223" t="s">
+        <v>11</v>
+      </c>
+      <c r="G223">
+        <v>10</v>
+      </c>
+      <c r="H223">
+        <v>3</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223" t="s">
+        <v>32</v>
+      </c>
+      <c r="K223" t="s">
+        <v>32</v>
+      </c>
+      <c r="L223">
+        <f t="shared" si="1204"/>
+        <v>33</v>
+      </c>
+      <c r="M223">
+        <v>5</v>
+      </c>
+      <c r="N223">
+        <v>5</v>
+      </c>
+      <c r="O223">
+        <v>2</v>
+      </c>
+      <c r="P223">
+        <v>8</v>
+      </c>
+      <c r="Q223">
+        <v>3</v>
+      </c>
+      <c r="R223">
+        <v>5</v>
+      </c>
+      <c r="S223">
+        <v>8</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>4</v>
+      </c>
+      <c r="V223">
+        <v>3</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
+      <c r="AF223">
+        <v>0</v>
+      </c>
+      <c r="AG223">
+        <v>0</v>
+      </c>
+      <c r="AH223">
+        <v>0</v>
+      </c>
+      <c r="AI223">
+        <f>SUM(O222:O223)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ223">
+        <f>SUM(P222:P223)</f>
+        <v>10</v>
+      </c>
+      <c r="AK223">
+        <f>SUM(Q222:Q223)</f>
+        <v>6</v>
+      </c>
+      <c r="AL223">
+        <f>SUM(R222:R223)</f>
+        <v>14</v>
+      </c>
+      <c r="AM223">
+        <f>SUM(S222:S223)</f>
+        <v>12</v>
+      </c>
+      <c r="AN223">
+        <f>SUM(T222:T223)</f>
+        <v>0</v>
+      </c>
+      <c r="AO223">
+        <f>SUM(U222:U223)</f>
+        <v>8</v>
+      </c>
+      <c r="AP223">
+        <f>SUM(V222:V223)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>2024</v>
+      </c>
+      <c r="B224" s="5">
+        <v>45499</v>
+      </c>
+      <c r="C224">
+        <v>22</v>
+      </c>
+      <c r="D224" t="s">
+        <v>66</v>
+      </c>
+      <c r="F224" t="s">
+        <v>12</v>
+      </c>
+      <c r="G224">
+        <v>10</v>
+      </c>
+      <c r="H224">
+        <v>4</v>
+      </c>
+      <c r="I224">
+        <v>3</v>
+      </c>
+      <c r="J224" t="s">
+        <v>37</v>
+      </c>
+      <c r="K224" t="s">
+        <v>32</v>
+      </c>
+      <c r="L224">
+        <f t="shared" si="1204"/>
+        <v>33</v>
+      </c>
+      <c r="M224">
+        <v>6</v>
+      </c>
+      <c r="N224">
+        <v>4</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>5</v>
+      </c>
+      <c r="Q224">
+        <v>6</v>
+      </c>
+      <c r="R224">
+        <v>2</v>
+      </c>
+      <c r="S224">
+        <v>9</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>5</v>
+      </c>
+      <c r="V224">
+        <v>6</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>1</v>
+      </c>
+      <c r="AF224">
+        <v>0</v>
+      </c>
+      <c r="AG224">
+        <v>0</v>
+      </c>
+      <c r="AH224">
+        <v>0</v>
+      </c>
+      <c r="AI224">
+        <f>SUM(O222:O223)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ224">
+        <f>SUM(P222:P223)</f>
+        <v>10</v>
+      </c>
+      <c r="AK224">
+        <f>SUM(Q222:Q223)</f>
+        <v>6</v>
+      </c>
+      <c r="AL224">
+        <f>SUM(R222:R223)</f>
+        <v>14</v>
+      </c>
+      <c r="AM224">
+        <f>SUM(S222:S223)</f>
+        <v>12</v>
+      </c>
+      <c r="AN224">
+        <f>SUM(T222:T223)</f>
+        <v>0</v>
+      </c>
+      <c r="AO224">
+        <f>SUM(U222:U223)</f>
+        <v>8</v>
+      </c>
+      <c r="AP224">
+        <f>SUM(V222:V223)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>2024</v>
+      </c>
+      <c r="B225" s="5">
+        <v>45499</v>
+      </c>
+      <c r="C225">
+        <v>23</v>
+      </c>
+      <c r="D225" t="s">
+        <v>66</v>
+      </c>
+      <c r="J225" t="s">
+        <v>36</v>
+      </c>
+      <c r="L225">
+        <f t="shared" si="1204"/>
+        <v>0</v>
+      </c>
+      <c r="AI225">
+        <f>SUM(O225:O226)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ225">
+        <f>SUM(P225:P226)</f>
+        <v>0</v>
+      </c>
+      <c r="AK225">
+        <f>SUM(Q225:Q226)</f>
+        <v>0</v>
+      </c>
+      <c r="AL225">
+        <f>SUM(R225:R226)</f>
+        <v>0</v>
+      </c>
+      <c r="AM225">
+        <f>SUM(S225:S226)</f>
+        <v>0</v>
+      </c>
+      <c r="AN225">
+        <f>SUM(T225:T226)</f>
+        <v>0</v>
+      </c>
+      <c r="AO225">
+        <f>SUM(U225:U226)</f>
+        <v>0</v>
+      </c>
+      <c r="AP225">
+        <f>SUM(V225:V226)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>2024</v>
+      </c>
+      <c r="B226" s="5">
+        <v>45499</v>
+      </c>
+      <c r="C226">
+        <v>23</v>
+      </c>
+      <c r="D226" t="s">
+        <v>66</v>
+      </c>
+      <c r="J226" t="s">
+        <v>32</v>
+      </c>
+      <c r="L226">
+        <f t="shared" si="1204"/>
+        <v>0</v>
+      </c>
+      <c r="AI226">
+        <f>SUM(O225:O226)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ226">
+        <f>SUM(P225:P226)</f>
+        <v>0</v>
+      </c>
+      <c r="AK226">
+        <f>SUM(Q225:Q226)</f>
+        <v>0</v>
+      </c>
+      <c r="AL226">
+        <f>SUM(R225:R226)</f>
+        <v>0</v>
+      </c>
+      <c r="AM226">
+        <f>SUM(S225:S226)</f>
+        <v>0</v>
+      </c>
+      <c r="AN226">
+        <f>SUM(T225:T226)</f>
+        <v>0</v>
+      </c>
+      <c r="AO226">
+        <f>SUM(U225:U226)</f>
+        <v>0</v>
+      </c>
+      <c r="AP226">
+        <f>SUM(V225:V226)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>2024</v>
+      </c>
+      <c r="B227" s="5">
+        <v>45499</v>
+      </c>
+      <c r="C227">
+        <v>23</v>
+      </c>
+      <c r="D227" t="s">
+        <v>66</v>
+      </c>
+      <c r="J227" t="s">
+        <v>37</v>
+      </c>
+      <c r="L227">
+        <f t="shared" si="1204"/>
+        <v>0</v>
+      </c>
+      <c r="AI227">
+        <f>SUM(O225:O226)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ227">
+        <f>SUM(P225:P226)</f>
+        <v>0</v>
+      </c>
+      <c r="AK227">
+        <f>SUM(Q225:Q226)</f>
+        <v>0</v>
+      </c>
+      <c r="AL227">
+        <f>SUM(R225:R226)</f>
+        <v>0</v>
+      </c>
+      <c r="AM227">
+        <f>SUM(S225:S226)</f>
+        <v>0</v>
+      </c>
+      <c r="AN227">
+        <f>SUM(T225:T226)</f>
+        <v>0</v>
+      </c>
+      <c r="AO227">
+        <f>SUM(U225:U226)</f>
+        <v>0</v>
+      </c>
+      <c r="AP227">
+        <f>SUM(V225:V226)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AP191" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
+  <autoFilter ref="A2:AP218" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W177:Z1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W225:Z1048576 W177:Z223" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Documents\CatanData\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CA1C44-3207-403D-A375-C5841E978469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADA1631-4A0E-42D0-A30B-5E5E8E4D160B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="67">
   <si>
     <t>season</t>
   </si>
@@ -619,10 +619,10 @@
   <dimension ref="A1:AP227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J206" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J204" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F229" sqref="F229"/>
+      <selection pane="bottomRight" activeCell="G218" sqref="G218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30783,40 +30783,121 @@
       <c r="D225" t="s">
         <v>66</v>
       </c>
+      <c r="F225" t="s">
+        <v>13</v>
+      </c>
+      <c r="G225">
+        <v>13</v>
+      </c>
+      <c r="H225">
+        <v>6</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
       <c r="J225" t="s">
         <v>36</v>
       </c>
+      <c r="K225" t="s">
+        <v>31</v>
+      </c>
       <c r="L225">
         <f t="shared" si="1204"/>
+        <v>30</v>
+      </c>
+      <c r="M225">
+        <v>5</v>
+      </c>
+      <c r="N225">
+        <v>5</v>
+      </c>
+      <c r="O225">
+        <v>2</v>
+      </c>
+      <c r="P225">
+        <v>6</v>
+      </c>
+      <c r="Q225">
+        <v>5</v>
+      </c>
+      <c r="R225">
+        <v>3</v>
+      </c>
+      <c r="S225">
+        <v>8</v>
+      </c>
+      <c r="T225">
+        <v>2</v>
+      </c>
+      <c r="U225">
+        <v>4</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
+      <c r="AF225">
+        <v>1</v>
+      </c>
+      <c r="AG225">
+        <v>0</v>
+      </c>
+      <c r="AH225">
         <v>0</v>
       </c>
       <c r="AI225">
         <f>SUM(O225:O226)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ225">
         <f>SUM(P225:P226)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK225">
         <f>SUM(Q225:Q226)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL225">
         <f>SUM(R225:R226)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AM225">
         <f>SUM(S225:S226)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN225">
         <f>SUM(T225:T226)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO225">
         <f>SUM(U225:U226)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AP225">
         <f>SUM(V225:V226)</f>
@@ -30836,40 +30917,121 @@
       <c r="D226" t="s">
         <v>66</v>
       </c>
+      <c r="F226" t="s">
+        <v>12</v>
+      </c>
+      <c r="G226">
+        <v>9</v>
+      </c>
+      <c r="H226">
+        <v>3</v>
+      </c>
+      <c r="I226">
+        <v>3</v>
+      </c>
       <c r="J226" t="s">
         <v>32</v>
       </c>
+      <c r="K226" t="s">
+        <v>31</v>
+      </c>
       <c r="L226">
         <f t="shared" si="1204"/>
+        <v>32</v>
+      </c>
+      <c r="M226">
+        <v>6</v>
+      </c>
+      <c r="N226">
+        <v>5</v>
+      </c>
+      <c r="O226">
+        <v>4</v>
+      </c>
+      <c r="P226">
+        <v>6</v>
+      </c>
+      <c r="Q226">
+        <v>3</v>
+      </c>
+      <c r="R226">
+        <v>9</v>
+      </c>
+      <c r="S226">
+        <v>5</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>5</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
+      <c r="AE226">
+        <v>0</v>
+      </c>
+      <c r="AF226">
+        <v>0</v>
+      </c>
+      <c r="AG226">
+        <v>0</v>
+      </c>
+      <c r="AH226">
         <v>0</v>
       </c>
       <c r="AI226">
         <f>SUM(O225:O226)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ226">
         <f>SUM(P225:P226)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK226">
         <f>SUM(Q225:Q226)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL226">
         <f>SUM(R225:R226)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AM226">
         <f>SUM(S225:S226)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN226">
         <f>SUM(T225:T226)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO226">
         <f>SUM(U225:U226)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AP226">
         <f>SUM(V225:V226)</f>
@@ -30889,40 +31051,121 @@
       <c r="D227" t="s">
         <v>66</v>
       </c>
+      <c r="F227" t="s">
+        <v>11</v>
+      </c>
+      <c r="G227">
+        <v>10</v>
+      </c>
+      <c r="H227">
+        <v>4</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
       <c r="J227" t="s">
         <v>37</v>
       </c>
+      <c r="K227" t="s">
+        <v>31</v>
+      </c>
       <c r="L227">
         <f t="shared" si="1204"/>
+        <v>32</v>
+      </c>
+      <c r="M227">
+        <v>6</v>
+      </c>
+      <c r="N227">
+        <v>4</v>
+      </c>
+      <c r="O227">
+        <v>5</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>10</v>
+      </c>
+      <c r="R227">
+        <v>4</v>
+      </c>
+      <c r="S227">
+        <v>4</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>4</v>
+      </c>
+      <c r="V227">
+        <v>5</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>0</v>
+      </c>
+      <c r="AF227">
+        <v>0</v>
+      </c>
+      <c r="AG227">
+        <v>1</v>
+      </c>
+      <c r="AH227">
         <v>0</v>
       </c>
       <c r="AI227">
         <f>SUM(O225:O226)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ227">
         <f>SUM(P225:P226)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK227">
         <f>SUM(Q225:Q226)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL227">
         <f>SUM(R225:R226)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AM227">
         <f>SUM(S225:S226)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN227">
         <f>SUM(T225:T226)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO227">
         <f>SUM(U225:U226)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AP227">
         <f>SUM(V225:V226)</f>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Documents\CatanData\catan_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88b1f18c208c1b3c/Documents/CatanData/catan_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DCB0DB-EAC6-4ACB-A415-EE9F8A06DED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{37DCB0DB-EAC6-4ACB-A415-EE9F8A06DED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66E7E280-3425-4C53-8AD8-598C5390A399}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$254</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$260</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="71">
   <si>
     <t>season</t>
   </si>
@@ -250,6 +250,9 @@
   <si>
     <t>Stöylen Camping</t>
   </si>
+  <si>
+    <t>Köln (Brüsseler Str.)</t>
+  </si>
 </sst>
 </file>
 
@@ -313,7 +316,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -329,9 +332,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -369,7 +372,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -475,7 +478,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -625,16 +628,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP254"/>
+  <dimension ref="A1:AP260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J235" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J239" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I253" sqref="I253"/>
+      <selection pane="bottomRight" activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
@@ -26455,7 +26458,7 @@
         <v>31</v>
       </c>
       <c r="L251">
-        <f t="shared" ref="L251:L254" si="5">SUM(O251:V251)</f>
+        <f t="shared" ref="L251:L260" si="5">SUM(O251:V251)</f>
         <v>34</v>
       </c>
       <c r="M251">
@@ -26831,9 +26834,621 @@
         <v>0</v>
       </c>
     </row>
+    <row r="255" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>2024</v>
+      </c>
+      <c r="B255" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C255">
+        <v>33</v>
+      </c>
+      <c r="D255" t="s">
+        <v>70</v>
+      </c>
+      <c r="F255" t="s">
+        <v>12</v>
+      </c>
+      <c r="G255">
+        <v>13</v>
+      </c>
+      <c r="H255">
+        <v>5</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255" t="s">
+        <v>36</v>
+      </c>
+      <c r="K255" t="s">
+        <v>31</v>
+      </c>
+      <c r="L255">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="M255">
+        <v>6</v>
+      </c>
+      <c r="N255">
+        <v>5</v>
+      </c>
+      <c r="O255">
+        <v>3</v>
+      </c>
+      <c r="P255">
+        <v>5</v>
+      </c>
+      <c r="Q255">
+        <v>2</v>
+      </c>
+      <c r="R255">
+        <v>14</v>
+      </c>
+      <c r="S255">
+        <v>4</v>
+      </c>
+      <c r="T255">
+        <v>3</v>
+      </c>
+      <c r="U255">
+        <v>0</v>
+      </c>
+      <c r="V255">
+        <v>2</v>
+      </c>
+      <c r="W255">
+        <v>0</v>
+      </c>
+      <c r="X255">
+        <v>0</v>
+      </c>
+      <c r="Y255">
+        <v>0</v>
+      </c>
+      <c r="Z255">
+        <v>0</v>
+      </c>
+      <c r="AA255">
+        <v>0</v>
+      </c>
+      <c r="AB255">
+        <v>0</v>
+      </c>
+      <c r="AC255">
+        <v>1</v>
+      </c>
+      <c r="AD255">
+        <v>0</v>
+      </c>
+      <c r="AE255">
+        <v>0</v>
+      </c>
+      <c r="AF255">
+        <v>1</v>
+      </c>
+      <c r="AG255">
+        <v>0</v>
+      </c>
+      <c r="AH255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>2024</v>
+      </c>
+      <c r="B256" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C256">
+        <v>33</v>
+      </c>
+      <c r="D256" t="s">
+        <v>70</v>
+      </c>
+      <c r="F256" t="s">
+        <v>11</v>
+      </c>
+      <c r="G256">
+        <v>10</v>
+      </c>
+      <c r="H256">
+        <v>4</v>
+      </c>
+      <c r="I256">
+        <v>3</v>
+      </c>
+      <c r="J256" t="s">
+        <v>32</v>
+      </c>
+      <c r="K256" t="s">
+        <v>31</v>
+      </c>
+      <c r="L256">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="M256">
+        <v>5</v>
+      </c>
+      <c r="N256">
+        <v>5</v>
+      </c>
+      <c r="O256">
+        <v>6</v>
+      </c>
+      <c r="P256">
+        <v>5</v>
+      </c>
+      <c r="Q256">
+        <v>5</v>
+      </c>
+      <c r="R256">
+        <v>4</v>
+      </c>
+      <c r="S256">
+        <v>2</v>
+      </c>
+      <c r="T256">
+        <v>3</v>
+      </c>
+      <c r="U256">
+        <v>2</v>
+      </c>
+      <c r="V256">
+        <v>5</v>
+      </c>
+      <c r="W256">
+        <v>0</v>
+      </c>
+      <c r="X256">
+        <v>0</v>
+      </c>
+      <c r="Y256">
+        <v>0</v>
+      </c>
+      <c r="Z256">
+        <v>0</v>
+      </c>
+      <c r="AA256">
+        <v>0</v>
+      </c>
+      <c r="AB256">
+        <v>0</v>
+      </c>
+      <c r="AC256">
+        <v>0</v>
+      </c>
+      <c r="AD256">
+        <v>1</v>
+      </c>
+      <c r="AE256">
+        <v>0</v>
+      </c>
+      <c r="AF256">
+        <v>0</v>
+      </c>
+      <c r="AG256">
+        <v>0</v>
+      </c>
+      <c r="AH256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>2024</v>
+      </c>
+      <c r="B257" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C257">
+        <v>33</v>
+      </c>
+      <c r="D257" t="s">
+        <v>70</v>
+      </c>
+      <c r="F257" t="s">
+        <v>13</v>
+      </c>
+      <c r="G257">
+        <v>10</v>
+      </c>
+      <c r="H257">
+        <v>2</v>
+      </c>
+      <c r="I257">
+        <v>2</v>
+      </c>
+      <c r="J257" t="s">
+        <v>37</v>
+      </c>
+      <c r="K257" t="s">
+        <v>31</v>
+      </c>
+      <c r="L257">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="M257">
+        <v>3</v>
+      </c>
+      <c r="N257">
+        <v>5</v>
+      </c>
+      <c r="O257">
+        <v>3</v>
+      </c>
+      <c r="P257">
+        <v>3</v>
+      </c>
+      <c r="Q257">
+        <v>5</v>
+      </c>
+      <c r="R257">
+        <v>14</v>
+      </c>
+      <c r="S257">
+        <v>4</v>
+      </c>
+      <c r="T257">
+        <v>3</v>
+      </c>
+      <c r="U257">
+        <v>4</v>
+      </c>
+      <c r="V257">
+        <v>0</v>
+      </c>
+      <c r="W257">
+        <v>0</v>
+      </c>
+      <c r="X257">
+        <v>0</v>
+      </c>
+      <c r="Y257">
+        <v>0</v>
+      </c>
+      <c r="Z257">
+        <v>0</v>
+      </c>
+      <c r="AA257">
+        <v>0</v>
+      </c>
+      <c r="AB257">
+        <v>0</v>
+      </c>
+      <c r="AC257">
+        <v>0</v>
+      </c>
+      <c r="AD257">
+        <v>1</v>
+      </c>
+      <c r="AE257">
+        <v>0</v>
+      </c>
+      <c r="AF257">
+        <v>0</v>
+      </c>
+      <c r="AG257">
+        <v>0</v>
+      </c>
+      <c r="AH257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>2024</v>
+      </c>
+      <c r="B258" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C258">
+        <v>34</v>
+      </c>
+      <c r="D258" t="s">
+        <v>70</v>
+      </c>
+      <c r="F258" t="s">
+        <v>11</v>
+      </c>
+      <c r="G258">
+        <v>15</v>
+      </c>
+      <c r="H258">
+        <v>8</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258" t="s">
+        <v>36</v>
+      </c>
+      <c r="K258" t="s">
+        <v>31</v>
+      </c>
+      <c r="L258">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="M258">
+        <v>3</v>
+      </c>
+      <c r="N258">
+        <v>4</v>
+      </c>
+      <c r="O258">
+        <v>4</v>
+      </c>
+      <c r="P258">
+        <v>0</v>
+      </c>
+      <c r="Q258">
+        <v>11</v>
+      </c>
+      <c r="R258">
+        <v>8</v>
+      </c>
+      <c r="S258">
+        <v>5</v>
+      </c>
+      <c r="T258">
+        <v>0</v>
+      </c>
+      <c r="U258">
+        <v>0</v>
+      </c>
+      <c r="V258">
+        <v>8</v>
+      </c>
+      <c r="W258">
+        <v>0</v>
+      </c>
+      <c r="X258">
+        <v>0</v>
+      </c>
+      <c r="Y258">
+        <v>0</v>
+      </c>
+      <c r="Z258">
+        <v>0</v>
+      </c>
+      <c r="AA258">
+        <v>0</v>
+      </c>
+      <c r="AB258">
+        <v>0</v>
+      </c>
+      <c r="AC258">
+        <v>1</v>
+      </c>
+      <c r="AD258">
+        <v>0</v>
+      </c>
+      <c r="AE258">
+        <v>0</v>
+      </c>
+      <c r="AF258">
+        <v>0</v>
+      </c>
+      <c r="AG258">
+        <v>0</v>
+      </c>
+      <c r="AH258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>2024</v>
+      </c>
+      <c r="B259" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C259">
+        <v>34</v>
+      </c>
+      <c r="D259" t="s">
+        <v>70</v>
+      </c>
+      <c r="F259" t="s">
+        <v>13</v>
+      </c>
+      <c r="G259">
+        <v>6</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+      <c r="I259">
+        <v>3</v>
+      </c>
+      <c r="J259" t="s">
+        <v>32</v>
+      </c>
+      <c r="K259" t="s">
+        <v>31</v>
+      </c>
+      <c r="L259">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="M259">
+        <v>5</v>
+      </c>
+      <c r="N259">
+        <v>5</v>
+      </c>
+      <c r="O259">
+        <v>5</v>
+      </c>
+      <c r="P259">
+        <v>9</v>
+      </c>
+      <c r="Q259">
+        <v>4</v>
+      </c>
+      <c r="R259">
+        <v>3</v>
+      </c>
+      <c r="S259">
+        <v>2</v>
+      </c>
+      <c r="T259">
+        <v>5</v>
+      </c>
+      <c r="U259">
+        <v>2</v>
+      </c>
+      <c r="V259">
+        <v>0</v>
+      </c>
+      <c r="W259">
+        <v>0</v>
+      </c>
+      <c r="X259">
+        <v>0</v>
+      </c>
+      <c r="Y259">
+        <v>0</v>
+      </c>
+      <c r="Z259">
+        <v>0</v>
+      </c>
+      <c r="AA259">
+        <v>0</v>
+      </c>
+      <c r="AB259">
+        <v>0</v>
+      </c>
+      <c r="AC259">
+        <v>0</v>
+      </c>
+      <c r="AD259">
+        <v>0</v>
+      </c>
+      <c r="AE259">
+        <v>0</v>
+      </c>
+      <c r="AF259">
+        <v>0</v>
+      </c>
+      <c r="AG259">
+        <v>0</v>
+      </c>
+      <c r="AH259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>2024</v>
+      </c>
+      <c r="B260" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C260">
+        <v>34</v>
+      </c>
+      <c r="D260" t="s">
+        <v>70</v>
+      </c>
+      <c r="F260" t="s">
+        <v>12</v>
+      </c>
+      <c r="G260">
+        <v>9</v>
+      </c>
+      <c r="H260">
+        <v>2</v>
+      </c>
+      <c r="I260">
+        <v>2</v>
+      </c>
+      <c r="J260" t="s">
+        <v>37</v>
+      </c>
+      <c r="K260" t="s">
+        <v>31</v>
+      </c>
+      <c r="L260">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="M260">
+        <v>6</v>
+      </c>
+      <c r="N260">
+        <v>4</v>
+      </c>
+      <c r="O260">
+        <v>5</v>
+      </c>
+      <c r="P260">
+        <v>2</v>
+      </c>
+      <c r="Q260">
+        <v>3</v>
+      </c>
+      <c r="R260">
+        <v>15</v>
+      </c>
+      <c r="S260">
+        <v>0</v>
+      </c>
+      <c r="T260">
+        <v>5</v>
+      </c>
+      <c r="U260">
+        <v>0</v>
+      </c>
+      <c r="V260">
+        <v>3</v>
+      </c>
+      <c r="W260">
+        <v>0</v>
+      </c>
+      <c r="X260">
+        <v>0</v>
+      </c>
+      <c r="Y260">
+        <v>0</v>
+      </c>
+      <c r="Z260">
+        <v>0</v>
+      </c>
+      <c r="AA260">
+        <v>0</v>
+      </c>
+      <c r="AB260">
+        <v>0</v>
+      </c>
+      <c r="AC260">
+        <v>0</v>
+      </c>
+      <c r="AD260">
+        <v>0</v>
+      </c>
+      <c r="AE260">
+        <v>0</v>
+      </c>
+      <c r="AF260">
+        <v>1</v>
+      </c>
+      <c r="AG260">
+        <v>0</v>
+      </c>
+      <c r="AH260">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AP254" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
-  <dataValidations count="1">
+  <autoFilter ref="A2:AP260" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W177:Z223 W225:Z1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>
       <formula2>1</formula2>
@@ -26843,7 +27458,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{761EF6A8-1D47-4E5D-B2B8-225F6EE4B0A2}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$3</xm:f>
@@ -26876,7 +27491,7 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="9" max="9" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.453125" bestFit="1" customWidth="1"/>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88b1f18c208c1b3c/Documents/CatanData/catan_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{37DCB0DB-EAC6-4ACB-A415-EE9F8A06DED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66E7E280-3425-4C53-8AD8-598C5390A399}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{EC8D8D10-CA15-4B3B-8470-61355121DCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D04FB61F-DEFB-45A2-880B-78B00A63E26A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$272</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="71">
   <si>
     <t>season</t>
   </si>
@@ -628,13 +628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP260"/>
+  <dimension ref="A1:AP275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J239" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J249" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H113" sqref="H113"/>
+      <selection pane="bottomRight" activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11920,7 +11920,7 @@
         <v>13</v>
       </c>
       <c r="G110">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H110">
         <v>7</v>
@@ -26458,7 +26458,7 @@
         <v>31</v>
       </c>
       <c r="L251">
-        <f t="shared" ref="L251:L260" si="5">SUM(O251:V251)</f>
+        <f t="shared" ref="L251:L275" si="5">SUM(O251:V251)</f>
         <v>34</v>
       </c>
       <c r="M251">
@@ -27446,9 +27446,1539 @@
         <v>0</v>
       </c>
     </row>
+    <row r="261" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>2024</v>
+      </c>
+      <c r="B261" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C261">
+        <v>35</v>
+      </c>
+      <c r="D261" t="s">
+        <v>70</v>
+      </c>
+      <c r="F261" t="s">
+        <v>13</v>
+      </c>
+      <c r="G261">
+        <v>13</v>
+      </c>
+      <c r="H261">
+        <v>3</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261" t="s">
+        <v>36</v>
+      </c>
+      <c r="K261" t="s">
+        <v>31</v>
+      </c>
+      <c r="L261">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="M261">
+        <v>5</v>
+      </c>
+      <c r="N261">
+        <v>5</v>
+      </c>
+      <c r="O261">
+        <v>3</v>
+      </c>
+      <c r="P261">
+        <v>8</v>
+      </c>
+      <c r="Q261">
+        <v>5</v>
+      </c>
+      <c r="R261">
+        <v>8</v>
+      </c>
+      <c r="S261">
+        <v>4</v>
+      </c>
+      <c r="T261">
+        <v>3</v>
+      </c>
+      <c r="U261">
+        <v>0</v>
+      </c>
+      <c r="V261">
+        <v>0</v>
+      </c>
+      <c r="W261">
+        <v>0</v>
+      </c>
+      <c r="X261">
+        <v>0</v>
+      </c>
+      <c r="Y261">
+        <v>0</v>
+      </c>
+      <c r="Z261">
+        <v>0</v>
+      </c>
+      <c r="AA261">
+        <v>0</v>
+      </c>
+      <c r="AB261">
+        <v>0</v>
+      </c>
+      <c r="AC261">
+        <v>0</v>
+      </c>
+      <c r="AD261">
+        <v>0</v>
+      </c>
+      <c r="AE261">
+        <v>0</v>
+      </c>
+      <c r="AF261">
+        <v>0</v>
+      </c>
+      <c r="AG261">
+        <v>0</v>
+      </c>
+      <c r="AH261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>2024</v>
+      </c>
+      <c r="B262" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C262">
+        <v>35</v>
+      </c>
+      <c r="D262" t="s">
+        <v>70</v>
+      </c>
+      <c r="F262" t="s">
+        <v>11</v>
+      </c>
+      <c r="G262">
+        <v>10</v>
+      </c>
+      <c r="H262">
+        <v>2</v>
+      </c>
+      <c r="I262">
+        <v>3</v>
+      </c>
+      <c r="J262" t="s">
+        <v>32</v>
+      </c>
+      <c r="K262" t="s">
+        <v>31</v>
+      </c>
+      <c r="L262">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="M262">
+        <v>6</v>
+      </c>
+      <c r="N262">
+        <v>5</v>
+      </c>
+      <c r="O262">
+        <v>3</v>
+      </c>
+      <c r="P262">
+        <v>4</v>
+      </c>
+      <c r="Q262">
+        <v>5</v>
+      </c>
+      <c r="R262">
+        <v>4</v>
+      </c>
+      <c r="S262">
+        <v>7</v>
+      </c>
+      <c r="T262">
+        <v>0</v>
+      </c>
+      <c r="U262">
+        <v>2</v>
+      </c>
+      <c r="V262">
+        <v>5</v>
+      </c>
+      <c r="W262">
+        <v>0</v>
+      </c>
+      <c r="X262">
+        <v>0</v>
+      </c>
+      <c r="Y262">
+        <v>0</v>
+      </c>
+      <c r="Z262">
+        <v>0</v>
+      </c>
+      <c r="AA262">
+        <v>0</v>
+      </c>
+      <c r="AB262">
+        <v>0</v>
+      </c>
+      <c r="AC262">
+        <v>0</v>
+      </c>
+      <c r="AD262">
+        <v>0</v>
+      </c>
+      <c r="AE262">
+        <v>0</v>
+      </c>
+      <c r="AF262">
+        <v>0</v>
+      </c>
+      <c r="AG262">
+        <v>1</v>
+      </c>
+      <c r="AH262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>2024</v>
+      </c>
+      <c r="B263" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C263">
+        <v>35</v>
+      </c>
+      <c r="D263" t="s">
+        <v>70</v>
+      </c>
+      <c r="F263" t="s">
+        <v>12</v>
+      </c>
+      <c r="G263">
+        <v>12</v>
+      </c>
+      <c r="H263">
+        <v>5</v>
+      </c>
+      <c r="I263">
+        <v>2</v>
+      </c>
+      <c r="J263" t="s">
+        <v>37</v>
+      </c>
+      <c r="K263" t="s">
+        <v>31</v>
+      </c>
+      <c r="L263">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="M263">
+        <v>6</v>
+      </c>
+      <c r="N263">
+        <v>5</v>
+      </c>
+      <c r="O263">
+        <v>2</v>
+      </c>
+      <c r="P263">
+        <v>11</v>
+      </c>
+      <c r="Q263">
+        <v>8</v>
+      </c>
+      <c r="R263">
+        <v>5</v>
+      </c>
+      <c r="S263">
+        <v>0</v>
+      </c>
+      <c r="T263">
+        <v>2</v>
+      </c>
+      <c r="U263">
+        <v>0</v>
+      </c>
+      <c r="V263">
+        <v>5</v>
+      </c>
+      <c r="W263">
+        <v>0</v>
+      </c>
+      <c r="X263">
+        <v>0</v>
+      </c>
+      <c r="Y263">
+        <v>0</v>
+      </c>
+      <c r="Z263">
+        <v>0</v>
+      </c>
+      <c r="AA263">
+        <v>0</v>
+      </c>
+      <c r="AB263">
+        <v>0</v>
+      </c>
+      <c r="AC263">
+        <v>0</v>
+      </c>
+      <c r="AD263">
+        <v>0</v>
+      </c>
+      <c r="AE263">
+        <v>1</v>
+      </c>
+      <c r="AF263">
+        <v>0</v>
+      </c>
+      <c r="AG263">
+        <v>0</v>
+      </c>
+      <c r="AH263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>2024</v>
+      </c>
+      <c r="B264" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C264">
+        <v>36</v>
+      </c>
+      <c r="D264" t="s">
+        <v>70</v>
+      </c>
+      <c r="F264" t="s">
+        <v>12</v>
+      </c>
+      <c r="G264">
+        <v>13</v>
+      </c>
+      <c r="H264">
+        <v>5</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264" t="s">
+        <v>36</v>
+      </c>
+      <c r="K264" t="s">
+        <v>32</v>
+      </c>
+      <c r="L264">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="M264">
+        <v>5</v>
+      </c>
+      <c r="N264">
+        <v>5</v>
+      </c>
+      <c r="O264">
+        <v>2</v>
+      </c>
+      <c r="P264">
+        <v>4</v>
+      </c>
+      <c r="Q264">
+        <v>7</v>
+      </c>
+      <c r="R264">
+        <v>3</v>
+      </c>
+      <c r="S264">
+        <v>5</v>
+      </c>
+      <c r="T264">
+        <v>2</v>
+      </c>
+      <c r="U264">
+        <v>5</v>
+      </c>
+      <c r="V264">
+        <v>3</v>
+      </c>
+      <c r="W264">
+        <v>0</v>
+      </c>
+      <c r="X264">
+        <v>0</v>
+      </c>
+      <c r="Y264">
+        <v>0</v>
+      </c>
+      <c r="Z264">
+        <v>0</v>
+      </c>
+      <c r="AA264">
+        <v>0</v>
+      </c>
+      <c r="AB264">
+        <v>0</v>
+      </c>
+      <c r="AC264">
+        <v>0</v>
+      </c>
+      <c r="AD264">
+        <v>0</v>
+      </c>
+      <c r="AE264">
+        <v>0</v>
+      </c>
+      <c r="AF264">
+        <v>0</v>
+      </c>
+      <c r="AG264">
+        <v>0</v>
+      </c>
+      <c r="AH264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>2024</v>
+      </c>
+      <c r="B265" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C265">
+        <v>36</v>
+      </c>
+      <c r="D265" t="s">
+        <v>70</v>
+      </c>
+      <c r="F265" t="s">
+        <v>11</v>
+      </c>
+      <c r="G265">
+        <v>6</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>3</v>
+      </c>
+      <c r="J265" t="s">
+        <v>32</v>
+      </c>
+      <c r="K265" t="s">
+        <v>32</v>
+      </c>
+      <c r="L265">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="M265">
+        <v>5</v>
+      </c>
+      <c r="N265">
+        <v>5</v>
+      </c>
+      <c r="O265">
+        <v>2</v>
+      </c>
+      <c r="P265">
+        <v>8</v>
+      </c>
+      <c r="Q265">
+        <v>4</v>
+      </c>
+      <c r="R265">
+        <v>5</v>
+      </c>
+      <c r="S265">
+        <v>5</v>
+      </c>
+      <c r="T265">
+        <v>0</v>
+      </c>
+      <c r="U265">
+        <v>5</v>
+      </c>
+      <c r="V265">
+        <v>4</v>
+      </c>
+      <c r="W265">
+        <v>0</v>
+      </c>
+      <c r="X265">
+        <v>0</v>
+      </c>
+      <c r="Y265">
+        <v>0</v>
+      </c>
+      <c r="Z265">
+        <v>0</v>
+      </c>
+      <c r="AA265">
+        <v>0</v>
+      </c>
+      <c r="AB265">
+        <v>0</v>
+      </c>
+      <c r="AC265">
+        <v>0</v>
+      </c>
+      <c r="AD265">
+        <v>0</v>
+      </c>
+      <c r="AE265">
+        <v>1</v>
+      </c>
+      <c r="AF265">
+        <v>0</v>
+      </c>
+      <c r="AG265">
+        <v>0</v>
+      </c>
+      <c r="AH265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>2024</v>
+      </c>
+      <c r="B266" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C266">
+        <v>36</v>
+      </c>
+      <c r="D266" t="s">
+        <v>70</v>
+      </c>
+      <c r="F266" t="s">
+        <v>13</v>
+      </c>
+      <c r="G266">
+        <v>10</v>
+      </c>
+      <c r="H266">
+        <v>5</v>
+      </c>
+      <c r="I266">
+        <v>2</v>
+      </c>
+      <c r="J266" t="s">
+        <v>37</v>
+      </c>
+      <c r="K266" t="s">
+        <v>32</v>
+      </c>
+      <c r="L266">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="M266">
+        <v>3</v>
+      </c>
+      <c r="N266">
+        <v>3</v>
+      </c>
+      <c r="O266">
+        <v>3</v>
+      </c>
+      <c r="P266">
+        <v>0</v>
+      </c>
+      <c r="Q266">
+        <v>0</v>
+      </c>
+      <c r="R266">
+        <v>13</v>
+      </c>
+      <c r="S266">
+        <v>8</v>
+      </c>
+      <c r="T266">
+        <v>3</v>
+      </c>
+      <c r="U266">
+        <v>0</v>
+      </c>
+      <c r="V266">
+        <v>0</v>
+      </c>
+      <c r="W266">
+        <v>0</v>
+      </c>
+      <c r="X266">
+        <v>0</v>
+      </c>
+      <c r="Y266">
+        <v>0</v>
+      </c>
+      <c r="Z266">
+        <v>1</v>
+      </c>
+      <c r="AA266">
+        <v>0</v>
+      </c>
+      <c r="AB266">
+        <v>0</v>
+      </c>
+      <c r="AC266">
+        <v>0</v>
+      </c>
+      <c r="AD266">
+        <v>0</v>
+      </c>
+      <c r="AE266">
+        <v>0</v>
+      </c>
+      <c r="AF266">
+        <v>0</v>
+      </c>
+      <c r="AG266">
+        <v>0</v>
+      </c>
+      <c r="AH266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>2024</v>
+      </c>
+      <c r="B267" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C267">
+        <v>37</v>
+      </c>
+      <c r="D267" t="s">
+        <v>70</v>
+      </c>
+      <c r="F267" t="s">
+        <v>13</v>
+      </c>
+      <c r="G267">
+        <v>4</v>
+      </c>
+      <c r="H267">
+        <v>1</v>
+      </c>
+      <c r="I267">
+        <v>3</v>
+      </c>
+      <c r="J267" t="s">
+        <v>36</v>
+      </c>
+      <c r="K267" t="s">
+        <v>31</v>
+      </c>
+      <c r="L267">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="M267">
+        <v>6</v>
+      </c>
+      <c r="N267">
+        <v>4</v>
+      </c>
+      <c r="O267">
+        <v>4</v>
+      </c>
+      <c r="P267">
+        <v>0</v>
+      </c>
+      <c r="Q267">
+        <v>9</v>
+      </c>
+      <c r="R267">
+        <v>3</v>
+      </c>
+      <c r="S267">
+        <v>5</v>
+      </c>
+      <c r="T267">
+        <v>0</v>
+      </c>
+      <c r="U267">
+        <v>0</v>
+      </c>
+      <c r="V267">
+        <v>9</v>
+      </c>
+      <c r="W267">
+        <v>0</v>
+      </c>
+      <c r="X267">
+        <v>0</v>
+      </c>
+      <c r="Y267">
+        <v>0</v>
+      </c>
+      <c r="Z267">
+        <v>0</v>
+      </c>
+      <c r="AA267">
+        <v>0</v>
+      </c>
+      <c r="AB267">
+        <v>0</v>
+      </c>
+      <c r="AC267">
+        <v>0</v>
+      </c>
+      <c r="AD267">
+        <v>0</v>
+      </c>
+      <c r="AE267">
+        <v>1</v>
+      </c>
+      <c r="AF267">
+        <v>0</v>
+      </c>
+      <c r="AG267">
+        <v>0</v>
+      </c>
+      <c r="AH267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>2024</v>
+      </c>
+      <c r="B268" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C268">
+        <v>37</v>
+      </c>
+      <c r="D268" t="s">
+        <v>70</v>
+      </c>
+      <c r="F268" t="s">
+        <v>12</v>
+      </c>
+      <c r="G268">
+        <v>13</v>
+      </c>
+      <c r="H268">
+        <v>4</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268" t="s">
+        <v>32</v>
+      </c>
+      <c r="K268" t="s">
+        <v>31</v>
+      </c>
+      <c r="L268">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="M268">
+        <v>5</v>
+      </c>
+      <c r="N268">
+        <v>5</v>
+      </c>
+      <c r="O268">
+        <v>6</v>
+      </c>
+      <c r="P268">
+        <v>3</v>
+      </c>
+      <c r="Q268">
+        <v>3</v>
+      </c>
+      <c r="R268">
+        <v>4</v>
+      </c>
+      <c r="S268">
+        <v>4</v>
+      </c>
+      <c r="T268">
+        <v>6</v>
+      </c>
+      <c r="U268">
+        <v>0</v>
+      </c>
+      <c r="V268">
+        <v>3</v>
+      </c>
+      <c r="W268">
+        <v>0</v>
+      </c>
+      <c r="X268">
+        <v>0</v>
+      </c>
+      <c r="Y268">
+        <v>0</v>
+      </c>
+      <c r="Z268">
+        <v>0</v>
+      </c>
+      <c r="AA268">
+        <v>0</v>
+      </c>
+      <c r="AB268">
+        <v>0</v>
+      </c>
+      <c r="AC268">
+        <v>1</v>
+      </c>
+      <c r="AD268">
+        <v>0</v>
+      </c>
+      <c r="AE268">
+        <v>0</v>
+      </c>
+      <c r="AF268">
+        <v>0</v>
+      </c>
+      <c r="AG268">
+        <v>1</v>
+      </c>
+      <c r="AH268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>2024</v>
+      </c>
+      <c r="B269" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C269">
+        <v>37</v>
+      </c>
+      <c r="D269" t="s">
+        <v>70</v>
+      </c>
+      <c r="F269" t="s">
+        <v>11</v>
+      </c>
+      <c r="G269">
+        <v>4</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>2</v>
+      </c>
+      <c r="J269" t="s">
+        <v>37</v>
+      </c>
+      <c r="K269" t="s">
+        <v>31</v>
+      </c>
+      <c r="L269">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="M269">
+        <v>6</v>
+      </c>
+      <c r="N269">
+        <v>5</v>
+      </c>
+      <c r="O269">
+        <v>5</v>
+      </c>
+      <c r="P269">
+        <v>3</v>
+      </c>
+      <c r="Q269">
+        <v>8</v>
+      </c>
+      <c r="R269">
+        <v>4</v>
+      </c>
+      <c r="S269">
+        <v>4</v>
+      </c>
+      <c r="T269">
+        <v>0</v>
+      </c>
+      <c r="U269">
+        <v>4</v>
+      </c>
+      <c r="V269">
+        <v>5</v>
+      </c>
+      <c r="W269">
+        <v>0</v>
+      </c>
+      <c r="X269">
+        <v>0</v>
+      </c>
+      <c r="Y269">
+        <v>0</v>
+      </c>
+      <c r="Z269">
+        <v>0</v>
+      </c>
+      <c r="AA269">
+        <v>0</v>
+      </c>
+      <c r="AB269">
+        <v>0</v>
+      </c>
+      <c r="AC269">
+        <v>0</v>
+      </c>
+      <c r="AD269">
+        <v>0</v>
+      </c>
+      <c r="AE269">
+        <v>0</v>
+      </c>
+      <c r="AF269">
+        <v>0</v>
+      </c>
+      <c r="AG269">
+        <v>0</v>
+      </c>
+      <c r="AH269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>2024</v>
+      </c>
+      <c r="B270" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C270">
+        <v>38</v>
+      </c>
+      <c r="D270" t="s">
+        <v>70</v>
+      </c>
+      <c r="F270" t="s">
+        <v>12</v>
+      </c>
+      <c r="G270">
+        <v>7</v>
+      </c>
+      <c r="H270">
+        <v>1</v>
+      </c>
+      <c r="I270">
+        <v>2</v>
+      </c>
+      <c r="J270" t="s">
+        <v>36</v>
+      </c>
+      <c r="K270" t="s">
+        <v>31</v>
+      </c>
+      <c r="L270">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="M270">
+        <v>6</v>
+      </c>
+      <c r="N270">
+        <v>5</v>
+      </c>
+      <c r="O270">
+        <v>9</v>
+      </c>
+      <c r="P270">
+        <v>6</v>
+      </c>
+      <c r="Q270">
+        <v>5</v>
+      </c>
+      <c r="R270">
+        <v>4</v>
+      </c>
+      <c r="S270">
+        <v>4</v>
+      </c>
+      <c r="T270">
+        <v>0</v>
+      </c>
+      <c r="U270">
+        <v>0</v>
+      </c>
+      <c r="V270">
+        <v>5</v>
+      </c>
+      <c r="W270">
+        <v>0</v>
+      </c>
+      <c r="X270">
+        <v>0</v>
+      </c>
+      <c r="Y270">
+        <v>0</v>
+      </c>
+      <c r="Z270">
+        <v>0</v>
+      </c>
+      <c r="AA270">
+        <v>0</v>
+      </c>
+      <c r="AB270">
+        <v>0</v>
+      </c>
+      <c r="AC270">
+        <v>0</v>
+      </c>
+      <c r="AD270">
+        <v>0</v>
+      </c>
+      <c r="AE270">
+        <v>1</v>
+      </c>
+      <c r="AF270">
+        <v>0</v>
+      </c>
+      <c r="AG270">
+        <v>0</v>
+      </c>
+      <c r="AH270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>2024</v>
+      </c>
+      <c r="B271" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C271">
+        <v>38</v>
+      </c>
+      <c r="D271" t="s">
+        <v>70</v>
+      </c>
+      <c r="F271" t="s">
+        <v>11</v>
+      </c>
+      <c r="G271">
+        <v>13</v>
+      </c>
+      <c r="H271">
+        <v>7</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271" t="s">
+        <v>32</v>
+      </c>
+      <c r="K271" t="s">
+        <v>31</v>
+      </c>
+      <c r="L271">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="M271">
+        <v>5</v>
+      </c>
+      <c r="N271">
+        <v>4</v>
+      </c>
+      <c r="O271">
+        <v>8</v>
+      </c>
+      <c r="P271">
+        <v>6</v>
+      </c>
+      <c r="Q271">
+        <v>9</v>
+      </c>
+      <c r="R271">
+        <v>3</v>
+      </c>
+      <c r="S271">
+        <v>0</v>
+      </c>
+      <c r="T271">
+        <v>4</v>
+      </c>
+      <c r="U271">
+        <v>0</v>
+      </c>
+      <c r="V271">
+        <v>0</v>
+      </c>
+      <c r="W271">
+        <v>0</v>
+      </c>
+      <c r="X271">
+        <v>0</v>
+      </c>
+      <c r="Y271">
+        <v>0</v>
+      </c>
+      <c r="Z271">
+        <v>0</v>
+      </c>
+      <c r="AA271">
+        <v>0</v>
+      </c>
+      <c r="AB271">
+        <v>0</v>
+      </c>
+      <c r="AC271">
+        <v>0</v>
+      </c>
+      <c r="AD271">
+        <v>1</v>
+      </c>
+      <c r="AE271">
+        <v>0</v>
+      </c>
+      <c r="AF271">
+        <v>0</v>
+      </c>
+      <c r="AG271">
+        <v>0</v>
+      </c>
+      <c r="AH271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>2024</v>
+      </c>
+      <c r="B272" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C272">
+        <v>38</v>
+      </c>
+      <c r="D272" t="s">
+        <v>70</v>
+      </c>
+      <c r="F272" t="s">
+        <v>13</v>
+      </c>
+      <c r="G272">
+        <v>6</v>
+      </c>
+      <c r="H272">
+        <v>1</v>
+      </c>
+      <c r="I272">
+        <v>3</v>
+      </c>
+      <c r="J272" t="s">
+        <v>37</v>
+      </c>
+      <c r="K272" t="s">
+        <v>31</v>
+      </c>
+      <c r="L272">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="M272">
+        <v>4</v>
+      </c>
+      <c r="N272">
+        <v>4</v>
+      </c>
+      <c r="O272">
+        <v>7</v>
+      </c>
+      <c r="P272">
+        <v>2</v>
+      </c>
+      <c r="Q272">
+        <v>5</v>
+      </c>
+      <c r="R272">
+        <v>8</v>
+      </c>
+      <c r="S272">
+        <v>0</v>
+      </c>
+      <c r="T272">
+        <v>7</v>
+      </c>
+      <c r="U272">
+        <v>0</v>
+      </c>
+      <c r="V272">
+        <v>5</v>
+      </c>
+      <c r="W272">
+        <v>0</v>
+      </c>
+      <c r="X272">
+        <v>0</v>
+      </c>
+      <c r="Y272">
+        <v>0</v>
+      </c>
+      <c r="Z272">
+        <v>0</v>
+      </c>
+      <c r="AA272">
+        <v>0</v>
+      </c>
+      <c r="AB272">
+        <v>0</v>
+      </c>
+      <c r="AC272">
+        <v>1</v>
+      </c>
+      <c r="AD272">
+        <v>0</v>
+      </c>
+      <c r="AE272">
+        <v>0</v>
+      </c>
+      <c r="AF272">
+        <v>0</v>
+      </c>
+      <c r="AG272">
+        <v>0</v>
+      </c>
+      <c r="AH272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>2024</v>
+      </c>
+      <c r="B273" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C273">
+        <v>39</v>
+      </c>
+      <c r="D273" t="s">
+        <v>70</v>
+      </c>
+      <c r="F273" t="s">
+        <v>12</v>
+      </c>
+      <c r="G273">
+        <v>13</v>
+      </c>
+      <c r="H273">
+        <v>6</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273" t="s">
+        <v>36</v>
+      </c>
+      <c r="K273" t="s">
+        <v>31</v>
+      </c>
+      <c r="L273">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="M273">
+        <v>6</v>
+      </c>
+      <c r="N273">
+        <v>5</v>
+      </c>
+      <c r="O273">
+        <v>5</v>
+      </c>
+      <c r="P273">
+        <v>4</v>
+      </c>
+      <c r="Q273">
+        <v>6</v>
+      </c>
+      <c r="R273">
+        <v>4</v>
+      </c>
+      <c r="S273">
+        <v>2</v>
+      </c>
+      <c r="T273">
+        <v>0</v>
+      </c>
+      <c r="U273">
+        <v>2</v>
+      </c>
+      <c r="V273">
+        <v>6</v>
+      </c>
+      <c r="W273">
+        <v>0</v>
+      </c>
+      <c r="X273">
+        <v>0</v>
+      </c>
+      <c r="Y273">
+        <v>0</v>
+      </c>
+      <c r="Z273">
+        <v>0</v>
+      </c>
+      <c r="AA273">
+        <v>0</v>
+      </c>
+      <c r="AB273">
+        <v>0</v>
+      </c>
+      <c r="AC273">
+        <v>0</v>
+      </c>
+      <c r="AD273">
+        <v>0</v>
+      </c>
+      <c r="AE273">
+        <v>0</v>
+      </c>
+      <c r="AF273">
+        <v>0</v>
+      </c>
+      <c r="AG273">
+        <v>0</v>
+      </c>
+      <c r="AH273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>2024</v>
+      </c>
+      <c r="B274" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C274">
+        <v>39</v>
+      </c>
+      <c r="D274" t="s">
+        <v>70</v>
+      </c>
+      <c r="F274" t="s">
+        <v>11</v>
+      </c>
+      <c r="G274">
+        <v>9</v>
+      </c>
+      <c r="H274">
+        <v>2</v>
+      </c>
+      <c r="I274">
+        <v>2</v>
+      </c>
+      <c r="J274" t="s">
+        <v>32</v>
+      </c>
+      <c r="K274" t="s">
+        <v>31</v>
+      </c>
+      <c r="L274">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="M274">
+        <v>6</v>
+      </c>
+      <c r="N274">
+        <v>5</v>
+      </c>
+      <c r="O274">
+        <v>4</v>
+      </c>
+      <c r="P274">
+        <v>5</v>
+      </c>
+      <c r="Q274">
+        <v>3</v>
+      </c>
+      <c r="R274">
+        <v>8</v>
+      </c>
+      <c r="S274">
+        <v>3</v>
+      </c>
+      <c r="T274">
+        <v>4</v>
+      </c>
+      <c r="U274">
+        <v>0</v>
+      </c>
+      <c r="V274">
+        <v>3</v>
+      </c>
+      <c r="W274">
+        <v>0</v>
+      </c>
+      <c r="X274">
+        <v>0</v>
+      </c>
+      <c r="Y274">
+        <v>0</v>
+      </c>
+      <c r="Z274">
+        <v>0</v>
+      </c>
+      <c r="AA274">
+        <v>0</v>
+      </c>
+      <c r="AB274">
+        <v>0</v>
+      </c>
+      <c r="AC274">
+        <v>0</v>
+      </c>
+      <c r="AD274">
+        <v>0</v>
+      </c>
+      <c r="AE274">
+        <v>0</v>
+      </c>
+      <c r="AF274">
+        <v>1</v>
+      </c>
+      <c r="AG274">
+        <v>0</v>
+      </c>
+      <c r="AH274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>2024</v>
+      </c>
+      <c r="B275" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C275">
+        <v>39</v>
+      </c>
+      <c r="D275" t="s">
+        <v>70</v>
+      </c>
+      <c r="F275" t="s">
+        <v>13</v>
+      </c>
+      <c r="G275">
+        <v>8</v>
+      </c>
+      <c r="H275">
+        <v>2</v>
+      </c>
+      <c r="I275">
+        <v>3</v>
+      </c>
+      <c r="J275" t="s">
+        <v>37</v>
+      </c>
+      <c r="K275" t="s">
+        <v>31</v>
+      </c>
+      <c r="L275">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="M275">
+        <v>6</v>
+      </c>
+      <c r="N275">
+        <v>4</v>
+      </c>
+      <c r="O275">
+        <v>9</v>
+      </c>
+      <c r="P275">
+        <v>0</v>
+      </c>
+      <c r="Q275">
+        <v>8</v>
+      </c>
+      <c r="R275">
+        <v>4</v>
+      </c>
+      <c r="S275">
+        <v>3</v>
+      </c>
+      <c r="T275">
+        <v>4</v>
+      </c>
+      <c r="U275">
+        <v>3</v>
+      </c>
+      <c r="V275">
+        <v>5</v>
+      </c>
+      <c r="W275">
+        <v>0</v>
+      </c>
+      <c r="X275">
+        <v>0</v>
+      </c>
+      <c r="Y275">
+        <v>0</v>
+      </c>
+      <c r="Z275">
+        <v>0</v>
+      </c>
+      <c r="AA275">
+        <v>0</v>
+      </c>
+      <c r="AB275">
+        <v>0</v>
+      </c>
+      <c r="AC275">
+        <v>1</v>
+      </c>
+      <c r="AD275">
+        <v>0</v>
+      </c>
+      <c r="AE275">
+        <v>0</v>
+      </c>
+      <c r="AF275">
+        <v>0</v>
+      </c>
+      <c r="AG275">
+        <v>0</v>
+      </c>
+      <c r="AH275">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AP260" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
-  <dataValidations disablePrompts="1" count="1">
+  <autoFilter ref="A2:AP272" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
+  <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W177:Z223 W225:Z1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>
       <formula2>1</formula2>
@@ -27458,7 +28988,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{761EF6A8-1D47-4E5D-B2B8-225F6EE4B0A2}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$3</xm:f>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88b1f18c208c1b3c/Documents/CatanData/catan_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Documents\CatanData\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{EC8D8D10-CA15-4B3B-8470-61355121DCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D04FB61F-DEFB-45A2-880B-78B00A63E26A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A0C7DD-2B7E-487B-9B32-F6E167B7ECDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$290</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="71">
   <si>
     <t>season</t>
   </si>
@@ -628,13 +628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP275"/>
+  <dimension ref="A1:AP293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J249" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J272" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B275" sqref="B275"/>
+      <selection pane="bottomRight" activeCell="E288" sqref="E288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3320,7 +3320,7 @@
         <v>11</v>
       </c>
       <c r="G27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H27">
         <v>5</v>
@@ -18273,7 +18273,7 @@
         <v>11</v>
       </c>
       <c r="G172">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H172">
         <v>7</v>
@@ -26458,7 +26458,7 @@
         <v>31</v>
       </c>
       <c r="L251">
-        <f t="shared" ref="L251:L275" si="5">SUM(O251:V251)</f>
+        <f t="shared" ref="L251:L293" si="5">SUM(O251:V251)</f>
         <v>34</v>
       </c>
       <c r="M251">
@@ -27157,7 +27157,7 @@
         <v>11</v>
       </c>
       <c r="G258">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H258">
         <v>8</v>
@@ -28976,8 +28976,1844 @@
         <v>0</v>
       </c>
     </row>
+    <row r="276" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>2024</v>
+      </c>
+      <c r="B276" s="5">
+        <v>45646</v>
+      </c>
+      <c r="C276">
+        <v>40</v>
+      </c>
+      <c r="D276" t="s">
+        <v>46</v>
+      </c>
+      <c r="F276" t="s">
+        <v>12</v>
+      </c>
+      <c r="G276">
+        <v>8</v>
+      </c>
+      <c r="H276">
+        <v>2</v>
+      </c>
+      <c r="I276">
+        <v>3</v>
+      </c>
+      <c r="J276" t="s">
+        <v>36</v>
+      </c>
+      <c r="K276" t="s">
+        <v>31</v>
+      </c>
+      <c r="L276">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="M276">
+        <v>5</v>
+      </c>
+      <c r="N276">
+        <v>4</v>
+      </c>
+      <c r="O276">
+        <v>5</v>
+      </c>
+      <c r="P276">
+        <v>0</v>
+      </c>
+      <c r="Q276">
+        <v>3</v>
+      </c>
+      <c r="R276">
+        <v>5</v>
+      </c>
+      <c r="S276">
+        <v>8</v>
+      </c>
+      <c r="T276">
+        <v>2</v>
+      </c>
+      <c r="U276">
+        <v>4</v>
+      </c>
+      <c r="V276">
+        <v>4</v>
+      </c>
+      <c r="W276">
+        <v>0</v>
+      </c>
+      <c r="X276">
+        <v>0</v>
+      </c>
+      <c r="Y276">
+        <v>0</v>
+      </c>
+      <c r="Z276">
+        <v>0</v>
+      </c>
+      <c r="AA276">
+        <v>0</v>
+      </c>
+      <c r="AB276">
+        <v>0</v>
+      </c>
+      <c r="AC276">
+        <v>0</v>
+      </c>
+      <c r="AD276">
+        <v>0</v>
+      </c>
+      <c r="AE276">
+        <v>0</v>
+      </c>
+      <c r="AF276">
+        <v>0</v>
+      </c>
+      <c r="AG276">
+        <v>1</v>
+      </c>
+      <c r="AH276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>2024</v>
+      </c>
+      <c r="B277" s="5">
+        <v>45646</v>
+      </c>
+      <c r="C277">
+        <v>40</v>
+      </c>
+      <c r="D277" t="s">
+        <v>46</v>
+      </c>
+      <c r="F277" t="s">
+        <v>11</v>
+      </c>
+      <c r="G277">
+        <v>10</v>
+      </c>
+      <c r="H277">
+        <v>2</v>
+      </c>
+      <c r="I277">
+        <v>2</v>
+      </c>
+      <c r="J277" t="s">
+        <v>32</v>
+      </c>
+      <c r="K277" t="s">
+        <v>31</v>
+      </c>
+      <c r="L277">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="M277">
+        <v>6</v>
+      </c>
+      <c r="N277">
+        <v>4</v>
+      </c>
+      <c r="O277">
+        <v>5</v>
+      </c>
+      <c r="P277">
+        <v>17</v>
+      </c>
+      <c r="Q277">
+        <v>4</v>
+      </c>
+      <c r="R277">
+        <v>0</v>
+      </c>
+      <c r="S277">
+        <v>1</v>
+      </c>
+      <c r="T277">
+        <v>0</v>
+      </c>
+      <c r="U277">
+        <v>1</v>
+      </c>
+      <c r="V277">
+        <v>4</v>
+      </c>
+      <c r="W277">
+        <v>0</v>
+      </c>
+      <c r="X277">
+        <v>0</v>
+      </c>
+      <c r="Y277">
+        <v>0</v>
+      </c>
+      <c r="Z277">
+        <v>0</v>
+      </c>
+      <c r="AA277">
+        <v>0</v>
+      </c>
+      <c r="AB277">
+        <v>0</v>
+      </c>
+      <c r="AC277">
+        <v>0</v>
+      </c>
+      <c r="AD277">
+        <v>1</v>
+      </c>
+      <c r="AE277">
+        <v>0</v>
+      </c>
+      <c r="AF277">
+        <v>0</v>
+      </c>
+      <c r="AG277">
+        <v>0</v>
+      </c>
+      <c r="AH277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>2024</v>
+      </c>
+      <c r="B278" s="5">
+        <v>45646</v>
+      </c>
+      <c r="C278">
+        <v>40</v>
+      </c>
+      <c r="D278" t="s">
+        <v>46</v>
+      </c>
+      <c r="F278" t="s">
+        <v>13</v>
+      </c>
+      <c r="G278">
+        <v>13</v>
+      </c>
+      <c r="H278">
+        <v>5</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278" t="s">
+        <v>37</v>
+      </c>
+      <c r="K278" t="s">
+        <v>31</v>
+      </c>
+      <c r="L278">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="M278">
+        <v>6</v>
+      </c>
+      <c r="N278">
+        <v>5</v>
+      </c>
+      <c r="O278">
+        <v>2</v>
+      </c>
+      <c r="P278">
+        <v>3</v>
+      </c>
+      <c r="Q278">
+        <v>5</v>
+      </c>
+      <c r="R278">
+        <v>2</v>
+      </c>
+      <c r="S278">
+        <v>8</v>
+      </c>
+      <c r="T278">
+        <v>0</v>
+      </c>
+      <c r="U278">
+        <v>8</v>
+      </c>
+      <c r="V278">
+        <v>5</v>
+      </c>
+      <c r="W278">
+        <v>0</v>
+      </c>
+      <c r="X278">
+        <v>0</v>
+      </c>
+      <c r="Y278">
+        <v>0</v>
+      </c>
+      <c r="Z278">
+        <v>0</v>
+      </c>
+      <c r="AA278">
+        <v>0</v>
+      </c>
+      <c r="AB278">
+        <v>0</v>
+      </c>
+      <c r="AC278">
+        <v>0</v>
+      </c>
+      <c r="AD278">
+        <v>0</v>
+      </c>
+      <c r="AE278">
+        <v>0</v>
+      </c>
+      <c r="AF278">
+        <v>0</v>
+      </c>
+      <c r="AG278">
+        <v>1</v>
+      </c>
+      <c r="AH278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>2024</v>
+      </c>
+      <c r="B279" s="5">
+        <v>45646</v>
+      </c>
+      <c r="C279">
+        <v>41</v>
+      </c>
+      <c r="D279" t="s">
+        <v>46</v>
+      </c>
+      <c r="F279" t="s">
+        <v>11</v>
+      </c>
+      <c r="G279">
+        <v>12</v>
+      </c>
+      <c r="H279">
+        <v>3</v>
+      </c>
+      <c r="I279">
+        <v>2</v>
+      </c>
+      <c r="J279" t="s">
+        <v>36</v>
+      </c>
+      <c r="K279" t="s">
+        <v>31</v>
+      </c>
+      <c r="L279">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="M279">
+        <v>6</v>
+      </c>
+      <c r="N279">
+        <v>5</v>
+      </c>
+      <c r="O279">
+        <v>5</v>
+      </c>
+      <c r="P279">
+        <v>6</v>
+      </c>
+      <c r="Q279">
+        <v>5</v>
+      </c>
+      <c r="R279">
+        <v>9</v>
+      </c>
+      <c r="S279">
+        <v>4</v>
+      </c>
+      <c r="T279">
+        <v>5</v>
+      </c>
+      <c r="U279">
+        <v>0</v>
+      </c>
+      <c r="V279">
+        <v>0</v>
+      </c>
+      <c r="W279">
+        <v>0</v>
+      </c>
+      <c r="X279">
+        <v>0</v>
+      </c>
+      <c r="Y279">
+        <v>0</v>
+      </c>
+      <c r="Z279">
+        <v>0</v>
+      </c>
+      <c r="AA279">
+        <v>0</v>
+      </c>
+      <c r="AB279">
+        <v>0</v>
+      </c>
+      <c r="AC279">
+        <v>0</v>
+      </c>
+      <c r="AD279">
+        <v>0</v>
+      </c>
+      <c r="AE279">
+        <v>0</v>
+      </c>
+      <c r="AF279">
+        <v>0</v>
+      </c>
+      <c r="AG279">
+        <v>0</v>
+      </c>
+      <c r="AH279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>2024</v>
+      </c>
+      <c r="B280" s="5">
+        <v>45646</v>
+      </c>
+      <c r="C280">
+        <v>41</v>
+      </c>
+      <c r="D280" t="s">
+        <v>46</v>
+      </c>
+      <c r="F280" t="s">
+        <v>12</v>
+      </c>
+      <c r="G280">
+        <v>9</v>
+      </c>
+      <c r="H280">
+        <v>2</v>
+      </c>
+      <c r="I280">
+        <v>3</v>
+      </c>
+      <c r="J280" t="s">
+        <v>32</v>
+      </c>
+      <c r="K280" t="s">
+        <v>31</v>
+      </c>
+      <c r="L280">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="M280">
+        <v>6</v>
+      </c>
+      <c r="N280">
+        <v>5</v>
+      </c>
+      <c r="O280">
+        <v>4</v>
+      </c>
+      <c r="P280">
+        <v>6</v>
+      </c>
+      <c r="Q280">
+        <v>3</v>
+      </c>
+      <c r="R280">
+        <v>5</v>
+      </c>
+      <c r="S280">
+        <v>9</v>
+      </c>
+      <c r="T280">
+        <v>0</v>
+      </c>
+      <c r="U280">
+        <v>9</v>
+      </c>
+      <c r="V280">
+        <v>0</v>
+      </c>
+      <c r="W280">
+        <v>0</v>
+      </c>
+      <c r="X280">
+        <v>0</v>
+      </c>
+      <c r="Y280">
+        <v>0</v>
+      </c>
+      <c r="Z280">
+        <v>0</v>
+      </c>
+      <c r="AA280">
+        <v>0</v>
+      </c>
+      <c r="AB280">
+        <v>0</v>
+      </c>
+      <c r="AC280">
+        <v>0</v>
+      </c>
+      <c r="AD280">
+        <v>0</v>
+      </c>
+      <c r="AE280">
+        <v>0</v>
+      </c>
+      <c r="AF280">
+        <v>0</v>
+      </c>
+      <c r="AG280">
+        <v>0</v>
+      </c>
+      <c r="AH280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>2024</v>
+      </c>
+      <c r="B281" s="5">
+        <v>45646</v>
+      </c>
+      <c r="C281">
+        <v>41</v>
+      </c>
+      <c r="D281" t="s">
+        <v>46</v>
+      </c>
+      <c r="F281" t="s">
+        <v>13</v>
+      </c>
+      <c r="G281">
+        <v>13</v>
+      </c>
+      <c r="H281">
+        <v>5</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281" t="s">
+        <v>37</v>
+      </c>
+      <c r="K281" t="s">
+        <v>31</v>
+      </c>
+      <c r="L281">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="M281">
+        <v>5</v>
+      </c>
+      <c r="N281">
+        <v>5</v>
+      </c>
+      <c r="O281">
+        <v>3</v>
+      </c>
+      <c r="P281">
+        <v>3</v>
+      </c>
+      <c r="Q281">
+        <v>5</v>
+      </c>
+      <c r="R281">
+        <v>7</v>
+      </c>
+      <c r="S281">
+        <v>4</v>
+      </c>
+      <c r="T281">
+        <v>3</v>
+      </c>
+      <c r="U281">
+        <v>4</v>
+      </c>
+      <c r="V281">
+        <v>5</v>
+      </c>
+      <c r="W281">
+        <v>0</v>
+      </c>
+      <c r="X281">
+        <v>0</v>
+      </c>
+      <c r="Y281">
+        <v>0</v>
+      </c>
+      <c r="Z281">
+        <v>0</v>
+      </c>
+      <c r="AA281">
+        <v>0</v>
+      </c>
+      <c r="AB281">
+        <v>0</v>
+      </c>
+      <c r="AC281">
+        <v>0</v>
+      </c>
+      <c r="AD281">
+        <v>1</v>
+      </c>
+      <c r="AE281">
+        <v>1</v>
+      </c>
+      <c r="AF281">
+        <v>0</v>
+      </c>
+      <c r="AG281">
+        <v>0</v>
+      </c>
+      <c r="AH281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>2024</v>
+      </c>
+      <c r="B282" s="5">
+        <v>45646</v>
+      </c>
+      <c r="C282">
+        <v>42</v>
+      </c>
+      <c r="D282" t="s">
+        <v>46</v>
+      </c>
+      <c r="F282" t="s">
+        <v>12</v>
+      </c>
+      <c r="G282">
+        <v>13</v>
+      </c>
+      <c r="H282">
+        <v>6</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282" t="s">
+        <v>36</v>
+      </c>
+      <c r="K282" t="s">
+        <v>31</v>
+      </c>
+      <c r="L282">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="M282">
+        <v>5</v>
+      </c>
+      <c r="N282">
+        <v>4</v>
+      </c>
+      <c r="O282">
+        <v>3</v>
+      </c>
+      <c r="P282">
+        <v>22</v>
+      </c>
+      <c r="Q282">
+        <v>0</v>
+      </c>
+      <c r="R282">
+        <v>4</v>
+      </c>
+      <c r="S282">
+        <v>5</v>
+      </c>
+      <c r="T282">
+        <v>0</v>
+      </c>
+      <c r="U282">
+        <v>0</v>
+      </c>
+      <c r="V282">
+        <v>0</v>
+      </c>
+      <c r="W282">
+        <v>0</v>
+      </c>
+      <c r="X282">
+        <v>0</v>
+      </c>
+      <c r="Y282">
+        <v>0</v>
+      </c>
+      <c r="Z282">
+        <v>0</v>
+      </c>
+      <c r="AA282">
+        <v>0</v>
+      </c>
+      <c r="AB282">
+        <v>0</v>
+      </c>
+      <c r="AC282">
+        <v>0</v>
+      </c>
+      <c r="AD282">
+        <v>0</v>
+      </c>
+      <c r="AE282">
+        <v>0</v>
+      </c>
+      <c r="AF282">
+        <v>0</v>
+      </c>
+      <c r="AG282">
+        <v>0</v>
+      </c>
+      <c r="AH282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>2024</v>
+      </c>
+      <c r="B283" s="5">
+        <v>45646</v>
+      </c>
+      <c r="C283">
+        <v>42</v>
+      </c>
+      <c r="D283" t="s">
+        <v>46</v>
+      </c>
+      <c r="F283" t="s">
+        <v>11</v>
+      </c>
+      <c r="G283">
+        <v>7</v>
+      </c>
+      <c r="H283">
+        <v>2</v>
+      </c>
+      <c r="I283">
+        <v>2</v>
+      </c>
+      <c r="J283" t="s">
+        <v>32</v>
+      </c>
+      <c r="K283" t="s">
+        <v>31</v>
+      </c>
+      <c r="L283">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="M283">
+        <v>6</v>
+      </c>
+      <c r="N283">
+        <v>4</v>
+      </c>
+      <c r="O283">
+        <v>5</v>
+      </c>
+      <c r="P283">
+        <v>0</v>
+      </c>
+      <c r="Q283">
+        <v>5</v>
+      </c>
+      <c r="R283">
+        <v>3</v>
+      </c>
+      <c r="S283">
+        <v>9</v>
+      </c>
+      <c r="T283">
+        <v>1</v>
+      </c>
+      <c r="U283">
+        <v>9</v>
+      </c>
+      <c r="V283">
+        <v>0</v>
+      </c>
+      <c r="W283">
+        <v>0</v>
+      </c>
+      <c r="X283">
+        <v>0</v>
+      </c>
+      <c r="Y283">
+        <v>0</v>
+      </c>
+      <c r="Z283">
+        <v>0</v>
+      </c>
+      <c r="AA283">
+        <v>0</v>
+      </c>
+      <c r="AB283">
+        <v>0</v>
+      </c>
+      <c r="AC283">
+        <v>0</v>
+      </c>
+      <c r="AD283">
+        <v>0</v>
+      </c>
+      <c r="AE283">
+        <v>1</v>
+      </c>
+      <c r="AF283">
+        <v>0</v>
+      </c>
+      <c r="AG283">
+        <v>1</v>
+      </c>
+      <c r="AH283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>2024</v>
+      </c>
+      <c r="B284" s="5">
+        <v>45646</v>
+      </c>
+      <c r="C284">
+        <v>42</v>
+      </c>
+      <c r="D284" t="s">
+        <v>46</v>
+      </c>
+      <c r="F284" t="s">
+        <v>13</v>
+      </c>
+      <c r="G284">
+        <v>6</v>
+      </c>
+      <c r="H284">
+        <v>2</v>
+      </c>
+      <c r="I284">
+        <v>3</v>
+      </c>
+      <c r="J284" t="s">
+        <v>37</v>
+      </c>
+      <c r="K284" t="s">
+        <v>31</v>
+      </c>
+      <c r="L284">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="M284">
+        <v>5</v>
+      </c>
+      <c r="N284">
+        <v>5</v>
+      </c>
+      <c r="O284">
+        <v>4</v>
+      </c>
+      <c r="P284">
+        <v>3</v>
+      </c>
+      <c r="Q284">
+        <v>6</v>
+      </c>
+      <c r="R284">
+        <v>4</v>
+      </c>
+      <c r="S284">
+        <v>5</v>
+      </c>
+      <c r="T284">
+        <v>4</v>
+      </c>
+      <c r="U284">
+        <v>5</v>
+      </c>
+      <c r="V284">
+        <v>2</v>
+      </c>
+      <c r="W284">
+        <v>0</v>
+      </c>
+      <c r="X284">
+        <v>0</v>
+      </c>
+      <c r="Y284">
+        <v>0</v>
+      </c>
+      <c r="Z284">
+        <v>0</v>
+      </c>
+      <c r="AA284">
+        <v>0</v>
+      </c>
+      <c r="AB284">
+        <v>0</v>
+      </c>
+      <c r="AC284">
+        <v>0</v>
+      </c>
+      <c r="AD284">
+        <v>0</v>
+      </c>
+      <c r="AE284">
+        <v>0</v>
+      </c>
+      <c r="AF284">
+        <v>0</v>
+      </c>
+      <c r="AG284">
+        <v>0</v>
+      </c>
+      <c r="AH284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>2024</v>
+      </c>
+      <c r="B285" s="5">
+        <v>45646</v>
+      </c>
+      <c r="C285">
+        <v>43</v>
+      </c>
+      <c r="D285" t="s">
+        <v>46</v>
+      </c>
+      <c r="F285" t="s">
+        <v>12</v>
+      </c>
+      <c r="G285">
+        <v>8</v>
+      </c>
+      <c r="H285">
+        <v>2</v>
+      </c>
+      <c r="I285">
+        <v>2</v>
+      </c>
+      <c r="J285" t="s">
+        <v>36</v>
+      </c>
+      <c r="K285" t="s">
+        <v>31</v>
+      </c>
+      <c r="L285">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="M285">
+        <v>5</v>
+      </c>
+      <c r="N285">
+        <v>3</v>
+      </c>
+      <c r="O285">
+        <v>0</v>
+      </c>
+      <c r="P285">
+        <v>27</v>
+      </c>
+      <c r="Q285">
+        <v>5</v>
+      </c>
+      <c r="R285">
+        <v>4</v>
+      </c>
+      <c r="S285">
+        <v>0</v>
+      </c>
+      <c r="T285">
+        <v>0</v>
+      </c>
+      <c r="U285">
+        <v>0</v>
+      </c>
+      <c r="V285">
+        <v>0</v>
+      </c>
+      <c r="W285">
+        <v>0</v>
+      </c>
+      <c r="X285">
+        <v>0</v>
+      </c>
+      <c r="Y285">
+        <v>0</v>
+      </c>
+      <c r="Z285">
+        <v>0</v>
+      </c>
+      <c r="AA285">
+        <v>0</v>
+      </c>
+      <c r="AB285">
+        <v>0</v>
+      </c>
+      <c r="AC285">
+        <v>0</v>
+      </c>
+      <c r="AD285">
+        <v>0</v>
+      </c>
+      <c r="AE285">
+        <v>0</v>
+      </c>
+      <c r="AF285">
+        <v>1</v>
+      </c>
+      <c r="AG285">
+        <v>0</v>
+      </c>
+      <c r="AH285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>2024</v>
+      </c>
+      <c r="B286" s="5">
+        <v>45646</v>
+      </c>
+      <c r="C286">
+        <v>43</v>
+      </c>
+      <c r="D286" t="s">
+        <v>46</v>
+      </c>
+      <c r="F286" t="s">
+        <v>11</v>
+      </c>
+      <c r="G286">
+        <v>13</v>
+      </c>
+      <c r="H286">
+        <v>8</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286" t="s">
+        <v>32</v>
+      </c>
+      <c r="K286" t="s">
+        <v>31</v>
+      </c>
+      <c r="L286">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="M286">
+        <v>6</v>
+      </c>
+      <c r="N286">
+        <v>4</v>
+      </c>
+      <c r="O286">
+        <v>5</v>
+      </c>
+      <c r="P286">
+        <v>0</v>
+      </c>
+      <c r="Q286">
+        <v>5</v>
+      </c>
+      <c r="R286">
+        <v>3</v>
+      </c>
+      <c r="S286">
+        <v>8</v>
+      </c>
+      <c r="T286">
+        <v>5</v>
+      </c>
+      <c r="U286">
+        <v>5</v>
+      </c>
+      <c r="V286">
+        <v>0</v>
+      </c>
+      <c r="W286">
+        <v>0</v>
+      </c>
+      <c r="X286">
+        <v>0</v>
+      </c>
+      <c r="Y286">
+        <v>0</v>
+      </c>
+      <c r="Z286">
+        <v>0</v>
+      </c>
+      <c r="AA286">
+        <v>0</v>
+      </c>
+      <c r="AB286">
+        <v>0</v>
+      </c>
+      <c r="AC286">
+        <v>1</v>
+      </c>
+      <c r="AD286">
+        <v>0</v>
+      </c>
+      <c r="AE286">
+        <v>1</v>
+      </c>
+      <c r="AF286">
+        <v>0</v>
+      </c>
+      <c r="AG286">
+        <v>0</v>
+      </c>
+      <c r="AH286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>2024</v>
+      </c>
+      <c r="B287" s="5">
+        <v>45646</v>
+      </c>
+      <c r="C287">
+        <v>43</v>
+      </c>
+      <c r="D287" t="s">
+        <v>46</v>
+      </c>
+      <c r="F287" t="s">
+        <v>13</v>
+      </c>
+      <c r="G287">
+        <v>8</v>
+      </c>
+      <c r="H287">
+        <v>1</v>
+      </c>
+      <c r="I287">
+        <v>3</v>
+      </c>
+      <c r="J287" t="s">
+        <v>37</v>
+      </c>
+      <c r="K287" t="s">
+        <v>31</v>
+      </c>
+      <c r="L287">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="M287">
+        <v>5</v>
+      </c>
+      <c r="N287">
+        <v>5</v>
+      </c>
+      <c r="O287">
+        <v>7</v>
+      </c>
+      <c r="P287">
+        <v>8</v>
+      </c>
+      <c r="Q287">
+        <v>4</v>
+      </c>
+      <c r="R287">
+        <v>4</v>
+      </c>
+      <c r="S287">
+        <v>3</v>
+      </c>
+      <c r="T287">
+        <v>0</v>
+      </c>
+      <c r="U287">
+        <v>3</v>
+      </c>
+      <c r="V287">
+        <v>4</v>
+      </c>
+      <c r="W287">
+        <v>0</v>
+      </c>
+      <c r="X287">
+        <v>0</v>
+      </c>
+      <c r="Y287">
+        <v>0</v>
+      </c>
+      <c r="Z287">
+        <v>0</v>
+      </c>
+      <c r="AA287">
+        <v>0</v>
+      </c>
+      <c r="AB287">
+        <v>0</v>
+      </c>
+      <c r="AC287">
+        <v>0</v>
+      </c>
+      <c r="AD287">
+        <v>0</v>
+      </c>
+      <c r="AE287">
+        <v>0</v>
+      </c>
+      <c r="AF287">
+        <v>0</v>
+      </c>
+      <c r="AG287">
+        <v>0</v>
+      </c>
+      <c r="AH287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>2024</v>
+      </c>
+      <c r="B288" s="5">
+        <v>45646</v>
+      </c>
+      <c r="C288">
+        <v>44</v>
+      </c>
+      <c r="D288" t="s">
+        <v>46</v>
+      </c>
+      <c r="F288" t="s">
+        <v>12</v>
+      </c>
+      <c r="G288">
+        <v>8</v>
+      </c>
+      <c r="H288">
+        <v>2</v>
+      </c>
+      <c r="I288">
+        <v>2</v>
+      </c>
+      <c r="J288" t="s">
+        <v>36</v>
+      </c>
+      <c r="K288" t="s">
+        <v>31</v>
+      </c>
+      <c r="L288">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="M288">
+        <v>5</v>
+      </c>
+      <c r="N288">
+        <v>4</v>
+      </c>
+      <c r="O288">
+        <v>4</v>
+      </c>
+      <c r="P288">
+        <v>13</v>
+      </c>
+      <c r="Q288">
+        <v>4</v>
+      </c>
+      <c r="R288">
+        <v>10</v>
+      </c>
+      <c r="S288">
+        <v>0</v>
+      </c>
+      <c r="T288">
+        <v>0</v>
+      </c>
+      <c r="U288">
+        <v>0</v>
+      </c>
+      <c r="V288">
+        <v>0</v>
+      </c>
+      <c r="W288">
+        <v>0</v>
+      </c>
+      <c r="X288">
+        <v>0</v>
+      </c>
+      <c r="Y288">
+        <v>0</v>
+      </c>
+      <c r="Z288">
+        <v>0</v>
+      </c>
+      <c r="AA288">
+        <v>0</v>
+      </c>
+      <c r="AB288">
+        <v>0</v>
+      </c>
+      <c r="AC288">
+        <v>0</v>
+      </c>
+      <c r="AD288">
+        <v>0</v>
+      </c>
+      <c r="AE288">
+        <v>0</v>
+      </c>
+      <c r="AF288">
+        <v>1</v>
+      </c>
+      <c r="AG288">
+        <v>0</v>
+      </c>
+      <c r="AH288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>2024</v>
+      </c>
+      <c r="B289" s="5">
+        <v>45646</v>
+      </c>
+      <c r="C289">
+        <v>44</v>
+      </c>
+      <c r="D289" t="s">
+        <v>46</v>
+      </c>
+      <c r="F289" t="s">
+        <v>13</v>
+      </c>
+      <c r="G289">
+        <v>5</v>
+      </c>
+      <c r="H289">
+        <v>1</v>
+      </c>
+      <c r="I289">
+        <v>3</v>
+      </c>
+      <c r="J289" t="s">
+        <v>32</v>
+      </c>
+      <c r="K289" t="s">
+        <v>31</v>
+      </c>
+      <c r="L289">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="M289">
+        <v>6</v>
+      </c>
+      <c r="N289">
+        <v>5</v>
+      </c>
+      <c r="O289">
+        <v>2</v>
+      </c>
+      <c r="P289">
+        <v>6</v>
+      </c>
+      <c r="Q289">
+        <v>5</v>
+      </c>
+      <c r="R289">
+        <v>3</v>
+      </c>
+      <c r="S289">
+        <v>8</v>
+      </c>
+      <c r="T289">
+        <v>2</v>
+      </c>
+      <c r="U289">
+        <v>0</v>
+      </c>
+      <c r="V289">
+        <v>5</v>
+      </c>
+      <c r="W289">
+        <v>0</v>
+      </c>
+      <c r="X289">
+        <v>0</v>
+      </c>
+      <c r="Y289">
+        <v>0</v>
+      </c>
+      <c r="Z289">
+        <v>0</v>
+      </c>
+      <c r="AA289">
+        <v>0</v>
+      </c>
+      <c r="AB289">
+        <v>0</v>
+      </c>
+      <c r="AC289">
+        <v>0</v>
+      </c>
+      <c r="AD289">
+        <v>0</v>
+      </c>
+      <c r="AE289">
+        <v>0</v>
+      </c>
+      <c r="AF289">
+        <v>0</v>
+      </c>
+      <c r="AG289">
+        <v>0</v>
+      </c>
+      <c r="AH289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>2024</v>
+      </c>
+      <c r="B290" s="5">
+        <v>45646</v>
+      </c>
+      <c r="C290">
+        <v>44</v>
+      </c>
+      <c r="D290" t="s">
+        <v>46</v>
+      </c>
+      <c r="F290" t="s">
+        <v>11</v>
+      </c>
+      <c r="G290">
+        <v>13</v>
+      </c>
+      <c r="H290">
+        <v>5</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290" t="s">
+        <v>37</v>
+      </c>
+      <c r="K290" t="s">
+        <v>31</v>
+      </c>
+      <c r="L290">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="M290">
+        <v>4</v>
+      </c>
+      <c r="N290">
+        <v>4</v>
+      </c>
+      <c r="O290">
+        <v>9</v>
+      </c>
+      <c r="P290">
+        <v>3</v>
+      </c>
+      <c r="Q290">
+        <v>0</v>
+      </c>
+      <c r="R290">
+        <v>2</v>
+      </c>
+      <c r="S290">
+        <v>9</v>
+      </c>
+      <c r="T290">
+        <v>9</v>
+      </c>
+      <c r="U290">
+        <v>0</v>
+      </c>
+      <c r="V290">
+        <v>0</v>
+      </c>
+      <c r="W290">
+        <v>0</v>
+      </c>
+      <c r="X290">
+        <v>0</v>
+      </c>
+      <c r="Y290">
+        <v>0</v>
+      </c>
+      <c r="Z290">
+        <v>0</v>
+      </c>
+      <c r="AA290">
+        <v>0</v>
+      </c>
+      <c r="AB290">
+        <v>0</v>
+      </c>
+      <c r="AC290">
+        <v>0</v>
+      </c>
+      <c r="AD290">
+        <v>1</v>
+      </c>
+      <c r="AE290">
+        <v>0</v>
+      </c>
+      <c r="AF290">
+        <v>0</v>
+      </c>
+      <c r="AG290">
+        <v>0</v>
+      </c>
+      <c r="AH290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>2024</v>
+      </c>
+      <c r="B291" s="5">
+        <v>45646</v>
+      </c>
+      <c r="C291">
+        <v>45</v>
+      </c>
+      <c r="D291" t="s">
+        <v>46</v>
+      </c>
+      <c r="F291" t="s">
+        <v>12</v>
+      </c>
+      <c r="G291">
+        <v>13</v>
+      </c>
+      <c r="H291">
+        <v>5</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291" t="s">
+        <v>36</v>
+      </c>
+      <c r="K291" t="s">
+        <v>31</v>
+      </c>
+      <c r="L291">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M291">
+        <v>5</v>
+      </c>
+      <c r="N291">
+        <v>5</v>
+      </c>
+      <c r="O291">
+        <v>4</v>
+      </c>
+      <c r="P291">
+        <v>8</v>
+      </c>
+      <c r="Q291">
+        <v>3</v>
+      </c>
+      <c r="R291">
+        <v>5</v>
+      </c>
+      <c r="S291">
+        <v>4</v>
+      </c>
+      <c r="T291">
+        <v>0</v>
+      </c>
+      <c r="U291">
+        <v>1</v>
+      </c>
+      <c r="V291">
+        <v>3</v>
+      </c>
+      <c r="W291">
+        <v>0</v>
+      </c>
+      <c r="X291">
+        <v>0</v>
+      </c>
+      <c r="Y291">
+        <v>0</v>
+      </c>
+      <c r="Z291">
+        <v>0</v>
+      </c>
+      <c r="AA291">
+        <v>0</v>
+      </c>
+      <c r="AB291">
+        <v>0</v>
+      </c>
+      <c r="AC291">
+        <v>0</v>
+      </c>
+      <c r="AD291">
+        <v>0</v>
+      </c>
+      <c r="AE291">
+        <v>0</v>
+      </c>
+      <c r="AF291">
+        <v>0</v>
+      </c>
+      <c r="AG291">
+        <v>0</v>
+      </c>
+      <c r="AH291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>2024</v>
+      </c>
+      <c r="B292" s="5">
+        <v>45646</v>
+      </c>
+      <c r="C292">
+        <v>45</v>
+      </c>
+      <c r="D292" t="s">
+        <v>46</v>
+      </c>
+      <c r="F292" t="s">
+        <v>13</v>
+      </c>
+      <c r="G292">
+        <v>10</v>
+      </c>
+      <c r="H292">
+        <v>2</v>
+      </c>
+      <c r="I292">
+        <v>2</v>
+      </c>
+      <c r="J292" t="s">
+        <v>32</v>
+      </c>
+      <c r="K292" t="s">
+        <v>31</v>
+      </c>
+      <c r="L292">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="M292">
+        <v>5</v>
+      </c>
+      <c r="N292">
+        <v>5</v>
+      </c>
+      <c r="O292">
+        <v>2</v>
+      </c>
+      <c r="P292">
+        <v>5</v>
+      </c>
+      <c r="Q292">
+        <v>3</v>
+      </c>
+      <c r="R292">
+        <v>12</v>
+      </c>
+      <c r="S292">
+        <v>3</v>
+      </c>
+      <c r="T292">
+        <v>2</v>
+      </c>
+      <c r="U292">
+        <v>0</v>
+      </c>
+      <c r="V292">
+        <v>3</v>
+      </c>
+      <c r="W292">
+        <v>0</v>
+      </c>
+      <c r="X292">
+        <v>0</v>
+      </c>
+      <c r="Y292">
+        <v>0</v>
+      </c>
+      <c r="Z292">
+        <v>0</v>
+      </c>
+      <c r="AA292">
+        <v>0</v>
+      </c>
+      <c r="AB292">
+        <v>0</v>
+      </c>
+      <c r="AC292">
+        <v>0</v>
+      </c>
+      <c r="AD292">
+        <v>0</v>
+      </c>
+      <c r="AE292">
+        <v>0</v>
+      </c>
+      <c r="AF292">
+        <v>0</v>
+      </c>
+      <c r="AG292">
+        <v>0</v>
+      </c>
+      <c r="AH292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>2024</v>
+      </c>
+      <c r="B293" s="5">
+        <v>45646</v>
+      </c>
+      <c r="C293">
+        <v>45</v>
+      </c>
+      <c r="D293" t="s">
+        <v>46</v>
+      </c>
+      <c r="F293" t="s">
+        <v>11</v>
+      </c>
+      <c r="G293">
+        <v>9</v>
+      </c>
+      <c r="H293">
+        <v>2</v>
+      </c>
+      <c r="I293">
+        <v>3</v>
+      </c>
+      <c r="J293" t="s">
+        <v>37</v>
+      </c>
+      <c r="K293" t="s">
+        <v>31</v>
+      </c>
+      <c r="L293">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="M293">
+        <v>5</v>
+      </c>
+      <c r="N293">
+        <v>5</v>
+      </c>
+      <c r="O293">
+        <v>5</v>
+      </c>
+      <c r="P293">
+        <v>3</v>
+      </c>
+      <c r="Q293">
+        <v>6</v>
+      </c>
+      <c r="R293">
+        <v>5</v>
+      </c>
+      <c r="S293">
+        <v>2</v>
+      </c>
+      <c r="T293">
+        <v>5</v>
+      </c>
+      <c r="U293">
+        <v>2</v>
+      </c>
+      <c r="V293">
+        <v>3</v>
+      </c>
+      <c r="W293">
+        <v>0</v>
+      </c>
+      <c r="X293">
+        <v>0</v>
+      </c>
+      <c r="Y293">
+        <v>0</v>
+      </c>
+      <c r="Z293">
+        <v>0</v>
+      </c>
+      <c r="AA293">
+        <v>0</v>
+      </c>
+      <c r="AB293">
+        <v>0</v>
+      </c>
+      <c r="AC293">
+        <v>0</v>
+      </c>
+      <c r="AD293">
+        <v>1</v>
+      </c>
+      <c r="AE293">
+        <v>0</v>
+      </c>
+      <c r="AF293">
+        <v>0</v>
+      </c>
+      <c r="AG293">
+        <v>0</v>
+      </c>
+      <c r="AH293">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AP272" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
+  <autoFilter ref="A2:AP290" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W177:Z223 W225:Z1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Documents\CatanData\catan_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A0C7DD-2B7E-487B-9B32-F6E167B7ECDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C44773-8342-41D1-8B2F-4FC98CD42557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="77">
   <si>
     <t>season</t>
   </si>
@@ -252,6 +252,24 @@
   </si>
   <si>
     <t>Köln (Brüsseler Str.)</t>
+  </si>
+  <si>
+    <t>58.84671772183492, 6.280741612015114</t>
+  </si>
+  <si>
+    <t>60.39859176948313, 5.307245354427877</t>
+  </si>
+  <si>
+    <t>60.11632625402027, 6.270618350256022</t>
+  </si>
+  <si>
+    <t>60.336315584466945, 6.657032198169301</t>
+  </si>
+  <si>
+    <t>58.932916507167796, 7.700559647487336</t>
+  </si>
+  <si>
+    <t>50.941809648631626, 6.935413348566591</t>
   </si>
 </sst>
 </file>
@@ -631,10 +649,10 @@
   <dimension ref="A1:AP293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J272" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E288" sqref="E288"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3:E293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -841,7 +859,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="str">
-        <f>VLOOKUP(D3,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D3,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F3" t="s">
@@ -944,7 +962,7 @@
         <v>46</v>
       </c>
       <c r="E4" t="str">
-        <f>VLOOKUP(D4,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D4,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F4" t="s">
@@ -1047,7 +1065,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="str">
-        <f>VLOOKUP(D5,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D5,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F5" t="s">
@@ -1150,7 +1168,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="str">
-        <f>VLOOKUP(D6,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D6,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F6" t="s">
@@ -1253,7 +1271,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="str">
-        <f>VLOOKUP(D7,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D7,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F7" t="s">
@@ -1356,7 +1374,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="str">
-        <f>VLOOKUP(D8,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D8,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F8" t="s">
@@ -1459,7 +1477,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="str">
-        <f>VLOOKUP(D9,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D9,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F9" t="s">
@@ -1562,7 +1580,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="str">
-        <f>VLOOKUP(D10,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D10,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F10" t="s">
@@ -1665,7 +1683,7 @@
         <v>46</v>
       </c>
       <c r="E11" t="str">
-        <f>VLOOKUP(D11,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D11,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F11" t="s">
@@ -1768,7 +1786,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="str">
-        <f>VLOOKUP(D12,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D12,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F12" t="s">
@@ -1871,7 +1889,7 @@
         <v>46</v>
       </c>
       <c r="E13" t="str">
-        <f>VLOOKUP(D13,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D13,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F13" t="s">
@@ -1974,7 +1992,7 @@
         <v>46</v>
       </c>
       <c r="E14" t="str">
-        <f>VLOOKUP(D14,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D14,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F14" t="s">
@@ -2077,7 +2095,7 @@
         <v>46</v>
       </c>
       <c r="E15" t="str">
-        <f>VLOOKUP(D15,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D15,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F15" t="s">
@@ -2180,7 +2198,7 @@
         <v>46</v>
       </c>
       <c r="E16" t="str">
-        <f>VLOOKUP(D16,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D16,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F16" t="s">
@@ -2283,7 +2301,7 @@
         <v>46</v>
       </c>
       <c r="E17" t="str">
-        <f>VLOOKUP(D17,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D17,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F17" t="s">
@@ -2386,7 +2404,7 @@
         <v>46</v>
       </c>
       <c r="E18" t="str">
-        <f>VLOOKUP(D18,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D18,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F18" t="s">
@@ -2489,7 +2507,7 @@
         <v>46</v>
       </c>
       <c r="E19" t="str">
-        <f>VLOOKUP(D19,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D19,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F19" t="s">
@@ -2592,7 +2610,7 @@
         <v>46</v>
       </c>
       <c r="E20" t="str">
-        <f>VLOOKUP(D20,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D20,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F20" t="s">
@@ -2695,7 +2713,7 @@
         <v>46</v>
       </c>
       <c r="E21" t="str">
-        <f>VLOOKUP(D21,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D21,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F21" t="s">
@@ -2798,7 +2816,7 @@
         <v>46</v>
       </c>
       <c r="E22" t="str">
-        <f>VLOOKUP(D22,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D22,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F22" t="s">
@@ -2901,7 +2919,7 @@
         <v>46</v>
       </c>
       <c r="E23" t="str">
-        <f>VLOOKUP(D23,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D23,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F23" t="s">
@@ -3004,7 +3022,7 @@
         <v>46</v>
       </c>
       <c r="E24" t="str">
-        <f>VLOOKUP(D24,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D24,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F24" t="s">
@@ -3107,7 +3125,7 @@
         <v>46</v>
       </c>
       <c r="E25" t="str">
-        <f>VLOOKUP(D25,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D25,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F25" t="s">
@@ -3210,7 +3228,7 @@
         <v>46</v>
       </c>
       <c r="E26" t="str">
-        <f>VLOOKUP(D26,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D26,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F26" t="s">
@@ -3313,7 +3331,7 @@
         <v>46</v>
       </c>
       <c r="E27" t="str">
-        <f>VLOOKUP(D27,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D27,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F27" t="s">
@@ -3419,7 +3437,7 @@
         <v>46</v>
       </c>
       <c r="E28" t="str">
-        <f>VLOOKUP(D28,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D28,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F28" t="s">
@@ -3525,7 +3543,7 @@
         <v>46</v>
       </c>
       <c r="E29" t="str">
-        <f>VLOOKUP(D29,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D29,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F29" t="s">
@@ -3631,7 +3649,7 @@
         <v>55</v>
       </c>
       <c r="E30" t="str">
-        <f>VLOOKUP(D30,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D30,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F30" t="s">
@@ -3737,7 +3755,7 @@
         <v>55</v>
       </c>
       <c r="E31" t="str">
-        <f>VLOOKUP(D31,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D31,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F31" t="s">
@@ -3843,7 +3861,7 @@
         <v>55</v>
       </c>
       <c r="E32" t="str">
-        <f>VLOOKUP(D32,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D32,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F32" t="s">
@@ -3949,7 +3967,7 @@
         <v>55</v>
       </c>
       <c r="E33" t="str">
-        <f>VLOOKUP(D33,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D33,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F33" t="s">
@@ -4055,7 +4073,7 @@
         <v>55</v>
       </c>
       <c r="E34" t="str">
-        <f>VLOOKUP(D34,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D34,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F34" t="s">
@@ -4161,7 +4179,7 @@
         <v>55</v>
       </c>
       <c r="E35" t="str">
-        <f>VLOOKUP(D35,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D35,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F35" t="s">
@@ -4267,7 +4285,7 @@
         <v>55</v>
       </c>
       <c r="E36" t="str">
-        <f>VLOOKUP(D36,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D36,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F36" t="s">
@@ -4373,7 +4391,7 @@
         <v>55</v>
       </c>
       <c r="E37" t="str">
-        <f>VLOOKUP(D37,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D37,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F37" t="s">
@@ -4479,7 +4497,7 @@
         <v>55</v>
       </c>
       <c r="E38" t="str">
-        <f>VLOOKUP(D38,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D38,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F38" t="s">
@@ -4585,7 +4603,7 @@
         <v>55</v>
       </c>
       <c r="E39" t="str">
-        <f>VLOOKUP(D39,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D39,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F39" t="s">
@@ -4691,7 +4709,7 @@
         <v>55</v>
       </c>
       <c r="E40" t="str">
-        <f>VLOOKUP(D40,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D40,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F40" t="s">
@@ -4797,7 +4815,7 @@
         <v>55</v>
       </c>
       <c r="E41" t="str">
-        <f>VLOOKUP(D41,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D41,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F41" t="s">
@@ -4903,7 +4921,7 @@
         <v>55</v>
       </c>
       <c r="E42" t="str">
-        <f>VLOOKUP(D42,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D42,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F42" t="s">
@@ -5009,7 +5027,7 @@
         <v>55</v>
       </c>
       <c r="E43" t="str">
-        <f>VLOOKUP(D43,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D43,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F43" t="s">
@@ -5115,7 +5133,7 @@
         <v>55</v>
       </c>
       <c r="E44" t="str">
-        <f>VLOOKUP(D44,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D44,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F44" t="s">
@@ -5221,7 +5239,7 @@
         <v>55</v>
       </c>
       <c r="E45" t="str">
-        <f>VLOOKUP(D45,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D45,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F45" t="s">
@@ -5327,7 +5345,7 @@
         <v>55</v>
       </c>
       <c r="E46" t="str">
-        <f>VLOOKUP(D46,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D46,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F46" t="s">
@@ -5433,7 +5451,7 @@
         <v>55</v>
       </c>
       <c r="E47" t="str">
-        <f>VLOOKUP(D47,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D47,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F47" t="s">
@@ -5539,7 +5557,7 @@
         <v>58</v>
       </c>
       <c r="E48" t="str">
-        <f>VLOOKUP(D48,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D48,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.788890, 4.135175</v>
       </c>
       <c r="F48" t="s">
@@ -5645,7 +5663,7 @@
         <v>58</v>
       </c>
       <c r="E49" t="str">
-        <f>VLOOKUP(D49,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D49,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.788890, 4.135175</v>
       </c>
       <c r="F49" t="s">
@@ -5751,7 +5769,7 @@
         <v>58</v>
       </c>
       <c r="E50" t="str">
-        <f>VLOOKUP(D50,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D50,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.788890, 4.135175</v>
       </c>
       <c r="F50" t="s">
@@ -5857,7 +5875,7 @@
         <v>58</v>
       </c>
       <c r="E51" t="str">
-        <f>VLOOKUP(D51,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D51,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.788890, 4.135175</v>
       </c>
       <c r="F51" t="s">
@@ -5963,7 +5981,7 @@
         <v>58</v>
       </c>
       <c r="E52" t="str">
-        <f>VLOOKUP(D52,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D52,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.788890, 4.135175</v>
       </c>
       <c r="F52" t="s">
@@ -6069,7 +6087,7 @@
         <v>58</v>
       </c>
       <c r="E53" t="str">
-        <f>VLOOKUP(D53,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D53,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.788890, 4.135175</v>
       </c>
       <c r="F53" t="s">
@@ -6175,7 +6193,7 @@
         <v>58</v>
       </c>
       <c r="E54" t="str">
-        <f>VLOOKUP(D54,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D54,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.788890, 4.135175</v>
       </c>
       <c r="F54" t="s">
@@ -6281,7 +6299,7 @@
         <v>58</v>
       </c>
       <c r="E55" t="str">
-        <f>VLOOKUP(D55,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D55,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.788890, 4.135175</v>
       </c>
       <c r="F55" t="s">
@@ -6387,7 +6405,7 @@
         <v>58</v>
       </c>
       <c r="E56" t="str">
-        <f>VLOOKUP(D56,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D56,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.788890, 4.135175</v>
       </c>
       <c r="F56" t="s">
@@ -6493,7 +6511,7 @@
         <v>55</v>
       </c>
       <c r="E57" t="str">
-        <f>VLOOKUP(D57,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D57,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F57" t="s">
@@ -6599,7 +6617,7 @@
         <v>55</v>
       </c>
       <c r="E58" t="str">
-        <f>VLOOKUP(D58,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D58,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F58" t="s">
@@ -6705,7 +6723,7 @@
         <v>55</v>
       </c>
       <c r="E59" t="str">
-        <f>VLOOKUP(D59,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D59,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F59" t="s">
@@ -6811,7 +6829,7 @@
         <v>55</v>
       </c>
       <c r="E60" t="str">
-        <f>VLOOKUP(D60,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D60,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F60" t="s">
@@ -6917,7 +6935,7 @@
         <v>55</v>
       </c>
       <c r="E61" t="str">
-        <f>VLOOKUP(D61,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D61,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F61" t="s">
@@ -7023,7 +7041,7 @@
         <v>55</v>
       </c>
       <c r="E62" t="str">
-        <f>VLOOKUP(D62,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D62,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F62" t="s">
@@ -7129,7 +7147,7 @@
         <v>55</v>
       </c>
       <c r="E63" t="str">
-        <f>VLOOKUP(D63,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D63,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F63" t="s">
@@ -7235,7 +7253,7 @@
         <v>55</v>
       </c>
       <c r="E64" t="str">
-        <f>VLOOKUP(D64,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D64,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F64" t="s">
@@ -7341,7 +7359,7 @@
         <v>55</v>
       </c>
       <c r="E65" t="str">
-        <f>VLOOKUP(D65,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D65,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F65" t="s">
@@ -7447,7 +7465,7 @@
         <v>55</v>
       </c>
       <c r="E66" t="str">
-        <f>VLOOKUP(D66,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D66,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F66" t="s">
@@ -7553,7 +7571,7 @@
         <v>55</v>
       </c>
       <c r="E67" t="str">
-        <f>VLOOKUP(D67,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D67,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F67" t="s">
@@ -7659,7 +7677,7 @@
         <v>55</v>
       </c>
       <c r="E68" t="str">
-        <f>VLOOKUP(D68,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D68,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F68" t="s">
@@ -7765,7 +7783,7 @@
         <v>55</v>
       </c>
       <c r="E69" t="str">
-        <f>VLOOKUP(D69,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D69,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F69" t="s">
@@ -7871,7 +7889,7 @@
         <v>55</v>
       </c>
       <c r="E70" t="str">
-        <f>VLOOKUP(D70,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D70,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F70" t="s">
@@ -7977,7 +7995,7 @@
         <v>55</v>
       </c>
       <c r="E71" t="str">
-        <f>VLOOKUP(D71,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D71,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F71" t="s">
@@ -8083,7 +8101,7 @@
         <v>55</v>
       </c>
       <c r="E72" t="str">
-        <f>VLOOKUP(D72,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D72,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F72" t="s">
@@ -8189,7 +8207,7 @@
         <v>55</v>
       </c>
       <c r="E73" t="str">
-        <f>VLOOKUP(D73,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D73,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F73" t="s">
@@ -8295,7 +8313,7 @@
         <v>55</v>
       </c>
       <c r="E74" t="str">
-        <f>VLOOKUP(D74,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D74,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F74" t="s">
@@ -8401,7 +8419,7 @@
         <v>55</v>
       </c>
       <c r="E75" t="str">
-        <f>VLOOKUP(D75,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D75,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F75" t="s">
@@ -8507,7 +8525,7 @@
         <v>55</v>
       </c>
       <c r="E76" t="str">
-        <f>VLOOKUP(D76,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D76,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F76" t="s">
@@ -8613,7 +8631,7 @@
         <v>55</v>
       </c>
       <c r="E77" t="str">
-        <f>VLOOKUP(D77,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D77,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F77" t="s">
@@ -8719,7 +8737,7 @@
         <v>46</v>
       </c>
       <c r="E78" t="str">
-        <f>VLOOKUP(D78,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D78,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F78" t="s">
@@ -8825,7 +8843,7 @@
         <v>46</v>
       </c>
       <c r="E79" t="str">
-        <f>VLOOKUP(D79,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D79,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F79" t="s">
@@ -8931,7 +8949,7 @@
         <v>46</v>
       </c>
       <c r="E80" t="str">
-        <f>VLOOKUP(D80,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D80,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F80" t="s">
@@ -9037,7 +9055,7 @@
         <v>46</v>
       </c>
       <c r="E81" t="str">
-        <f>VLOOKUP(D81,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D81,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F81" t="s">
@@ -9077,7 +9095,7 @@
         <v>46</v>
       </c>
       <c r="E82" t="str">
-        <f>VLOOKUP(D82,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D82,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F82" t="s">
@@ -9117,7 +9135,7 @@
         <v>46</v>
       </c>
       <c r="E83" t="str">
-        <f>VLOOKUP(D83,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D83,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F83" t="s">
@@ -9157,7 +9175,7 @@
         <v>46</v>
       </c>
       <c r="E84" t="str">
-        <f>VLOOKUP(D84,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D84,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F84" t="s">
@@ -9263,7 +9281,7 @@
         <v>46</v>
       </c>
       <c r="E85" t="str">
-        <f>VLOOKUP(D85,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D85,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F85" t="s">
@@ -9369,7 +9387,7 @@
         <v>46</v>
       </c>
       <c r="E86" t="str">
-        <f>VLOOKUP(D86,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D86,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F86" t="s">
@@ -9475,7 +9493,7 @@
         <v>46</v>
       </c>
       <c r="E87" t="str">
-        <f>VLOOKUP(D87,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D87,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F87" t="s">
@@ -9581,7 +9599,7 @@
         <v>46</v>
       </c>
       <c r="E88" t="str">
-        <f>VLOOKUP(D88,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D88,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F88" t="s">
@@ -9687,7 +9705,7 @@
         <v>46</v>
       </c>
       <c r="E89" t="str">
-        <f>VLOOKUP(D89,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D89,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F89" t="s">
@@ -9793,7 +9811,7 @@
         <v>46</v>
       </c>
       <c r="E90" t="str">
-        <f>VLOOKUP(D90,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D90,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F90" t="s">
@@ -9899,7 +9917,7 @@
         <v>46</v>
       </c>
       <c r="E91" t="str">
-        <f>VLOOKUP(D91,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D91,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F91" t="s">
@@ -10005,7 +10023,7 @@
         <v>46</v>
       </c>
       <c r="E92" t="str">
-        <f>VLOOKUP(D92,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D92,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F92" t="s">
@@ -10111,7 +10129,7 @@
         <v>59</v>
       </c>
       <c r="E93" t="str">
-        <f>VLOOKUP(D93,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D93,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F93" t="s">
@@ -10217,7 +10235,7 @@
         <v>59</v>
       </c>
       <c r="E94" t="str">
-        <f>VLOOKUP(D94,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D94,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F94" t="s">
@@ -10323,7 +10341,7 @@
         <v>59</v>
       </c>
       <c r="E95" t="str">
-        <f>VLOOKUP(D95,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D95,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F95" t="s">
@@ -10429,7 +10447,7 @@
         <v>59</v>
       </c>
       <c r="E96" t="str">
-        <f>VLOOKUP(D96,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D96,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F96" t="s">
@@ -10535,7 +10553,7 @@
         <v>59</v>
       </c>
       <c r="E97" t="str">
-        <f>VLOOKUP(D97,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D97,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F97" t="s">
@@ -10641,7 +10659,7 @@
         <v>59</v>
       </c>
       <c r="E98" t="str">
-        <f>VLOOKUP(D98,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D98,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F98" t="s">
@@ -10747,7 +10765,7 @@
         <v>59</v>
       </c>
       <c r="E99" t="str">
-        <f>VLOOKUP(D99,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D99,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F99" t="s">
@@ -10853,7 +10871,7 @@
         <v>59</v>
       </c>
       <c r="E100" t="str">
-        <f>VLOOKUP(D100,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D100,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F100" t="s">
@@ -10959,7 +10977,7 @@
         <v>59</v>
       </c>
       <c r="E101" t="str">
-        <f>VLOOKUP(D101,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D101,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F101" t="s">
@@ -11065,7 +11083,7 @@
         <v>59</v>
       </c>
       <c r="E102" t="str">
-        <f>VLOOKUP(D102,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D102,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F102" t="s">
@@ -11171,7 +11189,7 @@
         <v>59</v>
       </c>
       <c r="E103" t="str">
-        <f>VLOOKUP(D103,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D103,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F103" t="s">
@@ -11277,7 +11295,7 @@
         <v>59</v>
       </c>
       <c r="E104" t="str">
-        <f>VLOOKUP(D104,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D104,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F104" t="s">
@@ -11383,7 +11401,7 @@
         <v>59</v>
       </c>
       <c r="E105" t="str">
-        <f>VLOOKUP(D105,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D105,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F105" t="s">
@@ -11489,7 +11507,7 @@
         <v>59</v>
       </c>
       <c r="E106" t="str">
-        <f>VLOOKUP(D106,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D106,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F106" t="s">
@@ -11595,7 +11613,7 @@
         <v>59</v>
       </c>
       <c r="E107" t="str">
-        <f>VLOOKUP(D107,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D107,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F107" t="s">
@@ -11701,7 +11719,7 @@
         <v>59</v>
       </c>
       <c r="E108" t="str">
-        <f>VLOOKUP(D108,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D108,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F108" t="s">
@@ -11807,7 +11825,7 @@
         <v>59</v>
       </c>
       <c r="E109" t="str">
-        <f>VLOOKUP(D109,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D109,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F109" t="s">
@@ -11913,7 +11931,7 @@
         <v>59</v>
       </c>
       <c r="E110" t="str">
-        <f>VLOOKUP(D110,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D110,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F110" t="s">
@@ -12019,7 +12037,7 @@
         <v>59</v>
       </c>
       <c r="E111" t="str">
-        <f>VLOOKUP(D111,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D111,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F111" t="s">
@@ -12125,7 +12143,7 @@
         <v>59</v>
       </c>
       <c r="E112" t="str">
-        <f>VLOOKUP(D112,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D112,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F112" t="s">
@@ -12231,7 +12249,7 @@
         <v>59</v>
       </c>
       <c r="E113" t="str">
-        <f>VLOOKUP(D113,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D113,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F113" t="s">
@@ -12337,7 +12355,7 @@
         <v>59</v>
       </c>
       <c r="E114" t="str">
-        <f>VLOOKUP(D114,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D114,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F114" t="s">
@@ -12443,7 +12461,7 @@
         <v>59</v>
       </c>
       <c r="E115" t="str">
-        <f>VLOOKUP(D115,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D115,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F115" t="s">
@@ -12549,7 +12567,7 @@
         <v>59</v>
       </c>
       <c r="E116" t="str">
-        <f>VLOOKUP(D116,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D116,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>50.921949, 6.926677</v>
       </c>
       <c r="F116" t="s">
@@ -12655,7 +12673,7 @@
         <v>46</v>
       </c>
       <c r="E117" t="str">
-        <f>VLOOKUP(D117,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D117,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F117" t="s">
@@ -12761,7 +12779,7 @@
         <v>46</v>
       </c>
       <c r="E118" t="str">
-        <f>VLOOKUP(D118,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D118,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F118" t="s">
@@ -12867,7 +12885,7 @@
         <v>46</v>
       </c>
       <c r="E119" t="str">
-        <f>VLOOKUP(D119,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D119,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F119" t="s">
@@ -12973,7 +12991,7 @@
         <v>46</v>
       </c>
       <c r="E120" t="str">
-        <f>VLOOKUP(D120,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D120,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F120" t="s">
@@ -13006,7 +13024,7 @@
         <v>46</v>
       </c>
       <c r="E121" t="str">
-        <f>VLOOKUP(D121,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D121,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F121" t="s">
@@ -13039,7 +13057,7 @@
         <v>46</v>
       </c>
       <c r="E122" t="str">
-        <f>VLOOKUP(D122,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D122,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F122" t="s">
@@ -13072,7 +13090,7 @@
         <v>46</v>
       </c>
       <c r="E123" t="str">
-        <f>VLOOKUP(D123,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D123,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F123" t="s">
@@ -13178,7 +13196,7 @@
         <v>46</v>
       </c>
       <c r="E124" t="str">
-        <f>VLOOKUP(D124,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D124,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F124" t="s">
@@ -13284,7 +13302,7 @@
         <v>46</v>
       </c>
       <c r="E125" t="str">
-        <f>VLOOKUP(D125,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D125,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F125" t="s">
@@ -13390,7 +13408,7 @@
         <v>55</v>
       </c>
       <c r="E126" t="str">
-        <f>VLOOKUP(D126,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D126,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F126" t="s">
@@ -13496,7 +13514,7 @@
         <v>55</v>
       </c>
       <c r="E127" t="str">
-        <f>VLOOKUP(D127,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D127,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F127" t="s">
@@ -13602,7 +13620,7 @@
         <v>55</v>
       </c>
       <c r="E128" t="str">
-        <f>VLOOKUP(D128,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D128,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F128" t="s">
@@ -13708,7 +13726,7 @@
         <v>55</v>
       </c>
       <c r="E129" t="str">
-        <f>VLOOKUP(D129,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D129,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F129" t="s">
@@ -13814,7 +13832,7 @@
         <v>55</v>
       </c>
       <c r="E130" t="str">
-        <f>VLOOKUP(D130,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D130,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F130" t="s">
@@ -13920,7 +13938,7 @@
         <v>55</v>
       </c>
       <c r="E131" t="str">
-        <f>VLOOKUP(D131,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D131,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F131" t="s">
@@ -14026,7 +14044,7 @@
         <v>55</v>
       </c>
       <c r="E132" t="str">
-        <f>VLOOKUP(D132,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D132,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F132" t="s">
@@ -14132,7 +14150,7 @@
         <v>55</v>
       </c>
       <c r="E133" t="str">
-        <f>VLOOKUP(D133,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D133,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F133" t="s">
@@ -14238,7 +14256,7 @@
         <v>55</v>
       </c>
       <c r="E134" t="str">
-        <f>VLOOKUP(D134,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D134,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F134" t="s">
@@ -14344,7 +14362,7 @@
         <v>55</v>
       </c>
       <c r="E135" t="str">
-        <f>VLOOKUP(D135,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D135,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F135" t="s">
@@ -14450,7 +14468,7 @@
         <v>55</v>
       </c>
       <c r="E136" t="str">
-        <f>VLOOKUP(D136,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D136,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F136" t="s">
@@ -14556,7 +14574,7 @@
         <v>55</v>
       </c>
       <c r="E137" t="str">
-        <f>VLOOKUP(D137,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D137,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F137" t="s">
@@ -14662,7 +14680,7 @@
         <v>55</v>
       </c>
       <c r="E138" t="str">
-        <f>VLOOKUP(D138,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D138,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F138" t="s">
@@ -14768,7 +14786,7 @@
         <v>55</v>
       </c>
       <c r="E139" t="str">
-        <f>VLOOKUP(D139,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D139,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F139" t="s">
@@ -14874,7 +14892,7 @@
         <v>55</v>
       </c>
       <c r="E140" t="str">
-        <f>VLOOKUP(D140,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D140,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F140" t="s">
@@ -14980,7 +14998,7 @@
         <v>55</v>
       </c>
       <c r="E141" t="str">
-        <f>VLOOKUP(D141,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D141,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F141" t="s">
@@ -15086,7 +15104,7 @@
         <v>55</v>
       </c>
       <c r="E142" t="str">
-        <f>VLOOKUP(D142,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D142,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F142" t="s">
@@ -15192,7 +15210,7 @@
         <v>55</v>
       </c>
       <c r="E143" t="str">
-        <f>VLOOKUP(D143,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D143,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F143" t="s">
@@ -15298,7 +15316,7 @@
         <v>55</v>
       </c>
       <c r="E144" t="str">
-        <f>VLOOKUP(D144,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D144,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F144" t="s">
@@ -15404,7 +15422,7 @@
         <v>55</v>
       </c>
       <c r="E145" t="str">
-        <f>VLOOKUP(D145,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D145,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F145" t="s">
@@ -15510,7 +15528,7 @@
         <v>55</v>
       </c>
       <c r="E146" t="str">
-        <f>VLOOKUP(D146,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D146,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F146" t="s">
@@ -15616,7 +15634,7 @@
         <v>55</v>
       </c>
       <c r="E147" t="str">
-        <f>VLOOKUP(D147,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D147,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F147" t="s">
@@ -15722,7 +15740,7 @@
         <v>55</v>
       </c>
       <c r="E148" t="str">
-        <f>VLOOKUP(D148,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D148,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F148" t="s">
@@ -15828,7 +15846,7 @@
         <v>55</v>
       </c>
       <c r="E149" t="str">
-        <f>VLOOKUP(D149,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D149,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F149" t="s">
@@ -15934,7 +15952,7 @@
         <v>55</v>
       </c>
       <c r="E150" t="str">
-        <f>VLOOKUP(D150,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D150,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F150" t="s">
@@ -16040,7 +16058,7 @@
         <v>55</v>
       </c>
       <c r="E151" t="str">
-        <f>VLOOKUP(D151,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D151,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F151" t="s">
@@ -16146,7 +16164,7 @@
         <v>55</v>
       </c>
       <c r="E152" t="str">
-        <f>VLOOKUP(D152,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D152,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F152" t="s">
@@ -16252,7 +16270,7 @@
         <v>55</v>
       </c>
       <c r="E153" t="str">
-        <f>VLOOKUP(D153,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D153,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F153" t="s">
@@ -16358,7 +16376,7 @@
         <v>55</v>
       </c>
       <c r="E154" t="str">
-        <f>VLOOKUP(D154,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D154,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F154" t="s">
@@ -16464,7 +16482,7 @@
         <v>55</v>
       </c>
       <c r="E155" t="str">
-        <f>VLOOKUP(D155,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D155,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F155" t="s">
@@ -16570,7 +16588,7 @@
         <v>55</v>
       </c>
       <c r="E156" t="str">
-        <f>VLOOKUP(D156,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D156,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F156" t="s">
@@ -16676,7 +16694,7 @@
         <v>55</v>
       </c>
       <c r="E157" t="str">
-        <f>VLOOKUP(D157,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D157,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F157" t="s">
@@ -16782,7 +16800,7 @@
         <v>55</v>
       </c>
       <c r="E158" t="str">
-        <f>VLOOKUP(D158,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D158,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>53.594891, 9.981069</v>
       </c>
       <c r="F158" t="s">
@@ -16888,7 +16906,7 @@
         <v>46</v>
       </c>
       <c r="E159" t="str">
-        <f>VLOOKUP(D159,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D159,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F159" t="s">
@@ -16994,7 +17012,7 @@
         <v>46</v>
       </c>
       <c r="E160" t="str">
-        <f>VLOOKUP(D160,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D160,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F160" t="s">
@@ -17100,7 +17118,7 @@
         <v>46</v>
       </c>
       <c r="E161" t="str">
-        <f>VLOOKUP(D161,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D161,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F161" t="s">
@@ -17206,7 +17224,7 @@
         <v>46</v>
       </c>
       <c r="E162" t="str">
-        <f>VLOOKUP(D162,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D162,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F162" t="s">
@@ -17312,7 +17330,7 @@
         <v>46</v>
       </c>
       <c r="E163" t="str">
-        <f>VLOOKUP(D163,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D163,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F163" t="s">
@@ -17418,7 +17436,7 @@
         <v>46</v>
       </c>
       <c r="E164" t="str">
-        <f>VLOOKUP(D164,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D164,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F164" t="s">
@@ -17524,7 +17542,7 @@
         <v>46</v>
       </c>
       <c r="E165" t="str">
-        <f>VLOOKUP(D165,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D165,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F165" t="s">
@@ -17630,7 +17648,7 @@
         <v>46</v>
       </c>
       <c r="E166" t="str">
-        <f>VLOOKUP(D166,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D166,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F166" t="s">
@@ -17736,7 +17754,7 @@
         <v>46</v>
       </c>
       <c r="E167" t="str">
-        <f>VLOOKUP(D167,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D167,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F167" t="s">
@@ -17842,7 +17860,7 @@
         <v>46</v>
       </c>
       <c r="E168" t="str">
-        <f>VLOOKUP(D168,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D168,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F168" t="s">
@@ -17948,7 +17966,7 @@
         <v>46</v>
       </c>
       <c r="E169" t="str">
-        <f>VLOOKUP(D169,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D169,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F169" t="s">
@@ -18054,7 +18072,7 @@
         <v>46</v>
       </c>
       <c r="E170" t="str">
-        <f>VLOOKUP(D170,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D170,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F170" t="s">
@@ -18160,7 +18178,7 @@
         <v>46</v>
       </c>
       <c r="E171" t="str">
-        <f>VLOOKUP(D171,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D171,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F171" t="s">
@@ -18266,7 +18284,7 @@
         <v>46</v>
       </c>
       <c r="E172" t="str">
-        <f>VLOOKUP(D172,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D172,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F172" t="s">
@@ -18372,7 +18390,7 @@
         <v>46</v>
       </c>
       <c r="E173" t="str">
-        <f>VLOOKUP(D173,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D173,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F173" t="s">
@@ -18478,7 +18496,7 @@
         <v>46</v>
       </c>
       <c r="E174" t="str">
-        <f>VLOOKUP(D174,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D174,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F174" t="s">
@@ -18584,7 +18602,7 @@
         <v>46</v>
       </c>
       <c r="E175" t="str">
-        <f>VLOOKUP(D175,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D175,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F175" t="s">
@@ -18690,7 +18708,7 @@
         <v>46</v>
       </c>
       <c r="E176" t="str">
-        <f>VLOOKUP(D176,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D176,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F176" t="s">
@@ -18796,7 +18814,7 @@
         <v>46</v>
       </c>
       <c r="E177" t="str">
-        <f>VLOOKUP(D177,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D177,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F177" t="s">
@@ -18902,7 +18920,7 @@
         <v>46</v>
       </c>
       <c r="E178" t="str">
-        <f>VLOOKUP(D178,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D178,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F178" t="s">
@@ -19008,7 +19026,7 @@
         <v>46</v>
       </c>
       <c r="E179" t="str">
-        <f>VLOOKUP(D179,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D179,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F179" t="s">
@@ -19114,7 +19132,7 @@
         <v>46</v>
       </c>
       <c r="E180" t="str">
-        <f>VLOOKUP(D180,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D180,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F180" t="s">
@@ -19220,7 +19238,7 @@
         <v>46</v>
       </c>
       <c r="E181" t="str">
-        <f>VLOOKUP(D181,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D181,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F181" t="s">
@@ -19326,7 +19344,7 @@
         <v>46</v>
       </c>
       <c r="E182" t="str">
-        <f>VLOOKUP(D182,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D182,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F182" t="s">
@@ -19432,7 +19450,7 @@
         <v>46</v>
       </c>
       <c r="E183" t="str">
-        <f>VLOOKUP(D183,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D183,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F183" t="s">
@@ -19538,7 +19556,7 @@
         <v>46</v>
       </c>
       <c r="E184" t="str">
-        <f>VLOOKUP(D184,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D184,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F184" t="s">
@@ -19644,7 +19662,7 @@
         <v>46</v>
       </c>
       <c r="E185" t="str">
-        <f>VLOOKUP(D185,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D185,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F185" t="s">
@@ -19750,7 +19768,7 @@
         <v>46</v>
       </c>
       <c r="E186" t="str">
-        <f>VLOOKUP(D186,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D186,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F186" t="s">
@@ -19856,7 +19874,7 @@
         <v>46</v>
       </c>
       <c r="E187" t="str">
-        <f>VLOOKUP(D187,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D187,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F187" t="s">
@@ -19962,7 +19980,7 @@
         <v>46</v>
       </c>
       <c r="E188" t="str">
-        <f>VLOOKUP(D188,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D188,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F188" t="s">
@@ -20068,7 +20086,7 @@
         <v>46</v>
       </c>
       <c r="E189" t="str">
-        <f>VLOOKUP(D189,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D189,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F189" t="s">
@@ -20174,7 +20192,7 @@
         <v>46</v>
       </c>
       <c r="E190" t="str">
-        <f>VLOOKUP(D190,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D190,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F190" t="s">
@@ -20280,7 +20298,7 @@
         <v>46</v>
       </c>
       <c r="E191" t="str">
-        <f>VLOOKUP(D191,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D191,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F191" t="s">
@@ -20386,7 +20404,7 @@
         <v>46</v>
       </c>
       <c r="E192" t="str">
-        <f>VLOOKUP(D192,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D192,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F192" t="s">
@@ -20492,7 +20510,7 @@
         <v>46</v>
       </c>
       <c r="E193" t="str">
-        <f>VLOOKUP(D193,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D193,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F193" t="s">
@@ -20598,7 +20616,7 @@
         <v>46</v>
       </c>
       <c r="E194" t="str">
-        <f>VLOOKUP(D194,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D194,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F194" t="s">
@@ -20704,7 +20722,7 @@
         <v>46</v>
       </c>
       <c r="E195" t="str">
-        <f>VLOOKUP(D195,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D195,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F195" t="s">
@@ -20810,7 +20828,7 @@
         <v>46</v>
       </c>
       <c r="E196" t="str">
-        <f>VLOOKUP(D196,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D196,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F196" t="s">
@@ -20916,7 +20934,7 @@
         <v>46</v>
       </c>
       <c r="E197" t="str">
-        <f>VLOOKUP(D197,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D197,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F197" t="s">
@@ -21022,7 +21040,7 @@
         <v>46</v>
       </c>
       <c r="E198" t="str">
-        <f>VLOOKUP(D198,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D198,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F198" t="s">
@@ -21128,7 +21146,7 @@
         <v>46</v>
       </c>
       <c r="E199" t="str">
-        <f>VLOOKUP(D199,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D199,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F199" t="s">
@@ -21234,7 +21252,7 @@
         <v>46</v>
       </c>
       <c r="E200" t="str">
-        <f>VLOOKUP(D200,Sheet2!$I$1:$J$4,2,FALSE)</f>
+        <f>VLOOKUP(D200,Sheet2!$I$1:$J$12,2,FALSE)</f>
         <v>54.491864, 9.030382</v>
       </c>
       <c r="F200" t="s">
@@ -21339,6 +21357,10 @@
       <c r="D201" t="s">
         <v>65</v>
       </c>
+      <c r="E201" t="str">
+        <f>VLOOKUP(D201,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>58.84671772183492, 6.280741612015114</v>
+      </c>
       <c r="F201" t="s">
         <v>12</v>
       </c>
@@ -21441,6 +21463,10 @@
       <c r="D202" t="s">
         <v>65</v>
       </c>
+      <c r="E202" t="str">
+        <f>VLOOKUP(D202,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>58.84671772183492, 6.280741612015114</v>
+      </c>
       <c r="F202" t="s">
         <v>11</v>
       </c>
@@ -21543,6 +21569,10 @@
       <c r="D203" t="s">
         <v>65</v>
       </c>
+      <c r="E203" t="str">
+        <f>VLOOKUP(D203,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>58.84671772183492, 6.280741612015114</v>
+      </c>
       <c r="F203" t="s">
         <v>13</v>
       </c>
@@ -21645,6 +21675,10 @@
       <c r="D204" t="s">
         <v>65</v>
       </c>
+      <c r="E204" t="str">
+        <f>VLOOKUP(D204,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>58.84671772183492, 6.280741612015114</v>
+      </c>
       <c r="F204" t="s">
         <v>12</v>
       </c>
@@ -21747,6 +21781,10 @@
       <c r="D205" t="s">
         <v>65</v>
       </c>
+      <c r="E205" t="str">
+        <f>VLOOKUP(D205,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>58.84671772183492, 6.280741612015114</v>
+      </c>
       <c r="F205" t="s">
         <v>13</v>
       </c>
@@ -21849,6 +21887,10 @@
       <c r="D206" t="s">
         <v>65</v>
       </c>
+      <c r="E206" t="str">
+        <f>VLOOKUP(D206,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>58.84671772183492, 6.280741612015114</v>
+      </c>
       <c r="F206" t="s">
         <v>11</v>
       </c>
@@ -21951,6 +21993,10 @@
       <c r="D207" t="s">
         <v>65</v>
       </c>
+      <c r="E207" t="str">
+        <f>VLOOKUP(D207,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>58.84671772183492, 6.280741612015114</v>
+      </c>
       <c r="F207" t="s">
         <v>12</v>
       </c>
@@ -22053,6 +22099,10 @@
       <c r="D208" t="s">
         <v>65</v>
       </c>
+      <c r="E208" t="str">
+        <f>VLOOKUP(D208,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>58.84671772183492, 6.280741612015114</v>
+      </c>
       <c r="F208" t="s">
         <v>11</v>
       </c>
@@ -22155,6 +22205,10 @@
       <c r="D209" t="s">
         <v>65</v>
       </c>
+      <c r="E209" t="str">
+        <f>VLOOKUP(D209,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>58.84671772183492, 6.280741612015114</v>
+      </c>
       <c r="F209" t="s">
         <v>13</v>
       </c>
@@ -22257,6 +22311,10 @@
       <c r="D210" t="s">
         <v>65</v>
       </c>
+      <c r="E210" t="str">
+        <f>VLOOKUP(D210,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>58.84671772183492, 6.280741612015114</v>
+      </c>
       <c r="F210" t="s">
         <v>11</v>
       </c>
@@ -22359,6 +22417,10 @@
       <c r="D211" t="s">
         <v>65</v>
       </c>
+      <c r="E211" t="str">
+        <f>VLOOKUP(D211,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>58.84671772183492, 6.280741612015114</v>
+      </c>
       <c r="F211" t="s">
         <v>12</v>
       </c>
@@ -22461,6 +22523,10 @@
       <c r="D212" t="s">
         <v>65</v>
       </c>
+      <c r="E212" t="str">
+        <f>VLOOKUP(D212,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>58.84671772183492, 6.280741612015114</v>
+      </c>
       <c r="F212" t="s">
         <v>13</v>
       </c>
@@ -22563,6 +22629,10 @@
       <c r="D213" t="s">
         <v>66</v>
       </c>
+      <c r="E213" t="str">
+        <f>VLOOKUP(D213,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.39859176948313, 5.307245354427877</v>
+      </c>
       <c r="F213" t="s">
         <v>12</v>
       </c>
@@ -22665,6 +22735,10 @@
       <c r="D214" t="s">
         <v>66</v>
       </c>
+      <c r="E214" t="str">
+        <f>VLOOKUP(D214,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.39859176948313, 5.307245354427877</v>
+      </c>
       <c r="F214" t="s">
         <v>11</v>
       </c>
@@ -22767,6 +22841,10 @@
       <c r="D215" t="s">
         <v>66</v>
       </c>
+      <c r="E215" t="str">
+        <f>VLOOKUP(D215,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.39859176948313, 5.307245354427877</v>
+      </c>
       <c r="F215" t="s">
         <v>13</v>
       </c>
@@ -22869,6 +22947,10 @@
       <c r="D216" t="s">
         <v>66</v>
       </c>
+      <c r="E216" t="str">
+        <f>VLOOKUP(D216,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.39859176948313, 5.307245354427877</v>
+      </c>
       <c r="F216" t="s">
         <v>13</v>
       </c>
@@ -22971,6 +23053,10 @@
       <c r="D217" t="s">
         <v>66</v>
       </c>
+      <c r="E217" t="str">
+        <f>VLOOKUP(D217,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.39859176948313, 5.307245354427877</v>
+      </c>
       <c r="F217" t="s">
         <v>11</v>
       </c>
@@ -23073,6 +23159,10 @@
       <c r="D218" t="s">
         <v>66</v>
       </c>
+      <c r="E218" t="str">
+        <f>VLOOKUP(D218,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.39859176948313, 5.307245354427877</v>
+      </c>
       <c r="F218" t="s">
         <v>12</v>
       </c>
@@ -23175,6 +23265,10 @@
       <c r="D219" t="s">
         <v>66</v>
       </c>
+      <c r="E219" t="str">
+        <f>VLOOKUP(D219,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.39859176948313, 5.307245354427877</v>
+      </c>
       <c r="F219" t="s">
         <v>13</v>
       </c>
@@ -23277,6 +23371,10 @@
       <c r="D220" t="s">
         <v>66</v>
       </c>
+      <c r="E220" t="str">
+        <f>VLOOKUP(D220,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.39859176948313, 5.307245354427877</v>
+      </c>
       <c r="F220" t="s">
         <v>11</v>
       </c>
@@ -23379,6 +23477,10 @@
       <c r="D221" t="s">
         <v>66</v>
       </c>
+      <c r="E221" t="str">
+        <f>VLOOKUP(D221,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.39859176948313, 5.307245354427877</v>
+      </c>
       <c r="F221" t="s">
         <v>12</v>
       </c>
@@ -23481,6 +23583,10 @@
       <c r="D222" t="s">
         <v>66</v>
       </c>
+      <c r="E222" t="str">
+        <f>VLOOKUP(D222,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.39859176948313, 5.307245354427877</v>
+      </c>
       <c r="F222" t="s">
         <v>13</v>
       </c>
@@ -23583,6 +23689,10 @@
       <c r="D223" t="s">
         <v>66</v>
       </c>
+      <c r="E223" t="str">
+        <f>VLOOKUP(D223,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.39859176948313, 5.307245354427877</v>
+      </c>
       <c r="F223" t="s">
         <v>11</v>
       </c>
@@ -23685,6 +23795,10 @@
       <c r="D224" t="s">
         <v>66</v>
       </c>
+      <c r="E224" t="str">
+        <f>VLOOKUP(D224,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.39859176948313, 5.307245354427877</v>
+      </c>
       <c r="F224" t="s">
         <v>12</v>
       </c>
@@ -23787,6 +23901,10 @@
       <c r="D225" t="s">
         <v>66</v>
       </c>
+      <c r="E225" t="str">
+        <f>VLOOKUP(D225,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.39859176948313, 5.307245354427877</v>
+      </c>
       <c r="F225" t="s">
         <v>13</v>
       </c>
@@ -23889,6 +24007,10 @@
       <c r="D226" t="s">
         <v>66</v>
       </c>
+      <c r="E226" t="str">
+        <f>VLOOKUP(D226,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.39859176948313, 5.307245354427877</v>
+      </c>
       <c r="F226" t="s">
         <v>12</v>
       </c>
@@ -23991,6 +24113,10 @@
       <c r="D227" t="s">
         <v>66</v>
       </c>
+      <c r="E227" t="str">
+        <f>VLOOKUP(D227,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.39859176948313, 5.307245354427877</v>
+      </c>
       <c r="F227" t="s">
         <v>11</v>
       </c>
@@ -24093,6 +24219,10 @@
       <c r="D228" t="s">
         <v>67</v>
       </c>
+      <c r="E228" t="str">
+        <f>VLOOKUP(D228,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.11632625402027, 6.270618350256022</v>
+      </c>
       <c r="F228" t="s">
         <v>13</v>
       </c>
@@ -24195,6 +24325,10 @@
       <c r="D229" t="s">
         <v>67</v>
       </c>
+      <c r="E229" t="str">
+        <f>VLOOKUP(D229,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.11632625402027, 6.270618350256022</v>
+      </c>
       <c r="F229" t="s">
         <v>11</v>
       </c>
@@ -24297,6 +24431,10 @@
       <c r="D230" t="s">
         <v>67</v>
       </c>
+      <c r="E230" t="str">
+        <f>VLOOKUP(D230,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.11632625402027, 6.270618350256022</v>
+      </c>
       <c r="F230" t="s">
         <v>12</v>
       </c>
@@ -24399,6 +24537,10 @@
       <c r="D231" t="s">
         <v>67</v>
       </c>
+      <c r="E231" t="str">
+        <f>VLOOKUP(D231,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.11632625402027, 6.270618350256022</v>
+      </c>
       <c r="F231" t="s">
         <v>11</v>
       </c>
@@ -24501,6 +24643,10 @@
       <c r="D232" t="s">
         <v>67</v>
       </c>
+      <c r="E232" t="str">
+        <f>VLOOKUP(D232,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.11632625402027, 6.270618350256022</v>
+      </c>
       <c r="F232" t="s">
         <v>12</v>
       </c>
@@ -24603,6 +24749,10 @@
       <c r="D233" t="s">
         <v>67</v>
       </c>
+      <c r="E233" t="str">
+        <f>VLOOKUP(D233,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.11632625402027, 6.270618350256022</v>
+      </c>
       <c r="F233" t="s">
         <v>13</v>
       </c>
@@ -24705,6 +24855,10 @@
       <c r="D234" t="s">
         <v>67</v>
       </c>
+      <c r="E234" t="str">
+        <f>VLOOKUP(D234,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.11632625402027, 6.270618350256022</v>
+      </c>
       <c r="F234" t="s">
         <v>11</v>
       </c>
@@ -24807,6 +24961,10 @@
       <c r="D235" t="s">
         <v>67</v>
       </c>
+      <c r="E235" t="str">
+        <f>VLOOKUP(D235,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.11632625402027, 6.270618350256022</v>
+      </c>
       <c r="F235" t="s">
         <v>12</v>
       </c>
@@ -24909,6 +25067,10 @@
       <c r="D236" t="s">
         <v>67</v>
       </c>
+      <c r="E236" t="str">
+        <f>VLOOKUP(D236,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.11632625402027, 6.270618350256022</v>
+      </c>
       <c r="F236" t="s">
         <v>13</v>
       </c>
@@ -25011,6 +25173,10 @@
       <c r="D237" t="s">
         <v>67</v>
       </c>
+      <c r="E237" t="str">
+        <f>VLOOKUP(D237,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.11632625402027, 6.270618350256022</v>
+      </c>
       <c r="F237" t="s">
         <v>12</v>
       </c>
@@ -25113,6 +25279,10 @@
       <c r="D238" t="s">
         <v>67</v>
       </c>
+      <c r="E238" t="str">
+        <f>VLOOKUP(D238,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.11632625402027, 6.270618350256022</v>
+      </c>
       <c r="F238" t="s">
         <v>13</v>
       </c>
@@ -25215,6 +25385,10 @@
       <c r="D239" t="s">
         <v>67</v>
       </c>
+      <c r="E239" t="str">
+        <f>VLOOKUP(D239,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.11632625402027, 6.270618350256022</v>
+      </c>
       <c r="F239" t="s">
         <v>11</v>
       </c>
@@ -25317,6 +25491,10 @@
       <c r="D240" t="s">
         <v>68</v>
       </c>
+      <c r="E240" t="str">
+        <f>VLOOKUP(D240,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.336315584466945, 6.657032198169301</v>
+      </c>
       <c r="F240" t="s">
         <v>13</v>
       </c>
@@ -25419,6 +25597,10 @@
       <c r="D241" t="s">
         <v>68</v>
       </c>
+      <c r="E241" t="str">
+        <f>VLOOKUP(D241,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.336315584466945, 6.657032198169301</v>
+      </c>
       <c r="F241" t="s">
         <v>12</v>
       </c>
@@ -25521,6 +25703,10 @@
       <c r="D242" t="s">
         <v>68</v>
       </c>
+      <c r="E242" t="str">
+        <f>VLOOKUP(D242,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.336315584466945, 6.657032198169301</v>
+      </c>
       <c r="F242" t="s">
         <v>11</v>
       </c>
@@ -25623,6 +25809,10 @@
       <c r="D243" t="s">
         <v>68</v>
       </c>
+      <c r="E243" t="str">
+        <f>VLOOKUP(D243,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.336315584466945, 6.657032198169301</v>
+      </c>
       <c r="F243" t="s">
         <v>13</v>
       </c>
@@ -25725,6 +25915,10 @@
       <c r="D244" t="s">
         <v>68</v>
       </c>
+      <c r="E244" t="str">
+        <f>VLOOKUP(D244,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.336315584466945, 6.657032198169301</v>
+      </c>
       <c r="F244" t="s">
         <v>12</v>
       </c>
@@ -25827,6 +26021,10 @@
       <c r="D245" t="s">
         <v>68</v>
       </c>
+      <c r="E245" t="str">
+        <f>VLOOKUP(D245,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.336315584466945, 6.657032198169301</v>
+      </c>
       <c r="F245" t="s">
         <v>11</v>
       </c>
@@ -25929,6 +26127,10 @@
       <c r="D246" t="s">
         <v>68</v>
       </c>
+      <c r="E246" t="str">
+        <f>VLOOKUP(D246,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.336315584466945, 6.657032198169301</v>
+      </c>
       <c r="F246" t="s">
         <v>13</v>
       </c>
@@ -26031,6 +26233,10 @@
       <c r="D247" t="s">
         <v>68</v>
       </c>
+      <c r="E247" t="str">
+        <f>VLOOKUP(D247,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.336315584466945, 6.657032198169301</v>
+      </c>
       <c r="F247" t="s">
         <v>12</v>
       </c>
@@ -26133,6 +26339,10 @@
       <c r="D248" t="s">
         <v>68</v>
       </c>
+      <c r="E248" t="str">
+        <f>VLOOKUP(D248,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.336315584466945, 6.657032198169301</v>
+      </c>
       <c r="F248" t="s">
         <v>11</v>
       </c>
@@ -26235,6 +26445,10 @@
       <c r="D249" t="s">
         <v>68</v>
       </c>
+      <c r="E249" t="str">
+        <f>VLOOKUP(D249,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.336315584466945, 6.657032198169301</v>
+      </c>
       <c r="F249" t="s">
         <v>12</v>
       </c>
@@ -26337,6 +26551,10 @@
       <c r="D250" t="s">
         <v>68</v>
       </c>
+      <c r="E250" t="str">
+        <f>VLOOKUP(D250,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.336315584466945, 6.657032198169301</v>
+      </c>
       <c r="F250" t="s">
         <v>13</v>
       </c>
@@ -26439,6 +26657,10 @@
       <c r="D251" t="s">
         <v>68</v>
       </c>
+      <c r="E251" t="str">
+        <f>VLOOKUP(D251,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>60.336315584466945, 6.657032198169301</v>
+      </c>
       <c r="F251" t="s">
         <v>11</v>
       </c>
@@ -26541,6 +26763,10 @@
       <c r="D252" t="s">
         <v>69</v>
       </c>
+      <c r="E252" t="str">
+        <f>VLOOKUP(D252,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>58.932916507167796, 7.700559647487336</v>
+      </c>
       <c r="F252" t="s">
         <v>12</v>
       </c>
@@ -26643,6 +26869,10 @@
       <c r="D253" t="s">
         <v>69</v>
       </c>
+      <c r="E253" t="str">
+        <f>VLOOKUP(D253,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>58.932916507167796, 7.700559647487336</v>
+      </c>
       <c r="F253" t="s">
         <v>11</v>
       </c>
@@ -26745,6 +26975,10 @@
       <c r="D254" t="s">
         <v>69</v>
       </c>
+      <c r="E254" t="str">
+        <f>VLOOKUP(D254,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>58.932916507167796, 7.700559647487336</v>
+      </c>
       <c r="F254" t="s">
         <v>13</v>
       </c>
@@ -26847,6 +27081,10 @@
       <c r="D255" t="s">
         <v>70</v>
       </c>
+      <c r="E255" t="str">
+        <f>VLOOKUP(D255,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F255" t="s">
         <v>12</v>
       </c>
@@ -26949,6 +27187,10 @@
       <c r="D256" t="s">
         <v>70</v>
       </c>
+      <c r="E256" t="str">
+        <f>VLOOKUP(D256,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F256" t="s">
         <v>11</v>
       </c>
@@ -27051,6 +27293,10 @@
       <c r="D257" t="s">
         <v>70</v>
       </c>
+      <c r="E257" t="str">
+        <f>VLOOKUP(D257,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F257" t="s">
         <v>13</v>
       </c>
@@ -27153,6 +27399,10 @@
       <c r="D258" t="s">
         <v>70</v>
       </c>
+      <c r="E258" t="str">
+        <f>VLOOKUP(D258,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F258" t="s">
         <v>11</v>
       </c>
@@ -27255,6 +27505,10 @@
       <c r="D259" t="s">
         <v>70</v>
       </c>
+      <c r="E259" t="str">
+        <f>VLOOKUP(D259,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F259" t="s">
         <v>13</v>
       </c>
@@ -27357,6 +27611,10 @@
       <c r="D260" t="s">
         <v>70</v>
       </c>
+      <c r="E260" t="str">
+        <f>VLOOKUP(D260,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F260" t="s">
         <v>12</v>
       </c>
@@ -27459,6 +27717,10 @@
       <c r="D261" t="s">
         <v>70</v>
       </c>
+      <c r="E261" t="str">
+        <f>VLOOKUP(D261,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F261" t="s">
         <v>13</v>
       </c>
@@ -27561,6 +27823,10 @@
       <c r="D262" t="s">
         <v>70</v>
       </c>
+      <c r="E262" t="str">
+        <f>VLOOKUP(D262,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F262" t="s">
         <v>11</v>
       </c>
@@ -27663,6 +27929,10 @@
       <c r="D263" t="s">
         <v>70</v>
       </c>
+      <c r="E263" t="str">
+        <f>VLOOKUP(D263,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F263" t="s">
         <v>12</v>
       </c>
@@ -27765,6 +28035,10 @@
       <c r="D264" t="s">
         <v>70</v>
       </c>
+      <c r="E264" t="str">
+        <f>VLOOKUP(D264,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F264" t="s">
         <v>12</v>
       </c>
@@ -27867,6 +28141,10 @@
       <c r="D265" t="s">
         <v>70</v>
       </c>
+      <c r="E265" t="str">
+        <f>VLOOKUP(D265,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F265" t="s">
         <v>11</v>
       </c>
@@ -27969,6 +28247,10 @@
       <c r="D266" t="s">
         <v>70</v>
       </c>
+      <c r="E266" t="str">
+        <f>VLOOKUP(D266,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F266" t="s">
         <v>13</v>
       </c>
@@ -28071,6 +28353,10 @@
       <c r="D267" t="s">
         <v>70</v>
       </c>
+      <c r="E267" t="str">
+        <f>VLOOKUP(D267,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F267" t="s">
         <v>13</v>
       </c>
@@ -28173,6 +28459,10 @@
       <c r="D268" t="s">
         <v>70</v>
       </c>
+      <c r="E268" t="str">
+        <f>VLOOKUP(D268,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F268" t="s">
         <v>12</v>
       </c>
@@ -28275,6 +28565,10 @@
       <c r="D269" t="s">
         <v>70</v>
       </c>
+      <c r="E269" t="str">
+        <f>VLOOKUP(D269,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F269" t="s">
         <v>11</v>
       </c>
@@ -28377,6 +28671,10 @@
       <c r="D270" t="s">
         <v>70</v>
       </c>
+      <c r="E270" t="str">
+        <f>VLOOKUP(D270,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F270" t="s">
         <v>12</v>
       </c>
@@ -28479,6 +28777,10 @@
       <c r="D271" t="s">
         <v>70</v>
       </c>
+      <c r="E271" t="str">
+        <f>VLOOKUP(D271,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F271" t="s">
         <v>11</v>
       </c>
@@ -28581,6 +28883,10 @@
       <c r="D272" t="s">
         <v>70</v>
       </c>
+      <c r="E272" t="str">
+        <f>VLOOKUP(D272,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F272" t="s">
         <v>13</v>
       </c>
@@ -28683,6 +28989,10 @@
       <c r="D273" t="s">
         <v>70</v>
       </c>
+      <c r="E273" t="str">
+        <f>VLOOKUP(D273,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F273" t="s">
         <v>12</v>
       </c>
@@ -28785,6 +29095,10 @@
       <c r="D274" t="s">
         <v>70</v>
       </c>
+      <c r="E274" t="str">
+        <f>VLOOKUP(D274,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F274" t="s">
         <v>11</v>
       </c>
@@ -28887,6 +29201,10 @@
       <c r="D275" t="s">
         <v>70</v>
       </c>
+      <c r="E275" t="str">
+        <f>VLOOKUP(D275,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>50.941809648631626, 6.935413348566591</v>
+      </c>
       <c r="F275" t="s">
         <v>13</v>
       </c>
@@ -28989,6 +29307,10 @@
       <c r="D276" t="s">
         <v>46</v>
       </c>
+      <c r="E276" t="str">
+        <f>VLOOKUP(D276,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
       <c r="F276" t="s">
         <v>12</v>
       </c>
@@ -29091,6 +29413,10 @@
       <c r="D277" t="s">
         <v>46</v>
       </c>
+      <c r="E277" t="str">
+        <f>VLOOKUP(D277,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
       <c r="F277" t="s">
         <v>11</v>
       </c>
@@ -29193,6 +29519,10 @@
       <c r="D278" t="s">
         <v>46</v>
       </c>
+      <c r="E278" t="str">
+        <f>VLOOKUP(D278,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
       <c r="F278" t="s">
         <v>13</v>
       </c>
@@ -29295,6 +29625,10 @@
       <c r="D279" t="s">
         <v>46</v>
       </c>
+      <c r="E279" t="str">
+        <f>VLOOKUP(D279,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
       <c r="F279" t="s">
         <v>11</v>
       </c>
@@ -29397,6 +29731,10 @@
       <c r="D280" t="s">
         <v>46</v>
       </c>
+      <c r="E280" t="str">
+        <f>VLOOKUP(D280,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
       <c r="F280" t="s">
         <v>12</v>
       </c>
@@ -29499,6 +29837,10 @@
       <c r="D281" t="s">
         <v>46</v>
       </c>
+      <c r="E281" t="str">
+        <f>VLOOKUP(D281,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
       <c r="F281" t="s">
         <v>13</v>
       </c>
@@ -29601,6 +29943,10 @@
       <c r="D282" t="s">
         <v>46</v>
       </c>
+      <c r="E282" t="str">
+        <f>VLOOKUP(D282,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
       <c r="F282" t="s">
         <v>12</v>
       </c>
@@ -29703,6 +30049,10 @@
       <c r="D283" t="s">
         <v>46</v>
       </c>
+      <c r="E283" t="str">
+        <f>VLOOKUP(D283,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
       <c r="F283" t="s">
         <v>11</v>
       </c>
@@ -29805,6 +30155,10 @@
       <c r="D284" t="s">
         <v>46</v>
       </c>
+      <c r="E284" t="str">
+        <f>VLOOKUP(D284,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
       <c r="F284" t="s">
         <v>13</v>
       </c>
@@ -29907,6 +30261,10 @@
       <c r="D285" t="s">
         <v>46</v>
       </c>
+      <c r="E285" t="str">
+        <f>VLOOKUP(D285,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
       <c r="F285" t="s">
         <v>12</v>
       </c>
@@ -30009,6 +30367,10 @@
       <c r="D286" t="s">
         <v>46</v>
       </c>
+      <c r="E286" t="str">
+        <f>VLOOKUP(D286,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
       <c r="F286" t="s">
         <v>11</v>
       </c>
@@ -30111,6 +30473,10 @@
       <c r="D287" t="s">
         <v>46</v>
       </c>
+      <c r="E287" t="str">
+        <f>VLOOKUP(D287,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
       <c r="F287" t="s">
         <v>13</v>
       </c>
@@ -30213,6 +30579,10 @@
       <c r="D288" t="s">
         <v>46</v>
       </c>
+      <c r="E288" t="str">
+        <f>VLOOKUP(D288,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
       <c r="F288" t="s">
         <v>12</v>
       </c>
@@ -30315,6 +30685,10 @@
       <c r="D289" t="s">
         <v>46</v>
       </c>
+      <c r="E289" t="str">
+        <f>VLOOKUP(D289,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
       <c r="F289" t="s">
         <v>13</v>
       </c>
@@ -30417,6 +30791,10 @@
       <c r="D290" t="s">
         <v>46</v>
       </c>
+      <c r="E290" t="str">
+        <f>VLOOKUP(D290,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
       <c r="F290" t="s">
         <v>11</v>
       </c>
@@ -30519,6 +30897,10 @@
       <c r="D291" t="s">
         <v>46</v>
       </c>
+      <c r="E291" t="str">
+        <f>VLOOKUP(D291,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
       <c r="F291" t="s">
         <v>12</v>
       </c>
@@ -30621,6 +31003,10 @@
       <c r="D292" t="s">
         <v>46</v>
       </c>
+      <c r="E292" t="str">
+        <f>VLOOKUP(D292,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
       <c r="F292" t="s">
         <v>13</v>
       </c>
@@ -30723,6 +31109,10 @@
       <c r="D293" t="s">
         <v>46</v>
       </c>
+      <c r="E293" t="str">
+        <f>VLOOKUP(D293,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
       <c r="F293" t="s">
         <v>11</v>
       </c>
@@ -30814,7 +31204,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:AP290" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W177:Z223 W225:Z1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>
       <formula2>1</formula2>
@@ -30824,7 +31214,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{761EF6A8-1D47-4E5D-B2B8-225F6EE4B0A2}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$3</xm:f>
@@ -30851,10 +31241,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACE3C10-6B4E-488B-88C4-4EC3F7D4811B}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30923,6 +31313,54 @@
         <v>64</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C44773-8342-41D1-8B2F-4FC98CD42557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AAD27D-993D-4CEB-A2A8-9A90152C9159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$290</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$293</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -652,7 +652,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:E293"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9076,10 +9076,6 @@
       <c r="K81" t="s">
         <v>31</v>
       </c>
-      <c r="L81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82">
@@ -9116,10 +9112,6 @@
       <c r="K82" t="s">
         <v>31</v>
       </c>
-      <c r="L82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83">
@@ -9156,10 +9148,6 @@
       <c r="K83" t="s">
         <v>31</v>
       </c>
-      <c r="L83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84">
@@ -31203,8 +31191,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AP290" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
-  <dataValidations disablePrompts="1" count="1">
+  <autoFilter ref="A2:AP293" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
+  <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W177:Z223 W225:Z1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>
       <formula2>1</formula2>
@@ -31214,7 +31202,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{761EF6A8-1D47-4E5D-B2B8-225F6EE4B0A2}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$3</xm:f>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AAD27D-993D-4CEB-A2A8-9A90152C9159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267CEF8C-59A2-4610-BF61-D2D94E4B116E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="79">
   <si>
     <t>season</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>50.941809648631626, 6.935413348566591</t>
+  </si>
+  <si>
+    <t>Hamburg (Kegelhofstr. 12)</t>
+  </si>
+  <si>
+    <t>53.5953349871887, 9.982308366971944</t>
   </si>
 </sst>
 </file>
@@ -646,13 +652,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP293"/>
+  <dimension ref="A1:AP302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J280" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="E301" sqref="E301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26668,7 +26674,7 @@
         <v>31</v>
       </c>
       <c r="L251">
-        <f t="shared" ref="L251:L293" si="5">SUM(O251:V251)</f>
+        <f t="shared" ref="L251:L302" si="5">SUM(O251:V251)</f>
         <v>34</v>
       </c>
       <c r="M251">
@@ -31190,10 +31196,928 @@
         <v>0</v>
       </c>
     </row>
+    <row r="294" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>2025</v>
+      </c>
+      <c r="B294" s="5">
+        <v>45737</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294" t="s">
+        <v>77</v>
+      </c>
+      <c r="F294" t="s">
+        <v>12</v>
+      </c>
+      <c r="G294">
+        <v>13</v>
+      </c>
+      <c r="H294">
+        <v>6</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294" t="s">
+        <v>36</v>
+      </c>
+      <c r="K294" t="s">
+        <v>32</v>
+      </c>
+      <c r="L294">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="M294">
+        <v>6</v>
+      </c>
+      <c r="N294">
+        <v>3</v>
+      </c>
+      <c r="O294">
+        <v>0</v>
+      </c>
+      <c r="P294">
+        <v>5</v>
+      </c>
+      <c r="Q294">
+        <v>0</v>
+      </c>
+      <c r="R294">
+        <v>22</v>
+      </c>
+      <c r="S294">
+        <v>3</v>
+      </c>
+      <c r="T294">
+        <v>0</v>
+      </c>
+      <c r="U294">
+        <v>3</v>
+      </c>
+      <c r="V294">
+        <v>0</v>
+      </c>
+      <c r="W294">
+        <v>0</v>
+      </c>
+      <c r="X294">
+        <v>0</v>
+      </c>
+      <c r="Y294">
+        <v>0</v>
+      </c>
+      <c r="Z294">
+        <v>0</v>
+      </c>
+      <c r="AA294">
+        <v>0</v>
+      </c>
+      <c r="AB294">
+        <v>0</v>
+      </c>
+      <c r="AC294">
+        <v>0</v>
+      </c>
+      <c r="AD294">
+        <v>0</v>
+      </c>
+      <c r="AE294">
+        <v>0</v>
+      </c>
+      <c r="AF294">
+        <v>1</v>
+      </c>
+      <c r="AG294">
+        <v>0</v>
+      </c>
+      <c r="AH294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>2025</v>
+      </c>
+      <c r="B295" s="5">
+        <v>45737</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295" t="s">
+        <v>77</v>
+      </c>
+      <c r="F295" t="s">
+        <v>11</v>
+      </c>
+      <c r="G295">
+        <v>9</v>
+      </c>
+      <c r="H295">
+        <v>2</v>
+      </c>
+      <c r="I295">
+        <v>3</v>
+      </c>
+      <c r="J295" t="s">
+        <v>32</v>
+      </c>
+      <c r="K295" t="s">
+        <v>32</v>
+      </c>
+      <c r="L295">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="M295">
+        <v>5</v>
+      </c>
+      <c r="N295">
+        <v>4</v>
+      </c>
+      <c r="O295">
+        <v>8</v>
+      </c>
+      <c r="P295">
+        <v>5</v>
+      </c>
+      <c r="Q295">
+        <v>6</v>
+      </c>
+      <c r="R295">
+        <v>4</v>
+      </c>
+      <c r="S295">
+        <v>0</v>
+      </c>
+      <c r="T295">
+        <v>8</v>
+      </c>
+      <c r="U295">
+        <v>0</v>
+      </c>
+      <c r="V295">
+        <v>3</v>
+      </c>
+      <c r="W295">
+        <v>0</v>
+      </c>
+      <c r="X295">
+        <v>0</v>
+      </c>
+      <c r="Y295">
+        <v>0</v>
+      </c>
+      <c r="Z295">
+        <v>0</v>
+      </c>
+      <c r="AA295">
+        <v>0</v>
+      </c>
+      <c r="AB295">
+        <v>0</v>
+      </c>
+      <c r="AC295">
+        <v>0</v>
+      </c>
+      <c r="AD295">
+        <v>0</v>
+      </c>
+      <c r="AE295">
+        <v>0</v>
+      </c>
+      <c r="AF295">
+        <v>0</v>
+      </c>
+      <c r="AG295">
+        <v>0</v>
+      </c>
+      <c r="AH295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>2025</v>
+      </c>
+      <c r="B296" s="5">
+        <v>45737</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296" t="s">
+        <v>77</v>
+      </c>
+      <c r="F296" t="s">
+        <v>13</v>
+      </c>
+      <c r="G296">
+        <v>12</v>
+      </c>
+      <c r="H296">
+        <v>5</v>
+      </c>
+      <c r="I296">
+        <v>2</v>
+      </c>
+      <c r="J296" t="s">
+        <v>37</v>
+      </c>
+      <c r="K296" t="s">
+        <v>32</v>
+      </c>
+      <c r="L296">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="M296">
+        <v>6</v>
+      </c>
+      <c r="N296">
+        <v>4</v>
+      </c>
+      <c r="O296">
+        <v>5</v>
+      </c>
+      <c r="P296">
+        <v>0</v>
+      </c>
+      <c r="Q296">
+        <v>6</v>
+      </c>
+      <c r="R296">
+        <v>10</v>
+      </c>
+      <c r="S296">
+        <v>5</v>
+      </c>
+      <c r="T296">
+        <v>4</v>
+      </c>
+      <c r="U296">
+        <v>0</v>
+      </c>
+      <c r="V296">
+        <v>3</v>
+      </c>
+      <c r="W296">
+        <v>0</v>
+      </c>
+      <c r="X296">
+        <v>0</v>
+      </c>
+      <c r="Y296">
+        <v>0</v>
+      </c>
+      <c r="Z296">
+        <v>0</v>
+      </c>
+      <c r="AA296">
+        <v>0</v>
+      </c>
+      <c r="AB296">
+        <v>0</v>
+      </c>
+      <c r="AC296">
+        <v>0</v>
+      </c>
+      <c r="AD296">
+        <v>0</v>
+      </c>
+      <c r="AE296">
+        <v>1</v>
+      </c>
+      <c r="AF296">
+        <v>0</v>
+      </c>
+      <c r="AG296">
+        <v>0</v>
+      </c>
+      <c r="AH296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>2025</v>
+      </c>
+      <c r="B297" s="5">
+        <v>45737</v>
+      </c>
+      <c r="C297">
+        <v>2</v>
+      </c>
+      <c r="D297" t="s">
+        <v>77</v>
+      </c>
+      <c r="F297" t="s">
+        <v>12</v>
+      </c>
+      <c r="G297">
+        <v>13</v>
+      </c>
+      <c r="H297">
+        <v>7</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297" t="s">
+        <v>36</v>
+      </c>
+      <c r="K297" t="s">
+        <v>31</v>
+      </c>
+      <c r="L297">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M297">
+        <v>3</v>
+      </c>
+      <c r="N297">
+        <v>4</v>
+      </c>
+      <c r="O297">
+        <v>5</v>
+      </c>
+      <c r="P297">
+        <v>3</v>
+      </c>
+      <c r="Q297">
+        <v>0</v>
+      </c>
+      <c r="R297">
+        <v>4</v>
+      </c>
+      <c r="S297">
+        <v>8</v>
+      </c>
+      <c r="T297">
+        <v>5</v>
+      </c>
+      <c r="U297">
+        <v>3</v>
+      </c>
+      <c r="V297">
+        <v>0</v>
+      </c>
+      <c r="W297">
+        <v>0</v>
+      </c>
+      <c r="X297">
+        <v>0</v>
+      </c>
+      <c r="Y297">
+        <v>0</v>
+      </c>
+      <c r="Z297">
+        <v>1</v>
+      </c>
+      <c r="AA297">
+        <v>0</v>
+      </c>
+      <c r="AB297">
+        <v>0</v>
+      </c>
+      <c r="AC297">
+        <v>0</v>
+      </c>
+      <c r="AD297">
+        <v>0</v>
+      </c>
+      <c r="AE297">
+        <v>0</v>
+      </c>
+      <c r="AF297">
+        <v>0</v>
+      </c>
+      <c r="AG297">
+        <v>0</v>
+      </c>
+      <c r="AH297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>2025</v>
+      </c>
+      <c r="B298" s="5">
+        <v>45737</v>
+      </c>
+      <c r="C298">
+        <v>2</v>
+      </c>
+      <c r="D298" t="s">
+        <v>77</v>
+      </c>
+      <c r="F298" t="s">
+        <v>13</v>
+      </c>
+      <c r="G298">
+        <v>8</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+      <c r="I298">
+        <v>2</v>
+      </c>
+      <c r="J298" t="s">
+        <v>32</v>
+      </c>
+      <c r="K298" t="s">
+        <v>31</v>
+      </c>
+      <c r="L298">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="M298">
+        <v>6</v>
+      </c>
+      <c r="N298">
+        <v>4</v>
+      </c>
+      <c r="O298">
+        <v>5</v>
+      </c>
+      <c r="P298">
+        <v>0</v>
+      </c>
+      <c r="Q298">
+        <v>4</v>
+      </c>
+      <c r="R298">
+        <v>10</v>
+      </c>
+      <c r="S298">
+        <v>5</v>
+      </c>
+      <c r="T298">
+        <v>5</v>
+      </c>
+      <c r="U298">
+        <v>2</v>
+      </c>
+      <c r="V298">
+        <v>0</v>
+      </c>
+      <c r="W298">
+        <v>0</v>
+      </c>
+      <c r="X298">
+        <v>0</v>
+      </c>
+      <c r="Y298">
+        <v>0</v>
+      </c>
+      <c r="Z298">
+        <v>0</v>
+      </c>
+      <c r="AA298">
+        <v>0</v>
+      </c>
+      <c r="AB298">
+        <v>0</v>
+      </c>
+      <c r="AC298">
+        <v>0</v>
+      </c>
+      <c r="AD298">
+        <v>0</v>
+      </c>
+      <c r="AE298">
+        <v>0</v>
+      </c>
+      <c r="AF298">
+        <v>0</v>
+      </c>
+      <c r="AG298">
+        <v>0</v>
+      </c>
+      <c r="AH298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>2025</v>
+      </c>
+      <c r="B299" s="5">
+        <v>45737</v>
+      </c>
+      <c r="C299">
+        <v>2</v>
+      </c>
+      <c r="D299" t="s">
+        <v>77</v>
+      </c>
+      <c r="F299" t="s">
+        <v>11</v>
+      </c>
+      <c r="G299">
+        <v>6</v>
+      </c>
+      <c r="H299">
+        <v>1</v>
+      </c>
+      <c r="I299">
+        <v>3</v>
+      </c>
+      <c r="J299" t="s">
+        <v>37</v>
+      </c>
+      <c r="K299" t="s">
+        <v>31</v>
+      </c>
+      <c r="L299">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="M299">
+        <v>5</v>
+      </c>
+      <c r="N299">
+        <v>4</v>
+      </c>
+      <c r="O299">
+        <v>6</v>
+      </c>
+      <c r="P299">
+        <v>5</v>
+      </c>
+      <c r="Q299">
+        <v>5</v>
+      </c>
+      <c r="R299">
+        <v>10</v>
+      </c>
+      <c r="S299">
+        <v>0</v>
+      </c>
+      <c r="T299">
+        <v>4</v>
+      </c>
+      <c r="U299">
+        <v>0</v>
+      </c>
+      <c r="V299">
+        <v>5</v>
+      </c>
+      <c r="W299">
+        <v>0</v>
+      </c>
+      <c r="X299">
+        <v>0</v>
+      </c>
+      <c r="Y299">
+        <v>0</v>
+      </c>
+      <c r="Z299">
+        <v>0</v>
+      </c>
+      <c r="AA299">
+        <v>0</v>
+      </c>
+      <c r="AB299">
+        <v>0</v>
+      </c>
+      <c r="AC299">
+        <v>1</v>
+      </c>
+      <c r="AD299">
+        <v>0</v>
+      </c>
+      <c r="AE299">
+        <v>0</v>
+      </c>
+      <c r="AF299">
+        <v>0</v>
+      </c>
+      <c r="AG299">
+        <v>0</v>
+      </c>
+      <c r="AH299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>2025</v>
+      </c>
+      <c r="B300" s="5">
+        <v>45737</v>
+      </c>
+      <c r="C300">
+        <v>3</v>
+      </c>
+      <c r="D300" t="s">
+        <v>77</v>
+      </c>
+      <c r="F300" t="s">
+        <v>13</v>
+      </c>
+      <c r="G300">
+        <v>8</v>
+      </c>
+      <c r="H300">
+        <v>3</v>
+      </c>
+      <c r="I300">
+        <v>2</v>
+      </c>
+      <c r="J300" t="s">
+        <v>36</v>
+      </c>
+      <c r="K300" t="s">
+        <v>31</v>
+      </c>
+      <c r="L300">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="M300">
+        <v>5</v>
+      </c>
+      <c r="N300">
+        <v>5</v>
+      </c>
+      <c r="O300">
+        <v>8</v>
+      </c>
+      <c r="P300">
+        <v>3</v>
+      </c>
+      <c r="Q300">
+        <v>2</v>
+      </c>
+      <c r="R300">
+        <v>4</v>
+      </c>
+      <c r="S300">
+        <v>4</v>
+      </c>
+      <c r="T300">
+        <v>3</v>
+      </c>
+      <c r="U300">
+        <v>4</v>
+      </c>
+      <c r="V300">
+        <v>2</v>
+      </c>
+      <c r="W300">
+        <v>0</v>
+      </c>
+      <c r="X300">
+        <v>0</v>
+      </c>
+      <c r="Y300">
+        <v>0</v>
+      </c>
+      <c r="Z300">
+        <v>0</v>
+      </c>
+      <c r="AA300">
+        <v>0</v>
+      </c>
+      <c r="AB300">
+        <v>0</v>
+      </c>
+      <c r="AC300">
+        <v>0</v>
+      </c>
+      <c r="AD300">
+        <v>0</v>
+      </c>
+      <c r="AE300">
+        <v>0</v>
+      </c>
+      <c r="AF300">
+        <v>0</v>
+      </c>
+      <c r="AG300">
+        <v>0</v>
+      </c>
+      <c r="AH300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>2025</v>
+      </c>
+      <c r="B301" s="5">
+        <v>45737</v>
+      </c>
+      <c r="C301">
+        <v>3</v>
+      </c>
+      <c r="D301" t="s">
+        <v>77</v>
+      </c>
+      <c r="F301" t="s">
+        <v>11</v>
+      </c>
+      <c r="G301">
+        <v>13</v>
+      </c>
+      <c r="H301">
+        <v>6</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+      <c r="J301" t="s">
+        <v>32</v>
+      </c>
+      <c r="K301" t="s">
+        <v>31</v>
+      </c>
+      <c r="L301">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="M301">
+        <v>6</v>
+      </c>
+      <c r="N301">
+        <v>4</v>
+      </c>
+      <c r="O301">
+        <v>8</v>
+      </c>
+      <c r="P301">
+        <v>0</v>
+      </c>
+      <c r="Q301">
+        <v>5</v>
+      </c>
+      <c r="R301">
+        <v>4</v>
+      </c>
+      <c r="S301">
+        <v>8</v>
+      </c>
+      <c r="T301">
+        <v>8</v>
+      </c>
+      <c r="U301">
+        <v>0</v>
+      </c>
+      <c r="V301">
+        <v>0</v>
+      </c>
+      <c r="W301">
+        <v>0</v>
+      </c>
+      <c r="X301">
+        <v>0</v>
+      </c>
+      <c r="Y301">
+        <v>0</v>
+      </c>
+      <c r="Z301">
+        <v>0</v>
+      </c>
+      <c r="AA301">
+        <v>0</v>
+      </c>
+      <c r="AB301">
+        <v>0</v>
+      </c>
+      <c r="AC301">
+        <v>1</v>
+      </c>
+      <c r="AD301">
+        <v>0</v>
+      </c>
+      <c r="AE301">
+        <v>0</v>
+      </c>
+      <c r="AF301">
+        <v>0</v>
+      </c>
+      <c r="AG301">
+        <v>0</v>
+      </c>
+      <c r="AH301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>2025</v>
+      </c>
+      <c r="B302" s="5">
+        <v>45737</v>
+      </c>
+      <c r="C302">
+        <v>3</v>
+      </c>
+      <c r="D302" t="s">
+        <v>77</v>
+      </c>
+      <c r="F302" t="s">
+        <v>12</v>
+      </c>
+      <c r="G302">
+        <v>7</v>
+      </c>
+      <c r="H302">
+        <v>1</v>
+      </c>
+      <c r="I302">
+        <v>3</v>
+      </c>
+      <c r="J302" t="s">
+        <v>37</v>
+      </c>
+      <c r="K302" t="s">
+        <v>31</v>
+      </c>
+      <c r="L302">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="M302">
+        <v>6</v>
+      </c>
+      <c r="N302">
+        <v>3</v>
+      </c>
+      <c r="O302">
+        <v>11</v>
+      </c>
+      <c r="P302">
+        <v>4</v>
+      </c>
+      <c r="Q302">
+        <v>0</v>
+      </c>
+      <c r="R302">
+        <v>0</v>
+      </c>
+      <c r="S302">
+        <v>9</v>
+      </c>
+      <c r="T302">
+        <v>8</v>
+      </c>
+      <c r="U302">
+        <v>4</v>
+      </c>
+      <c r="V302">
+        <v>0</v>
+      </c>
+      <c r="W302">
+        <v>0</v>
+      </c>
+      <c r="X302">
+        <v>0</v>
+      </c>
+      <c r="Y302">
+        <v>0</v>
+      </c>
+      <c r="Z302">
+        <v>0</v>
+      </c>
+      <c r="AA302">
+        <v>0</v>
+      </c>
+      <c r="AB302">
+        <v>0</v>
+      </c>
+      <c r="AC302">
+        <v>1</v>
+      </c>
+      <c r="AD302">
+        <v>0</v>
+      </c>
+      <c r="AE302">
+        <v>0</v>
+      </c>
+      <c r="AF302">
+        <v>0</v>
+      </c>
+      <c r="AG302">
+        <v>0</v>
+      </c>
+      <c r="AH302">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:AP293" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W177:Z223 W225:Z1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W177:Z223 W225:Z299 W301:Z1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -31229,10 +32153,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACE3C10-6B4E-488B-88C4-4EC3F7D4811B}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31349,6 +32273,14 @@
         <v>76</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267CEF8C-59A2-4610-BF61-D2D94E4B116E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDE61D5-B244-41F2-A30C-F55B5D6A0578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$293</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$302</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -206,9 +206,6 @@
     <t>special</t>
   </si>
   <si>
-    <t>Hamburg (Kegelhofstr.)</t>
-  </si>
-  <si>
     <t>Session</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>Hamburg (Kegelhofstr. 12)</t>
+  </si>
+  <si>
+    <t>Hamburg (Kegelhofstr. 29)</t>
   </si>
   <si>
     <t>53.5953349871887, 9.982308366971944</t>
@@ -655,10 +655,10 @@
   <dimension ref="A1:AP302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J280" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E301" sqref="E301"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30:D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -697,7 +697,7 @@
   <sheetData>
     <row r="1" spans="1:42" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>34</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>2</v>
@@ -3652,7 +3652,7 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E30" t="str">
         <f>VLOOKUP(D30,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -3758,7 +3758,7 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E31" t="str">
         <f>VLOOKUP(D31,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -3864,7 +3864,7 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E32" t="str">
         <f>VLOOKUP(D32,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -3970,7 +3970,7 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E33" t="str">
         <f>VLOOKUP(D33,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -4076,7 +4076,7 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E34" t="str">
         <f>VLOOKUP(D34,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -4182,7 +4182,7 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E35" t="str">
         <f>VLOOKUP(D35,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -4288,7 +4288,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E36" t="str">
         <f>VLOOKUP(D36,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -4394,7 +4394,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E37" t="str">
         <f>VLOOKUP(D37,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -4500,7 +4500,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E38" t="str">
         <f>VLOOKUP(D38,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -4606,7 +4606,7 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E39" t="str">
         <f>VLOOKUP(D39,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -4712,7 +4712,7 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E40" t="str">
         <f>VLOOKUP(D40,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -4818,7 +4818,7 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E41" t="str">
         <f>VLOOKUP(D41,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -4924,7 +4924,7 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E42" t="str">
         <f>VLOOKUP(D42,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -5030,7 +5030,7 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E43" t="str">
         <f>VLOOKUP(D43,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -5136,7 +5136,7 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E44" t="str">
         <f>VLOOKUP(D44,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -5242,7 +5242,7 @@
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E45" t="str">
         <f>VLOOKUP(D45,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -5348,7 +5348,7 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E46" t="str">
         <f>VLOOKUP(D46,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -5454,7 +5454,7 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E47" t="str">
         <f>VLOOKUP(D47,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -5560,7 +5560,7 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E48" t="str">
         <f>VLOOKUP(D48,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -5666,7 +5666,7 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E49" t="str">
         <f>VLOOKUP(D49,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -5772,7 +5772,7 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E50" t="str">
         <f>VLOOKUP(D50,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -5878,7 +5878,7 @@
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E51" t="str">
         <f>VLOOKUP(D51,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -5984,7 +5984,7 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E52" t="str">
         <f>VLOOKUP(D52,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -6090,7 +6090,7 @@
         <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E53" t="str">
         <f>VLOOKUP(D53,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -6196,7 +6196,7 @@
         <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E54" t="str">
         <f>VLOOKUP(D54,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -6302,7 +6302,7 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E55" t="str">
         <f>VLOOKUP(D55,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -6408,7 +6408,7 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E56" t="str">
         <f>VLOOKUP(D56,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -6514,7 +6514,7 @@
         <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E57" t="str">
         <f>VLOOKUP(D57,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -6620,7 +6620,7 @@
         <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E58" t="str">
         <f>VLOOKUP(D58,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -6726,7 +6726,7 @@
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E59" t="str">
         <f>VLOOKUP(D59,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -6832,7 +6832,7 @@
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E60" t="str">
         <f>VLOOKUP(D60,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -6938,7 +6938,7 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E61" t="str">
         <f>VLOOKUP(D61,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -7044,7 +7044,7 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E62" t="str">
         <f>VLOOKUP(D62,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -7150,7 +7150,7 @@
         <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E63" t="str">
         <f>VLOOKUP(D63,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -7256,7 +7256,7 @@
         <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E64" t="str">
         <f>VLOOKUP(D64,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -7362,7 +7362,7 @@
         <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E65" t="str">
         <f>VLOOKUP(D65,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -7468,7 +7468,7 @@
         <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E66" t="str">
         <f>VLOOKUP(D66,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -7574,7 +7574,7 @@
         <v>22</v>
       </c>
       <c r="D67" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E67" t="str">
         <f>VLOOKUP(D67,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -7680,7 +7680,7 @@
         <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E68" t="str">
         <f>VLOOKUP(D68,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -7786,7 +7786,7 @@
         <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E69" t="str">
         <f>VLOOKUP(D69,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -7892,7 +7892,7 @@
         <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E70" t="str">
         <f>VLOOKUP(D70,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -7998,7 +7998,7 @@
         <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E71" t="str">
         <f>VLOOKUP(D71,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -8104,7 +8104,7 @@
         <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E72" t="str">
         <f>VLOOKUP(D72,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -8210,7 +8210,7 @@
         <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E73" t="str">
         <f>VLOOKUP(D73,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -8316,7 +8316,7 @@
         <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E74" t="str">
         <f>VLOOKUP(D74,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -8422,7 +8422,7 @@
         <v>25</v>
       </c>
       <c r="D75" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E75" t="str">
         <f>VLOOKUP(D75,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -8528,7 +8528,7 @@
         <v>25</v>
       </c>
       <c r="D76" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E76" t="str">
         <f>VLOOKUP(D76,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -8634,7 +8634,7 @@
         <v>25</v>
       </c>
       <c r="D77" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E77" t="str">
         <f>VLOOKUP(D77,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -10120,7 +10120,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E93" t="str">
         <f>VLOOKUP(D93,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -10226,7 +10226,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E94" t="str">
         <f>VLOOKUP(D94,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -10332,7 +10332,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E95" t="str">
         <f>VLOOKUP(D95,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -10438,7 +10438,7 @@
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E96" t="str">
         <f>VLOOKUP(D96,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -10544,7 +10544,7 @@
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E97" t="str">
         <f>VLOOKUP(D97,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -10650,7 +10650,7 @@
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E98" t="str">
         <f>VLOOKUP(D98,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -10756,7 +10756,7 @@
         <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E99" t="str">
         <f>VLOOKUP(D99,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -10862,7 +10862,7 @@
         <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E100" t="str">
         <f>VLOOKUP(D100,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -10968,7 +10968,7 @@
         <v>3</v>
       </c>
       <c r="D101" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E101" t="str">
         <f>VLOOKUP(D101,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -11074,7 +11074,7 @@
         <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E102" t="str">
         <f>VLOOKUP(D102,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -11180,7 +11180,7 @@
         <v>4</v>
       </c>
       <c r="D103" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E103" t="str">
         <f>VLOOKUP(D103,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -11286,7 +11286,7 @@
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E104" t="str">
         <f>VLOOKUP(D104,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -11392,7 +11392,7 @@
         <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E105" t="str">
         <f>VLOOKUP(D105,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -11498,7 +11498,7 @@
         <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E106" t="str">
         <f>VLOOKUP(D106,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -11604,7 +11604,7 @@
         <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E107" t="str">
         <f>VLOOKUP(D107,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -11710,7 +11710,7 @@
         <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E108" t="str">
         <f>VLOOKUP(D108,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -11816,7 +11816,7 @@
         <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E109" t="str">
         <f>VLOOKUP(D109,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -11922,7 +11922,7 @@
         <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E110" t="str">
         <f>VLOOKUP(D110,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -12028,7 +12028,7 @@
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E111" t="str">
         <f>VLOOKUP(D111,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -12134,7 +12134,7 @@
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E112" t="str">
         <f>VLOOKUP(D112,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -12240,7 +12240,7 @@
         <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E113" t="str">
         <f>VLOOKUP(D113,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -12346,7 +12346,7 @@
         <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E114" t="str">
         <f>VLOOKUP(D114,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -12452,7 +12452,7 @@
         <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E115" t="str">
         <f>VLOOKUP(D115,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -12558,7 +12558,7 @@
         <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E116" t="str">
         <f>VLOOKUP(D116,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -13399,7 +13399,7 @@
         <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E126" t="str">
         <f>VLOOKUP(D126,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -13505,7 +13505,7 @@
         <v>12</v>
       </c>
       <c r="D127" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E127" t="str">
         <f>VLOOKUP(D127,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -13611,7 +13611,7 @@
         <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E128" t="str">
         <f>VLOOKUP(D128,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -13717,7 +13717,7 @@
         <v>13</v>
       </c>
       <c r="D129" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E129" t="str">
         <f>VLOOKUP(D129,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -13823,7 +13823,7 @@
         <v>13</v>
       </c>
       <c r="D130" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E130" t="str">
         <f>VLOOKUP(D130,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -13929,7 +13929,7 @@
         <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E131" t="str">
         <f>VLOOKUP(D131,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -14035,7 +14035,7 @@
         <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E132" t="str">
         <f>VLOOKUP(D132,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -14141,7 +14141,7 @@
         <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E133" t="str">
         <f>VLOOKUP(D133,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -14247,7 +14247,7 @@
         <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E134" t="str">
         <f>VLOOKUP(D134,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -14353,7 +14353,7 @@
         <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E135" t="str">
         <f>VLOOKUP(D135,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -14459,7 +14459,7 @@
         <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E136" t="str">
         <f>VLOOKUP(D136,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -14565,7 +14565,7 @@
         <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E137" t="str">
         <f>VLOOKUP(D137,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -14671,7 +14671,7 @@
         <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E138" t="str">
         <f>VLOOKUP(D138,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -14777,7 +14777,7 @@
         <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E139" t="str">
         <f>VLOOKUP(D139,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -14883,7 +14883,7 @@
         <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E140" t="str">
         <f>VLOOKUP(D140,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -14989,7 +14989,7 @@
         <v>17</v>
       </c>
       <c r="D141" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E141" t="str">
         <f>VLOOKUP(D141,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -15095,7 +15095,7 @@
         <v>17</v>
       </c>
       <c r="D142" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E142" t="str">
         <f>VLOOKUP(D142,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -15201,7 +15201,7 @@
         <v>17</v>
       </c>
       <c r="D143" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E143" t="str">
         <f>VLOOKUP(D143,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -15307,7 +15307,7 @@
         <v>18</v>
       </c>
       <c r="D144" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E144" t="str">
         <f>VLOOKUP(D144,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -15413,7 +15413,7 @@
         <v>18</v>
       </c>
       <c r="D145" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E145" t="str">
         <f>VLOOKUP(D145,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -15519,7 +15519,7 @@
         <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E146" t="str">
         <f>VLOOKUP(D146,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -15625,7 +15625,7 @@
         <v>19</v>
       </c>
       <c r="D147" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E147" t="str">
         <f>VLOOKUP(D147,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -15731,7 +15731,7 @@
         <v>19</v>
       </c>
       <c r="D148" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E148" t="str">
         <f>VLOOKUP(D148,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -15837,7 +15837,7 @@
         <v>19</v>
       </c>
       <c r="D149" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E149" t="str">
         <f>VLOOKUP(D149,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -15943,7 +15943,7 @@
         <v>20</v>
       </c>
       <c r="D150" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E150" t="str">
         <f>VLOOKUP(D150,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -16049,7 +16049,7 @@
         <v>20</v>
       </c>
       <c r="D151" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E151" t="str">
         <f>VLOOKUP(D151,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -16155,7 +16155,7 @@
         <v>20</v>
       </c>
       <c r="D152" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E152" t="str">
         <f>VLOOKUP(D152,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -16261,7 +16261,7 @@
         <v>21</v>
       </c>
       <c r="D153" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E153" t="str">
         <f>VLOOKUP(D153,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -16367,7 +16367,7 @@
         <v>21</v>
       </c>
       <c r="D154" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E154" t="str">
         <f>VLOOKUP(D154,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -16473,7 +16473,7 @@
         <v>21</v>
       </c>
       <c r="D155" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E155" t="str">
         <f>VLOOKUP(D155,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -16579,7 +16579,7 @@
         <v>22</v>
       </c>
       <c r="D156" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E156" t="str">
         <f>VLOOKUP(D156,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -16685,7 +16685,7 @@
         <v>22</v>
       </c>
       <c r="D157" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E157" t="str">
         <f>VLOOKUP(D157,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -16791,7 +16791,7 @@
         <v>22</v>
       </c>
       <c r="D158" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E158" t="str">
         <f>VLOOKUP(D158,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -21349,7 +21349,7 @@
         <v>15</v>
       </c>
       <c r="D201" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E201" t="str">
         <f>VLOOKUP(D201,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -21455,7 +21455,7 @@
         <v>15</v>
       </c>
       <c r="D202" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E202" t="str">
         <f>VLOOKUP(D202,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -21561,7 +21561,7 @@
         <v>15</v>
       </c>
       <c r="D203" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E203" t="str">
         <f>VLOOKUP(D203,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -21667,7 +21667,7 @@
         <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E204" t="str">
         <f>VLOOKUP(D204,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -21773,7 +21773,7 @@
         <v>16</v>
       </c>
       <c r="D205" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E205" t="str">
         <f>VLOOKUP(D205,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -21879,7 +21879,7 @@
         <v>16</v>
       </c>
       <c r="D206" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E206" t="str">
         <f>VLOOKUP(D206,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -21985,7 +21985,7 @@
         <v>17</v>
       </c>
       <c r="D207" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E207" t="str">
         <f>VLOOKUP(D207,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -22091,7 +22091,7 @@
         <v>17</v>
       </c>
       <c r="D208" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E208" t="str">
         <f>VLOOKUP(D208,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -22197,7 +22197,7 @@
         <v>17</v>
       </c>
       <c r="D209" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E209" t="str">
         <f>VLOOKUP(D209,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -22303,7 +22303,7 @@
         <v>18</v>
       </c>
       <c r="D210" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E210" t="str">
         <f>VLOOKUP(D210,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -22409,7 +22409,7 @@
         <v>18</v>
       </c>
       <c r="D211" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E211" t="str">
         <f>VLOOKUP(D211,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -22515,7 +22515,7 @@
         <v>18</v>
       </c>
       <c r="D212" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E212" t="str">
         <f>VLOOKUP(D212,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -22621,7 +22621,7 @@
         <v>19</v>
       </c>
       <c r="D213" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E213" t="str">
         <f>VLOOKUP(D213,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -22727,7 +22727,7 @@
         <v>19</v>
       </c>
       <c r="D214" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E214" t="str">
         <f>VLOOKUP(D214,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -22833,7 +22833,7 @@
         <v>19</v>
       </c>
       <c r="D215" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E215" t="str">
         <f>VLOOKUP(D215,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -22939,7 +22939,7 @@
         <v>20</v>
       </c>
       <c r="D216" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E216" t="str">
         <f>VLOOKUP(D216,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -23045,7 +23045,7 @@
         <v>20</v>
       </c>
       <c r="D217" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E217" t="str">
         <f>VLOOKUP(D217,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -23151,7 +23151,7 @@
         <v>20</v>
       </c>
       <c r="D218" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E218" t="str">
         <f>VLOOKUP(D218,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -23257,7 +23257,7 @@
         <v>21</v>
       </c>
       <c r="D219" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E219" t="str">
         <f>VLOOKUP(D219,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -23363,7 +23363,7 @@
         <v>21</v>
       </c>
       <c r="D220" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E220" t="str">
         <f>VLOOKUP(D220,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -23469,7 +23469,7 @@
         <v>21</v>
       </c>
       <c r="D221" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E221" t="str">
         <f>VLOOKUP(D221,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -23575,7 +23575,7 @@
         <v>22</v>
       </c>
       <c r="D222" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E222" t="str">
         <f>VLOOKUP(D222,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -23681,7 +23681,7 @@
         <v>22</v>
       </c>
       <c r="D223" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E223" t="str">
         <f>VLOOKUP(D223,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -23787,7 +23787,7 @@
         <v>22</v>
       </c>
       <c r="D224" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E224" t="str">
         <f>VLOOKUP(D224,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -23893,7 +23893,7 @@
         <v>23</v>
       </c>
       <c r="D225" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E225" t="str">
         <f>VLOOKUP(D225,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -23999,7 +23999,7 @@
         <v>23</v>
       </c>
       <c r="D226" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E226" t="str">
         <f>VLOOKUP(D226,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -24105,7 +24105,7 @@
         <v>23</v>
       </c>
       <c r="D227" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E227" t="str">
         <f>VLOOKUP(D227,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -24211,7 +24211,7 @@
         <v>24</v>
       </c>
       <c r="D228" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E228" t="str">
         <f>VLOOKUP(D228,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -24317,7 +24317,7 @@
         <v>24</v>
       </c>
       <c r="D229" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E229" t="str">
         <f>VLOOKUP(D229,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -24423,7 +24423,7 @@
         <v>24</v>
       </c>
       <c r="D230" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E230" t="str">
         <f>VLOOKUP(D230,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -24529,7 +24529,7 @@
         <v>25</v>
       </c>
       <c r="D231" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E231" t="str">
         <f>VLOOKUP(D231,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -24635,7 +24635,7 @@
         <v>25</v>
       </c>
       <c r="D232" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E232" t="str">
         <f>VLOOKUP(D232,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -24741,7 +24741,7 @@
         <v>25</v>
       </c>
       <c r="D233" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E233" t="str">
         <f>VLOOKUP(D233,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -24847,7 +24847,7 @@
         <v>26</v>
       </c>
       <c r="D234" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E234" t="str">
         <f>VLOOKUP(D234,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -24953,7 +24953,7 @@
         <v>26</v>
       </c>
       <c r="D235" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E235" t="str">
         <f>VLOOKUP(D235,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -25059,7 +25059,7 @@
         <v>26</v>
       </c>
       <c r="D236" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E236" t="str">
         <f>VLOOKUP(D236,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -25165,7 +25165,7 @@
         <v>27</v>
       </c>
       <c r="D237" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E237" t="str">
         <f>VLOOKUP(D237,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -25271,7 +25271,7 @@
         <v>27</v>
       </c>
       <c r="D238" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E238" t="str">
         <f>VLOOKUP(D238,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -25377,7 +25377,7 @@
         <v>27</v>
       </c>
       <c r="D239" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E239" t="str">
         <f>VLOOKUP(D239,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -25483,7 +25483,7 @@
         <v>28</v>
       </c>
       <c r="D240" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E240" t="str">
         <f>VLOOKUP(D240,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -25589,7 +25589,7 @@
         <v>28</v>
       </c>
       <c r="D241" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E241" t="str">
         <f>VLOOKUP(D241,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -25695,7 +25695,7 @@
         <v>28</v>
       </c>
       <c r="D242" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E242" t="str">
         <f>VLOOKUP(D242,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -25801,7 +25801,7 @@
         <v>29</v>
       </c>
       <c r="D243" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E243" t="str">
         <f>VLOOKUP(D243,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -25907,7 +25907,7 @@
         <v>29</v>
       </c>
       <c r="D244" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E244" t="str">
         <f>VLOOKUP(D244,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -26013,7 +26013,7 @@
         <v>29</v>
       </c>
       <c r="D245" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E245" t="str">
         <f>VLOOKUP(D245,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -26119,7 +26119,7 @@
         <v>30</v>
       </c>
       <c r="D246" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E246" t="str">
         <f>VLOOKUP(D246,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -26225,7 +26225,7 @@
         <v>30</v>
       </c>
       <c r="D247" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E247" t="str">
         <f>VLOOKUP(D247,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -26331,7 +26331,7 @@
         <v>30</v>
       </c>
       <c r="D248" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E248" t="str">
         <f>VLOOKUP(D248,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -26437,7 +26437,7 @@
         <v>31</v>
       </c>
       <c r="D249" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E249" t="str">
         <f>VLOOKUP(D249,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -26543,7 +26543,7 @@
         <v>31</v>
       </c>
       <c r="D250" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E250" t="str">
         <f>VLOOKUP(D250,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -26649,7 +26649,7 @@
         <v>31</v>
       </c>
       <c r="D251" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E251" t="str">
         <f>VLOOKUP(D251,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -26755,7 +26755,7 @@
         <v>32</v>
       </c>
       <c r="D252" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E252" t="str">
         <f>VLOOKUP(D252,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -26861,7 +26861,7 @@
         <v>32</v>
       </c>
       <c r="D253" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E253" t="str">
         <f>VLOOKUP(D253,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -26967,7 +26967,7 @@
         <v>32</v>
       </c>
       <c r="D254" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E254" t="str">
         <f>VLOOKUP(D254,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -27073,7 +27073,7 @@
         <v>33</v>
       </c>
       <c r="D255" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E255" t="str">
         <f>VLOOKUP(D255,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -27179,7 +27179,7 @@
         <v>33</v>
       </c>
       <c r="D256" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E256" t="str">
         <f>VLOOKUP(D256,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -27285,7 +27285,7 @@
         <v>33</v>
       </c>
       <c r="D257" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E257" t="str">
         <f>VLOOKUP(D257,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -27391,7 +27391,7 @@
         <v>34</v>
       </c>
       <c r="D258" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E258" t="str">
         <f>VLOOKUP(D258,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -27497,7 +27497,7 @@
         <v>34</v>
       </c>
       <c r="D259" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E259" t="str">
         <f>VLOOKUP(D259,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -27603,7 +27603,7 @@
         <v>34</v>
       </c>
       <c r="D260" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E260" t="str">
         <f>VLOOKUP(D260,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -27709,7 +27709,7 @@
         <v>35</v>
       </c>
       <c r="D261" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E261" t="str">
         <f>VLOOKUP(D261,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -27815,7 +27815,7 @@
         <v>35</v>
       </c>
       <c r="D262" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E262" t="str">
         <f>VLOOKUP(D262,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -27921,7 +27921,7 @@
         <v>35</v>
       </c>
       <c r="D263" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E263" t="str">
         <f>VLOOKUP(D263,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -28027,7 +28027,7 @@
         <v>36</v>
       </c>
       <c r="D264" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E264" t="str">
         <f>VLOOKUP(D264,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -28133,7 +28133,7 @@
         <v>36</v>
       </c>
       <c r="D265" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E265" t="str">
         <f>VLOOKUP(D265,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -28239,7 +28239,7 @@
         <v>36</v>
       </c>
       <c r="D266" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E266" t="str">
         <f>VLOOKUP(D266,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -28345,7 +28345,7 @@
         <v>37</v>
       </c>
       <c r="D267" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E267" t="str">
         <f>VLOOKUP(D267,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -28451,7 +28451,7 @@
         <v>37</v>
       </c>
       <c r="D268" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E268" t="str">
         <f>VLOOKUP(D268,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -28557,7 +28557,7 @@
         <v>37</v>
       </c>
       <c r="D269" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E269" t="str">
         <f>VLOOKUP(D269,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -28663,7 +28663,7 @@
         <v>38</v>
       </c>
       <c r="D270" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E270" t="str">
         <f>VLOOKUP(D270,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -28769,7 +28769,7 @@
         <v>38</v>
       </c>
       <c r="D271" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E271" t="str">
         <f>VLOOKUP(D271,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -28875,7 +28875,7 @@
         <v>38</v>
       </c>
       <c r="D272" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E272" t="str">
         <f>VLOOKUP(D272,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -28981,7 +28981,7 @@
         <v>39</v>
       </c>
       <c r="D273" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E273" t="str">
         <f>VLOOKUP(D273,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -29087,7 +29087,7 @@
         <v>39</v>
       </c>
       <c r="D274" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E274" t="str">
         <f>VLOOKUP(D274,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -29193,7 +29193,7 @@
         <v>39</v>
       </c>
       <c r="D275" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E275" t="str">
         <f>VLOOKUP(D275,Sheet2!$I$1:$J$12,2,FALSE)</f>
@@ -31207,7 +31207,11 @@
         <v>1</v>
       </c>
       <c r="D294" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E294" t="str">
+        <f>VLOOKUP(D294,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
       </c>
       <c r="F294" t="s">
         <v>12</v>
@@ -31309,7 +31313,11 @@
         <v>1</v>
       </c>
       <c r="D295" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E295" t="str">
+        <f>VLOOKUP(D295,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
       </c>
       <c r="F295" t="s">
         <v>11</v>
@@ -31411,7 +31419,11 @@
         <v>1</v>
       </c>
       <c r="D296" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E296" t="str">
+        <f>VLOOKUP(D296,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
       </c>
       <c r="F296" t="s">
         <v>13</v>
@@ -31513,7 +31525,11 @@
         <v>2</v>
       </c>
       <c r="D297" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E297" t="str">
+        <f>VLOOKUP(D297,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
       </c>
       <c r="F297" t="s">
         <v>12</v>
@@ -31615,7 +31631,11 @@
         <v>2</v>
       </c>
       <c r="D298" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E298" t="str">
+        <f>VLOOKUP(D298,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
       </c>
       <c r="F298" t="s">
         <v>13</v>
@@ -31717,7 +31737,11 @@
         <v>2</v>
       </c>
       <c r="D299" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E299" t="str">
+        <f>VLOOKUP(D299,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
       </c>
       <c r="F299" t="s">
         <v>11</v>
@@ -31819,7 +31843,11 @@
         <v>3</v>
       </c>
       <c r="D300" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E300" t="str">
+        <f>VLOOKUP(D300,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
       </c>
       <c r="F300" t="s">
         <v>13</v>
@@ -31921,7 +31949,11 @@
         <v>3</v>
       </c>
       <c r="D301" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E301" t="str">
+        <f>VLOOKUP(D301,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
       </c>
       <c r="F301" t="s">
         <v>11</v>
@@ -32023,7 +32055,11 @@
         <v>3</v>
       </c>
       <c r="D302" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E302" t="str">
+        <f>VLOOKUP(D302,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
       </c>
       <c r="F302" t="s">
         <v>12</v>
@@ -32115,7 +32151,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AP293" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
+  <autoFilter ref="A2:AP302" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W177:Z223 W225:Z299 W301:Z1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>
@@ -32156,7 +32192,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32180,7 +32216,7 @@
         <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -32194,10 +32230,10 @@
         <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -32211,71 +32247,71 @@
         <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDE61D5-B244-41F2-A30C-F55B5D6A0578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F873A1A-45FD-4084-84A1-D276CC10376C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="79">
   <si>
     <t>season</t>
   </si>
@@ -652,13 +652,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP302"/>
+  <dimension ref="A1:AP305"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30:D158"/>
+      <selection pane="bottomRight" activeCell="J305" sqref="J305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26674,7 +26674,7 @@
         <v>31</v>
       </c>
       <c r="L251">
-        <f t="shared" ref="L251:L302" si="5">SUM(O251:V251)</f>
+        <f t="shared" ref="L251:L305" si="5">SUM(O251:V251)</f>
         <v>34</v>
       </c>
       <c r="M251">
@@ -32150,10 +32150,328 @@
         <v>0</v>
       </c>
     </row>
+    <row r="303" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>2025</v>
+      </c>
+      <c r="B303" s="5">
+        <v>45737</v>
+      </c>
+      <c r="C303">
+        <v>4</v>
+      </c>
+      <c r="D303" t="s">
+        <v>76</v>
+      </c>
+      <c r="E303" t="str">
+        <f>VLOOKUP(D303,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F303" t="s">
+        <v>13</v>
+      </c>
+      <c r="G303">
+        <v>13</v>
+      </c>
+      <c r="H303">
+        <v>8</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303" t="s">
+        <v>36</v>
+      </c>
+      <c r="K303" t="s">
+        <v>31</v>
+      </c>
+      <c r="L303">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="M303">
+        <v>5</v>
+      </c>
+      <c r="N303">
+        <v>4</v>
+      </c>
+      <c r="O303">
+        <v>5</v>
+      </c>
+      <c r="P303">
+        <v>0</v>
+      </c>
+      <c r="Q303">
+        <v>8</v>
+      </c>
+      <c r="R303">
+        <v>3</v>
+      </c>
+      <c r="S303">
+        <v>6</v>
+      </c>
+      <c r="T303">
+        <v>0</v>
+      </c>
+      <c r="U303">
+        <v>3</v>
+      </c>
+      <c r="V303">
+        <v>8</v>
+      </c>
+      <c r="W303">
+        <v>0</v>
+      </c>
+      <c r="X303">
+        <v>0</v>
+      </c>
+      <c r="Y303">
+        <v>0</v>
+      </c>
+      <c r="Z303">
+        <v>0</v>
+      </c>
+      <c r="AA303">
+        <v>0</v>
+      </c>
+      <c r="AB303">
+        <v>0</v>
+      </c>
+      <c r="AC303">
+        <v>1</v>
+      </c>
+      <c r="AD303">
+        <v>0</v>
+      </c>
+      <c r="AE303">
+        <v>0</v>
+      </c>
+      <c r="AF303">
+        <v>0</v>
+      </c>
+      <c r="AG303">
+        <v>0</v>
+      </c>
+      <c r="AH303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>2025</v>
+      </c>
+      <c r="B304" s="5">
+        <v>45737</v>
+      </c>
+      <c r="C304">
+        <v>4</v>
+      </c>
+      <c r="D304" t="s">
+        <v>76</v>
+      </c>
+      <c r="E304" t="str">
+        <f>VLOOKUP(D304,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F304" t="s">
+        <v>12</v>
+      </c>
+      <c r="G304">
+        <v>4</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="I304">
+        <v>2</v>
+      </c>
+      <c r="J304" t="s">
+        <v>32</v>
+      </c>
+      <c r="K304" t="s">
+        <v>31</v>
+      </c>
+      <c r="L304">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="M304">
+        <v>6</v>
+      </c>
+      <c r="N304">
+        <v>4</v>
+      </c>
+      <c r="O304">
+        <v>5</v>
+      </c>
+      <c r="P304">
+        <v>18</v>
+      </c>
+      <c r="Q304">
+        <v>0</v>
+      </c>
+      <c r="R304">
+        <v>2</v>
+      </c>
+      <c r="S304">
+        <v>7</v>
+      </c>
+      <c r="T304">
+        <v>0</v>
+      </c>
+      <c r="U304">
+        <v>3</v>
+      </c>
+      <c r="V304">
+        <v>0</v>
+      </c>
+      <c r="W304">
+        <v>0</v>
+      </c>
+      <c r="X304">
+        <v>0</v>
+      </c>
+      <c r="Y304">
+        <v>0</v>
+      </c>
+      <c r="Z304">
+        <v>0</v>
+      </c>
+      <c r="AA304">
+        <v>0</v>
+      </c>
+      <c r="AB304">
+        <v>0</v>
+      </c>
+      <c r="AC304">
+        <v>0</v>
+      </c>
+      <c r="AD304">
+        <v>0</v>
+      </c>
+      <c r="AE304">
+        <v>0</v>
+      </c>
+      <c r="AF304">
+        <v>0</v>
+      </c>
+      <c r="AG304">
+        <v>0</v>
+      </c>
+      <c r="AH304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>2025</v>
+      </c>
+      <c r="B305" s="5">
+        <v>45737</v>
+      </c>
+      <c r="C305">
+        <v>4</v>
+      </c>
+      <c r="D305" t="s">
+        <v>76</v>
+      </c>
+      <c r="E305" t="str">
+        <f>VLOOKUP(D305,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F305" t="s">
+        <v>11</v>
+      </c>
+      <c r="G305">
+        <v>6</v>
+      </c>
+      <c r="H305">
+        <v>2</v>
+      </c>
+      <c r="I305">
+        <v>3</v>
+      </c>
+      <c r="J305" t="s">
+        <v>37</v>
+      </c>
+      <c r="K305" t="s">
+        <v>31</v>
+      </c>
+      <c r="L305">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="M305">
+        <v>6</v>
+      </c>
+      <c r="N305">
+        <v>4</v>
+      </c>
+      <c r="O305">
+        <v>5</v>
+      </c>
+      <c r="P305">
+        <v>9</v>
+      </c>
+      <c r="Q305">
+        <v>6</v>
+      </c>
+      <c r="R305">
+        <v>3</v>
+      </c>
+      <c r="S305">
+        <v>0</v>
+      </c>
+      <c r="T305">
+        <v>5</v>
+      </c>
+      <c r="U305">
+        <v>0</v>
+      </c>
+      <c r="V305">
+        <v>4</v>
+      </c>
+      <c r="W305">
+        <v>0</v>
+      </c>
+      <c r="X305">
+        <v>0</v>
+      </c>
+      <c r="Y305">
+        <v>0</v>
+      </c>
+      <c r="Z305">
+        <v>0</v>
+      </c>
+      <c r="AA305">
+        <v>0</v>
+      </c>
+      <c r="AB305">
+        <v>0</v>
+      </c>
+      <c r="AC305">
+        <v>0</v>
+      </c>
+      <c r="AD305">
+        <v>0</v>
+      </c>
+      <c r="AE305">
+        <v>1</v>
+      </c>
+      <c r="AF305">
+        <v>0</v>
+      </c>
+      <c r="AG305">
+        <v>0</v>
+      </c>
+      <c r="AH305">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:AP302" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W177:Z223 W225:Z299 W301:Z1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W177:Z223 W225:Z299 W301:Z302 W304:Z1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F873A1A-45FD-4084-84A1-D276CC10376C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5362A00-D465-4535-8702-73DC740FFE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -658,7 +658,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J305" sqref="J305"/>
+      <selection pane="bottomRight" activeCell="I306" sqref="I306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32283,7 +32283,7 @@
         <v>0</v>
       </c>
       <c r="I304">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J304" t="s">
         <v>32</v>
@@ -32389,7 +32389,7 @@
         <v>2</v>
       </c>
       <c r="I305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J305" t="s">
         <v>37</v>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5362A00-D465-4535-8702-73DC740FFE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A0F014-36B3-43F5-9C1D-292FCE3C7E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="79">
   <si>
     <t>season</t>
   </si>
@@ -652,13 +652,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP305"/>
+  <dimension ref="A1:AP311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="K294" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I306" sqref="I306"/>
+      <selection pane="bottomRight" activeCell="I309" sqref="I309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26674,7 +26674,7 @@
         <v>31</v>
       </c>
       <c r="L251">
-        <f t="shared" ref="L251:L305" si="5">SUM(O251:V251)</f>
+        <f t="shared" ref="L251:L311" si="5">SUM(O251:V251)</f>
         <v>34</v>
       </c>
       <c r="M251">
@@ -32466,6 +32466,642 @@
       </c>
       <c r="AH305">
         <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>2025</v>
+      </c>
+      <c r="B306" s="5">
+        <v>45764</v>
+      </c>
+      <c r="C306">
+        <v>5</v>
+      </c>
+      <c r="D306" t="s">
+        <v>76</v>
+      </c>
+      <c r="E306" t="str">
+        <f>VLOOKUP(D306,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F306" t="s">
+        <v>11</v>
+      </c>
+      <c r="G306">
+        <v>7</v>
+      </c>
+      <c r="H306">
+        <v>1</v>
+      </c>
+      <c r="I306">
+        <v>3</v>
+      </c>
+      <c r="J306" t="s">
+        <v>36</v>
+      </c>
+      <c r="K306" t="s">
+        <v>31</v>
+      </c>
+      <c r="L306">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="M306">
+        <v>6</v>
+      </c>
+      <c r="N306">
+        <v>5</v>
+      </c>
+      <c r="O306">
+        <v>8</v>
+      </c>
+      <c r="P306">
+        <v>4</v>
+      </c>
+      <c r="Q306">
+        <v>4</v>
+      </c>
+      <c r="R306">
+        <v>6</v>
+      </c>
+      <c r="S306">
+        <v>4</v>
+      </c>
+      <c r="T306">
+        <v>3</v>
+      </c>
+      <c r="U306">
+        <v>0</v>
+      </c>
+      <c r="V306">
+        <v>0</v>
+      </c>
+      <c r="W306">
+        <v>0</v>
+      </c>
+      <c r="X306">
+        <v>0</v>
+      </c>
+      <c r="Y306">
+        <v>0</v>
+      </c>
+      <c r="Z306">
+        <v>0</v>
+      </c>
+      <c r="AA306">
+        <v>0</v>
+      </c>
+      <c r="AB306">
+        <v>0</v>
+      </c>
+      <c r="AC306">
+        <v>1</v>
+      </c>
+      <c r="AD306">
+        <v>0</v>
+      </c>
+      <c r="AE306">
+        <v>0</v>
+      </c>
+      <c r="AF306">
+        <v>0</v>
+      </c>
+      <c r="AG306">
+        <v>1</v>
+      </c>
+      <c r="AH306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>2025</v>
+      </c>
+      <c r="B307" s="5">
+        <v>45764</v>
+      </c>
+      <c r="C307">
+        <v>5</v>
+      </c>
+      <c r="D307" t="s">
+        <v>76</v>
+      </c>
+      <c r="E307" t="str">
+        <f>VLOOKUP(D307,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F307" t="s">
+        <v>13</v>
+      </c>
+      <c r="G307">
+        <v>13</v>
+      </c>
+      <c r="H307">
+        <v>5</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307" t="s">
+        <v>32</v>
+      </c>
+      <c r="K307" t="s">
+        <v>31</v>
+      </c>
+      <c r="L307">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="M307">
+        <v>5</v>
+      </c>
+      <c r="N307">
+        <v>5</v>
+      </c>
+      <c r="O307">
+        <v>5</v>
+      </c>
+      <c r="P307">
+        <v>7</v>
+      </c>
+      <c r="Q307">
+        <v>5</v>
+      </c>
+      <c r="R307">
+        <v>4</v>
+      </c>
+      <c r="S307">
+        <v>4</v>
+      </c>
+      <c r="T307">
+        <v>5</v>
+      </c>
+      <c r="U307">
+        <v>0</v>
+      </c>
+      <c r="V307">
+        <v>0</v>
+      </c>
+      <c r="W307">
+        <v>0</v>
+      </c>
+      <c r="X307">
+        <v>0</v>
+      </c>
+      <c r="Y307">
+        <v>0</v>
+      </c>
+      <c r="Z307">
+        <v>0</v>
+      </c>
+      <c r="AA307">
+        <v>0</v>
+      </c>
+      <c r="AB307">
+        <v>0</v>
+      </c>
+      <c r="AC307">
+        <v>0</v>
+      </c>
+      <c r="AD307">
+        <v>0</v>
+      </c>
+      <c r="AE307">
+        <v>0</v>
+      </c>
+      <c r="AF307">
+        <v>0</v>
+      </c>
+      <c r="AG307">
+        <v>0</v>
+      </c>
+      <c r="AH307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>2025</v>
+      </c>
+      <c r="B308" s="5">
+        <v>45764</v>
+      </c>
+      <c r="C308">
+        <v>5</v>
+      </c>
+      <c r="D308" t="s">
+        <v>76</v>
+      </c>
+      <c r="E308" t="str">
+        <f>VLOOKUP(D308,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F308" t="s">
+        <v>12</v>
+      </c>
+      <c r="G308">
+        <v>10</v>
+      </c>
+      <c r="H308">
+        <v>3</v>
+      </c>
+      <c r="I308">
+        <v>2</v>
+      </c>
+      <c r="J308" t="s">
+        <v>37</v>
+      </c>
+      <c r="K308" t="s">
+        <v>31</v>
+      </c>
+      <c r="L308">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="M308">
+        <v>4</v>
+      </c>
+      <c r="N308">
+        <v>4</v>
+      </c>
+      <c r="O308">
+        <v>0</v>
+      </c>
+      <c r="P308">
+        <v>3</v>
+      </c>
+      <c r="Q308">
+        <v>4</v>
+      </c>
+      <c r="R308">
+        <v>11</v>
+      </c>
+      <c r="S308">
+        <v>9</v>
+      </c>
+      <c r="T308">
+        <v>0</v>
+      </c>
+      <c r="U308">
+        <v>5</v>
+      </c>
+      <c r="V308">
+        <v>4</v>
+      </c>
+      <c r="W308">
+        <v>0</v>
+      </c>
+      <c r="X308">
+        <v>0</v>
+      </c>
+      <c r="Y308">
+        <v>0</v>
+      </c>
+      <c r="Z308">
+        <v>0</v>
+      </c>
+      <c r="AA308">
+        <v>0</v>
+      </c>
+      <c r="AB308">
+        <v>0</v>
+      </c>
+      <c r="AC308">
+        <v>1</v>
+      </c>
+      <c r="AD308">
+        <v>0</v>
+      </c>
+      <c r="AE308">
+        <v>1</v>
+      </c>
+      <c r="AF308">
+        <v>0</v>
+      </c>
+      <c r="AG308">
+        <v>0</v>
+      </c>
+      <c r="AH308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <v>2025</v>
+      </c>
+      <c r="B309" s="5">
+        <v>45764</v>
+      </c>
+      <c r="C309">
+        <v>5</v>
+      </c>
+      <c r="D309" t="s">
+        <v>76</v>
+      </c>
+      <c r="E309" t="str">
+        <f>VLOOKUP(D309,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F309" t="s">
+        <v>11</v>
+      </c>
+      <c r="G309">
+        <v>12</v>
+      </c>
+      <c r="H309">
+        <v>4</v>
+      </c>
+      <c r="I309">
+        <v>2</v>
+      </c>
+      <c r="J309" t="s">
+        <v>36</v>
+      </c>
+      <c r="K309" t="s">
+        <v>31</v>
+      </c>
+      <c r="L309">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="M309">
+        <v>6</v>
+      </c>
+      <c r="N309">
+        <v>5</v>
+      </c>
+      <c r="O309">
+        <v>4</v>
+      </c>
+      <c r="P309">
+        <v>13</v>
+      </c>
+      <c r="Q309">
+        <v>1</v>
+      </c>
+      <c r="R309">
+        <v>4</v>
+      </c>
+      <c r="S309">
+        <v>5</v>
+      </c>
+      <c r="T309">
+        <v>4</v>
+      </c>
+      <c r="U309">
+        <v>0</v>
+      </c>
+      <c r="V309">
+        <v>1</v>
+      </c>
+      <c r="W309">
+        <v>0</v>
+      </c>
+      <c r="X309">
+        <v>0</v>
+      </c>
+      <c r="Y309">
+        <v>0</v>
+      </c>
+      <c r="Z309">
+        <v>0</v>
+      </c>
+      <c r="AA309">
+        <v>0</v>
+      </c>
+      <c r="AB309">
+        <v>0</v>
+      </c>
+      <c r="AC309">
+        <v>0</v>
+      </c>
+      <c r="AD309">
+        <v>0</v>
+      </c>
+      <c r="AE309">
+        <v>0</v>
+      </c>
+      <c r="AF309">
+        <v>0</v>
+      </c>
+      <c r="AG309">
+        <v>0</v>
+      </c>
+      <c r="AH309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <v>2025</v>
+      </c>
+      <c r="B310" s="5">
+        <v>45764</v>
+      </c>
+      <c r="C310">
+        <v>5</v>
+      </c>
+      <c r="D310" t="s">
+        <v>76</v>
+      </c>
+      <c r="E310" t="str">
+        <f>VLOOKUP(D310,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F310" t="s">
+        <v>12</v>
+      </c>
+      <c r="G310">
+        <v>13</v>
+      </c>
+      <c r="H310">
+        <v>3</v>
+      </c>
+      <c r="I310">
+        <v>1</v>
+      </c>
+      <c r="J310" t="s">
+        <v>32</v>
+      </c>
+      <c r="K310" t="s">
+        <v>31</v>
+      </c>
+      <c r="L310">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="M310">
+        <v>5</v>
+      </c>
+      <c r="N310">
+        <v>5</v>
+      </c>
+      <c r="O310">
+        <v>6</v>
+      </c>
+      <c r="P310">
+        <v>3</v>
+      </c>
+      <c r="Q310">
+        <v>4</v>
+      </c>
+      <c r="R310">
+        <v>8</v>
+      </c>
+      <c r="S310">
+        <v>4</v>
+      </c>
+      <c r="T310">
+        <v>1</v>
+      </c>
+      <c r="U310">
+        <v>0</v>
+      </c>
+      <c r="V310">
+        <v>4</v>
+      </c>
+      <c r="W310">
+        <v>0</v>
+      </c>
+      <c r="X310">
+        <v>0</v>
+      </c>
+      <c r="Y310">
+        <v>0</v>
+      </c>
+      <c r="Z310">
+        <v>0</v>
+      </c>
+      <c r="AA310">
+        <v>0</v>
+      </c>
+      <c r="AB310">
+        <v>0</v>
+      </c>
+      <c r="AC310">
+        <v>0</v>
+      </c>
+      <c r="AD310">
+        <v>1</v>
+      </c>
+      <c r="AE310">
+        <v>0</v>
+      </c>
+      <c r="AF310">
+        <v>0</v>
+      </c>
+      <c r="AG310">
+        <v>0</v>
+      </c>
+      <c r="AH310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>2025</v>
+      </c>
+      <c r="B311" s="5">
+        <v>45764</v>
+      </c>
+      <c r="C311">
+        <v>5</v>
+      </c>
+      <c r="D311" t="s">
+        <v>76</v>
+      </c>
+      <c r="E311" t="str">
+        <f>VLOOKUP(D311,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F311" t="s">
+        <v>13</v>
+      </c>
+      <c r="G311">
+        <v>9</v>
+      </c>
+      <c r="H311">
+        <v>5</v>
+      </c>
+      <c r="I311">
+        <v>3</v>
+      </c>
+      <c r="J311" t="s">
+        <v>37</v>
+      </c>
+      <c r="K311" t="s">
+        <v>31</v>
+      </c>
+      <c r="L311">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="M311">
+        <v>5</v>
+      </c>
+      <c r="N311">
+        <v>4</v>
+      </c>
+      <c r="O311">
+        <v>0</v>
+      </c>
+      <c r="P311">
+        <v>11</v>
+      </c>
+      <c r="Q311">
+        <v>4</v>
+      </c>
+      <c r="R311">
+        <v>13</v>
+      </c>
+      <c r="S311">
+        <v>4</v>
+      </c>
+      <c r="T311">
+        <v>0</v>
+      </c>
+      <c r="U311">
+        <v>0</v>
+      </c>
+      <c r="V311">
+        <v>4</v>
+      </c>
+      <c r="W311">
+        <v>0</v>
+      </c>
+      <c r="X311">
+        <v>0</v>
+      </c>
+      <c r="Y311">
+        <v>0</v>
+      </c>
+      <c r="Z311">
+        <v>0</v>
+      </c>
+      <c r="AA311">
+        <v>0</v>
+      </c>
+      <c r="AB311">
+        <v>0</v>
+      </c>
+      <c r="AC311">
+        <v>0</v>
+      </c>
+      <c r="AD311">
+        <v>0</v>
+      </c>
+      <c r="AE311">
+        <v>0</v>
+      </c>
+      <c r="AF311">
+        <v>0</v>
+      </c>
+      <c r="AG311">
+        <v>0</v>
+      </c>
+      <c r="AH311">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A0F014-36B3-43F5-9C1D-292FCE3C7E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1225C04-731E-4AEC-811C-587E4CF4EE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -655,10 +655,10 @@
   <dimension ref="A1:AP311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="K294" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="K296" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I309" sqref="I309"/>
+      <selection pane="bottomRight" activeCell="C312" sqref="C312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32794,7 +32794,7 @@
         <v>45764</v>
       </c>
       <c r="C309">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D309" t="s">
         <v>76</v>
@@ -32900,7 +32900,7 @@
         <v>45764</v>
       </c>
       <c r="C310">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D310" t="s">
         <v>76</v>
@@ -33006,7 +33006,7 @@
         <v>45764</v>
       </c>
       <c r="C311">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D311" t="s">
         <v>76</v>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1225C04-731E-4AEC-811C-587E4CF4EE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A790AE43-6DF2-42E7-A9AF-1D52399E6D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="79">
   <si>
     <t>season</t>
   </si>
@@ -652,13 +652,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP311"/>
+  <dimension ref="A1:AP314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="K296" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J292" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C312" sqref="C312"/>
+      <selection pane="bottomRight" activeCell="I315" sqref="I315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26674,7 +26674,7 @@
         <v>31</v>
       </c>
       <c r="L251">
-        <f t="shared" ref="L251:L311" si="5">SUM(O251:V251)</f>
+        <f t="shared" ref="L251:L314" si="5">SUM(O251:V251)</f>
         <v>34</v>
       </c>
       <c r="M251">
@@ -33101,6 +33101,324 @@
         <v>0</v>
       </c>
       <c r="AH311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>2025</v>
+      </c>
+      <c r="B312" s="5">
+        <v>45764</v>
+      </c>
+      <c r="C312">
+        <v>7</v>
+      </c>
+      <c r="D312" t="s">
+        <v>76</v>
+      </c>
+      <c r="E312" t="str">
+        <f>VLOOKUP(D312,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F312" t="s">
+        <v>12</v>
+      </c>
+      <c r="G312">
+        <v>13</v>
+      </c>
+      <c r="H312">
+        <v>5</v>
+      </c>
+      <c r="I312">
+        <v>1</v>
+      </c>
+      <c r="J312" t="s">
+        <v>36</v>
+      </c>
+      <c r="K312" t="s">
+        <v>31</v>
+      </c>
+      <c r="L312">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="M312">
+        <v>4</v>
+      </c>
+      <c r="N312">
+        <v>5</v>
+      </c>
+      <c r="O312">
+        <v>4</v>
+      </c>
+      <c r="P312">
+        <v>2</v>
+      </c>
+      <c r="Q312">
+        <v>5</v>
+      </c>
+      <c r="R312">
+        <v>12</v>
+      </c>
+      <c r="S312">
+        <v>4</v>
+      </c>
+      <c r="T312">
+        <v>0</v>
+      </c>
+      <c r="U312">
+        <v>4</v>
+      </c>
+      <c r="V312">
+        <v>0</v>
+      </c>
+      <c r="W312">
+        <v>0</v>
+      </c>
+      <c r="X312">
+        <v>0</v>
+      </c>
+      <c r="Y312">
+        <v>0</v>
+      </c>
+      <c r="Z312">
+        <v>0</v>
+      </c>
+      <c r="AA312">
+        <v>0</v>
+      </c>
+      <c r="AB312">
+        <v>0</v>
+      </c>
+      <c r="AC312">
+        <v>0</v>
+      </c>
+      <c r="AD312">
+        <v>0</v>
+      </c>
+      <c r="AE312">
+        <v>0</v>
+      </c>
+      <c r="AF312">
+        <v>1</v>
+      </c>
+      <c r="AG312">
+        <v>0</v>
+      </c>
+      <c r="AH312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>2025</v>
+      </c>
+      <c r="B313" s="5">
+        <v>45764</v>
+      </c>
+      <c r="C313">
+        <v>7</v>
+      </c>
+      <c r="D313" t="s">
+        <v>76</v>
+      </c>
+      <c r="E313" t="str">
+        <f>VLOOKUP(D313,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F313" t="s">
+        <v>11</v>
+      </c>
+      <c r="G313">
+        <v>10</v>
+      </c>
+      <c r="H313">
+        <v>2</v>
+      </c>
+      <c r="I313">
+        <v>3</v>
+      </c>
+      <c r="J313" t="s">
+        <v>32</v>
+      </c>
+      <c r="K313" t="s">
+        <v>31</v>
+      </c>
+      <c r="L313">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M313">
+        <v>5</v>
+      </c>
+      <c r="N313">
+        <v>5</v>
+      </c>
+      <c r="O313">
+        <v>4</v>
+      </c>
+      <c r="P313">
+        <v>5</v>
+      </c>
+      <c r="Q313">
+        <v>3</v>
+      </c>
+      <c r="R313">
+        <v>6</v>
+      </c>
+      <c r="S313">
+        <v>5</v>
+      </c>
+      <c r="T313">
+        <v>0</v>
+      </c>
+      <c r="U313">
+        <v>2</v>
+      </c>
+      <c r="V313">
+        <v>3</v>
+      </c>
+      <c r="W313">
+        <v>0</v>
+      </c>
+      <c r="X313">
+        <v>0</v>
+      </c>
+      <c r="Y313">
+        <v>0</v>
+      </c>
+      <c r="Z313">
+        <v>0</v>
+      </c>
+      <c r="AA313">
+        <v>0</v>
+      </c>
+      <c r="AB313">
+        <v>0</v>
+      </c>
+      <c r="AC313">
+        <v>0</v>
+      </c>
+      <c r="AD313">
+        <v>1</v>
+      </c>
+      <c r="AE313">
+        <v>0</v>
+      </c>
+      <c r="AF313">
+        <v>0</v>
+      </c>
+      <c r="AG313">
+        <v>0</v>
+      </c>
+      <c r="AH313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>2025</v>
+      </c>
+      <c r="B314" s="5">
+        <v>45764</v>
+      </c>
+      <c r="C314">
+        <v>7</v>
+      </c>
+      <c r="D314" t="s">
+        <v>76</v>
+      </c>
+      <c r="E314" t="str">
+        <f>VLOOKUP(D314,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F314" t="s">
+        <v>13</v>
+      </c>
+      <c r="G314">
+        <v>10</v>
+      </c>
+      <c r="H314">
+        <v>5</v>
+      </c>
+      <c r="I314">
+        <v>2</v>
+      </c>
+      <c r="J314" t="s">
+        <v>37</v>
+      </c>
+      <c r="K314" t="s">
+        <v>31</v>
+      </c>
+      <c r="L314">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="M314">
+        <v>6</v>
+      </c>
+      <c r="N314">
+        <v>4</v>
+      </c>
+      <c r="O314">
+        <v>8</v>
+      </c>
+      <c r="P314">
+        <v>0</v>
+      </c>
+      <c r="Q314">
+        <v>5</v>
+      </c>
+      <c r="R314">
+        <v>7</v>
+      </c>
+      <c r="S314">
+        <v>4</v>
+      </c>
+      <c r="T314">
+        <v>3</v>
+      </c>
+      <c r="U314">
+        <v>4</v>
+      </c>
+      <c r="V314">
+        <v>5</v>
+      </c>
+      <c r="W314">
+        <v>0</v>
+      </c>
+      <c r="X314">
+        <v>0</v>
+      </c>
+      <c r="Y314">
+        <v>0</v>
+      </c>
+      <c r="Z314">
+        <v>0</v>
+      </c>
+      <c r="AA314">
+        <v>0</v>
+      </c>
+      <c r="AB314">
+        <v>0</v>
+      </c>
+      <c r="AC314">
+        <v>1</v>
+      </c>
+      <c r="AD314">
+        <v>0</v>
+      </c>
+      <c r="AE314">
+        <v>0</v>
+      </c>
+      <c r="AF314">
+        <v>1</v>
+      </c>
+      <c r="AG314">
+        <v>0</v>
+      </c>
+      <c r="AH314">
         <v>0</v>
       </c>
     </row>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A790AE43-6DF2-42E7-A9AF-1D52399E6D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B574DB-185E-4E8C-9DB8-DC9FD7C61157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="79">
   <si>
     <t>season</t>
   </si>
@@ -652,13 +652,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP314"/>
+  <dimension ref="A1:AP317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J292" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I315" sqref="I315"/>
+      <selection pane="bottomRight" activeCell="H316" sqref="H316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26674,7 +26674,7 @@
         <v>31</v>
       </c>
       <c r="L251">
-        <f t="shared" ref="L251:L314" si="5">SUM(O251:V251)</f>
+        <f t="shared" ref="L251:L315" si="5">SUM(O251:V251)</f>
         <v>34</v>
       </c>
       <c r="M251">
@@ -33419,6 +33419,324 @@
         <v>0</v>
       </c>
       <c r="AH314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>2025</v>
+      </c>
+      <c r="B315" s="5">
+        <v>45764</v>
+      </c>
+      <c r="C315">
+        <v>8</v>
+      </c>
+      <c r="D315" t="s">
+        <v>76</v>
+      </c>
+      <c r="E315" t="str">
+        <f>VLOOKUP(D315,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F315" t="s">
+        <v>11</v>
+      </c>
+      <c r="G315">
+        <v>13</v>
+      </c>
+      <c r="H315">
+        <v>6</v>
+      </c>
+      <c r="I315">
+        <v>1</v>
+      </c>
+      <c r="J315" t="s">
+        <v>36</v>
+      </c>
+      <c r="K315" t="s">
+        <v>31</v>
+      </c>
+      <c r="L315">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M315">
+        <v>5</v>
+      </c>
+      <c r="N315">
+        <v>4</v>
+      </c>
+      <c r="O315">
+        <v>0</v>
+      </c>
+      <c r="P315">
+        <v>3</v>
+      </c>
+      <c r="Q315">
+        <v>8</v>
+      </c>
+      <c r="R315">
+        <v>4</v>
+      </c>
+      <c r="S315">
+        <v>5</v>
+      </c>
+      <c r="T315">
+        <v>0</v>
+      </c>
+      <c r="U315">
+        <v>5</v>
+      </c>
+      <c r="V315">
+        <v>3</v>
+      </c>
+      <c r="W315">
+        <v>0</v>
+      </c>
+      <c r="X315">
+        <v>0</v>
+      </c>
+      <c r="Y315">
+        <v>0</v>
+      </c>
+      <c r="Z315">
+        <v>0</v>
+      </c>
+      <c r="AA315">
+        <v>0</v>
+      </c>
+      <c r="AB315">
+        <v>0</v>
+      </c>
+      <c r="AC315">
+        <v>0</v>
+      </c>
+      <c r="AD315">
+        <v>0</v>
+      </c>
+      <c r="AE315">
+        <v>0</v>
+      </c>
+      <c r="AF315">
+        <v>1</v>
+      </c>
+      <c r="AG315">
+        <v>0</v>
+      </c>
+      <c r="AH315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>2025</v>
+      </c>
+      <c r="B316" s="5">
+        <v>45764</v>
+      </c>
+      <c r="C316">
+        <v>8</v>
+      </c>
+      <c r="D316" t="s">
+        <v>76</v>
+      </c>
+      <c r="E316" t="str">
+        <f>VLOOKUP(D316,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F316" t="s">
+        <v>12</v>
+      </c>
+      <c r="G316">
+        <v>6</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+      <c r="I316">
+        <v>3</v>
+      </c>
+      <c r="J316" t="s">
+        <v>32</v>
+      </c>
+      <c r="K316" t="s">
+        <v>31</v>
+      </c>
+      <c r="L316">
+        <f t="shared" ref="L316:L317" si="6">SUM(O316:V316)</f>
+        <v>32</v>
+      </c>
+      <c r="M316">
+        <v>6</v>
+      </c>
+      <c r="N316">
+        <v>5</v>
+      </c>
+      <c r="O316">
+        <v>3</v>
+      </c>
+      <c r="P316">
+        <v>2</v>
+      </c>
+      <c r="Q316">
+        <v>9</v>
+      </c>
+      <c r="R316">
+        <v>4</v>
+      </c>
+      <c r="S316">
+        <v>5</v>
+      </c>
+      <c r="T316">
+        <v>0</v>
+      </c>
+      <c r="U316">
+        <v>0</v>
+      </c>
+      <c r="V316">
+        <v>9</v>
+      </c>
+      <c r="W316">
+        <v>0</v>
+      </c>
+      <c r="X316">
+        <v>0</v>
+      </c>
+      <c r="Y316">
+        <v>0</v>
+      </c>
+      <c r="Z316">
+        <v>0</v>
+      </c>
+      <c r="AA316">
+        <v>0</v>
+      </c>
+      <c r="AB316">
+        <v>0</v>
+      </c>
+      <c r="AC316">
+        <v>0</v>
+      </c>
+      <c r="AD316">
+        <v>0</v>
+      </c>
+      <c r="AE316">
+        <v>0</v>
+      </c>
+      <c r="AF316">
+        <v>0</v>
+      </c>
+      <c r="AG316">
+        <v>0</v>
+      </c>
+      <c r="AH316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>2025</v>
+      </c>
+      <c r="B317" s="5">
+        <v>45764</v>
+      </c>
+      <c r="C317">
+        <v>8</v>
+      </c>
+      <c r="D317" t="s">
+        <v>76</v>
+      </c>
+      <c r="E317" t="str">
+        <f>VLOOKUP(D317,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F317" t="s">
+        <v>13</v>
+      </c>
+      <c r="G317">
+        <v>9</v>
+      </c>
+      <c r="H317">
+        <v>3</v>
+      </c>
+      <c r="I317">
+        <v>2</v>
+      </c>
+      <c r="J317" t="s">
+        <v>37</v>
+      </c>
+      <c r="K317" t="s">
+        <v>31</v>
+      </c>
+      <c r="L317">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="M317">
+        <v>5</v>
+      </c>
+      <c r="N317">
+        <v>4</v>
+      </c>
+      <c r="O317">
+        <v>5</v>
+      </c>
+      <c r="P317">
+        <v>0</v>
+      </c>
+      <c r="Q317">
+        <v>4</v>
+      </c>
+      <c r="R317">
+        <v>19</v>
+      </c>
+      <c r="S317">
+        <v>2</v>
+      </c>
+      <c r="T317">
+        <v>0</v>
+      </c>
+      <c r="U317">
+        <v>0</v>
+      </c>
+      <c r="V317">
+        <v>4</v>
+      </c>
+      <c r="W317">
+        <v>0</v>
+      </c>
+      <c r="X317">
+        <v>0</v>
+      </c>
+      <c r="Y317">
+        <v>0</v>
+      </c>
+      <c r="Z317">
+        <v>0</v>
+      </c>
+      <c r="AA317">
+        <v>0</v>
+      </c>
+      <c r="AB317">
+        <v>0</v>
+      </c>
+      <c r="AC317">
+        <v>0</v>
+      </c>
+      <c r="AD317">
+        <v>0</v>
+      </c>
+      <c r="AE317">
+        <v>1</v>
+      </c>
+      <c r="AF317">
+        <v>0</v>
+      </c>
+      <c r="AG317">
+        <v>0</v>
+      </c>
+      <c r="AH317">
         <v>0</v>
       </c>
     </row>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\catan_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Documents\CatanData\catan_data\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B574DB-185E-4E8C-9DB8-DC9FD7C61157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781268AD-269D-445D-B4DF-293FFE06D638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$302</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$323</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="79">
   <si>
     <t>season</t>
   </si>
@@ -652,13 +652,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP317"/>
+  <dimension ref="A1:AP323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J292" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J299" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H316" sqref="H316"/>
+      <selection pane="bottomRight" activeCell="J322" sqref="J322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33564,7 +33564,7 @@
         <v>31</v>
       </c>
       <c r="L316">
-        <f t="shared" ref="L316:L317" si="6">SUM(O316:V316)</f>
+        <f t="shared" ref="L316:L323" si="6">SUM(O316:V316)</f>
         <v>32</v>
       </c>
       <c r="M316">
@@ -33740,8 +33740,644 @@
         <v>0</v>
       </c>
     </row>
+    <row r="318" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>2025</v>
+      </c>
+      <c r="B318" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C318">
+        <v>9</v>
+      </c>
+      <c r="D318" t="s">
+        <v>76</v>
+      </c>
+      <c r="E318" t="str">
+        <f>VLOOKUP(D318,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F318" t="s">
+        <v>12</v>
+      </c>
+      <c r="G318">
+        <v>2</v>
+      </c>
+      <c r="H318">
+        <v>0</v>
+      </c>
+      <c r="I318">
+        <v>3</v>
+      </c>
+      <c r="J318" t="s">
+        <v>36</v>
+      </c>
+      <c r="K318" t="s">
+        <v>32</v>
+      </c>
+      <c r="L318">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="M318">
+        <v>6</v>
+      </c>
+      <c r="N318">
+        <v>4</v>
+      </c>
+      <c r="O318">
+        <v>6</v>
+      </c>
+      <c r="P318">
+        <v>0</v>
+      </c>
+      <c r="Q318">
+        <v>6</v>
+      </c>
+      <c r="R318">
+        <v>8</v>
+      </c>
+      <c r="S318">
+        <v>5</v>
+      </c>
+      <c r="T318">
+        <v>3</v>
+      </c>
+      <c r="U318">
+        <v>0</v>
+      </c>
+      <c r="V318">
+        <v>2</v>
+      </c>
+      <c r="W318">
+        <v>0</v>
+      </c>
+      <c r="X318">
+        <v>0</v>
+      </c>
+      <c r="Y318">
+        <v>0</v>
+      </c>
+      <c r="Z318">
+        <v>0</v>
+      </c>
+      <c r="AA318">
+        <v>0</v>
+      </c>
+      <c r="AB318">
+        <v>0</v>
+      </c>
+      <c r="AC318">
+        <v>1</v>
+      </c>
+      <c r="AD318">
+        <v>0</v>
+      </c>
+      <c r="AE318">
+        <v>0</v>
+      </c>
+      <c r="AF318">
+        <v>0</v>
+      </c>
+      <c r="AG318">
+        <v>0</v>
+      </c>
+      <c r="AH318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>2025</v>
+      </c>
+      <c r="B319" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C319">
+        <v>9</v>
+      </c>
+      <c r="D319" t="s">
+        <v>76</v>
+      </c>
+      <c r="E319" t="str">
+        <f>VLOOKUP(D319,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F319" t="s">
+        <v>13</v>
+      </c>
+      <c r="G319">
+        <v>4</v>
+      </c>
+      <c r="H319">
+        <v>1</v>
+      </c>
+      <c r="I319">
+        <v>2</v>
+      </c>
+      <c r="J319" t="s">
+        <v>32</v>
+      </c>
+      <c r="K319" t="s">
+        <v>32</v>
+      </c>
+      <c r="L319">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="M319">
+        <v>6</v>
+      </c>
+      <c r="N319">
+        <v>4</v>
+      </c>
+      <c r="O319">
+        <v>3</v>
+      </c>
+      <c r="P319">
+        <v>0</v>
+      </c>
+      <c r="Q319">
+        <v>9</v>
+      </c>
+      <c r="R319">
+        <v>8</v>
+      </c>
+      <c r="S319">
+        <v>3</v>
+      </c>
+      <c r="T319">
+        <v>3</v>
+      </c>
+      <c r="U319">
+        <v>0</v>
+      </c>
+      <c r="V319">
+        <v>5</v>
+      </c>
+      <c r="W319">
+        <v>0</v>
+      </c>
+      <c r="X319">
+        <v>0</v>
+      </c>
+      <c r="Y319">
+        <v>0</v>
+      </c>
+      <c r="Z319">
+        <v>0</v>
+      </c>
+      <c r="AA319">
+        <v>0</v>
+      </c>
+      <c r="AB319">
+        <v>0</v>
+      </c>
+      <c r="AC319">
+        <v>0</v>
+      </c>
+      <c r="AD319">
+        <v>0</v>
+      </c>
+      <c r="AE319">
+        <v>0</v>
+      </c>
+      <c r="AF319">
+        <v>1</v>
+      </c>
+      <c r="AG319">
+        <v>0</v>
+      </c>
+      <c r="AH319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>2025</v>
+      </c>
+      <c r="B320" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C320">
+        <v>9</v>
+      </c>
+      <c r="D320" t="s">
+        <v>76</v>
+      </c>
+      <c r="E320" t="str">
+        <f>VLOOKUP(D320,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F320" t="s">
+        <v>11</v>
+      </c>
+      <c r="G320">
+        <v>14</v>
+      </c>
+      <c r="H320">
+        <v>6</v>
+      </c>
+      <c r="I320">
+        <v>1</v>
+      </c>
+      <c r="J320" t="s">
+        <v>37</v>
+      </c>
+      <c r="K320" t="s">
+        <v>32</v>
+      </c>
+      <c r="L320">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="M320">
+        <v>6</v>
+      </c>
+      <c r="N320">
+        <v>4</v>
+      </c>
+      <c r="O320">
+        <v>0</v>
+      </c>
+      <c r="P320">
+        <v>1</v>
+      </c>
+      <c r="Q320">
+        <v>4</v>
+      </c>
+      <c r="R320">
+        <v>14</v>
+      </c>
+      <c r="S320">
+        <v>9</v>
+      </c>
+      <c r="T320">
+        <v>0</v>
+      </c>
+      <c r="U320">
+        <v>0</v>
+      </c>
+      <c r="V320">
+        <v>4</v>
+      </c>
+      <c r="W320">
+        <v>0</v>
+      </c>
+      <c r="X320">
+        <v>0</v>
+      </c>
+      <c r="Y320">
+        <v>0</v>
+      </c>
+      <c r="Z320">
+        <v>0</v>
+      </c>
+      <c r="AA320">
+        <v>0</v>
+      </c>
+      <c r="AB320">
+        <v>0</v>
+      </c>
+      <c r="AC320">
+        <v>0</v>
+      </c>
+      <c r="AD320">
+        <v>0</v>
+      </c>
+      <c r="AE320">
+        <v>0</v>
+      </c>
+      <c r="AF320">
+        <v>1</v>
+      </c>
+      <c r="AG320">
+        <v>0</v>
+      </c>
+      <c r="AH320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>2025</v>
+      </c>
+      <c r="B321" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C321">
+        <v>10</v>
+      </c>
+      <c r="D321" t="s">
+        <v>76</v>
+      </c>
+      <c r="E321" t="str">
+        <f>VLOOKUP(D321,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F321" t="s">
+        <v>13</v>
+      </c>
+      <c r="G321">
+        <v>5</v>
+      </c>
+      <c r="H321">
+        <v>0</v>
+      </c>
+      <c r="I321">
+        <v>3</v>
+      </c>
+      <c r="J321" t="s">
+        <v>36</v>
+      </c>
+      <c r="K321" t="s">
+        <v>31</v>
+      </c>
+      <c r="L321">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="M321">
+        <v>5</v>
+      </c>
+      <c r="N321">
+        <v>5</v>
+      </c>
+      <c r="O321">
+        <v>8</v>
+      </c>
+      <c r="P321">
+        <v>8</v>
+      </c>
+      <c r="Q321">
+        <v>4</v>
+      </c>
+      <c r="R321">
+        <v>3</v>
+      </c>
+      <c r="S321">
+        <v>3</v>
+      </c>
+      <c r="T321">
+        <v>2</v>
+      </c>
+      <c r="U321">
+        <v>3</v>
+      </c>
+      <c r="V321">
+        <v>0</v>
+      </c>
+      <c r="W321">
+        <v>0</v>
+      </c>
+      <c r="X321">
+        <v>0</v>
+      </c>
+      <c r="Y321">
+        <v>0</v>
+      </c>
+      <c r="Z321">
+        <v>0</v>
+      </c>
+      <c r="AA321">
+        <v>0</v>
+      </c>
+      <c r="AB321">
+        <v>0</v>
+      </c>
+      <c r="AC321">
+        <v>0</v>
+      </c>
+      <c r="AD321">
+        <v>0</v>
+      </c>
+      <c r="AE321">
+        <v>0</v>
+      </c>
+      <c r="AF321">
+        <v>0</v>
+      </c>
+      <c r="AG321">
+        <v>0</v>
+      </c>
+      <c r="AH321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>2025</v>
+      </c>
+      <c r="B322" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C322">
+        <v>10</v>
+      </c>
+      <c r="D322" t="s">
+        <v>76</v>
+      </c>
+      <c r="E322" t="str">
+        <f>VLOOKUP(D322,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F322" t="s">
+        <v>11</v>
+      </c>
+      <c r="G322">
+        <v>14</v>
+      </c>
+      <c r="H322">
+        <v>6</v>
+      </c>
+      <c r="I322">
+        <v>1</v>
+      </c>
+      <c r="J322" t="s">
+        <v>32</v>
+      </c>
+      <c r="K322" t="s">
+        <v>31</v>
+      </c>
+      <c r="L322">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="M322">
+        <v>5</v>
+      </c>
+      <c r="N322">
+        <v>4</v>
+      </c>
+      <c r="O322">
+        <v>0</v>
+      </c>
+      <c r="P322">
+        <v>9</v>
+      </c>
+      <c r="Q322">
+        <v>4</v>
+      </c>
+      <c r="R322">
+        <v>4</v>
+      </c>
+      <c r="S322">
+        <v>7</v>
+      </c>
+      <c r="T322">
+        <v>0</v>
+      </c>
+      <c r="U322">
+        <v>3</v>
+      </c>
+      <c r="V322">
+        <v>4</v>
+      </c>
+      <c r="W322">
+        <v>0</v>
+      </c>
+      <c r="X322">
+        <v>0</v>
+      </c>
+      <c r="Y322">
+        <v>0</v>
+      </c>
+      <c r="Z322">
+        <v>0</v>
+      </c>
+      <c r="AA322">
+        <v>0</v>
+      </c>
+      <c r="AB322">
+        <v>0</v>
+      </c>
+      <c r="AC322">
+        <v>0</v>
+      </c>
+      <c r="AD322">
+        <v>1</v>
+      </c>
+      <c r="AE322">
+        <v>1</v>
+      </c>
+      <c r="AF322">
+        <v>0</v>
+      </c>
+      <c r="AG322">
+        <v>0</v>
+      </c>
+      <c r="AH322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>2025</v>
+      </c>
+      <c r="B323" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C323">
+        <v>10</v>
+      </c>
+      <c r="D323" t="s">
+        <v>76</v>
+      </c>
+      <c r="E323" t="str">
+        <f>VLOOKUP(D323,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F323" t="s">
+        <v>12</v>
+      </c>
+      <c r="G323">
+        <v>6</v>
+      </c>
+      <c r="H323">
+        <v>1</v>
+      </c>
+      <c r="I323">
+        <v>2</v>
+      </c>
+      <c r="J323" t="s">
+        <v>37</v>
+      </c>
+      <c r="K323" t="s">
+        <v>31</v>
+      </c>
+      <c r="L323">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="M323">
+        <v>4</v>
+      </c>
+      <c r="N323">
+        <v>3</v>
+      </c>
+      <c r="O323">
+        <v>13</v>
+      </c>
+      <c r="P323">
+        <v>0</v>
+      </c>
+      <c r="Q323">
+        <v>3</v>
+      </c>
+      <c r="R323">
+        <v>0</v>
+      </c>
+      <c r="S323">
+        <v>5</v>
+      </c>
+      <c r="T323">
+        <v>8</v>
+      </c>
+      <c r="U323">
+        <v>3</v>
+      </c>
+      <c r="V323">
+        <v>0</v>
+      </c>
+      <c r="W323">
+        <v>0</v>
+      </c>
+      <c r="X323">
+        <v>0</v>
+      </c>
+      <c r="Y323">
+        <v>0</v>
+      </c>
+      <c r="Z323">
+        <v>0</v>
+      </c>
+      <c r="AA323">
+        <v>0</v>
+      </c>
+      <c r="AB323">
+        <v>0</v>
+      </c>
+      <c r="AC323">
+        <v>0</v>
+      </c>
+      <c r="AD323">
+        <v>0</v>
+      </c>
+      <c r="AE323">
+        <v>0</v>
+      </c>
+      <c r="AF323">
+        <v>0</v>
+      </c>
+      <c r="AG323">
+        <v>1</v>
+      </c>
+      <c r="AH323">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AP302" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
+  <autoFilter ref="A2:AP323" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W177:Z223 W225:Z299 W301:Z302 W304:Z1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Documents\CatanData\catan_data\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781268AD-269D-445D-B4DF-293FFE06D638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="79">
   <si>
     <t>season</t>
   </si>
@@ -652,13 +652,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP323"/>
+  <dimension ref="A1:AP326"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J299" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J300" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J322" sqref="J322"/>
+      <selection pane="bottomRight" activeCell="J324" sqref="J324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33564,7 +33564,7 @@
         <v>31</v>
       </c>
       <c r="L316">
-        <f t="shared" ref="L316:L323" si="6">SUM(O316:V316)</f>
+        <f t="shared" ref="L316:L326" si="6">SUM(O316:V316)</f>
         <v>32</v>
       </c>
       <c r="M316">
@@ -34374,6 +34374,324 @@
       </c>
       <c r="AH323">
         <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>2025</v>
+      </c>
+      <c r="B324" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C324">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s">
+        <v>76</v>
+      </c>
+      <c r="E324" t="str">
+        <f>VLOOKUP(D324,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F324" t="s">
+        <v>12</v>
+      </c>
+      <c r="G324">
+        <v>6</v>
+      </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+      <c r="I324">
+        <v>3</v>
+      </c>
+      <c r="J324" t="s">
+        <v>36</v>
+      </c>
+      <c r="K324" t="s">
+        <v>31</v>
+      </c>
+      <c r="L324">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="M324">
+        <v>6</v>
+      </c>
+      <c r="N324">
+        <v>4</v>
+      </c>
+      <c r="O324">
+        <v>9</v>
+      </c>
+      <c r="P324">
+        <v>0</v>
+      </c>
+      <c r="Q324">
+        <v>6</v>
+      </c>
+      <c r="R324">
+        <v>4</v>
+      </c>
+      <c r="S324">
+        <v>4</v>
+      </c>
+      <c r="T324">
+        <v>5</v>
+      </c>
+      <c r="U324">
+        <v>0</v>
+      </c>
+      <c r="V324">
+        <v>3</v>
+      </c>
+      <c r="W324">
+        <v>0</v>
+      </c>
+      <c r="X324">
+        <v>0</v>
+      </c>
+      <c r="Y324">
+        <v>0</v>
+      </c>
+      <c r="Z324">
+        <v>0</v>
+      </c>
+      <c r="AA324">
+        <v>0</v>
+      </c>
+      <c r="AB324">
+        <v>0</v>
+      </c>
+      <c r="AC324">
+        <v>0</v>
+      </c>
+      <c r="AD324">
+        <v>0</v>
+      </c>
+      <c r="AE324">
+        <v>0</v>
+      </c>
+      <c r="AF324">
+        <v>0</v>
+      </c>
+      <c r="AG324">
+        <v>0</v>
+      </c>
+      <c r="AH324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>2025</v>
+      </c>
+      <c r="B325" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C325">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s">
+        <v>76</v>
+      </c>
+      <c r="E325" t="str">
+        <f>VLOOKUP(D325,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F325" t="s">
+        <v>11</v>
+      </c>
+      <c r="G325">
+        <v>13</v>
+      </c>
+      <c r="H325">
+        <v>7</v>
+      </c>
+      <c r="I325">
+        <v>1</v>
+      </c>
+      <c r="J325" t="s">
+        <v>32</v>
+      </c>
+      <c r="K325" t="s">
+        <v>31</v>
+      </c>
+      <c r="L325">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="M325">
+        <v>6</v>
+      </c>
+      <c r="N325">
+        <v>3</v>
+      </c>
+      <c r="O325">
+        <v>4</v>
+      </c>
+      <c r="P325">
+        <v>0</v>
+      </c>
+      <c r="Q325">
+        <v>0</v>
+      </c>
+      <c r="R325">
+        <v>8</v>
+      </c>
+      <c r="S325">
+        <v>10</v>
+      </c>
+      <c r="T325">
+        <v>0</v>
+      </c>
+      <c r="U325">
+        <v>10</v>
+      </c>
+      <c r="V325">
+        <v>0</v>
+      </c>
+      <c r="W325">
+        <v>0</v>
+      </c>
+      <c r="X325">
+        <v>0</v>
+      </c>
+      <c r="Y325">
+        <v>0</v>
+      </c>
+      <c r="Z325">
+        <v>0</v>
+      </c>
+      <c r="AA325">
+        <v>0</v>
+      </c>
+      <c r="AB325">
+        <v>0</v>
+      </c>
+      <c r="AC325">
+        <v>0</v>
+      </c>
+      <c r="AD325">
+        <v>0</v>
+      </c>
+      <c r="AE325">
+        <v>0</v>
+      </c>
+      <c r="AF325">
+        <v>0</v>
+      </c>
+      <c r="AG325">
+        <v>0</v>
+      </c>
+      <c r="AH325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <v>2025</v>
+      </c>
+      <c r="B326" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C326">
+        <v>11</v>
+      </c>
+      <c r="D326" t="s">
+        <v>76</v>
+      </c>
+      <c r="E326" t="str">
+        <f>VLOOKUP(D326,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F326" t="s">
+        <v>13</v>
+      </c>
+      <c r="G326">
+        <v>12</v>
+      </c>
+      <c r="H326">
+        <v>5</v>
+      </c>
+      <c r="I326">
+        <v>2</v>
+      </c>
+      <c r="J326" t="s">
+        <v>37</v>
+      </c>
+      <c r="K326" t="s">
+        <v>31</v>
+      </c>
+      <c r="L326">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="M326">
+        <v>6</v>
+      </c>
+      <c r="N326">
+        <v>4</v>
+      </c>
+      <c r="O326">
+        <v>5</v>
+      </c>
+      <c r="P326">
+        <v>7</v>
+      </c>
+      <c r="Q326">
+        <v>7</v>
+      </c>
+      <c r="R326">
+        <v>4</v>
+      </c>
+      <c r="S326">
+        <v>0</v>
+      </c>
+      <c r="T326">
+        <v>5</v>
+      </c>
+      <c r="U326">
+        <v>0</v>
+      </c>
+      <c r="V326">
+        <v>7</v>
+      </c>
+      <c r="W326">
+        <v>0</v>
+      </c>
+      <c r="X326">
+        <v>0</v>
+      </c>
+      <c r="Y326">
+        <v>0</v>
+      </c>
+      <c r="Z326">
+        <v>0</v>
+      </c>
+      <c r="AA326">
+        <v>0</v>
+      </c>
+      <c r="AB326">
+        <v>0</v>
+      </c>
+      <c r="AC326">
+        <v>0</v>
+      </c>
+      <c r="AD326">
+        <v>0</v>
+      </c>
+      <c r="AE326">
+        <v>1</v>
+      </c>
+      <c r="AF326">
+        <v>0</v>
+      </c>
+      <c r="AG326">
+        <v>0</v>
+      </c>
+      <c r="AH326">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Documents\CatanData\catan_data\catan_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88b1f18c208c1b3c/Documents/CatanData/catan_data/catan_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F51BDD72-7FC5-455A-AE8D-5C6C87CA7B4E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="79">
   <si>
     <t>season</t>
   </si>
@@ -355,6 +355,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
@@ -652,13 +656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP326"/>
+  <dimension ref="A1:AP332"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J300" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J305" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J324" sqref="J324"/>
+      <selection pane="bottomRight" activeCell="A330" sqref="A330:J332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33564,7 +33568,7 @@
         <v>31</v>
       </c>
       <c r="L316">
-        <f t="shared" ref="L316:L326" si="6">SUM(O316:V316)</f>
+        <f t="shared" ref="L316:L329" si="6">SUM(O316:V316)</f>
         <v>32</v>
       </c>
       <c r="M316">
@@ -34693,6 +34697,333 @@
       <c r="AH326">
         <v>1</v>
       </c>
+    </row>
+    <row r="327" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>2025</v>
+      </c>
+      <c r="B327" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C327">
+        <v>12</v>
+      </c>
+      <c r="D327" t="s">
+        <v>76</v>
+      </c>
+      <c r="E327" t="str">
+        <f>VLOOKUP(D327,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F327" t="s">
+        <v>11</v>
+      </c>
+      <c r="G327">
+        <v>6</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+      <c r="I327">
+        <v>3</v>
+      </c>
+      <c r="J327" t="s">
+        <v>36</v>
+      </c>
+      <c r="K327" t="s">
+        <v>31</v>
+      </c>
+      <c r="L327">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="M327">
+        <v>5</v>
+      </c>
+      <c r="N327">
+        <v>5</v>
+      </c>
+      <c r="O327">
+        <v>4</v>
+      </c>
+      <c r="P327">
+        <v>10</v>
+      </c>
+      <c r="Q327">
+        <v>3</v>
+      </c>
+      <c r="R327">
+        <v>4</v>
+      </c>
+      <c r="S327">
+        <v>5</v>
+      </c>
+      <c r="T327">
+        <v>0</v>
+      </c>
+      <c r="U327">
+        <v>0</v>
+      </c>
+      <c r="V327">
+        <v>3</v>
+      </c>
+      <c r="W327">
+        <v>0</v>
+      </c>
+      <c r="X327">
+        <v>1</v>
+      </c>
+      <c r="Y327">
+        <v>0</v>
+      </c>
+      <c r="Z327">
+        <v>0</v>
+      </c>
+      <c r="AA327">
+        <v>0</v>
+      </c>
+      <c r="AB327">
+        <v>0</v>
+      </c>
+      <c r="AC327">
+        <v>1</v>
+      </c>
+      <c r="AD327">
+        <v>0</v>
+      </c>
+      <c r="AE327">
+        <v>0</v>
+      </c>
+      <c r="AF327">
+        <v>0</v>
+      </c>
+      <c r="AG327">
+        <v>0</v>
+      </c>
+      <c r="AH327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <v>2025</v>
+      </c>
+      <c r="B328" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C328">
+        <v>12</v>
+      </c>
+      <c r="D328" t="s">
+        <v>76</v>
+      </c>
+      <c r="E328" t="str">
+        <f>VLOOKUP(D328,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F328" t="s">
+        <v>12</v>
+      </c>
+      <c r="G328">
+        <v>8</v>
+      </c>
+      <c r="H328">
+        <v>2</v>
+      </c>
+      <c r="I328">
+        <v>2</v>
+      </c>
+      <c r="J328" t="s">
+        <v>32</v>
+      </c>
+      <c r="K328" t="s">
+        <v>31</v>
+      </c>
+      <c r="L328">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="M328">
+        <v>5</v>
+      </c>
+      <c r="N328">
+        <v>4</v>
+      </c>
+      <c r="O328">
+        <v>0</v>
+      </c>
+      <c r="P328">
+        <v>5</v>
+      </c>
+      <c r="Q328">
+        <v>3</v>
+      </c>
+      <c r="R328">
+        <v>12</v>
+      </c>
+      <c r="S328">
+        <v>7</v>
+      </c>
+      <c r="T328">
+        <v>0</v>
+      </c>
+      <c r="U328">
+        <v>7</v>
+      </c>
+      <c r="V328">
+        <v>0</v>
+      </c>
+      <c r="W328">
+        <v>0</v>
+      </c>
+      <c r="X328">
+        <v>0</v>
+      </c>
+      <c r="Y328">
+        <v>0</v>
+      </c>
+      <c r="Z328">
+        <v>0</v>
+      </c>
+      <c r="AA328">
+        <v>0</v>
+      </c>
+      <c r="AB328">
+        <v>0</v>
+      </c>
+      <c r="AC328">
+        <v>0</v>
+      </c>
+      <c r="AD328">
+        <v>0</v>
+      </c>
+      <c r="AE328">
+        <v>1</v>
+      </c>
+      <c r="AF328">
+        <v>0</v>
+      </c>
+      <c r="AG328">
+        <v>0</v>
+      </c>
+      <c r="AH328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>2025</v>
+      </c>
+      <c r="B329" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C329">
+        <v>12</v>
+      </c>
+      <c r="D329" t="s">
+        <v>76</v>
+      </c>
+      <c r="E329" t="str">
+        <f>VLOOKUP(D329,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F329" t="s">
+        <v>13</v>
+      </c>
+      <c r="G329">
+        <v>13</v>
+      </c>
+      <c r="H329">
+        <v>5</v>
+      </c>
+      <c r="I329">
+        <v>1</v>
+      </c>
+      <c r="J329" t="s">
+        <v>37</v>
+      </c>
+      <c r="K329" t="s">
+        <v>31</v>
+      </c>
+      <c r="L329">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="M329">
+        <v>5</v>
+      </c>
+      <c r="N329">
+        <v>4</v>
+      </c>
+      <c r="O329">
+        <v>5</v>
+      </c>
+      <c r="P329">
+        <v>0</v>
+      </c>
+      <c r="Q329">
+        <v>3</v>
+      </c>
+      <c r="R329">
+        <v>13</v>
+      </c>
+      <c r="S329">
+        <v>7</v>
+      </c>
+      <c r="T329">
+        <v>0</v>
+      </c>
+      <c r="U329">
+        <v>4</v>
+      </c>
+      <c r="V329">
+        <v>3</v>
+      </c>
+      <c r="W329">
+        <v>0</v>
+      </c>
+      <c r="X329">
+        <v>0</v>
+      </c>
+      <c r="Y329">
+        <v>0</v>
+      </c>
+      <c r="Z329">
+        <v>0</v>
+      </c>
+      <c r="AA329">
+        <v>0</v>
+      </c>
+      <c r="AB329">
+        <v>0</v>
+      </c>
+      <c r="AC329">
+        <v>0</v>
+      </c>
+      <c r="AD329">
+        <v>0</v>
+      </c>
+      <c r="AE329">
+        <v>0</v>
+      </c>
+      <c r="AF329">
+        <v>0</v>
+      </c>
+      <c r="AG329">
+        <v>0</v>
+      </c>
+      <c r="AH329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B330" s="5"/>
+    </row>
+    <row r="331" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B331" s="5"/>
+    </row>
+    <row r="332" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B332" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AP323" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88b1f18c208c1b3c/Documents/CatanData/catan_data/catan_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F51BDD72-7FC5-455A-AE8D-5C6C87CA7B4E}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FAA2125-B79B-4F91-859A-9B92F973A81E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -662,7 +662,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J305" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A330" sqref="A330:J332"/>
+      <selection pane="bottomRight" activeCell="I328" sqref="I328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34719,13 +34719,13 @@
         <v>11</v>
       </c>
       <c r="G327">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J327" t="s">
         <v>36</v>
@@ -34825,10 +34825,10 @@
         <v>12</v>
       </c>
       <c r="G328">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328">
         <v>2</v>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88b1f18c208c1b3c/Documents/CatanData/catan_data/catan_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FAA2125-B79B-4F91-859A-9B92F973A81E}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A46FBDC8-6877-4C79-877E-ED8C074B4115}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -662,7 +662,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J305" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I328" sqref="I328"/>
+      <selection pane="bottomRight" activeCell="J328" sqref="J328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34831,7 +34831,7 @@
         <v>0</v>
       </c>
       <c r="I328">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J328" t="s">
         <v>32</v>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88b1f18c208c1b3c/Documents/CatanData/catan_data/catan_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A46FBDC8-6877-4C79-877E-ED8C074B4115}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA5B4ED8-6705-4FF0-A543-02D4A5793510}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$323</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$332</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="79">
   <si>
     <t>season</t>
   </si>
@@ -659,10 +659,10 @@
   <dimension ref="A1:AP332"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J305" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J318" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J328" sqref="J328"/>
+      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33568,7 +33568,7 @@
         <v>31</v>
       </c>
       <c r="L316">
-        <f t="shared" ref="L316:L329" si="6">SUM(O316:V316)</f>
+        <f t="shared" ref="L316:L332" si="6">SUM(O316:V316)</f>
         <v>32</v>
       </c>
       <c r="M316">
@@ -35017,16 +35017,325 @@
       </c>
     </row>
     <row r="330" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B330" s="5"/>
+      <c r="A330">
+        <v>2025</v>
+      </c>
+      <c r="B330" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C330">
+        <v>13</v>
+      </c>
+      <c r="D330" t="s">
+        <v>76</v>
+      </c>
+      <c r="E330" t="str">
+        <f>VLOOKUP(D330,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F330" t="s">
+        <v>12</v>
+      </c>
+      <c r="G330">
+        <v>5</v>
+      </c>
+      <c r="H330">
+        <v>0</v>
+      </c>
+      <c r="I330">
+        <v>2</v>
+      </c>
+      <c r="J330" t="s">
+        <v>36</v>
+      </c>
+      <c r="K330" t="s">
+        <v>31</v>
+      </c>
+      <c r="L330">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="M330">
+        <v>6</v>
+      </c>
+      <c r="N330">
+        <v>4</v>
+      </c>
+      <c r="O330">
+        <v>6</v>
+      </c>
+      <c r="P330">
+        <v>10</v>
+      </c>
+      <c r="Q330">
+        <v>5</v>
+      </c>
+      <c r="R330">
+        <v>5</v>
+      </c>
+      <c r="S330">
+        <v>0</v>
+      </c>
+      <c r="T330">
+        <v>2</v>
+      </c>
+      <c r="U330">
+        <v>0</v>
+      </c>
+      <c r="V330">
+        <v>2</v>
+      </c>
+      <c r="W330">
+        <v>0</v>
+      </c>
+      <c r="X330">
+        <v>0</v>
+      </c>
+      <c r="Y330">
+        <v>0</v>
+      </c>
+      <c r="Z330">
+        <v>0</v>
+      </c>
+      <c r="AA330">
+        <v>0</v>
+      </c>
+      <c r="AB330">
+        <v>0</v>
+      </c>
+      <c r="AC330">
+        <v>0</v>
+      </c>
+      <c r="AD330">
+        <v>0</v>
+      </c>
+      <c r="AE330">
+        <v>1</v>
+      </c>
+      <c r="AF330">
+        <v>0</v>
+      </c>
+      <c r="AG330">
+        <v>0</v>
+      </c>
+      <c r="AH330">
+        <v>0</v>
+      </c>
     </row>
     <row r="331" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B331" s="5"/>
+      <c r="A331">
+        <v>2025</v>
+      </c>
+      <c r="B331" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C331">
+        <v>13</v>
+      </c>
+      <c r="D331" t="s">
+        <v>76</v>
+      </c>
+      <c r="E331" t="str">
+        <f>VLOOKUP(D331,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F331" t="s">
+        <v>13</v>
+      </c>
+      <c r="G331">
+        <v>4</v>
+      </c>
+      <c r="H331">
+        <v>0</v>
+      </c>
+      <c r="I331">
+        <v>3</v>
+      </c>
+      <c r="J331" t="s">
+        <v>32</v>
+      </c>
+      <c r="K331" t="s">
+        <v>31</v>
+      </c>
+      <c r="L331">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="M331">
+        <v>5</v>
+      </c>
+      <c r="N331">
+        <v>4</v>
+      </c>
+      <c r="O331">
+        <v>7</v>
+      </c>
+      <c r="P331">
+        <v>9</v>
+      </c>
+      <c r="Q331">
+        <v>2</v>
+      </c>
+      <c r="R331">
+        <v>8</v>
+      </c>
+      <c r="S331">
+        <v>0</v>
+      </c>
+      <c r="T331">
+        <v>3</v>
+      </c>
+      <c r="U331">
+        <v>0</v>
+      </c>
+      <c r="V331">
+        <v>2</v>
+      </c>
+      <c r="W331">
+        <v>0</v>
+      </c>
+      <c r="X331">
+        <v>0</v>
+      </c>
+      <c r="Y331">
+        <v>0</v>
+      </c>
+      <c r="Z331">
+        <v>0</v>
+      </c>
+      <c r="AA331">
+        <v>0</v>
+      </c>
+      <c r="AB331">
+        <v>0</v>
+      </c>
+      <c r="AC331">
+        <v>0</v>
+      </c>
+      <c r="AD331">
+        <v>0</v>
+      </c>
+      <c r="AE331">
+        <v>1</v>
+      </c>
+      <c r="AF331">
+        <v>0</v>
+      </c>
+      <c r="AG331">
+        <v>0</v>
+      </c>
+      <c r="AH331">
+        <v>0</v>
+      </c>
     </row>
     <row r="332" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B332" s="5"/>
+      <c r="A332">
+        <v>2025</v>
+      </c>
+      <c r="B332" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C332">
+        <v>13</v>
+      </c>
+      <c r="D332" t="s">
+        <v>76</v>
+      </c>
+      <c r="E332" t="str">
+        <f>VLOOKUP(D332,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F332" t="s">
+        <v>11</v>
+      </c>
+      <c r="G332">
+        <v>13</v>
+      </c>
+      <c r="H332">
+        <v>7</v>
+      </c>
+      <c r="I332">
+        <v>1</v>
+      </c>
+      <c r="J332" t="s">
+        <v>37</v>
+      </c>
+      <c r="K332" t="s">
+        <v>31</v>
+      </c>
+      <c r="L332">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="M332">
+        <v>6</v>
+      </c>
+      <c r="N332">
+        <v>4</v>
+      </c>
+      <c r="O332">
+        <v>5</v>
+      </c>
+      <c r="P332">
+        <v>0</v>
+      </c>
+      <c r="Q332">
+        <v>3</v>
+      </c>
+      <c r="R332">
+        <v>4</v>
+      </c>
+      <c r="S332">
+        <v>10</v>
+      </c>
+      <c r="T332">
+        <v>5</v>
+      </c>
+      <c r="U332">
+        <v>4</v>
+      </c>
+      <c r="V332">
+        <v>3</v>
+      </c>
+      <c r="W332">
+        <v>0</v>
+      </c>
+      <c r="X332">
+        <v>0</v>
+      </c>
+      <c r="Y332">
+        <v>0</v>
+      </c>
+      <c r="Z332">
+        <v>0</v>
+      </c>
+      <c r="AA332">
+        <v>0</v>
+      </c>
+      <c r="AB332">
+        <v>0</v>
+      </c>
+      <c r="AC332">
+        <v>0</v>
+      </c>
+      <c r="AD332">
+        <v>1</v>
+      </c>
+      <c r="AE332">
+        <v>0</v>
+      </c>
+      <c r="AF332">
+        <v>1</v>
+      </c>
+      <c r="AG332">
+        <v>0</v>
+      </c>
+      <c r="AH332">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AP323" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
+  <autoFilter ref="A2:AP332" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W177:Z223 W225:Z299 W301:Z302 W304:Z1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88b1f18c208c1b3c/Documents/CatanData/catan_data/catan_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA5B4ED8-6705-4FF0-A543-02D4A5793510}"/>
+  <xr:revisionPtr revIDLastSave="296" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AC35B4B-E1B9-45EE-9562-4E8285B979A7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$332</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$335</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="79">
   <si>
     <t>season</t>
   </si>
@@ -656,13 +656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP332"/>
+  <dimension ref="A1:AP335"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J318" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J319" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
+      <selection pane="bottomRight" activeCell="J334" sqref="J334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33568,7 +33568,7 @@
         <v>31</v>
       </c>
       <c r="L316">
-        <f t="shared" ref="L316:L332" si="6">SUM(O316:V316)</f>
+        <f t="shared" ref="L316:L335" si="6">SUM(O316:V316)</f>
         <v>32</v>
       </c>
       <c r="M316">
@@ -35334,8 +35334,326 @@
         <v>1</v>
       </c>
     </row>
+    <row r="333" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>2025</v>
+      </c>
+      <c r="B333" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C333">
+        <v>14</v>
+      </c>
+      <c r="D333" t="s">
+        <v>76</v>
+      </c>
+      <c r="E333" t="str">
+        <f>VLOOKUP(D333,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F333" t="s">
+        <v>13</v>
+      </c>
+      <c r="G333">
+        <v>5</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333">
+        <v>2</v>
+      </c>
+      <c r="J333" t="s">
+        <v>36</v>
+      </c>
+      <c r="K333" t="s">
+        <v>32</v>
+      </c>
+      <c r="L333">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="M333">
+        <v>5</v>
+      </c>
+      <c r="N333">
+        <v>5</v>
+      </c>
+      <c r="O333">
+        <v>2</v>
+      </c>
+      <c r="P333">
+        <v>4</v>
+      </c>
+      <c r="Q333">
+        <v>5</v>
+      </c>
+      <c r="R333">
+        <v>5</v>
+      </c>
+      <c r="S333">
+        <v>4</v>
+      </c>
+      <c r="T333">
+        <v>2</v>
+      </c>
+      <c r="U333">
+        <v>0</v>
+      </c>
+      <c r="V333">
+        <v>5</v>
+      </c>
+      <c r="W333">
+        <v>0</v>
+      </c>
+      <c r="X333">
+        <v>0</v>
+      </c>
+      <c r="Y333">
+        <v>0</v>
+      </c>
+      <c r="Z333">
+        <v>1</v>
+      </c>
+      <c r="AA333">
+        <v>0</v>
+      </c>
+      <c r="AB333">
+        <v>0</v>
+      </c>
+      <c r="AC333">
+        <v>1</v>
+      </c>
+      <c r="AD333">
+        <v>0</v>
+      </c>
+      <c r="AE333">
+        <v>0</v>
+      </c>
+      <c r="AF333">
+        <v>0</v>
+      </c>
+      <c r="AG333">
+        <v>0</v>
+      </c>
+      <c r="AH333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>2025</v>
+      </c>
+      <c r="B334" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C334">
+        <v>14</v>
+      </c>
+      <c r="D334" t="s">
+        <v>76</v>
+      </c>
+      <c r="E334" t="str">
+        <f>VLOOKUP(D334,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F334" t="s">
+        <v>12</v>
+      </c>
+      <c r="G334">
+        <v>5</v>
+      </c>
+      <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="I334">
+        <v>3</v>
+      </c>
+      <c r="J334" t="s">
+        <v>32</v>
+      </c>
+      <c r="K334" t="s">
+        <v>32</v>
+      </c>
+      <c r="L334">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="M334">
+        <v>6</v>
+      </c>
+      <c r="N334">
+        <v>4</v>
+      </c>
+      <c r="O334">
+        <v>5</v>
+      </c>
+      <c r="P334">
+        <v>14</v>
+      </c>
+      <c r="Q334">
+        <v>5</v>
+      </c>
+      <c r="R334">
+        <v>4</v>
+      </c>
+      <c r="S334">
+        <v>0</v>
+      </c>
+      <c r="T334">
+        <v>0</v>
+      </c>
+      <c r="U334">
+        <v>0</v>
+      </c>
+      <c r="V334">
+        <v>2</v>
+      </c>
+      <c r="W334">
+        <v>0</v>
+      </c>
+      <c r="X334">
+        <v>0</v>
+      </c>
+      <c r="Y334">
+        <v>0</v>
+      </c>
+      <c r="Z334">
+        <v>0</v>
+      </c>
+      <c r="AA334">
+        <v>0</v>
+      </c>
+      <c r="AB334">
+        <v>0</v>
+      </c>
+      <c r="AC334">
+        <v>0</v>
+      </c>
+      <c r="AD334">
+        <v>0</v>
+      </c>
+      <c r="AE334">
+        <v>1</v>
+      </c>
+      <c r="AF334">
+        <v>0</v>
+      </c>
+      <c r="AG334">
+        <v>0</v>
+      </c>
+      <c r="AH334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>2025</v>
+      </c>
+      <c r="B335" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C335">
+        <v>14</v>
+      </c>
+      <c r="D335" t="s">
+        <v>76</v>
+      </c>
+      <c r="E335" t="str">
+        <f>VLOOKUP(D335,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F335" t="s">
+        <v>11</v>
+      </c>
+      <c r="G335">
+        <v>13</v>
+      </c>
+      <c r="H335">
+        <v>7</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+      <c r="J335" t="s">
+        <v>37</v>
+      </c>
+      <c r="K335" t="s">
+        <v>32</v>
+      </c>
+      <c r="L335">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="M335">
+        <v>6</v>
+      </c>
+      <c r="N335">
+        <v>4</v>
+      </c>
+      <c r="O335">
+        <v>5</v>
+      </c>
+      <c r="P335">
+        <v>11</v>
+      </c>
+      <c r="Q335">
+        <v>5</v>
+      </c>
+      <c r="R335">
+        <v>0</v>
+      </c>
+      <c r="S335">
+        <v>5</v>
+      </c>
+      <c r="T335">
+        <v>3</v>
+      </c>
+      <c r="U335">
+        <v>0</v>
+      </c>
+      <c r="V335">
+        <v>5</v>
+      </c>
+      <c r="W335">
+        <v>0</v>
+      </c>
+      <c r="X335">
+        <v>0</v>
+      </c>
+      <c r="Y335">
+        <v>0</v>
+      </c>
+      <c r="Z335">
+        <v>0</v>
+      </c>
+      <c r="AA335">
+        <v>0</v>
+      </c>
+      <c r="AB335">
+        <v>0</v>
+      </c>
+      <c r="AC335">
+        <v>0</v>
+      </c>
+      <c r="AD335">
+        <v>0</v>
+      </c>
+      <c r="AE335">
+        <v>0</v>
+      </c>
+      <c r="AF335">
+        <v>1</v>
+      </c>
+      <c r="AG335">
+        <v>1</v>
+      </c>
+      <c r="AH335">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AP332" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
+  <autoFilter ref="A2:AP335" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W177:Z223 W225:Z299 W301:Z302 W304:Z1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88b1f18c208c1b3c/Documents/CatanData/catan_data/catan_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="296" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AC35B4B-E1B9-45EE-9562-4E8285B979A7}"/>
+  <xr:revisionPtr revIDLastSave="386" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2B221B6-0775-469C-8010-9686675E65C8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="79">
   <si>
     <t>season</t>
   </si>
@@ -656,13 +656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP335"/>
+  <dimension ref="A1:AP338"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J319" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J334" sqref="J334"/>
+      <selection pane="bottomRight" activeCell="I336" sqref="I336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33568,7 +33568,7 @@
         <v>31</v>
       </c>
       <c r="L316">
-        <f t="shared" ref="L316:L335" si="6">SUM(O316:V316)</f>
+        <f t="shared" ref="L316:L338" si="6">SUM(O316:V316)</f>
         <v>32</v>
       </c>
       <c r="M316">
@@ -35649,6 +35649,324 @@
         <v>1</v>
       </c>
       <c r="AH335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>2025</v>
+      </c>
+      <c r="B336" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C336">
+        <v>15</v>
+      </c>
+      <c r="D336" t="s">
+        <v>76</v>
+      </c>
+      <c r="E336" t="str">
+        <f>VLOOKUP(D336,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F336" t="s">
+        <v>11</v>
+      </c>
+      <c r="G336">
+        <v>13</v>
+      </c>
+      <c r="H336">
+        <v>6</v>
+      </c>
+      <c r="I336">
+        <v>1</v>
+      </c>
+      <c r="J336" t="s">
+        <v>36</v>
+      </c>
+      <c r="K336" t="s">
+        <v>31</v>
+      </c>
+      <c r="L336">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="M336">
+        <v>6</v>
+      </c>
+      <c r="N336">
+        <v>4</v>
+      </c>
+      <c r="O336">
+        <v>0</v>
+      </c>
+      <c r="P336">
+        <v>10</v>
+      </c>
+      <c r="Q336">
+        <v>8</v>
+      </c>
+      <c r="R336">
+        <v>8</v>
+      </c>
+      <c r="S336">
+        <v>4</v>
+      </c>
+      <c r="T336">
+        <v>0</v>
+      </c>
+      <c r="U336">
+        <v>0</v>
+      </c>
+      <c r="V336">
+        <v>3</v>
+      </c>
+      <c r="W336">
+        <v>0</v>
+      </c>
+      <c r="X336">
+        <v>0</v>
+      </c>
+      <c r="Y336">
+        <v>0</v>
+      </c>
+      <c r="Z336">
+        <v>0</v>
+      </c>
+      <c r="AA336">
+        <v>0</v>
+      </c>
+      <c r="AB336">
+        <v>0</v>
+      </c>
+      <c r="AC336">
+        <v>0</v>
+      </c>
+      <c r="AD336">
+        <v>0</v>
+      </c>
+      <c r="AE336">
+        <v>0</v>
+      </c>
+      <c r="AF336">
+        <v>0</v>
+      </c>
+      <c r="AG336">
+        <v>1</v>
+      </c>
+      <c r="AH336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>2025</v>
+      </c>
+      <c r="B337" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C337">
+        <v>15</v>
+      </c>
+      <c r="D337" t="s">
+        <v>76</v>
+      </c>
+      <c r="E337" t="str">
+        <f>VLOOKUP(D337,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F337" t="s">
+        <v>12</v>
+      </c>
+      <c r="G337">
+        <v>10</v>
+      </c>
+      <c r="H337">
+        <v>2</v>
+      </c>
+      <c r="I337">
+        <v>2</v>
+      </c>
+      <c r="J337" t="s">
+        <v>32</v>
+      </c>
+      <c r="K337" t="s">
+        <v>31</v>
+      </c>
+      <c r="L337">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="M337">
+        <v>5</v>
+      </c>
+      <c r="N337">
+        <v>4</v>
+      </c>
+      <c r="O337">
+        <v>2</v>
+      </c>
+      <c r="P337">
+        <v>15</v>
+      </c>
+      <c r="Q337">
+        <v>3</v>
+      </c>
+      <c r="R337">
+        <v>8</v>
+      </c>
+      <c r="S337">
+        <v>0</v>
+      </c>
+      <c r="T337">
+        <v>2</v>
+      </c>
+      <c r="U337">
+        <v>0</v>
+      </c>
+      <c r="V337">
+        <v>0</v>
+      </c>
+      <c r="W337">
+        <v>0</v>
+      </c>
+      <c r="X337">
+        <v>0</v>
+      </c>
+      <c r="Y337">
+        <v>0</v>
+      </c>
+      <c r="Z337">
+        <v>0</v>
+      </c>
+      <c r="AA337">
+        <v>0</v>
+      </c>
+      <c r="AB337">
+        <v>0</v>
+      </c>
+      <c r="AC337">
+        <v>0</v>
+      </c>
+      <c r="AD337">
+        <v>1</v>
+      </c>
+      <c r="AE337">
+        <v>0</v>
+      </c>
+      <c r="AF337">
+        <v>0</v>
+      </c>
+      <c r="AG337">
+        <v>0</v>
+      </c>
+      <c r="AH337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>2025</v>
+      </c>
+      <c r="B338" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C338">
+        <v>15</v>
+      </c>
+      <c r="D338" t="s">
+        <v>76</v>
+      </c>
+      <c r="E338" t="str">
+        <f>VLOOKUP(D338,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F338" t="s">
+        <v>13</v>
+      </c>
+      <c r="G338">
+        <v>9</v>
+      </c>
+      <c r="H338">
+        <v>1</v>
+      </c>
+      <c r="I338">
+        <v>3</v>
+      </c>
+      <c r="J338" t="s">
+        <v>37</v>
+      </c>
+      <c r="K338" t="s">
+        <v>31</v>
+      </c>
+      <c r="L338">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="M338">
+        <v>5</v>
+      </c>
+      <c r="N338">
+        <v>4</v>
+      </c>
+      <c r="O338">
+        <v>4</v>
+      </c>
+      <c r="P338">
+        <v>3</v>
+      </c>
+      <c r="Q338">
+        <v>0</v>
+      </c>
+      <c r="R338">
+        <v>15</v>
+      </c>
+      <c r="S338">
+        <v>4</v>
+      </c>
+      <c r="T338">
+        <v>2</v>
+      </c>
+      <c r="U338">
+        <v>4</v>
+      </c>
+      <c r="V338">
+        <v>0</v>
+      </c>
+      <c r="W338">
+        <v>0</v>
+      </c>
+      <c r="X338">
+        <v>0</v>
+      </c>
+      <c r="Y338">
+        <v>0</v>
+      </c>
+      <c r="Z338">
+        <v>0</v>
+      </c>
+      <c r="AA338">
+        <v>0</v>
+      </c>
+      <c r="AB338">
+        <v>0</v>
+      </c>
+      <c r="AC338">
+        <v>0</v>
+      </c>
+      <c r="AD338">
+        <v>0</v>
+      </c>
+      <c r="AE338">
+        <v>0</v>
+      </c>
+      <c r="AF338">
+        <v>0</v>
+      </c>
+      <c r="AG338">
+        <v>0</v>
+      </c>
+      <c r="AH338">
         <v>1</v>
       </c>
     </row>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88b1f18c208c1b3c/Documents/CatanData/catan_data/catan_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="386" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2B221B6-0775-469C-8010-9686675E65C8}"/>
+  <xr:revisionPtr revIDLastSave="481" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E30F8FC-0611-4F4C-B762-47FF9DEC2836}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$335</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$341</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="79">
   <si>
     <t>season</t>
   </si>
@@ -656,13 +656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP338"/>
+  <dimension ref="A1:AP341"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J319" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J320" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I336" sqref="I336"/>
+      <selection pane="bottomRight" activeCell="I340" sqref="I340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33568,7 +33568,7 @@
         <v>31</v>
       </c>
       <c r="L316">
-        <f t="shared" ref="L316:L338" si="6">SUM(O316:V316)</f>
+        <f t="shared" ref="L316:L341" si="6">SUM(O316:V316)</f>
         <v>32</v>
       </c>
       <c r="M316">
@@ -35970,8 +35970,326 @@
         <v>1</v>
       </c>
     </row>
+    <row r="339" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>2025</v>
+      </c>
+      <c r="B339" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C339">
+        <v>16</v>
+      </c>
+      <c r="D339" t="s">
+        <v>76</v>
+      </c>
+      <c r="E339" t="str">
+        <f>VLOOKUP(D339,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F339" t="s">
+        <v>13</v>
+      </c>
+      <c r="G339">
+        <v>5</v>
+      </c>
+      <c r="H339">
+        <v>0</v>
+      </c>
+      <c r="I339">
+        <v>3</v>
+      </c>
+      <c r="J339" t="s">
+        <v>36</v>
+      </c>
+      <c r="K339" t="s">
+        <v>31</v>
+      </c>
+      <c r="L339">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="M339">
+        <v>6</v>
+      </c>
+      <c r="N339">
+        <v>4</v>
+      </c>
+      <c r="O339">
+        <v>5</v>
+      </c>
+      <c r="P339">
+        <v>2</v>
+      </c>
+      <c r="Q339">
+        <v>0</v>
+      </c>
+      <c r="R339">
+        <v>14</v>
+      </c>
+      <c r="S339">
+        <v>7</v>
+      </c>
+      <c r="T339">
+        <v>0</v>
+      </c>
+      <c r="U339">
+        <v>3</v>
+      </c>
+      <c r="V339">
+        <v>0</v>
+      </c>
+      <c r="W339">
+        <v>0</v>
+      </c>
+      <c r="X339">
+        <v>0</v>
+      </c>
+      <c r="Y339">
+        <v>0</v>
+      </c>
+      <c r="Z339">
+        <v>0</v>
+      </c>
+      <c r="AA339">
+        <v>0</v>
+      </c>
+      <c r="AB339">
+        <v>0</v>
+      </c>
+      <c r="AC339">
+        <v>0</v>
+      </c>
+      <c r="AD339">
+        <v>0</v>
+      </c>
+      <c r="AE339">
+        <v>0</v>
+      </c>
+      <c r="AF339">
+        <v>0</v>
+      </c>
+      <c r="AG339">
+        <v>0</v>
+      </c>
+      <c r="AH339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>2025</v>
+      </c>
+      <c r="B340" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C340">
+        <v>16</v>
+      </c>
+      <c r="D340" t="s">
+        <v>76</v>
+      </c>
+      <c r="E340" t="str">
+        <f>VLOOKUP(D340,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F340" t="s">
+        <v>11</v>
+      </c>
+      <c r="G340">
+        <v>13</v>
+      </c>
+      <c r="H340">
+        <v>6</v>
+      </c>
+      <c r="I340">
+        <v>1</v>
+      </c>
+      <c r="J340" t="s">
+        <v>32</v>
+      </c>
+      <c r="K340" t="s">
+        <v>31</v>
+      </c>
+      <c r="L340">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="M340">
+        <v>5</v>
+      </c>
+      <c r="N340">
+        <v>4</v>
+      </c>
+      <c r="O340">
+        <v>3</v>
+      </c>
+      <c r="P340">
+        <v>4</v>
+      </c>
+      <c r="Q340">
+        <v>7</v>
+      </c>
+      <c r="R340">
+        <v>5</v>
+      </c>
+      <c r="S340">
+        <v>0</v>
+      </c>
+      <c r="T340">
+        <v>0</v>
+      </c>
+      <c r="U340">
+        <v>0</v>
+      </c>
+      <c r="V340">
+        <v>7</v>
+      </c>
+      <c r="W340">
+        <v>0</v>
+      </c>
+      <c r="X340">
+        <v>0</v>
+      </c>
+      <c r="Y340">
+        <v>1</v>
+      </c>
+      <c r="Z340">
+        <v>0</v>
+      </c>
+      <c r="AA340">
+        <v>0</v>
+      </c>
+      <c r="AB340">
+        <v>0</v>
+      </c>
+      <c r="AC340">
+        <v>0</v>
+      </c>
+      <c r="AD340">
+        <v>0</v>
+      </c>
+      <c r="AE340">
+        <v>0</v>
+      </c>
+      <c r="AF340">
+        <v>0</v>
+      </c>
+      <c r="AG340">
+        <v>0</v>
+      </c>
+      <c r="AH340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>2025</v>
+      </c>
+      <c r="B341" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C341">
+        <v>16</v>
+      </c>
+      <c r="D341" t="s">
+        <v>76</v>
+      </c>
+      <c r="E341" t="str">
+        <f>VLOOKUP(D341,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F341" t="s">
+        <v>12</v>
+      </c>
+      <c r="G341">
+        <v>5</v>
+      </c>
+      <c r="H341">
+        <v>2</v>
+      </c>
+      <c r="I341">
+        <v>2</v>
+      </c>
+      <c r="J341" t="s">
+        <v>37</v>
+      </c>
+      <c r="K341" t="s">
+        <v>31</v>
+      </c>
+      <c r="L341">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="M341">
+        <v>4</v>
+      </c>
+      <c r="N341">
+        <v>4</v>
+      </c>
+      <c r="O341">
+        <v>7</v>
+      </c>
+      <c r="P341">
+        <v>0</v>
+      </c>
+      <c r="Q341">
+        <v>8</v>
+      </c>
+      <c r="R341">
+        <v>5</v>
+      </c>
+      <c r="S341">
+        <v>4</v>
+      </c>
+      <c r="T341">
+        <v>3</v>
+      </c>
+      <c r="U341">
+        <v>4</v>
+      </c>
+      <c r="V341">
+        <v>5</v>
+      </c>
+      <c r="W341">
+        <v>0</v>
+      </c>
+      <c r="X341">
+        <v>0</v>
+      </c>
+      <c r="Y341">
+        <v>0</v>
+      </c>
+      <c r="Z341">
+        <v>0</v>
+      </c>
+      <c r="AA341">
+        <v>0</v>
+      </c>
+      <c r="AB341">
+        <v>0</v>
+      </c>
+      <c r="AC341">
+        <v>0</v>
+      </c>
+      <c r="AD341">
+        <v>0</v>
+      </c>
+      <c r="AE341">
+        <v>1</v>
+      </c>
+      <c r="AF341">
+        <v>0</v>
+      </c>
+      <c r="AG341">
+        <v>0</v>
+      </c>
+      <c r="AH341">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AP335" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
+  <autoFilter ref="A2:AP341" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W177:Z223 W225:Z299 W301:Z302 W304:Z1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88b1f18c208c1b3c/Documents/CatanData/catan_data/catan_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="481" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E30F8FC-0611-4F4C-B762-47FF9DEC2836}"/>
+  <xr:revisionPtr revIDLastSave="677" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D341DAE2-D787-441D-9BEA-3024F19E70BB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$341</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$347</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="79">
   <si>
     <t>season</t>
   </si>
@@ -656,13 +656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP341"/>
+  <dimension ref="A1:AP347"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J320" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I340" sqref="I340"/>
+      <selection pane="bottomRight" activeCell="J329" sqref="J329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33568,7 +33568,7 @@
         <v>31</v>
       </c>
       <c r="L316">
-        <f t="shared" ref="L316:L341" si="6">SUM(O316:V316)</f>
+        <f t="shared" ref="L316:L347" si="6">SUM(O316:V316)</f>
         <v>32</v>
       </c>
       <c r="M316">
@@ -36288,8 +36288,644 @@
         <v>0</v>
       </c>
     </row>
+    <row r="342" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>2025</v>
+      </c>
+      <c r="B342" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C342">
+        <v>17</v>
+      </c>
+      <c r="D342" t="s">
+        <v>76</v>
+      </c>
+      <c r="E342" t="str">
+        <f>VLOOKUP(D342,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F342" t="s">
+        <v>12</v>
+      </c>
+      <c r="G342">
+        <v>7</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="I342">
+        <v>3</v>
+      </c>
+      <c r="J342" t="s">
+        <v>36</v>
+      </c>
+      <c r="K342" t="s">
+        <v>33</v>
+      </c>
+      <c r="L342">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="M342">
+        <v>6</v>
+      </c>
+      <c r="N342">
+        <v>4</v>
+      </c>
+      <c r="O342">
+        <v>7</v>
+      </c>
+      <c r="P342">
+        <v>10</v>
+      </c>
+      <c r="Q342">
+        <v>0</v>
+      </c>
+      <c r="R342">
+        <v>7</v>
+      </c>
+      <c r="S342">
+        <v>3</v>
+      </c>
+      <c r="T342">
+        <v>2</v>
+      </c>
+      <c r="U342">
+        <v>3</v>
+      </c>
+      <c r="V342">
+        <v>0</v>
+      </c>
+      <c r="W342">
+        <v>0</v>
+      </c>
+      <c r="X342">
+        <v>0</v>
+      </c>
+      <c r="Y342">
+        <v>0</v>
+      </c>
+      <c r="Z342">
+        <v>0</v>
+      </c>
+      <c r="AA342">
+        <v>0</v>
+      </c>
+      <c r="AB342">
+        <v>0</v>
+      </c>
+      <c r="AC342">
+        <v>0</v>
+      </c>
+      <c r="AD342">
+        <v>0</v>
+      </c>
+      <c r="AE342">
+        <v>0</v>
+      </c>
+      <c r="AF342">
+        <v>1</v>
+      </c>
+      <c r="AG342">
+        <v>0</v>
+      </c>
+      <c r="AH342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>2025</v>
+      </c>
+      <c r="B343" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C343">
+        <v>17</v>
+      </c>
+      <c r="D343" t="s">
+        <v>76</v>
+      </c>
+      <c r="E343" t="str">
+        <f>VLOOKUP(D343,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F343" t="s">
+        <v>13</v>
+      </c>
+      <c r="G343">
+        <v>10</v>
+      </c>
+      <c r="H343">
+        <v>2</v>
+      </c>
+      <c r="I343">
+        <v>2</v>
+      </c>
+      <c r="J343" t="s">
+        <v>32</v>
+      </c>
+      <c r="K343" t="s">
+        <v>33</v>
+      </c>
+      <c r="L343">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="M343">
+        <v>5</v>
+      </c>
+      <c r="N343">
+        <v>5</v>
+      </c>
+      <c r="O343">
+        <v>3</v>
+      </c>
+      <c r="P343">
+        <v>10</v>
+      </c>
+      <c r="Q343">
+        <v>4</v>
+      </c>
+      <c r="R343">
+        <v>4</v>
+      </c>
+      <c r="S343">
+        <v>5</v>
+      </c>
+      <c r="T343">
+        <v>3</v>
+      </c>
+      <c r="U343">
+        <v>0</v>
+      </c>
+      <c r="V343">
+        <v>2</v>
+      </c>
+      <c r="W343">
+        <v>0</v>
+      </c>
+      <c r="X343">
+        <v>0</v>
+      </c>
+      <c r="Y343">
+        <v>0</v>
+      </c>
+      <c r="Z343">
+        <v>0</v>
+      </c>
+      <c r="AA343">
+        <v>0</v>
+      </c>
+      <c r="AB343">
+        <v>0</v>
+      </c>
+      <c r="AC343">
+        <v>0</v>
+      </c>
+      <c r="AD343">
+        <v>0</v>
+      </c>
+      <c r="AE343">
+        <v>0</v>
+      </c>
+      <c r="AF343">
+        <v>0</v>
+      </c>
+      <c r="AG343">
+        <v>1</v>
+      </c>
+      <c r="AH343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>2025</v>
+      </c>
+      <c r="B344" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C344">
+        <v>17</v>
+      </c>
+      <c r="D344" t="s">
+        <v>76</v>
+      </c>
+      <c r="E344" t="str">
+        <f>VLOOKUP(D344,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F344" t="s">
+        <v>11</v>
+      </c>
+      <c r="G344">
+        <v>13</v>
+      </c>
+      <c r="H344">
+        <v>6</v>
+      </c>
+      <c r="I344">
+        <v>1</v>
+      </c>
+      <c r="J344" t="s">
+        <v>37</v>
+      </c>
+      <c r="K344" t="s">
+        <v>33</v>
+      </c>
+      <c r="L344">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="M344">
+        <v>5</v>
+      </c>
+      <c r="N344">
+        <v>5</v>
+      </c>
+      <c r="O344">
+        <v>5</v>
+      </c>
+      <c r="P344">
+        <v>4</v>
+      </c>
+      <c r="Q344">
+        <v>5</v>
+      </c>
+      <c r="R344">
+        <v>3</v>
+      </c>
+      <c r="S344">
+        <v>4</v>
+      </c>
+      <c r="T344">
+        <v>5</v>
+      </c>
+      <c r="U344">
+        <v>0</v>
+      </c>
+      <c r="V344">
+        <v>5</v>
+      </c>
+      <c r="W344">
+        <v>0</v>
+      </c>
+      <c r="X344">
+        <v>0</v>
+      </c>
+      <c r="Y344">
+        <v>0</v>
+      </c>
+      <c r="Z344">
+        <v>0</v>
+      </c>
+      <c r="AA344">
+        <v>0</v>
+      </c>
+      <c r="AB344">
+        <v>0</v>
+      </c>
+      <c r="AC344">
+        <v>0</v>
+      </c>
+      <c r="AD344">
+        <v>0</v>
+      </c>
+      <c r="AE344">
+        <v>1</v>
+      </c>
+      <c r="AF344">
+        <v>0</v>
+      </c>
+      <c r="AG344">
+        <v>0</v>
+      </c>
+      <c r="AH344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>2025</v>
+      </c>
+      <c r="B345" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C345">
+        <v>18</v>
+      </c>
+      <c r="D345" t="s">
+        <v>76</v>
+      </c>
+      <c r="E345" t="str">
+        <f>VLOOKUP(D345,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F345" t="s">
+        <v>11</v>
+      </c>
+      <c r="G345">
+        <v>7</v>
+      </c>
+      <c r="H345">
+        <v>0</v>
+      </c>
+      <c r="I345">
+        <v>2</v>
+      </c>
+      <c r="J345" t="s">
+        <v>36</v>
+      </c>
+      <c r="K345" t="s">
+        <v>31</v>
+      </c>
+      <c r="L345">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="M345">
+        <v>5</v>
+      </c>
+      <c r="N345">
+        <v>5</v>
+      </c>
+      <c r="O345">
+        <v>8</v>
+      </c>
+      <c r="P345">
+        <v>5</v>
+      </c>
+      <c r="Q345">
+        <v>2</v>
+      </c>
+      <c r="R345">
+        <v>3</v>
+      </c>
+      <c r="S345">
+        <v>5</v>
+      </c>
+      <c r="T345">
+        <v>4</v>
+      </c>
+      <c r="U345">
+        <v>5</v>
+      </c>
+      <c r="V345">
+        <v>2</v>
+      </c>
+      <c r="W345">
+        <v>0</v>
+      </c>
+      <c r="X345">
+        <v>0</v>
+      </c>
+      <c r="Y345">
+        <v>0</v>
+      </c>
+      <c r="Z345">
+        <v>0</v>
+      </c>
+      <c r="AA345">
+        <v>0</v>
+      </c>
+      <c r="AB345">
+        <v>0</v>
+      </c>
+      <c r="AC345">
+        <v>0</v>
+      </c>
+      <c r="AD345">
+        <v>0</v>
+      </c>
+      <c r="AE345">
+        <v>0</v>
+      </c>
+      <c r="AF345">
+        <v>0</v>
+      </c>
+      <c r="AG345">
+        <v>1</v>
+      </c>
+      <c r="AH345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <v>2025</v>
+      </c>
+      <c r="B346" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C346">
+        <v>18</v>
+      </c>
+      <c r="D346" t="s">
+        <v>76</v>
+      </c>
+      <c r="E346" t="str">
+        <f>VLOOKUP(D346,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F346" t="s">
+        <v>12</v>
+      </c>
+      <c r="G346">
+        <v>7</v>
+      </c>
+      <c r="H346">
+        <v>0</v>
+      </c>
+      <c r="I346">
+        <v>3</v>
+      </c>
+      <c r="J346" t="s">
+        <v>32</v>
+      </c>
+      <c r="K346" t="s">
+        <v>31</v>
+      </c>
+      <c r="L346">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="M346">
+        <v>5</v>
+      </c>
+      <c r="N346">
+        <v>5</v>
+      </c>
+      <c r="O346">
+        <v>3</v>
+      </c>
+      <c r="P346">
+        <v>8</v>
+      </c>
+      <c r="Q346">
+        <v>4</v>
+      </c>
+      <c r="R346">
+        <v>4</v>
+      </c>
+      <c r="S346">
+        <v>6</v>
+      </c>
+      <c r="T346">
+        <v>0</v>
+      </c>
+      <c r="U346">
+        <v>6</v>
+      </c>
+      <c r="V346">
+        <v>0</v>
+      </c>
+      <c r="W346">
+        <v>0</v>
+      </c>
+      <c r="X346">
+        <v>0</v>
+      </c>
+      <c r="Y346">
+        <v>0</v>
+      </c>
+      <c r="Z346">
+        <v>0</v>
+      </c>
+      <c r="AA346">
+        <v>0</v>
+      </c>
+      <c r="AB346">
+        <v>0</v>
+      </c>
+      <c r="AC346">
+        <v>1</v>
+      </c>
+      <c r="AD346">
+        <v>0</v>
+      </c>
+      <c r="AE346">
+        <v>1</v>
+      </c>
+      <c r="AF346">
+        <v>0</v>
+      </c>
+      <c r="AG346">
+        <v>0</v>
+      </c>
+      <c r="AH346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>2025</v>
+      </c>
+      <c r="B347" s="5">
+        <v>45849</v>
+      </c>
+      <c r="C347">
+        <v>18</v>
+      </c>
+      <c r="D347" t="s">
+        <v>76</v>
+      </c>
+      <c r="E347" t="str">
+        <f>VLOOKUP(D347,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>53.5953349871887, 9.982308366971944</v>
+      </c>
+      <c r="F347" t="s">
+        <v>13</v>
+      </c>
+      <c r="G347">
+        <v>14</v>
+      </c>
+      <c r="H347">
+        <v>8</v>
+      </c>
+      <c r="I347">
+        <v>1</v>
+      </c>
+      <c r="J347" t="s">
+        <v>37</v>
+      </c>
+      <c r="K347" t="s">
+        <v>31</v>
+      </c>
+      <c r="L347">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="M347">
+        <v>4</v>
+      </c>
+      <c r="N347">
+        <v>2</v>
+      </c>
+      <c r="O347">
+        <v>0</v>
+      </c>
+      <c r="P347">
+        <v>0</v>
+      </c>
+      <c r="Q347">
+        <v>0</v>
+      </c>
+      <c r="R347">
+        <v>29</v>
+      </c>
+      <c r="S347">
+        <v>2</v>
+      </c>
+      <c r="T347">
+        <v>0</v>
+      </c>
+      <c r="U347">
+        <v>0</v>
+      </c>
+      <c r="V347">
+        <v>0</v>
+      </c>
+      <c r="W347">
+        <v>0</v>
+      </c>
+      <c r="X347">
+        <v>0</v>
+      </c>
+      <c r="Y347">
+        <v>0</v>
+      </c>
+      <c r="Z347">
+        <v>1</v>
+      </c>
+      <c r="AA347">
+        <v>0</v>
+      </c>
+      <c r="AB347">
+        <v>0</v>
+      </c>
+      <c r="AC347">
+        <v>0</v>
+      </c>
+      <c r="AD347">
+        <v>0</v>
+      </c>
+      <c r="AE347">
+        <v>0</v>
+      </c>
+      <c r="AF347">
+        <v>0</v>
+      </c>
+      <c r="AG347">
+        <v>0</v>
+      </c>
+      <c r="AH347">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AP341" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
+  <autoFilter ref="A2:AP347" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W177:Z223 W225:Z299 W301:Z302 W304:Z1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88b1f18c208c1b3c/Documents/CatanData/catan_data/catan_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="677" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D341DAE2-D787-441D-9BEA-3024F19E70BB}"/>
+  <xr:revisionPtr revIDLastSave="679" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8A61EEE-D0F9-4E91-8F46-91912819DCA6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -662,7 +662,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J320" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J329" sqref="J329"/>
+      <selection pane="bottomRight" activeCell="I347" sqref="I347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36633,7 +36633,7 @@
         <v>0</v>
       </c>
       <c r="I345">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J345" t="s">
         <v>36</v>
@@ -36739,7 +36739,7 @@
         <v>0</v>
       </c>
       <c r="I346">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J346" t="s">
         <v>32</v>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88b1f18c208c1b3c/Documents/CatanData/catan_data/catan_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="679" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8A61EEE-D0F9-4E91-8F46-91912819DCA6}"/>
+  <xr:revisionPtr revIDLastSave="890" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67461FF0-2F7B-4F13-9660-638B0EDD057D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$347</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AP$350</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="79">
   <si>
     <t>season</t>
   </si>
@@ -355,10 +355,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
@@ -656,13 +652,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP347"/>
+  <dimension ref="A1:AP353"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J320" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J327" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I347" sqref="I347"/>
+      <selection pane="bottomRight" activeCell="F353" sqref="F353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33568,7 +33564,7 @@
         <v>31</v>
       </c>
       <c r="L316">
-        <f t="shared" ref="L316:L347" si="6">SUM(O316:V316)</f>
+        <f t="shared" ref="L316:L353" si="6">SUM(O316:V316)</f>
         <v>32</v>
       </c>
       <c r="M316">
@@ -36924,8 +36920,644 @@
         <v>0</v>
       </c>
     </row>
+    <row r="348" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>2025</v>
+      </c>
+      <c r="B348" s="5">
+        <v>45982</v>
+      </c>
+      <c r="C348">
+        <v>19</v>
+      </c>
+      <c r="D348" t="s">
+        <v>46</v>
+      </c>
+      <c r="E348" t="str">
+        <f>VLOOKUP(D348,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F348" t="s">
+        <v>12</v>
+      </c>
+      <c r="G348">
+        <v>8</v>
+      </c>
+      <c r="H348">
+        <v>2</v>
+      </c>
+      <c r="I348">
+        <v>2</v>
+      </c>
+      <c r="J348" t="s">
+        <v>36</v>
+      </c>
+      <c r="K348" t="s">
+        <v>31</v>
+      </c>
+      <c r="L348">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="M348">
+        <v>4</v>
+      </c>
+      <c r="N348">
+        <v>4</v>
+      </c>
+      <c r="O348">
+        <v>5</v>
+      </c>
+      <c r="P348">
+        <v>0</v>
+      </c>
+      <c r="Q348">
+        <v>5</v>
+      </c>
+      <c r="R348">
+        <v>17</v>
+      </c>
+      <c r="S348">
+        <v>3</v>
+      </c>
+      <c r="T348">
+        <v>0</v>
+      </c>
+      <c r="U348">
+        <v>5</v>
+      </c>
+      <c r="V348">
+        <v>0</v>
+      </c>
+      <c r="W348">
+        <v>0</v>
+      </c>
+      <c r="X348">
+        <v>0</v>
+      </c>
+      <c r="Y348">
+        <v>0</v>
+      </c>
+      <c r="Z348">
+        <v>0</v>
+      </c>
+      <c r="AA348">
+        <v>0</v>
+      </c>
+      <c r="AB348">
+        <v>0</v>
+      </c>
+      <c r="AC348">
+        <v>0</v>
+      </c>
+      <c r="AD348">
+        <v>0</v>
+      </c>
+      <c r="AE348">
+        <v>0</v>
+      </c>
+      <c r="AF348">
+        <v>0</v>
+      </c>
+      <c r="AG348">
+        <v>1</v>
+      </c>
+      <c r="AH348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>2025</v>
+      </c>
+      <c r="B349" s="5">
+        <v>45982</v>
+      </c>
+      <c r="C349">
+        <v>19</v>
+      </c>
+      <c r="D349" t="s">
+        <v>46</v>
+      </c>
+      <c r="E349" t="str">
+        <f>VLOOKUP(D349,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F349" t="s">
+        <v>13</v>
+      </c>
+      <c r="G349">
+        <v>6</v>
+      </c>
+      <c r="H349">
+        <v>0</v>
+      </c>
+      <c r="I349">
+        <v>3</v>
+      </c>
+      <c r="J349" t="s">
+        <v>32</v>
+      </c>
+      <c r="K349" t="s">
+        <v>31</v>
+      </c>
+      <c r="L349">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="M349">
+        <v>6</v>
+      </c>
+      <c r="N349">
+        <v>5</v>
+      </c>
+      <c r="O349">
+        <v>2</v>
+      </c>
+      <c r="P349">
+        <v>9</v>
+      </c>
+      <c r="Q349">
+        <v>4</v>
+      </c>
+      <c r="R349">
+        <v>4</v>
+      </c>
+      <c r="S349">
+        <v>3</v>
+      </c>
+      <c r="T349">
+        <v>0</v>
+      </c>
+      <c r="U349">
+        <v>3</v>
+      </c>
+      <c r="V349">
+        <v>4</v>
+      </c>
+      <c r="W349">
+        <v>0</v>
+      </c>
+      <c r="X349">
+        <v>0</v>
+      </c>
+      <c r="Y349">
+        <v>0</v>
+      </c>
+      <c r="Z349">
+        <v>0</v>
+      </c>
+      <c r="AA349">
+        <v>0</v>
+      </c>
+      <c r="AB349">
+        <v>0</v>
+      </c>
+      <c r="AC349">
+        <v>0</v>
+      </c>
+      <c r="AD349">
+        <v>0</v>
+      </c>
+      <c r="AE349">
+        <v>0</v>
+      </c>
+      <c r="AF349">
+        <v>0</v>
+      </c>
+      <c r="AG349">
+        <v>0</v>
+      </c>
+      <c r="AH349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>2025</v>
+      </c>
+      <c r="B350" s="5">
+        <v>45982</v>
+      </c>
+      <c r="C350">
+        <v>19</v>
+      </c>
+      <c r="D350" t="s">
+        <v>46</v>
+      </c>
+      <c r="E350" t="str">
+        <f>VLOOKUP(D350,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F350" t="s">
+        <v>11</v>
+      </c>
+      <c r="G350">
+        <v>14</v>
+      </c>
+      <c r="H350">
+        <v>8</v>
+      </c>
+      <c r="I350">
+        <v>1</v>
+      </c>
+      <c r="J350" t="s">
+        <v>37</v>
+      </c>
+      <c r="K350" t="s">
+        <v>31</v>
+      </c>
+      <c r="L350">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="M350">
+        <v>6</v>
+      </c>
+      <c r="N350">
+        <v>4</v>
+      </c>
+      <c r="O350">
+        <v>4</v>
+      </c>
+      <c r="P350">
+        <v>0</v>
+      </c>
+      <c r="Q350">
+        <v>9</v>
+      </c>
+      <c r="R350">
+        <v>3</v>
+      </c>
+      <c r="S350">
+        <v>5</v>
+      </c>
+      <c r="T350">
+        <v>0</v>
+      </c>
+      <c r="U350">
+        <v>5</v>
+      </c>
+      <c r="V350">
+        <v>5</v>
+      </c>
+      <c r="W350">
+        <v>0</v>
+      </c>
+      <c r="X350">
+        <v>0</v>
+      </c>
+      <c r="Y350">
+        <v>0</v>
+      </c>
+      <c r="Z350">
+        <v>0</v>
+      </c>
+      <c r="AA350">
+        <v>0</v>
+      </c>
+      <c r="AB350">
+        <v>0</v>
+      </c>
+      <c r="AC350">
+        <v>1</v>
+      </c>
+      <c r="AD350">
+        <v>0</v>
+      </c>
+      <c r="AE350">
+        <v>0</v>
+      </c>
+      <c r="AF350">
+        <v>1</v>
+      </c>
+      <c r="AG350">
+        <v>0</v>
+      </c>
+      <c r="AH350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>2025</v>
+      </c>
+      <c r="B351" s="5">
+        <v>45982</v>
+      </c>
+      <c r="C351">
+        <v>20</v>
+      </c>
+      <c r="D351" t="s">
+        <v>46</v>
+      </c>
+      <c r="E351" t="str">
+        <f>VLOOKUP(D351,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F351" t="s">
+        <v>13</v>
+      </c>
+      <c r="G351">
+        <v>5</v>
+      </c>
+      <c r="H351">
+        <v>0</v>
+      </c>
+      <c r="I351">
+        <v>3</v>
+      </c>
+      <c r="J351" t="s">
+        <v>36</v>
+      </c>
+      <c r="K351" t="s">
+        <v>31</v>
+      </c>
+      <c r="L351">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="M351">
+        <v>5</v>
+      </c>
+      <c r="N351">
+        <v>4</v>
+      </c>
+      <c r="O351">
+        <v>2</v>
+      </c>
+      <c r="P351">
+        <v>5</v>
+      </c>
+      <c r="Q351">
+        <v>6</v>
+      </c>
+      <c r="R351">
+        <v>18</v>
+      </c>
+      <c r="S351">
+        <v>0</v>
+      </c>
+      <c r="T351">
+        <v>0</v>
+      </c>
+      <c r="U351">
+        <v>0</v>
+      </c>
+      <c r="V351">
+        <v>2</v>
+      </c>
+      <c r="W351">
+        <v>0</v>
+      </c>
+      <c r="X351">
+        <v>0</v>
+      </c>
+      <c r="Y351">
+        <v>0</v>
+      </c>
+      <c r="Z351">
+        <v>0</v>
+      </c>
+      <c r="AA351">
+        <v>0</v>
+      </c>
+      <c r="AB351">
+        <v>0</v>
+      </c>
+      <c r="AC351">
+        <v>0</v>
+      </c>
+      <c r="AD351">
+        <v>0</v>
+      </c>
+      <c r="AE351">
+        <v>1</v>
+      </c>
+      <c r="AF351">
+        <v>0</v>
+      </c>
+      <c r="AG351">
+        <v>0</v>
+      </c>
+      <c r="AH351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>2025</v>
+      </c>
+      <c r="B352" s="5">
+        <v>45982</v>
+      </c>
+      <c r="C352">
+        <v>20</v>
+      </c>
+      <c r="D352" t="s">
+        <v>46</v>
+      </c>
+      <c r="E352" t="str">
+        <f>VLOOKUP(D352,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F352" t="s">
+        <v>12</v>
+      </c>
+      <c r="G352">
+        <v>9</v>
+      </c>
+      <c r="H352">
+        <v>3</v>
+      </c>
+      <c r="I352">
+        <v>2</v>
+      </c>
+      <c r="J352" t="s">
+        <v>32</v>
+      </c>
+      <c r="K352" t="s">
+        <v>31</v>
+      </c>
+      <c r="L352">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="M352">
+        <v>6</v>
+      </c>
+      <c r="N352">
+        <v>4</v>
+      </c>
+      <c r="O352">
+        <v>3</v>
+      </c>
+      <c r="P352">
+        <v>0</v>
+      </c>
+      <c r="Q352">
+        <v>2</v>
+      </c>
+      <c r="R352">
+        <v>10</v>
+      </c>
+      <c r="S352">
+        <v>9</v>
+      </c>
+      <c r="T352">
+        <v>0</v>
+      </c>
+      <c r="U352">
+        <v>5</v>
+      </c>
+      <c r="V352">
+        <v>2</v>
+      </c>
+      <c r="W352">
+        <v>0</v>
+      </c>
+      <c r="X352">
+        <v>0</v>
+      </c>
+      <c r="Y352">
+        <v>0</v>
+      </c>
+      <c r="Z352">
+        <v>0</v>
+      </c>
+      <c r="AA352">
+        <v>0</v>
+      </c>
+      <c r="AB352">
+        <v>0</v>
+      </c>
+      <c r="AC352">
+        <v>0</v>
+      </c>
+      <c r="AD352">
+        <v>0</v>
+      </c>
+      <c r="AE352">
+        <v>0</v>
+      </c>
+      <c r="AF352">
+        <v>0</v>
+      </c>
+      <c r="AG352">
+        <v>0</v>
+      </c>
+      <c r="AH352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>2025</v>
+      </c>
+      <c r="B353" s="5">
+        <v>45982</v>
+      </c>
+      <c r="C353">
+        <v>20</v>
+      </c>
+      <c r="D353" t="s">
+        <v>46</v>
+      </c>
+      <c r="E353" t="str">
+        <f>VLOOKUP(D353,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F353" t="s">
+        <v>11</v>
+      </c>
+      <c r="G353">
+        <v>13</v>
+      </c>
+      <c r="H353">
+        <v>6</v>
+      </c>
+      <c r="I353">
+        <v>1</v>
+      </c>
+      <c r="J353" t="s">
+        <v>37</v>
+      </c>
+      <c r="K353" t="s">
+        <v>31</v>
+      </c>
+      <c r="L353">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="M353">
+        <v>4</v>
+      </c>
+      <c r="N353">
+        <v>4</v>
+      </c>
+      <c r="O353">
+        <v>9</v>
+      </c>
+      <c r="P353">
+        <v>4</v>
+      </c>
+      <c r="Q353">
+        <v>3</v>
+      </c>
+      <c r="R353">
+        <v>0</v>
+      </c>
+      <c r="S353">
+        <v>9</v>
+      </c>
+      <c r="T353">
+        <v>9</v>
+      </c>
+      <c r="U353">
+        <v>0</v>
+      </c>
+      <c r="V353">
+        <v>3</v>
+      </c>
+      <c r="W353">
+        <v>0</v>
+      </c>
+      <c r="X353">
+        <v>0</v>
+      </c>
+      <c r="Y353">
+        <v>0</v>
+      </c>
+      <c r="Z353">
+        <v>0</v>
+      </c>
+      <c r="AA353">
+        <v>0</v>
+      </c>
+      <c r="AB353">
+        <v>0</v>
+      </c>
+      <c r="AC353">
+        <v>0</v>
+      </c>
+      <c r="AD353">
+        <v>0</v>
+      </c>
+      <c r="AE353">
+        <v>0</v>
+      </c>
+      <c r="AF353">
+        <v>0</v>
+      </c>
+      <c r="AG353">
+        <v>1</v>
+      </c>
+      <c r="AH353">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AP347" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
+  <autoFilter ref="A2:AP350" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}"/>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:AB8 W3:X41 Y9:Z41 W44:Z56 X58:Z116 X117:AB119 X120:Z122 X123:AB128 W58:W175 X129:Z175 W177:Z223 W225:Z299 W301:Z302 W304:Z1048576" xr:uid="{0D054DE4-3D8E-4484-9FF1-661236EA2207}">
       <formula1>0</formula1>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88b1f18c208c1b3c/Documents/CatanData/catan_data/catan_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="890" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67461FF0-2F7B-4F13-9660-638B0EDD057D}"/>
+  <xr:revisionPtr revIDLastSave="980" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{296E64F1-4200-4586-ADDC-D6A38B1564EF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="79">
   <si>
     <t>season</t>
   </si>
@@ -355,6 +355,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
@@ -652,13 +656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP353"/>
+  <dimension ref="A1:AP356"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J327" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J341" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F353" sqref="F353"/>
+      <selection pane="bottomRight" activeCell="J355" sqref="J355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33564,7 +33568,7 @@
         <v>31</v>
       </c>
       <c r="L316">
-        <f t="shared" ref="L316:L353" si="6">SUM(O316:V316)</f>
+        <f t="shared" ref="L316:L356" si="6">SUM(O316:V316)</f>
         <v>32</v>
       </c>
       <c r="M316">
@@ -37554,6 +37558,324 @@
       </c>
       <c r="AH353">
         <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>2025</v>
+      </c>
+      <c r="B354" s="5">
+        <v>45982</v>
+      </c>
+      <c r="C354">
+        <v>21</v>
+      </c>
+      <c r="D354" t="s">
+        <v>46</v>
+      </c>
+      <c r="E354" t="str">
+        <f>VLOOKUP(D354,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F354" t="s">
+        <v>11</v>
+      </c>
+      <c r="G354">
+        <v>13</v>
+      </c>
+      <c r="H354">
+        <v>5</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354" t="s">
+        <v>36</v>
+      </c>
+      <c r="K354" t="s">
+        <v>31</v>
+      </c>
+      <c r="L354">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="M354">
+        <v>5</v>
+      </c>
+      <c r="N354">
+        <v>3</v>
+      </c>
+      <c r="O354">
+        <v>0</v>
+      </c>
+      <c r="P354">
+        <v>0</v>
+      </c>
+      <c r="Q354">
+        <v>10</v>
+      </c>
+      <c r="R354">
+        <v>4</v>
+      </c>
+      <c r="S354">
+        <v>7</v>
+      </c>
+      <c r="T354">
+        <v>0</v>
+      </c>
+      <c r="U354">
+        <v>3</v>
+      </c>
+      <c r="V354">
+        <v>5</v>
+      </c>
+      <c r="W354">
+        <v>0</v>
+      </c>
+      <c r="X354">
+        <v>0</v>
+      </c>
+      <c r="Y354">
+        <v>0</v>
+      </c>
+      <c r="Z354">
+        <v>0</v>
+      </c>
+      <c r="AA354">
+        <v>0</v>
+      </c>
+      <c r="AB354">
+        <v>0</v>
+      </c>
+      <c r="AC354">
+        <v>0</v>
+      </c>
+      <c r="AD354">
+        <v>0</v>
+      </c>
+      <c r="AE354">
+        <v>0</v>
+      </c>
+      <c r="AF354">
+        <v>1</v>
+      </c>
+      <c r="AG354">
+        <v>0</v>
+      </c>
+      <c r="AH354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>2025</v>
+      </c>
+      <c r="B355" s="5">
+        <v>45982</v>
+      </c>
+      <c r="C355">
+        <v>21</v>
+      </c>
+      <c r="D355" t="s">
+        <v>46</v>
+      </c>
+      <c r="E355" t="str">
+        <f>VLOOKUP(D355,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F355" t="s">
+        <v>12</v>
+      </c>
+      <c r="G355">
+        <v>7</v>
+      </c>
+      <c r="H355">
+        <v>2</v>
+      </c>
+      <c r="I355">
+        <v>3</v>
+      </c>
+      <c r="J355" t="s">
+        <v>32</v>
+      </c>
+      <c r="K355" t="s">
+        <v>31</v>
+      </c>
+      <c r="L355">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="M355">
+        <v>6</v>
+      </c>
+      <c r="N355">
+        <v>5</v>
+      </c>
+      <c r="O355">
+        <v>6</v>
+      </c>
+      <c r="P355">
+        <v>6</v>
+      </c>
+      <c r="Q355">
+        <v>5</v>
+      </c>
+      <c r="R355">
+        <v>3</v>
+      </c>
+      <c r="S355">
+        <v>4</v>
+      </c>
+      <c r="T355">
+        <v>6</v>
+      </c>
+      <c r="U355">
+        <v>0</v>
+      </c>
+      <c r="V355">
+        <v>0</v>
+      </c>
+      <c r="W355">
+        <v>0</v>
+      </c>
+      <c r="X355">
+        <v>0</v>
+      </c>
+      <c r="Y355">
+        <v>0</v>
+      </c>
+      <c r="Z355">
+        <v>0</v>
+      </c>
+      <c r="AA355">
+        <v>0</v>
+      </c>
+      <c r="AB355">
+        <v>0</v>
+      </c>
+      <c r="AC355">
+        <v>1</v>
+      </c>
+      <c r="AD355">
+        <v>0</v>
+      </c>
+      <c r="AE355">
+        <v>0</v>
+      </c>
+      <c r="AF355">
+        <v>0</v>
+      </c>
+      <c r="AG355">
+        <v>0</v>
+      </c>
+      <c r="AH355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>2025</v>
+      </c>
+      <c r="B356" s="5">
+        <v>45982</v>
+      </c>
+      <c r="C356">
+        <v>21</v>
+      </c>
+      <c r="D356" t="s">
+        <v>46</v>
+      </c>
+      <c r="E356" t="str">
+        <f>VLOOKUP(D356,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F356" t="s">
+        <v>13</v>
+      </c>
+      <c r="G356">
+        <v>10</v>
+      </c>
+      <c r="H356">
+        <v>3</v>
+      </c>
+      <c r="I356">
+        <v>2</v>
+      </c>
+      <c r="J356" t="s">
+        <v>37</v>
+      </c>
+      <c r="K356" t="s">
+        <v>31</v>
+      </c>
+      <c r="L356">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="M356">
+        <v>6</v>
+      </c>
+      <c r="N356">
+        <v>4</v>
+      </c>
+      <c r="O356">
+        <v>9</v>
+      </c>
+      <c r="P356">
+        <v>8</v>
+      </c>
+      <c r="Q356">
+        <v>0</v>
+      </c>
+      <c r="R356">
+        <v>6</v>
+      </c>
+      <c r="S356">
+        <v>4</v>
+      </c>
+      <c r="T356">
+        <v>9</v>
+      </c>
+      <c r="U356">
+        <v>0</v>
+      </c>
+      <c r="V356">
+        <v>0</v>
+      </c>
+      <c r="W356">
+        <v>0</v>
+      </c>
+      <c r="X356">
+        <v>0</v>
+      </c>
+      <c r="Y356">
+        <v>0</v>
+      </c>
+      <c r="Z356">
+        <v>0</v>
+      </c>
+      <c r="AA356">
+        <v>0</v>
+      </c>
+      <c r="AB356">
+        <v>0</v>
+      </c>
+      <c r="AC356">
+        <v>0</v>
+      </c>
+      <c r="AD356">
+        <v>1</v>
+      </c>
+      <c r="AE356">
+        <v>0</v>
+      </c>
+      <c r="AF356">
+        <v>0</v>
+      </c>
+      <c r="AG356">
+        <v>0</v>
+      </c>
+      <c r="AH356">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88b1f18c208c1b3c/Documents/CatanData/catan_data/catan_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="980" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{296E64F1-4200-4586-ADDC-D6A38B1564EF}"/>
+  <xr:revisionPtr revIDLastSave="1074" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09901BAB-FC1C-479F-BCEF-11A75D7D6DD1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="79">
   <si>
     <t>season</t>
   </si>
@@ -656,13 +656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP356"/>
+  <dimension ref="A1:AP359"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J341" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J335" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J355" sqref="J355"/>
+      <selection pane="bottomRight" activeCell="J359" sqref="J359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33568,7 +33568,7 @@
         <v>31</v>
       </c>
       <c r="L316">
-        <f t="shared" ref="L316:L356" si="6">SUM(O316:V316)</f>
+        <f t="shared" ref="L316:L359" si="6">SUM(O316:V316)</f>
         <v>32</v>
       </c>
       <c r="M316">
@@ -37875,6 +37875,324 @@
         <v>0</v>
       </c>
       <c r="AH356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>2025</v>
+      </c>
+      <c r="B357" s="5">
+        <v>45982</v>
+      </c>
+      <c r="C357">
+        <v>22</v>
+      </c>
+      <c r="D357" t="s">
+        <v>46</v>
+      </c>
+      <c r="E357" t="str">
+        <f>VLOOKUP(D357,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F357" t="s">
+        <v>12</v>
+      </c>
+      <c r="G357">
+        <v>10</v>
+      </c>
+      <c r="H357">
+        <v>2</v>
+      </c>
+      <c r="I357">
+        <v>2</v>
+      </c>
+      <c r="J357" t="s">
+        <v>36</v>
+      </c>
+      <c r="K357" t="s">
+        <v>31</v>
+      </c>
+      <c r="L357">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="M357">
+        <v>5</v>
+      </c>
+      <c r="N357">
+        <v>5</v>
+      </c>
+      <c r="O357">
+        <v>5</v>
+      </c>
+      <c r="P357">
+        <v>3</v>
+      </c>
+      <c r="Q357">
+        <v>6</v>
+      </c>
+      <c r="R357">
+        <v>6</v>
+      </c>
+      <c r="S357">
+        <v>3</v>
+      </c>
+      <c r="T357">
+        <v>5</v>
+      </c>
+      <c r="U357">
+        <v>0</v>
+      </c>
+      <c r="V357">
+        <v>2</v>
+      </c>
+      <c r="W357">
+        <v>0</v>
+      </c>
+      <c r="X357">
+        <v>0</v>
+      </c>
+      <c r="Y357">
+        <v>0</v>
+      </c>
+      <c r="Z357">
+        <v>0</v>
+      </c>
+      <c r="AA357">
+        <v>0</v>
+      </c>
+      <c r="AB357">
+        <v>0</v>
+      </c>
+      <c r="AC357">
+        <v>0</v>
+      </c>
+      <c r="AD357">
+        <v>0</v>
+      </c>
+      <c r="AE357">
+        <v>0</v>
+      </c>
+      <c r="AF357">
+        <v>0</v>
+      </c>
+      <c r="AG357">
+        <v>0</v>
+      </c>
+      <c r="AH357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>2025</v>
+      </c>
+      <c r="B358" s="5">
+        <v>45982</v>
+      </c>
+      <c r="C358">
+        <v>22</v>
+      </c>
+      <c r="D358" t="s">
+        <v>46</v>
+      </c>
+      <c r="E358" t="str">
+        <f>VLOOKUP(D358,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F358" t="s">
+        <v>13</v>
+      </c>
+      <c r="G358">
+        <v>8</v>
+      </c>
+      <c r="H358">
+        <v>2</v>
+      </c>
+      <c r="I358">
+        <v>3</v>
+      </c>
+      <c r="J358" t="s">
+        <v>32</v>
+      </c>
+      <c r="K358" t="s">
+        <v>31</v>
+      </c>
+      <c r="L358">
+        <f>SUM(O358:V358)</f>
+        <v>34</v>
+      </c>
+      <c r="M358">
+        <v>6</v>
+      </c>
+      <c r="N358">
+        <v>3</v>
+      </c>
+      <c r="O358">
+        <v>8</v>
+      </c>
+      <c r="P358">
+        <v>0</v>
+      </c>
+      <c r="Q358">
+        <v>0</v>
+      </c>
+      <c r="R358">
+        <v>12</v>
+      </c>
+      <c r="S358">
+        <v>9</v>
+      </c>
+      <c r="T358">
+        <v>0</v>
+      </c>
+      <c r="U358">
+        <v>5</v>
+      </c>
+      <c r="V358">
+        <v>0</v>
+      </c>
+      <c r="W358">
+        <v>0</v>
+      </c>
+      <c r="X358">
+        <v>0</v>
+      </c>
+      <c r="Y358">
+        <v>0</v>
+      </c>
+      <c r="Z358">
+        <v>0</v>
+      </c>
+      <c r="AA358">
+        <v>0</v>
+      </c>
+      <c r="AB358">
+        <v>0</v>
+      </c>
+      <c r="AC358">
+        <v>0</v>
+      </c>
+      <c r="AD358">
+        <v>0</v>
+      </c>
+      <c r="AE358">
+        <v>0</v>
+      </c>
+      <c r="AF358">
+        <v>1</v>
+      </c>
+      <c r="AG358">
+        <v>0</v>
+      </c>
+      <c r="AH358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>2025</v>
+      </c>
+      <c r="B359" s="5">
+        <v>45982</v>
+      </c>
+      <c r="C359">
+        <v>22</v>
+      </c>
+      <c r="D359" t="s">
+        <v>46</v>
+      </c>
+      <c r="E359" t="str">
+        <f>VLOOKUP(D359,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F359" t="s">
+        <v>11</v>
+      </c>
+      <c r="G359">
+        <v>14</v>
+      </c>
+      <c r="H359">
+        <v>8</v>
+      </c>
+      <c r="I359">
+        <v>1</v>
+      </c>
+      <c r="J359" t="s">
+        <v>37</v>
+      </c>
+      <c r="K359" t="s">
+        <v>31</v>
+      </c>
+      <c r="L359">
+        <f>SUM(O359:V359)</f>
+        <v>31</v>
+      </c>
+      <c r="M359">
+        <v>6</v>
+      </c>
+      <c r="N359">
+        <v>4</v>
+      </c>
+      <c r="O359">
+        <v>7</v>
+      </c>
+      <c r="P359">
+        <v>0</v>
+      </c>
+      <c r="Q359">
+        <v>9</v>
+      </c>
+      <c r="R359">
+        <v>4</v>
+      </c>
+      <c r="S359">
+        <v>3</v>
+      </c>
+      <c r="T359">
+        <v>5</v>
+      </c>
+      <c r="U359">
+        <v>3</v>
+      </c>
+      <c r="V359">
+        <v>0</v>
+      </c>
+      <c r="W359">
+        <v>0</v>
+      </c>
+      <c r="X359">
+        <v>0</v>
+      </c>
+      <c r="Y359">
+        <v>0</v>
+      </c>
+      <c r="Z359">
+        <v>0</v>
+      </c>
+      <c r="AA359">
+        <v>0</v>
+      </c>
+      <c r="AB359">
+        <v>0</v>
+      </c>
+      <c r="AC359">
+        <v>0</v>
+      </c>
+      <c r="AD359">
+        <v>0</v>
+      </c>
+      <c r="AE359">
+        <v>0</v>
+      </c>
+      <c r="AF359">
+        <v>0</v>
+      </c>
+      <c r="AG359">
+        <v>1</v>
+      </c>
+      <c r="AH359">
         <v>0</v>
       </c>
     </row>

--- a/catan_data.xlsx
+++ b/catan_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88b1f18c208c1b3c/Documents/CatanData/catan_data/catan_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfu\OneDrive\Documents\CatanData\catan_data\catan_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1074" documentId="13_ncr:1_{28B5167E-7F82-4FB9-A91C-A7095E3977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09901BAB-FC1C-479F-BCEF-11A75D7D6DD1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE434BB-4BBF-4ED1-8FB9-9E48A15C8776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{83B30B11-FE95-4925-9DB4-CCB67C570BD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="79">
   <si>
     <t>season</t>
   </si>
@@ -355,10 +355,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
@@ -656,13 +652,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8635BA-0A9D-4832-9FDC-B5CDD32D9D6C}">
-  <dimension ref="A1:AP359"/>
+  <dimension ref="A1:AP362"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J335" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J345" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J359" sqref="J359"/>
+      <selection pane="bottomRight" activeCell="J362" sqref="J362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33568,7 +33564,7 @@
         <v>31</v>
       </c>
       <c r="L316">
-        <f t="shared" ref="L316:L359" si="6">SUM(O316:V316)</f>
+        <f t="shared" ref="L316:L357" si="6">SUM(O316:V316)</f>
         <v>32</v>
       </c>
       <c r="M316">
@@ -38194,6 +38190,324 @@
       </c>
       <c r="AH359">
         <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>2025</v>
+      </c>
+      <c r="B360" s="5">
+        <v>45982</v>
+      </c>
+      <c r="C360">
+        <v>23</v>
+      </c>
+      <c r="D360" t="s">
+        <v>46</v>
+      </c>
+      <c r="E360" t="str">
+        <f>VLOOKUP(D360,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F360" t="s">
+        <v>13</v>
+      </c>
+      <c r="G360">
+        <v>11</v>
+      </c>
+      <c r="H360">
+        <v>4</v>
+      </c>
+      <c r="I360">
+        <v>3</v>
+      </c>
+      <c r="J360" t="s">
+        <v>36</v>
+      </c>
+      <c r="K360" t="s">
+        <v>31</v>
+      </c>
+      <c r="L360">
+        <f t="shared" ref="L360:L362" si="7">SUM(O360:V360)</f>
+        <v>30</v>
+      </c>
+      <c r="M360">
+        <v>6</v>
+      </c>
+      <c r="N360">
+        <v>4</v>
+      </c>
+      <c r="O360">
+        <v>4</v>
+      </c>
+      <c r="P360">
+        <v>0</v>
+      </c>
+      <c r="Q360">
+        <v>4</v>
+      </c>
+      <c r="R360">
+        <v>4</v>
+      </c>
+      <c r="S360">
+        <v>9</v>
+      </c>
+      <c r="T360">
+        <v>4</v>
+      </c>
+      <c r="U360">
+        <v>4</v>
+      </c>
+      <c r="V360">
+        <v>1</v>
+      </c>
+      <c r="W360">
+        <v>0</v>
+      </c>
+      <c r="X360">
+        <v>0</v>
+      </c>
+      <c r="Y360">
+        <v>0</v>
+      </c>
+      <c r="Z360">
+        <v>0</v>
+      </c>
+      <c r="AA360">
+        <v>0</v>
+      </c>
+      <c r="AB360">
+        <v>0</v>
+      </c>
+      <c r="AC360">
+        <v>0</v>
+      </c>
+      <c r="AD360">
+        <v>0</v>
+      </c>
+      <c r="AE360">
+        <v>1</v>
+      </c>
+      <c r="AF360">
+        <v>0</v>
+      </c>
+      <c r="AG360">
+        <v>0</v>
+      </c>
+      <c r="AH360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>2025</v>
+      </c>
+      <c r="B361" s="5">
+        <v>45982</v>
+      </c>
+      <c r="C361">
+        <v>23</v>
+      </c>
+      <c r="D361" t="s">
+        <v>46</v>
+      </c>
+      <c r="E361" t="str">
+        <f>VLOOKUP(D361,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F361" t="s">
+        <v>12</v>
+      </c>
+      <c r="G361">
+        <v>13</v>
+      </c>
+      <c r="H361">
+        <v>3</v>
+      </c>
+      <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="J361" t="s">
+        <v>32</v>
+      </c>
+      <c r="K361" t="s">
+        <v>31</v>
+      </c>
+      <c r="L361">
+        <f>SUM(O361:V361)</f>
+        <v>34</v>
+      </c>
+      <c r="M361">
+        <v>5</v>
+      </c>
+      <c r="N361">
+        <v>4</v>
+      </c>
+      <c r="O361">
+        <v>4</v>
+      </c>
+      <c r="P361">
+        <v>3</v>
+      </c>
+      <c r="Q361">
+        <v>2</v>
+      </c>
+      <c r="R361">
+        <v>23</v>
+      </c>
+      <c r="S361">
+        <v>0</v>
+      </c>
+      <c r="T361">
+        <v>0</v>
+      </c>
+      <c r="U361">
+        <v>0</v>
+      </c>
+      <c r="V361">
+        <v>2</v>
+      </c>
+      <c r="W361">
+        <v>0</v>
+      </c>
+      <c r="X361">
+        <v>0</v>
+      </c>
+      <c r="Y361">
+        <v>0</v>
+      </c>
+      <c r="Z361">
+        <v>0</v>
+      </c>
+      <c r="AA361">
+        <v>0</v>
+      </c>
+      <c r="AB361">
+        <v>0</v>
+      </c>
+      <c r="AC361">
+        <v>0</v>
+      </c>
+      <c r="AD361">
+        <v>0</v>
+      </c>
+      <c r="AE361">
+        <v>0</v>
+      </c>
+      <c r="AF361">
+        <v>0</v>
+      </c>
+      <c r="AG361">
+        <v>0</v>
+      </c>
+      <c r="AH361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <v>2025</v>
+      </c>
+      <c r="B362" s="5">
+        <v>45982</v>
+      </c>
+      <c r="C362">
+        <v>23</v>
+      </c>
+      <c r="D362" t="s">
+        <v>46</v>
+      </c>
+      <c r="E362" t="str">
+        <f>VLOOKUP(D362,Sheet2!$I$1:$J$12,2,FALSE)</f>
+        <v>54.491864, 9.030382</v>
+      </c>
+      <c r="F362" t="s">
+        <v>11</v>
+      </c>
+      <c r="G362">
+        <v>12</v>
+      </c>
+      <c r="H362">
+        <v>5</v>
+      </c>
+      <c r="I362">
+        <v>2</v>
+      </c>
+      <c r="J362" t="s">
+        <v>37</v>
+      </c>
+      <c r="K362" t="s">
+        <v>31</v>
+      </c>
+      <c r="L362">
+        <f>SUM(O362:V362)</f>
+        <v>36</v>
+      </c>
+      <c r="M362">
+        <v>4</v>
+      </c>
+      <c r="N362">
+        <v>5</v>
+      </c>
+      <c r="O362">
+        <v>3</v>
+      </c>
+      <c r="P362">
+        <v>4</v>
+      </c>
+      <c r="Q362">
+        <v>8</v>
+      </c>
+      <c r="R362">
+        <v>5</v>
+      </c>
+      <c r="S362">
+        <v>4</v>
+      </c>
+      <c r="T362">
+        <v>0</v>
+      </c>
+      <c r="U362">
+        <v>4</v>
+      </c>
+      <c r="V362">
+        <v>8</v>
+      </c>
+      <c r="W362">
+        <v>0</v>
+      </c>
+      <c r="X362">
+        <v>0</v>
+      </c>
+      <c r="Y362">
+        <v>0</v>
+      </c>
+      <c r="Z362">
+        <v>0</v>
+      </c>
+      <c r="AA362">
+        <v>0</v>
+      </c>
+      <c r="AB362">
+        <v>0</v>
+      </c>
+      <c r="AC362">
+        <v>0</v>
+      </c>
+      <c r="AD362">
+        <v>0</v>
+      </c>
+      <c r="AE362">
+        <v>0</v>
+      </c>
+      <c r="AF362">
+        <v>0</v>
+      </c>
+      <c r="AG362">
+        <v>0</v>
+      </c>
+      <c r="AH362">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
